--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203C523A-6424-4E05-9B4A-784206CCDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C7844-5A8B-4196-AC5E-6A93D050825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1513,6 +1513,506 @@
         <v>990000</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10200</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10400</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>910000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10600</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>920000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>930000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>11000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>940000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11200</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>950000</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>11400</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>960000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>11600</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>970000</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1070000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>11800</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>980000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>990000</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1090000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>12200</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>12400</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1110000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12600</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1020000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1120000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1030000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1130000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>13000</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>13200</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>13400</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1060000</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1160000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>13600</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1070000</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>13800</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1080000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1180000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1090000</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1190000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>14200</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>14400</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1110000</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1210000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>14600</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1220000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>14800</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1130000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1140000</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1240000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C7844-5A8B-4196-AC5E-6A93D050825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9680F6-A04B-4FBD-A0B0-9892200079C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6585" yWindow="3420" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2013,6 +2013,506 @@
         <v>1240000</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>15200</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1150000</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15400</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>15600</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1170000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>15800</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1280000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1190000</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>16200</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>16400</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1310000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>16600</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1220000</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>16800</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1230000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1330000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1340000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>17200</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>17400</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1260000</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>17600</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1370000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>17800</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1280000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1380000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1290000</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1390000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>18200</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>18400</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1310000</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1410000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>18600</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1420000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>18800</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1330000</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>19000</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1340000</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>19200</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1350000</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>19400</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1460000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>19600</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1370000</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1380000</v>
+      </c>
+      <c r="E101" s="2">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1390000</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1490000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9680F6-A04B-4FBD-A0B0-9892200079C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02749C30-973A-4BF5-9F1E-9F8094E41DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="3420" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2513,6 +2513,1006 @@
         <v>1490000</v>
       </c>
     </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>20200</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>20400</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1410000</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1510000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>20600</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1420000</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>20800</v>
+      </c>
+      <c r="C106" s="2">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>14</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>21000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1540000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>21200</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1450000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>21400</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1460000</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>21600</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1470000</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1570000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>21800</v>
+      </c>
+      <c r="C111" s="2">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
+        <v>14</v>
+      </c>
+      <c r="F111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>22000</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1490000</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1590000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>22200</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>22400</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1510000</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>22600</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>22800</v>
+      </c>
+      <c r="C116" s="2">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2">
+        <v>14</v>
+      </c>
+      <c r="F116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1540000</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1640000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>23200</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1550000</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>23400</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1660000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>23600</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1570000</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C121" s="2">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2">
+        <v>14</v>
+      </c>
+      <c r="F121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>24000</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1590000</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1690000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>24200</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>24400</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1610000</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>24600</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1720000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>24800</v>
+      </c>
+      <c r="C126" s="2">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2">
+        <v>14</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1640000</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1740000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>25200</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1650000</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>25400</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1660000</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1760000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>25600</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1670000</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1770000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>25800</v>
+      </c>
+      <c r="C131" s="2">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2">
+        <v>14</v>
+      </c>
+      <c r="F131" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>26000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1690000</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1790000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>26200</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>26400</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1710000</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1810000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>26600</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1720000</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>26800</v>
+      </c>
+      <c r="C136" s="2">
+        <v>14</v>
+      </c>
+      <c r="D136" s="2">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>27000</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1740000</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1840000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>27200</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1750000</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>27400</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1860000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>27600</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1770000</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>27800</v>
+      </c>
+      <c r="C141" s="2">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
+        <v>14</v>
+      </c>
+      <c r="F141" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>28000</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1790000</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1890000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>28200</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>28400</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1810000</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1910000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>28600</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1820000</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1920000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>28800</v>
+      </c>
+      <c r="C146" s="2">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2">
+        <v>14</v>
+      </c>
+      <c r="F146" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>29000</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1840000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1940000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>29200</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1850000</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>29400</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1860000</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1960000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>29600</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1870000</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1970000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>29800</v>
+      </c>
+      <c r="C151" s="2">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2">
+        <v>3</v>
+      </c>
+      <c r="E151" s="2">
+        <v>14</v>
+      </c>
+      <c r="F151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1990000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02749C30-973A-4BF5-9F1E-9F8094E41DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51240A-A474-48C6-AA70-FBFDAE9979D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>reward2_Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passGrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -473,7 +478,7 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +497,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -512,8 +520,11 @@
       <c r="F2" s="1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,8 +543,11 @@
       <c r="F3" s="1">
         <v>510000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -552,8 +566,11 @@
       <c r="F4" s="1">
         <v>520000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -572,8 +589,11 @@
       <c r="F5" s="1">
         <v>530000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -592,8 +612,11 @@
       <c r="F6" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -612,8 +635,11 @@
       <c r="F7" s="1">
         <v>550000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -632,8 +658,11 @@
       <c r="F8" s="1">
         <v>560000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -652,8 +681,11 @@
       <c r="F9" s="1">
         <v>570000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -672,8 +704,11 @@
       <c r="F10" s="1">
         <v>580000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -692,8 +727,11 @@
       <c r="F11" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -712,8 +750,11 @@
       <c r="F12" s="1">
         <v>600000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -732,8 +773,11 @@
       <c r="F13" s="1">
         <v>610000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -752,8 +796,11 @@
       <c r="F14" s="1">
         <v>620000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -772,8 +819,11 @@
       <c r="F15" s="1">
         <v>630000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -792,8 +842,11 @@
       <c r="F16" s="2">
         <v>350000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -812,8 +865,11 @@
       <c r="F17" s="1">
         <v>650000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -832,8 +888,11 @@
       <c r="F18" s="1">
         <v>660000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -852,8 +911,11 @@
       <c r="F19" s="1">
         <v>670000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -872,8 +934,11 @@
       <c r="F20" s="1">
         <v>680000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -892,8 +957,11 @@
       <c r="F21" s="2">
         <v>450000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -912,8 +980,11 @@
       <c r="F22" s="1">
         <v>700000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -932,8 +1003,11 @@
       <c r="F23" s="1">
         <v>710000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -952,8 +1026,11 @@
       <c r="F24" s="1">
         <v>720000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -972,8 +1049,11 @@
       <c r="F25" s="1">
         <v>730000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -992,8 +1072,11 @@
       <c r="F26" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1012,8 +1095,11 @@
       <c r="F27" s="1">
         <v>750000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1032,8 +1118,11 @@
       <c r="F28" s="1">
         <v>760000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1052,8 +1141,11 @@
       <c r="F29" s="1">
         <v>770000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1072,8 +1164,11 @@
       <c r="F30" s="1">
         <v>780000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1092,8 +1187,11 @@
       <c r="F31" s="2">
         <v>550000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1112,8 +1210,11 @@
       <c r="F32" s="1">
         <v>800000</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1132,8 +1233,11 @@
       <c r="F33" s="1">
         <v>810000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1152,8 +1256,11 @@
       <c r="F34" s="1">
         <v>820000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1172,8 +1279,11 @@
       <c r="F35" s="1">
         <v>830000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1192,8 +1302,11 @@
       <c r="F36" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1212,8 +1325,11 @@
       <c r="F37" s="1">
         <v>850000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1232,8 +1348,11 @@
       <c r="F38" s="1">
         <v>860000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1252,8 +1371,11 @@
       <c r="F39" s="1">
         <v>870000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1272,8 +1394,11 @@
       <c r="F40" s="1">
         <v>880000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1292,8 +1417,11 @@
       <c r="F41" s="2">
         <v>650000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1312,8 +1440,11 @@
       <c r="F42" s="1">
         <v>900000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1332,8 +1463,11 @@
       <c r="F43" s="1">
         <v>910000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1352,8 +1486,11 @@
       <c r="F44" s="1">
         <v>920000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1372,8 +1509,11 @@
       <c r="F45" s="1">
         <v>930000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1392,8 +1532,11 @@
       <c r="F46" s="2">
         <v>700000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1412,8 +1555,11 @@
       <c r="F47" s="1">
         <v>950000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1432,8 +1578,11 @@
       <c r="F48" s="1">
         <v>960000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1452,8 +1601,11 @@
       <c r="F49" s="1">
         <v>970000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1472,8 +1624,11 @@
       <c r="F50" s="1">
         <v>980000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1492,8 +1647,11 @@
       <c r="F51" s="2">
         <v>750000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1512,8 +1670,11 @@
       <c r="F52" s="1">
         <v>990000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1532,8 +1693,11 @@
       <c r="F53" s="1">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1552,8 +1716,11 @@
       <c r="F54" s="1">
         <v>1010000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1572,8 +1739,11 @@
       <c r="F55" s="1">
         <v>1020000</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1592,8 +1762,11 @@
       <c r="F56" s="2">
         <v>1030000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1612,8 +1785,11 @@
       <c r="F57" s="1">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1632,8 +1808,11 @@
       <c r="F58" s="1">
         <v>1050000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1652,8 +1831,11 @@
       <c r="F59" s="1">
         <v>1060000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1672,8 +1854,11 @@
       <c r="F60" s="1">
         <v>1070000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -1692,8 +1877,11 @@
       <c r="F61" s="2">
         <v>1080000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1712,8 +1900,11 @@
       <c r="F62" s="1">
         <v>1090000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1732,8 +1923,11 @@
       <c r="F63" s="1">
         <v>1100000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1752,8 +1946,11 @@
       <c r="F64" s="1">
         <v>1110000</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1772,8 +1969,11 @@
       <c r="F65" s="1">
         <v>1120000</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -1792,8 +1992,11 @@
       <c r="F66" s="2">
         <v>1130000</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1812,8 +2015,11 @@
       <c r="F67" s="1">
         <v>1140000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1832,8 +2038,11 @@
       <c r="F68" s="1">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1852,8 +2061,11 @@
       <c r="F69" s="1">
         <v>1160000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1872,8 +2084,11 @@
       <c r="F70" s="1">
         <v>1170000</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -1892,8 +2107,11 @@
       <c r="F71" s="2">
         <v>1180000</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1912,8 +2130,11 @@
       <c r="F72" s="1">
         <v>1190000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1932,8 +2153,11 @@
       <c r="F73" s="1">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1952,8 +2176,11 @@
       <c r="F74" s="1">
         <v>1210000</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1972,8 +2199,11 @@
       <c r="F75" s="1">
         <v>1220000</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -1992,8 +2222,11 @@
       <c r="F76" s="2">
         <v>1230000</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2012,8 +2245,11 @@
       <c r="F77" s="1">
         <v>1240000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2032,8 +2268,11 @@
       <c r="F78" s="1">
         <v>1250000</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2052,8 +2291,11 @@
       <c r="F79" s="1">
         <v>1260000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2072,8 +2314,11 @@
       <c r="F80" s="1">
         <v>1270000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2092,8 +2337,11 @@
       <c r="F81" s="2">
         <v>1280000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2112,8 +2360,11 @@
       <c r="F82" s="1">
         <v>1290000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2132,8 +2383,11 @@
       <c r="F83" s="1">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2152,8 +2406,11 @@
       <c r="F84" s="1">
         <v>1310000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2172,8 +2429,11 @@
       <c r="F85" s="1">
         <v>1320000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2192,8 +2452,11 @@
       <c r="F86" s="2">
         <v>1330000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2212,8 +2475,11 @@
       <c r="F87" s="1">
         <v>1340000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2232,8 +2498,11 @@
       <c r="F88" s="1">
         <v>1350000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2252,8 +2521,11 @@
       <c r="F89" s="1">
         <v>1360000</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2272,8 +2544,11 @@
       <c r="F90" s="1">
         <v>1370000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -2292,8 +2567,11 @@
       <c r="F91" s="2">
         <v>1380000</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2312,8 +2590,11 @@
       <c r="F92" s="1">
         <v>1390000</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2332,8 +2613,11 @@
       <c r="F93" s="1">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2352,8 +2636,11 @@
       <c r="F94" s="1">
         <v>1410000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2372,8 +2659,11 @@
       <c r="F95" s="1">
         <v>1420000</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -2392,8 +2682,11 @@
       <c r="F96" s="2">
         <v>1430000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2412,8 +2705,11 @@
       <c r="F97" s="1">
         <v>1440000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2432,8 +2728,11 @@
       <c r="F98" s="1">
         <v>1450000</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2452,8 +2751,11 @@
       <c r="F99" s="1">
         <v>1460000</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2472,8 +2774,11 @@
       <c r="F100" s="1">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -2492,8 +2797,11 @@
       <c r="F101" s="2">
         <v>1480000</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2512,8 +2820,11 @@
       <c r="F102" s="1">
         <v>1490000</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2532,8 +2843,11 @@
       <c r="F103" s="1">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2552,8 +2866,11 @@
       <c r="F104" s="1">
         <v>1510000</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2572,8 +2889,11 @@
       <c r="F105" s="1">
         <v>1520000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -2592,8 +2912,11 @@
       <c r="F106" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2612,8 +2935,11 @@
       <c r="F107" s="1">
         <v>1540000</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2632,8 +2958,11 @@
       <c r="F108" s="1">
         <v>1550000</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2652,8 +2981,11 @@
       <c r="F109" s="1">
         <v>1560000</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2672,8 +3004,11 @@
       <c r="F110" s="1">
         <v>1570000</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -2692,8 +3027,11 @@
       <c r="F111" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2712,8 +3050,11 @@
       <c r="F112" s="1">
         <v>1590000</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2732,8 +3073,11 @@
       <c r="F113" s="1">
         <v>1600000</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2752,8 +3096,11 @@
       <c r="F114" s="1">
         <v>1610000</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2772,8 +3119,11 @@
       <c r="F115" s="1">
         <v>1620000</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -2792,8 +3142,11 @@
       <c r="F116" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2812,8 +3165,11 @@
       <c r="F117" s="1">
         <v>1640000</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2832,8 +3188,11 @@
       <c r="F118" s="1">
         <v>1650000</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2852,8 +3211,11 @@
       <c r="F119" s="1">
         <v>1660000</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2872,8 +3234,11 @@
       <c r="F120" s="1">
         <v>1670000</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -2892,8 +3257,11 @@
       <c r="F121" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2912,8 +3280,11 @@
       <c r="F122" s="1">
         <v>1690000</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2932,8 +3303,11 @@
       <c r="F123" s="1">
         <v>1700000</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2952,8 +3326,11 @@
       <c r="F124" s="1">
         <v>1710000</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2972,8 +3349,11 @@
       <c r="F125" s="1">
         <v>1720000</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -2992,8 +3372,11 @@
       <c r="F126" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3012,8 +3395,11 @@
       <c r="F127" s="1">
         <v>1740000</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3032,8 +3418,11 @@
       <c r="F128" s="1">
         <v>1750000</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3052,8 +3441,11 @@
       <c r="F129" s="1">
         <v>1760000</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3072,8 +3464,11 @@
       <c r="F130" s="1">
         <v>1770000</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -3092,8 +3487,11 @@
       <c r="F131" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3112,8 +3510,11 @@
       <c r="F132" s="1">
         <v>1790000</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3132,8 +3533,11 @@
       <c r="F133" s="1">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3152,8 +3556,11 @@
       <c r="F134" s="1">
         <v>1810000</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3172,8 +3579,11 @@
       <c r="F135" s="1">
         <v>1820000</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -3192,8 +3602,11 @@
       <c r="F136" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3212,8 +3625,11 @@
       <c r="F137" s="1">
         <v>1840000</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3232,8 +3648,11 @@
       <c r="F138" s="1">
         <v>1850000</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3252,8 +3671,11 @@
       <c r="F139" s="1">
         <v>1860000</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3272,8 +3694,11 @@
       <c r="F140" s="1">
         <v>1870000</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -3292,8 +3717,11 @@
       <c r="F141" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3312,8 +3740,11 @@
       <c r="F142" s="1">
         <v>1890000</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3332,8 +3763,11 @@
       <c r="F143" s="1">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3352,8 +3786,11 @@
       <c r="F144" s="1">
         <v>1910000</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3372,8 +3809,11 @@
       <c r="F145" s="1">
         <v>1920000</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -3392,8 +3832,11 @@
       <c r="F146" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3412,8 +3855,11 @@
       <c r="F147" s="1">
         <v>1940000</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3432,8 +3878,11 @@
       <c r="F148" s="1">
         <v>1950000</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3452,8 +3901,11 @@
       <c r="F149" s="1">
         <v>1960000</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3472,8 +3924,11 @@
       <c r="F150" s="1">
         <v>1970000</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -3492,8 +3947,11 @@
       <c r="F151" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3511,6 +3969,3459 @@
       </c>
       <c r="F152" s="1">
         <v>1990000</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>30200</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>30400</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1910000</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>2010000</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>30600</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1920000</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>2020000</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>30800</v>
+      </c>
+      <c r="C156" s="2">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1930000</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>31000</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1940000</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2040000</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>31200</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1950000</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2050000</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>31400</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1960000</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1">
+        <v>2060000</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>31600</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1970000</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2070000</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>31800</v>
+      </c>
+      <c r="C161" s="2">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1980000</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2">
+        <v>2080000</v>
+      </c>
+      <c r="G161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>32000</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1990000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2090000</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>32200</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>32400</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2010000</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <v>2110000</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>32600</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2020000</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2120000</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>32800</v>
+      </c>
+      <c r="C166" s="2">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+      <c r="F166" s="2">
+        <v>2130000</v>
+      </c>
+      <c r="G166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>33000</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2040000</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2140000</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>33200</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2050000</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <v>2150000</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>33400</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2060000</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2160000</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>33600</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2070000</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2170000</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>33800</v>
+      </c>
+      <c r="C171" s="2">
+        <v>14</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2080000</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+      <c r="F171" s="2">
+        <v>2180000</v>
+      </c>
+      <c r="G171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>34000</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2090000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2190000</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>34200</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
+        <v>34400</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2110000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="G174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>34600</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2120000</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2220000</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>34800</v>
+      </c>
+      <c r="C176" s="2">
+        <v>14</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2130000</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
+        <v>2230000</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2140000</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>35200</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2150000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
+        <v>35400</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2160000</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2260000</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>35600</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2170000</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2270000</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>35800</v>
+      </c>
+      <c r="C181" s="2">
+        <v>14</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2180000</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1</v>
+      </c>
+      <c r="F181" s="2">
+        <v>2280000</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>36000</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2190000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2290000</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1">
+        <v>36200</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>36400</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2310000</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>36600</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2220000</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>2320000</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>36800</v>
+      </c>
+      <c r="C186" s="2">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2230000</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+      <c r="F186" s="2">
+        <v>2330000</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
+        <v>37000</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2340000</v>
+      </c>
+      <c r="G187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>37200</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2350000</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>37400</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2260000</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2360000</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>37600</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2270000</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2370000</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>37800</v>
+      </c>
+      <c r="C191" s="2">
+        <v>14</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2280000</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F191" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="G191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1">
+        <v>38000</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2290000</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2390000</v>
+      </c>
+      <c r="G192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>38200</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1">
+        <v>2400000</v>
+      </c>
+      <c r="G193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
+        <v>38400</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2310000</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
+        <v>2410000</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>38600</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2320000</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2420000</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>38800</v>
+      </c>
+      <c r="C196" s="2">
+        <v>14</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2330000</v>
+      </c>
+      <c r="E196" s="2">
+        <v>1</v>
+      </c>
+      <c r="F196" s="2">
+        <v>2430000</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
+        <v>39000</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2340000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2440000</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
+        <v>39200</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2350000</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>2450000</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>39400</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2360000</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199" s="1">
+        <v>2460000</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>39600</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2370000</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>2470000</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>39800</v>
+      </c>
+      <c r="C201" s="2">
+        <v>14</v>
+      </c>
+      <c r="D201" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1</v>
+      </c>
+      <c r="F201" s="2">
+        <v>2480000</v>
+      </c>
+      <c r="G201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2390000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>2490000</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>40200</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2400000</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="G203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>40400</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2410000</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <v>2510000</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>40600</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2420000</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1">
+        <v>2520000</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>40800</v>
+      </c>
+      <c r="C206" s="2">
+        <v>14</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2430000</v>
+      </c>
+      <c r="E206" s="2">
+        <v>1</v>
+      </c>
+      <c r="F206" s="2">
+        <v>2530000</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>41000</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2440000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>2540000</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>41200</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2450000</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>2550000</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>41400</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2460000</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="G209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>41600</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2470000</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>2570000</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>41800</v>
+      </c>
+      <c r="C211" s="2">
+        <v>14</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2480000</v>
+      </c>
+      <c r="E211" s="2">
+        <v>1</v>
+      </c>
+      <c r="F211" s="2">
+        <v>2580000</v>
+      </c>
+      <c r="G211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2490000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>2590000</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>42200</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>42400</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2510000</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>2610000</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>42600</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2520000</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1">
+        <v>2620000</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>42800</v>
+      </c>
+      <c r="C216" s="2">
+        <v>14</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2530000</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1</v>
+      </c>
+      <c r="F216" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2540000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>2640000</v>
+      </c>
+      <c r="G217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>43200</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2550000</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>2650000</v>
+      </c>
+      <c r="G218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>43400</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1">
+        <v>2660000</v>
+      </c>
+      <c r="G219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>43600</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2570000</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>2670000</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C221" s="2">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2">
+        <v>2580000</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+      <c r="F221" s="2">
+        <v>2680000</v>
+      </c>
+      <c r="G221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>2590000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="G223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44400</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" s="1">
+        <v>2610000</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>2710000</v>
+      </c>
+      <c r="G224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44600</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2620000</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>2720000</v>
+      </c>
+      <c r="G225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>44800</v>
+      </c>
+      <c r="C226" s="2">
+        <v>14</v>
+      </c>
+      <c r="D226" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <v>2730000</v>
+      </c>
+      <c r="G226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1">
+        <v>2640000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227" s="1">
+        <v>2740000</v>
+      </c>
+      <c r="G227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2650000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1">
+        <v>2750000</v>
+      </c>
+      <c r="G228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45400</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2660000</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229" s="1">
+        <v>2760000</v>
+      </c>
+      <c r="G229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45600</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2670000</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1">
+        <v>2770000</v>
+      </c>
+      <c r="G230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>45800</v>
+      </c>
+      <c r="C231" s="2">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2">
+        <v>2680000</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1</v>
+      </c>
+      <c r="F231" s="2">
+        <v>2780000</v>
+      </c>
+      <c r="G231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>2790000</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>46200</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
+      <c r="F233" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="G233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>46400</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D234" s="1">
+        <v>2710000</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F234" s="1">
+        <v>2810000</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>46600</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2720000</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1">
+        <v>2820000</v>
+      </c>
+      <c r="G235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>46800</v>
+      </c>
+      <c r="C236" s="2">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2730000</v>
+      </c>
+      <c r="E236" s="2">
+        <v>1</v>
+      </c>
+      <c r="F236" s="2">
+        <v>2830000</v>
+      </c>
+      <c r="G236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>47000</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>2740000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>2840000</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>47200</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2750000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F238" s="1">
+        <v>2850000</v>
+      </c>
+      <c r="G238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>47400</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2760000</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239" s="1">
+        <v>2860000</v>
+      </c>
+      <c r="G239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>47600</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2770000</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1">
+        <v>2870000</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>47800</v>
+      </c>
+      <c r="C241" s="2">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2">
+        <v>2780000</v>
+      </c>
+      <c r="E241" s="2">
+        <v>1</v>
+      </c>
+      <c r="F241" s="2">
+        <v>2880000</v>
+      </c>
+      <c r="G241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>48000</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>2790000</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1">
+        <v>2890000</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>48200</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1</v>
+      </c>
+      <c r="F243" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="G243" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>48400</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2810000</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1">
+        <v>2910000</v>
+      </c>
+      <c r="G244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>48600</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="1">
+        <v>2820000</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1">
+        <v>2920000</v>
+      </c>
+      <c r="G245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>48800</v>
+      </c>
+      <c r="C246" s="2">
+        <v>14</v>
+      </c>
+      <c r="D246" s="2">
+        <v>2830000</v>
+      </c>
+      <c r="E246" s="2">
+        <v>1</v>
+      </c>
+      <c r="F246" s="2">
+        <v>2930000</v>
+      </c>
+      <c r="G246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>49000</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2840000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>2940000</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>49200</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>2850000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2950000</v>
+      </c>
+      <c r="G248" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>49400</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2860000</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2960000</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>49600</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>2870000</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1</v>
+      </c>
+      <c r="F250" s="1">
+        <v>2970000</v>
+      </c>
+      <c r="G250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>49800</v>
+      </c>
+      <c r="C251" s="2">
+        <v>14</v>
+      </c>
+      <c r="D251" s="2">
+        <v>2880000</v>
+      </c>
+      <c r="E251" s="2">
+        <v>1</v>
+      </c>
+      <c r="F251" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="G251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2890000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2990000</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>50200</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>50400</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2910000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1</v>
+      </c>
+      <c r="F254" s="1">
+        <v>3010000</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>50600</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255" s="1">
+        <v>2920000</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1</v>
+      </c>
+      <c r="F255" s="1">
+        <v>3020000</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>50800</v>
+      </c>
+      <c r="C256" s="2">
+        <v>14</v>
+      </c>
+      <c r="D256" s="2">
+        <v>2930000</v>
+      </c>
+      <c r="E256" s="2">
+        <v>1</v>
+      </c>
+      <c r="F256" s="2">
+        <v>3030000</v>
+      </c>
+      <c r="G256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>51000</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>2940000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F257" s="1">
+        <v>3040000</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
+        <v>51200</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>2950000</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F258" s="1">
+        <v>3050000</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>51400</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259" s="1">
+        <v>2960000</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1</v>
+      </c>
+      <c r="F259" s="1">
+        <v>3060000</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>51600</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="1">
+        <v>2970000</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1">
+        <v>3070000</v>
+      </c>
+      <c r="G260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>51800</v>
+      </c>
+      <c r="C261" s="2">
+        <v>14</v>
+      </c>
+      <c r="D261" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="E261" s="2">
+        <v>1</v>
+      </c>
+      <c r="F261" s="2">
+        <v>3080000</v>
+      </c>
+      <c r="G261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>52000</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>2990000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1">
+        <v>3090000</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>52200</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1</v>
+      </c>
+      <c r="F263" s="1">
+        <v>3100000</v>
+      </c>
+      <c r="G263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>52400</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" s="1">
+        <v>3010000</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F264" s="1">
+        <v>3110000</v>
+      </c>
+      <c r="G264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>52600</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1">
+        <v>3020000</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="1">
+        <v>3120000</v>
+      </c>
+      <c r="G265" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>52800</v>
+      </c>
+      <c r="C266" s="2">
+        <v>14</v>
+      </c>
+      <c r="D266" s="2">
+        <v>3030000</v>
+      </c>
+      <c r="E266" s="2">
+        <v>1</v>
+      </c>
+      <c r="F266" s="2">
+        <v>3130000</v>
+      </c>
+      <c r="G266" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>53000</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>3040000</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1</v>
+      </c>
+      <c r="F267" s="1">
+        <v>3140000</v>
+      </c>
+      <c r="G267" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>53200</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="1">
+        <v>3050000</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F268" s="1">
+        <v>3150000</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>53400</v>
+      </c>
+      <c r="C269" s="1">
+        <v>1</v>
+      </c>
+      <c r="D269" s="1">
+        <v>3060000</v>
+      </c>
+      <c r="E269" s="1">
+        <v>1</v>
+      </c>
+      <c r="F269" s="1">
+        <v>3160000</v>
+      </c>
+      <c r="G269" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>53600</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>3070000</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1</v>
+      </c>
+      <c r="F270" s="1">
+        <v>3170000</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>53800</v>
+      </c>
+      <c r="C271" s="2">
+        <v>14</v>
+      </c>
+      <c r="D271" s="2">
+        <v>3080000</v>
+      </c>
+      <c r="E271" s="2">
+        <v>1</v>
+      </c>
+      <c r="F271" s="2">
+        <v>3180000</v>
+      </c>
+      <c r="G271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>54000</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1">
+        <v>3090000</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1</v>
+      </c>
+      <c r="F272" s="1">
+        <v>3190000</v>
+      </c>
+      <c r="G272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>54200</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273" s="1">
+        <v>3100000</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1</v>
+      </c>
+      <c r="F273" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="G273" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>54400</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D274" s="1">
+        <v>3110000</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1</v>
+      </c>
+      <c r="F274" s="1">
+        <v>3210000</v>
+      </c>
+      <c r="G274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>54600</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1</v>
+      </c>
+      <c r="D275" s="1">
+        <v>3120000</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F275" s="1">
+        <v>3220000</v>
+      </c>
+      <c r="G275" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>54800</v>
+      </c>
+      <c r="C276" s="2">
+        <v>14</v>
+      </c>
+      <c r="D276" s="2">
+        <v>3130000</v>
+      </c>
+      <c r="E276" s="2">
+        <v>1</v>
+      </c>
+      <c r="F276" s="2">
+        <v>3230000</v>
+      </c>
+      <c r="G276" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>55000</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>3140000</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1</v>
+      </c>
+      <c r="F277" s="1">
+        <v>3240000</v>
+      </c>
+      <c r="G277" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>55200</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D278" s="1">
+        <v>3150000</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1</v>
+      </c>
+      <c r="F278" s="1">
+        <v>3250000</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>55400</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D279" s="1">
+        <v>3160000</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1</v>
+      </c>
+      <c r="F279" s="1">
+        <v>3260000</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>55600</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>3170000</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1">
+        <v>3270000</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>55800</v>
+      </c>
+      <c r="C281" s="2">
+        <v>14</v>
+      </c>
+      <c r="D281" s="2">
+        <v>3180000</v>
+      </c>
+      <c r="E281" s="2">
+        <v>1</v>
+      </c>
+      <c r="F281" s="2">
+        <v>3280000</v>
+      </c>
+      <c r="G281" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>56000</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>3190000</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1</v>
+      </c>
+      <c r="F282" s="1">
+        <v>3290000</v>
+      </c>
+      <c r="G282" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>56200</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1</v>
+      </c>
+      <c r="D283" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1</v>
+      </c>
+      <c r="F283" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="G283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>56400</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" s="1">
+        <v>3210000</v>
+      </c>
+      <c r="E284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1">
+        <v>3310000</v>
+      </c>
+      <c r="G284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>56600</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3220000</v>
+      </c>
+      <c r="E285" s="1">
+        <v>1</v>
+      </c>
+      <c r="F285" s="1">
+        <v>3320000</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>56800</v>
+      </c>
+      <c r="C286" s="2">
+        <v>14</v>
+      </c>
+      <c r="D286" s="2">
+        <v>3230000</v>
+      </c>
+      <c r="E286" s="2">
+        <v>1</v>
+      </c>
+      <c r="F286" s="2">
+        <v>3330000</v>
+      </c>
+      <c r="G286" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>57000</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>3240000</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1</v>
+      </c>
+      <c r="F287" s="1">
+        <v>3340000</v>
+      </c>
+      <c r="G287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>57200</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1">
+        <v>3250000</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1">
+        <v>3350000</v>
+      </c>
+      <c r="G288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>57400</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D289" s="1">
+        <v>3260000</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F289" s="1">
+        <v>3360000</v>
+      </c>
+      <c r="G289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>57600</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D290" s="1">
+        <v>3270000</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F290" s="1">
+        <v>3370000</v>
+      </c>
+      <c r="G290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>57800</v>
+      </c>
+      <c r="C291" s="2">
+        <v>14</v>
+      </c>
+      <c r="D291" s="2">
+        <v>3280000</v>
+      </c>
+      <c r="E291" s="2">
+        <v>1</v>
+      </c>
+      <c r="F291" s="2">
+        <v>3380000</v>
+      </c>
+      <c r="G291" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>58000</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D292" s="1">
+        <v>3290000</v>
+      </c>
+      <c r="E292" s="1">
+        <v>1</v>
+      </c>
+      <c r="F292" s="1">
+        <v>3390000</v>
+      </c>
+      <c r="G292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>58200</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1</v>
+      </c>
+      <c r="D293" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="E293" s="1">
+        <v>1</v>
+      </c>
+      <c r="F293" s="1">
+        <v>3400000</v>
+      </c>
+      <c r="G293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1">
+        <v>58400</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1</v>
+      </c>
+      <c r="D294" s="1">
+        <v>3310000</v>
+      </c>
+      <c r="E294" s="1">
+        <v>1</v>
+      </c>
+      <c r="F294" s="1">
+        <v>3410000</v>
+      </c>
+      <c r="G294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>58600</v>
+      </c>
+      <c r="C295" s="1">
+        <v>1</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3320000</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1</v>
+      </c>
+      <c r="F295" s="1">
+        <v>3420000</v>
+      </c>
+      <c r="G295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>58800</v>
+      </c>
+      <c r="C296" s="2">
+        <v>14</v>
+      </c>
+      <c r="D296" s="2">
+        <v>3330000</v>
+      </c>
+      <c r="E296" s="2">
+        <v>1</v>
+      </c>
+      <c r="F296" s="2">
+        <v>3430000</v>
+      </c>
+      <c r="G296" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>59000</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>3340000</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1</v>
+      </c>
+      <c r="F297" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="G297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>59200</v>
+      </c>
+      <c r="C298" s="1">
+        <v>1</v>
+      </c>
+      <c r="D298" s="1">
+        <v>3350000</v>
+      </c>
+      <c r="E298" s="1">
+        <v>1</v>
+      </c>
+      <c r="F298" s="1">
+        <v>3450000</v>
+      </c>
+      <c r="G298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>59400</v>
+      </c>
+      <c r="C299" s="1">
+        <v>1</v>
+      </c>
+      <c r="D299" s="1">
+        <v>3360000</v>
+      </c>
+      <c r="E299" s="1">
+        <v>1</v>
+      </c>
+      <c r="F299" s="1">
+        <v>3460000</v>
+      </c>
+      <c r="G299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>59600</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3370000</v>
+      </c>
+      <c r="E300" s="1">
+        <v>1</v>
+      </c>
+      <c r="F300" s="1">
+        <v>3470000</v>
+      </c>
+      <c r="G300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>59800</v>
+      </c>
+      <c r="C301" s="2">
+        <v>14</v>
+      </c>
+      <c r="D301" s="2">
+        <v>3380000</v>
+      </c>
+      <c r="E301" s="2">
+        <v>1</v>
+      </c>
+      <c r="F301" s="2">
+        <v>3480000</v>
+      </c>
+      <c r="G301" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C302" s="1">
+        <v>1</v>
+      </c>
+      <c r="D302" s="1">
+        <v>3390000</v>
+      </c>
+      <c r="E302" s="1">
+        <v>1</v>
+      </c>
+      <c r="F302" s="1">
+        <v>3490000</v>
+      </c>
+      <c r="G302" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51240A-A474-48C6-AA70-FBFDAE9979D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BCD758-F975-40E2-8BEB-775F40EAEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +96,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +122,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -124,7 +137,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,8 +147,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,8 +161,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -464,8 +484,8 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3951,26 +3971,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
         <v>150</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="3">
         <v>30000</v>
       </c>
-      <c r="C152" s="1">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1">
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3">
         <v>1890000</v>
       </c>
-      <c r="E152" s="1">
-        <v>1</v>
-      </c>
-      <c r="F152" s="1">
+      <c r="E152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
         <v>1990000</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4051,13 +4071,13 @@
         <v>30800</v>
       </c>
       <c r="C156" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D156" s="2">
         <v>1930000</v>
       </c>
       <c r="E156" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F156" s="2">
         <v>2030000</v>
@@ -4169,13 +4189,13 @@
         <v>14</v>
       </c>
       <c r="D161" s="2">
-        <v>1980000</v>
+        <v>3</v>
       </c>
       <c r="E161" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F161" s="2">
-        <v>2080000</v>
+        <v>3</v>
       </c>
       <c r="G161" s="2">
         <v>1</v>
@@ -4281,13 +4301,13 @@
         <v>32800</v>
       </c>
       <c r="C166" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2">
         <v>2030000</v>
       </c>
       <c r="E166" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F166" s="2">
         <v>2130000</v>
@@ -4399,13 +4419,13 @@
         <v>14</v>
       </c>
       <c r="D171" s="2">
-        <v>2080000</v>
+        <v>3</v>
       </c>
       <c r="E171" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F171" s="2">
-        <v>2180000</v>
+        <v>3</v>
       </c>
       <c r="G171" s="2">
         <v>1</v>
@@ -4511,13 +4531,13 @@
         <v>34800</v>
       </c>
       <c r="C176" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D176" s="2">
         <v>2130000</v>
       </c>
       <c r="E176" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F176" s="2">
         <v>2230000</v>
@@ -4629,13 +4649,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="2">
-        <v>2180000</v>
+        <v>3</v>
       </c>
       <c r="E181" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F181" s="2">
-        <v>2280000</v>
+        <v>3</v>
       </c>
       <c r="G181" s="2">
         <v>1</v>
@@ -4741,13 +4761,13 @@
         <v>36800</v>
       </c>
       <c r="C186" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D186" s="2">
         <v>2230000</v>
       </c>
       <c r="E186" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F186" s="2">
         <v>2330000</v>
@@ -4859,13 +4879,13 @@
         <v>14</v>
       </c>
       <c r="D191" s="2">
-        <v>2280000</v>
+        <v>3</v>
       </c>
       <c r="E191" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F191" s="2">
-        <v>2380000</v>
+        <v>3</v>
       </c>
       <c r="G191" s="2">
         <v>1</v>
@@ -4971,13 +4991,13 @@
         <v>38800</v>
       </c>
       <c r="C196" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D196" s="2">
         <v>2330000</v>
       </c>
       <c r="E196" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F196" s="2">
         <v>2430000</v>
@@ -5089,13 +5109,13 @@
         <v>14</v>
       </c>
       <c r="D201" s="2">
-        <v>2380000</v>
+        <v>3</v>
       </c>
       <c r="E201" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F201" s="2">
-        <v>2480000</v>
+        <v>3</v>
       </c>
       <c r="G201" s="2">
         <v>1</v>
@@ -5201,13 +5221,13 @@
         <v>40800</v>
       </c>
       <c r="C206" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D206" s="2">
         <v>2430000</v>
       </c>
       <c r="E206" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F206" s="2">
         <v>2530000</v>
@@ -5319,13 +5339,13 @@
         <v>14</v>
       </c>
       <c r="D211" s="2">
-        <v>2480000</v>
+        <v>3</v>
       </c>
       <c r="E211" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F211" s="2">
-        <v>2580000</v>
+        <v>3</v>
       </c>
       <c r="G211" s="2">
         <v>1</v>
@@ -5431,13 +5451,13 @@
         <v>42800</v>
       </c>
       <c r="C216" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D216" s="2">
         <v>2530000</v>
       </c>
       <c r="E216" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F216" s="2">
         <v>2630000</v>
@@ -5549,13 +5569,13 @@
         <v>14</v>
       </c>
       <c r="D221" s="2">
-        <v>2580000</v>
+        <v>3</v>
       </c>
       <c r="E221" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F221" s="2">
-        <v>2680000</v>
+        <v>3</v>
       </c>
       <c r="G221" s="2">
         <v>1</v>
@@ -5661,13 +5681,13 @@
         <v>44800</v>
       </c>
       <c r="C226" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D226" s="2">
         <v>2630000</v>
       </c>
       <c r="E226" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F226" s="2">
         <v>2730000</v>
@@ -5779,13 +5799,13 @@
         <v>14</v>
       </c>
       <c r="D231" s="2">
-        <v>2680000</v>
+        <v>3</v>
       </c>
       <c r="E231" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F231" s="2">
-        <v>2780000</v>
+        <v>3</v>
       </c>
       <c r="G231" s="2">
         <v>1</v>
@@ -5891,13 +5911,13 @@
         <v>46800</v>
       </c>
       <c r="C236" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D236" s="2">
         <v>2730000</v>
       </c>
       <c r="E236" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F236" s="2">
         <v>2830000</v>
@@ -6009,13 +6029,13 @@
         <v>14</v>
       </c>
       <c r="D241" s="2">
-        <v>2780000</v>
+        <v>3</v>
       </c>
       <c r="E241" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F241" s="2">
-        <v>2880000</v>
+        <v>3</v>
       </c>
       <c r="G241" s="2">
         <v>1</v>
@@ -6121,13 +6141,13 @@
         <v>48800</v>
       </c>
       <c r="C246" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D246" s="2">
         <v>2830000</v>
       </c>
       <c r="E246" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F246" s="2">
         <v>2930000</v>
@@ -6239,13 +6259,13 @@
         <v>14</v>
       </c>
       <c r="D251" s="2">
-        <v>2880000</v>
+        <v>3</v>
       </c>
       <c r="E251" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F251" s="2">
-        <v>2980000</v>
+        <v>3</v>
       </c>
       <c r="G251" s="2">
         <v>1</v>
@@ -6351,13 +6371,13 @@
         <v>50800</v>
       </c>
       <c r="C256" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D256" s="2">
         <v>2930000</v>
       </c>
       <c r="E256" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F256" s="2">
         <v>3030000</v>
@@ -6469,13 +6489,13 @@
         <v>14</v>
       </c>
       <c r="D261" s="2">
-        <v>2980000</v>
+        <v>3</v>
       </c>
       <c r="E261" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F261" s="2">
-        <v>3080000</v>
+        <v>3</v>
       </c>
       <c r="G261" s="2">
         <v>1</v>
@@ -6581,13 +6601,13 @@
         <v>52800</v>
       </c>
       <c r="C266" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D266" s="2">
         <v>3030000</v>
       </c>
       <c r="E266" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F266" s="2">
         <v>3130000</v>
@@ -6699,13 +6719,13 @@
         <v>14</v>
       </c>
       <c r="D271" s="2">
-        <v>3080000</v>
+        <v>3</v>
       </c>
       <c r="E271" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F271" s="2">
-        <v>3180000</v>
+        <v>3</v>
       </c>
       <c r="G271" s="2">
         <v>1</v>
@@ -6811,13 +6831,13 @@
         <v>54800</v>
       </c>
       <c r="C276" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D276" s="2">
         <v>3130000</v>
       </c>
       <c r="E276" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F276" s="2">
         <v>3230000</v>
@@ -6929,13 +6949,13 @@
         <v>14</v>
       </c>
       <c r="D281" s="2">
-        <v>3180000</v>
+        <v>3</v>
       </c>
       <c r="E281" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F281" s="2">
-        <v>3280000</v>
+        <v>3</v>
       </c>
       <c r="G281" s="2">
         <v>1</v>
@@ -7041,13 +7061,13 @@
         <v>56800</v>
       </c>
       <c r="C286" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D286" s="2">
         <v>3230000</v>
       </c>
       <c r="E286" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F286" s="2">
         <v>3330000</v>
@@ -7159,13 +7179,13 @@
         <v>14</v>
       </c>
       <c r="D291" s="2">
-        <v>3280000</v>
+        <v>3</v>
       </c>
       <c r="E291" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F291" s="2">
-        <v>3380000</v>
+        <v>3</v>
       </c>
       <c r="G291" s="2">
         <v>1</v>
@@ -7271,13 +7291,13 @@
         <v>58800</v>
       </c>
       <c r="C296" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D296" s="2">
         <v>3330000</v>
       </c>
       <c r="E296" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F296" s="2">
         <v>3430000</v>
@@ -7389,13 +7409,13 @@
         <v>14</v>
       </c>
       <c r="D301" s="2">
-        <v>3380000</v>
+        <v>3</v>
       </c>
       <c r="E301" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F301" s="2">
-        <v>3480000</v>
+        <v>3</v>
       </c>
       <c r="G301" s="2">
         <v>1</v>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BCD758-F975-40E2-8BEB-775F40EAEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9CC4C0-62A6-4F93-A1E2-5C1719741FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +165,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F158" sqref="F158"/>
+      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F446" sqref="F446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7444,6 +7450,3591 @@
         <v>1</v>
       </c>
     </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>60200</v>
+      </c>
+      <c r="C303" s="1">
+        <v>1</v>
+      </c>
+      <c r="D303" s="1">
+        <v>3400000</v>
+      </c>
+      <c r="E303" s="1">
+        <v>1</v>
+      </c>
+      <c r="F303" s="4">
+        <f>D303+100000</f>
+        <v>3500000</v>
+      </c>
+      <c r="G303" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>60400</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1</v>
+      </c>
+      <c r="D304" s="1">
+        <v>3410000</v>
+      </c>
+      <c r="E304" s="1">
+        <v>1</v>
+      </c>
+      <c r="F304" s="4">
+        <f t="shared" ref="F304:F367" si="0">D304+100000</f>
+        <v>3510000</v>
+      </c>
+      <c r="G304" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>60600</v>
+      </c>
+      <c r="C305" s="1">
+        <v>1</v>
+      </c>
+      <c r="D305" s="1">
+        <v>3420000</v>
+      </c>
+      <c r="E305" s="1">
+        <v>1</v>
+      </c>
+      <c r="F305" s="4">
+        <f t="shared" si="0"/>
+        <v>3520000</v>
+      </c>
+      <c r="G305" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>60800</v>
+      </c>
+      <c r="C306" s="2">
+        <v>5</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3430000</v>
+      </c>
+      <c r="E306" s="2">
+        <v>5</v>
+      </c>
+      <c r="F306" s="4">
+        <f t="shared" si="0"/>
+        <v>3530000</v>
+      </c>
+      <c r="G306" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>61000</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="E307" s="1">
+        <v>1</v>
+      </c>
+      <c r="F307" s="4">
+        <f t="shared" si="0"/>
+        <v>3540000</v>
+      </c>
+      <c r="G307" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>61200</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1</v>
+      </c>
+      <c r="D308" s="1">
+        <v>3450000</v>
+      </c>
+      <c r="E308" s="1">
+        <v>1</v>
+      </c>
+      <c r="F308" s="4">
+        <f t="shared" si="0"/>
+        <v>3550000</v>
+      </c>
+      <c r="G308" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>61400</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1</v>
+      </c>
+      <c r="D309" s="1">
+        <v>3460000</v>
+      </c>
+      <c r="E309" s="1">
+        <v>1</v>
+      </c>
+      <c r="F309" s="4">
+        <f t="shared" si="0"/>
+        <v>3560000</v>
+      </c>
+      <c r="G309" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>61600</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1</v>
+      </c>
+      <c r="D310" s="1">
+        <v>3470000</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1</v>
+      </c>
+      <c r="F310" s="4">
+        <f t="shared" si="0"/>
+        <v>3570000</v>
+      </c>
+      <c r="G310" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>61800</v>
+      </c>
+      <c r="C311" s="2">
+        <v>14</v>
+      </c>
+      <c r="D311" s="1">
+        <v>4</v>
+      </c>
+      <c r="E311" s="2">
+        <v>14</v>
+      </c>
+      <c r="F311" s="4">
+        <v>4</v>
+      </c>
+      <c r="G311" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>62000</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+      <c r="D312" s="1">
+        <v>3490000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>1</v>
+      </c>
+      <c r="F312" s="4">
+        <f t="shared" si="0"/>
+        <v>3590000</v>
+      </c>
+      <c r="G312" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>62200</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D313" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1</v>
+      </c>
+      <c r="F313" s="4">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+      <c r="G313" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>62400</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3510000</v>
+      </c>
+      <c r="E314" s="1">
+        <v>1</v>
+      </c>
+      <c r="F314" s="4">
+        <f t="shared" si="0"/>
+        <v>3610000</v>
+      </c>
+      <c r="G314" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>62600</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+      <c r="D315" s="1">
+        <v>3520000</v>
+      </c>
+      <c r="E315" s="1">
+        <v>1</v>
+      </c>
+      <c r="F315" s="4">
+        <f t="shared" si="0"/>
+        <v>3620000</v>
+      </c>
+      <c r="G315" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>62800</v>
+      </c>
+      <c r="C316" s="2">
+        <v>5</v>
+      </c>
+      <c r="D316" s="1">
+        <v>3530000</v>
+      </c>
+      <c r="E316" s="2">
+        <v>5</v>
+      </c>
+      <c r="F316" s="4">
+        <f t="shared" si="0"/>
+        <v>3630000</v>
+      </c>
+      <c r="G316" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>63000</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D317" s="1">
+        <v>3540000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>1</v>
+      </c>
+      <c r="F317" s="4">
+        <f t="shared" si="0"/>
+        <v>3640000</v>
+      </c>
+      <c r="G317" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>63200</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3550000</v>
+      </c>
+      <c r="E318" s="1">
+        <v>1</v>
+      </c>
+      <c r="F318" s="4">
+        <f t="shared" si="0"/>
+        <v>3650000</v>
+      </c>
+      <c r="G318" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>63400</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1</v>
+      </c>
+      <c r="D319" s="1">
+        <v>3560000</v>
+      </c>
+      <c r="E319" s="1">
+        <v>1</v>
+      </c>
+      <c r="F319" s="4">
+        <f t="shared" si="0"/>
+        <v>3660000</v>
+      </c>
+      <c r="G319" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>63600</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1</v>
+      </c>
+      <c r="D320" s="1">
+        <v>3570000</v>
+      </c>
+      <c r="E320" s="1">
+        <v>1</v>
+      </c>
+      <c r="F320" s="4">
+        <f t="shared" si="0"/>
+        <v>3670000</v>
+      </c>
+      <c r="G320" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>63800</v>
+      </c>
+      <c r="C321" s="2">
+        <v>14</v>
+      </c>
+      <c r="D321" s="1">
+        <v>4</v>
+      </c>
+      <c r="E321" s="2">
+        <v>14</v>
+      </c>
+      <c r="F321" s="4">
+        <v>4</v>
+      </c>
+      <c r="G321" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>64000</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D322" s="1">
+        <v>3590000</v>
+      </c>
+      <c r="E322" s="1">
+        <v>1</v>
+      </c>
+      <c r="F322" s="4">
+        <f t="shared" si="0"/>
+        <v>3690000</v>
+      </c>
+      <c r="G322" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>64200</v>
+      </c>
+      <c r="C323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D323" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="E323" s="1">
+        <v>1</v>
+      </c>
+      <c r="F323" s="4">
+        <f t="shared" si="0"/>
+        <v>3700000</v>
+      </c>
+      <c r="G323" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>64400</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1</v>
+      </c>
+      <c r="D324" s="1">
+        <v>3610000</v>
+      </c>
+      <c r="E324" s="1">
+        <v>1</v>
+      </c>
+      <c r="F324" s="4">
+        <f t="shared" si="0"/>
+        <v>3710000</v>
+      </c>
+      <c r="G324" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>64600</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1</v>
+      </c>
+      <c r="D325" s="1">
+        <v>3620000</v>
+      </c>
+      <c r="E325" s="1">
+        <v>1</v>
+      </c>
+      <c r="F325" s="4">
+        <f t="shared" si="0"/>
+        <v>3720000</v>
+      </c>
+      <c r="G325" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>64800</v>
+      </c>
+      <c r="C326" s="2">
+        <v>5</v>
+      </c>
+      <c r="D326" s="1">
+        <v>3630000</v>
+      </c>
+      <c r="E326" s="2">
+        <v>5</v>
+      </c>
+      <c r="F326" s="4">
+        <f t="shared" si="0"/>
+        <v>3730000</v>
+      </c>
+      <c r="G326" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>65000</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1</v>
+      </c>
+      <c r="D327" s="1">
+        <v>3640000</v>
+      </c>
+      <c r="E327" s="1">
+        <v>1</v>
+      </c>
+      <c r="F327" s="4">
+        <f t="shared" si="0"/>
+        <v>3740000</v>
+      </c>
+      <c r="G327" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>65200</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1</v>
+      </c>
+      <c r="D328" s="1">
+        <v>3650000</v>
+      </c>
+      <c r="E328" s="1">
+        <v>1</v>
+      </c>
+      <c r="F328" s="4">
+        <f t="shared" si="0"/>
+        <v>3750000</v>
+      </c>
+      <c r="G328" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>65400</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1</v>
+      </c>
+      <c r="D329" s="1">
+        <v>3660000</v>
+      </c>
+      <c r="E329" s="1">
+        <v>1</v>
+      </c>
+      <c r="F329" s="4">
+        <f t="shared" si="0"/>
+        <v>3760000</v>
+      </c>
+      <c r="G329" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1">
+        <v>65600</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1</v>
+      </c>
+      <c r="D330" s="1">
+        <v>3670000</v>
+      </c>
+      <c r="E330" s="1">
+        <v>1</v>
+      </c>
+      <c r="F330" s="4">
+        <f t="shared" si="0"/>
+        <v>3770000</v>
+      </c>
+      <c r="G330" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>65800</v>
+      </c>
+      <c r="C331" s="2">
+        <v>14</v>
+      </c>
+      <c r="D331" s="1">
+        <v>4</v>
+      </c>
+      <c r="E331" s="2">
+        <v>14</v>
+      </c>
+      <c r="F331" s="4">
+        <v>4</v>
+      </c>
+      <c r="G331" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66000</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1</v>
+      </c>
+      <c r="D332" s="1">
+        <v>3690000</v>
+      </c>
+      <c r="E332" s="1">
+        <v>1</v>
+      </c>
+      <c r="F332" s="4">
+        <f t="shared" si="0"/>
+        <v>3790000</v>
+      </c>
+      <c r="G332" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66200</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1</v>
+      </c>
+      <c r="D333" s="1">
+        <v>3700000</v>
+      </c>
+      <c r="E333" s="1">
+        <v>1</v>
+      </c>
+      <c r="F333" s="4">
+        <f t="shared" si="0"/>
+        <v>3800000</v>
+      </c>
+      <c r="G333" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66400</v>
+      </c>
+      <c r="C334" s="1">
+        <v>1</v>
+      </c>
+      <c r="D334" s="1">
+        <v>3710000</v>
+      </c>
+      <c r="E334" s="1">
+        <v>1</v>
+      </c>
+      <c r="F334" s="4">
+        <f t="shared" si="0"/>
+        <v>3810000</v>
+      </c>
+      <c r="G334" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66600</v>
+      </c>
+      <c r="C335" s="1">
+        <v>1</v>
+      </c>
+      <c r="D335" s="1">
+        <v>3720000</v>
+      </c>
+      <c r="E335" s="1">
+        <v>1</v>
+      </c>
+      <c r="F335" s="4">
+        <f t="shared" si="0"/>
+        <v>3820000</v>
+      </c>
+      <c r="G335" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>66800</v>
+      </c>
+      <c r="C336" s="2">
+        <v>5</v>
+      </c>
+      <c r="D336" s="1">
+        <v>3730000</v>
+      </c>
+      <c r="E336" s="2">
+        <v>5</v>
+      </c>
+      <c r="F336" s="4">
+        <f t="shared" si="0"/>
+        <v>3830000</v>
+      </c>
+      <c r="G336" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1">
+        <v>67000</v>
+      </c>
+      <c r="C337" s="1">
+        <v>1</v>
+      </c>
+      <c r="D337" s="1">
+        <v>3740000</v>
+      </c>
+      <c r="E337" s="1">
+        <v>1</v>
+      </c>
+      <c r="F337" s="4">
+        <f t="shared" si="0"/>
+        <v>3840000</v>
+      </c>
+      <c r="G337" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1">
+        <v>67200</v>
+      </c>
+      <c r="C338" s="1">
+        <v>1</v>
+      </c>
+      <c r="D338" s="1">
+        <v>3750000</v>
+      </c>
+      <c r="E338" s="1">
+        <v>1</v>
+      </c>
+      <c r="F338" s="4">
+        <f t="shared" si="0"/>
+        <v>3850000</v>
+      </c>
+      <c r="G338" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1">
+        <v>67400</v>
+      </c>
+      <c r="C339" s="1">
+        <v>1</v>
+      </c>
+      <c r="D339" s="1">
+        <v>3760000</v>
+      </c>
+      <c r="E339" s="1">
+        <v>1</v>
+      </c>
+      <c r="F339" s="4">
+        <f t="shared" si="0"/>
+        <v>3860000</v>
+      </c>
+      <c r="G339" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1">
+        <v>67600</v>
+      </c>
+      <c r="C340" s="1">
+        <v>1</v>
+      </c>
+      <c r="D340" s="1">
+        <v>3770000</v>
+      </c>
+      <c r="E340" s="1">
+        <v>1</v>
+      </c>
+      <c r="F340" s="4">
+        <f t="shared" si="0"/>
+        <v>3870000</v>
+      </c>
+      <c r="G340" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>67800</v>
+      </c>
+      <c r="C341" s="2">
+        <v>14</v>
+      </c>
+      <c r="D341" s="1">
+        <v>4</v>
+      </c>
+      <c r="E341" s="2">
+        <v>14</v>
+      </c>
+      <c r="F341" s="4">
+        <v>4</v>
+      </c>
+      <c r="G341" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1">
+        <v>68000</v>
+      </c>
+      <c r="C342" s="1">
+        <v>1</v>
+      </c>
+      <c r="D342" s="1">
+        <v>3790000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>1</v>
+      </c>
+      <c r="F342" s="4">
+        <f t="shared" si="0"/>
+        <v>3890000</v>
+      </c>
+      <c r="G342" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1">
+        <v>68200</v>
+      </c>
+      <c r="C343" s="1">
+        <v>1</v>
+      </c>
+      <c r="D343" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="E343" s="1">
+        <v>1</v>
+      </c>
+      <c r="F343" s="4">
+        <f t="shared" si="0"/>
+        <v>3900000</v>
+      </c>
+      <c r="G343" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1">
+        <v>68400</v>
+      </c>
+      <c r="C344" s="1">
+        <v>1</v>
+      </c>
+      <c r="D344" s="1">
+        <v>3810000</v>
+      </c>
+      <c r="E344" s="1">
+        <v>1</v>
+      </c>
+      <c r="F344" s="4">
+        <f t="shared" si="0"/>
+        <v>3910000</v>
+      </c>
+      <c r="G344" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1">
+        <v>68600</v>
+      </c>
+      <c r="C345" s="1">
+        <v>1</v>
+      </c>
+      <c r="D345" s="1">
+        <v>3820000</v>
+      </c>
+      <c r="E345" s="1">
+        <v>1</v>
+      </c>
+      <c r="F345" s="4">
+        <f t="shared" si="0"/>
+        <v>3920000</v>
+      </c>
+      <c r="G345" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>68800</v>
+      </c>
+      <c r="C346" s="2">
+        <v>5</v>
+      </c>
+      <c r="D346" s="1">
+        <v>3830000</v>
+      </c>
+      <c r="E346" s="2">
+        <v>5</v>
+      </c>
+      <c r="F346" s="4">
+        <f t="shared" si="0"/>
+        <v>3930000</v>
+      </c>
+      <c r="G346" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1">
+        <v>69000</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1</v>
+      </c>
+      <c r="D347" s="1">
+        <v>3840000</v>
+      </c>
+      <c r="E347" s="1">
+        <v>1</v>
+      </c>
+      <c r="F347" s="4">
+        <f t="shared" si="0"/>
+        <v>3940000</v>
+      </c>
+      <c r="G347" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1">
+        <v>69200</v>
+      </c>
+      <c r="C348" s="1">
+        <v>1</v>
+      </c>
+      <c r="D348" s="1">
+        <v>3850000</v>
+      </c>
+      <c r="E348" s="1">
+        <v>1</v>
+      </c>
+      <c r="F348" s="4">
+        <f t="shared" si="0"/>
+        <v>3950000</v>
+      </c>
+      <c r="G348" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1">
+        <v>69400</v>
+      </c>
+      <c r="C349" s="1">
+        <v>1</v>
+      </c>
+      <c r="D349" s="1">
+        <v>3860000</v>
+      </c>
+      <c r="E349" s="1">
+        <v>1</v>
+      </c>
+      <c r="F349" s="4">
+        <f t="shared" si="0"/>
+        <v>3960000</v>
+      </c>
+      <c r="G349" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1">
+        <v>69600</v>
+      </c>
+      <c r="C350" s="1">
+        <v>1</v>
+      </c>
+      <c r="D350" s="1">
+        <v>3870000</v>
+      </c>
+      <c r="E350" s="1">
+        <v>1</v>
+      </c>
+      <c r="F350" s="4">
+        <f t="shared" si="0"/>
+        <v>3970000</v>
+      </c>
+      <c r="G350" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>69800</v>
+      </c>
+      <c r="C351" s="2">
+        <v>14</v>
+      </c>
+      <c r="D351" s="1">
+        <v>4</v>
+      </c>
+      <c r="E351" s="2">
+        <v>14</v>
+      </c>
+      <c r="F351" s="4">
+        <v>4</v>
+      </c>
+      <c r="G351" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1">
+        <v>70000</v>
+      </c>
+      <c r="C352" s="1">
+        <v>1</v>
+      </c>
+      <c r="D352" s="1">
+        <v>3890000</v>
+      </c>
+      <c r="E352" s="1">
+        <v>1</v>
+      </c>
+      <c r="F352" s="4">
+        <f t="shared" si="0"/>
+        <v>3990000</v>
+      </c>
+      <c r="G352" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1">
+        <v>70200</v>
+      </c>
+      <c r="C353" s="1">
+        <v>1</v>
+      </c>
+      <c r="D353" s="1">
+        <v>3900000</v>
+      </c>
+      <c r="E353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F353" s="4">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="G353" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1">
+        <v>70400</v>
+      </c>
+      <c r="C354" s="1">
+        <v>1</v>
+      </c>
+      <c r="D354" s="1">
+        <v>3910000</v>
+      </c>
+      <c r="E354" s="1">
+        <v>1</v>
+      </c>
+      <c r="F354" s="4">
+        <f t="shared" si="0"/>
+        <v>4010000</v>
+      </c>
+      <c r="G354" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1">
+        <v>70600</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1</v>
+      </c>
+      <c r="D355" s="1">
+        <v>3920000</v>
+      </c>
+      <c r="E355" s="1">
+        <v>1</v>
+      </c>
+      <c r="F355" s="4">
+        <f t="shared" si="0"/>
+        <v>4020000</v>
+      </c>
+      <c r="G355" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C356" s="2">
+        <v>5</v>
+      </c>
+      <c r="D356" s="1">
+        <v>3930000</v>
+      </c>
+      <c r="E356" s="2">
+        <v>5</v>
+      </c>
+      <c r="F356" s="4">
+        <f t="shared" si="0"/>
+        <v>4030000</v>
+      </c>
+      <c r="G356" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1">
+        <v>71000</v>
+      </c>
+      <c r="C357" s="1">
+        <v>1</v>
+      </c>
+      <c r="D357" s="1">
+        <v>3940000</v>
+      </c>
+      <c r="E357" s="1">
+        <v>1</v>
+      </c>
+      <c r="F357" s="4">
+        <f t="shared" si="0"/>
+        <v>4040000</v>
+      </c>
+      <c r="G357" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1">
+        <v>71200</v>
+      </c>
+      <c r="C358" s="1">
+        <v>1</v>
+      </c>
+      <c r="D358" s="1">
+        <v>3950000</v>
+      </c>
+      <c r="E358" s="1">
+        <v>1</v>
+      </c>
+      <c r="F358" s="4">
+        <f t="shared" si="0"/>
+        <v>4050000</v>
+      </c>
+      <c r="G358" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1">
+        <v>71400</v>
+      </c>
+      <c r="C359" s="1">
+        <v>1</v>
+      </c>
+      <c r="D359" s="1">
+        <v>3960000</v>
+      </c>
+      <c r="E359" s="1">
+        <v>1</v>
+      </c>
+      <c r="F359" s="4">
+        <f t="shared" si="0"/>
+        <v>4060000</v>
+      </c>
+      <c r="G359" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1">
+        <v>71600</v>
+      </c>
+      <c r="C360" s="1">
+        <v>1</v>
+      </c>
+      <c r="D360" s="1">
+        <v>3970000</v>
+      </c>
+      <c r="E360" s="1">
+        <v>1</v>
+      </c>
+      <c r="F360" s="4">
+        <f t="shared" si="0"/>
+        <v>4070000</v>
+      </c>
+      <c r="G360" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>71800</v>
+      </c>
+      <c r="C361" s="2">
+        <v>14</v>
+      </c>
+      <c r="D361" s="1">
+        <v>4</v>
+      </c>
+      <c r="E361" s="2">
+        <v>14</v>
+      </c>
+      <c r="F361" s="4">
+        <v>4</v>
+      </c>
+      <c r="G361" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1">
+        <v>72000</v>
+      </c>
+      <c r="C362" s="1">
+        <v>1</v>
+      </c>
+      <c r="D362" s="1">
+        <v>3990000</v>
+      </c>
+      <c r="E362" s="1">
+        <v>1</v>
+      </c>
+      <c r="F362" s="4">
+        <f t="shared" si="0"/>
+        <v>4090000</v>
+      </c>
+      <c r="G362" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1">
+        <v>72200</v>
+      </c>
+      <c r="C363" s="1">
+        <v>1</v>
+      </c>
+      <c r="D363" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E363" s="1">
+        <v>1</v>
+      </c>
+      <c r="F363" s="4">
+        <f t="shared" si="0"/>
+        <v>4100000</v>
+      </c>
+      <c r="G363" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1">
+        <v>72400</v>
+      </c>
+      <c r="C364" s="1">
+        <v>1</v>
+      </c>
+      <c r="D364" s="1">
+        <v>4010000</v>
+      </c>
+      <c r="E364" s="1">
+        <v>1</v>
+      </c>
+      <c r="F364" s="4">
+        <f t="shared" si="0"/>
+        <v>4110000</v>
+      </c>
+      <c r="G364" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1">
+        <v>72600</v>
+      </c>
+      <c r="C365" s="1">
+        <v>1</v>
+      </c>
+      <c r="D365" s="1">
+        <v>4020000</v>
+      </c>
+      <c r="E365" s="1">
+        <v>1</v>
+      </c>
+      <c r="F365" s="4">
+        <f t="shared" si="0"/>
+        <v>4120000</v>
+      </c>
+      <c r="G365" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>72800</v>
+      </c>
+      <c r="C366" s="2">
+        <v>5</v>
+      </c>
+      <c r="D366" s="1">
+        <v>4030000</v>
+      </c>
+      <c r="E366" s="2">
+        <v>5</v>
+      </c>
+      <c r="F366" s="4">
+        <f t="shared" si="0"/>
+        <v>4130000</v>
+      </c>
+      <c r="G366" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>73000</v>
+      </c>
+      <c r="C367" s="1">
+        <v>1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>4040000</v>
+      </c>
+      <c r="E367" s="1">
+        <v>1</v>
+      </c>
+      <c r="F367" s="4">
+        <f t="shared" si="0"/>
+        <v>4140000</v>
+      </c>
+      <c r="G367" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>73200</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1</v>
+      </c>
+      <c r="D368" s="1">
+        <v>4050000</v>
+      </c>
+      <c r="E368" s="1">
+        <v>1</v>
+      </c>
+      <c r="F368" s="4">
+        <f t="shared" ref="F368:F430" si="1">D368+100000</f>
+        <v>4150000</v>
+      </c>
+      <c r="G368" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>73400</v>
+      </c>
+      <c r="C369" s="1">
+        <v>1</v>
+      </c>
+      <c r="D369" s="1">
+        <v>4060000</v>
+      </c>
+      <c r="E369" s="1">
+        <v>1</v>
+      </c>
+      <c r="F369" s="4">
+        <f t="shared" si="1"/>
+        <v>4160000</v>
+      </c>
+      <c r="G369" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>73600</v>
+      </c>
+      <c r="C370" s="1">
+        <v>1</v>
+      </c>
+      <c r="D370" s="1">
+        <v>4070000</v>
+      </c>
+      <c r="E370" s="1">
+        <v>1</v>
+      </c>
+      <c r="F370" s="4">
+        <f t="shared" si="1"/>
+        <v>4170000</v>
+      </c>
+      <c r="G370" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>73800</v>
+      </c>
+      <c r="C371" s="2">
+        <v>14</v>
+      </c>
+      <c r="D371" s="1">
+        <v>4</v>
+      </c>
+      <c r="E371" s="2">
+        <v>14</v>
+      </c>
+      <c r="F371" s="4">
+        <v>4</v>
+      </c>
+      <c r="G371" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1">
+        <v>74000</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+      <c r="D372" s="1">
+        <v>4090000</v>
+      </c>
+      <c r="E372" s="1">
+        <v>1</v>
+      </c>
+      <c r="F372" s="4">
+        <f t="shared" si="1"/>
+        <v>4190000</v>
+      </c>
+      <c r="G372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1">
+        <v>74200</v>
+      </c>
+      <c r="C373" s="1">
+        <v>1</v>
+      </c>
+      <c r="D373" s="1">
+        <v>4100000</v>
+      </c>
+      <c r="E373" s="1">
+        <v>1</v>
+      </c>
+      <c r="F373" s="4">
+        <f t="shared" si="1"/>
+        <v>4200000</v>
+      </c>
+      <c r="G373" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1">
+        <v>74400</v>
+      </c>
+      <c r="C374" s="1">
+        <v>1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>4110000</v>
+      </c>
+      <c r="E374" s="1">
+        <v>1</v>
+      </c>
+      <c r="F374" s="4">
+        <f t="shared" si="1"/>
+        <v>4210000</v>
+      </c>
+      <c r="G374" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1">
+        <v>74600</v>
+      </c>
+      <c r="C375" s="1">
+        <v>1</v>
+      </c>
+      <c r="D375" s="1">
+        <v>4120000</v>
+      </c>
+      <c r="E375" s="1">
+        <v>1</v>
+      </c>
+      <c r="F375" s="4">
+        <f t="shared" si="1"/>
+        <v>4220000</v>
+      </c>
+      <c r="G375" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>74800</v>
+      </c>
+      <c r="C376" s="2">
+        <v>5</v>
+      </c>
+      <c r="D376" s="1">
+        <v>4130000</v>
+      </c>
+      <c r="E376" s="2">
+        <v>5</v>
+      </c>
+      <c r="F376" s="4">
+        <f t="shared" si="1"/>
+        <v>4230000</v>
+      </c>
+      <c r="G376" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C377" s="1">
+        <v>1</v>
+      </c>
+      <c r="D377" s="1">
+        <v>4140000</v>
+      </c>
+      <c r="E377" s="1">
+        <v>1</v>
+      </c>
+      <c r="F377" s="4">
+        <f t="shared" si="1"/>
+        <v>4240000</v>
+      </c>
+      <c r="G377" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>75200</v>
+      </c>
+      <c r="C378" s="1">
+        <v>1</v>
+      </c>
+      <c r="D378" s="1">
+        <v>4150000</v>
+      </c>
+      <c r="E378" s="1">
+        <v>1</v>
+      </c>
+      <c r="F378" s="4">
+        <f t="shared" si="1"/>
+        <v>4250000</v>
+      </c>
+      <c r="G378" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>75400</v>
+      </c>
+      <c r="C379" s="1">
+        <v>1</v>
+      </c>
+      <c r="D379" s="1">
+        <v>4160000</v>
+      </c>
+      <c r="E379" s="1">
+        <v>1</v>
+      </c>
+      <c r="F379" s="4">
+        <f t="shared" si="1"/>
+        <v>4260000</v>
+      </c>
+      <c r="G379" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>75600</v>
+      </c>
+      <c r="C380" s="1">
+        <v>1</v>
+      </c>
+      <c r="D380" s="1">
+        <v>4170000</v>
+      </c>
+      <c r="E380" s="1">
+        <v>1</v>
+      </c>
+      <c r="F380" s="4">
+        <f t="shared" si="1"/>
+        <v>4270000</v>
+      </c>
+      <c r="G380" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>75800</v>
+      </c>
+      <c r="C381" s="2">
+        <v>14</v>
+      </c>
+      <c r="D381" s="1">
+        <v>4</v>
+      </c>
+      <c r="E381" s="2">
+        <v>14</v>
+      </c>
+      <c r="F381" s="4">
+        <v>4</v>
+      </c>
+      <c r="G381" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>76000</v>
+      </c>
+      <c r="C382" s="1">
+        <v>1</v>
+      </c>
+      <c r="D382" s="1">
+        <v>4190000</v>
+      </c>
+      <c r="E382" s="1">
+        <v>1</v>
+      </c>
+      <c r="F382" s="4">
+        <f t="shared" si="1"/>
+        <v>4290000</v>
+      </c>
+      <c r="G382" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>76200</v>
+      </c>
+      <c r="C383" s="1">
+        <v>1</v>
+      </c>
+      <c r="D383" s="1">
+        <v>4200000</v>
+      </c>
+      <c r="E383" s="1">
+        <v>1</v>
+      </c>
+      <c r="F383" s="4">
+        <f t="shared" si="1"/>
+        <v>4300000</v>
+      </c>
+      <c r="G383" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>76400</v>
+      </c>
+      <c r="C384" s="1">
+        <v>1</v>
+      </c>
+      <c r="D384" s="1">
+        <v>4210000</v>
+      </c>
+      <c r="E384" s="1">
+        <v>1</v>
+      </c>
+      <c r="F384" s="4">
+        <f t="shared" si="1"/>
+        <v>4310000</v>
+      </c>
+      <c r="G384" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>76600</v>
+      </c>
+      <c r="C385" s="1">
+        <v>1</v>
+      </c>
+      <c r="D385" s="1">
+        <v>4220000</v>
+      </c>
+      <c r="E385" s="1">
+        <v>1</v>
+      </c>
+      <c r="F385" s="4">
+        <f t="shared" si="1"/>
+        <v>4320000</v>
+      </c>
+      <c r="G385" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>76800</v>
+      </c>
+      <c r="C386" s="2">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1">
+        <v>4230000</v>
+      </c>
+      <c r="E386" s="2">
+        <v>5</v>
+      </c>
+      <c r="F386" s="4">
+        <f t="shared" si="1"/>
+        <v>4330000</v>
+      </c>
+      <c r="G386" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>77000</v>
+      </c>
+      <c r="C387" s="1">
+        <v>1</v>
+      </c>
+      <c r="D387" s="1">
+        <v>4240000</v>
+      </c>
+      <c r="E387" s="1">
+        <v>1</v>
+      </c>
+      <c r="F387" s="4">
+        <f t="shared" si="1"/>
+        <v>4340000</v>
+      </c>
+      <c r="G387" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>77200</v>
+      </c>
+      <c r="C388" s="1">
+        <v>1</v>
+      </c>
+      <c r="D388" s="1">
+        <v>4250000</v>
+      </c>
+      <c r="E388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F388" s="4">
+        <f t="shared" si="1"/>
+        <v>4350000</v>
+      </c>
+      <c r="G388" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>77400</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1</v>
+      </c>
+      <c r="D389" s="1">
+        <v>4260000</v>
+      </c>
+      <c r="E389" s="1">
+        <v>1</v>
+      </c>
+      <c r="F389" s="4">
+        <f t="shared" si="1"/>
+        <v>4360000</v>
+      </c>
+      <c r="G389" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>77600</v>
+      </c>
+      <c r="C390" s="1">
+        <v>1</v>
+      </c>
+      <c r="D390" s="1">
+        <v>4270000</v>
+      </c>
+      <c r="E390" s="1">
+        <v>1</v>
+      </c>
+      <c r="F390" s="4">
+        <f t="shared" si="1"/>
+        <v>4370000</v>
+      </c>
+      <c r="G390" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>77800</v>
+      </c>
+      <c r="C391" s="2">
+        <v>14</v>
+      </c>
+      <c r="D391" s="1">
+        <v>4</v>
+      </c>
+      <c r="E391" s="2">
+        <v>14</v>
+      </c>
+      <c r="F391" s="4">
+        <v>4</v>
+      </c>
+      <c r="G391" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>78000</v>
+      </c>
+      <c r="C392" s="1">
+        <v>1</v>
+      </c>
+      <c r="D392" s="1">
+        <v>4290000</v>
+      </c>
+      <c r="E392" s="1">
+        <v>1</v>
+      </c>
+      <c r="F392" s="4">
+        <f t="shared" si="1"/>
+        <v>4390000</v>
+      </c>
+      <c r="G392" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>78200</v>
+      </c>
+      <c r="C393" s="1">
+        <v>1</v>
+      </c>
+      <c r="D393" s="1">
+        <v>4300000</v>
+      </c>
+      <c r="E393" s="1">
+        <v>1</v>
+      </c>
+      <c r="F393" s="4">
+        <f t="shared" si="1"/>
+        <v>4400000</v>
+      </c>
+      <c r="G393" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>78400</v>
+      </c>
+      <c r="C394" s="1">
+        <v>1</v>
+      </c>
+      <c r="D394" s="1">
+        <v>4310000</v>
+      </c>
+      <c r="E394" s="1">
+        <v>1</v>
+      </c>
+      <c r="F394" s="4">
+        <f t="shared" si="1"/>
+        <v>4410000</v>
+      </c>
+      <c r="G394" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>78600</v>
+      </c>
+      <c r="C395" s="1">
+        <v>1</v>
+      </c>
+      <c r="D395" s="1">
+        <v>4320000</v>
+      </c>
+      <c r="E395" s="1">
+        <v>1</v>
+      </c>
+      <c r="F395" s="4">
+        <f t="shared" si="1"/>
+        <v>4420000</v>
+      </c>
+      <c r="G395" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>78800</v>
+      </c>
+      <c r="C396" s="2">
+        <v>5</v>
+      </c>
+      <c r="D396" s="1">
+        <v>4330000</v>
+      </c>
+      <c r="E396" s="2">
+        <v>5</v>
+      </c>
+      <c r="F396" s="4">
+        <f t="shared" si="1"/>
+        <v>4430000</v>
+      </c>
+      <c r="G396" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>79000</v>
+      </c>
+      <c r="C397" s="1">
+        <v>1</v>
+      </c>
+      <c r="D397" s="1">
+        <v>4340000</v>
+      </c>
+      <c r="E397" s="1">
+        <v>1</v>
+      </c>
+      <c r="F397" s="4">
+        <f t="shared" si="1"/>
+        <v>4440000</v>
+      </c>
+      <c r="G397" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>79200</v>
+      </c>
+      <c r="C398" s="1">
+        <v>1</v>
+      </c>
+      <c r="D398" s="1">
+        <v>4350000</v>
+      </c>
+      <c r="E398" s="1">
+        <v>1</v>
+      </c>
+      <c r="F398" s="4">
+        <f t="shared" si="1"/>
+        <v>4450000</v>
+      </c>
+      <c r="G398" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>79400</v>
+      </c>
+      <c r="C399" s="1">
+        <v>1</v>
+      </c>
+      <c r="D399" s="1">
+        <v>4360000</v>
+      </c>
+      <c r="E399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F399" s="4">
+        <f t="shared" si="1"/>
+        <v>4460000</v>
+      </c>
+      <c r="G399" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
+        <v>79600</v>
+      </c>
+      <c r="C400" s="1">
+        <v>1</v>
+      </c>
+      <c r="D400" s="1">
+        <v>4370000</v>
+      </c>
+      <c r="E400" s="1">
+        <v>1</v>
+      </c>
+      <c r="F400" s="4">
+        <f t="shared" si="1"/>
+        <v>4470000</v>
+      </c>
+      <c r="G400" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>79800</v>
+      </c>
+      <c r="C401" s="2">
+        <v>14</v>
+      </c>
+      <c r="D401" s="1">
+        <v>4</v>
+      </c>
+      <c r="E401" s="2">
+        <v>14</v>
+      </c>
+      <c r="F401" s="4">
+        <v>4</v>
+      </c>
+      <c r="G401" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C402" s="1">
+        <v>1</v>
+      </c>
+      <c r="D402" s="1">
+        <v>4390000</v>
+      </c>
+      <c r="E402" s="1">
+        <v>1</v>
+      </c>
+      <c r="F402" s="4">
+        <f t="shared" si="1"/>
+        <v>4490000</v>
+      </c>
+      <c r="G402" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>80200</v>
+      </c>
+      <c r="C403" s="1">
+        <v>1</v>
+      </c>
+      <c r="D403" s="1">
+        <v>4400000</v>
+      </c>
+      <c r="E403" s="1">
+        <v>1</v>
+      </c>
+      <c r="F403" s="4">
+        <f t="shared" si="1"/>
+        <v>4500000</v>
+      </c>
+      <c r="G403" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>80400</v>
+      </c>
+      <c r="C404" s="1">
+        <v>1</v>
+      </c>
+      <c r="D404" s="1">
+        <v>4410000</v>
+      </c>
+      <c r="E404" s="1">
+        <v>1</v>
+      </c>
+      <c r="F404" s="4">
+        <f t="shared" si="1"/>
+        <v>4510000</v>
+      </c>
+      <c r="G404" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>80600</v>
+      </c>
+      <c r="C405" s="1">
+        <v>1</v>
+      </c>
+      <c r="D405" s="1">
+        <v>4420000</v>
+      </c>
+      <c r="E405" s="1">
+        <v>1</v>
+      </c>
+      <c r="F405" s="4">
+        <f t="shared" si="1"/>
+        <v>4520000</v>
+      </c>
+      <c r="G405" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>80800</v>
+      </c>
+      <c r="C406" s="2">
+        <v>5</v>
+      </c>
+      <c r="D406" s="1">
+        <v>4430000</v>
+      </c>
+      <c r="E406" s="2">
+        <v>5</v>
+      </c>
+      <c r="F406" s="4">
+        <f t="shared" si="1"/>
+        <v>4530000</v>
+      </c>
+      <c r="G406" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>81000</v>
+      </c>
+      <c r="C407" s="1">
+        <v>1</v>
+      </c>
+      <c r="D407" s="1">
+        <v>4440000</v>
+      </c>
+      <c r="E407" s="1">
+        <v>1</v>
+      </c>
+      <c r="F407" s="4">
+        <f t="shared" si="1"/>
+        <v>4540000</v>
+      </c>
+      <c r="G407" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>81200</v>
+      </c>
+      <c r="C408" s="1">
+        <v>1</v>
+      </c>
+      <c r="D408" s="1">
+        <v>4450000</v>
+      </c>
+      <c r="E408" s="1">
+        <v>1</v>
+      </c>
+      <c r="F408" s="4">
+        <f t="shared" si="1"/>
+        <v>4550000</v>
+      </c>
+      <c r="G408" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>81400</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1</v>
+      </c>
+      <c r="D409" s="1">
+        <v>4460000</v>
+      </c>
+      <c r="E409" s="1">
+        <v>1</v>
+      </c>
+      <c r="F409" s="4">
+        <f t="shared" si="1"/>
+        <v>4560000</v>
+      </c>
+      <c r="G409" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1">
+        <v>81600</v>
+      </c>
+      <c r="C410" s="1">
+        <v>1</v>
+      </c>
+      <c r="D410" s="1">
+        <v>4470000</v>
+      </c>
+      <c r="E410" s="1">
+        <v>1</v>
+      </c>
+      <c r="F410" s="4">
+        <f t="shared" si="1"/>
+        <v>4570000</v>
+      </c>
+      <c r="G410" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>81800</v>
+      </c>
+      <c r="C411" s="2">
+        <v>14</v>
+      </c>
+      <c r="D411" s="1">
+        <v>4</v>
+      </c>
+      <c r="E411" s="2">
+        <v>14</v>
+      </c>
+      <c r="F411" s="4">
+        <v>4</v>
+      </c>
+      <c r="G411" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1">
+        <v>82000</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1</v>
+      </c>
+      <c r="D412" s="1">
+        <v>4490000</v>
+      </c>
+      <c r="E412" s="1">
+        <v>1</v>
+      </c>
+      <c r="F412" s="4">
+        <f t="shared" si="1"/>
+        <v>4590000</v>
+      </c>
+      <c r="G412" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1">
+        <v>82200</v>
+      </c>
+      <c r="C413" s="1">
+        <v>1</v>
+      </c>
+      <c r="D413" s="1">
+        <v>4500000</v>
+      </c>
+      <c r="E413" s="1">
+        <v>1</v>
+      </c>
+      <c r="F413" s="4">
+        <f t="shared" si="1"/>
+        <v>4600000</v>
+      </c>
+      <c r="G413" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1">
+        <v>82400</v>
+      </c>
+      <c r="C414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D414" s="1">
+        <v>4510000</v>
+      </c>
+      <c r="E414" s="1">
+        <v>1</v>
+      </c>
+      <c r="F414" s="4">
+        <f t="shared" si="1"/>
+        <v>4610000</v>
+      </c>
+      <c r="G414" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1">
+        <v>82600</v>
+      </c>
+      <c r="C415" s="1">
+        <v>1</v>
+      </c>
+      <c r="D415" s="1">
+        <v>4520000</v>
+      </c>
+      <c r="E415" s="1">
+        <v>1</v>
+      </c>
+      <c r="F415" s="4">
+        <f t="shared" si="1"/>
+        <v>4620000</v>
+      </c>
+      <c r="G415" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>82800</v>
+      </c>
+      <c r="C416" s="2">
+        <v>5</v>
+      </c>
+      <c r="D416" s="1">
+        <v>4530000</v>
+      </c>
+      <c r="E416" s="2">
+        <v>5</v>
+      </c>
+      <c r="F416" s="4">
+        <f t="shared" si="1"/>
+        <v>4630000</v>
+      </c>
+      <c r="G416" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1">
+        <v>83000</v>
+      </c>
+      <c r="C417" s="1">
+        <v>1</v>
+      </c>
+      <c r="D417" s="1">
+        <v>4540000</v>
+      </c>
+      <c r="E417" s="1">
+        <v>1</v>
+      </c>
+      <c r="F417" s="4">
+        <f t="shared" si="1"/>
+        <v>4640000</v>
+      </c>
+      <c r="G417" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1">
+        <v>83200</v>
+      </c>
+      <c r="C418" s="1">
+        <v>1</v>
+      </c>
+      <c r="D418" s="1">
+        <v>4550000</v>
+      </c>
+      <c r="E418" s="1">
+        <v>1</v>
+      </c>
+      <c r="F418" s="4">
+        <f t="shared" si="1"/>
+        <v>4650000</v>
+      </c>
+      <c r="G418" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1">
+        <v>83400</v>
+      </c>
+      <c r="C419" s="1">
+        <v>1</v>
+      </c>
+      <c r="D419" s="1">
+        <v>4560000</v>
+      </c>
+      <c r="E419" s="1">
+        <v>1</v>
+      </c>
+      <c r="F419" s="4">
+        <f t="shared" si="1"/>
+        <v>4660000</v>
+      </c>
+      <c r="G419" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1">
+        <v>83600</v>
+      </c>
+      <c r="C420" s="1">
+        <v>1</v>
+      </c>
+      <c r="D420" s="1">
+        <v>4570000</v>
+      </c>
+      <c r="E420" s="1">
+        <v>1</v>
+      </c>
+      <c r="F420" s="4">
+        <f t="shared" si="1"/>
+        <v>4670000</v>
+      </c>
+      <c r="G420" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>83800</v>
+      </c>
+      <c r="C421" s="2">
+        <v>14</v>
+      </c>
+      <c r="D421" s="1">
+        <v>4</v>
+      </c>
+      <c r="E421" s="2">
+        <v>14</v>
+      </c>
+      <c r="F421" s="4">
+        <v>4</v>
+      </c>
+      <c r="G421" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1">
+        <v>84000</v>
+      </c>
+      <c r="C422" s="1">
+        <v>1</v>
+      </c>
+      <c r="D422" s="1">
+        <v>4590000</v>
+      </c>
+      <c r="E422" s="1">
+        <v>1</v>
+      </c>
+      <c r="F422" s="4">
+        <f t="shared" si="1"/>
+        <v>4690000</v>
+      </c>
+      <c r="G422" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1">
+        <v>84200</v>
+      </c>
+      <c r="C423" s="1">
+        <v>1</v>
+      </c>
+      <c r="D423" s="1">
+        <v>4600000</v>
+      </c>
+      <c r="E423" s="1">
+        <v>1</v>
+      </c>
+      <c r="F423" s="4">
+        <f t="shared" si="1"/>
+        <v>4700000</v>
+      </c>
+      <c r="G423" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1">
+        <v>84400</v>
+      </c>
+      <c r="C424" s="1">
+        <v>1</v>
+      </c>
+      <c r="D424" s="1">
+        <v>4610000</v>
+      </c>
+      <c r="E424" s="1">
+        <v>1</v>
+      </c>
+      <c r="F424" s="4">
+        <f t="shared" si="1"/>
+        <v>4710000</v>
+      </c>
+      <c r="G424" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1">
+        <v>84600</v>
+      </c>
+      <c r="C425" s="1">
+        <v>1</v>
+      </c>
+      <c r="D425" s="1">
+        <v>4620000</v>
+      </c>
+      <c r="E425" s="1">
+        <v>1</v>
+      </c>
+      <c r="F425" s="4">
+        <f t="shared" si="1"/>
+        <v>4720000</v>
+      </c>
+      <c r="G425" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>84800</v>
+      </c>
+      <c r="C426" s="2">
+        <v>5</v>
+      </c>
+      <c r="D426" s="1">
+        <v>4630000</v>
+      </c>
+      <c r="E426" s="2">
+        <v>5</v>
+      </c>
+      <c r="F426" s="4">
+        <f t="shared" si="1"/>
+        <v>4730000</v>
+      </c>
+      <c r="G426" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1">
+        <v>85000</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1</v>
+      </c>
+      <c r="D427" s="1">
+        <v>4640000</v>
+      </c>
+      <c r="E427" s="1">
+        <v>1</v>
+      </c>
+      <c r="F427" s="4">
+        <f t="shared" si="1"/>
+        <v>4740000</v>
+      </c>
+      <c r="G427" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1">
+        <v>85200</v>
+      </c>
+      <c r="C428" s="1">
+        <v>1</v>
+      </c>
+      <c r="D428" s="1">
+        <v>4650000</v>
+      </c>
+      <c r="E428" s="1">
+        <v>1</v>
+      </c>
+      <c r="F428" s="4">
+        <f t="shared" si="1"/>
+        <v>4750000</v>
+      </c>
+      <c r="G428" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1">
+        <v>85400</v>
+      </c>
+      <c r="C429" s="1">
+        <v>1</v>
+      </c>
+      <c r="D429" s="1">
+        <v>4660000</v>
+      </c>
+      <c r="E429" s="1">
+        <v>1</v>
+      </c>
+      <c r="F429" s="4">
+        <f t="shared" si="1"/>
+        <v>4760000</v>
+      </c>
+      <c r="G429" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1">
+        <v>85600</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1</v>
+      </c>
+      <c r="D430" s="1">
+        <v>4670000</v>
+      </c>
+      <c r="E430" s="1">
+        <v>1</v>
+      </c>
+      <c r="F430" s="4">
+        <f t="shared" si="1"/>
+        <v>4770000</v>
+      </c>
+      <c r="G430" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <v>85800</v>
+      </c>
+      <c r="C431" s="2">
+        <v>14</v>
+      </c>
+      <c r="D431" s="1">
+        <v>4</v>
+      </c>
+      <c r="E431" s="2">
+        <v>14</v>
+      </c>
+      <c r="F431" s="4">
+        <v>4</v>
+      </c>
+      <c r="G431" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1">
+        <v>86000</v>
+      </c>
+      <c r="C432" s="1">
+        <v>1</v>
+      </c>
+      <c r="D432" s="1">
+        <v>4690000</v>
+      </c>
+      <c r="E432" s="1">
+        <v>1</v>
+      </c>
+      <c r="F432" s="4">
+        <f t="shared" ref="F432:F452" si="2">D432+100000</f>
+        <v>4790000</v>
+      </c>
+      <c r="G432" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1">
+        <v>86200</v>
+      </c>
+      <c r="C433" s="1">
+        <v>1</v>
+      </c>
+      <c r="D433" s="1">
+        <v>4700000</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1</v>
+      </c>
+      <c r="F433" s="4">
+        <f t="shared" si="2"/>
+        <v>4800000</v>
+      </c>
+      <c r="G433" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1">
+        <v>86400</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1</v>
+      </c>
+      <c r="D434" s="1">
+        <v>4710000</v>
+      </c>
+      <c r="E434" s="1">
+        <v>1</v>
+      </c>
+      <c r="F434" s="4">
+        <f t="shared" si="2"/>
+        <v>4810000</v>
+      </c>
+      <c r="G434" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1">
+        <v>86600</v>
+      </c>
+      <c r="C435" s="1">
+        <v>1</v>
+      </c>
+      <c r="D435" s="1">
+        <v>4720000</v>
+      </c>
+      <c r="E435" s="1">
+        <v>1</v>
+      </c>
+      <c r="F435" s="4">
+        <f t="shared" si="2"/>
+        <v>4820000</v>
+      </c>
+      <c r="G435" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <v>86800</v>
+      </c>
+      <c r="C436" s="2">
+        <v>5</v>
+      </c>
+      <c r="D436" s="1">
+        <v>4730000</v>
+      </c>
+      <c r="E436" s="2">
+        <v>5</v>
+      </c>
+      <c r="F436" s="4">
+        <f t="shared" si="2"/>
+        <v>4830000</v>
+      </c>
+      <c r="G436" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1">
+        <v>87000</v>
+      </c>
+      <c r="C437" s="1">
+        <v>1</v>
+      </c>
+      <c r="D437" s="1">
+        <v>4740000</v>
+      </c>
+      <c r="E437" s="1">
+        <v>1</v>
+      </c>
+      <c r="F437" s="4">
+        <f t="shared" si="2"/>
+        <v>4840000</v>
+      </c>
+      <c r="G437" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1">
+        <v>87200</v>
+      </c>
+      <c r="C438" s="1">
+        <v>1</v>
+      </c>
+      <c r="D438" s="1">
+        <v>4750000</v>
+      </c>
+      <c r="E438" s="1">
+        <v>1</v>
+      </c>
+      <c r="F438" s="4">
+        <f t="shared" si="2"/>
+        <v>4850000</v>
+      </c>
+      <c r="G438" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1">
+        <v>87400</v>
+      </c>
+      <c r="C439" s="1">
+        <v>1</v>
+      </c>
+      <c r="D439" s="1">
+        <v>4760000</v>
+      </c>
+      <c r="E439" s="1">
+        <v>1</v>
+      </c>
+      <c r="F439" s="4">
+        <f t="shared" si="2"/>
+        <v>4860000</v>
+      </c>
+      <c r="G439" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1">
+        <v>87600</v>
+      </c>
+      <c r="C440" s="1">
+        <v>1</v>
+      </c>
+      <c r="D440" s="1">
+        <v>4770000</v>
+      </c>
+      <c r="E440" s="1">
+        <v>1</v>
+      </c>
+      <c r="F440" s="4">
+        <f t="shared" si="2"/>
+        <v>4870000</v>
+      </c>
+      <c r="G440" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <v>87800</v>
+      </c>
+      <c r="C441" s="2">
+        <v>14</v>
+      </c>
+      <c r="D441" s="1">
+        <v>4</v>
+      </c>
+      <c r="E441" s="2">
+        <v>14</v>
+      </c>
+      <c r="F441" s="4">
+        <v>4</v>
+      </c>
+      <c r="G441" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1">
+        <v>88000</v>
+      </c>
+      <c r="C442" s="1">
+        <v>1</v>
+      </c>
+      <c r="D442" s="1">
+        <v>4790000</v>
+      </c>
+      <c r="E442" s="1">
+        <v>1</v>
+      </c>
+      <c r="F442" s="4">
+        <f t="shared" si="2"/>
+        <v>4890000</v>
+      </c>
+      <c r="G442" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" s="1">
+        <v>88200</v>
+      </c>
+      <c r="C443" s="1">
+        <v>1</v>
+      </c>
+      <c r="D443" s="1">
+        <v>4800000</v>
+      </c>
+      <c r="E443" s="1">
+        <v>1</v>
+      </c>
+      <c r="F443" s="4">
+        <f t="shared" si="2"/>
+        <v>4900000</v>
+      </c>
+      <c r="G443" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" s="1">
+        <v>88400</v>
+      </c>
+      <c r="C444" s="1">
+        <v>1</v>
+      </c>
+      <c r="D444" s="1">
+        <v>4810000</v>
+      </c>
+      <c r="E444" s="1">
+        <v>1</v>
+      </c>
+      <c r="F444" s="4">
+        <f t="shared" si="2"/>
+        <v>4910000</v>
+      </c>
+      <c r="G444" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" s="1">
+        <v>88600</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1</v>
+      </c>
+      <c r="D445" s="1">
+        <v>4820000</v>
+      </c>
+      <c r="E445" s="1">
+        <v>1</v>
+      </c>
+      <c r="F445" s="4">
+        <f t="shared" si="2"/>
+        <v>4920000</v>
+      </c>
+      <c r="G445" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <v>88800</v>
+      </c>
+      <c r="C446" s="2">
+        <v>5</v>
+      </c>
+      <c r="D446" s="1">
+        <v>4830000</v>
+      </c>
+      <c r="E446" s="2">
+        <v>5</v>
+      </c>
+      <c r="F446" s="4">
+        <f t="shared" si="2"/>
+        <v>4930000</v>
+      </c>
+      <c r="G446" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1">
+        <v>89000</v>
+      </c>
+      <c r="C447" s="1">
+        <v>1</v>
+      </c>
+      <c r="D447" s="1">
+        <v>4840000</v>
+      </c>
+      <c r="E447" s="1">
+        <v>1</v>
+      </c>
+      <c r="F447" s="4">
+        <f t="shared" si="2"/>
+        <v>4940000</v>
+      </c>
+      <c r="G447" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" s="1">
+        <v>89200</v>
+      </c>
+      <c r="C448" s="1">
+        <v>1</v>
+      </c>
+      <c r="D448" s="1">
+        <v>4850000</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1</v>
+      </c>
+      <c r="F448" s="4">
+        <f t="shared" si="2"/>
+        <v>4950000</v>
+      </c>
+      <c r="G448" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" s="1">
+        <v>89400</v>
+      </c>
+      <c r="C449" s="1">
+        <v>1</v>
+      </c>
+      <c r="D449" s="1">
+        <v>4860000</v>
+      </c>
+      <c r="E449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F449" s="4">
+        <f t="shared" si="2"/>
+        <v>4960000</v>
+      </c>
+      <c r="G449" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" s="1">
+        <v>89600</v>
+      </c>
+      <c r="C450" s="1">
+        <v>1</v>
+      </c>
+      <c r="D450" s="1">
+        <v>4870000</v>
+      </c>
+      <c r="E450" s="1">
+        <v>1</v>
+      </c>
+      <c r="F450" s="4">
+        <f t="shared" si="2"/>
+        <v>4970000</v>
+      </c>
+      <c r="G450" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <v>89800</v>
+      </c>
+      <c r="C451" s="2">
+        <v>14</v>
+      </c>
+      <c r="D451" s="1">
+        <v>4</v>
+      </c>
+      <c r="E451" s="2">
+        <v>14</v>
+      </c>
+      <c r="F451" s="4">
+        <v>4</v>
+      </c>
+      <c r="G451" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C452" s="1">
+        <v>1</v>
+      </c>
+      <c r="D452" s="1">
+        <v>4890000</v>
+      </c>
+      <c r="E452" s="1">
+        <v>1</v>
+      </c>
+      <c r="F452" s="4">
+        <f t="shared" si="2"/>
+        <v>4990000</v>
+      </c>
+      <c r="G452" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9CC4C0-62A6-4F93-A1E2-5C1719741FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F436C-48CC-4D09-BAEE-8152B23536F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -487,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F446" sqref="F446"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I498" sqref="I498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="F432" s="4">
-        <f t="shared" ref="F432:F452" si="2">D432+100000</f>
+        <f t="shared" ref="F432:F495" si="2">D432+100000</f>
         <v>4790000</v>
       </c>
       <c r="G432" s="1">
@@ -11032,6 +11032,1201 @@
         <v>4990000</v>
       </c>
       <c r="G452" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" s="1">
+        <v>90200</v>
+      </c>
+      <c r="C453" s="1">
+        <v>1</v>
+      </c>
+      <c r="D453" s="1">
+        <v>4900000</v>
+      </c>
+      <c r="E453" s="1">
+        <v>1</v>
+      </c>
+      <c r="F453" s="4">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="G453" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" s="1">
+        <v>90400</v>
+      </c>
+      <c r="C454" s="1">
+        <v>1</v>
+      </c>
+      <c r="D454" s="1">
+        <v>4910000</v>
+      </c>
+      <c r="E454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F454" s="4">
+        <f t="shared" si="2"/>
+        <v>5010000</v>
+      </c>
+      <c r="G454" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" s="1">
+        <v>90600</v>
+      </c>
+      <c r="C455" s="1">
+        <v>1</v>
+      </c>
+      <c r="D455" s="1">
+        <v>4920000</v>
+      </c>
+      <c r="E455" s="1">
+        <v>1</v>
+      </c>
+      <c r="F455" s="4">
+        <f t="shared" si="2"/>
+        <v>5020000</v>
+      </c>
+      <c r="G455" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" s="1">
+        <v>90800</v>
+      </c>
+      <c r="C456" s="2">
+        <v>5</v>
+      </c>
+      <c r="D456" s="1">
+        <v>4930000</v>
+      </c>
+      <c r="E456" s="2">
+        <v>5</v>
+      </c>
+      <c r="F456" s="4">
+        <f t="shared" si="2"/>
+        <v>5030000</v>
+      </c>
+      <c r="G456" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" s="1">
+        <v>91000</v>
+      </c>
+      <c r="C457" s="1">
+        <v>1</v>
+      </c>
+      <c r="D457" s="1">
+        <v>4940000</v>
+      </c>
+      <c r="E457" s="1">
+        <v>1</v>
+      </c>
+      <c r="F457" s="4">
+        <f t="shared" si="2"/>
+        <v>5040000</v>
+      </c>
+      <c r="G457" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" s="1">
+        <v>91200</v>
+      </c>
+      <c r="C458" s="1">
+        <v>1</v>
+      </c>
+      <c r="D458" s="1">
+        <v>4950000</v>
+      </c>
+      <c r="E458" s="1">
+        <v>1</v>
+      </c>
+      <c r="F458" s="4">
+        <f t="shared" si="2"/>
+        <v>5050000</v>
+      </c>
+      <c r="G458" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" s="1">
+        <v>91400</v>
+      </c>
+      <c r="C459" s="1">
+        <v>1</v>
+      </c>
+      <c r="D459" s="1">
+        <v>4960000</v>
+      </c>
+      <c r="E459" s="1">
+        <v>1</v>
+      </c>
+      <c r="F459" s="4">
+        <f t="shared" si="2"/>
+        <v>5060000</v>
+      </c>
+      <c r="G459" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" s="1">
+        <v>91600</v>
+      </c>
+      <c r="C460" s="1">
+        <v>1</v>
+      </c>
+      <c r="D460" s="1">
+        <v>4970000</v>
+      </c>
+      <c r="E460" s="1">
+        <v>1</v>
+      </c>
+      <c r="F460" s="4">
+        <f t="shared" si="2"/>
+        <v>5070000</v>
+      </c>
+      <c r="G460" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" s="1">
+        <v>91800</v>
+      </c>
+      <c r="C461" s="2">
+        <v>14</v>
+      </c>
+      <c r="D461" s="1">
+        <v>4</v>
+      </c>
+      <c r="E461" s="2">
+        <v>14</v>
+      </c>
+      <c r="F461" s="4">
+        <v>4</v>
+      </c>
+      <c r="G461" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" s="1">
+        <v>92000</v>
+      </c>
+      <c r="C462" s="1">
+        <v>1</v>
+      </c>
+      <c r="D462" s="1">
+        <v>4990000</v>
+      </c>
+      <c r="E462" s="1">
+        <v>1</v>
+      </c>
+      <c r="F462" s="4">
+        <f t="shared" si="2"/>
+        <v>5090000</v>
+      </c>
+      <c r="G462" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" s="1">
+        <v>92200</v>
+      </c>
+      <c r="C463" s="1">
+        <v>1</v>
+      </c>
+      <c r="D463" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E463" s="1">
+        <v>1</v>
+      </c>
+      <c r="F463" s="4">
+        <f t="shared" si="2"/>
+        <v>5100000</v>
+      </c>
+      <c r="G463" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" s="1">
+        <v>92400</v>
+      </c>
+      <c r="C464" s="1">
+        <v>1</v>
+      </c>
+      <c r="D464" s="1">
+        <v>5010000</v>
+      </c>
+      <c r="E464" s="1">
+        <v>1</v>
+      </c>
+      <c r="F464" s="4">
+        <f t="shared" si="2"/>
+        <v>5110000</v>
+      </c>
+      <c r="G464" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" s="1">
+        <v>92600</v>
+      </c>
+      <c r="C465" s="1">
+        <v>1</v>
+      </c>
+      <c r="D465" s="1">
+        <v>5020000</v>
+      </c>
+      <c r="E465" s="1">
+        <v>1</v>
+      </c>
+      <c r="F465" s="4">
+        <f t="shared" si="2"/>
+        <v>5120000</v>
+      </c>
+      <c r="G465" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" s="1">
+        <v>92800</v>
+      </c>
+      <c r="C466" s="2">
+        <v>5</v>
+      </c>
+      <c r="D466" s="1">
+        <v>5030000</v>
+      </c>
+      <c r="E466" s="2">
+        <v>5</v>
+      </c>
+      <c r="F466" s="4">
+        <f t="shared" si="2"/>
+        <v>5130000</v>
+      </c>
+      <c r="G466" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" s="1">
+        <v>93000</v>
+      </c>
+      <c r="C467" s="1">
+        <v>1</v>
+      </c>
+      <c r="D467" s="1">
+        <v>5040000</v>
+      </c>
+      <c r="E467" s="1">
+        <v>1</v>
+      </c>
+      <c r="F467" s="4">
+        <f t="shared" si="2"/>
+        <v>5140000</v>
+      </c>
+      <c r="G467" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" s="1">
+        <v>93200</v>
+      </c>
+      <c r="C468" s="1">
+        <v>1</v>
+      </c>
+      <c r="D468" s="1">
+        <v>5050000</v>
+      </c>
+      <c r="E468" s="1">
+        <v>1</v>
+      </c>
+      <c r="F468" s="4">
+        <f t="shared" si="2"/>
+        <v>5150000</v>
+      </c>
+      <c r="G468" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" s="1">
+        <v>93400</v>
+      </c>
+      <c r="C469" s="1">
+        <v>1</v>
+      </c>
+      <c r="D469" s="1">
+        <v>5060000</v>
+      </c>
+      <c r="E469" s="1">
+        <v>1</v>
+      </c>
+      <c r="F469" s="4">
+        <f t="shared" si="2"/>
+        <v>5160000</v>
+      </c>
+      <c r="G469" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" s="1">
+        <v>93600</v>
+      </c>
+      <c r="C470" s="1">
+        <v>1</v>
+      </c>
+      <c r="D470" s="1">
+        <v>5070000</v>
+      </c>
+      <c r="E470" s="1">
+        <v>1</v>
+      </c>
+      <c r="F470" s="4">
+        <f t="shared" si="2"/>
+        <v>5170000</v>
+      </c>
+      <c r="G470" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" s="1">
+        <v>93800</v>
+      </c>
+      <c r="C471" s="2">
+        <v>14</v>
+      </c>
+      <c r="D471" s="1">
+        <v>4</v>
+      </c>
+      <c r="E471" s="2">
+        <v>14</v>
+      </c>
+      <c r="F471" s="4">
+        <v>4</v>
+      </c>
+      <c r="G471" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" s="1">
+        <v>94000</v>
+      </c>
+      <c r="C472" s="1">
+        <v>1</v>
+      </c>
+      <c r="D472" s="1">
+        <v>5090000</v>
+      </c>
+      <c r="E472" s="1">
+        <v>1</v>
+      </c>
+      <c r="F472" s="4">
+        <f t="shared" si="2"/>
+        <v>5190000</v>
+      </c>
+      <c r="G472" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" s="1">
+        <v>94200</v>
+      </c>
+      <c r="C473" s="1">
+        <v>1</v>
+      </c>
+      <c r="D473" s="1">
+        <v>5100000</v>
+      </c>
+      <c r="E473" s="1">
+        <v>1</v>
+      </c>
+      <c r="F473" s="4">
+        <f t="shared" si="2"/>
+        <v>5200000</v>
+      </c>
+      <c r="G473" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" s="1">
+        <v>94400</v>
+      </c>
+      <c r="C474" s="1">
+        <v>1</v>
+      </c>
+      <c r="D474" s="1">
+        <v>5110000</v>
+      </c>
+      <c r="E474" s="1">
+        <v>1</v>
+      </c>
+      <c r="F474" s="4">
+        <f t="shared" si="2"/>
+        <v>5210000</v>
+      </c>
+      <c r="G474" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" s="1">
+        <v>94600</v>
+      </c>
+      <c r="C475" s="1">
+        <v>1</v>
+      </c>
+      <c r="D475" s="1">
+        <v>5120000</v>
+      </c>
+      <c r="E475" s="1">
+        <v>1</v>
+      </c>
+      <c r="F475" s="4">
+        <f t="shared" si="2"/>
+        <v>5220000</v>
+      </c>
+      <c r="G475" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" s="1">
+        <v>94800</v>
+      </c>
+      <c r="C476" s="2">
+        <v>5</v>
+      </c>
+      <c r="D476" s="1">
+        <v>5130000</v>
+      </c>
+      <c r="E476" s="2">
+        <v>5</v>
+      </c>
+      <c r="F476" s="4">
+        <f t="shared" si="2"/>
+        <v>5230000</v>
+      </c>
+      <c r="G476" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" s="1">
+        <v>95000</v>
+      </c>
+      <c r="C477" s="1">
+        <v>1</v>
+      </c>
+      <c r="D477" s="1">
+        <v>5140000</v>
+      </c>
+      <c r="E477" s="1">
+        <v>1</v>
+      </c>
+      <c r="F477" s="4">
+        <f t="shared" si="2"/>
+        <v>5240000</v>
+      </c>
+      <c r="G477" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" s="1">
+        <v>95200</v>
+      </c>
+      <c r="C478" s="1">
+        <v>1</v>
+      </c>
+      <c r="D478" s="1">
+        <v>5150000</v>
+      </c>
+      <c r="E478" s="1">
+        <v>1</v>
+      </c>
+      <c r="F478" s="4">
+        <f t="shared" si="2"/>
+        <v>5250000</v>
+      </c>
+      <c r="G478" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" s="1">
+        <v>95400</v>
+      </c>
+      <c r="C479" s="1">
+        <v>1</v>
+      </c>
+      <c r="D479" s="1">
+        <v>5160000</v>
+      </c>
+      <c r="E479" s="1">
+        <v>1</v>
+      </c>
+      <c r="F479" s="4">
+        <f t="shared" si="2"/>
+        <v>5260000</v>
+      </c>
+      <c r="G479" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" s="1">
+        <v>95600</v>
+      </c>
+      <c r="C480" s="1">
+        <v>1</v>
+      </c>
+      <c r="D480" s="1">
+        <v>5170000</v>
+      </c>
+      <c r="E480" s="1">
+        <v>1</v>
+      </c>
+      <c r="F480" s="4">
+        <f t="shared" si="2"/>
+        <v>5270000</v>
+      </c>
+      <c r="G480" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" s="1">
+        <v>95800</v>
+      </c>
+      <c r="C481" s="2">
+        <v>14</v>
+      </c>
+      <c r="D481" s="1">
+        <v>4</v>
+      </c>
+      <c r="E481" s="2">
+        <v>14</v>
+      </c>
+      <c r="F481" s="4">
+        <v>4</v>
+      </c>
+      <c r="G481" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" s="1">
+        <v>96000</v>
+      </c>
+      <c r="C482" s="1">
+        <v>1</v>
+      </c>
+      <c r="D482" s="1">
+        <v>5190000</v>
+      </c>
+      <c r="E482" s="1">
+        <v>1</v>
+      </c>
+      <c r="F482" s="4">
+        <f t="shared" si="2"/>
+        <v>5290000</v>
+      </c>
+      <c r="G482" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" s="1">
+        <v>96200</v>
+      </c>
+      <c r="C483" s="1">
+        <v>1</v>
+      </c>
+      <c r="D483" s="1">
+        <v>5200000</v>
+      </c>
+      <c r="E483" s="1">
+        <v>1</v>
+      </c>
+      <c r="F483" s="4">
+        <f t="shared" si="2"/>
+        <v>5300000</v>
+      </c>
+      <c r="G483" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" s="1">
+        <v>96400</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D484" s="1">
+        <v>5210000</v>
+      </c>
+      <c r="E484" s="1">
+        <v>1</v>
+      </c>
+      <c r="F484" s="4">
+        <f t="shared" si="2"/>
+        <v>5310000</v>
+      </c>
+      <c r="G484" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" s="1">
+        <v>96600</v>
+      </c>
+      <c r="C485" s="1">
+        <v>1</v>
+      </c>
+      <c r="D485" s="1">
+        <v>5220000</v>
+      </c>
+      <c r="E485" s="1">
+        <v>1</v>
+      </c>
+      <c r="F485" s="4">
+        <f t="shared" si="2"/>
+        <v>5320000</v>
+      </c>
+      <c r="G485" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" s="1">
+        <v>96800</v>
+      </c>
+      <c r="C486" s="2">
+        <v>5</v>
+      </c>
+      <c r="D486" s="1">
+        <v>5230000</v>
+      </c>
+      <c r="E486" s="2">
+        <v>5</v>
+      </c>
+      <c r="F486" s="4">
+        <f t="shared" si="2"/>
+        <v>5330000</v>
+      </c>
+      <c r="G486" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" s="1">
+        <v>97000</v>
+      </c>
+      <c r="C487" s="1">
+        <v>1</v>
+      </c>
+      <c r="D487" s="1">
+        <v>5240000</v>
+      </c>
+      <c r="E487" s="1">
+        <v>1</v>
+      </c>
+      <c r="F487" s="4">
+        <f t="shared" si="2"/>
+        <v>5340000</v>
+      </c>
+      <c r="G487" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" s="1">
+        <v>97200</v>
+      </c>
+      <c r="C488" s="1">
+        <v>1</v>
+      </c>
+      <c r="D488" s="1">
+        <v>5250000</v>
+      </c>
+      <c r="E488" s="1">
+        <v>1</v>
+      </c>
+      <c r="F488" s="4">
+        <f t="shared" si="2"/>
+        <v>5350000</v>
+      </c>
+      <c r="G488" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" s="1">
+        <v>97400</v>
+      </c>
+      <c r="C489" s="1">
+        <v>1</v>
+      </c>
+      <c r="D489" s="1">
+        <v>5260000</v>
+      </c>
+      <c r="E489" s="1">
+        <v>1</v>
+      </c>
+      <c r="F489" s="4">
+        <f t="shared" si="2"/>
+        <v>5360000</v>
+      </c>
+      <c r="G489" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" s="1">
+        <v>97600</v>
+      </c>
+      <c r="C490" s="1">
+        <v>1</v>
+      </c>
+      <c r="D490" s="1">
+        <v>5270000</v>
+      </c>
+      <c r="E490" s="1">
+        <v>1</v>
+      </c>
+      <c r="F490" s="4">
+        <f t="shared" si="2"/>
+        <v>5370000</v>
+      </c>
+      <c r="G490" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" s="1">
+        <v>97800</v>
+      </c>
+      <c r="C491" s="2">
+        <v>14</v>
+      </c>
+      <c r="D491" s="1">
+        <v>4</v>
+      </c>
+      <c r="E491" s="2">
+        <v>14</v>
+      </c>
+      <c r="F491" s="4">
+        <v>4</v>
+      </c>
+      <c r="G491" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" s="1">
+        <v>98000</v>
+      </c>
+      <c r="C492" s="1">
+        <v>1</v>
+      </c>
+      <c r="D492" s="1">
+        <v>5290000</v>
+      </c>
+      <c r="E492" s="1">
+        <v>1</v>
+      </c>
+      <c r="F492" s="4">
+        <f t="shared" si="2"/>
+        <v>5390000</v>
+      </c>
+      <c r="G492" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" s="1">
+        <v>98200</v>
+      </c>
+      <c r="C493" s="1">
+        <v>1</v>
+      </c>
+      <c r="D493" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="E493" s="1">
+        <v>1</v>
+      </c>
+      <c r="F493" s="4">
+        <f t="shared" si="2"/>
+        <v>5400000</v>
+      </c>
+      <c r="G493" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" s="1">
+        <v>98400</v>
+      </c>
+      <c r="C494" s="1">
+        <v>1</v>
+      </c>
+      <c r="D494" s="1">
+        <v>5310000</v>
+      </c>
+      <c r="E494" s="1">
+        <v>1</v>
+      </c>
+      <c r="F494" s="4">
+        <f t="shared" si="2"/>
+        <v>5410000</v>
+      </c>
+      <c r="G494" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" s="1">
+        <v>98600</v>
+      </c>
+      <c r="C495" s="1">
+        <v>1</v>
+      </c>
+      <c r="D495" s="1">
+        <v>5320000</v>
+      </c>
+      <c r="E495" s="1">
+        <v>1</v>
+      </c>
+      <c r="F495" s="4">
+        <f t="shared" si="2"/>
+        <v>5420000</v>
+      </c>
+      <c r="G495" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" s="1">
+        <v>98800</v>
+      </c>
+      <c r="C496" s="2">
+        <v>5</v>
+      </c>
+      <c r="D496" s="1">
+        <v>5330000</v>
+      </c>
+      <c r="E496" s="2">
+        <v>5</v>
+      </c>
+      <c r="F496" s="4">
+        <f t="shared" ref="F496:F502" si="3">D496+100000</f>
+        <v>5430000</v>
+      </c>
+      <c r="G496" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" s="1">
+        <v>99000</v>
+      </c>
+      <c r="C497" s="1">
+        <v>1</v>
+      </c>
+      <c r="D497" s="1">
+        <v>5340000</v>
+      </c>
+      <c r="E497" s="1">
+        <v>1</v>
+      </c>
+      <c r="F497" s="4">
+        <f t="shared" si="3"/>
+        <v>5440000</v>
+      </c>
+      <c r="G497" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" s="1">
+        <v>99200</v>
+      </c>
+      <c r="C498" s="1">
+        <v>1</v>
+      </c>
+      <c r="D498" s="1">
+        <v>5350000</v>
+      </c>
+      <c r="E498" s="1">
+        <v>1</v>
+      </c>
+      <c r="F498" s="4">
+        <f t="shared" si="3"/>
+        <v>5450000</v>
+      </c>
+      <c r="G498" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" s="1">
+        <v>99400</v>
+      </c>
+      <c r="C499" s="1">
+        <v>1</v>
+      </c>
+      <c r="D499" s="1">
+        <v>5360000</v>
+      </c>
+      <c r="E499" s="1">
+        <v>1</v>
+      </c>
+      <c r="F499" s="4">
+        <f t="shared" si="3"/>
+        <v>5460000</v>
+      </c>
+      <c r="G499" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" s="1">
+        <v>99600</v>
+      </c>
+      <c r="C500" s="1">
+        <v>1</v>
+      </c>
+      <c r="D500" s="1">
+        <v>5370000</v>
+      </c>
+      <c r="E500" s="1">
+        <v>1</v>
+      </c>
+      <c r="F500" s="4">
+        <f t="shared" si="3"/>
+        <v>5470000</v>
+      </c>
+      <c r="G500" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" s="1">
+        <v>99800</v>
+      </c>
+      <c r="C501" s="2">
+        <v>14</v>
+      </c>
+      <c r="D501" s="1">
+        <v>4</v>
+      </c>
+      <c r="E501" s="2">
+        <v>14</v>
+      </c>
+      <c r="F501" s="4">
+        <v>4</v>
+      </c>
+      <c r="G501" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C502" s="1">
+        <v>1</v>
+      </c>
+      <c r="D502" s="1">
+        <v>5390000</v>
+      </c>
+      <c r="E502" s="1">
+        <v>1</v>
+      </c>
+      <c r="F502" s="4">
+        <f t="shared" si="3"/>
+        <v>5490000</v>
+      </c>
+      <c r="G502" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F436C-48CC-4D09-BAEE-8152B23536F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971E098-1329-4019-B750-DB5EAFB24CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -490,8 +490,8 @@
   <dimension ref="A1:G502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I498" sqref="I498"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7578,17 +7578,16 @@
         <v>61200</v>
       </c>
       <c r="C308" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D308" s="1">
-        <v>3450000</v>
+        <v>200</v>
       </c>
       <c r="E308" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F308" s="4">
-        <f t="shared" si="0"/>
-        <v>3550000</v>
+        <v>200</v>
       </c>
       <c r="G308" s="1">
         <v>2</v>
@@ -7721,17 +7720,16 @@
         <v>62400</v>
       </c>
       <c r="C314" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D314" s="1">
-        <v>3510000</v>
+        <v>200</v>
       </c>
       <c r="E314" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F314" s="4">
-        <f t="shared" si="0"/>
-        <v>3610000</v>
+        <v>200</v>
       </c>
       <c r="G314" s="1">
         <v>2</v>
@@ -7841,17 +7839,16 @@
         <v>63400</v>
       </c>
       <c r="C319" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D319" s="1">
-        <v>3560000</v>
+        <v>200</v>
       </c>
       <c r="E319" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F319" s="4">
-        <f t="shared" si="0"/>
-        <v>3660000</v>
+        <v>200</v>
       </c>
       <c r="G319" s="1">
         <v>2</v>
@@ -7960,17 +7957,16 @@
         <v>64400</v>
       </c>
       <c r="C324" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D324" s="1">
-        <v>3610000</v>
+        <v>200</v>
       </c>
       <c r="E324" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F324" s="4">
-        <f t="shared" si="0"/>
-        <v>3710000</v>
+        <v>200</v>
       </c>
       <c r="G324" s="1">
         <v>2</v>
@@ -8080,17 +8076,16 @@
         <v>65400</v>
       </c>
       <c r="C329" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D329" s="1">
-        <v>3660000</v>
+        <v>200</v>
       </c>
       <c r="E329" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F329" s="4">
-        <f t="shared" si="0"/>
-        <v>3760000</v>
+        <v>200</v>
       </c>
       <c r="G329" s="1">
         <v>2</v>
@@ -8199,17 +8194,16 @@
         <v>66400</v>
       </c>
       <c r="C334" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D334" s="1">
-        <v>3710000</v>
+        <v>200</v>
       </c>
       <c r="E334" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F334" s="4">
-        <f t="shared" si="0"/>
-        <v>3810000</v>
+        <v>200</v>
       </c>
       <c r="G334" s="1">
         <v>2</v>
@@ -8319,17 +8313,16 @@
         <v>67400</v>
       </c>
       <c r="C339" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D339" s="1">
-        <v>3760000</v>
+        <v>200</v>
       </c>
       <c r="E339" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F339" s="4">
-        <f t="shared" si="0"/>
-        <v>3860000</v>
+        <v>200</v>
       </c>
       <c r="G339" s="1">
         <v>2</v>
@@ -8438,17 +8431,16 @@
         <v>68400</v>
       </c>
       <c r="C344" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D344" s="1">
-        <v>3810000</v>
+        <v>200</v>
       </c>
       <c r="E344" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F344" s="4">
-        <f t="shared" si="0"/>
-        <v>3910000</v>
+        <v>200</v>
       </c>
       <c r="G344" s="1">
         <v>2</v>
@@ -8558,17 +8550,16 @@
         <v>69400</v>
       </c>
       <c r="C349" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D349" s="1">
-        <v>3860000</v>
+        <v>200</v>
       </c>
       <c r="E349" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F349" s="4">
-        <f t="shared" si="0"/>
-        <v>3960000</v>
+        <v>200</v>
       </c>
       <c r="G349" s="1">
         <v>2</v>
@@ -8677,17 +8668,16 @@
         <v>70400</v>
       </c>
       <c r="C354" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D354" s="1">
-        <v>3910000</v>
+        <v>200</v>
       </c>
       <c r="E354" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F354" s="4">
-        <f t="shared" si="0"/>
-        <v>4010000</v>
+        <v>200</v>
       </c>
       <c r="G354" s="1">
         <v>2</v>
@@ -8797,17 +8787,16 @@
         <v>71400</v>
       </c>
       <c r="C359" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D359" s="1">
-        <v>3960000</v>
+        <v>200</v>
       </c>
       <c r="E359" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F359" s="4">
-        <f t="shared" si="0"/>
-        <v>4060000</v>
+        <v>200</v>
       </c>
       <c r="G359" s="1">
         <v>2</v>
@@ -8916,17 +8905,16 @@
         <v>72400</v>
       </c>
       <c r="C364" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D364" s="1">
-        <v>4010000</v>
+        <v>200</v>
       </c>
       <c r="E364" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F364" s="4">
-        <f t="shared" si="0"/>
-        <v>4110000</v>
+        <v>200</v>
       </c>
       <c r="G364" s="1">
         <v>2</v>
@@ -9036,17 +9024,16 @@
         <v>73400</v>
       </c>
       <c r="C369" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D369" s="1">
-        <v>4060000</v>
+        <v>200</v>
       </c>
       <c r="E369" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F369" s="4">
-        <f t="shared" si="1"/>
-        <v>4160000</v>
+        <v>200</v>
       </c>
       <c r="G369" s="1">
         <v>2</v>
@@ -9155,17 +9142,16 @@
         <v>74400</v>
       </c>
       <c r="C374" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D374" s="1">
-        <v>4110000</v>
+        <v>200</v>
       </c>
       <c r="E374" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F374" s="4">
-        <f t="shared" si="1"/>
-        <v>4210000</v>
+        <v>200</v>
       </c>
       <c r="G374" s="1">
         <v>2</v>
@@ -9275,17 +9261,16 @@
         <v>75400</v>
       </c>
       <c r="C379" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D379" s="1">
-        <v>4160000</v>
+        <v>200</v>
       </c>
       <c r="E379" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F379" s="4">
-        <f t="shared" si="1"/>
-        <v>4260000</v>
+        <v>200</v>
       </c>
       <c r="G379" s="1">
         <v>2</v>
@@ -9394,17 +9379,16 @@
         <v>76400</v>
       </c>
       <c r="C384" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D384" s="1">
-        <v>4210000</v>
+        <v>200</v>
       </c>
       <c r="E384" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F384" s="4">
-        <f t="shared" si="1"/>
-        <v>4310000</v>
+        <v>200</v>
       </c>
       <c r="G384" s="1">
         <v>2</v>
@@ -9514,17 +9498,16 @@
         <v>77400</v>
       </c>
       <c r="C389" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D389" s="1">
-        <v>4260000</v>
+        <v>200</v>
       </c>
       <c r="E389" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F389" s="4">
-        <f t="shared" si="1"/>
-        <v>4360000</v>
+        <v>200</v>
       </c>
       <c r="G389" s="1">
         <v>2</v>
@@ -9633,17 +9616,16 @@
         <v>78400</v>
       </c>
       <c r="C394" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D394" s="1">
-        <v>4310000</v>
+        <v>200</v>
       </c>
       <c r="E394" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F394" s="4">
-        <f t="shared" si="1"/>
-        <v>4410000</v>
+        <v>200</v>
       </c>
       <c r="G394" s="1">
         <v>2</v>
@@ -9753,17 +9735,16 @@
         <v>79400</v>
       </c>
       <c r="C399" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D399" s="1">
-        <v>4360000</v>
+        <v>200</v>
       </c>
       <c r="E399" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F399" s="4">
-        <f t="shared" si="1"/>
-        <v>4460000</v>
+        <v>200</v>
       </c>
       <c r="G399" s="1">
         <v>2</v>
@@ -9872,17 +9853,16 @@
         <v>80400</v>
       </c>
       <c r="C404" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D404" s="1">
-        <v>4410000</v>
+        <v>200</v>
       </c>
       <c r="E404" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F404" s="4">
-        <f t="shared" si="1"/>
-        <v>4510000</v>
+        <v>200</v>
       </c>
       <c r="G404" s="1">
         <v>2</v>
@@ -9992,17 +9972,16 @@
         <v>81400</v>
       </c>
       <c r="C409" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D409" s="1">
-        <v>4460000</v>
+        <v>200</v>
       </c>
       <c r="E409" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F409" s="4">
-        <f t="shared" si="1"/>
-        <v>4560000</v>
+        <v>200</v>
       </c>
       <c r="G409" s="1">
         <v>2</v>
@@ -10111,17 +10090,16 @@
         <v>82400</v>
       </c>
       <c r="C414" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D414" s="1">
-        <v>4510000</v>
+        <v>200</v>
       </c>
       <c r="E414" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F414" s="4">
-        <f t="shared" si="1"/>
-        <v>4610000</v>
+        <v>200</v>
       </c>
       <c r="G414" s="1">
         <v>2</v>
@@ -10231,17 +10209,16 @@
         <v>83400</v>
       </c>
       <c r="C419" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D419" s="1">
-        <v>4560000</v>
+        <v>200</v>
       </c>
       <c r="E419" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F419" s="4">
-        <f t="shared" si="1"/>
-        <v>4660000</v>
+        <v>200</v>
       </c>
       <c r="G419" s="1">
         <v>2</v>
@@ -10350,17 +10327,16 @@
         <v>84400</v>
       </c>
       <c r="C424" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D424" s="1">
-        <v>4610000</v>
+        <v>200</v>
       </c>
       <c r="E424" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F424" s="4">
-        <f t="shared" si="1"/>
-        <v>4710000</v>
+        <v>200</v>
       </c>
       <c r="G424" s="1">
         <v>2</v>
@@ -10470,17 +10446,16 @@
         <v>85400</v>
       </c>
       <c r="C429" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D429" s="1">
-        <v>4660000</v>
+        <v>200</v>
       </c>
       <c r="E429" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F429" s="4">
-        <f t="shared" si="1"/>
-        <v>4760000</v>
+        <v>200</v>
       </c>
       <c r="G429" s="1">
         <v>2</v>
@@ -10589,17 +10564,16 @@
         <v>86400</v>
       </c>
       <c r="C434" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D434" s="1">
-        <v>4710000</v>
+        <v>200</v>
       </c>
       <c r="E434" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F434" s="4">
-        <f t="shared" si="2"/>
-        <v>4810000</v>
+        <v>200</v>
       </c>
       <c r="G434" s="1">
         <v>2</v>
@@ -10709,17 +10683,16 @@
         <v>87400</v>
       </c>
       <c r="C439" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D439" s="1">
-        <v>4760000</v>
+        <v>200</v>
       </c>
       <c r="E439" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F439" s="4">
-        <f t="shared" si="2"/>
-        <v>4860000</v>
+        <v>200</v>
       </c>
       <c r="G439" s="1">
         <v>2</v>
@@ -10828,17 +10801,16 @@
         <v>88400</v>
       </c>
       <c r="C444" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D444" s="1">
-        <v>4810000</v>
+        <v>200</v>
       </c>
       <c r="E444" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F444" s="4">
-        <f t="shared" si="2"/>
-        <v>4910000</v>
+        <v>200</v>
       </c>
       <c r="G444" s="1">
         <v>2</v>
@@ -10948,17 +10920,16 @@
         <v>89400</v>
       </c>
       <c r="C449" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D449" s="1">
-        <v>4860000</v>
+        <v>200</v>
       </c>
       <c r="E449" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F449" s="4">
-        <f t="shared" si="2"/>
-        <v>4960000</v>
+        <v>200</v>
       </c>
       <c r="G449" s="1">
         <v>2</v>
@@ -11067,17 +11038,16 @@
         <v>90400</v>
       </c>
       <c r="C454" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D454" s="1">
-        <v>4910000</v>
+        <v>200</v>
       </c>
       <c r="E454" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F454" s="4">
-        <f t="shared" si="2"/>
-        <v>5010000</v>
+        <v>200</v>
       </c>
       <c r="G454" s="1">
         <v>2</v>
@@ -11187,17 +11157,16 @@
         <v>91400</v>
       </c>
       <c r="C459" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D459" s="1">
-        <v>4960000</v>
+        <v>200</v>
       </c>
       <c r="E459" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F459" s="4">
-        <f t="shared" si="2"/>
-        <v>5060000</v>
+        <v>200</v>
       </c>
       <c r="G459" s="1">
         <v>2</v>
@@ -11306,17 +11275,16 @@
         <v>92400</v>
       </c>
       <c r="C464" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D464" s="1">
-        <v>5010000</v>
+        <v>200</v>
       </c>
       <c r="E464" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F464" s="4">
-        <f t="shared" si="2"/>
-        <v>5110000</v>
+        <v>200</v>
       </c>
       <c r="G464" s="1">
         <v>2</v>
@@ -11426,17 +11394,16 @@
         <v>93400</v>
       </c>
       <c r="C469" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D469" s="1">
-        <v>5060000</v>
+        <v>200</v>
       </c>
       <c r="E469" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F469" s="4">
-        <f t="shared" si="2"/>
-        <v>5160000</v>
+        <v>200</v>
       </c>
       <c r="G469" s="1">
         <v>2</v>
@@ -11545,17 +11512,16 @@
         <v>94400</v>
       </c>
       <c r="C474" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D474" s="1">
-        <v>5110000</v>
+        <v>200</v>
       </c>
       <c r="E474" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F474" s="4">
-        <f t="shared" si="2"/>
-        <v>5210000</v>
+        <v>200</v>
       </c>
       <c r="G474" s="1">
         <v>2</v>
@@ -11665,17 +11631,16 @@
         <v>95400</v>
       </c>
       <c r="C479" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D479" s="1">
-        <v>5160000</v>
+        <v>200</v>
       </c>
       <c r="E479" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F479" s="4">
-        <f t="shared" si="2"/>
-        <v>5260000</v>
+        <v>200</v>
       </c>
       <c r="G479" s="1">
         <v>2</v>
@@ -11784,17 +11749,16 @@
         <v>96400</v>
       </c>
       <c r="C484" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D484" s="1">
-        <v>5210000</v>
+        <v>200</v>
       </c>
       <c r="E484" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F484" s="4">
-        <f t="shared" si="2"/>
-        <v>5310000</v>
+        <v>200</v>
       </c>
       <c r="G484" s="1">
         <v>2</v>
@@ -11904,17 +11868,16 @@
         <v>97400</v>
       </c>
       <c r="C489" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D489" s="1">
-        <v>5260000</v>
+        <v>200</v>
       </c>
       <c r="E489" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F489" s="4">
-        <f t="shared" si="2"/>
-        <v>5360000</v>
+        <v>200</v>
       </c>
       <c r="G489" s="1">
         <v>2</v>
@@ -12023,17 +11986,16 @@
         <v>98400</v>
       </c>
       <c r="C494" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D494" s="1">
-        <v>5310000</v>
+        <v>200</v>
       </c>
       <c r="E494" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F494" s="4">
-        <f t="shared" si="2"/>
-        <v>5410000</v>
+        <v>200</v>
       </c>
       <c r="G494" s="1">
         <v>2</v>
@@ -12143,17 +12105,16 @@
         <v>99400</v>
       </c>
       <c r="C499" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D499" s="1">
-        <v>5360000</v>
+        <v>200</v>
       </c>
       <c r="E499" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F499" s="4">
-        <f t="shared" si="3"/>
-        <v>5460000</v>
+        <v>200</v>
       </c>
       <c r="G499" s="1">
         <v>2</v>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B330C-5EAF-48CB-8144-0AC2FC3B98CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78EB522-7079-491A-BE19-BF149541F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G752"/>
+  <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C749" sqref="C749:F749"/>
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F754" sqref="F754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18105,7 +18105,7 @@
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A752" s="1">
+      <c r="A752" s="2">
         <v>750</v>
       </c>
       <c r="B752" s="1">
@@ -18121,11 +18121,5936 @@
         <v>1</v>
       </c>
       <c r="F752" s="8">
-        <f t="shared" ref="F752" si="7">D752+100000</f>
+        <f t="shared" ref="F752:F753" si="7">D752+100000</f>
         <v>7990000</v>
       </c>
       <c r="G752" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753" s="1">
+        <v>150200</v>
+      </c>
+      <c r="C753" s="1">
+        <v>1</v>
+      </c>
+      <c r="D753" s="1">
+        <v>5400000</v>
+      </c>
+      <c r="E753" s="1">
+        <v>1</v>
+      </c>
+      <c r="F753" s="8">
+        <f t="shared" si="7"/>
+        <v>5500000</v>
+      </c>
+      <c r="G753" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754" s="1">
+        <v>150400</v>
+      </c>
+      <c r="C754" s="1">
+        <v>20</v>
+      </c>
+      <c r="D754" s="1">
+        <v>300</v>
+      </c>
+      <c r="E754" s="1">
+        <v>20</v>
+      </c>
+      <c r="F754" s="8">
+        <v>300</v>
+      </c>
+      <c r="G754" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755" s="1">
+        <v>150600</v>
+      </c>
+      <c r="C755" s="1">
+        <v>1</v>
+      </c>
+      <c r="D755" s="1">
+        <v>5420000</v>
+      </c>
+      <c r="E755" s="1">
+        <v>1</v>
+      </c>
+      <c r="F755" s="8">
+        <f t="shared" ref="F755:F817" si="8">D755+100000</f>
+        <v>5520000</v>
+      </c>
+      <c r="G755" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756" s="1">
+        <v>150800</v>
+      </c>
+      <c r="C756" s="2">
+        <v>5</v>
+      </c>
+      <c r="D756" s="1">
+        <v>5430000</v>
+      </c>
+      <c r="E756" s="2">
+        <v>5</v>
+      </c>
+      <c r="F756" s="8">
+        <f t="shared" si="8"/>
+        <v>5530000</v>
+      </c>
+      <c r="G756" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757" s="1">
+        <v>151000</v>
+      </c>
+      <c r="C757" s="1">
+        <v>1</v>
+      </c>
+      <c r="D757" s="1">
+        <v>5440000</v>
+      </c>
+      <c r="E757" s="1">
+        <v>1</v>
+      </c>
+      <c r="F757" s="8">
+        <f t="shared" si="8"/>
+        <v>5540000</v>
+      </c>
+      <c r="G757" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758" s="1">
+        <v>151200</v>
+      </c>
+      <c r="C758" s="1">
+        <v>1</v>
+      </c>
+      <c r="D758" s="1">
+        <v>5450000</v>
+      </c>
+      <c r="E758" s="1">
+        <v>1</v>
+      </c>
+      <c r="F758" s="8">
+        <f t="shared" si="8"/>
+        <v>5550000</v>
+      </c>
+      <c r="G758" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759" s="1">
+        <v>151400</v>
+      </c>
+      <c r="C759" s="1">
+        <v>20</v>
+      </c>
+      <c r="D759" s="1">
+        <v>200</v>
+      </c>
+      <c r="E759" s="1">
+        <v>20</v>
+      </c>
+      <c r="F759" s="8">
+        <v>200</v>
+      </c>
+      <c r="G759" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760" s="1">
+        <v>151600</v>
+      </c>
+      <c r="C760" s="1">
+        <v>1</v>
+      </c>
+      <c r="D760" s="1">
+        <v>5470000</v>
+      </c>
+      <c r="E760" s="1">
+        <v>1</v>
+      </c>
+      <c r="F760" s="8">
+        <f t="shared" ref="F760:F822" si="9">D760+100000</f>
+        <v>5570000</v>
+      </c>
+      <c r="G760" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761" s="1">
+        <v>151800</v>
+      </c>
+      <c r="C761" s="2">
+        <v>14</v>
+      </c>
+      <c r="D761" s="1">
+        <v>4</v>
+      </c>
+      <c r="E761" s="2">
+        <v>14</v>
+      </c>
+      <c r="F761" s="1">
+        <v>4</v>
+      </c>
+      <c r="G761" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762" s="1">
+        <v>152000</v>
+      </c>
+      <c r="C762" s="1">
+        <v>1</v>
+      </c>
+      <c r="D762" s="1">
+        <v>5490000</v>
+      </c>
+      <c r="E762" s="1">
+        <v>1</v>
+      </c>
+      <c r="F762" s="8">
+        <f t="shared" ref="F762:F824" si="10">D762+100000</f>
+        <v>5590000</v>
+      </c>
+      <c r="G762" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763" s="1">
+        <v>152200</v>
+      </c>
+      <c r="C763" s="1">
+        <v>1</v>
+      </c>
+      <c r="D763" s="1">
+        <v>5500000</v>
+      </c>
+      <c r="E763" s="1">
+        <v>1</v>
+      </c>
+      <c r="F763" s="8">
+        <f t="shared" si="10"/>
+        <v>5600000</v>
+      </c>
+      <c r="G763" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764" s="1">
+        <v>152400</v>
+      </c>
+      <c r="C764" s="1">
+        <v>20</v>
+      </c>
+      <c r="D764" s="1">
+        <v>200</v>
+      </c>
+      <c r="E764" s="1">
+        <v>20</v>
+      </c>
+      <c r="F764" s="8">
+        <v>200</v>
+      </c>
+      <c r="G764" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765" s="1">
+        <v>152600</v>
+      </c>
+      <c r="C765" s="1">
+        <v>1</v>
+      </c>
+      <c r="D765" s="1">
+        <v>5520000</v>
+      </c>
+      <c r="E765" s="1">
+        <v>1</v>
+      </c>
+      <c r="F765" s="8">
+        <f t="shared" ref="F765:F827" si="11">D765+100000</f>
+        <v>5620000</v>
+      </c>
+      <c r="G765" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766" s="1">
+        <v>152800</v>
+      </c>
+      <c r="C766" s="2">
+        <v>5</v>
+      </c>
+      <c r="D766" s="1">
+        <v>5530000</v>
+      </c>
+      <c r="E766" s="2">
+        <v>5</v>
+      </c>
+      <c r="F766" s="8">
+        <f t="shared" si="11"/>
+        <v>5630000</v>
+      </c>
+      <c r="G766" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767" s="1">
+        <v>153000</v>
+      </c>
+      <c r="C767" s="1">
+        <v>1</v>
+      </c>
+      <c r="D767" s="1">
+        <v>5540000</v>
+      </c>
+      <c r="E767" s="1">
+        <v>1</v>
+      </c>
+      <c r="F767" s="8">
+        <f t="shared" si="11"/>
+        <v>5640000</v>
+      </c>
+      <c r="G767" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768" s="1">
+        <v>153200</v>
+      </c>
+      <c r="C768" s="1">
+        <v>1</v>
+      </c>
+      <c r="D768" s="1">
+        <v>5550000</v>
+      </c>
+      <c r="E768" s="1">
+        <v>1</v>
+      </c>
+      <c r="F768" s="8">
+        <f t="shared" si="11"/>
+        <v>5650000</v>
+      </c>
+      <c r="G768" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A769" s="1">
+        <v>767</v>
+      </c>
+      <c r="B769" s="1">
+        <v>153400</v>
+      </c>
+      <c r="C769" s="1">
+        <v>20</v>
+      </c>
+      <c r="D769" s="1">
+        <v>200</v>
+      </c>
+      <c r="E769" s="1">
+        <v>20</v>
+      </c>
+      <c r="F769" s="8">
+        <v>200</v>
+      </c>
+      <c r="G769" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A770" s="1">
+        <v>768</v>
+      </c>
+      <c r="B770" s="1">
+        <v>153600</v>
+      </c>
+      <c r="C770" s="1">
+        <v>1</v>
+      </c>
+      <c r="D770" s="1">
+        <v>5570000</v>
+      </c>
+      <c r="E770" s="1">
+        <v>1</v>
+      </c>
+      <c r="F770" s="8">
+        <f t="shared" ref="F770:F832" si="12">D770+100000</f>
+        <v>5670000</v>
+      </c>
+      <c r="G770" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A771" s="1">
+        <v>769</v>
+      </c>
+      <c r="B771" s="1">
+        <v>153800</v>
+      </c>
+      <c r="C771" s="2">
+        <v>14</v>
+      </c>
+      <c r="D771" s="1">
+        <v>4</v>
+      </c>
+      <c r="E771" s="2">
+        <v>14</v>
+      </c>
+      <c r="F771" s="8">
+        <v>4</v>
+      </c>
+      <c r="G771" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A772" s="1">
+        <v>770</v>
+      </c>
+      <c r="B772" s="1">
+        <v>154000</v>
+      </c>
+      <c r="C772" s="1">
+        <v>1</v>
+      </c>
+      <c r="D772" s="1">
+        <v>5590000</v>
+      </c>
+      <c r="E772" s="1">
+        <v>1</v>
+      </c>
+      <c r="F772" s="8">
+        <f t="shared" ref="F772:F834" si="13">D772+100000</f>
+        <v>5690000</v>
+      </c>
+      <c r="G772" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773" s="1">
+        <v>154200</v>
+      </c>
+      <c r="C773" s="1">
+        <v>1</v>
+      </c>
+      <c r="D773" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="E773" s="1">
+        <v>1</v>
+      </c>
+      <c r="F773" s="8">
+        <f t="shared" si="13"/>
+        <v>5700000</v>
+      </c>
+      <c r="G773" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774" s="1">
+        <v>154400</v>
+      </c>
+      <c r="C774" s="1">
+        <v>20</v>
+      </c>
+      <c r="D774" s="1">
+        <v>200</v>
+      </c>
+      <c r="E774" s="1">
+        <v>20</v>
+      </c>
+      <c r="F774" s="8">
+        <v>200</v>
+      </c>
+      <c r="G774" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775" s="1">
+        <v>154600</v>
+      </c>
+      <c r="C775" s="1">
+        <v>1</v>
+      </c>
+      <c r="D775" s="1">
+        <v>5620000</v>
+      </c>
+      <c r="E775" s="1">
+        <v>1</v>
+      </c>
+      <c r="F775" s="8">
+        <f t="shared" ref="F775:F837" si="14">D775+100000</f>
+        <v>5720000</v>
+      </c>
+      <c r="G775" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776" s="1">
+        <v>154800</v>
+      </c>
+      <c r="C776" s="2">
+        <v>5</v>
+      </c>
+      <c r="D776" s="1">
+        <v>5630000</v>
+      </c>
+      <c r="E776" s="2">
+        <v>5</v>
+      </c>
+      <c r="F776" s="8">
+        <f t="shared" si="14"/>
+        <v>5730000</v>
+      </c>
+      <c r="G776" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777" s="1">
+        <v>155000</v>
+      </c>
+      <c r="C777" s="1">
+        <v>1</v>
+      </c>
+      <c r="D777" s="1">
+        <v>5640000</v>
+      </c>
+      <c r="E777" s="1">
+        <v>1</v>
+      </c>
+      <c r="F777" s="8">
+        <f t="shared" si="14"/>
+        <v>5740000</v>
+      </c>
+      <c r="G777" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778" s="1">
+        <v>155200</v>
+      </c>
+      <c r="C778" s="1">
+        <v>1</v>
+      </c>
+      <c r="D778" s="1">
+        <v>5650000</v>
+      </c>
+      <c r="E778" s="1">
+        <v>1</v>
+      </c>
+      <c r="F778" s="8">
+        <f t="shared" si="14"/>
+        <v>5750000</v>
+      </c>
+      <c r="G778" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779" s="1">
+        <v>155400</v>
+      </c>
+      <c r="C779" s="1">
+        <v>20</v>
+      </c>
+      <c r="D779" s="1">
+        <v>200</v>
+      </c>
+      <c r="E779" s="1">
+        <v>20</v>
+      </c>
+      <c r="F779" s="8">
+        <v>200</v>
+      </c>
+      <c r="G779" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780" s="1">
+        <v>155600</v>
+      </c>
+      <c r="C780" s="1">
+        <v>1</v>
+      </c>
+      <c r="D780" s="1">
+        <v>5670000</v>
+      </c>
+      <c r="E780" s="1">
+        <v>1</v>
+      </c>
+      <c r="F780" s="8">
+        <f t="shared" ref="F780:F842" si="15">D780+100000</f>
+        <v>5770000</v>
+      </c>
+      <c r="G780" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781" s="1">
+        <v>155800</v>
+      </c>
+      <c r="C781" s="2">
+        <v>14</v>
+      </c>
+      <c r="D781" s="1">
+        <v>4</v>
+      </c>
+      <c r="E781" s="2">
+        <v>14</v>
+      </c>
+      <c r="F781" s="8">
+        <v>4</v>
+      </c>
+      <c r="G781" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782" s="1">
+        <v>156000</v>
+      </c>
+      <c r="C782" s="1">
+        <v>1</v>
+      </c>
+      <c r="D782" s="1">
+        <v>5690000</v>
+      </c>
+      <c r="E782" s="1">
+        <v>1</v>
+      </c>
+      <c r="F782" s="8">
+        <f t="shared" ref="F782:F844" si="16">D782+100000</f>
+        <v>5790000</v>
+      </c>
+      <c r="G782" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783" s="1">
+        <v>156200</v>
+      </c>
+      <c r="C783" s="1">
+        <v>1</v>
+      </c>
+      <c r="D783" s="1">
+        <v>5700000</v>
+      </c>
+      <c r="E783" s="1">
+        <v>1</v>
+      </c>
+      <c r="F783" s="8">
+        <f t="shared" si="16"/>
+        <v>5800000</v>
+      </c>
+      <c r="G783" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784" s="1">
+        <v>156400</v>
+      </c>
+      <c r="C784" s="1">
+        <v>20</v>
+      </c>
+      <c r="D784" s="1">
+        <v>200</v>
+      </c>
+      <c r="E784" s="1">
+        <v>20</v>
+      </c>
+      <c r="F784" s="8">
+        <v>200</v>
+      </c>
+      <c r="G784" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785" s="1">
+        <v>156600</v>
+      </c>
+      <c r="C785" s="1">
+        <v>1</v>
+      </c>
+      <c r="D785" s="1">
+        <v>5720000</v>
+      </c>
+      <c r="E785" s="1">
+        <v>1</v>
+      </c>
+      <c r="F785" s="8">
+        <f t="shared" ref="F785:F847" si="17">D785+100000</f>
+        <v>5820000</v>
+      </c>
+      <c r="G785" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786" s="1">
+        <v>156800</v>
+      </c>
+      <c r="C786" s="2">
+        <v>5</v>
+      </c>
+      <c r="D786" s="1">
+        <v>5730000</v>
+      </c>
+      <c r="E786" s="2">
+        <v>5</v>
+      </c>
+      <c r="F786" s="8">
+        <f t="shared" si="17"/>
+        <v>5830000</v>
+      </c>
+      <c r="G786" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787" s="1">
+        <v>157000</v>
+      </c>
+      <c r="C787" s="1">
+        <v>1</v>
+      </c>
+      <c r="D787" s="1">
+        <v>5740000</v>
+      </c>
+      <c r="E787" s="1">
+        <v>1</v>
+      </c>
+      <c r="F787" s="8">
+        <f t="shared" si="17"/>
+        <v>5840000</v>
+      </c>
+      <c r="G787" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788" s="1">
+        <v>157200</v>
+      </c>
+      <c r="C788" s="1">
+        <v>1</v>
+      </c>
+      <c r="D788" s="1">
+        <v>5750000</v>
+      </c>
+      <c r="E788" s="1">
+        <v>1</v>
+      </c>
+      <c r="F788" s="8">
+        <f t="shared" si="17"/>
+        <v>5850000</v>
+      </c>
+      <c r="G788" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A789" s="1">
+        <v>787</v>
+      </c>
+      <c r="B789" s="1">
+        <v>157400</v>
+      </c>
+      <c r="C789" s="1">
+        <v>20</v>
+      </c>
+      <c r="D789" s="1">
+        <v>200</v>
+      </c>
+      <c r="E789" s="1">
+        <v>20</v>
+      </c>
+      <c r="F789" s="8">
+        <v>200</v>
+      </c>
+      <c r="G789" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A790" s="1">
+        <v>788</v>
+      </c>
+      <c r="B790" s="1">
+        <v>157600</v>
+      </c>
+      <c r="C790" s="1">
+        <v>1</v>
+      </c>
+      <c r="D790" s="1">
+        <v>5770000</v>
+      </c>
+      <c r="E790" s="1">
+        <v>1</v>
+      </c>
+      <c r="F790" s="8">
+        <f t="shared" ref="F790:F852" si="18">D790+100000</f>
+        <v>5870000</v>
+      </c>
+      <c r="G790" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A791" s="1">
+        <v>789</v>
+      </c>
+      <c r="B791" s="1">
+        <v>157800</v>
+      </c>
+      <c r="C791" s="2">
+        <v>14</v>
+      </c>
+      <c r="D791" s="1">
+        <v>4</v>
+      </c>
+      <c r="E791" s="2">
+        <v>14</v>
+      </c>
+      <c r="F791" s="8">
+        <v>4</v>
+      </c>
+      <c r="G791" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A792" s="1">
+        <v>790</v>
+      </c>
+      <c r="B792" s="1">
+        <v>158000</v>
+      </c>
+      <c r="C792" s="1">
+        <v>1</v>
+      </c>
+      <c r="D792" s="1">
+        <v>5790000</v>
+      </c>
+      <c r="E792" s="1">
+        <v>1</v>
+      </c>
+      <c r="F792" s="8">
+        <f t="shared" ref="F792:F854" si="19">D792+100000</f>
+        <v>5890000</v>
+      </c>
+      <c r="G792" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A793" s="1">
+        <v>791</v>
+      </c>
+      <c r="B793" s="1">
+        <v>158200</v>
+      </c>
+      <c r="C793" s="1">
+        <v>1</v>
+      </c>
+      <c r="D793" s="1">
+        <v>5800000</v>
+      </c>
+      <c r="E793" s="1">
+        <v>1</v>
+      </c>
+      <c r="F793" s="8">
+        <f t="shared" si="19"/>
+        <v>5900000</v>
+      </c>
+      <c r="G793" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A794" s="1">
+        <v>792</v>
+      </c>
+      <c r="B794" s="1">
+        <v>158400</v>
+      </c>
+      <c r="C794" s="1">
+        <v>20</v>
+      </c>
+      <c r="D794" s="1">
+        <v>200</v>
+      </c>
+      <c r="E794" s="1">
+        <v>20</v>
+      </c>
+      <c r="F794" s="8">
+        <v>200</v>
+      </c>
+      <c r="G794" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A795" s="1">
+        <v>793</v>
+      </c>
+      <c r="B795" s="1">
+        <v>158600</v>
+      </c>
+      <c r="C795" s="1">
+        <v>1</v>
+      </c>
+      <c r="D795" s="1">
+        <v>5820000</v>
+      </c>
+      <c r="E795" s="1">
+        <v>1</v>
+      </c>
+      <c r="F795" s="8">
+        <f t="shared" ref="F795:F857" si="20">D795+100000</f>
+        <v>5920000</v>
+      </c>
+      <c r="G795" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A796" s="1">
+        <v>794</v>
+      </c>
+      <c r="B796" s="1">
+        <v>158800</v>
+      </c>
+      <c r="C796" s="2">
+        <v>5</v>
+      </c>
+      <c r="D796" s="1">
+        <v>5830000</v>
+      </c>
+      <c r="E796" s="2">
+        <v>5</v>
+      </c>
+      <c r="F796" s="8">
+        <f t="shared" si="20"/>
+        <v>5930000</v>
+      </c>
+      <c r="G796" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A797" s="1">
+        <v>795</v>
+      </c>
+      <c r="B797" s="1">
+        <v>159000</v>
+      </c>
+      <c r="C797" s="1">
+        <v>1</v>
+      </c>
+      <c r="D797" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="E797" s="1">
+        <v>1</v>
+      </c>
+      <c r="F797" s="8">
+        <f t="shared" si="20"/>
+        <v>5940000</v>
+      </c>
+      <c r="G797" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A798" s="1">
+        <v>796</v>
+      </c>
+      <c r="B798" s="1">
+        <v>159200</v>
+      </c>
+      <c r="C798" s="1">
+        <v>1</v>
+      </c>
+      <c r="D798" s="1">
+        <v>5850000</v>
+      </c>
+      <c r="E798" s="1">
+        <v>1</v>
+      </c>
+      <c r="F798" s="8">
+        <f t="shared" si="20"/>
+        <v>5950000</v>
+      </c>
+      <c r="G798" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A799" s="1">
+        <v>797</v>
+      </c>
+      <c r="B799" s="1">
+        <v>159400</v>
+      </c>
+      <c r="C799" s="1">
+        <v>20</v>
+      </c>
+      <c r="D799" s="1">
+        <v>200</v>
+      </c>
+      <c r="E799" s="1">
+        <v>20</v>
+      </c>
+      <c r="F799" s="8">
+        <v>200</v>
+      </c>
+      <c r="G799" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A800" s="1">
+        <v>798</v>
+      </c>
+      <c r="B800" s="1">
+        <v>159600</v>
+      </c>
+      <c r="C800" s="1">
+        <v>1</v>
+      </c>
+      <c r="D800" s="1">
+        <v>5870000</v>
+      </c>
+      <c r="E800" s="1">
+        <v>1</v>
+      </c>
+      <c r="F800" s="8">
+        <f t="shared" ref="F800:F862" si="21">D800+100000</f>
+        <v>5970000</v>
+      </c>
+      <c r="G800" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A801" s="1">
+        <v>799</v>
+      </c>
+      <c r="B801" s="1">
+        <v>159800</v>
+      </c>
+      <c r="C801" s="2">
+        <v>14</v>
+      </c>
+      <c r="D801" s="1">
+        <v>4</v>
+      </c>
+      <c r="E801" s="2">
+        <v>14</v>
+      </c>
+      <c r="F801" s="8">
+        <v>4</v>
+      </c>
+      <c r="G801" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A802" s="1">
+        <v>800</v>
+      </c>
+      <c r="B802" s="1">
+        <v>160000</v>
+      </c>
+      <c r="C802" s="1">
+        <v>1</v>
+      </c>
+      <c r="D802" s="1">
+        <v>5890000</v>
+      </c>
+      <c r="E802" s="1">
+        <v>1</v>
+      </c>
+      <c r="F802" s="8">
+        <f t="shared" ref="F802:F864" si="22">D802+100000</f>
+        <v>5990000</v>
+      </c>
+      <c r="G802" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A803" s="1">
+        <v>801</v>
+      </c>
+      <c r="B803" s="1">
+        <v>160200</v>
+      </c>
+      <c r="C803" s="1">
+        <v>1</v>
+      </c>
+      <c r="D803" s="1">
+        <v>5900000</v>
+      </c>
+      <c r="E803" s="1">
+        <v>1</v>
+      </c>
+      <c r="F803" s="8">
+        <f t="shared" si="22"/>
+        <v>6000000</v>
+      </c>
+      <c r="G803" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A804" s="1">
+        <v>802</v>
+      </c>
+      <c r="B804" s="1">
+        <v>160400</v>
+      </c>
+      <c r="C804" s="1">
+        <v>20</v>
+      </c>
+      <c r="D804" s="1">
+        <v>200</v>
+      </c>
+      <c r="E804" s="1">
+        <v>20</v>
+      </c>
+      <c r="F804" s="8">
+        <v>200</v>
+      </c>
+      <c r="G804" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A805" s="1">
+        <v>803</v>
+      </c>
+      <c r="B805" s="1">
+        <v>160600</v>
+      </c>
+      <c r="C805" s="1">
+        <v>1</v>
+      </c>
+      <c r="D805" s="1">
+        <v>5920000</v>
+      </c>
+      <c r="E805" s="1">
+        <v>1</v>
+      </c>
+      <c r="F805" s="8">
+        <f t="shared" ref="F805:F867" si="23">D805+100000</f>
+        <v>6020000</v>
+      </c>
+      <c r="G805" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A806" s="1">
+        <v>804</v>
+      </c>
+      <c r="B806" s="1">
+        <v>160800</v>
+      </c>
+      <c r="C806" s="2">
+        <v>5</v>
+      </c>
+      <c r="D806" s="1">
+        <v>5930000</v>
+      </c>
+      <c r="E806" s="2">
+        <v>5</v>
+      </c>
+      <c r="F806" s="8">
+        <f t="shared" si="23"/>
+        <v>6030000</v>
+      </c>
+      <c r="G806" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807" s="1">
+        <v>161000</v>
+      </c>
+      <c r="C807" s="1">
+        <v>1</v>
+      </c>
+      <c r="D807" s="1">
+        <v>5940000</v>
+      </c>
+      <c r="E807" s="1">
+        <v>1</v>
+      </c>
+      <c r="F807" s="8">
+        <f t="shared" si="23"/>
+        <v>6040000</v>
+      </c>
+      <c r="G807" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808" s="1">
+        <v>161200</v>
+      </c>
+      <c r="C808" s="1">
+        <v>1</v>
+      </c>
+      <c r="D808" s="1">
+        <v>5950000</v>
+      </c>
+      <c r="E808" s="1">
+        <v>1</v>
+      </c>
+      <c r="F808" s="8">
+        <f t="shared" si="23"/>
+        <v>6050000</v>
+      </c>
+      <c r="G808" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809" s="1">
+        <v>161400</v>
+      </c>
+      <c r="C809" s="1">
+        <v>20</v>
+      </c>
+      <c r="D809" s="1">
+        <v>200</v>
+      </c>
+      <c r="E809" s="1">
+        <v>20</v>
+      </c>
+      <c r="F809" s="8">
+        <v>200</v>
+      </c>
+      <c r="G809" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810" s="1">
+        <v>161600</v>
+      </c>
+      <c r="C810" s="1">
+        <v>1</v>
+      </c>
+      <c r="D810" s="1">
+        <v>5970000</v>
+      </c>
+      <c r="E810" s="1">
+        <v>1</v>
+      </c>
+      <c r="F810" s="8">
+        <f t="shared" ref="F810:F873" si="24">D810+100000</f>
+        <v>6070000</v>
+      </c>
+      <c r="G810" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811" s="1">
+        <v>161800</v>
+      </c>
+      <c r="C811" s="2">
+        <v>14</v>
+      </c>
+      <c r="D811" s="1">
+        <v>4</v>
+      </c>
+      <c r="E811" s="2">
+        <v>14</v>
+      </c>
+      <c r="F811" s="8">
+        <v>4</v>
+      </c>
+      <c r="G811" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812" s="1">
+        <v>162000</v>
+      </c>
+      <c r="C812" s="1">
+        <v>1</v>
+      </c>
+      <c r="D812" s="1">
+        <v>5990000</v>
+      </c>
+      <c r="E812" s="1">
+        <v>1</v>
+      </c>
+      <c r="F812" s="8">
+        <f t="shared" ref="F812:F875" si="25">D812+100000</f>
+        <v>6090000</v>
+      </c>
+      <c r="G812" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813" s="1">
+        <v>162200</v>
+      </c>
+      <c r="C813" s="1">
+        <v>1</v>
+      </c>
+      <c r="D813" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="E813" s="1">
+        <v>1</v>
+      </c>
+      <c r="F813" s="8">
+        <f t="shared" si="25"/>
+        <v>6100000</v>
+      </c>
+      <c r="G813" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814" s="1">
+        <v>162400</v>
+      </c>
+      <c r="C814" s="1">
+        <v>20</v>
+      </c>
+      <c r="D814" s="1">
+        <v>200</v>
+      </c>
+      <c r="E814" s="1">
+        <v>20</v>
+      </c>
+      <c r="F814" s="8">
+        <v>200</v>
+      </c>
+      <c r="G814" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815" s="1">
+        <v>162600</v>
+      </c>
+      <c r="C815" s="1">
+        <v>1</v>
+      </c>
+      <c r="D815" s="1">
+        <v>6020000</v>
+      </c>
+      <c r="E815" s="1">
+        <v>1</v>
+      </c>
+      <c r="F815" s="8">
+        <f t="shared" ref="F815:F878" si="26">D815+100000</f>
+        <v>6120000</v>
+      </c>
+      <c r="G815" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816" s="1">
+        <v>162800</v>
+      </c>
+      <c r="C816" s="2">
+        <v>5</v>
+      </c>
+      <c r="D816" s="1">
+        <v>6030000</v>
+      </c>
+      <c r="E816" s="2">
+        <v>5</v>
+      </c>
+      <c r="F816" s="8">
+        <f t="shared" si="26"/>
+        <v>6130000</v>
+      </c>
+      <c r="G816" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817" s="1">
+        <v>163000</v>
+      </c>
+      <c r="C817" s="1">
+        <v>1</v>
+      </c>
+      <c r="D817" s="1">
+        <v>6040000</v>
+      </c>
+      <c r="E817" s="1">
+        <v>1</v>
+      </c>
+      <c r="F817" s="8">
+        <f t="shared" si="26"/>
+        <v>6140000</v>
+      </c>
+      <c r="G817" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818" s="1">
+        <v>163200</v>
+      </c>
+      <c r="C818" s="1">
+        <v>1</v>
+      </c>
+      <c r="D818" s="1">
+        <v>6050000</v>
+      </c>
+      <c r="E818" s="1">
+        <v>1</v>
+      </c>
+      <c r="F818" s="8">
+        <f t="shared" si="26"/>
+        <v>6150000</v>
+      </c>
+      <c r="G818" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819" s="1">
+        <v>163400</v>
+      </c>
+      <c r="C819" s="1">
+        <v>20</v>
+      </c>
+      <c r="D819" s="1">
+        <v>200</v>
+      </c>
+      <c r="E819" s="1">
+        <v>20</v>
+      </c>
+      <c r="F819" s="8">
+        <v>200</v>
+      </c>
+      <c r="G819" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A820" s="1">
+        <v>818</v>
+      </c>
+      <c r="B820" s="1">
+        <v>163600</v>
+      </c>
+      <c r="C820" s="1">
+        <v>1</v>
+      </c>
+      <c r="D820" s="1">
+        <v>6070000</v>
+      </c>
+      <c r="E820" s="1">
+        <v>1</v>
+      </c>
+      <c r="F820" s="8">
+        <f t="shared" ref="F820:F883" si="27">D820+100000</f>
+        <v>6170000</v>
+      </c>
+      <c r="G820" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A821" s="1">
+        <v>819</v>
+      </c>
+      <c r="B821" s="1">
+        <v>163800</v>
+      </c>
+      <c r="C821" s="2">
+        <v>14</v>
+      </c>
+      <c r="D821" s="1">
+        <v>4</v>
+      </c>
+      <c r="E821" s="2">
+        <v>14</v>
+      </c>
+      <c r="F821" s="8">
+        <v>4</v>
+      </c>
+      <c r="G821" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A822" s="1">
+        <v>820</v>
+      </c>
+      <c r="B822" s="1">
+        <v>164000</v>
+      </c>
+      <c r="C822" s="1">
+        <v>1</v>
+      </c>
+      <c r="D822" s="1">
+        <v>6090000</v>
+      </c>
+      <c r="E822" s="1">
+        <v>1</v>
+      </c>
+      <c r="F822" s="8">
+        <f t="shared" ref="F822:F885" si="28">D822+100000</f>
+        <v>6190000</v>
+      </c>
+      <c r="G822" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A823" s="1">
+        <v>821</v>
+      </c>
+      <c r="B823" s="1">
+        <v>164200</v>
+      </c>
+      <c r="C823" s="1">
+        <v>1</v>
+      </c>
+      <c r="D823" s="1">
+        <v>6100000</v>
+      </c>
+      <c r="E823" s="1">
+        <v>1</v>
+      </c>
+      <c r="F823" s="8">
+        <f t="shared" si="28"/>
+        <v>6200000</v>
+      </c>
+      <c r="G823" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A824" s="1">
+        <v>822</v>
+      </c>
+      <c r="B824" s="1">
+        <v>164400</v>
+      </c>
+      <c r="C824" s="1">
+        <v>20</v>
+      </c>
+      <c r="D824" s="1">
+        <v>200</v>
+      </c>
+      <c r="E824" s="1">
+        <v>20</v>
+      </c>
+      <c r="F824" s="8">
+        <v>200</v>
+      </c>
+      <c r="G824" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A825" s="1">
+        <v>823</v>
+      </c>
+      <c r="B825" s="1">
+        <v>164600</v>
+      </c>
+      <c r="C825" s="1">
+        <v>1</v>
+      </c>
+      <c r="D825" s="1">
+        <v>6120000</v>
+      </c>
+      <c r="E825" s="1">
+        <v>1</v>
+      </c>
+      <c r="F825" s="8">
+        <f t="shared" ref="F825:F888" si="29">D825+100000</f>
+        <v>6220000</v>
+      </c>
+      <c r="G825" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A826" s="1">
+        <v>824</v>
+      </c>
+      <c r="B826" s="1">
+        <v>164800</v>
+      </c>
+      <c r="C826" s="2">
+        <v>5</v>
+      </c>
+      <c r="D826" s="1">
+        <v>6130000</v>
+      </c>
+      <c r="E826" s="2">
+        <v>5</v>
+      </c>
+      <c r="F826" s="8">
+        <f t="shared" si="29"/>
+        <v>6230000</v>
+      </c>
+      <c r="G826" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A827" s="1">
+        <v>825</v>
+      </c>
+      <c r="B827" s="1">
+        <v>165000</v>
+      </c>
+      <c r="C827" s="1">
+        <v>1</v>
+      </c>
+      <c r="D827" s="1">
+        <v>6140000</v>
+      </c>
+      <c r="E827" s="1">
+        <v>1</v>
+      </c>
+      <c r="F827" s="8">
+        <f t="shared" si="29"/>
+        <v>6240000</v>
+      </c>
+      <c r="G827" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A828" s="1">
+        <v>826</v>
+      </c>
+      <c r="B828" s="1">
+        <v>165200</v>
+      </c>
+      <c r="C828" s="1">
+        <v>1</v>
+      </c>
+      <c r="D828" s="1">
+        <v>6150000</v>
+      </c>
+      <c r="E828" s="1">
+        <v>1</v>
+      </c>
+      <c r="F828" s="8">
+        <f t="shared" si="29"/>
+        <v>6250000</v>
+      </c>
+      <c r="G828" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A829" s="1">
+        <v>827</v>
+      </c>
+      <c r="B829" s="1">
+        <v>165400</v>
+      </c>
+      <c r="C829" s="1">
+        <v>20</v>
+      </c>
+      <c r="D829" s="1">
+        <v>200</v>
+      </c>
+      <c r="E829" s="1">
+        <v>20</v>
+      </c>
+      <c r="F829" s="8">
+        <v>200</v>
+      </c>
+      <c r="G829" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A830" s="1">
+        <v>828</v>
+      </c>
+      <c r="B830" s="1">
+        <v>165600</v>
+      </c>
+      <c r="C830" s="1">
+        <v>1</v>
+      </c>
+      <c r="D830" s="1">
+        <v>6170000</v>
+      </c>
+      <c r="E830" s="1">
+        <v>1</v>
+      </c>
+      <c r="F830" s="8">
+        <f t="shared" ref="F830:F893" si="30">D830+100000</f>
+        <v>6270000</v>
+      </c>
+      <c r="G830" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831" s="1">
+        <v>165800</v>
+      </c>
+      <c r="C831" s="2">
+        <v>14</v>
+      </c>
+      <c r="D831" s="1">
+        <v>4</v>
+      </c>
+      <c r="E831" s="2">
+        <v>14</v>
+      </c>
+      <c r="F831" s="8">
+        <v>4</v>
+      </c>
+      <c r="G831" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832" s="1">
+        <v>166000</v>
+      </c>
+      <c r="C832" s="1">
+        <v>1</v>
+      </c>
+      <c r="D832" s="1">
+        <v>6190000</v>
+      </c>
+      <c r="E832" s="1">
+        <v>1</v>
+      </c>
+      <c r="F832" s="8">
+        <f t="shared" ref="F832:F895" si="31">D832+100000</f>
+        <v>6290000</v>
+      </c>
+      <c r="G832" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833" s="1">
+        <v>166200</v>
+      </c>
+      <c r="C833" s="1">
+        <v>1</v>
+      </c>
+      <c r="D833" s="1">
+        <v>6200000</v>
+      </c>
+      <c r="E833" s="1">
+        <v>1</v>
+      </c>
+      <c r="F833" s="8">
+        <f t="shared" si="31"/>
+        <v>6300000</v>
+      </c>
+      <c r="G833" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834" s="1">
+        <v>166400</v>
+      </c>
+      <c r="C834" s="1">
+        <v>20</v>
+      </c>
+      <c r="D834" s="1">
+        <v>200</v>
+      </c>
+      <c r="E834" s="1">
+        <v>20</v>
+      </c>
+      <c r="F834" s="8">
+        <v>200</v>
+      </c>
+      <c r="G834" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835" s="1">
+        <v>166600</v>
+      </c>
+      <c r="C835" s="1">
+        <v>1</v>
+      </c>
+      <c r="D835" s="1">
+        <v>6220000</v>
+      </c>
+      <c r="E835" s="1">
+        <v>1</v>
+      </c>
+      <c r="F835" s="8">
+        <f t="shared" ref="F835:F898" si="32">D835+100000</f>
+        <v>6320000</v>
+      </c>
+      <c r="G835" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836" s="1">
+        <v>166800</v>
+      </c>
+      <c r="C836" s="2">
+        <v>5</v>
+      </c>
+      <c r="D836" s="1">
+        <v>6230000</v>
+      </c>
+      <c r="E836" s="2">
+        <v>5</v>
+      </c>
+      <c r="F836" s="8">
+        <f t="shared" si="32"/>
+        <v>6330000</v>
+      </c>
+      <c r="G836" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837" s="1">
+        <v>167000</v>
+      </c>
+      <c r="C837" s="1">
+        <v>1</v>
+      </c>
+      <c r="D837" s="1">
+        <v>6240000</v>
+      </c>
+      <c r="E837" s="1">
+        <v>1</v>
+      </c>
+      <c r="F837" s="8">
+        <f t="shared" si="32"/>
+        <v>6340000</v>
+      </c>
+      <c r="G837" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838" s="1">
+        <v>167200</v>
+      </c>
+      <c r="C838" s="1">
+        <v>1</v>
+      </c>
+      <c r="D838" s="1">
+        <v>6250000</v>
+      </c>
+      <c r="E838" s="1">
+        <v>1</v>
+      </c>
+      <c r="F838" s="8">
+        <f t="shared" si="32"/>
+        <v>6350000</v>
+      </c>
+      <c r="G838" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839" s="1">
+        <v>167400</v>
+      </c>
+      <c r="C839" s="1">
+        <v>20</v>
+      </c>
+      <c r="D839" s="1">
+        <v>200</v>
+      </c>
+      <c r="E839" s="1">
+        <v>20</v>
+      </c>
+      <c r="F839" s="8">
+        <v>200</v>
+      </c>
+      <c r="G839" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840" s="1">
+        <v>167600</v>
+      </c>
+      <c r="C840" s="1">
+        <v>1</v>
+      </c>
+      <c r="D840" s="1">
+        <v>6270000</v>
+      </c>
+      <c r="E840" s="1">
+        <v>1</v>
+      </c>
+      <c r="F840" s="8">
+        <f t="shared" ref="F840:F903" si="33">D840+100000</f>
+        <v>6370000</v>
+      </c>
+      <c r="G840" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841" s="1">
+        <v>167800</v>
+      </c>
+      <c r="C841" s="2">
+        <v>14</v>
+      </c>
+      <c r="D841" s="1">
+        <v>4</v>
+      </c>
+      <c r="E841" s="2">
+        <v>14</v>
+      </c>
+      <c r="F841" s="8">
+        <v>4</v>
+      </c>
+      <c r="G841" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842" s="1">
+        <v>168000</v>
+      </c>
+      <c r="C842" s="1">
+        <v>1</v>
+      </c>
+      <c r="D842" s="1">
+        <v>6290000</v>
+      </c>
+      <c r="E842" s="1">
+        <v>1</v>
+      </c>
+      <c r="F842" s="8">
+        <f t="shared" ref="F842:F905" si="34">D842+100000</f>
+        <v>6390000</v>
+      </c>
+      <c r="G842" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843" s="1">
+        <v>168200</v>
+      </c>
+      <c r="C843" s="1">
+        <v>1</v>
+      </c>
+      <c r="D843" s="1">
+        <v>6300000</v>
+      </c>
+      <c r="E843" s="1">
+        <v>1</v>
+      </c>
+      <c r="F843" s="8">
+        <f t="shared" si="34"/>
+        <v>6400000</v>
+      </c>
+      <c r="G843" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844" s="1">
+        <v>168400</v>
+      </c>
+      <c r="C844" s="1">
+        <v>20</v>
+      </c>
+      <c r="D844" s="1">
+        <v>200</v>
+      </c>
+      <c r="E844" s="1">
+        <v>20</v>
+      </c>
+      <c r="F844" s="8">
+        <v>200</v>
+      </c>
+      <c r="G844" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845" s="1">
+        <v>168600</v>
+      </c>
+      <c r="C845" s="1">
+        <v>1</v>
+      </c>
+      <c r="D845" s="1">
+        <v>6320000</v>
+      </c>
+      <c r="E845" s="1">
+        <v>1</v>
+      </c>
+      <c r="F845" s="8">
+        <f t="shared" ref="F845:F908" si="35">D845+100000</f>
+        <v>6420000</v>
+      </c>
+      <c r="G845" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846" s="1">
+        <v>168800</v>
+      </c>
+      <c r="C846" s="2">
+        <v>5</v>
+      </c>
+      <c r="D846" s="1">
+        <v>6330000</v>
+      </c>
+      <c r="E846" s="2">
+        <v>5</v>
+      </c>
+      <c r="F846" s="8">
+        <f t="shared" si="35"/>
+        <v>6430000</v>
+      </c>
+      <c r="G846" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847" s="1">
+        <v>169000</v>
+      </c>
+      <c r="C847" s="1">
+        <v>1</v>
+      </c>
+      <c r="D847" s="1">
+        <v>6340000</v>
+      </c>
+      <c r="E847" s="1">
+        <v>1</v>
+      </c>
+      <c r="F847" s="8">
+        <f t="shared" si="35"/>
+        <v>6440000</v>
+      </c>
+      <c r="G847" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848" s="1">
+        <v>169200</v>
+      </c>
+      <c r="C848" s="1">
+        <v>1</v>
+      </c>
+      <c r="D848" s="1">
+        <v>6350000</v>
+      </c>
+      <c r="E848" s="1">
+        <v>1</v>
+      </c>
+      <c r="F848" s="8">
+        <f t="shared" si="35"/>
+        <v>6450000</v>
+      </c>
+      <c r="G848" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849" s="1">
+        <v>169400</v>
+      </c>
+      <c r="C849" s="1">
+        <v>20</v>
+      </c>
+      <c r="D849" s="1">
+        <v>200</v>
+      </c>
+      <c r="E849" s="1">
+        <v>20</v>
+      </c>
+      <c r="F849" s="8">
+        <v>200</v>
+      </c>
+      <c r="G849" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850" s="1">
+        <v>169600</v>
+      </c>
+      <c r="C850" s="1">
+        <v>1</v>
+      </c>
+      <c r="D850" s="1">
+        <v>6370000</v>
+      </c>
+      <c r="E850" s="1">
+        <v>1</v>
+      </c>
+      <c r="F850" s="8">
+        <f t="shared" ref="F850:F913" si="36">D850+100000</f>
+        <v>6470000</v>
+      </c>
+      <c r="G850" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851" s="1">
+        <v>169800</v>
+      </c>
+      <c r="C851" s="2">
+        <v>14</v>
+      </c>
+      <c r="D851" s="1">
+        <v>4</v>
+      </c>
+      <c r="E851" s="2">
+        <v>14</v>
+      </c>
+      <c r="F851" s="8">
+        <v>4</v>
+      </c>
+      <c r="G851" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852" s="1">
+        <v>170000</v>
+      </c>
+      <c r="C852" s="1">
+        <v>1</v>
+      </c>
+      <c r="D852" s="1">
+        <v>6390000</v>
+      </c>
+      <c r="E852" s="1">
+        <v>1</v>
+      </c>
+      <c r="F852" s="8">
+        <f t="shared" ref="F852:F915" si="37">D852+100000</f>
+        <v>6490000</v>
+      </c>
+      <c r="G852" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853" s="1">
+        <v>170200</v>
+      </c>
+      <c r="C853" s="1">
+        <v>1</v>
+      </c>
+      <c r="D853" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="E853" s="1">
+        <v>1</v>
+      </c>
+      <c r="F853" s="8">
+        <f t="shared" si="37"/>
+        <v>6500000</v>
+      </c>
+      <c r="G853" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854" s="1">
+        <v>170400</v>
+      </c>
+      <c r="C854" s="1">
+        <v>20</v>
+      </c>
+      <c r="D854" s="1">
+        <v>200</v>
+      </c>
+      <c r="E854" s="1">
+        <v>20</v>
+      </c>
+      <c r="F854" s="8">
+        <v>200</v>
+      </c>
+      <c r="G854" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855" s="1">
+        <v>170600</v>
+      </c>
+      <c r="C855" s="1">
+        <v>1</v>
+      </c>
+      <c r="D855" s="1">
+        <v>6420000</v>
+      </c>
+      <c r="E855" s="1">
+        <v>1</v>
+      </c>
+      <c r="F855" s="8">
+        <f t="shared" ref="F855:F918" si="38">D855+100000</f>
+        <v>6520000</v>
+      </c>
+      <c r="G855" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856" s="1">
+        <v>170800</v>
+      </c>
+      <c r="C856" s="2">
+        <v>5</v>
+      </c>
+      <c r="D856" s="1">
+        <v>6430000</v>
+      </c>
+      <c r="E856" s="2">
+        <v>5</v>
+      </c>
+      <c r="F856" s="8">
+        <f t="shared" si="38"/>
+        <v>6530000</v>
+      </c>
+      <c r="G856" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857" s="1">
+        <v>171000</v>
+      </c>
+      <c r="C857" s="1">
+        <v>1</v>
+      </c>
+      <c r="D857" s="1">
+        <v>6440000</v>
+      </c>
+      <c r="E857" s="1">
+        <v>1</v>
+      </c>
+      <c r="F857" s="8">
+        <f t="shared" si="38"/>
+        <v>6540000</v>
+      </c>
+      <c r="G857" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858" s="1">
+        <v>171200</v>
+      </c>
+      <c r="C858" s="1">
+        <v>1</v>
+      </c>
+      <c r="D858" s="1">
+        <v>6450000</v>
+      </c>
+      <c r="E858" s="1">
+        <v>1</v>
+      </c>
+      <c r="F858" s="8">
+        <f t="shared" si="38"/>
+        <v>6550000</v>
+      </c>
+      <c r="G858" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859" s="1">
+        <v>171400</v>
+      </c>
+      <c r="C859" s="1">
+        <v>20</v>
+      </c>
+      <c r="D859" s="1">
+        <v>200</v>
+      </c>
+      <c r="E859" s="1">
+        <v>20</v>
+      </c>
+      <c r="F859" s="8">
+        <v>200</v>
+      </c>
+      <c r="G859" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860" s="1">
+        <v>171600</v>
+      </c>
+      <c r="C860" s="1">
+        <v>1</v>
+      </c>
+      <c r="D860" s="1">
+        <v>6470000</v>
+      </c>
+      <c r="E860" s="1">
+        <v>1</v>
+      </c>
+      <c r="F860" s="8">
+        <f t="shared" ref="F860:F923" si="39">D860+100000</f>
+        <v>6570000</v>
+      </c>
+      <c r="G860" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861" s="1">
+        <v>171800</v>
+      </c>
+      <c r="C861" s="2">
+        <v>14</v>
+      </c>
+      <c r="D861" s="1">
+        <v>4</v>
+      </c>
+      <c r="E861" s="2">
+        <v>14</v>
+      </c>
+      <c r="F861" s="8">
+        <v>4</v>
+      </c>
+      <c r="G861" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862" s="1">
+        <v>172000</v>
+      </c>
+      <c r="C862" s="1">
+        <v>1</v>
+      </c>
+      <c r="D862" s="1">
+        <v>6490000</v>
+      </c>
+      <c r="E862" s="1">
+        <v>1</v>
+      </c>
+      <c r="F862" s="8">
+        <f t="shared" ref="F862:F925" si="40">D862+100000</f>
+        <v>6590000</v>
+      </c>
+      <c r="G862" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863" s="1">
+        <v>172200</v>
+      </c>
+      <c r="C863" s="1">
+        <v>1</v>
+      </c>
+      <c r="D863" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="E863" s="1">
+        <v>1</v>
+      </c>
+      <c r="F863" s="8">
+        <f t="shared" si="40"/>
+        <v>6600000</v>
+      </c>
+      <c r="G863" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864" s="1">
+        <v>172400</v>
+      </c>
+      <c r="C864" s="1">
+        <v>20</v>
+      </c>
+      <c r="D864" s="1">
+        <v>200</v>
+      </c>
+      <c r="E864" s="1">
+        <v>20</v>
+      </c>
+      <c r="F864" s="8">
+        <v>200</v>
+      </c>
+      <c r="G864" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865" s="1">
+        <v>172600</v>
+      </c>
+      <c r="C865" s="1">
+        <v>1</v>
+      </c>
+      <c r="D865" s="1">
+        <v>6520000</v>
+      </c>
+      <c r="E865" s="1">
+        <v>1</v>
+      </c>
+      <c r="F865" s="8">
+        <f t="shared" ref="F865:F928" si="41">D865+100000</f>
+        <v>6620000</v>
+      </c>
+      <c r="G865" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866" s="1">
+        <v>172800</v>
+      </c>
+      <c r="C866" s="2">
+        <v>5</v>
+      </c>
+      <c r="D866" s="1">
+        <v>6530000</v>
+      </c>
+      <c r="E866" s="2">
+        <v>5</v>
+      </c>
+      <c r="F866" s="8">
+        <f t="shared" si="41"/>
+        <v>6630000</v>
+      </c>
+      <c r="G866" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867" s="1">
+        <v>173000</v>
+      </c>
+      <c r="C867" s="1">
+        <v>1</v>
+      </c>
+      <c r="D867" s="1">
+        <v>6540000</v>
+      </c>
+      <c r="E867" s="1">
+        <v>1</v>
+      </c>
+      <c r="F867" s="8">
+        <f t="shared" si="41"/>
+        <v>6640000</v>
+      </c>
+      <c r="G867" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868" s="1">
+        <v>173200</v>
+      </c>
+      <c r="C868" s="1">
+        <v>1</v>
+      </c>
+      <c r="D868" s="1">
+        <v>6550000</v>
+      </c>
+      <c r="E868" s="1">
+        <v>1</v>
+      </c>
+      <c r="F868" s="8">
+        <f t="shared" si="41"/>
+        <v>6650000</v>
+      </c>
+      <c r="G868" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869" s="1">
+        <v>173400</v>
+      </c>
+      <c r="C869" s="1">
+        <v>20</v>
+      </c>
+      <c r="D869" s="1">
+        <v>200</v>
+      </c>
+      <c r="E869" s="1">
+        <v>20</v>
+      </c>
+      <c r="F869" s="8">
+        <v>200</v>
+      </c>
+      <c r="G869" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870" s="1">
+        <v>173600</v>
+      </c>
+      <c r="C870" s="1">
+        <v>1</v>
+      </c>
+      <c r="D870" s="1">
+        <v>6570000</v>
+      </c>
+      <c r="E870" s="1">
+        <v>1</v>
+      </c>
+      <c r="F870" s="8">
+        <f t="shared" ref="F870:F933" si="42">D870+100000</f>
+        <v>6670000</v>
+      </c>
+      <c r="G870" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871" s="1">
+        <v>173800</v>
+      </c>
+      <c r="C871" s="2">
+        <v>14</v>
+      </c>
+      <c r="D871" s="1">
+        <v>4</v>
+      </c>
+      <c r="E871" s="2">
+        <v>14</v>
+      </c>
+      <c r="F871" s="8">
+        <v>4</v>
+      </c>
+      <c r="G871" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872" s="1">
+        <v>174000</v>
+      </c>
+      <c r="C872" s="1">
+        <v>1</v>
+      </c>
+      <c r="D872" s="1">
+        <v>6590000</v>
+      </c>
+      <c r="E872" s="1">
+        <v>1</v>
+      </c>
+      <c r="F872" s="8">
+        <f t="shared" ref="F872:F935" si="43">D872+100000</f>
+        <v>6690000</v>
+      </c>
+      <c r="G872" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A873" s="1">
+        <v>871</v>
+      </c>
+      <c r="B873" s="1">
+        <v>174200</v>
+      </c>
+      <c r="C873" s="1">
+        <v>1</v>
+      </c>
+      <c r="D873" s="1">
+        <v>6600000</v>
+      </c>
+      <c r="E873" s="1">
+        <v>1</v>
+      </c>
+      <c r="F873" s="8">
+        <f t="shared" si="43"/>
+        <v>6700000</v>
+      </c>
+      <c r="G873" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A874" s="1">
+        <v>872</v>
+      </c>
+      <c r="B874" s="1">
+        <v>174400</v>
+      </c>
+      <c r="C874" s="1">
+        <v>20</v>
+      </c>
+      <c r="D874" s="1">
+        <v>200</v>
+      </c>
+      <c r="E874" s="1">
+        <v>20</v>
+      </c>
+      <c r="F874" s="8">
+        <v>200</v>
+      </c>
+      <c r="G874" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A875" s="1">
+        <v>873</v>
+      </c>
+      <c r="B875" s="1">
+        <v>174600</v>
+      </c>
+      <c r="C875" s="1">
+        <v>1</v>
+      </c>
+      <c r="D875" s="1">
+        <v>6620000</v>
+      </c>
+      <c r="E875" s="1">
+        <v>1</v>
+      </c>
+      <c r="F875" s="8">
+        <f t="shared" ref="F875:F937" si="44">D875+100000</f>
+        <v>6720000</v>
+      </c>
+      <c r="G875" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A876" s="1">
+        <v>874</v>
+      </c>
+      <c r="B876" s="1">
+        <v>174800</v>
+      </c>
+      <c r="C876" s="2">
+        <v>5</v>
+      </c>
+      <c r="D876" s="1">
+        <v>6630000</v>
+      </c>
+      <c r="E876" s="2">
+        <v>5</v>
+      </c>
+      <c r="F876" s="8">
+        <f t="shared" si="44"/>
+        <v>6730000</v>
+      </c>
+      <c r="G876" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A877" s="1">
+        <v>875</v>
+      </c>
+      <c r="B877" s="1">
+        <v>175000</v>
+      </c>
+      <c r="C877" s="1">
+        <v>1</v>
+      </c>
+      <c r="D877" s="1">
+        <v>6640000</v>
+      </c>
+      <c r="E877" s="1">
+        <v>1</v>
+      </c>
+      <c r="F877" s="8">
+        <f t="shared" si="44"/>
+        <v>6740000</v>
+      </c>
+      <c r="G877" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A878" s="1">
+        <v>876</v>
+      </c>
+      <c r="B878" s="1">
+        <v>175200</v>
+      </c>
+      <c r="C878" s="1">
+        <v>1</v>
+      </c>
+      <c r="D878" s="1">
+        <v>6650000</v>
+      </c>
+      <c r="E878" s="1">
+        <v>1</v>
+      </c>
+      <c r="F878" s="8">
+        <f t="shared" si="44"/>
+        <v>6750000</v>
+      </c>
+      <c r="G878" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A879" s="1">
+        <v>877</v>
+      </c>
+      <c r="B879" s="1">
+        <v>175400</v>
+      </c>
+      <c r="C879" s="1">
+        <v>20</v>
+      </c>
+      <c r="D879" s="1">
+        <v>200</v>
+      </c>
+      <c r="E879" s="1">
+        <v>20</v>
+      </c>
+      <c r="F879" s="8">
+        <v>200</v>
+      </c>
+      <c r="G879" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A880" s="1">
+        <v>878</v>
+      </c>
+      <c r="B880" s="1">
+        <v>175600</v>
+      </c>
+      <c r="C880" s="1">
+        <v>1</v>
+      </c>
+      <c r="D880" s="1">
+        <v>6670000</v>
+      </c>
+      <c r="E880" s="1">
+        <v>1</v>
+      </c>
+      <c r="F880" s="8">
+        <f t="shared" ref="F880:F942" si="45">D880+100000</f>
+        <v>6770000</v>
+      </c>
+      <c r="G880" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A881" s="1">
+        <v>879</v>
+      </c>
+      <c r="B881" s="1">
+        <v>175800</v>
+      </c>
+      <c r="C881" s="2">
+        <v>14</v>
+      </c>
+      <c r="D881" s="1">
+        <v>4</v>
+      </c>
+      <c r="E881" s="2">
+        <v>14</v>
+      </c>
+      <c r="F881" s="8">
+        <v>4</v>
+      </c>
+      <c r="G881" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A882" s="1">
+        <v>880</v>
+      </c>
+      <c r="B882" s="1">
+        <v>176000</v>
+      </c>
+      <c r="C882" s="1">
+        <v>1</v>
+      </c>
+      <c r="D882" s="1">
+        <v>6690000</v>
+      </c>
+      <c r="E882" s="1">
+        <v>1</v>
+      </c>
+      <c r="F882" s="8">
+        <f t="shared" ref="F882:F944" si="46">D882+100000</f>
+        <v>6790000</v>
+      </c>
+      <c r="G882" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A883" s="1">
+        <v>881</v>
+      </c>
+      <c r="B883" s="1">
+        <v>176200</v>
+      </c>
+      <c r="C883" s="1">
+        <v>1</v>
+      </c>
+      <c r="D883" s="1">
+        <v>6700000</v>
+      </c>
+      <c r="E883" s="1">
+        <v>1</v>
+      </c>
+      <c r="F883" s="8">
+        <f t="shared" si="46"/>
+        <v>6800000</v>
+      </c>
+      <c r="G883" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A884" s="1">
+        <v>882</v>
+      </c>
+      <c r="B884" s="1">
+        <v>176400</v>
+      </c>
+      <c r="C884" s="1">
+        <v>20</v>
+      </c>
+      <c r="D884" s="1">
+        <v>200</v>
+      </c>
+      <c r="E884" s="1">
+        <v>20</v>
+      </c>
+      <c r="F884" s="8">
+        <v>200</v>
+      </c>
+      <c r="G884" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A885" s="1">
+        <v>883</v>
+      </c>
+      <c r="B885" s="1">
+        <v>176600</v>
+      </c>
+      <c r="C885" s="1">
+        <v>1</v>
+      </c>
+      <c r="D885" s="1">
+        <v>6720000</v>
+      </c>
+      <c r="E885" s="1">
+        <v>1</v>
+      </c>
+      <c r="F885" s="8">
+        <f t="shared" ref="F885:F947" si="47">D885+100000</f>
+        <v>6820000</v>
+      </c>
+      <c r="G885" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A886" s="1">
+        <v>884</v>
+      </c>
+      <c r="B886" s="1">
+        <v>176800</v>
+      </c>
+      <c r="C886" s="2">
+        <v>5</v>
+      </c>
+      <c r="D886" s="1">
+        <v>6730000</v>
+      </c>
+      <c r="E886" s="2">
+        <v>5</v>
+      </c>
+      <c r="F886" s="8">
+        <f t="shared" si="47"/>
+        <v>6830000</v>
+      </c>
+      <c r="G886" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A887" s="1">
+        <v>885</v>
+      </c>
+      <c r="B887" s="1">
+        <v>177000</v>
+      </c>
+      <c r="C887" s="1">
+        <v>1</v>
+      </c>
+      <c r="D887" s="1">
+        <v>6740000</v>
+      </c>
+      <c r="E887" s="1">
+        <v>1</v>
+      </c>
+      <c r="F887" s="8">
+        <f t="shared" si="47"/>
+        <v>6840000</v>
+      </c>
+      <c r="G887" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A888" s="1">
+        <v>886</v>
+      </c>
+      <c r="B888" s="1">
+        <v>177200</v>
+      </c>
+      <c r="C888" s="1">
+        <v>1</v>
+      </c>
+      <c r="D888" s="1">
+        <v>6750000</v>
+      </c>
+      <c r="E888" s="1">
+        <v>1</v>
+      </c>
+      <c r="F888" s="8">
+        <f t="shared" si="47"/>
+        <v>6850000</v>
+      </c>
+      <c r="G888" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889" s="1">
+        <v>887</v>
+      </c>
+      <c r="B889" s="1">
+        <v>177400</v>
+      </c>
+      <c r="C889" s="1">
+        <v>20</v>
+      </c>
+      <c r="D889" s="1">
+        <v>200</v>
+      </c>
+      <c r="E889" s="1">
+        <v>20</v>
+      </c>
+      <c r="F889" s="8">
+        <v>200</v>
+      </c>
+      <c r="G889" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890" s="1">
+        <v>888</v>
+      </c>
+      <c r="B890" s="1">
+        <v>177600</v>
+      </c>
+      <c r="C890" s="1">
+        <v>1</v>
+      </c>
+      <c r="D890" s="1">
+        <v>6770000</v>
+      </c>
+      <c r="E890" s="1">
+        <v>1</v>
+      </c>
+      <c r="F890" s="8">
+        <f t="shared" ref="F890:F952" si="48">D890+100000</f>
+        <v>6870000</v>
+      </c>
+      <c r="G890" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A891" s="1">
+        <v>889</v>
+      </c>
+      <c r="B891" s="1">
+        <v>177800</v>
+      </c>
+      <c r="C891" s="2">
+        <v>14</v>
+      </c>
+      <c r="D891" s="1">
+        <v>4</v>
+      </c>
+      <c r="E891" s="2">
+        <v>14</v>
+      </c>
+      <c r="F891" s="8">
+        <v>4</v>
+      </c>
+      <c r="G891" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A892" s="1">
+        <v>890</v>
+      </c>
+      <c r="B892" s="1">
+        <v>178000</v>
+      </c>
+      <c r="C892" s="1">
+        <v>1</v>
+      </c>
+      <c r="D892" s="1">
+        <v>6790000</v>
+      </c>
+      <c r="E892" s="1">
+        <v>1</v>
+      </c>
+      <c r="F892" s="8">
+        <f t="shared" ref="F892:F954" si="49">D892+100000</f>
+        <v>6890000</v>
+      </c>
+      <c r="G892" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A893" s="1">
+        <v>891</v>
+      </c>
+      <c r="B893" s="1">
+        <v>178200</v>
+      </c>
+      <c r="C893" s="1">
+        <v>1</v>
+      </c>
+      <c r="D893" s="1">
+        <v>6800000</v>
+      </c>
+      <c r="E893" s="1">
+        <v>1</v>
+      </c>
+      <c r="F893" s="8">
+        <f t="shared" si="49"/>
+        <v>6900000</v>
+      </c>
+      <c r="G893" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A894" s="1">
+        <v>892</v>
+      </c>
+      <c r="B894" s="1">
+        <v>178400</v>
+      </c>
+      <c r="C894" s="1">
+        <v>20</v>
+      </c>
+      <c r="D894" s="1">
+        <v>200</v>
+      </c>
+      <c r="E894" s="1">
+        <v>20</v>
+      </c>
+      <c r="F894" s="8">
+        <v>200</v>
+      </c>
+      <c r="G894" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A895" s="1">
+        <v>893</v>
+      </c>
+      <c r="B895" s="1">
+        <v>178600</v>
+      </c>
+      <c r="C895" s="1">
+        <v>1</v>
+      </c>
+      <c r="D895" s="1">
+        <v>6820000</v>
+      </c>
+      <c r="E895" s="1">
+        <v>1</v>
+      </c>
+      <c r="F895" s="8">
+        <f t="shared" ref="F895:F957" si="50">D895+100000</f>
+        <v>6920000</v>
+      </c>
+      <c r="G895" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896" s="1">
+        <v>178800</v>
+      </c>
+      <c r="C896" s="2">
+        <v>5</v>
+      </c>
+      <c r="D896" s="1">
+        <v>6830000</v>
+      </c>
+      <c r="E896" s="2">
+        <v>5</v>
+      </c>
+      <c r="F896" s="8">
+        <f t="shared" si="50"/>
+        <v>6930000</v>
+      </c>
+      <c r="G896" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897" s="1">
+        <v>179000</v>
+      </c>
+      <c r="C897" s="1">
+        <v>1</v>
+      </c>
+      <c r="D897" s="1">
+        <v>6840000</v>
+      </c>
+      <c r="E897" s="1">
+        <v>1</v>
+      </c>
+      <c r="F897" s="8">
+        <f t="shared" si="50"/>
+        <v>6940000</v>
+      </c>
+      <c r="G897" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A898" s="1">
+        <v>896</v>
+      </c>
+      <c r="B898" s="1">
+        <v>179200</v>
+      </c>
+      <c r="C898" s="1">
+        <v>1</v>
+      </c>
+      <c r="D898" s="1">
+        <v>6850000</v>
+      </c>
+      <c r="E898" s="1">
+        <v>1</v>
+      </c>
+      <c r="F898" s="8">
+        <f t="shared" si="50"/>
+        <v>6950000</v>
+      </c>
+      <c r="G898" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899" s="1">
+        <v>179400</v>
+      </c>
+      <c r="C899" s="1">
+        <v>20</v>
+      </c>
+      <c r="D899" s="1">
+        <v>200</v>
+      </c>
+      <c r="E899" s="1">
+        <v>20</v>
+      </c>
+      <c r="F899" s="8">
+        <v>200</v>
+      </c>
+      <c r="G899" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900" s="1">
+        <v>179600</v>
+      </c>
+      <c r="C900" s="1">
+        <v>1</v>
+      </c>
+      <c r="D900" s="1">
+        <v>6870000</v>
+      </c>
+      <c r="E900" s="1">
+        <v>1</v>
+      </c>
+      <c r="F900" s="8">
+        <f t="shared" ref="F900:F962" si="51">D900+100000</f>
+        <v>6970000</v>
+      </c>
+      <c r="G900" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901" s="1">
+        <v>179800</v>
+      </c>
+      <c r="C901" s="2">
+        <v>14</v>
+      </c>
+      <c r="D901" s="1">
+        <v>4</v>
+      </c>
+      <c r="E901" s="2">
+        <v>14</v>
+      </c>
+      <c r="F901" s="8">
+        <v>4</v>
+      </c>
+      <c r="G901" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902" s="1">
+        <v>180000</v>
+      </c>
+      <c r="C902" s="1">
+        <v>1</v>
+      </c>
+      <c r="D902" s="1">
+        <v>6890000</v>
+      </c>
+      <c r="E902" s="1">
+        <v>1</v>
+      </c>
+      <c r="F902" s="8">
+        <f t="shared" ref="F902:F964" si="52">D902+100000</f>
+        <v>6990000</v>
+      </c>
+      <c r="G902" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903" s="1">
+        <v>180200</v>
+      </c>
+      <c r="C903" s="1">
+        <v>1</v>
+      </c>
+      <c r="D903" s="1">
+        <v>6900000</v>
+      </c>
+      <c r="E903" s="1">
+        <v>1</v>
+      </c>
+      <c r="F903" s="8">
+        <f t="shared" si="52"/>
+        <v>7000000</v>
+      </c>
+      <c r="G903" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904" s="1">
+        <v>180400</v>
+      </c>
+      <c r="C904" s="1">
+        <v>20</v>
+      </c>
+      <c r="D904" s="1">
+        <v>200</v>
+      </c>
+      <c r="E904" s="1">
+        <v>20</v>
+      </c>
+      <c r="F904" s="8">
+        <v>200</v>
+      </c>
+      <c r="G904" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905" s="1">
+        <v>180600</v>
+      </c>
+      <c r="C905" s="1">
+        <v>1</v>
+      </c>
+      <c r="D905" s="1">
+        <v>6920000</v>
+      </c>
+      <c r="E905" s="1">
+        <v>1</v>
+      </c>
+      <c r="F905" s="8">
+        <f t="shared" ref="F905:F967" si="53">D905+100000</f>
+        <v>7020000</v>
+      </c>
+      <c r="G905" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906" s="1">
+        <v>180800</v>
+      </c>
+      <c r="C906" s="2">
+        <v>5</v>
+      </c>
+      <c r="D906" s="1">
+        <v>6930000</v>
+      </c>
+      <c r="E906" s="2">
+        <v>5</v>
+      </c>
+      <c r="F906" s="8">
+        <f t="shared" si="53"/>
+        <v>7030000</v>
+      </c>
+      <c r="G906" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907" s="1">
+        <v>181000</v>
+      </c>
+      <c r="C907" s="1">
+        <v>1</v>
+      </c>
+      <c r="D907" s="1">
+        <v>6940000</v>
+      </c>
+      <c r="E907" s="1">
+        <v>1</v>
+      </c>
+      <c r="F907" s="8">
+        <f t="shared" si="53"/>
+        <v>7040000</v>
+      </c>
+      <c r="G907" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908" s="1">
+        <v>181200</v>
+      </c>
+      <c r="C908" s="1">
+        <v>1</v>
+      </c>
+      <c r="D908" s="1">
+        <v>6950000</v>
+      </c>
+      <c r="E908" s="1">
+        <v>1</v>
+      </c>
+      <c r="F908" s="8">
+        <f t="shared" si="53"/>
+        <v>7050000</v>
+      </c>
+      <c r="G908" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A909" s="1">
+        <v>907</v>
+      </c>
+      <c r="B909" s="1">
+        <v>181400</v>
+      </c>
+      <c r="C909" s="1">
+        <v>20</v>
+      </c>
+      <c r="D909" s="1">
+        <v>200</v>
+      </c>
+      <c r="E909" s="1">
+        <v>20</v>
+      </c>
+      <c r="F909" s="8">
+        <v>200</v>
+      </c>
+      <c r="G909" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A910" s="1">
+        <v>908</v>
+      </c>
+      <c r="B910" s="1">
+        <v>181600</v>
+      </c>
+      <c r="C910" s="1">
+        <v>1</v>
+      </c>
+      <c r="D910" s="1">
+        <v>6970000</v>
+      </c>
+      <c r="E910" s="1">
+        <v>1</v>
+      </c>
+      <c r="F910" s="8">
+        <f t="shared" ref="F910:F972" si="54">D910+100000</f>
+        <v>7070000</v>
+      </c>
+      <c r="G910" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A911" s="1">
+        <v>909</v>
+      </c>
+      <c r="B911" s="1">
+        <v>181800</v>
+      </c>
+      <c r="C911" s="2">
+        <v>14</v>
+      </c>
+      <c r="D911" s="1">
+        <v>4</v>
+      </c>
+      <c r="E911" s="2">
+        <v>14</v>
+      </c>
+      <c r="F911" s="8">
+        <v>4</v>
+      </c>
+      <c r="G911" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A912" s="1">
+        <v>910</v>
+      </c>
+      <c r="B912" s="1">
+        <v>182000</v>
+      </c>
+      <c r="C912" s="1">
+        <v>1</v>
+      </c>
+      <c r="D912" s="1">
+        <v>6990000</v>
+      </c>
+      <c r="E912" s="1">
+        <v>1</v>
+      </c>
+      <c r="F912" s="8">
+        <f t="shared" ref="F912:F974" si="55">D912+100000</f>
+        <v>7090000</v>
+      </c>
+      <c r="G912" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A913" s="1">
+        <v>911</v>
+      </c>
+      <c r="B913" s="1">
+        <v>182200</v>
+      </c>
+      <c r="C913" s="1">
+        <v>1</v>
+      </c>
+      <c r="D913" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="E913" s="1">
+        <v>1</v>
+      </c>
+      <c r="F913" s="8">
+        <f t="shared" si="55"/>
+        <v>7100000</v>
+      </c>
+      <c r="G913" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A914" s="1">
+        <v>912</v>
+      </c>
+      <c r="B914" s="1">
+        <v>182400</v>
+      </c>
+      <c r="C914" s="1">
+        <v>20</v>
+      </c>
+      <c r="D914" s="1">
+        <v>200</v>
+      </c>
+      <c r="E914" s="1">
+        <v>20</v>
+      </c>
+      <c r="F914" s="8">
+        <v>200</v>
+      </c>
+      <c r="G914" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A915" s="1">
+        <v>913</v>
+      </c>
+      <c r="B915" s="1">
+        <v>182600</v>
+      </c>
+      <c r="C915" s="1">
+        <v>1</v>
+      </c>
+      <c r="D915" s="1">
+        <v>7020000</v>
+      </c>
+      <c r="E915" s="1">
+        <v>1</v>
+      </c>
+      <c r="F915" s="8">
+        <f t="shared" ref="F915:F977" si="56">D915+100000</f>
+        <v>7120000</v>
+      </c>
+      <c r="G915" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A916" s="1">
+        <v>914</v>
+      </c>
+      <c r="B916" s="1">
+        <v>182800</v>
+      </c>
+      <c r="C916" s="2">
+        <v>5</v>
+      </c>
+      <c r="D916" s="1">
+        <v>7030000</v>
+      </c>
+      <c r="E916" s="2">
+        <v>5</v>
+      </c>
+      <c r="F916" s="8">
+        <f t="shared" si="56"/>
+        <v>7130000</v>
+      </c>
+      <c r="G916" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A917" s="1">
+        <v>915</v>
+      </c>
+      <c r="B917" s="1">
+        <v>183000</v>
+      </c>
+      <c r="C917" s="1">
+        <v>1</v>
+      </c>
+      <c r="D917" s="1">
+        <v>7040000</v>
+      </c>
+      <c r="E917" s="1">
+        <v>1</v>
+      </c>
+      <c r="F917" s="8">
+        <f t="shared" si="56"/>
+        <v>7140000</v>
+      </c>
+      <c r="G917" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A918" s="1">
+        <v>916</v>
+      </c>
+      <c r="B918" s="1">
+        <v>183200</v>
+      </c>
+      <c r="C918" s="1">
+        <v>1</v>
+      </c>
+      <c r="D918" s="1">
+        <v>7050000</v>
+      </c>
+      <c r="E918" s="1">
+        <v>1</v>
+      </c>
+      <c r="F918" s="8">
+        <f t="shared" si="56"/>
+        <v>7150000</v>
+      </c>
+      <c r="G918" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A919" s="1">
+        <v>917</v>
+      </c>
+      <c r="B919" s="1">
+        <v>183400</v>
+      </c>
+      <c r="C919" s="1">
+        <v>20</v>
+      </c>
+      <c r="D919" s="1">
+        <v>200</v>
+      </c>
+      <c r="E919" s="1">
+        <v>20</v>
+      </c>
+      <c r="F919" s="8">
+        <v>200</v>
+      </c>
+      <c r="G919" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A920" s="1">
+        <v>918</v>
+      </c>
+      <c r="B920" s="1">
+        <v>183600</v>
+      </c>
+      <c r="C920" s="1">
+        <v>1</v>
+      </c>
+      <c r="D920" s="1">
+        <v>7070000</v>
+      </c>
+      <c r="E920" s="1">
+        <v>1</v>
+      </c>
+      <c r="F920" s="8">
+        <f t="shared" ref="F920:F982" si="57">D920+100000</f>
+        <v>7170000</v>
+      </c>
+      <c r="G920" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A921" s="1">
+        <v>919</v>
+      </c>
+      <c r="B921" s="1">
+        <v>183800</v>
+      </c>
+      <c r="C921" s="2">
+        <v>14</v>
+      </c>
+      <c r="D921" s="1">
+        <v>4</v>
+      </c>
+      <c r="E921" s="2">
+        <v>14</v>
+      </c>
+      <c r="F921" s="8">
+        <v>4</v>
+      </c>
+      <c r="G921" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A922" s="1">
+        <v>920</v>
+      </c>
+      <c r="B922" s="1">
+        <v>184000</v>
+      </c>
+      <c r="C922" s="1">
+        <v>1</v>
+      </c>
+      <c r="D922" s="1">
+        <v>7090000</v>
+      </c>
+      <c r="E922" s="1">
+        <v>1</v>
+      </c>
+      <c r="F922" s="8">
+        <f t="shared" ref="F922:F984" si="58">D922+100000</f>
+        <v>7190000</v>
+      </c>
+      <c r="G922" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A923" s="1">
+        <v>921</v>
+      </c>
+      <c r="B923" s="1">
+        <v>184200</v>
+      </c>
+      <c r="C923" s="1">
+        <v>1</v>
+      </c>
+      <c r="D923" s="1">
+        <v>7100000</v>
+      </c>
+      <c r="E923" s="1">
+        <v>1</v>
+      </c>
+      <c r="F923" s="8">
+        <f t="shared" si="58"/>
+        <v>7200000</v>
+      </c>
+      <c r="G923" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A924" s="1">
+        <v>922</v>
+      </c>
+      <c r="B924" s="1">
+        <v>184400</v>
+      </c>
+      <c r="C924" s="1">
+        <v>20</v>
+      </c>
+      <c r="D924" s="1">
+        <v>200</v>
+      </c>
+      <c r="E924" s="1">
+        <v>20</v>
+      </c>
+      <c r="F924" s="8">
+        <v>200</v>
+      </c>
+      <c r="G924" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A925" s="1">
+        <v>923</v>
+      </c>
+      <c r="B925" s="1">
+        <v>184600</v>
+      </c>
+      <c r="C925" s="1">
+        <v>1</v>
+      </c>
+      <c r="D925" s="1">
+        <v>7120000</v>
+      </c>
+      <c r="E925" s="1">
+        <v>1</v>
+      </c>
+      <c r="F925" s="8">
+        <f t="shared" ref="F925:F987" si="59">D925+100000</f>
+        <v>7220000</v>
+      </c>
+      <c r="G925" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A926" s="1">
+        <v>924</v>
+      </c>
+      <c r="B926" s="1">
+        <v>184800</v>
+      </c>
+      <c r="C926" s="2">
+        <v>5</v>
+      </c>
+      <c r="D926" s="1">
+        <v>7130000</v>
+      </c>
+      <c r="E926" s="2">
+        <v>5</v>
+      </c>
+      <c r="F926" s="8">
+        <f t="shared" si="59"/>
+        <v>7230000</v>
+      </c>
+      <c r="G926" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A927" s="1">
+        <v>925</v>
+      </c>
+      <c r="B927" s="1">
+        <v>185000</v>
+      </c>
+      <c r="C927" s="1">
+        <v>1</v>
+      </c>
+      <c r="D927" s="1">
+        <v>7140000</v>
+      </c>
+      <c r="E927" s="1">
+        <v>1</v>
+      </c>
+      <c r="F927" s="8">
+        <f t="shared" si="59"/>
+        <v>7240000</v>
+      </c>
+      <c r="G927" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A928" s="1">
+        <v>926</v>
+      </c>
+      <c r="B928" s="1">
+        <v>185200</v>
+      </c>
+      <c r="C928" s="1">
+        <v>1</v>
+      </c>
+      <c r="D928" s="1">
+        <v>7150000</v>
+      </c>
+      <c r="E928" s="1">
+        <v>1</v>
+      </c>
+      <c r="F928" s="8">
+        <f t="shared" si="59"/>
+        <v>7250000</v>
+      </c>
+      <c r="G928" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A929" s="1">
+        <v>927</v>
+      </c>
+      <c r="B929" s="1">
+        <v>185400</v>
+      </c>
+      <c r="C929" s="1">
+        <v>20</v>
+      </c>
+      <c r="D929" s="1">
+        <v>200</v>
+      </c>
+      <c r="E929" s="1">
+        <v>20</v>
+      </c>
+      <c r="F929" s="8">
+        <v>200</v>
+      </c>
+      <c r="G929" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A930" s="1">
+        <v>928</v>
+      </c>
+      <c r="B930" s="1">
+        <v>185600</v>
+      </c>
+      <c r="C930" s="1">
+        <v>1</v>
+      </c>
+      <c r="D930" s="1">
+        <v>7170000</v>
+      </c>
+      <c r="E930" s="1">
+        <v>1</v>
+      </c>
+      <c r="F930" s="8">
+        <f t="shared" ref="F930:F992" si="60">D930+100000</f>
+        <v>7270000</v>
+      </c>
+      <c r="G930" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A931" s="1">
+        <v>929</v>
+      </c>
+      <c r="B931" s="1">
+        <v>185800</v>
+      </c>
+      <c r="C931" s="2">
+        <v>14</v>
+      </c>
+      <c r="D931" s="1">
+        <v>4</v>
+      </c>
+      <c r="E931" s="2">
+        <v>14</v>
+      </c>
+      <c r="F931" s="8">
+        <v>4</v>
+      </c>
+      <c r="G931" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A932" s="1">
+        <v>930</v>
+      </c>
+      <c r="B932" s="1">
+        <v>186000</v>
+      </c>
+      <c r="C932" s="1">
+        <v>1</v>
+      </c>
+      <c r="D932" s="1">
+        <v>7190000</v>
+      </c>
+      <c r="E932" s="1">
+        <v>1</v>
+      </c>
+      <c r="F932" s="8">
+        <f t="shared" ref="F932:F994" si="61">D932+100000</f>
+        <v>7290000</v>
+      </c>
+      <c r="G932" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A933" s="1">
+        <v>931</v>
+      </c>
+      <c r="B933" s="1">
+        <v>186200</v>
+      </c>
+      <c r="C933" s="1">
+        <v>1</v>
+      </c>
+      <c r="D933" s="1">
+        <v>7200000</v>
+      </c>
+      <c r="E933" s="1">
+        <v>1</v>
+      </c>
+      <c r="F933" s="8">
+        <f t="shared" si="61"/>
+        <v>7300000</v>
+      </c>
+      <c r="G933" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A934" s="1">
+        <v>932</v>
+      </c>
+      <c r="B934" s="1">
+        <v>186400</v>
+      </c>
+      <c r="C934" s="1">
+        <v>20</v>
+      </c>
+      <c r="D934" s="1">
+        <v>200</v>
+      </c>
+      <c r="E934" s="1">
+        <v>20</v>
+      </c>
+      <c r="F934" s="8">
+        <v>200</v>
+      </c>
+      <c r="G934" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A935" s="1">
+        <v>933</v>
+      </c>
+      <c r="B935" s="1">
+        <v>186600</v>
+      </c>
+      <c r="C935" s="1">
+        <v>1</v>
+      </c>
+      <c r="D935" s="1">
+        <v>7220000</v>
+      </c>
+      <c r="E935" s="1">
+        <v>1</v>
+      </c>
+      <c r="F935" s="8">
+        <f t="shared" ref="F935:F997" si="62">D935+100000</f>
+        <v>7320000</v>
+      </c>
+      <c r="G935" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A936" s="1">
+        <v>934</v>
+      </c>
+      <c r="B936" s="1">
+        <v>186800</v>
+      </c>
+      <c r="C936" s="2">
+        <v>5</v>
+      </c>
+      <c r="D936" s="1">
+        <v>7230000</v>
+      </c>
+      <c r="E936" s="2">
+        <v>5</v>
+      </c>
+      <c r="F936" s="8">
+        <f t="shared" si="62"/>
+        <v>7330000</v>
+      </c>
+      <c r="G936" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A937" s="1">
+        <v>935</v>
+      </c>
+      <c r="B937" s="1">
+        <v>187000</v>
+      </c>
+      <c r="C937" s="1">
+        <v>1</v>
+      </c>
+      <c r="D937" s="1">
+        <v>7240000</v>
+      </c>
+      <c r="E937" s="1">
+        <v>1</v>
+      </c>
+      <c r="F937" s="8">
+        <f t="shared" si="62"/>
+        <v>7340000</v>
+      </c>
+      <c r="G937" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A938" s="1">
+        <v>936</v>
+      </c>
+      <c r="B938" s="1">
+        <v>187200</v>
+      </c>
+      <c r="C938" s="1">
+        <v>1</v>
+      </c>
+      <c r="D938" s="1">
+        <v>7250000</v>
+      </c>
+      <c r="E938" s="1">
+        <v>1</v>
+      </c>
+      <c r="F938" s="8">
+        <f t="shared" si="62"/>
+        <v>7350000</v>
+      </c>
+      <c r="G938" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A939" s="1">
+        <v>937</v>
+      </c>
+      <c r="B939" s="1">
+        <v>187400</v>
+      </c>
+      <c r="C939" s="1">
+        <v>20</v>
+      </c>
+      <c r="D939" s="1">
+        <v>200</v>
+      </c>
+      <c r="E939" s="1">
+        <v>20</v>
+      </c>
+      <c r="F939" s="8">
+        <v>200</v>
+      </c>
+      <c r="G939" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A940" s="1">
+        <v>938</v>
+      </c>
+      <c r="B940" s="1">
+        <v>187600</v>
+      </c>
+      <c r="C940" s="1">
+        <v>1</v>
+      </c>
+      <c r="D940" s="1">
+        <v>7270000</v>
+      </c>
+      <c r="E940" s="1">
+        <v>1</v>
+      </c>
+      <c r="F940" s="8">
+        <f t="shared" ref="F940:F1002" si="63">D940+100000</f>
+        <v>7370000</v>
+      </c>
+      <c r="G940" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A941" s="1">
+        <v>939</v>
+      </c>
+      <c r="B941" s="1">
+        <v>187800</v>
+      </c>
+      <c r="C941" s="2">
+        <v>14</v>
+      </c>
+      <c r="D941" s="1">
+        <v>4</v>
+      </c>
+      <c r="E941" s="2">
+        <v>14</v>
+      </c>
+      <c r="F941" s="8">
+        <v>4</v>
+      </c>
+      <c r="G941" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A942" s="1">
+        <v>940</v>
+      </c>
+      <c r="B942" s="1">
+        <v>188000</v>
+      </c>
+      <c r="C942" s="1">
+        <v>1</v>
+      </c>
+      <c r="D942" s="1">
+        <v>7290000</v>
+      </c>
+      <c r="E942" s="1">
+        <v>1</v>
+      </c>
+      <c r="F942" s="8">
+        <f t="shared" ref="F942:F1002" si="64">D942+100000</f>
+        <v>7390000</v>
+      </c>
+      <c r="G942" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A943" s="1">
+        <v>941</v>
+      </c>
+      <c r="B943" s="1">
+        <v>188200</v>
+      </c>
+      <c r="C943" s="1">
+        <v>1</v>
+      </c>
+      <c r="D943" s="1">
+        <v>7300000</v>
+      </c>
+      <c r="E943" s="1">
+        <v>1</v>
+      </c>
+      <c r="F943" s="8">
+        <f t="shared" si="64"/>
+        <v>7400000</v>
+      </c>
+      <c r="G943" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A944" s="1">
+        <v>942</v>
+      </c>
+      <c r="B944" s="1">
+        <v>188400</v>
+      </c>
+      <c r="C944" s="1">
+        <v>20</v>
+      </c>
+      <c r="D944" s="1">
+        <v>200</v>
+      </c>
+      <c r="E944" s="1">
+        <v>20</v>
+      </c>
+      <c r="F944" s="8">
+        <v>200</v>
+      </c>
+      <c r="G944" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945" s="1">
+        <v>943</v>
+      </c>
+      <c r="B945" s="1">
+        <v>188600</v>
+      </c>
+      <c r="C945" s="1">
+        <v>1</v>
+      </c>
+      <c r="D945" s="1">
+        <v>7320000</v>
+      </c>
+      <c r="E945" s="1">
+        <v>1</v>
+      </c>
+      <c r="F945" s="8">
+        <f t="shared" ref="F945:F1002" si="65">D945+100000</f>
+        <v>7420000</v>
+      </c>
+      <c r="G945" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946" s="1">
+        <v>944</v>
+      </c>
+      <c r="B946" s="1">
+        <v>188800</v>
+      </c>
+      <c r="C946" s="2">
+        <v>5</v>
+      </c>
+      <c r="D946" s="1">
+        <v>7330000</v>
+      </c>
+      <c r="E946" s="2">
+        <v>5</v>
+      </c>
+      <c r="F946" s="8">
+        <f t="shared" si="65"/>
+        <v>7430000</v>
+      </c>
+      <c r="G946" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947" s="1">
+        <v>945</v>
+      </c>
+      <c r="B947" s="1">
+        <v>189000</v>
+      </c>
+      <c r="C947" s="1">
+        <v>1</v>
+      </c>
+      <c r="D947" s="1">
+        <v>7340000</v>
+      </c>
+      <c r="E947" s="1">
+        <v>1</v>
+      </c>
+      <c r="F947" s="8">
+        <f t="shared" si="65"/>
+        <v>7440000</v>
+      </c>
+      <c r="G947" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948" s="1">
+        <v>946</v>
+      </c>
+      <c r="B948" s="1">
+        <v>189200</v>
+      </c>
+      <c r="C948" s="1">
+        <v>1</v>
+      </c>
+      <c r="D948" s="1">
+        <v>7350000</v>
+      </c>
+      <c r="E948" s="1">
+        <v>1</v>
+      </c>
+      <c r="F948" s="8">
+        <f t="shared" si="65"/>
+        <v>7450000</v>
+      </c>
+      <c r="G948" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949" s="1">
+        <v>947</v>
+      </c>
+      <c r="B949" s="1">
+        <v>189400</v>
+      </c>
+      <c r="C949" s="1">
+        <v>20</v>
+      </c>
+      <c r="D949" s="1">
+        <v>200</v>
+      </c>
+      <c r="E949" s="1">
+        <v>20</v>
+      </c>
+      <c r="F949" s="8">
+        <v>200</v>
+      </c>
+      <c r="G949" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950" s="1">
+        <v>948</v>
+      </c>
+      <c r="B950" s="1">
+        <v>189600</v>
+      </c>
+      <c r="C950" s="1">
+        <v>1</v>
+      </c>
+      <c r="D950" s="1">
+        <v>7370000</v>
+      </c>
+      <c r="E950" s="1">
+        <v>1</v>
+      </c>
+      <c r="F950" s="8">
+        <f t="shared" ref="F950:F1002" si="66">D950+100000</f>
+        <v>7470000</v>
+      </c>
+      <c r="G950" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951" s="1">
+        <v>949</v>
+      </c>
+      <c r="B951" s="1">
+        <v>189800</v>
+      </c>
+      <c r="C951" s="2">
+        <v>14</v>
+      </c>
+      <c r="D951" s="1">
+        <v>4</v>
+      </c>
+      <c r="E951" s="2">
+        <v>14</v>
+      </c>
+      <c r="F951" s="8">
+        <v>4</v>
+      </c>
+      <c r="G951" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952" s="1">
+        <v>950</v>
+      </c>
+      <c r="B952" s="1">
+        <v>190000</v>
+      </c>
+      <c r="C952" s="1">
+        <v>1</v>
+      </c>
+      <c r="D952" s="1">
+        <v>7390000</v>
+      </c>
+      <c r="E952" s="1">
+        <v>1</v>
+      </c>
+      <c r="F952" s="8">
+        <f t="shared" ref="F952:F1002" si="67">D952+100000</f>
+        <v>7490000</v>
+      </c>
+      <c r="G952" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953" s="1">
+        <v>951</v>
+      </c>
+      <c r="B953" s="1">
+        <v>190200</v>
+      </c>
+      <c r="C953" s="1">
+        <v>1</v>
+      </c>
+      <c r="D953" s="1">
+        <v>7400000</v>
+      </c>
+      <c r="E953" s="1">
+        <v>1</v>
+      </c>
+      <c r="F953" s="8">
+        <f t="shared" si="67"/>
+        <v>7500000</v>
+      </c>
+      <c r="G953" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954" s="1">
+        <v>952</v>
+      </c>
+      <c r="B954" s="1">
+        <v>190400</v>
+      </c>
+      <c r="C954" s="1">
+        <v>20</v>
+      </c>
+      <c r="D954" s="1">
+        <v>200</v>
+      </c>
+      <c r="E954" s="1">
+        <v>20</v>
+      </c>
+      <c r="F954" s="8">
+        <v>200</v>
+      </c>
+      <c r="G954" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955" s="1">
+        <v>953</v>
+      </c>
+      <c r="B955" s="1">
+        <v>190600</v>
+      </c>
+      <c r="C955" s="1">
+        <v>1</v>
+      </c>
+      <c r="D955" s="1">
+        <v>7420000</v>
+      </c>
+      <c r="E955" s="1">
+        <v>1</v>
+      </c>
+      <c r="F955" s="8">
+        <f t="shared" ref="F955:F1002" si="68">D955+100000</f>
+        <v>7520000</v>
+      </c>
+      <c r="G955" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A956" s="1">
+        <v>954</v>
+      </c>
+      <c r="B956" s="1">
+        <v>190800</v>
+      </c>
+      <c r="C956" s="2">
+        <v>5</v>
+      </c>
+      <c r="D956" s="1">
+        <v>7430000</v>
+      </c>
+      <c r="E956" s="2">
+        <v>5</v>
+      </c>
+      <c r="F956" s="8">
+        <f t="shared" si="68"/>
+        <v>7530000</v>
+      </c>
+      <c r="G956" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A957" s="1">
+        <v>955</v>
+      </c>
+      <c r="B957" s="1">
+        <v>191000</v>
+      </c>
+      <c r="C957" s="1">
+        <v>1</v>
+      </c>
+      <c r="D957" s="1">
+        <v>7440000</v>
+      </c>
+      <c r="E957" s="1">
+        <v>1</v>
+      </c>
+      <c r="F957" s="8">
+        <f t="shared" si="68"/>
+        <v>7540000</v>
+      </c>
+      <c r="G957" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A958" s="1">
+        <v>956</v>
+      </c>
+      <c r="B958" s="1">
+        <v>191200</v>
+      </c>
+      <c r="C958" s="1">
+        <v>1</v>
+      </c>
+      <c r="D958" s="1">
+        <v>7450000</v>
+      </c>
+      <c r="E958" s="1">
+        <v>1</v>
+      </c>
+      <c r="F958" s="8">
+        <f t="shared" si="68"/>
+        <v>7550000</v>
+      </c>
+      <c r="G958" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A959" s="1">
+        <v>957</v>
+      </c>
+      <c r="B959" s="1">
+        <v>191400</v>
+      </c>
+      <c r="C959" s="1">
+        <v>20</v>
+      </c>
+      <c r="D959" s="1">
+        <v>200</v>
+      </c>
+      <c r="E959" s="1">
+        <v>20</v>
+      </c>
+      <c r="F959" s="8">
+        <v>200</v>
+      </c>
+      <c r="G959" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A960" s="1">
+        <v>958</v>
+      </c>
+      <c r="B960" s="1">
+        <v>191600</v>
+      </c>
+      <c r="C960" s="1">
+        <v>1</v>
+      </c>
+      <c r="D960" s="1">
+        <v>7470000</v>
+      </c>
+      <c r="E960" s="1">
+        <v>1</v>
+      </c>
+      <c r="F960" s="8">
+        <f t="shared" ref="F960:F1002" si="69">D960+100000</f>
+        <v>7570000</v>
+      </c>
+      <c r="G960" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A961" s="1">
+        <v>959</v>
+      </c>
+      <c r="B961" s="1">
+        <v>191800</v>
+      </c>
+      <c r="C961" s="2">
+        <v>14</v>
+      </c>
+      <c r="D961" s="1">
+        <v>4</v>
+      </c>
+      <c r="E961" s="2">
+        <v>14</v>
+      </c>
+      <c r="F961" s="8">
+        <v>4</v>
+      </c>
+      <c r="G961" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A962" s="1">
+        <v>960</v>
+      </c>
+      <c r="B962" s="1">
+        <v>192000</v>
+      </c>
+      <c r="C962" s="1">
+        <v>1</v>
+      </c>
+      <c r="D962" s="1">
+        <v>7490000</v>
+      </c>
+      <c r="E962" s="1">
+        <v>1</v>
+      </c>
+      <c r="F962" s="8">
+        <f t="shared" ref="F962:F1002" si="70">D962+100000</f>
+        <v>7590000</v>
+      </c>
+      <c r="G962" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A963" s="1">
+        <v>961</v>
+      </c>
+      <c r="B963" s="1">
+        <v>192200</v>
+      </c>
+      <c r="C963" s="1">
+        <v>1</v>
+      </c>
+      <c r="D963" s="1">
+        <v>7500000</v>
+      </c>
+      <c r="E963" s="1">
+        <v>1</v>
+      </c>
+      <c r="F963" s="8">
+        <f t="shared" si="70"/>
+        <v>7600000</v>
+      </c>
+      <c r="G963" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A964" s="1">
+        <v>962</v>
+      </c>
+      <c r="B964" s="1">
+        <v>192400</v>
+      </c>
+      <c r="C964" s="1">
+        <v>20</v>
+      </c>
+      <c r="D964" s="1">
+        <v>200</v>
+      </c>
+      <c r="E964" s="1">
+        <v>20</v>
+      </c>
+      <c r="F964" s="8">
+        <v>200</v>
+      </c>
+      <c r="G964" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A965" s="1">
+        <v>963</v>
+      </c>
+      <c r="B965" s="1">
+        <v>192600</v>
+      </c>
+      <c r="C965" s="1">
+        <v>1</v>
+      </c>
+      <c r="D965" s="1">
+        <v>7520000</v>
+      </c>
+      <c r="E965" s="1">
+        <v>1</v>
+      </c>
+      <c r="F965" s="8">
+        <f t="shared" ref="F965:F1002" si="71">D965+100000</f>
+        <v>7620000</v>
+      </c>
+      <c r="G965" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A966" s="1">
+        <v>964</v>
+      </c>
+      <c r="B966" s="1">
+        <v>192800</v>
+      </c>
+      <c r="C966" s="2">
+        <v>5</v>
+      </c>
+      <c r="D966" s="1">
+        <v>7530000</v>
+      </c>
+      <c r="E966" s="2">
+        <v>5</v>
+      </c>
+      <c r="F966" s="8">
+        <f t="shared" si="71"/>
+        <v>7630000</v>
+      </c>
+      <c r="G966" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A967" s="1">
+        <v>965</v>
+      </c>
+      <c r="B967" s="1">
+        <v>193000</v>
+      </c>
+      <c r="C967" s="1">
+        <v>1</v>
+      </c>
+      <c r="D967" s="1">
+        <v>7540000</v>
+      </c>
+      <c r="E967" s="1">
+        <v>1</v>
+      </c>
+      <c r="F967" s="8">
+        <f t="shared" si="71"/>
+        <v>7640000</v>
+      </c>
+      <c r="G967" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A968" s="1">
+        <v>966</v>
+      </c>
+      <c r="B968" s="1">
+        <v>193200</v>
+      </c>
+      <c r="C968" s="1">
+        <v>1</v>
+      </c>
+      <c r="D968" s="1">
+        <v>7550000</v>
+      </c>
+      <c r="E968" s="1">
+        <v>1</v>
+      </c>
+      <c r="F968" s="8">
+        <f t="shared" si="71"/>
+        <v>7650000</v>
+      </c>
+      <c r="G968" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A969" s="1">
+        <v>967</v>
+      </c>
+      <c r="B969" s="1">
+        <v>193400</v>
+      </c>
+      <c r="C969" s="1">
+        <v>20</v>
+      </c>
+      <c r="D969" s="1">
+        <v>200</v>
+      </c>
+      <c r="E969" s="1">
+        <v>20</v>
+      </c>
+      <c r="F969" s="8">
+        <v>200</v>
+      </c>
+      <c r="G969" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A970" s="1">
+        <v>968</v>
+      </c>
+      <c r="B970" s="1">
+        <v>193600</v>
+      </c>
+      <c r="C970" s="1">
+        <v>1</v>
+      </c>
+      <c r="D970" s="1">
+        <v>7570000</v>
+      </c>
+      <c r="E970" s="1">
+        <v>1</v>
+      </c>
+      <c r="F970" s="8">
+        <f t="shared" ref="F970:F1002" si="72">D970+100000</f>
+        <v>7670000</v>
+      </c>
+      <c r="G970" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A971" s="1">
+        <v>969</v>
+      </c>
+      <c r="B971" s="1">
+        <v>193800</v>
+      </c>
+      <c r="C971" s="2">
+        <v>14</v>
+      </c>
+      <c r="D971" s="1">
+        <v>4</v>
+      </c>
+      <c r="E971" s="2">
+        <v>14</v>
+      </c>
+      <c r="F971" s="8">
+        <v>4</v>
+      </c>
+      <c r="G971" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A972" s="1">
+        <v>970</v>
+      </c>
+      <c r="B972" s="1">
+        <v>194000</v>
+      </c>
+      <c r="C972" s="1">
+        <v>1</v>
+      </c>
+      <c r="D972" s="1">
+        <v>7590000</v>
+      </c>
+      <c r="E972" s="1">
+        <v>1</v>
+      </c>
+      <c r="F972" s="8">
+        <f t="shared" ref="F972:F1002" si="73">D972+100000</f>
+        <v>7690000</v>
+      </c>
+      <c r="G972" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A973" s="1">
+        <v>971</v>
+      </c>
+      <c r="B973" s="1">
+        <v>194200</v>
+      </c>
+      <c r="C973" s="1">
+        <v>1</v>
+      </c>
+      <c r="D973" s="1">
+        <v>7600000</v>
+      </c>
+      <c r="E973" s="1">
+        <v>1</v>
+      </c>
+      <c r="F973" s="8">
+        <f t="shared" si="73"/>
+        <v>7700000</v>
+      </c>
+      <c r="G973" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A974" s="1">
+        <v>972</v>
+      </c>
+      <c r="B974" s="1">
+        <v>194400</v>
+      </c>
+      <c r="C974" s="1">
+        <v>20</v>
+      </c>
+      <c r="D974" s="1">
+        <v>200</v>
+      </c>
+      <c r="E974" s="1">
+        <v>20</v>
+      </c>
+      <c r="F974" s="8">
+        <v>200</v>
+      </c>
+      <c r="G974" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A975" s="1">
+        <v>973</v>
+      </c>
+      <c r="B975" s="1">
+        <v>194600</v>
+      </c>
+      <c r="C975" s="1">
+        <v>1</v>
+      </c>
+      <c r="D975" s="1">
+        <v>7620000</v>
+      </c>
+      <c r="E975" s="1">
+        <v>1</v>
+      </c>
+      <c r="F975" s="8">
+        <f t="shared" ref="F975:F1002" si="74">D975+100000</f>
+        <v>7720000</v>
+      </c>
+      <c r="G975" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A976" s="1">
+        <v>974</v>
+      </c>
+      <c r="B976" s="1">
+        <v>194800</v>
+      </c>
+      <c r="C976" s="2">
+        <v>5</v>
+      </c>
+      <c r="D976" s="1">
+        <v>7630000</v>
+      </c>
+      <c r="E976" s="2">
+        <v>5</v>
+      </c>
+      <c r="F976" s="8">
+        <f t="shared" si="74"/>
+        <v>7730000</v>
+      </c>
+      <c r="G976" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A977" s="1">
+        <v>975</v>
+      </c>
+      <c r="B977" s="1">
+        <v>195000</v>
+      </c>
+      <c r="C977" s="1">
+        <v>1</v>
+      </c>
+      <c r="D977" s="1">
+        <v>7640000</v>
+      </c>
+      <c r="E977" s="1">
+        <v>1</v>
+      </c>
+      <c r="F977" s="8">
+        <f t="shared" si="74"/>
+        <v>7740000</v>
+      </c>
+      <c r="G977" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A978" s="1">
+        <v>976</v>
+      </c>
+      <c r="B978" s="1">
+        <v>195200</v>
+      </c>
+      <c r="C978" s="1">
+        <v>1</v>
+      </c>
+      <c r="D978" s="1">
+        <v>7650000</v>
+      </c>
+      <c r="E978" s="1">
+        <v>1</v>
+      </c>
+      <c r="F978" s="8">
+        <f t="shared" si="74"/>
+        <v>7750000</v>
+      </c>
+      <c r="G978" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A979" s="1">
+        <v>977</v>
+      </c>
+      <c r="B979" s="1">
+        <v>195400</v>
+      </c>
+      <c r="C979" s="1">
+        <v>20</v>
+      </c>
+      <c r="D979" s="1">
+        <v>200</v>
+      </c>
+      <c r="E979" s="1">
+        <v>20</v>
+      </c>
+      <c r="F979" s="8">
+        <v>200</v>
+      </c>
+      <c r="G979" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A980" s="1">
+        <v>978</v>
+      </c>
+      <c r="B980" s="1">
+        <v>195600</v>
+      </c>
+      <c r="C980" s="1">
+        <v>1</v>
+      </c>
+      <c r="D980" s="1">
+        <v>7670000</v>
+      </c>
+      <c r="E980" s="1">
+        <v>1</v>
+      </c>
+      <c r="F980" s="8">
+        <f t="shared" ref="F980:F1002" si="75">D980+100000</f>
+        <v>7770000</v>
+      </c>
+      <c r="G980" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981" s="1">
+        <v>195800</v>
+      </c>
+      <c r="C981" s="2">
+        <v>14</v>
+      </c>
+      <c r="D981" s="1">
+        <v>4</v>
+      </c>
+      <c r="E981" s="2">
+        <v>14</v>
+      </c>
+      <c r="F981" s="8">
+        <v>4</v>
+      </c>
+      <c r="G981" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982" s="1">
+        <v>196000</v>
+      </c>
+      <c r="C982" s="1">
+        <v>1</v>
+      </c>
+      <c r="D982" s="1">
+        <v>7690000</v>
+      </c>
+      <c r="E982" s="1">
+        <v>1</v>
+      </c>
+      <c r="F982" s="8">
+        <f t="shared" ref="F982:F1002" si="76">D982+100000</f>
+        <v>7790000</v>
+      </c>
+      <c r="G982" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983" s="1">
+        <v>196200</v>
+      </c>
+      <c r="C983" s="1">
+        <v>1</v>
+      </c>
+      <c r="D983" s="1">
+        <v>7700000</v>
+      </c>
+      <c r="E983" s="1">
+        <v>1</v>
+      </c>
+      <c r="F983" s="8">
+        <f t="shared" si="76"/>
+        <v>7800000</v>
+      </c>
+      <c r="G983" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A984" s="1">
+        <v>982</v>
+      </c>
+      <c r="B984" s="1">
+        <v>196400</v>
+      </c>
+      <c r="C984" s="1">
+        <v>20</v>
+      </c>
+      <c r="D984" s="1">
+        <v>200</v>
+      </c>
+      <c r="E984" s="1">
+        <v>20</v>
+      </c>
+      <c r="F984" s="8">
+        <v>200</v>
+      </c>
+      <c r="G984" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A985" s="1">
+        <v>983</v>
+      </c>
+      <c r="B985" s="1">
+        <v>196600</v>
+      </c>
+      <c r="C985" s="1">
+        <v>1</v>
+      </c>
+      <c r="D985" s="1">
+        <v>7720000</v>
+      </c>
+      <c r="E985" s="1">
+        <v>1</v>
+      </c>
+      <c r="F985" s="8">
+        <f t="shared" ref="F985:F1002" si="77">D985+100000</f>
+        <v>7820000</v>
+      </c>
+      <c r="G985" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A986" s="1">
+        <v>984</v>
+      </c>
+      <c r="B986" s="1">
+        <v>196800</v>
+      </c>
+      <c r="C986" s="2">
+        <v>5</v>
+      </c>
+      <c r="D986" s="1">
+        <v>7730000</v>
+      </c>
+      <c r="E986" s="2">
+        <v>5</v>
+      </c>
+      <c r="F986" s="8">
+        <f t="shared" si="77"/>
+        <v>7830000</v>
+      </c>
+      <c r="G986" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A987" s="1">
+        <v>985</v>
+      </c>
+      <c r="B987" s="1">
+        <v>197000</v>
+      </c>
+      <c r="C987" s="1">
+        <v>1</v>
+      </c>
+      <c r="D987" s="1">
+        <v>7740000</v>
+      </c>
+      <c r="E987" s="1">
+        <v>1</v>
+      </c>
+      <c r="F987" s="8">
+        <f t="shared" si="77"/>
+        <v>7840000</v>
+      </c>
+      <c r="G987" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A988" s="1">
+        <v>986</v>
+      </c>
+      <c r="B988" s="1">
+        <v>197200</v>
+      </c>
+      <c r="C988" s="1">
+        <v>1</v>
+      </c>
+      <c r="D988" s="1">
+        <v>7750000</v>
+      </c>
+      <c r="E988" s="1">
+        <v>1</v>
+      </c>
+      <c r="F988" s="8">
+        <f t="shared" si="77"/>
+        <v>7850000</v>
+      </c>
+      <c r="G988" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A989" s="1">
+        <v>987</v>
+      </c>
+      <c r="B989" s="1">
+        <v>197400</v>
+      </c>
+      <c r="C989" s="1">
+        <v>20</v>
+      </c>
+      <c r="D989" s="1">
+        <v>200</v>
+      </c>
+      <c r="E989" s="1">
+        <v>20</v>
+      </c>
+      <c r="F989" s="8">
+        <v>200</v>
+      </c>
+      <c r="G989" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A990" s="1">
+        <v>988</v>
+      </c>
+      <c r="B990" s="1">
+        <v>197600</v>
+      </c>
+      <c r="C990" s="1">
+        <v>1</v>
+      </c>
+      <c r="D990" s="1">
+        <v>7770000</v>
+      </c>
+      <c r="E990" s="1">
+        <v>1</v>
+      </c>
+      <c r="F990" s="8">
+        <f t="shared" ref="F990:F1002" si="78">D990+100000</f>
+        <v>7870000</v>
+      </c>
+      <c r="G990" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A991" s="1">
+        <v>989</v>
+      </c>
+      <c r="B991" s="1">
+        <v>197800</v>
+      </c>
+      <c r="C991" s="2">
+        <v>14</v>
+      </c>
+      <c r="D991" s="1">
+        <v>4</v>
+      </c>
+      <c r="E991" s="2">
+        <v>14</v>
+      </c>
+      <c r="F991" s="8">
+        <v>4</v>
+      </c>
+      <c r="G991" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A992" s="1">
+        <v>990</v>
+      </c>
+      <c r="B992" s="1">
+        <v>198000</v>
+      </c>
+      <c r="C992" s="1">
+        <v>1</v>
+      </c>
+      <c r="D992" s="1">
+        <v>7790000</v>
+      </c>
+      <c r="E992" s="1">
+        <v>1</v>
+      </c>
+      <c r="F992" s="8">
+        <f t="shared" ref="F992:F1002" si="79">D992+100000</f>
+        <v>7890000</v>
+      </c>
+      <c r="G992" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A993" s="1">
+        <v>991</v>
+      </c>
+      <c r="B993" s="1">
+        <v>198200</v>
+      </c>
+      <c r="C993" s="1">
+        <v>1</v>
+      </c>
+      <c r="D993" s="1">
+        <v>7800000</v>
+      </c>
+      <c r="E993" s="1">
+        <v>1</v>
+      </c>
+      <c r="F993" s="8">
+        <f t="shared" si="79"/>
+        <v>7900000</v>
+      </c>
+      <c r="G993" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A994" s="1">
+        <v>992</v>
+      </c>
+      <c r="B994" s="1">
+        <v>198400</v>
+      </c>
+      <c r="C994" s="1">
+        <v>20</v>
+      </c>
+      <c r="D994" s="1">
+        <v>200</v>
+      </c>
+      <c r="E994" s="1">
+        <v>20</v>
+      </c>
+      <c r="F994" s="8">
+        <v>200</v>
+      </c>
+      <c r="G994" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A995" s="1">
+        <v>993</v>
+      </c>
+      <c r="B995" s="1">
+        <v>198600</v>
+      </c>
+      <c r="C995" s="1">
+        <v>1</v>
+      </c>
+      <c r="D995" s="1">
+        <v>7820000</v>
+      </c>
+      <c r="E995" s="1">
+        <v>1</v>
+      </c>
+      <c r="F995" s="8">
+        <f t="shared" ref="F995:F1002" si="80">D995+100000</f>
+        <v>7920000</v>
+      </c>
+      <c r="G995" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A996" s="1">
+        <v>994</v>
+      </c>
+      <c r="B996" s="1">
+        <v>198800</v>
+      </c>
+      <c r="C996" s="2">
+        <v>5</v>
+      </c>
+      <c r="D996" s="1">
+        <v>7830000</v>
+      </c>
+      <c r="E996" s="2">
+        <v>5</v>
+      </c>
+      <c r="F996" s="8">
+        <f t="shared" si="80"/>
+        <v>7930000</v>
+      </c>
+      <c r="G996" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A997" s="1">
+        <v>995</v>
+      </c>
+      <c r="B997" s="1">
+        <v>199000</v>
+      </c>
+      <c r="C997" s="1">
+        <v>1</v>
+      </c>
+      <c r="D997" s="1">
+        <v>7840000</v>
+      </c>
+      <c r="E997" s="1">
+        <v>1</v>
+      </c>
+      <c r="F997" s="8">
+        <f t="shared" si="80"/>
+        <v>7940000</v>
+      </c>
+      <c r="G997" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A998" s="1">
+        <v>996</v>
+      </c>
+      <c r="B998" s="1">
+        <v>199200</v>
+      </c>
+      <c r="C998" s="1">
+        <v>1</v>
+      </c>
+      <c r="D998" s="1">
+        <v>7850000</v>
+      </c>
+      <c r="E998" s="1">
+        <v>1</v>
+      </c>
+      <c r="F998" s="8">
+        <f t="shared" si="80"/>
+        <v>7950000</v>
+      </c>
+      <c r="G998" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A999" s="1">
+        <v>997</v>
+      </c>
+      <c r="B999" s="1">
+        <v>199400</v>
+      </c>
+      <c r="C999" s="1">
+        <v>20</v>
+      </c>
+      <c r="D999" s="1">
+        <v>200</v>
+      </c>
+      <c r="E999" s="1">
+        <v>20</v>
+      </c>
+      <c r="F999" s="8">
+        <v>200</v>
+      </c>
+      <c r="G999" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1000" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>199600</v>
+      </c>
+      <c r="C1000" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1000" s="1">
+        <v>7870000</v>
+      </c>
+      <c r="E1000" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1000" s="8">
+        <f t="shared" ref="F1000:F1002" si="81">D1000+100000</f>
+        <v>7970000</v>
+      </c>
+      <c r="G1000" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1001" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>199800</v>
+      </c>
+      <c r="C1001" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1001" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1001" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1001" s="8">
+        <v>4</v>
+      </c>
+      <c r="G1001" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1002" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C1002" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1002" s="1">
+        <v>7890000</v>
+      </c>
+      <c r="E1002" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1002" s="8">
+        <f t="shared" ref="F1002" si="82">D1002+100000</f>
+        <v>7990000</v>
+      </c>
+      <c r="G1002" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78EB522-7079-491A-BE19-BF149541F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B961A3-4BD9-4A9D-9857-A3AAB377BB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -154,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +180,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F754" sqref="F754"/>
+      <pane ySplit="1" topLeftCell="A1050" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1098" sqref="E1098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18192,7 +18198,7 @@
         <v>1</v>
       </c>
       <c r="F755" s="8">
-        <f t="shared" ref="F755:F817" si="8">D755+100000</f>
+        <f t="shared" ref="F755:F758" si="8">D755+100000</f>
         <v>5520000</v>
       </c>
       <c r="G755" s="1">
@@ -18311,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="F760" s="8">
-        <f t="shared" ref="F760:F822" si="9">D760+100000</f>
+        <f t="shared" ref="F760" si="9">D760+100000</f>
         <v>5570000</v>
       </c>
       <c r="G760" s="1">
@@ -18358,7 +18364,7 @@
         <v>1</v>
       </c>
       <c r="F762" s="8">
-        <f t="shared" ref="F762:F824" si="10">D762+100000</f>
+        <f t="shared" ref="F762:F763" si="10">D762+100000</f>
         <v>5590000</v>
       </c>
       <c r="G762" s="1">
@@ -18429,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="F765" s="8">
-        <f t="shared" ref="F765:F827" si="11">D765+100000</f>
+        <f t="shared" ref="F765:F768" si="11">D765+100000</f>
         <v>5620000</v>
       </c>
       <c r="G765" s="1">
@@ -18548,7 +18554,7 @@
         <v>1</v>
       </c>
       <c r="F770" s="8">
-        <f t="shared" ref="F770:F832" si="12">D770+100000</f>
+        <f t="shared" ref="F770" si="12">D770+100000</f>
         <v>5670000</v>
       </c>
       <c r="G770" s="1">
@@ -18595,7 +18601,7 @@
         <v>1</v>
       </c>
       <c r="F772" s="8">
-        <f t="shared" ref="F772:F834" si="13">D772+100000</f>
+        <f t="shared" ref="F772:F773" si="13">D772+100000</f>
         <v>5690000</v>
       </c>
       <c r="G772" s="1">
@@ -18666,7 +18672,7 @@
         <v>1</v>
       </c>
       <c r="F775" s="8">
-        <f t="shared" ref="F775:F837" si="14">D775+100000</f>
+        <f t="shared" ref="F775:F778" si="14">D775+100000</f>
         <v>5720000</v>
       </c>
       <c r="G775" s="1">
@@ -18785,7 +18791,7 @@
         <v>1</v>
       </c>
       <c r="F780" s="8">
-        <f t="shared" ref="F780:F842" si="15">D780+100000</f>
+        <f t="shared" ref="F780" si="15">D780+100000</f>
         <v>5770000</v>
       </c>
       <c r="G780" s="1">
@@ -18832,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="F782" s="8">
-        <f t="shared" ref="F782:F844" si="16">D782+100000</f>
+        <f t="shared" ref="F782:F783" si="16">D782+100000</f>
         <v>5790000</v>
       </c>
       <c r="G782" s="1">
@@ -18903,7 +18909,7 @@
         <v>1</v>
       </c>
       <c r="F785" s="8">
-        <f t="shared" ref="F785:F847" si="17">D785+100000</f>
+        <f t="shared" ref="F785:F788" si="17">D785+100000</f>
         <v>5820000</v>
       </c>
       <c r="G785" s="1">
@@ -19022,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="F790" s="8">
-        <f t="shared" ref="F790:F852" si="18">D790+100000</f>
+        <f t="shared" ref="F790" si="18">D790+100000</f>
         <v>5870000</v>
       </c>
       <c r="G790" s="1">
@@ -19069,7 +19075,7 @@
         <v>1</v>
       </c>
       <c r="F792" s="8">
-        <f t="shared" ref="F792:F854" si="19">D792+100000</f>
+        <f t="shared" ref="F792:F793" si="19">D792+100000</f>
         <v>5890000</v>
       </c>
       <c r="G792" s="1">
@@ -19140,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="F795" s="8">
-        <f t="shared" ref="F795:F857" si="20">D795+100000</f>
+        <f t="shared" ref="F795:F798" si="20">D795+100000</f>
         <v>5920000</v>
       </c>
       <c r="G795" s="1">
@@ -19259,7 +19265,7 @@
         <v>1</v>
       </c>
       <c r="F800" s="8">
-        <f t="shared" ref="F800:F862" si="21">D800+100000</f>
+        <f t="shared" ref="F800" si="21">D800+100000</f>
         <v>5970000</v>
       </c>
       <c r="G800" s="1">
@@ -19306,7 +19312,7 @@
         <v>1</v>
       </c>
       <c r="F802" s="8">
-        <f t="shared" ref="F802:F864" si="22">D802+100000</f>
+        <f t="shared" ref="F802:F803" si="22">D802+100000</f>
         <v>5990000</v>
       </c>
       <c r="G802" s="1">
@@ -19377,7 +19383,7 @@
         <v>1</v>
       </c>
       <c r="F805" s="8">
-        <f t="shared" ref="F805:F867" si="23">D805+100000</f>
+        <f t="shared" ref="F805:F808" si="23">D805+100000</f>
         <v>6020000</v>
       </c>
       <c r="G805" s="1">
@@ -19496,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="F810" s="8">
-        <f t="shared" ref="F810:F873" si="24">D810+100000</f>
+        <f t="shared" ref="F810" si="24">D810+100000</f>
         <v>6070000</v>
       </c>
       <c r="G810" s="1">
@@ -19543,7 +19549,7 @@
         <v>1</v>
       </c>
       <c r="F812" s="8">
-        <f t="shared" ref="F812:F875" si="25">D812+100000</f>
+        <f t="shared" ref="F812:F813" si="25">D812+100000</f>
         <v>6090000</v>
       </c>
       <c r="G812" s="1">
@@ -19614,7 +19620,7 @@
         <v>1</v>
       </c>
       <c r="F815" s="8">
-        <f t="shared" ref="F815:F878" si="26">D815+100000</f>
+        <f t="shared" ref="F815:F818" si="26">D815+100000</f>
         <v>6120000</v>
       </c>
       <c r="G815" s="1">
@@ -19733,7 +19739,7 @@
         <v>1</v>
       </c>
       <c r="F820" s="8">
-        <f t="shared" ref="F820:F883" si="27">D820+100000</f>
+        <f t="shared" ref="F820" si="27">D820+100000</f>
         <v>6170000</v>
       </c>
       <c r="G820" s="1">
@@ -19780,7 +19786,7 @@
         <v>1</v>
       </c>
       <c r="F822" s="8">
-        <f t="shared" ref="F822:F885" si="28">D822+100000</f>
+        <f t="shared" ref="F822:F823" si="28">D822+100000</f>
         <v>6190000</v>
       </c>
       <c r="G822" s="1">
@@ -19851,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="F825" s="8">
-        <f t="shared" ref="F825:F888" si="29">D825+100000</f>
+        <f t="shared" ref="F825:F828" si="29">D825+100000</f>
         <v>6220000</v>
       </c>
       <c r="G825" s="1">
@@ -19970,7 +19976,7 @@
         <v>1</v>
       </c>
       <c r="F830" s="8">
-        <f t="shared" ref="F830:F893" si="30">D830+100000</f>
+        <f t="shared" ref="F830" si="30">D830+100000</f>
         <v>6270000</v>
       </c>
       <c r="G830" s="1">
@@ -20017,7 +20023,7 @@
         <v>1</v>
       </c>
       <c r="F832" s="8">
-        <f t="shared" ref="F832:F895" si="31">D832+100000</f>
+        <f t="shared" ref="F832:F833" si="31">D832+100000</f>
         <v>6290000</v>
       </c>
       <c r="G832" s="1">
@@ -20088,7 +20094,7 @@
         <v>1</v>
       </c>
       <c r="F835" s="8">
-        <f t="shared" ref="F835:F898" si="32">D835+100000</f>
+        <f t="shared" ref="F835:F838" si="32">D835+100000</f>
         <v>6320000</v>
       </c>
       <c r="G835" s="1">
@@ -20207,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="F840" s="8">
-        <f t="shared" ref="F840:F903" si="33">D840+100000</f>
+        <f t="shared" ref="F840" si="33">D840+100000</f>
         <v>6370000</v>
       </c>
       <c r="G840" s="1">
@@ -20254,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="F842" s="8">
-        <f t="shared" ref="F842:F905" si="34">D842+100000</f>
+        <f t="shared" ref="F842:F843" si="34">D842+100000</f>
         <v>6390000</v>
       </c>
       <c r="G842" s="1">
@@ -20325,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="F845" s="8">
-        <f t="shared" ref="F845:F908" si="35">D845+100000</f>
+        <f t="shared" ref="F845:F848" si="35">D845+100000</f>
         <v>6420000</v>
       </c>
       <c r="G845" s="1">
@@ -20444,7 +20450,7 @@
         <v>1</v>
       </c>
       <c r="F850" s="8">
-        <f t="shared" ref="F850:F913" si="36">D850+100000</f>
+        <f t="shared" ref="F850" si="36">D850+100000</f>
         <v>6470000</v>
       </c>
       <c r="G850" s="1">
@@ -20491,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="F852" s="8">
-        <f t="shared" ref="F852:F915" si="37">D852+100000</f>
+        <f t="shared" ref="F852:F853" si="37">D852+100000</f>
         <v>6490000</v>
       </c>
       <c r="G852" s="1">
@@ -20562,7 +20568,7 @@
         <v>1</v>
       </c>
       <c r="F855" s="8">
-        <f t="shared" ref="F855:F918" si="38">D855+100000</f>
+        <f t="shared" ref="F855:F858" si="38">D855+100000</f>
         <v>6520000</v>
       </c>
       <c r="G855" s="1">
@@ -20681,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="F860" s="8">
-        <f t="shared" ref="F860:F923" si="39">D860+100000</f>
+        <f t="shared" ref="F860" si="39">D860+100000</f>
         <v>6570000</v>
       </c>
       <c r="G860" s="1">
@@ -20728,7 +20734,7 @@
         <v>1</v>
       </c>
       <c r="F862" s="8">
-        <f t="shared" ref="F862:F925" si="40">D862+100000</f>
+        <f t="shared" ref="F862:F863" si="40">D862+100000</f>
         <v>6590000</v>
       </c>
       <c r="G862" s="1">
@@ -20799,7 +20805,7 @@
         <v>1</v>
       </c>
       <c r="F865" s="8">
-        <f t="shared" ref="F865:F928" si="41">D865+100000</f>
+        <f t="shared" ref="F865:F868" si="41">D865+100000</f>
         <v>6620000</v>
       </c>
       <c r="G865" s="1">
@@ -20918,7 +20924,7 @@
         <v>1</v>
       </c>
       <c r="F870" s="8">
-        <f t="shared" ref="F870:F933" si="42">D870+100000</f>
+        <f t="shared" ref="F870" si="42">D870+100000</f>
         <v>6670000</v>
       </c>
       <c r="G870" s="1">
@@ -20965,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="F872" s="8">
-        <f t="shared" ref="F872:F935" si="43">D872+100000</f>
+        <f t="shared" ref="F872:F873" si="43">D872+100000</f>
         <v>6690000</v>
       </c>
       <c r="G872" s="1">
@@ -21036,7 +21042,7 @@
         <v>1</v>
       </c>
       <c r="F875" s="8">
-        <f t="shared" ref="F875:F937" si="44">D875+100000</f>
+        <f t="shared" ref="F875:F878" si="44">D875+100000</f>
         <v>6720000</v>
       </c>
       <c r="G875" s="1">
@@ -21155,7 +21161,7 @@
         <v>1</v>
       </c>
       <c r="F880" s="8">
-        <f t="shared" ref="F880:F942" si="45">D880+100000</f>
+        <f t="shared" ref="F880" si="45">D880+100000</f>
         <v>6770000</v>
       </c>
       <c r="G880" s="1">
@@ -21202,7 +21208,7 @@
         <v>1</v>
       </c>
       <c r="F882" s="8">
-        <f t="shared" ref="F882:F944" si="46">D882+100000</f>
+        <f t="shared" ref="F882:F883" si="46">D882+100000</f>
         <v>6790000</v>
       </c>
       <c r="G882" s="1">
@@ -21273,7 +21279,7 @@
         <v>1</v>
       </c>
       <c r="F885" s="8">
-        <f t="shared" ref="F885:F947" si="47">D885+100000</f>
+        <f t="shared" ref="F885:F888" si="47">D885+100000</f>
         <v>6820000</v>
       </c>
       <c r="G885" s="1">
@@ -21392,7 +21398,7 @@
         <v>1</v>
       </c>
       <c r="F890" s="8">
-        <f t="shared" ref="F890:F952" si="48">D890+100000</f>
+        <f t="shared" ref="F890" si="48">D890+100000</f>
         <v>6870000</v>
       </c>
       <c r="G890" s="1">
@@ -21439,7 +21445,7 @@
         <v>1</v>
       </c>
       <c r="F892" s="8">
-        <f t="shared" ref="F892:F954" si="49">D892+100000</f>
+        <f t="shared" ref="F892:F893" si="49">D892+100000</f>
         <v>6890000</v>
       </c>
       <c r="G892" s="1">
@@ -21510,7 +21516,7 @@
         <v>1</v>
       </c>
       <c r="F895" s="8">
-        <f t="shared" ref="F895:F957" si="50">D895+100000</f>
+        <f t="shared" ref="F895:F898" si="50">D895+100000</f>
         <v>6920000</v>
       </c>
       <c r="G895" s="1">
@@ -21629,7 +21635,7 @@
         <v>1</v>
       </c>
       <c r="F900" s="8">
-        <f t="shared" ref="F900:F962" si="51">D900+100000</f>
+        <f t="shared" ref="F900" si="51">D900+100000</f>
         <v>6970000</v>
       </c>
       <c r="G900" s="1">
@@ -21676,7 +21682,7 @@
         <v>1</v>
       </c>
       <c r="F902" s="8">
-        <f t="shared" ref="F902:F964" si="52">D902+100000</f>
+        <f t="shared" ref="F902:F903" si="52">D902+100000</f>
         <v>6990000</v>
       </c>
       <c r="G902" s="1">
@@ -21747,7 +21753,7 @@
         <v>1</v>
       </c>
       <c r="F905" s="8">
-        <f t="shared" ref="F905:F967" si="53">D905+100000</f>
+        <f t="shared" ref="F905:F908" si="53">D905+100000</f>
         <v>7020000</v>
       </c>
       <c r="G905" s="1">
@@ -21866,7 +21872,7 @@
         <v>1</v>
       </c>
       <c r="F910" s="8">
-        <f t="shared" ref="F910:F972" si="54">D910+100000</f>
+        <f t="shared" ref="F910" si="54">D910+100000</f>
         <v>7070000</v>
       </c>
       <c r="G910" s="1">
@@ -21913,7 +21919,7 @@
         <v>1</v>
       </c>
       <c r="F912" s="8">
-        <f t="shared" ref="F912:F974" si="55">D912+100000</f>
+        <f t="shared" ref="F912:F913" si="55">D912+100000</f>
         <v>7090000</v>
       </c>
       <c r="G912" s="1">
@@ -21984,7 +21990,7 @@
         <v>1</v>
       </c>
       <c r="F915" s="8">
-        <f t="shared" ref="F915:F977" si="56">D915+100000</f>
+        <f t="shared" ref="F915:F918" si="56">D915+100000</f>
         <v>7120000</v>
       </c>
       <c r="G915" s="1">
@@ -22103,7 +22109,7 @@
         <v>1</v>
       </c>
       <c r="F920" s="8">
-        <f t="shared" ref="F920:F982" si="57">D920+100000</f>
+        <f t="shared" ref="F920" si="57">D920+100000</f>
         <v>7170000</v>
       </c>
       <c r="G920" s="1">
@@ -22150,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="F922" s="8">
-        <f t="shared" ref="F922:F984" si="58">D922+100000</f>
+        <f t="shared" ref="F922:F923" si="58">D922+100000</f>
         <v>7190000</v>
       </c>
       <c r="G922" s="1">
@@ -22221,7 +22227,7 @@
         <v>1</v>
       </c>
       <c r="F925" s="8">
-        <f t="shared" ref="F925:F987" si="59">D925+100000</f>
+        <f t="shared" ref="F925:F928" si="59">D925+100000</f>
         <v>7220000</v>
       </c>
       <c r="G925" s="1">
@@ -22340,7 +22346,7 @@
         <v>1</v>
       </c>
       <c r="F930" s="8">
-        <f t="shared" ref="F930:F992" si="60">D930+100000</f>
+        <f t="shared" ref="F930" si="60">D930+100000</f>
         <v>7270000</v>
       </c>
       <c r="G930" s="1">
@@ -22387,7 +22393,7 @@
         <v>1</v>
       </c>
       <c r="F932" s="8">
-        <f t="shared" ref="F932:F994" si="61">D932+100000</f>
+        <f t="shared" ref="F932:F933" si="61">D932+100000</f>
         <v>7290000</v>
       </c>
       <c r="G932" s="1">
@@ -22458,7 +22464,7 @@
         <v>1</v>
       </c>
       <c r="F935" s="8">
-        <f t="shared" ref="F935:F997" si="62">D935+100000</f>
+        <f t="shared" ref="F935:F938" si="62">D935+100000</f>
         <v>7320000</v>
       </c>
       <c r="G935" s="1">
@@ -22577,7 +22583,7 @@
         <v>1</v>
       </c>
       <c r="F940" s="8">
-        <f t="shared" ref="F940:F1002" si="63">D940+100000</f>
+        <f t="shared" ref="F940" si="63">D940+100000</f>
         <v>7370000</v>
       </c>
       <c r="G940" s="1">
@@ -22624,7 +22630,7 @@
         <v>1</v>
       </c>
       <c r="F942" s="8">
-        <f t="shared" ref="F942:F1002" si="64">D942+100000</f>
+        <f t="shared" ref="F942:F943" si="64">D942+100000</f>
         <v>7390000</v>
       </c>
       <c r="G942" s="1">
@@ -22695,7 +22701,7 @@
         <v>1</v>
       </c>
       <c r="F945" s="8">
-        <f t="shared" ref="F945:F1002" si="65">D945+100000</f>
+        <f t="shared" ref="F945:F948" si="65">D945+100000</f>
         <v>7420000</v>
       </c>
       <c r="G945" s="1">
@@ -22814,7 +22820,7 @@
         <v>1</v>
       </c>
       <c r="F950" s="8">
-        <f t="shared" ref="F950:F1002" si="66">D950+100000</f>
+        <f t="shared" ref="F950" si="66">D950+100000</f>
         <v>7470000</v>
       </c>
       <c r="G950" s="1">
@@ -22861,7 +22867,7 @@
         <v>1</v>
       </c>
       <c r="F952" s="8">
-        <f t="shared" ref="F952:F1002" si="67">D952+100000</f>
+        <f t="shared" ref="F952:F953" si="67">D952+100000</f>
         <v>7490000</v>
       </c>
       <c r="G952" s="1">
@@ -22932,7 +22938,7 @@
         <v>1</v>
       </c>
       <c r="F955" s="8">
-        <f t="shared" ref="F955:F1002" si="68">D955+100000</f>
+        <f t="shared" ref="F955:F958" si="68">D955+100000</f>
         <v>7520000</v>
       </c>
       <c r="G955" s="1">
@@ -23051,7 +23057,7 @@
         <v>1</v>
       </c>
       <c r="F960" s="8">
-        <f t="shared" ref="F960:F1002" si="69">D960+100000</f>
+        <f t="shared" ref="F960" si="69">D960+100000</f>
         <v>7570000</v>
       </c>
       <c r="G960" s="1">
@@ -23098,7 +23104,7 @@
         <v>1</v>
       </c>
       <c r="F962" s="8">
-        <f t="shared" ref="F962:F1002" si="70">D962+100000</f>
+        <f t="shared" ref="F962:F963" si="70">D962+100000</f>
         <v>7590000</v>
       </c>
       <c r="G962" s="1">
@@ -23169,7 +23175,7 @@
         <v>1</v>
       </c>
       <c r="F965" s="8">
-        <f t="shared" ref="F965:F1002" si="71">D965+100000</f>
+        <f t="shared" ref="F965:F968" si="71">D965+100000</f>
         <v>7620000</v>
       </c>
       <c r="G965" s="1">
@@ -23288,7 +23294,7 @@
         <v>1</v>
       </c>
       <c r="F970" s="8">
-        <f t="shared" ref="F970:F1002" si="72">D970+100000</f>
+        <f t="shared" ref="F970" si="72">D970+100000</f>
         <v>7670000</v>
       </c>
       <c r="G970" s="1">
@@ -23335,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="F972" s="8">
-        <f t="shared" ref="F972:F1002" si="73">D972+100000</f>
+        <f t="shared" ref="F972:F973" si="73">D972+100000</f>
         <v>7690000</v>
       </c>
       <c r="G972" s="1">
@@ -23406,7 +23412,7 @@
         <v>1</v>
       </c>
       <c r="F975" s="8">
-        <f t="shared" ref="F975:F1002" si="74">D975+100000</f>
+        <f t="shared" ref="F975:F978" si="74">D975+100000</f>
         <v>7720000</v>
       </c>
       <c r="G975" s="1">
@@ -23525,7 +23531,7 @@
         <v>1</v>
       </c>
       <c r="F980" s="8">
-        <f t="shared" ref="F980:F1002" si="75">D980+100000</f>
+        <f t="shared" ref="F980" si="75">D980+100000</f>
         <v>7770000</v>
       </c>
       <c r="G980" s="1">
@@ -23572,7 +23578,7 @@
         <v>1</v>
       </c>
       <c r="F982" s="8">
-        <f t="shared" ref="F982:F1002" si="76">D982+100000</f>
+        <f t="shared" ref="F982:F983" si="76">D982+100000</f>
         <v>7790000</v>
       </c>
       <c r="G982" s="1">
@@ -23643,7 +23649,7 @@
         <v>1</v>
       </c>
       <c r="F985" s="8">
-        <f t="shared" ref="F985:F1002" si="77">D985+100000</f>
+        <f t="shared" ref="F985:F988" si="77">D985+100000</f>
         <v>7820000</v>
       </c>
       <c r="G985" s="1">
@@ -23762,7 +23768,7 @@
         <v>1</v>
       </c>
       <c r="F990" s="8">
-        <f t="shared" ref="F990:F1002" si="78">D990+100000</f>
+        <f t="shared" ref="F990" si="78">D990+100000</f>
         <v>7870000</v>
       </c>
       <c r="G990" s="1">
@@ -23809,7 +23815,7 @@
         <v>1</v>
       </c>
       <c r="F992" s="8">
-        <f t="shared" ref="F992:F1002" si="79">D992+100000</f>
+        <f t="shared" ref="F992:F993" si="79">D992+100000</f>
         <v>7890000</v>
       </c>
       <c r="G992" s="1">
@@ -23880,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="F995" s="8">
-        <f t="shared" ref="F995:F1002" si="80">D995+100000</f>
+        <f t="shared" ref="F995:F998" si="80">D995+100000</f>
         <v>7920000</v>
       </c>
       <c r="G995" s="1">
@@ -23999,7 +24005,7 @@
         <v>1</v>
       </c>
       <c r="F1000" s="8">
-        <f t="shared" ref="F1000:F1002" si="81">D1000+100000</f>
+        <f t="shared" ref="F1000" si="81">D1000+100000</f>
         <v>7970000</v>
       </c>
       <c r="G1000" s="1">
@@ -24029,28 +24035,2397 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1002" s="1">
+    <row r="1002" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="3">
         <v>1000</v>
       </c>
-      <c r="B1002" s="1">
+      <c r="B1002" s="3">
         <v>200000</v>
       </c>
-      <c r="C1002" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1002" s="1">
+      <c r="C1002" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1002" s="3">
         <v>7890000</v>
       </c>
-      <c r="E1002" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1002" s="8">
-        <f t="shared" ref="F1002" si="82">D1002+100000</f>
+      <c r="E1002" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1002" s="9">
+        <f t="shared" ref="F1002:F1065" si="82">D1002+100000</f>
         <v>7990000</v>
       </c>
-      <c r="G1002" s="1">
-        <v>4</v>
+      <c r="G1002" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1003" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>201000</v>
+      </c>
+      <c r="C1003" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1003" s="1">
+        <v>7940000</v>
+      </c>
+      <c r="E1003" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1003" s="5">
+        <v>8040000</v>
+      </c>
+      <c r="G1003" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1004" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>202000</v>
+      </c>
+      <c r="C1004" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1004" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1004" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1004" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1004" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1005" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>203000</v>
+      </c>
+      <c r="C1005" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1005" s="1">
+        <v>8040000</v>
+      </c>
+      <c r="E1005" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1005" s="10">
+        <f t="shared" si="82"/>
+        <v>8140000</v>
+      </c>
+      <c r="G1005" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1006" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>204000</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1006" s="1">
+        <v>8090000</v>
+      </c>
+      <c r="E1006" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1006" s="10">
+        <f t="shared" si="82"/>
+        <v>8190000</v>
+      </c>
+      <c r="G1006" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1007" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>205000</v>
+      </c>
+      <c r="C1007" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1007" s="1">
+        <v>8140000</v>
+      </c>
+      <c r="E1007" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1007" s="10">
+        <f t="shared" si="82"/>
+        <v>8240000</v>
+      </c>
+      <c r="G1007" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1008" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>206000</v>
+      </c>
+      <c r="C1008" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1008" s="1">
+        <v>8190000</v>
+      </c>
+      <c r="E1008" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1008" s="10">
+        <f t="shared" si="82"/>
+        <v>8290000</v>
+      </c>
+      <c r="G1008" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1009" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>207000</v>
+      </c>
+      <c r="C1009" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1009" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1009" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1009" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1009" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1010" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>208000</v>
+      </c>
+      <c r="C1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1010" s="1">
+        <v>8290000</v>
+      </c>
+      <c r="E1010" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1010" s="10">
+        <f t="shared" si="82"/>
+        <v>8390000</v>
+      </c>
+      <c r="G1010" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1011" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>209000</v>
+      </c>
+      <c r="C1011" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1011" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1011" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1011" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1011" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1012" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>210000</v>
+      </c>
+      <c r="C1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1012" s="1">
+        <v>8390000</v>
+      </c>
+      <c r="E1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1012" s="10">
+        <f t="shared" si="82"/>
+        <v>8490000</v>
+      </c>
+      <c r="G1012" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1013" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>211000</v>
+      </c>
+      <c r="C1013" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>8440000</v>
+      </c>
+      <c r="E1013" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1013" s="10">
+        <f t="shared" si="82"/>
+        <v>8540000</v>
+      </c>
+      <c r="G1013" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1014" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>212000</v>
+      </c>
+      <c r="C1014" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1014" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1014" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1014" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1015" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>213000</v>
+      </c>
+      <c r="C1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1015" s="1">
+        <v>8540000</v>
+      </c>
+      <c r="E1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1015" s="10">
+        <f t="shared" si="82"/>
+        <v>8640000</v>
+      </c>
+      <c r="G1015" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1016" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>214000</v>
+      </c>
+      <c r="C1016" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1016" s="1">
+        <v>8590000</v>
+      </c>
+      <c r="E1016" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1016" s="10">
+        <f t="shared" si="82"/>
+        <v>8690000</v>
+      </c>
+      <c r="G1016" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1017" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>215000</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1017" s="1">
+        <v>8640000</v>
+      </c>
+      <c r="E1017" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1017" s="10">
+        <f t="shared" si="82"/>
+        <v>8740000</v>
+      </c>
+      <c r="G1017" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1018" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>216000</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1018" s="1">
+        <v>8690000</v>
+      </c>
+      <c r="E1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1018" s="10">
+        <f t="shared" si="82"/>
+        <v>8790000</v>
+      </c>
+      <c r="G1018" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1019" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>217000</v>
+      </c>
+      <c r="C1019" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1019" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1019" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1019" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1019" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1020" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>218000</v>
+      </c>
+      <c r="C1020" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1020" s="1">
+        <v>8790000</v>
+      </c>
+      <c r="E1020" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1020" s="10">
+        <f t="shared" si="82"/>
+        <v>8890000</v>
+      </c>
+      <c r="G1020" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1021" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>219000</v>
+      </c>
+      <c r="C1021" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1021" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1021" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1021" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1021" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1022" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>220000</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1022" s="1">
+        <v>8890000</v>
+      </c>
+      <c r="E1022" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1022" s="10">
+        <f t="shared" si="82"/>
+        <v>8990000</v>
+      </c>
+      <c r="G1022" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1023" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>221000</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1023" s="1">
+        <v>8940000</v>
+      </c>
+      <c r="E1023" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1023" s="10">
+        <f t="shared" si="82"/>
+        <v>9040000</v>
+      </c>
+      <c r="G1023" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1024" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>222000</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1024" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1024" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1024" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1024" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1025" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>223000</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1025" s="1">
+        <v>9040000</v>
+      </c>
+      <c r="E1025" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1025" s="10">
+        <f t="shared" si="82"/>
+        <v>9140000</v>
+      </c>
+      <c r="G1025" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1026" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>224000</v>
+      </c>
+      <c r="C1026" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1026" s="1">
+        <v>9090000</v>
+      </c>
+      <c r="E1026" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1026" s="10">
+        <f t="shared" si="82"/>
+        <v>9190000</v>
+      </c>
+      <c r="G1026" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1027" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>225000</v>
+      </c>
+      <c r="C1027" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1027" s="1">
+        <v>9140000</v>
+      </c>
+      <c r="E1027" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1027" s="10">
+        <f t="shared" si="82"/>
+        <v>9240000</v>
+      </c>
+      <c r="G1027" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1028" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>226000</v>
+      </c>
+      <c r="C1028" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1028" s="1">
+        <v>9190000</v>
+      </c>
+      <c r="E1028" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1028" s="10">
+        <f t="shared" si="82"/>
+        <v>9290000</v>
+      </c>
+      <c r="G1028" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1029" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>227000</v>
+      </c>
+      <c r="C1029" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1029" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1029" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1029" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1029" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1030" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>228000</v>
+      </c>
+      <c r="C1030" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1030" s="1">
+        <v>9290000</v>
+      </c>
+      <c r="E1030" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1030" s="10">
+        <f t="shared" si="82"/>
+        <v>9390000</v>
+      </c>
+      <c r="G1030" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1031" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>229000</v>
+      </c>
+      <c r="C1031" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1031" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1031" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1031" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1031" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1032" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>230000</v>
+      </c>
+      <c r="C1032" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1032" s="1">
+        <v>9390000</v>
+      </c>
+      <c r="E1032" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1032" s="10">
+        <f t="shared" si="82"/>
+        <v>9490000</v>
+      </c>
+      <c r="G1032" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1033" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>231000</v>
+      </c>
+      <c r="C1033" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1033" s="1">
+        <v>9440000</v>
+      </c>
+      <c r="E1033" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1033" s="10">
+        <f t="shared" si="82"/>
+        <v>9540000</v>
+      </c>
+      <c r="G1033" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1034" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>232000</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1034" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1034" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1034" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1034" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1035" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>233000</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1035" s="1">
+        <v>9540000</v>
+      </c>
+      <c r="E1035" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1035" s="10">
+        <f t="shared" si="82"/>
+        <v>9640000</v>
+      </c>
+      <c r="G1035" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1036" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>234000</v>
+      </c>
+      <c r="C1036" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>9590000</v>
+      </c>
+      <c r="E1036" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1036" s="10">
+        <f t="shared" si="82"/>
+        <v>9690000</v>
+      </c>
+      <c r="G1036" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1037" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>235000</v>
+      </c>
+      <c r="C1037" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1037" s="1">
+        <v>9640000</v>
+      </c>
+      <c r="E1037" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1037" s="10">
+        <f t="shared" si="82"/>
+        <v>9740000</v>
+      </c>
+      <c r="G1037" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1038" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>236000</v>
+      </c>
+      <c r="C1038" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1038" s="1">
+        <v>9690000</v>
+      </c>
+      <c r="E1038" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1038" s="10">
+        <f t="shared" si="82"/>
+        <v>9790000</v>
+      </c>
+      <c r="G1038" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1039" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>237000</v>
+      </c>
+      <c r="C1039" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1039" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1039" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1039" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1039" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1040" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>238000</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1040" s="1">
+        <v>9790000</v>
+      </c>
+      <c r="E1040" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1040" s="10">
+        <f t="shared" si="82"/>
+        <v>9890000</v>
+      </c>
+      <c r="G1040" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1041" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>239000</v>
+      </c>
+      <c r="C1041" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1041" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1041" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1041" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1041" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1042" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>240000</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1042" s="1">
+        <v>9890000</v>
+      </c>
+      <c r="E1042" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1042" s="10">
+        <f t="shared" si="82"/>
+        <v>9990000</v>
+      </c>
+      <c r="G1042" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1043" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>241000</v>
+      </c>
+      <c r="C1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1043" s="1">
+        <v>9940000</v>
+      </c>
+      <c r="E1043" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1043" s="10">
+        <f t="shared" si="82"/>
+        <v>10040000</v>
+      </c>
+      <c r="G1043" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1044" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>242000</v>
+      </c>
+      <c r="C1044" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1044" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1044" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1044" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1044" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1045" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>243000</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1045" s="1">
+        <v>10040000</v>
+      </c>
+      <c r="E1045" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1045" s="10">
+        <f t="shared" si="82"/>
+        <v>10140000</v>
+      </c>
+      <c r="G1045" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1046" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>244000</v>
+      </c>
+      <c r="C1046" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1046" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="E1046" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1046" s="10">
+        <f t="shared" si="82"/>
+        <v>10190000</v>
+      </c>
+      <c r="G1046" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1047" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>245000</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1047" s="1">
+        <v>10140000</v>
+      </c>
+      <c r="E1047" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1047" s="10">
+        <f t="shared" si="82"/>
+        <v>10240000</v>
+      </c>
+      <c r="G1047" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1048" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>246000</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1048" s="1">
+        <v>10190000</v>
+      </c>
+      <c r="E1048" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1048" s="10">
+        <f t="shared" si="82"/>
+        <v>10290000</v>
+      </c>
+      <c r="G1048" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1049" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>247000</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1049" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1049" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1049" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1049" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1050" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>248000</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1050" s="1">
+        <v>10290000</v>
+      </c>
+      <c r="E1050" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1050" s="10">
+        <f t="shared" si="82"/>
+        <v>10390000</v>
+      </c>
+      <c r="G1050" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1051" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>249000</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1051" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1051" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1051" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1051" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1052" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1052" s="1">
+        <v>10390000</v>
+      </c>
+      <c r="E1052" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1052" s="10">
+        <f t="shared" si="82"/>
+        <v>10490000</v>
+      </c>
+      <c r="G1052" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1053" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>251000</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1053" s="1">
+        <v>10440000</v>
+      </c>
+      <c r="E1053" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1053" s="10">
+        <f t="shared" si="82"/>
+        <v>10540000</v>
+      </c>
+      <c r="G1053" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1054" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>252000</v>
+      </c>
+      <c r="C1054" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1054" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1054" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1054" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1054" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1055" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>253000</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1055" s="1">
+        <v>10540000</v>
+      </c>
+      <c r="E1055" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1055" s="10">
+        <f t="shared" si="82"/>
+        <v>10640000</v>
+      </c>
+      <c r="G1055" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1056" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>254000</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1056" s="1">
+        <v>10590000</v>
+      </c>
+      <c r="E1056" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1056" s="10">
+        <f t="shared" si="82"/>
+        <v>10690000</v>
+      </c>
+      <c r="G1056" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1057" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>255000</v>
+      </c>
+      <c r="C1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1057" s="1">
+        <v>10640000</v>
+      </c>
+      <c r="E1057" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1057" s="10">
+        <f t="shared" si="82"/>
+        <v>10740000</v>
+      </c>
+      <c r="G1057" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1058" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>256000</v>
+      </c>
+      <c r="C1058" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1058" s="1">
+        <v>10690000</v>
+      </c>
+      <c r="E1058" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1058" s="10">
+        <f t="shared" si="82"/>
+        <v>10790000</v>
+      </c>
+      <c r="G1058" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1059" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>257000</v>
+      </c>
+      <c r="C1059" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1059" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1059" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1059" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1059" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1060" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>258000</v>
+      </c>
+      <c r="C1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1060" s="1">
+        <v>10790000</v>
+      </c>
+      <c r="E1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1060" s="10">
+        <f t="shared" si="82"/>
+        <v>10890000</v>
+      </c>
+      <c r="G1060" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1061" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>259000</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1061" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1061" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1061" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1061" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1062" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>260000</v>
+      </c>
+      <c r="C1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1062" s="1">
+        <v>10890000</v>
+      </c>
+      <c r="E1062" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1062" s="10">
+        <f t="shared" si="82"/>
+        <v>10990000</v>
+      </c>
+      <c r="G1062" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1063" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>261000</v>
+      </c>
+      <c r="C1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1063" s="1">
+        <v>10940000</v>
+      </c>
+      <c r="E1063" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1063" s="10">
+        <f t="shared" si="82"/>
+        <v>11040000</v>
+      </c>
+      <c r="G1063" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>262000</v>
+      </c>
+      <c r="C1064" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1064" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1064" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1064" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1064" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1065" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>263000</v>
+      </c>
+      <c r="C1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1065" s="1">
+        <v>11040000</v>
+      </c>
+      <c r="E1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1065" s="10">
+        <f t="shared" si="82"/>
+        <v>11140000</v>
+      </c>
+      <c r="G1065" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1066" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>264000</v>
+      </c>
+      <c r="C1066" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1066" s="1">
+        <v>11090000</v>
+      </c>
+      <c r="E1066" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1066" s="10">
+        <f t="shared" ref="F1066:F1102" si="83">D1066+100000</f>
+        <v>11190000</v>
+      </c>
+      <c r="G1066" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1067" s="1">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>265000</v>
+      </c>
+      <c r="C1067" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1067" s="1">
+        <v>11140000</v>
+      </c>
+      <c r="E1067" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1067" s="10">
+        <f t="shared" si="83"/>
+        <v>11240000</v>
+      </c>
+      <c r="G1067" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>266000</v>
+      </c>
+      <c r="C1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1068" s="1">
+        <v>11190000</v>
+      </c>
+      <c r="E1068" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1068" s="10">
+        <f t="shared" si="83"/>
+        <v>11290000</v>
+      </c>
+      <c r="G1068" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1069" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>267000</v>
+      </c>
+      <c r="C1069" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1069" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1069" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1069" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1069" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1070" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>268000</v>
+      </c>
+      <c r="C1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1070" s="1">
+        <v>11290000</v>
+      </c>
+      <c r="E1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1070" s="10">
+        <f t="shared" si="83"/>
+        <v>11390000</v>
+      </c>
+      <c r="G1070" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1071" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>269000</v>
+      </c>
+      <c r="C1071" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1071" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1071" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1071" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1071" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1072" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>270000</v>
+      </c>
+      <c r="C1072" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1072" s="1">
+        <v>11390000</v>
+      </c>
+      <c r="E1072" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1072" s="10">
+        <f t="shared" si="83"/>
+        <v>11490000</v>
+      </c>
+      <c r="G1072" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1073" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>271000</v>
+      </c>
+      <c r="C1073" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1073" s="1">
+        <v>11440000</v>
+      </c>
+      <c r="E1073" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1073" s="10">
+        <f t="shared" si="83"/>
+        <v>11540000</v>
+      </c>
+      <c r="G1073" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1074" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>272000</v>
+      </c>
+      <c r="C1074" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1074" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1074" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1074" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1074" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1075" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>273000</v>
+      </c>
+      <c r="C1075" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1075" s="1">
+        <v>11540000</v>
+      </c>
+      <c r="E1075" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1075" s="10">
+        <f t="shared" si="83"/>
+        <v>11640000</v>
+      </c>
+      <c r="G1075" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>274000</v>
+      </c>
+      <c r="C1076" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1076" s="1">
+        <v>11590000</v>
+      </c>
+      <c r="E1076" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1076" s="10">
+        <f t="shared" si="83"/>
+        <v>11690000</v>
+      </c>
+      <c r="G1076" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1077" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>275000</v>
+      </c>
+      <c r="C1077" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1077" s="1">
+        <v>11640000</v>
+      </c>
+      <c r="E1077" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1077" s="10">
+        <f t="shared" si="83"/>
+        <v>11740000</v>
+      </c>
+      <c r="G1077" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1078" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>276000</v>
+      </c>
+      <c r="C1078" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1078" s="1">
+        <v>11690000</v>
+      </c>
+      <c r="E1078" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1078" s="10">
+        <f t="shared" si="83"/>
+        <v>11790000</v>
+      </c>
+      <c r="G1078" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1079" s="1">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>277000</v>
+      </c>
+      <c r="C1079" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1079" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1079" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1079" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1079" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>278000</v>
+      </c>
+      <c r="C1080" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1080" s="1">
+        <v>11790000</v>
+      </c>
+      <c r="E1080" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1080" s="10">
+        <f t="shared" si="83"/>
+        <v>11890000</v>
+      </c>
+      <c r="G1080" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1081" s="1">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>279000</v>
+      </c>
+      <c r="C1081" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1081" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1081" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1081" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1081" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1082" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>280000</v>
+      </c>
+      <c r="C1082" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1082" s="1">
+        <v>11890000</v>
+      </c>
+      <c r="E1082" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1082" s="10">
+        <f t="shared" si="83"/>
+        <v>11990000</v>
+      </c>
+      <c r="G1082" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1083" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>281000</v>
+      </c>
+      <c r="C1083" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1083" s="1">
+        <v>11940000</v>
+      </c>
+      <c r="E1083" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1083" s="10">
+        <f t="shared" si="83"/>
+        <v>12040000</v>
+      </c>
+      <c r="G1083" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1084" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>282000</v>
+      </c>
+      <c r="C1084" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1084" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1084" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1084" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1084" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1085" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>283000</v>
+      </c>
+      <c r="C1085" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1085" s="1">
+        <v>12040000</v>
+      </c>
+      <c r="E1085" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1085" s="10">
+        <f t="shared" si="83"/>
+        <v>12140000</v>
+      </c>
+      <c r="G1085" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1086" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>284000</v>
+      </c>
+      <c r="C1086" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1086" s="1">
+        <v>12090000</v>
+      </c>
+      <c r="E1086" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1086" s="10">
+        <f t="shared" si="83"/>
+        <v>12190000</v>
+      </c>
+      <c r="G1086" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1087" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>285000</v>
+      </c>
+      <c r="C1087" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1087" s="1">
+        <v>12140000</v>
+      </c>
+      <c r="E1087" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1087" s="10">
+        <f t="shared" si="83"/>
+        <v>12240000</v>
+      </c>
+      <c r="G1087" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1088" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>286000</v>
+      </c>
+      <c r="C1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1088" s="1">
+        <v>12190000</v>
+      </c>
+      <c r="E1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1088" s="10">
+        <f t="shared" si="83"/>
+        <v>12290000</v>
+      </c>
+      <c r="G1088" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1089" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>287000</v>
+      </c>
+      <c r="C1089" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1089" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1089" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1089" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1089" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1090" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="1">
+        <v>288000</v>
+      </c>
+      <c r="C1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1090" s="1">
+        <v>12290000</v>
+      </c>
+      <c r="E1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1090" s="10">
+        <f t="shared" si="83"/>
+        <v>12390000</v>
+      </c>
+      <c r="G1090" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1091" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="1">
+        <v>289000</v>
+      </c>
+      <c r="C1091" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1091" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1091" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1091" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1091" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1092" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="1">
+        <v>290000</v>
+      </c>
+      <c r="C1092" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1092" s="1">
+        <v>12390000</v>
+      </c>
+      <c r="E1092" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1092" s="10">
+        <f t="shared" si="83"/>
+        <v>12490000</v>
+      </c>
+      <c r="G1092" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1093" s="1">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="1">
+        <v>291000</v>
+      </c>
+      <c r="C1093" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1093" s="1">
+        <v>12440000</v>
+      </c>
+      <c r="E1093" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1093" s="10">
+        <f t="shared" si="83"/>
+        <v>12540000</v>
+      </c>
+      <c r="G1093" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1094" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>292000</v>
+      </c>
+      <c r="C1094" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1094" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1094" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1094" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1094" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1095" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="1">
+        <v>293000</v>
+      </c>
+      <c r="C1095" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1095" s="1">
+        <v>12540000</v>
+      </c>
+      <c r="E1095" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1095" s="10">
+        <f t="shared" si="83"/>
+        <v>12640000</v>
+      </c>
+      <c r="G1095" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1096" s="1">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="1">
+        <v>294000</v>
+      </c>
+      <c r="C1096" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1096" s="1">
+        <v>12590000</v>
+      </c>
+      <c r="E1096" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1096" s="10">
+        <f t="shared" si="83"/>
+        <v>12690000</v>
+      </c>
+      <c r="G1096" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="1">
+        <v>295000</v>
+      </c>
+      <c r="C1097" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1097" s="1">
+        <v>12640000</v>
+      </c>
+      <c r="E1097" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1097" s="10">
+        <f t="shared" si="83"/>
+        <v>12740000</v>
+      </c>
+      <c r="G1097" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="1">
+        <v>296000</v>
+      </c>
+      <c r="C1098" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1098" s="1">
+        <v>12690000</v>
+      </c>
+      <c r="E1098" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1098" s="10">
+        <f t="shared" si="83"/>
+        <v>12790000</v>
+      </c>
+      <c r="G1098" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1099" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="1">
+        <v>297000</v>
+      </c>
+      <c r="C1099" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1099" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1099" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1099" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G1099" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1100" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="1">
+        <v>298000</v>
+      </c>
+      <c r="C1100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1100" s="1">
+        <v>12790000</v>
+      </c>
+      <c r="E1100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1100" s="10">
+        <f t="shared" si="83"/>
+        <v>12890000</v>
+      </c>
+      <c r="G1100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1101" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="1">
+        <v>299000</v>
+      </c>
+      <c r="C1101" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1101" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1101" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1101" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1102" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>12890000</v>
+      </c>
+      <c r="E1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1102" s="10">
+        <f t="shared" si="83"/>
+        <v>12990000</v>
+      </c>
+      <c r="G1102" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E151D-7C48-45C5-A038-188557C35246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4039DEF7-7539-4CCF-8054-2CB2F68D9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="23340" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,13 @@
   </si>
   <si>
     <t>levelpass6</t>
+  </si>
+  <si>
+    <t>levelpass7</t>
+  </si>
+  <si>
+    <t>levelpass7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -527,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H1102"/>
+  <dimension ref="A1:H1202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I725" sqref="I725"/>
+      <pane ySplit="1" topLeftCell="A1078" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1108" sqref="F1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28785,7 +28792,7 @@
         <v>5</v>
       </c>
       <c r="F1066" s="10">
-        <f t="shared" ref="F1066:F1102" si="83">D1066+100000</f>
+        <f t="shared" ref="F1066:F1129" si="83">D1066+100000</f>
         <v>11190000</v>
       </c>
       <c r="G1066" s="1">
@@ -29730,7 +29737,7 @@
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1102" s="1">
+      <c r="A1102" s="3">
         <v>1100</v>
       </c>
       <c r="B1102" s="1">
@@ -29754,6 +29761,2676 @@
       </c>
       <c r="H1102" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1103" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="1">
+        <v>301000</v>
+      </c>
+      <c r="C1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>12940000</v>
+      </c>
+      <c r="E1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1103" s="10">
+        <f t="shared" si="83"/>
+        <v>13040000</v>
+      </c>
+      <c r="G1103" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1104" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="1">
+        <v>302000</v>
+      </c>
+      <c r="C1104" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1104" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1104" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1105" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="1">
+        <v>303000</v>
+      </c>
+      <c r="C1105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>13040000</v>
+      </c>
+      <c r="E1105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1105" s="10">
+        <f t="shared" si="83"/>
+        <v>13140000</v>
+      </c>
+      <c r="G1105" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1106" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="1">
+        <v>304000</v>
+      </c>
+      <c r="C1106" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>13090000</v>
+      </c>
+      <c r="E1106" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1106" s="10">
+        <f t="shared" si="83"/>
+        <v>13190000</v>
+      </c>
+      <c r="G1106" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1107" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>305000</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1107" s="1">
+        <v>13140000</v>
+      </c>
+      <c r="E1107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1107" s="10">
+        <f t="shared" si="83"/>
+        <v>13240000</v>
+      </c>
+      <c r="G1107" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1108" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="1">
+        <v>306000</v>
+      </c>
+      <c r="C1108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1108" s="1">
+        <v>13190000</v>
+      </c>
+      <c r="E1108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1108" s="10">
+        <f t="shared" si="83"/>
+        <v>13290000</v>
+      </c>
+      <c r="G1108" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1109" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="1">
+        <v>307000</v>
+      </c>
+      <c r="C1109" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1109" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1109" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1109" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1110" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="1">
+        <v>308000</v>
+      </c>
+      <c r="C1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1110" s="1">
+        <v>13290000</v>
+      </c>
+      <c r="E1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1110" s="10">
+        <f t="shared" si="83"/>
+        <v>13390000</v>
+      </c>
+      <c r="G1110" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1111" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="1">
+        <v>309000</v>
+      </c>
+      <c r="C1111" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1111" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1111" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1111" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1111" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1112" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="1">
+        <v>310000</v>
+      </c>
+      <c r="C1112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1112" s="1">
+        <v>13390000</v>
+      </c>
+      <c r="E1112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1112" s="10">
+        <f t="shared" si="83"/>
+        <v>13490000</v>
+      </c>
+      <c r="G1112" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1113" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="1">
+        <v>311000</v>
+      </c>
+      <c r="C1113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1113" s="1">
+        <v>13440000</v>
+      </c>
+      <c r="E1113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1113" s="10">
+        <f t="shared" si="83"/>
+        <v>13540000</v>
+      </c>
+      <c r="G1113" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1114" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="1">
+        <v>312000</v>
+      </c>
+      <c r="C1114" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1114" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1114" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1114" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1115" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="1">
+        <v>313000</v>
+      </c>
+      <c r="C1115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>13540000</v>
+      </c>
+      <c r="E1115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1115" s="10">
+        <f t="shared" si="83"/>
+        <v>13640000</v>
+      </c>
+      <c r="G1115" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1116" s="1">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>314000</v>
+      </c>
+      <c r="C1116" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1116" s="1">
+        <v>13590000</v>
+      </c>
+      <c r="E1116" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1116" s="10">
+        <f t="shared" si="83"/>
+        <v>13690000</v>
+      </c>
+      <c r="G1116" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1117" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="1">
+        <v>315000</v>
+      </c>
+      <c r="C1117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1117" s="1">
+        <v>13640000</v>
+      </c>
+      <c r="E1117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1117" s="10">
+        <f t="shared" si="83"/>
+        <v>13740000</v>
+      </c>
+      <c r="G1117" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1118" s="1">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="1">
+        <v>316000</v>
+      </c>
+      <c r="C1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1118" s="1">
+        <v>13690000</v>
+      </c>
+      <c r="E1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1118" s="10">
+        <f t="shared" si="83"/>
+        <v>13790000</v>
+      </c>
+      <c r="G1118" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1119" s="1">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>317000</v>
+      </c>
+      <c r="C1119" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1119" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1119" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1119" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1119" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1120" s="1">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>318000</v>
+      </c>
+      <c r="C1120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1120" s="1">
+        <v>13790000</v>
+      </c>
+      <c r="E1120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="10">
+        <f t="shared" si="83"/>
+        <v>13890000</v>
+      </c>
+      <c r="G1120" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1121" s="1">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>319000</v>
+      </c>
+      <c r="C1121" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1121" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1121" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1121" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1122" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>320000</v>
+      </c>
+      <c r="C1122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>13890000</v>
+      </c>
+      <c r="E1122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="10">
+        <f t="shared" si="83"/>
+        <v>13990000</v>
+      </c>
+      <c r="G1122" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1123" s="1">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>321000</v>
+      </c>
+      <c r="C1123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1123" s="1">
+        <v>13940000</v>
+      </c>
+      <c r="E1123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1123" s="10">
+        <f t="shared" si="83"/>
+        <v>14040000</v>
+      </c>
+      <c r="G1123" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1124" s="1">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>322000</v>
+      </c>
+      <c r="C1124" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1124" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1124" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1124" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1124" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1125" s="1">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>323000</v>
+      </c>
+      <c r="C1125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1125" s="1">
+        <v>14040000</v>
+      </c>
+      <c r="E1125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1125" s="10">
+        <f t="shared" si="83"/>
+        <v>14140000</v>
+      </c>
+      <c r="G1125" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1126" s="1">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>324000</v>
+      </c>
+      <c r="C1126" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1126" s="1">
+        <v>14090000</v>
+      </c>
+      <c r="E1126" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1126" s="10">
+        <f t="shared" si="83"/>
+        <v>14190000</v>
+      </c>
+      <c r="G1126" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1127" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>325000</v>
+      </c>
+      <c r="C1127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1127" s="1">
+        <v>14140000</v>
+      </c>
+      <c r="E1127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1127" s="10">
+        <f t="shared" si="83"/>
+        <v>14240000</v>
+      </c>
+      <c r="G1127" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1128" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>326000</v>
+      </c>
+      <c r="C1128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1128" s="1">
+        <v>14190000</v>
+      </c>
+      <c r="E1128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1128" s="10">
+        <f t="shared" si="83"/>
+        <v>14290000</v>
+      </c>
+      <c r="G1128" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1129" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>327000</v>
+      </c>
+      <c r="C1129" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1129" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1129" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1129" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1130" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>328000</v>
+      </c>
+      <c r="C1130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1130" s="1">
+        <v>14290000</v>
+      </c>
+      <c r="E1130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="10">
+        <f t="shared" ref="F1130:F1193" si="84">D1130+100000</f>
+        <v>14390000</v>
+      </c>
+      <c r="G1130" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1131" s="1">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>329000</v>
+      </c>
+      <c r="C1131" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1131" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1131" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1131" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1131" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1132" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>330000</v>
+      </c>
+      <c r="C1132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1132" s="1">
+        <v>14390000</v>
+      </c>
+      <c r="E1132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1132" s="10">
+        <f t="shared" si="84"/>
+        <v>14490000</v>
+      </c>
+      <c r="G1132" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1133" s="1">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>331000</v>
+      </c>
+      <c r="C1133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1133" s="1">
+        <v>14440000</v>
+      </c>
+      <c r="E1133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1133" s="10">
+        <f t="shared" si="84"/>
+        <v>14540000</v>
+      </c>
+      <c r="G1133" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1134" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>332000</v>
+      </c>
+      <c r="C1134" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1134" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1134" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1134" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1135" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>333000</v>
+      </c>
+      <c r="C1135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1135" s="1">
+        <v>14540000</v>
+      </c>
+      <c r="E1135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1135" s="10">
+        <f t="shared" si="84"/>
+        <v>14640000</v>
+      </c>
+      <c r="G1135" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1136" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>334000</v>
+      </c>
+      <c r="C1136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1136" s="1">
+        <v>14590000</v>
+      </c>
+      <c r="E1136" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1136" s="10">
+        <f t="shared" si="84"/>
+        <v>14690000</v>
+      </c>
+      <c r="G1136" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>335000</v>
+      </c>
+      <c r="C1137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1137" s="1">
+        <v>14640000</v>
+      </c>
+      <c r="E1137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1137" s="10">
+        <f t="shared" si="84"/>
+        <v>14740000</v>
+      </c>
+      <c r="G1137" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>336000</v>
+      </c>
+      <c r="C1138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1138" s="1">
+        <v>14690000</v>
+      </c>
+      <c r="E1138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1138" s="10">
+        <f t="shared" si="84"/>
+        <v>14790000</v>
+      </c>
+      <c r="G1138" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>337000</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1139" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1139" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1139" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1139" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>338000</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1140" s="1">
+        <v>14790000</v>
+      </c>
+      <c r="E1140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1140" s="10">
+        <f t="shared" si="84"/>
+        <v>14890000</v>
+      </c>
+      <c r="G1140" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>339000</v>
+      </c>
+      <c r="C1141" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1141" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1141" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1141" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1141" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>340000</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1142" s="1">
+        <v>14890000</v>
+      </c>
+      <c r="E1142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1142" s="10">
+        <f t="shared" si="84"/>
+        <v>14990000</v>
+      </c>
+      <c r="G1142" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>341000</v>
+      </c>
+      <c r="C1143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1143" s="1">
+        <v>14940000</v>
+      </c>
+      <c r="E1143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1143" s="10">
+        <f t="shared" si="84"/>
+        <v>15040000</v>
+      </c>
+      <c r="G1143" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>342000</v>
+      </c>
+      <c r="C1144" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1144" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1144" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1144" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1144" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>343000</v>
+      </c>
+      <c r="C1145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>15040000</v>
+      </c>
+      <c r="E1145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1145" s="10">
+        <f t="shared" si="84"/>
+        <v>15140000</v>
+      </c>
+      <c r="G1145" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>344000</v>
+      </c>
+      <c r="C1146" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>15090000</v>
+      </c>
+      <c r="E1146" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1146" s="10">
+        <f t="shared" si="84"/>
+        <v>15190000</v>
+      </c>
+      <c r="G1146" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>345000</v>
+      </c>
+      <c r="C1147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>15140000</v>
+      </c>
+      <c r="E1147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1147" s="10">
+        <f t="shared" si="84"/>
+        <v>15240000</v>
+      </c>
+      <c r="G1147" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>346000</v>
+      </c>
+      <c r="C1148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>15190000</v>
+      </c>
+      <c r="E1148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1148" s="10">
+        <f t="shared" si="84"/>
+        <v>15290000</v>
+      </c>
+      <c r="G1148" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1149" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>347000</v>
+      </c>
+      <c r="C1149" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1149" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1149" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1149" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1150" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>348000</v>
+      </c>
+      <c r="C1150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1150" s="1">
+        <v>15290000</v>
+      </c>
+      <c r="E1150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1150" s="10">
+        <f t="shared" si="84"/>
+        <v>15390000</v>
+      </c>
+      <c r="G1150" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1151" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>349000</v>
+      </c>
+      <c r="C1151" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1151" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1151" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1151" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1151" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1152" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>350000</v>
+      </c>
+      <c r="C1152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1152" s="1">
+        <v>15390000</v>
+      </c>
+      <c r="E1152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1152" s="10">
+        <f t="shared" si="84"/>
+        <v>15490000</v>
+      </c>
+      <c r="G1152" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1153" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>351000</v>
+      </c>
+      <c r="C1153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1153" s="1">
+        <v>15440000</v>
+      </c>
+      <c r="E1153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1153" s="10">
+        <f t="shared" si="84"/>
+        <v>15540000</v>
+      </c>
+      <c r="G1153" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1154" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>352000</v>
+      </c>
+      <c r="C1154" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1154" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1154" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1154" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1154" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1155" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>353000</v>
+      </c>
+      <c r="C1155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1155" s="1">
+        <v>15540000</v>
+      </c>
+      <c r="E1155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1155" s="10">
+        <f t="shared" si="84"/>
+        <v>15640000</v>
+      </c>
+      <c r="G1155" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1156" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="1">
+        <v>354000</v>
+      </c>
+      <c r="C1156" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1156" s="1">
+        <v>15590000</v>
+      </c>
+      <c r="E1156" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1156" s="10">
+        <f t="shared" si="84"/>
+        <v>15690000</v>
+      </c>
+      <c r="G1156" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1157" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="1">
+        <v>355000</v>
+      </c>
+      <c r="C1157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1157" s="1">
+        <v>15640000</v>
+      </c>
+      <c r="E1157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1157" s="10">
+        <f t="shared" si="84"/>
+        <v>15740000</v>
+      </c>
+      <c r="G1157" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1158" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>356000</v>
+      </c>
+      <c r="C1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1158" s="1">
+        <v>15690000</v>
+      </c>
+      <c r="E1158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1158" s="10">
+        <f t="shared" si="84"/>
+        <v>15790000</v>
+      </c>
+      <c r="G1158" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1159" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>357000</v>
+      </c>
+      <c r="C1159" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1159" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1159" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1159" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1159" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1160" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>358000</v>
+      </c>
+      <c r="C1160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1160" s="1">
+        <v>15790000</v>
+      </c>
+      <c r="E1160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1160" s="10">
+        <f t="shared" si="84"/>
+        <v>15890000</v>
+      </c>
+      <c r="G1160" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1161" s="1">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>359000</v>
+      </c>
+      <c r="C1161" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1161" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1161" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1161" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1161" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1162" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>360000</v>
+      </c>
+      <c r="C1162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1162" s="1">
+        <v>15890000</v>
+      </c>
+      <c r="E1162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1162" s="10">
+        <f t="shared" si="84"/>
+        <v>15990000</v>
+      </c>
+      <c r="G1162" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1163" s="1">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>361000</v>
+      </c>
+      <c r="C1163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1163" s="1">
+        <v>15940000</v>
+      </c>
+      <c r="E1163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1163" s="10">
+        <f t="shared" si="84"/>
+        <v>16040000</v>
+      </c>
+      <c r="G1163" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1164" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>362000</v>
+      </c>
+      <c r="C1164" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1164" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1164" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1164" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1164" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1165" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>363000</v>
+      </c>
+      <c r="C1165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1165" s="1">
+        <v>16040000</v>
+      </c>
+      <c r="E1165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1165" s="10">
+        <f t="shared" si="84"/>
+        <v>16140000</v>
+      </c>
+      <c r="G1165" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1166" s="1">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>364000</v>
+      </c>
+      <c r="C1166" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1166" s="1">
+        <v>16090000</v>
+      </c>
+      <c r="E1166" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1166" s="10">
+        <f t="shared" si="84"/>
+        <v>16190000</v>
+      </c>
+      <c r="G1166" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1167" s="1">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>365000</v>
+      </c>
+      <c r="C1167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1167" s="1">
+        <v>16140000</v>
+      </c>
+      <c r="E1167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1167" s="10">
+        <f t="shared" si="84"/>
+        <v>16240000</v>
+      </c>
+      <c r="G1167" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1168" s="1">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>366000</v>
+      </c>
+      <c r="C1168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1168" s="1">
+        <v>16190000</v>
+      </c>
+      <c r="E1168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1168" s="10">
+        <f t="shared" si="84"/>
+        <v>16290000</v>
+      </c>
+      <c r="G1168" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1169" s="1">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>367000</v>
+      </c>
+      <c r="C1169" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1169" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1169" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1169" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1169" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1170" s="1">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="1">
+        <v>368000</v>
+      </c>
+      <c r="C1170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1170" s="1">
+        <v>16290000</v>
+      </c>
+      <c r="E1170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1170" s="10">
+        <f t="shared" si="84"/>
+        <v>16390000</v>
+      </c>
+      <c r="G1170" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1171" s="1">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="1">
+        <v>369000</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1171" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1171" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1171" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1171" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1172" s="1">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="1">
+        <v>370000</v>
+      </c>
+      <c r="C1172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1172" s="1">
+        <v>16390000</v>
+      </c>
+      <c r="E1172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1172" s="10">
+        <f t="shared" si="84"/>
+        <v>16490000</v>
+      </c>
+      <c r="G1172" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1173" s="1">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="1">
+        <v>371000</v>
+      </c>
+      <c r="C1173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1173" s="1">
+        <v>16440000</v>
+      </c>
+      <c r="E1173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1173" s="10">
+        <f t="shared" si="84"/>
+        <v>16540000</v>
+      </c>
+      <c r="G1173" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1174" s="1">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="1">
+        <v>372000</v>
+      </c>
+      <c r="C1174" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1174" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1174" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1174" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1174" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1175" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="1">
+        <v>373000</v>
+      </c>
+      <c r="C1175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1175" s="1">
+        <v>16540000</v>
+      </c>
+      <c r="E1175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1175" s="10">
+        <f t="shared" si="84"/>
+        <v>16640000</v>
+      </c>
+      <c r="G1175" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1176" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>374000</v>
+      </c>
+      <c r="C1176" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1176" s="1">
+        <v>16590000</v>
+      </c>
+      <c r="E1176" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1176" s="10">
+        <f t="shared" si="84"/>
+        <v>16690000</v>
+      </c>
+      <c r="G1176" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1177" s="1">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>375000</v>
+      </c>
+      <c r="C1177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1177" s="1">
+        <v>16640000</v>
+      </c>
+      <c r="E1177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1177" s="10">
+        <f t="shared" si="84"/>
+        <v>16740000</v>
+      </c>
+      <c r="G1177" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1178" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>376000</v>
+      </c>
+      <c r="C1178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1178" s="1">
+        <v>16690000</v>
+      </c>
+      <c r="E1178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1178" s="10">
+        <f t="shared" si="84"/>
+        <v>16790000</v>
+      </c>
+      <c r="G1178" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1179" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>377000</v>
+      </c>
+      <c r="C1179" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1179" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1179" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1179" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1179" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1180" s="1">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>378000</v>
+      </c>
+      <c r="C1180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1180" s="1">
+        <v>16790000</v>
+      </c>
+      <c r="E1180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1180" s="10">
+        <f t="shared" si="84"/>
+        <v>16890000</v>
+      </c>
+      <c r="G1180" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1181" s="1">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>379000</v>
+      </c>
+      <c r="C1181" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1181" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1181" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1181" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1181" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1182" s="1">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>380000</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1182" s="1">
+        <v>16890000</v>
+      </c>
+      <c r="E1182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1182" s="10">
+        <f t="shared" si="84"/>
+        <v>16990000</v>
+      </c>
+      <c r="G1182" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1183" s="1">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>381000</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1183" s="1">
+        <v>16940000</v>
+      </c>
+      <c r="E1183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1183" s="10">
+        <f t="shared" si="84"/>
+        <v>17040000</v>
+      </c>
+      <c r="G1183" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1184" s="1">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>382000</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1184" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1184" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1184" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1184" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1185" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>383000</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1185" s="1">
+        <v>17040000</v>
+      </c>
+      <c r="E1185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1185" s="10">
+        <f t="shared" si="84"/>
+        <v>17140000</v>
+      </c>
+      <c r="G1185" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1186" s="1">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>384000</v>
+      </c>
+      <c r="C1186" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1186" s="1">
+        <v>17090000</v>
+      </c>
+      <c r="E1186" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1186" s="10">
+        <f t="shared" si="84"/>
+        <v>17190000</v>
+      </c>
+      <c r="G1186" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1187" s="1">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>385000</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1187" s="1">
+        <v>17140000</v>
+      </c>
+      <c r="E1187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1187" s="10">
+        <f t="shared" si="84"/>
+        <v>17240000</v>
+      </c>
+      <c r="G1187" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1188" s="1">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>386000</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1188" s="1">
+        <v>17190000</v>
+      </c>
+      <c r="E1188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1188" s="10">
+        <f t="shared" si="84"/>
+        <v>17290000</v>
+      </c>
+      <c r="G1188" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1189" s="1">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>387000</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1189" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1189" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1190" s="1">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>388000</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1190" s="1">
+        <v>17290000</v>
+      </c>
+      <c r="E1190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1190" s="10">
+        <f t="shared" si="84"/>
+        <v>17390000</v>
+      </c>
+      <c r="G1190" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1191" s="1">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>389000</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1191" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1191" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1191" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1191" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1192" s="1">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>390000</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1192" s="1">
+        <v>17390000</v>
+      </c>
+      <c r="E1192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1192" s="10">
+        <f t="shared" si="84"/>
+        <v>17490000</v>
+      </c>
+      <c r="G1192" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1193" s="1">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>391000</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1193" s="1">
+        <v>17440000</v>
+      </c>
+      <c r="E1193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1193" s="10">
+        <f t="shared" si="84"/>
+        <v>17540000</v>
+      </c>
+      <c r="G1193" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1194" s="1">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>392000</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1194" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1194" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1194" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1195" s="1">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>393000</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1195" s="1">
+        <v>17540000</v>
+      </c>
+      <c r="E1195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1195" s="10">
+        <f t="shared" ref="F1194:F1202" si="85">D1195+100000</f>
+        <v>17640000</v>
+      </c>
+      <c r="G1195" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1196" s="1">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>394000</v>
+      </c>
+      <c r="C1196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1196" s="1">
+        <v>17590000</v>
+      </c>
+      <c r="E1196" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1196" s="10">
+        <f t="shared" si="85"/>
+        <v>17690000</v>
+      </c>
+      <c r="G1196" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1197" s="1">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>395000</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1197" s="1">
+        <v>17640000</v>
+      </c>
+      <c r="E1197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1197" s="10">
+        <f t="shared" si="85"/>
+        <v>17740000</v>
+      </c>
+      <c r="G1197" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1198" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>396000</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1198" s="1">
+        <v>17690000</v>
+      </c>
+      <c r="E1198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1198" s="10">
+        <f t="shared" si="85"/>
+        <v>17790000</v>
+      </c>
+      <c r="G1198" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1199" s="1">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>397000</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1199" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1199" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1199" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1200" s="1">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>398000</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1200" s="1">
+        <v>17790000</v>
+      </c>
+      <c r="E1200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1200" s="10">
+        <f t="shared" si="85"/>
+        <v>17890000</v>
+      </c>
+      <c r="G1200" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1201" s="1">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>399000</v>
+      </c>
+      <c r="C1201" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1201" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1201" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1201" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1201" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1202" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1202" s="1">
+        <v>17890000</v>
+      </c>
+      <c r="E1202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1202" s="10">
+        <f t="shared" si="85"/>
+        <v>17990000</v>
+      </c>
+      <c r="G1202" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4039DEF7-7539-4CCF-8054-2CB2F68D9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E524C8-AE53-4651-A33B-526AB5DCD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="2610" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,13 @@
   </si>
   <si>
     <t>levelpass7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass8</t>
+  </si>
+  <si>
+    <t>levelpass8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,11 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H1202"/>
+  <dimension ref="A1:H1302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1078" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1108" sqref="F1108"/>
+      <pane ySplit="1" topLeftCell="A1201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1223" sqref="D1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28792,7 +28799,7 @@
         <v>5</v>
       </c>
       <c r="F1066" s="10">
-        <f t="shared" ref="F1066:F1129" si="83">D1066+100000</f>
+        <f t="shared" ref="F1066:F1128" si="83">D1066+100000</f>
         <v>11190000</v>
       </c>
       <c r="G1066" s="1">
@@ -32236,7 +32243,7 @@
         <v>1</v>
       </c>
       <c r="F1195" s="10">
-        <f t="shared" ref="F1194:F1202" si="85">D1195+100000</f>
+        <f t="shared" ref="F1195:F1258" si="85">D1195+100000</f>
         <v>17640000</v>
       </c>
       <c r="G1195" s="1">
@@ -32407,7 +32414,7 @@
       </c>
     </row>
     <row r="1202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1202" s="1">
+      <c r="A1202" s="2">
         <v>1200</v>
       </c>
       <c r="B1202" s="1">
@@ -32430,7 +32437,2677 @@
         <v>6</v>
       </c>
       <c r="H1202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1203" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>401000</v>
+      </c>
+      <c r="C1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1203" s="1">
+        <v>17940000</v>
+      </c>
+      <c r="E1203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1203" s="10">
+        <f t="shared" si="85"/>
+        <v>18040000</v>
+      </c>
+      <c r="G1203" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1204" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>402000</v>
+      </c>
+      <c r="C1204" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1204" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1204" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1204" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1205" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>403000</v>
+      </c>
+      <c r="C1205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1205" s="1">
+        <v>18040000</v>
+      </c>
+      <c r="E1205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1205" s="10">
+        <f t="shared" si="85"/>
+        <v>18140000</v>
+      </c>
+      <c r="G1205" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1206" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>404000</v>
+      </c>
+      <c r="C1206" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1206" s="1">
+        <v>18090000</v>
+      </c>
+      <c r="E1206" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1206" s="10">
+        <f t="shared" si="85"/>
+        <v>18190000</v>
+      </c>
+      <c r="G1206" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1207" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>405000</v>
+      </c>
+      <c r="C1207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1207" s="1">
+        <v>18140000</v>
+      </c>
+      <c r="E1207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1207" s="10">
+        <f t="shared" si="85"/>
+        <v>18240000</v>
+      </c>
+      <c r="G1207" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1208" s="1">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>406000</v>
+      </c>
+      <c r="C1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1208" s="1">
+        <v>18190000</v>
+      </c>
+      <c r="E1208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1208" s="10">
+        <f t="shared" si="85"/>
+        <v>18290000</v>
+      </c>
+      <c r="G1208" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1209" s="1">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>407000</v>
+      </c>
+      <c r="C1209" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1209" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1209" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1209" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1210" s="1">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>408000</v>
+      </c>
+      <c r="C1210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1210" s="1">
+        <v>18290000</v>
+      </c>
+      <c r="E1210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1210" s="10">
+        <f t="shared" si="85"/>
+        <v>18390000</v>
+      </c>
+      <c r="G1210" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1211" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>409000</v>
+      </c>
+      <c r="C1211" s="2">
         <v>14</v>
+      </c>
+      <c r="D1211" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1211" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1211" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1211" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1212" s="1">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>410000</v>
+      </c>
+      <c r="C1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1212" s="1">
+        <v>18390000</v>
+      </c>
+      <c r="E1212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1212" s="10">
+        <f t="shared" si="85"/>
+        <v>18490000</v>
+      </c>
+      <c r="G1212" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1213" s="1">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>411000</v>
+      </c>
+      <c r="C1213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1213" s="1">
+        <v>18440000</v>
+      </c>
+      <c r="E1213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="10">
+        <f t="shared" si="85"/>
+        <v>18540000</v>
+      </c>
+      <c r="G1213" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1214" s="1">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>412000</v>
+      </c>
+      <c r="C1214" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1214" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1214" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1214" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1215" s="1">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>413000</v>
+      </c>
+      <c r="C1215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1215" s="1">
+        <v>18540000</v>
+      </c>
+      <c r="E1215" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1215" s="10">
+        <f t="shared" si="85"/>
+        <v>18640000</v>
+      </c>
+      <c r="G1215" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1216" s="1">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>414000</v>
+      </c>
+      <c r="C1216" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1216" s="1">
+        <v>18590000</v>
+      </c>
+      <c r="E1216" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1216" s="10">
+        <f t="shared" si="85"/>
+        <v>18690000</v>
+      </c>
+      <c r="G1216" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1217" s="1">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>415000</v>
+      </c>
+      <c r="C1217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1217" s="1">
+        <v>18640000</v>
+      </c>
+      <c r="E1217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1217" s="10">
+        <f t="shared" si="85"/>
+        <v>18740000</v>
+      </c>
+      <c r="G1217" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1218" s="1">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>416000</v>
+      </c>
+      <c r="C1218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1218" s="1">
+        <v>18690000</v>
+      </c>
+      <c r="E1218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1218" s="10">
+        <f t="shared" si="85"/>
+        <v>18790000</v>
+      </c>
+      <c r="G1218" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1219" s="1">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>417000</v>
+      </c>
+      <c r="C1219" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1219" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1219" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1219" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1220" s="1">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>418000</v>
+      </c>
+      <c r="C1220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1220" s="1">
+        <v>18790000</v>
+      </c>
+      <c r="E1220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1220" s="10">
+        <f t="shared" si="85"/>
+        <v>18890000</v>
+      </c>
+      <c r="G1220" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1221" s="1">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>419000</v>
+      </c>
+      <c r="C1221" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1221" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1221" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1221" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1221" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1222" s="1">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>420000</v>
+      </c>
+      <c r="C1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1222" s="1">
+        <v>18890000</v>
+      </c>
+      <c r="E1222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1222" s="10">
+        <f t="shared" si="85"/>
+        <v>18990000</v>
+      </c>
+      <c r="G1222" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1223" s="1">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>421000</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1223" s="1">
+        <v>18940000</v>
+      </c>
+      <c r="E1223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1223" s="10">
+        <f t="shared" si="85"/>
+        <v>19040000</v>
+      </c>
+      <c r="G1223" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1224" s="1">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>422000</v>
+      </c>
+      <c r="C1224" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1224" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1224" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1224" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1225" s="1">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>423000</v>
+      </c>
+      <c r="C1225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1225" s="1">
+        <v>19040000</v>
+      </c>
+      <c r="E1225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1225" s="10">
+        <f t="shared" si="85"/>
+        <v>19140000</v>
+      </c>
+      <c r="G1225" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1226" s="1">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>424000</v>
+      </c>
+      <c r="C1226" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1226" s="1">
+        <v>19090000</v>
+      </c>
+      <c r="E1226" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1226" s="10">
+        <f t="shared" si="85"/>
+        <v>19190000</v>
+      </c>
+      <c r="G1226" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1227" s="1">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>425000</v>
+      </c>
+      <c r="C1227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1227" s="1">
+        <v>19140000</v>
+      </c>
+      <c r="E1227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1227" s="10">
+        <f t="shared" si="85"/>
+        <v>19240000</v>
+      </c>
+      <c r="G1227" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1228" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>426000</v>
+      </c>
+      <c r="C1228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1228" s="1">
+        <v>19190000</v>
+      </c>
+      <c r="E1228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1228" s="10">
+        <f t="shared" si="85"/>
+        <v>19290000</v>
+      </c>
+      <c r="G1228" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1229" s="1">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>427000</v>
+      </c>
+      <c r="C1229" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1229" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1229" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1229" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1230" s="1">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>428000</v>
+      </c>
+      <c r="C1230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1230" s="1">
+        <v>19290000</v>
+      </c>
+      <c r="E1230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1230" s="10">
+        <f t="shared" si="85"/>
+        <v>19390000</v>
+      </c>
+      <c r="G1230" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1231" s="1">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>429000</v>
+      </c>
+      <c r="C1231" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1231" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1231" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1231" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1231" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1232" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>430000</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1232" s="1">
+        <v>19390000</v>
+      </c>
+      <c r="E1232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1232" s="10">
+        <f t="shared" si="85"/>
+        <v>19490000</v>
+      </c>
+      <c r="G1232" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1233" s="1">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>431000</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1233" s="1">
+        <v>19440000</v>
+      </c>
+      <c r="E1233" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1233" s="10">
+        <f t="shared" si="85"/>
+        <v>19540000</v>
+      </c>
+      <c r="G1233" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1234" s="1">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>432000</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1234" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1234" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1234" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1235" s="1">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>433000</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1235" s="1">
+        <v>19540000</v>
+      </c>
+      <c r="E1235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1235" s="10">
+        <f t="shared" si="85"/>
+        <v>19640000</v>
+      </c>
+      <c r="G1235" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1236" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>434000</v>
+      </c>
+      <c r="C1236" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1236" s="1">
+        <v>19590000</v>
+      </c>
+      <c r="E1236" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1236" s="10">
+        <f t="shared" si="85"/>
+        <v>19690000</v>
+      </c>
+      <c r="G1236" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1237" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>435000</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1237" s="1">
+        <v>19640000</v>
+      </c>
+      <c r="E1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1237" s="10">
+        <f t="shared" si="85"/>
+        <v>19740000</v>
+      </c>
+      <c r="G1237" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1238" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>436000</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1238" s="1">
+        <v>19690000</v>
+      </c>
+      <c r="E1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1238" s="10">
+        <f t="shared" si="85"/>
+        <v>19790000</v>
+      </c>
+      <c r="G1238" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1239" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>437000</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1239" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1239" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1239" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1240" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>438000</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1240" s="1">
+        <v>19790000</v>
+      </c>
+      <c r="E1240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1240" s="10">
+        <f t="shared" si="85"/>
+        <v>19890000</v>
+      </c>
+      <c r="G1240" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1241" s="1">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>439000</v>
+      </c>
+      <c r="C1241" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1241" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1241" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1241" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1241" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1242" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>440000</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1242" s="1">
+        <v>19890000</v>
+      </c>
+      <c r="E1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1242" s="10">
+        <f t="shared" si="85"/>
+        <v>19990000</v>
+      </c>
+      <c r="G1242" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1243" s="1">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>441000</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1243" s="1">
+        <v>19940000</v>
+      </c>
+      <c r="E1243" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1243" s="10">
+        <f t="shared" si="85"/>
+        <v>20040000</v>
+      </c>
+      <c r="G1243" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1244" s="1">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>442000</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1244" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1244" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1244" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1244" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1245" s="1">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>443000</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1245" s="1">
+        <v>20040000</v>
+      </c>
+      <c r="E1245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1245" s="10">
+        <f t="shared" si="85"/>
+        <v>20140000</v>
+      </c>
+      <c r="G1245" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1246" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>444000</v>
+      </c>
+      <c r="C1246" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1246" s="1">
+        <v>20090000</v>
+      </c>
+      <c r="E1246" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1246" s="10">
+        <f t="shared" si="85"/>
+        <v>20190000</v>
+      </c>
+      <c r="G1246" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1247" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>445000</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1247" s="1">
+        <v>20140000</v>
+      </c>
+      <c r="E1247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1247" s="10">
+        <f t="shared" si="85"/>
+        <v>20240000</v>
+      </c>
+      <c r="G1247" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1248" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>446000</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1248" s="1">
+        <v>20190000</v>
+      </c>
+      <c r="E1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1248" s="10">
+        <f t="shared" si="85"/>
+        <v>20290000</v>
+      </c>
+      <c r="G1248" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1249" s="1">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>447000</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1249" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1249" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1249" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1249" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1250" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>448000</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1250" s="1">
+        <v>20290000</v>
+      </c>
+      <c r="E1250" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1250" s="10">
+        <f t="shared" si="85"/>
+        <v>20390000</v>
+      </c>
+      <c r="G1250" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1251" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>449000</v>
+      </c>
+      <c r="C1251" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1251" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1251" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1251" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1251" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1252" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>450000</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1252" s="1">
+        <v>20390000</v>
+      </c>
+      <c r="E1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1252" s="10">
+        <f t="shared" si="85"/>
+        <v>20490000</v>
+      </c>
+      <c r="G1252" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1253" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>451000</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1253" s="1">
+        <v>20440000</v>
+      </c>
+      <c r="E1253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1253" s="10">
+        <f t="shared" si="85"/>
+        <v>20540000</v>
+      </c>
+      <c r="G1253" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1254" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>452000</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1254" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1254" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1254" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1255" s="1">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>453000</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1255" s="1">
+        <v>20540000</v>
+      </c>
+      <c r="E1255" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1255" s="10">
+        <f t="shared" si="85"/>
+        <v>20640000</v>
+      </c>
+      <c r="G1255" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1256" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>454000</v>
+      </c>
+      <c r="C1256" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1256" s="1">
+        <v>20590000</v>
+      </c>
+      <c r="E1256" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1256" s="10">
+        <f t="shared" si="85"/>
+        <v>20690000</v>
+      </c>
+      <c r="G1256" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1257" s="1">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>455000</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1257" s="1">
+        <v>20640000</v>
+      </c>
+      <c r="E1257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1257" s="10">
+        <f t="shared" si="85"/>
+        <v>20740000</v>
+      </c>
+      <c r="G1257" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1258" s="1">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>456000</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1258" s="1">
+        <v>20690000</v>
+      </c>
+      <c r="E1258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1258" s="10">
+        <f t="shared" si="85"/>
+        <v>20790000</v>
+      </c>
+      <c r="G1258" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1259" s="1">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>457000</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1259" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1259" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1259" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1259" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1260" s="1">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>458000</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1260" s="1">
+        <v>20790000</v>
+      </c>
+      <c r="E1260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1260" s="10">
+        <f t="shared" ref="F1259:F1302" si="86">D1260+100000</f>
+        <v>20890000</v>
+      </c>
+      <c r="G1260" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1261" s="1">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>459000</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1261" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1261" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1261" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1261" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1262" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>460000</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1262" s="1">
+        <v>20890000</v>
+      </c>
+      <c r="E1262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1262" s="10">
+        <f t="shared" si="86"/>
+        <v>20990000</v>
+      </c>
+      <c r="G1262" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1263" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>461000</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1263" s="1">
+        <v>20940000</v>
+      </c>
+      <c r="E1263" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1263" s="10">
+        <f t="shared" si="86"/>
+        <v>21040000</v>
+      </c>
+      <c r="G1263" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1264" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>462000</v>
+      </c>
+      <c r="C1264" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1264" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1264" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1264" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1265" s="1">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>463000</v>
+      </c>
+      <c r="C1265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1265" s="1">
+        <v>21040000</v>
+      </c>
+      <c r="E1265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1265" s="10">
+        <f t="shared" si="86"/>
+        <v>21140000</v>
+      </c>
+      <c r="G1265" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1266" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>464000</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1266" s="1">
+        <v>21090000</v>
+      </c>
+      <c r="E1266" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1266" s="10">
+        <f t="shared" si="86"/>
+        <v>21190000</v>
+      </c>
+      <c r="G1266" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1267" s="1">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>465000</v>
+      </c>
+      <c r="C1267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1267" s="1">
+        <v>21140000</v>
+      </c>
+      <c r="E1267" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1267" s="10">
+        <f t="shared" si="86"/>
+        <v>21240000</v>
+      </c>
+      <c r="G1267" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1268" s="1">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>466000</v>
+      </c>
+      <c r="C1268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1268" s="1">
+        <v>21190000</v>
+      </c>
+      <c r="E1268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1268" s="10">
+        <f t="shared" si="86"/>
+        <v>21290000</v>
+      </c>
+      <c r="G1268" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1269" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>467000</v>
+      </c>
+      <c r="C1269" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1269" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1269" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1269" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1270" s="1">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>468000</v>
+      </c>
+      <c r="C1270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1270" s="1">
+        <v>21290000</v>
+      </c>
+      <c r="E1270" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1270" s="10">
+        <f t="shared" si="86"/>
+        <v>21390000</v>
+      </c>
+      <c r="G1270" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1271" s="1">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>469000</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1271" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1271" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1271" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1271" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1272" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>470000</v>
+      </c>
+      <c r="C1272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1272" s="1">
+        <v>21390000</v>
+      </c>
+      <c r="E1272" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1272" s="10">
+        <f t="shared" si="86"/>
+        <v>21490000</v>
+      </c>
+      <c r="G1272" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1273" s="1">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>471000</v>
+      </c>
+      <c r="C1273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1273" s="1">
+        <v>21440000</v>
+      </c>
+      <c r="E1273" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1273" s="10">
+        <f t="shared" si="86"/>
+        <v>21540000</v>
+      </c>
+      <c r="G1273" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1274" s="1">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>472000</v>
+      </c>
+      <c r="C1274" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1274" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1274" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1274" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1275" s="1">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>473000</v>
+      </c>
+      <c r="C1275" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1275" s="1">
+        <v>21540000</v>
+      </c>
+      <c r="E1275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1275" s="10">
+        <f t="shared" si="86"/>
+        <v>21640000</v>
+      </c>
+      <c r="G1275" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1276" s="1">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>474000</v>
+      </c>
+      <c r="C1276" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1276" s="1">
+        <v>21590000</v>
+      </c>
+      <c r="E1276" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1276" s="10">
+        <f t="shared" si="86"/>
+        <v>21690000</v>
+      </c>
+      <c r="G1276" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1277" s="1">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>475000</v>
+      </c>
+      <c r="C1277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1277" s="1">
+        <v>21640000</v>
+      </c>
+      <c r="E1277" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1277" s="10">
+        <f t="shared" si="86"/>
+        <v>21740000</v>
+      </c>
+      <c r="G1277" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1278" s="1">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>476000</v>
+      </c>
+      <c r="C1278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1278" s="1">
+        <v>21690000</v>
+      </c>
+      <c r="E1278" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1278" s="10">
+        <f t="shared" si="86"/>
+        <v>21790000</v>
+      </c>
+      <c r="G1278" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1279" s="1">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>477000</v>
+      </c>
+      <c r="C1279" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1279" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1279" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1279" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1280" s="1">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>478000</v>
+      </c>
+      <c r="C1280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1280" s="1">
+        <v>21790000</v>
+      </c>
+      <c r="E1280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1280" s="10">
+        <f t="shared" si="86"/>
+        <v>21890000</v>
+      </c>
+      <c r="G1280" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1281" s="1">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>479000</v>
+      </c>
+      <c r="C1281" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1281" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1281" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1281" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1281" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1282" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>480000</v>
+      </c>
+      <c r="C1282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1282" s="1">
+        <v>21890000</v>
+      </c>
+      <c r="E1282" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1282" s="10">
+        <f t="shared" si="86"/>
+        <v>21990000</v>
+      </c>
+      <c r="G1282" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1283" s="1">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>481000</v>
+      </c>
+      <c r="C1283" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1283" s="1">
+        <v>21940000</v>
+      </c>
+      <c r="E1283" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1283" s="10">
+        <f t="shared" si="86"/>
+        <v>22040000</v>
+      </c>
+      <c r="G1283" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1284" s="1">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>482000</v>
+      </c>
+      <c r="C1284" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1284" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1284" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1284" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1285" s="1">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>483000</v>
+      </c>
+      <c r="C1285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1285" s="1">
+        <v>22040000</v>
+      </c>
+      <c r="E1285" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1285" s="10">
+        <f t="shared" si="86"/>
+        <v>22140000</v>
+      </c>
+      <c r="G1285" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1286" s="1">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>484000</v>
+      </c>
+      <c r="C1286" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1286" s="1">
+        <v>22090000</v>
+      </c>
+      <c r="E1286" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1286" s="10">
+        <f t="shared" si="86"/>
+        <v>22190000</v>
+      </c>
+      <c r="G1286" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1287" s="1">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>485000</v>
+      </c>
+      <c r="C1287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1287" s="1">
+        <v>22140000</v>
+      </c>
+      <c r="E1287" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1287" s="10">
+        <f t="shared" si="86"/>
+        <v>22240000</v>
+      </c>
+      <c r="G1287" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1288" s="1">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>486000</v>
+      </c>
+      <c r="C1288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1288" s="1">
+        <v>22190000</v>
+      </c>
+      <c r="E1288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1288" s="10">
+        <f t="shared" si="86"/>
+        <v>22290000</v>
+      </c>
+      <c r="G1288" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1289" s="1">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>487000</v>
+      </c>
+      <c r="C1289" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1289" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1289" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1289" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1290" s="1">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>488000</v>
+      </c>
+      <c r="C1290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1290" s="1">
+        <v>22290000</v>
+      </c>
+      <c r="E1290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1290" s="10">
+        <f t="shared" si="86"/>
+        <v>22390000</v>
+      </c>
+      <c r="G1290" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1291" s="1">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>489000</v>
+      </c>
+      <c r="C1291" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1291" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1291" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1291" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1291" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1292" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>490000</v>
+      </c>
+      <c r="C1292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1292" s="1">
+        <v>22390000</v>
+      </c>
+      <c r="E1292" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1292" s="10">
+        <f t="shared" si="86"/>
+        <v>22490000</v>
+      </c>
+      <c r="G1292" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1293" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>491000</v>
+      </c>
+      <c r="C1293" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1293" s="1">
+        <v>22440000</v>
+      </c>
+      <c r="E1293" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1293" s="10">
+        <f t="shared" si="86"/>
+        <v>22540000</v>
+      </c>
+      <c r="G1293" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1294" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>492000</v>
+      </c>
+      <c r="C1294" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1294" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1294" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1294" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1295" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>493000</v>
+      </c>
+      <c r="C1295" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1295" s="1">
+        <v>22540000</v>
+      </c>
+      <c r="E1295" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1295" s="10">
+        <f t="shared" si="86"/>
+        <v>22640000</v>
+      </c>
+      <c r="G1295" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1296" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>494000</v>
+      </c>
+      <c r="C1296" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1296" s="1">
+        <v>22590000</v>
+      </c>
+      <c r="E1296" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1296" s="10">
+        <f t="shared" si="86"/>
+        <v>22690000</v>
+      </c>
+      <c r="G1296" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1297" s="1">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>495000</v>
+      </c>
+      <c r="C1297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1297" s="1">
+        <v>22640000</v>
+      </c>
+      <c r="E1297" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1297" s="10">
+        <f t="shared" si="86"/>
+        <v>22740000</v>
+      </c>
+      <c r="G1297" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1298" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>496000</v>
+      </c>
+      <c r="C1298" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1298" s="1">
+        <v>22690000</v>
+      </c>
+      <c r="E1298" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1298" s="10">
+        <f t="shared" si="86"/>
+        <v>22790000</v>
+      </c>
+      <c r="G1298" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1299" s="1">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>497000</v>
+      </c>
+      <c r="C1299" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1299" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E1299" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G1299" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1300" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>498000</v>
+      </c>
+      <c r="C1300" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1300" s="1">
+        <v>22790000</v>
+      </c>
+      <c r="E1300" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1300" s="10">
+        <f t="shared" si="86"/>
+        <v>22890000</v>
+      </c>
+      <c r="G1300" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1301" s="1">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>499000</v>
+      </c>
+      <c r="C1301" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1301" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1301" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1301" s="10">
+        <v>20</v>
+      </c>
+      <c r="G1301" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1302" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C1302" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1302" s="1">
+        <v>22890000</v>
+      </c>
+      <c r="E1302" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1302" s="10">
+        <f t="shared" si="86"/>
+        <v>22990000</v>
+      </c>
+      <c r="G1302" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E524C8-AE53-4651-A33B-526AB5DCD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E835B016-DB49-498E-BAAE-22D590BF3913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2610" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="555" yWindow="1950" windowWidth="37680" windowHeight="16170" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -93,6 +93,13 @@
   </si>
   <si>
     <t>levelpass8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass9</t>
+  </si>
+  <si>
+    <t>levelpass9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H1302"/>
+  <dimension ref="A1:H1402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1223" sqref="D1223"/>
+      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1321" sqref="D1321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33979,7 +33986,7 @@
         <v>1</v>
       </c>
       <c r="F1260" s="10">
-        <f t="shared" ref="F1259:F1302" si="86">D1260+100000</f>
+        <f t="shared" ref="F1260:F1322" si="86">D1260+100000</f>
         <v>20890000</v>
       </c>
       <c r="G1260" s="1">
@@ -35084,7 +35091,7 @@
       </c>
     </row>
     <row r="1302" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1302" s="1">
+      <c r="A1302" s="2">
         <v>1300</v>
       </c>
       <c r="B1302" s="1">
@@ -35108,6 +35115,2636 @@
       </c>
       <c r="H1302" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1303" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>501000</v>
+      </c>
+      <c r="C1303" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1303" s="1">
+        <v>22990000</v>
+      </c>
+      <c r="E1303" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1303" s="4">
+        <v>23090000</v>
+      </c>
+      <c r="G1303" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1304" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>502000</v>
+      </c>
+      <c r="C1304" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1304" s="1">
+        <v>23090000</v>
+      </c>
+      <c r="E1304" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1304" s="10">
+        <f t="shared" si="86"/>
+        <v>23190000</v>
+      </c>
+      <c r="G1304" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1305" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>503000</v>
+      </c>
+      <c r="C1305" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1305" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1305" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1305" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1305" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1306" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>504000</v>
+      </c>
+      <c r="C1306" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1306" s="1">
+        <v>23290000</v>
+      </c>
+      <c r="E1306" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1306" s="10">
+        <f t="shared" si="86"/>
+        <v>23390000</v>
+      </c>
+      <c r="G1306" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1307" s="1">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>505000</v>
+      </c>
+      <c r="C1307" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1307" s="1">
+        <v>23390000</v>
+      </c>
+      <c r="E1307" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1307" s="4">
+        <v>23090002</v>
+      </c>
+      <c r="G1307" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1308" s="1">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>506000</v>
+      </c>
+      <c r="C1308" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1308" s="1">
+        <v>23490000</v>
+      </c>
+      <c r="E1308" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1308" s="10">
+        <f t="shared" si="86"/>
+        <v>23590000</v>
+      </c>
+      <c r="G1308" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1309" s="1">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>507000</v>
+      </c>
+      <c r="C1309" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1309" s="1">
+        <v>23590000</v>
+      </c>
+      <c r="E1309" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1309" s="4">
+        <v>23090003</v>
+      </c>
+      <c r="G1309" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1310" s="1">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>508000</v>
+      </c>
+      <c r="C1310" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1310" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1310" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1310" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1310" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1311" s="1">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>509000</v>
+      </c>
+      <c r="C1311" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1311" s="1">
+        <v>23790000</v>
+      </c>
+      <c r="E1311" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1311" s="4">
+        <v>23090004</v>
+      </c>
+      <c r="G1311" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1312" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>510000</v>
+      </c>
+      <c r="C1312" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1312" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1312" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1312" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1312" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1313" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>511000</v>
+      </c>
+      <c r="C1313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1313" s="1">
+        <v>23990000</v>
+      </c>
+      <c r="E1313" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1313" s="4">
+        <v>23090005</v>
+      </c>
+      <c r="G1313" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1314" s="1">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>512000</v>
+      </c>
+      <c r="C1314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1314" s="1">
+        <v>24090000</v>
+      </c>
+      <c r="E1314" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1314" s="10">
+        <f t="shared" si="86"/>
+        <v>24190000</v>
+      </c>
+      <c r="G1314" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1315" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>513000</v>
+      </c>
+      <c r="C1315" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1315" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1315" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1315" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1315" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1316" s="1">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>514000</v>
+      </c>
+      <c r="C1316" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1316" s="1">
+        <v>24290000</v>
+      </c>
+      <c r="E1316" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1316" s="10">
+        <f t="shared" si="86"/>
+        <v>24390000</v>
+      </c>
+      <c r="G1316" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1317" s="1">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>515000</v>
+      </c>
+      <c r="C1317" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1317" s="1">
+        <v>24390000</v>
+      </c>
+      <c r="E1317" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1317" s="4">
+        <v>23090007</v>
+      </c>
+      <c r="G1317" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1318" s="1">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>516000</v>
+      </c>
+      <c r="C1318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1318" s="1">
+        <v>24490000</v>
+      </c>
+      <c r="E1318" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1318" s="10">
+        <f t="shared" si="86"/>
+        <v>24590000</v>
+      </c>
+      <c r="G1318" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1319" s="1">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>517000</v>
+      </c>
+      <c r="C1319" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1319" s="1">
+        <v>24590000</v>
+      </c>
+      <c r="E1319" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1319" s="4">
+        <v>23090008</v>
+      </c>
+      <c r="G1319" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1320" s="1">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>518000</v>
+      </c>
+      <c r="C1320" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1320" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1320" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1320" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1320" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1321" s="1">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>519000</v>
+      </c>
+      <c r="C1321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1321" s="1">
+        <v>24790000</v>
+      </c>
+      <c r="E1321" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1321" s="4">
+        <v>23090009</v>
+      </c>
+      <c r="G1321" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1322" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>520000</v>
+      </c>
+      <c r="C1322" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1322" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1322" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1322" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1322" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1323" s="1">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>521000</v>
+      </c>
+      <c r="C1323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1323" s="1">
+        <v>24990000</v>
+      </c>
+      <c r="E1323" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1323" s="4">
+        <v>23090010</v>
+      </c>
+      <c r="G1323" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1324" s="1">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>522000</v>
+      </c>
+      <c r="C1324" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1324" s="1">
+        <v>25090000</v>
+      </c>
+      <c r="E1324" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1324" s="10">
+        <f t="shared" ref="F1324:F1387" si="87">D1324+100000</f>
+        <v>25190000</v>
+      </c>
+      <c r="G1324" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1325" s="1">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>523000</v>
+      </c>
+      <c r="C1325" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1325" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1325" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1325" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1325" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1326" s="1">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>524000</v>
+      </c>
+      <c r="C1326" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1326" s="1">
+        <v>25290000</v>
+      </c>
+      <c r="E1326" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1326" s="10">
+        <f t="shared" si="87"/>
+        <v>25390000</v>
+      </c>
+      <c r="G1326" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1327" s="1">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>525000</v>
+      </c>
+      <c r="C1327" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1327" s="1">
+        <v>25390000</v>
+      </c>
+      <c r="E1327" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1327" s="4">
+        <v>23090012</v>
+      </c>
+      <c r="G1327" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1328" s="1">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>526000</v>
+      </c>
+      <c r="C1328" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1328" s="1">
+        <v>25490000</v>
+      </c>
+      <c r="E1328" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1328" s="10">
+        <f t="shared" si="87"/>
+        <v>25590000</v>
+      </c>
+      <c r="G1328" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1329" s="1">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>527000</v>
+      </c>
+      <c r="C1329" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1329" s="1">
+        <v>25590000</v>
+      </c>
+      <c r="E1329" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1329" s="4">
+        <v>23090013</v>
+      </c>
+      <c r="G1329" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1330" s="1">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>528000</v>
+      </c>
+      <c r="C1330" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1330" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1330" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1330" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1330" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1331" s="1">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>529000</v>
+      </c>
+      <c r="C1331" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1331" s="1">
+        <v>25790000</v>
+      </c>
+      <c r="E1331" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1331" s="4">
+        <v>23090014</v>
+      </c>
+      <c r="G1331" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1332" s="1">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>530000</v>
+      </c>
+      <c r="C1332" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1332" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1332" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1332" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1332" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1333" s="1">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>531000</v>
+      </c>
+      <c r="C1333" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1333" s="1">
+        <v>25990000</v>
+      </c>
+      <c r="E1333" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1333" s="4">
+        <v>23090015</v>
+      </c>
+      <c r="G1333" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1334" s="1">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>532000</v>
+      </c>
+      <c r="C1334" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1334" s="1">
+        <v>26090000</v>
+      </c>
+      <c r="E1334" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1334" s="10">
+        <f t="shared" si="87"/>
+        <v>26190000</v>
+      </c>
+      <c r="G1334" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1335" s="1">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>533000</v>
+      </c>
+      <c r="C1335" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1335" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1335" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1335" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1335" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1336" s="1">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>534000</v>
+      </c>
+      <c r="C1336" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1336" s="1">
+        <v>26290000</v>
+      </c>
+      <c r="E1336" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1336" s="10">
+        <f t="shared" si="87"/>
+        <v>26390000</v>
+      </c>
+      <c r="G1336" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1337" s="1">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>535000</v>
+      </c>
+      <c r="C1337" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1337" s="1">
+        <v>26390000</v>
+      </c>
+      <c r="E1337" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1337" s="4">
+        <v>23090017</v>
+      </c>
+      <c r="G1337" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1338" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>536000</v>
+      </c>
+      <c r="C1338" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1338" s="1">
+        <v>26490000</v>
+      </c>
+      <c r="E1338" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1338" s="10">
+        <f t="shared" si="87"/>
+        <v>26590000</v>
+      </c>
+      <c r="G1338" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1339" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>537000</v>
+      </c>
+      <c r="C1339" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1339" s="1">
+        <v>26590000</v>
+      </c>
+      <c r="E1339" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1339" s="4">
+        <v>23090018</v>
+      </c>
+      <c r="G1339" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1340" s="1">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>538000</v>
+      </c>
+      <c r="C1340" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1340" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1340" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1340" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1341" s="1">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>539000</v>
+      </c>
+      <c r="C1341" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1341" s="1">
+        <v>26790000</v>
+      </c>
+      <c r="E1341" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1341" s="4">
+        <v>23090019</v>
+      </c>
+      <c r="G1341" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1342" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>540000</v>
+      </c>
+      <c r="C1342" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1342" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1342" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1342" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1342" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1343" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>541000</v>
+      </c>
+      <c r="C1343" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1343" s="1">
+        <v>26990000</v>
+      </c>
+      <c r="E1343" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1343" s="4">
+        <v>23090020</v>
+      </c>
+      <c r="G1343" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1344" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>542000</v>
+      </c>
+      <c r="C1344" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1344" s="1">
+        <v>27090000</v>
+      </c>
+      <c r="E1344" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1344" s="10">
+        <f t="shared" si="87"/>
+        <v>27190000</v>
+      </c>
+      <c r="G1344" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1345" s="1">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>543000</v>
+      </c>
+      <c r="C1345" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1345" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1345" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1345" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1346" s="1">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>544000</v>
+      </c>
+      <c r="C1346" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1346" s="1">
+        <v>27290000</v>
+      </c>
+      <c r="E1346" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1346" s="10">
+        <f t="shared" si="87"/>
+        <v>27390000</v>
+      </c>
+      <c r="G1346" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1347" s="1">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>545000</v>
+      </c>
+      <c r="C1347" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1347" s="1">
+        <v>27390000</v>
+      </c>
+      <c r="E1347" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1347" s="4">
+        <v>23090022</v>
+      </c>
+      <c r="G1347" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1348" s="1">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>546000</v>
+      </c>
+      <c r="C1348" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1348" s="1">
+        <v>27490000</v>
+      </c>
+      <c r="E1348" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1348" s="10">
+        <f t="shared" si="87"/>
+        <v>27590000</v>
+      </c>
+      <c r="G1348" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1349" s="1">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>547000</v>
+      </c>
+      <c r="C1349" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1349" s="1">
+        <v>27590000</v>
+      </c>
+      <c r="E1349" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1349" s="4">
+        <v>23090023</v>
+      </c>
+      <c r="G1349" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1350" s="1">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>548000</v>
+      </c>
+      <c r="C1350" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1350" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1350" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1350" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1351" s="1">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>549000</v>
+      </c>
+      <c r="C1351" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1351" s="1">
+        <v>27790000</v>
+      </c>
+      <c r="E1351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1351" s="4">
+        <v>23090024</v>
+      </c>
+      <c r="G1351" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1352" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>550000</v>
+      </c>
+      <c r="C1352" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1352" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1352" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1352" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1352" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1353" s="1">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>551000</v>
+      </c>
+      <c r="C1353" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1353" s="1">
+        <v>27990000</v>
+      </c>
+      <c r="E1353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1353" s="4">
+        <v>23090025</v>
+      </c>
+      <c r="G1353" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1354" s="1">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>552000</v>
+      </c>
+      <c r="C1354" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1354" s="1">
+        <v>28090000</v>
+      </c>
+      <c r="E1354" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1354" s="10">
+        <f t="shared" si="87"/>
+        <v>28190000</v>
+      </c>
+      <c r="G1354" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>553000</v>
+      </c>
+      <c r="C1355" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1355" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1355" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1355" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>554000</v>
+      </c>
+      <c r="C1356" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1356" s="1">
+        <v>28290000</v>
+      </c>
+      <c r="E1356" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1356" s="10">
+        <f t="shared" si="87"/>
+        <v>28390000</v>
+      </c>
+      <c r="G1356" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>555000</v>
+      </c>
+      <c r="C1357" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1357" s="1">
+        <v>28390000</v>
+      </c>
+      <c r="E1357" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1357" s="4">
+        <v>23090027</v>
+      </c>
+      <c r="G1357" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>556000</v>
+      </c>
+      <c r="C1358" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1358" s="1">
+        <v>28490000</v>
+      </c>
+      <c r="E1358" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1358" s="10">
+        <f t="shared" si="87"/>
+        <v>28590000</v>
+      </c>
+      <c r="G1358" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>557000</v>
+      </c>
+      <c r="C1359" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1359" s="1">
+        <v>28590000</v>
+      </c>
+      <c r="E1359" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1359" s="4">
+        <v>23090028</v>
+      </c>
+      <c r="G1359" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>558000</v>
+      </c>
+      <c r="C1360" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1360" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1360" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1360" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>559000</v>
+      </c>
+      <c r="C1361" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1361" s="1">
+        <v>28790000</v>
+      </c>
+      <c r="E1361" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1361" s="4">
+        <v>23090029</v>
+      </c>
+      <c r="G1361" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1362" s="1">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>560000</v>
+      </c>
+      <c r="C1362" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1362" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1362" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1362" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1362" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1363" s="1">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>561000</v>
+      </c>
+      <c r="C1363" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1363" s="1">
+        <v>28990000</v>
+      </c>
+      <c r="E1363" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1363" s="4">
+        <v>23090030</v>
+      </c>
+      <c r="G1363" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1364" s="1">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>562000</v>
+      </c>
+      <c r="C1364" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1364" s="1">
+        <v>29090000</v>
+      </c>
+      <c r="E1364" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1364" s="10">
+        <f t="shared" si="87"/>
+        <v>29190000</v>
+      </c>
+      <c r="G1364" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1365" s="1">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>563000</v>
+      </c>
+      <c r="C1365" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1365" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1365" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1365" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1365" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1366" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>564000</v>
+      </c>
+      <c r="C1366" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1366" s="1">
+        <v>29290000</v>
+      </c>
+      <c r="E1366" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1366" s="10">
+        <f t="shared" si="87"/>
+        <v>29390000</v>
+      </c>
+      <c r="G1366" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>565000</v>
+      </c>
+      <c r="C1367" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1367" s="1">
+        <v>29390000</v>
+      </c>
+      <c r="E1367" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1367" s="4">
+        <v>23090032</v>
+      </c>
+      <c r="G1367" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>566000</v>
+      </c>
+      <c r="C1368" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1368" s="1">
+        <v>29490000</v>
+      </c>
+      <c r="E1368" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1368" s="10">
+        <f t="shared" si="87"/>
+        <v>29590000</v>
+      </c>
+      <c r="G1368" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>567000</v>
+      </c>
+      <c r="C1369" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1369" s="1">
+        <v>29590000</v>
+      </c>
+      <c r="E1369" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1369" s="4">
+        <v>23090033</v>
+      </c>
+      <c r="G1369" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>568000</v>
+      </c>
+      <c r="C1370" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1370" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1370" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1370" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1370" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1371" s="1">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>569000</v>
+      </c>
+      <c r="C1371" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1371" s="1">
+        <v>29790000</v>
+      </c>
+      <c r="E1371" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1371" s="4">
+        <v>23090034</v>
+      </c>
+      <c r="G1371" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1372" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>570000</v>
+      </c>
+      <c r="C1372" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1372" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1372" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1372" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1372" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1373" s="1">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>571000</v>
+      </c>
+      <c r="C1373" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1373" s="1">
+        <v>29990000</v>
+      </c>
+      <c r="E1373" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1373" s="4">
+        <v>23090035</v>
+      </c>
+      <c r="G1373" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1374" s="1">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>572000</v>
+      </c>
+      <c r="C1374" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1374" s="1">
+        <v>30090000</v>
+      </c>
+      <c r="E1374" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1374" s="10">
+        <f t="shared" si="87"/>
+        <v>30190000</v>
+      </c>
+      <c r="G1374" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1375" s="1">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>573000</v>
+      </c>
+      <c r="C1375" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1375" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1375" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1375" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1375" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1376" s="1">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>574000</v>
+      </c>
+      <c r="C1376" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1376" s="1">
+        <v>30290000</v>
+      </c>
+      <c r="E1376" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1376" s="10">
+        <f t="shared" si="87"/>
+        <v>30390000</v>
+      </c>
+      <c r="G1376" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1377" s="1">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>575000</v>
+      </c>
+      <c r="C1377" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1377" s="1">
+        <v>30390000</v>
+      </c>
+      <c r="E1377" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1377" s="4">
+        <v>23090037</v>
+      </c>
+      <c r="G1377" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1378" s="1">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>576000</v>
+      </c>
+      <c r="C1378" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1378" s="1">
+        <v>30490000</v>
+      </c>
+      <c r="E1378" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1378" s="10">
+        <f t="shared" si="87"/>
+        <v>30590000</v>
+      </c>
+      <c r="G1378" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1379" s="1">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>577000</v>
+      </c>
+      <c r="C1379" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1379" s="1">
+        <v>30590000</v>
+      </c>
+      <c r="E1379" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1379" s="4">
+        <v>23090038</v>
+      </c>
+      <c r="G1379" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1380" s="1">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>578000</v>
+      </c>
+      <c r="C1380" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1380" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1380" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1380" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1380" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1381" s="1">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>579000</v>
+      </c>
+      <c r="C1381" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1381" s="1">
+        <v>30790000</v>
+      </c>
+      <c r="E1381" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1381" s="4">
+        <v>23090039</v>
+      </c>
+      <c r="G1381" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1382" s="1">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>580000</v>
+      </c>
+      <c r="C1382" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1382" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1382" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1382" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1382" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1383" s="1">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>581000</v>
+      </c>
+      <c r="C1383" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1383" s="1">
+        <v>30990000</v>
+      </c>
+      <c r="E1383" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1383" s="4">
+        <v>23090040</v>
+      </c>
+      <c r="G1383" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1384" s="1">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>582000</v>
+      </c>
+      <c r="C1384" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1384" s="1">
+        <v>31090000</v>
+      </c>
+      <c r="E1384" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1384" s="10">
+        <f t="shared" si="87"/>
+        <v>31190000</v>
+      </c>
+      <c r="G1384" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1385" s="1">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>583000</v>
+      </c>
+      <c r="C1385" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1385" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1385" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1385" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1385" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1386" s="1">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>584000</v>
+      </c>
+      <c r="C1386" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1386" s="1">
+        <v>31290000</v>
+      </c>
+      <c r="E1386" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1386" s="10">
+        <f t="shared" si="87"/>
+        <v>31390000</v>
+      </c>
+      <c r="G1386" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1387" s="1">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>585000</v>
+      </c>
+      <c r="C1387" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1387" s="1">
+        <v>31390000</v>
+      </c>
+      <c r="E1387" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1387" s="4">
+        <v>23090042</v>
+      </c>
+      <c r="G1387" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1388" s="1">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="1">
+        <v>586000</v>
+      </c>
+      <c r="C1388" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1388" s="1">
+        <v>31490000</v>
+      </c>
+      <c r="E1388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1388" s="10">
+        <f t="shared" ref="F1388:F1402" si="88">D1388+100000</f>
+        <v>31590000</v>
+      </c>
+      <c r="G1388" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1389" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="1">
+        <v>587000</v>
+      </c>
+      <c r="C1389" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1389" s="1">
+        <v>31590000</v>
+      </c>
+      <c r="E1389" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1389" s="4">
+        <v>23090043</v>
+      </c>
+      <c r="G1389" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1390" s="1">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="1">
+        <v>588000</v>
+      </c>
+      <c r="C1390" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1390" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1390" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1390" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1390" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1391" s="1">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="1">
+        <v>589000</v>
+      </c>
+      <c r="C1391" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1391" s="1">
+        <v>31790000</v>
+      </c>
+      <c r="E1391" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1391" s="4">
+        <v>23090044</v>
+      </c>
+      <c r="G1391" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1392" s="1">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="1">
+        <v>590000</v>
+      </c>
+      <c r="C1392" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1392" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1392" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1392" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1392" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1393" s="1">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="1">
+        <v>591000</v>
+      </c>
+      <c r="C1393" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1393" s="1">
+        <v>31990000</v>
+      </c>
+      <c r="E1393" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1393" s="4">
+        <v>23090045</v>
+      </c>
+      <c r="G1393" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1394" s="1">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="1">
+        <v>592000</v>
+      </c>
+      <c r="C1394" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1394" s="1">
+        <v>32090000</v>
+      </c>
+      <c r="E1394" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1394" s="10">
+        <f t="shared" si="88"/>
+        <v>32190000</v>
+      </c>
+      <c r="G1394" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1395" s="1">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="1">
+        <v>593000</v>
+      </c>
+      <c r="C1395" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1395" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1395" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1395" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1395" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1396" s="1">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="1">
+        <v>594000</v>
+      </c>
+      <c r="C1396" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1396" s="1">
+        <v>32290000</v>
+      </c>
+      <c r="E1396" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1396" s="10">
+        <f t="shared" si="88"/>
+        <v>32390000</v>
+      </c>
+      <c r="G1396" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1397" s="1">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="1">
+        <v>595000</v>
+      </c>
+      <c r="C1397" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1397" s="1">
+        <v>32390000</v>
+      </c>
+      <c r="E1397" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1397" s="4">
+        <v>23090047</v>
+      </c>
+      <c r="G1397" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1398" s="1">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="1">
+        <v>596000</v>
+      </c>
+      <c r="C1398" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1398" s="1">
+        <v>32490000</v>
+      </c>
+      <c r="E1398" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1398" s="10">
+        <f t="shared" si="88"/>
+        <v>32590000</v>
+      </c>
+      <c r="G1398" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1399" s="1">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>597000</v>
+      </c>
+      <c r="C1399" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1399" s="1">
+        <v>32590000</v>
+      </c>
+      <c r="E1399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1399" s="4">
+        <v>23090048</v>
+      </c>
+      <c r="G1399" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1400" s="1">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="1">
+        <v>598000</v>
+      </c>
+      <c r="C1400" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1400" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E1400" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1400" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G1400" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1401" s="1">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="1">
+        <v>599000</v>
+      </c>
+      <c r="C1401" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1401" s="1">
+        <v>32790000</v>
+      </c>
+      <c r="E1401" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1401" s="4">
+        <v>23090049</v>
+      </c>
+      <c r="G1401" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1402" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="1">
+        <v>600000</v>
+      </c>
+      <c r="C1402" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1402" s="1">
+        <v>25</v>
+      </c>
+      <c r="E1402" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1402" s="10">
+        <v>25</v>
+      </c>
+      <c r="G1402" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E65EDF-6786-4BC8-9D2A-FCFC2175A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD662AA8-AAD8-4A96-90E8-39026B957383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2265" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -104,6 +104,13 @@
   </si>
   <si>
     <t>wrongBefore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass10</t>
+  </si>
+  <si>
+    <t>levelpass10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,11 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I1402"/>
+  <dimension ref="A1:I1502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1299" sqref="N1299"/>
+      <pane ySplit="1" topLeftCell="A1449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1495" sqref="M1494:M1495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41989,7 +41996,7 @@
       </c>
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1402" s="1">
+      <c r="A1402" s="2">
         <v>1400</v>
       </c>
       <c r="B1402" s="1">
@@ -42011,9 +42018,2979 @@
         <v>8</v>
       </c>
       <c r="H1402" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1403" s="1">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="1">
+        <v>601000</v>
+      </c>
+      <c r="C1403" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1403" s="1">
+        <v>32990000</v>
+      </c>
+      <c r="E1403" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1403" s="4">
+        <f>D1403+100000</f>
+        <v>33090000</v>
+      </c>
+      <c r="G1403" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1403" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1404" s="1">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="1">
+        <v>602000</v>
+      </c>
+      <c r="C1404" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1404" s="1">
+        <v>33090000</v>
+      </c>
+      <c r="E1404" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1404" s="4">
+        <f t="shared" ref="F1404:F1467" si="103">D1404+100000</f>
+        <v>33190000</v>
+      </c>
+      <c r="G1404" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1404" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1405" s="1">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="1">
+        <v>603000</v>
+      </c>
+      <c r="C1405" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1405" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1405" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1405" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1405" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1405" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1406" s="1">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="1">
+        <v>604000</v>
+      </c>
+      <c r="C1406" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1406" s="1">
+        <v>33290000</v>
+      </c>
+      <c r="E1406" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1406" s="4">
+        <f>D1406+100000</f>
+        <v>33390000</v>
+      </c>
+      <c r="G1406" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1406" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1407" s="1">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="1">
+        <v>605000</v>
+      </c>
+      <c r="C1407" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1407" s="1">
+        <v>33390000</v>
+      </c>
+      <c r="E1407" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1407" s="4">
+        <f t="shared" si="103"/>
+        <v>33490000</v>
+      </c>
+      <c r="G1407" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1407" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1408" s="1">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>606000</v>
+      </c>
+      <c r="C1408" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1408" s="1">
+        <v>33490000</v>
+      </c>
+      <c r="E1408" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1408" s="4">
+        <f t="shared" si="103"/>
+        <v>33590000</v>
+      </c>
+      <c r="G1408" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1408" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1409" s="1">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>607000</v>
+      </c>
+      <c r="C1409" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1409" s="1">
+        <v>33590000</v>
+      </c>
+      <c r="E1409" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1409" s="4">
+        <f t="shared" si="103"/>
+        <v>33690000</v>
+      </c>
+      <c r="G1409" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1409" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1410" s="1">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>608000</v>
+      </c>
+      <c r="C1410" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1410" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1410" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1410" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1410" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1411" s="1">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>609000</v>
+      </c>
+      <c r="C1411" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1411" s="1">
+        <v>33790000</v>
+      </c>
+      <c r="E1411" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1411" s="4">
+        <f t="shared" si="103"/>
+        <v>33890000</v>
+      </c>
+      <c r="G1411" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1411" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1412" s="1">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>610000</v>
+      </c>
+      <c r="C1412" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1412" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1412" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1412" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1412" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1412" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1413" s="1">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>611000</v>
+      </c>
+      <c r="C1413" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1413" s="1">
+        <v>33990000</v>
+      </c>
+      <c r="E1413" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1413" s="4">
+        <f t="shared" si="103"/>
+        <v>34090000</v>
+      </c>
+      <c r="G1413" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1413" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1414" s="1">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>612000</v>
+      </c>
+      <c r="C1414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1414" s="1">
+        <v>34090000</v>
+      </c>
+      <c r="E1414" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1414" s="4">
+        <f t="shared" si="103"/>
+        <v>34190000</v>
+      </c>
+      <c r="G1414" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1415" s="1">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>613000</v>
+      </c>
+      <c r="C1415" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1415" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1415" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1415" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1415" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1415" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1416" s="1">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>614000</v>
+      </c>
+      <c r="C1416" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1416" s="1">
+        <v>34290000</v>
+      </c>
+      <c r="E1416" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1416" s="4">
+        <f t="shared" si="103"/>
+        <v>34390000</v>
+      </c>
+      <c r="G1416" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1417" s="1">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>615000</v>
+      </c>
+      <c r="C1417" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1417" s="1">
+        <v>34390000</v>
+      </c>
+      <c r="E1417" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1417" s="4">
+        <f t="shared" si="103"/>
+        <v>34490000</v>
+      </c>
+      <c r="G1417" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1417" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1418" s="1">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>616000</v>
+      </c>
+      <c r="C1418" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1418" s="1">
+        <v>34490000</v>
+      </c>
+      <c r="E1418" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1418" s="4">
+        <f t="shared" si="103"/>
+        <v>34590000</v>
+      </c>
+      <c r="G1418" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1419" s="1">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>617000</v>
+      </c>
+      <c r="C1419" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1419" s="1">
+        <v>34590000</v>
+      </c>
+      <c r="E1419" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1419" s="4">
+        <f t="shared" si="103"/>
+        <v>34690000</v>
+      </c>
+      <c r="G1419" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1419" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1420" s="1">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>618000</v>
+      </c>
+      <c r="C1420" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1420" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1420" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1420" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1420" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1421" s="1">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>619000</v>
+      </c>
+      <c r="C1421" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1421" s="1">
+        <v>34790000</v>
+      </c>
+      <c r="E1421" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1421" s="4">
+        <f t="shared" si="103"/>
+        <v>34890000</v>
+      </c>
+      <c r="G1421" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1421" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1422" s="1">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>620000</v>
+      </c>
+      <c r="C1422" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1422" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1422" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1422" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1422" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1423" s="1">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>621000</v>
+      </c>
+      <c r="C1423" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1423" s="1">
+        <v>34990000</v>
+      </c>
+      <c r="E1423" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1423" s="4">
+        <f t="shared" si="103"/>
+        <v>35090000</v>
+      </c>
+      <c r="G1423" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1423" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1424" s="1">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>622000</v>
+      </c>
+      <c r="C1424" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1424" s="1">
+        <v>35090000</v>
+      </c>
+      <c r="E1424" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1424" s="4">
+        <f t="shared" si="103"/>
+        <v>35190000</v>
+      </c>
+      <c r="G1424" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1424" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1425" s="1">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>623000</v>
+      </c>
+      <c r="C1425" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1425" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1425" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1425" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1425" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1425" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1426" s="1">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>624000</v>
+      </c>
+      <c r="C1426" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1426" s="1">
+        <v>35290000</v>
+      </c>
+      <c r="E1426" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1426" s="4">
+        <f t="shared" si="103"/>
+        <v>35390000</v>
+      </c>
+      <c r="G1426" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1426" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1427" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>625000</v>
+      </c>
+      <c r="C1427" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1427" s="1">
+        <v>35390000</v>
+      </c>
+      <c r="E1427" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1427" s="4">
+        <f t="shared" si="103"/>
+        <v>35490000</v>
+      </c>
+      <c r="G1427" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1427" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1428" s="1">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>626000</v>
+      </c>
+      <c r="C1428" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1428" s="1">
+        <v>35490000</v>
+      </c>
+      <c r="E1428" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1428" s="4">
+        <f t="shared" si="103"/>
+        <v>35590000</v>
+      </c>
+      <c r="G1428" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1428" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1429" s="1">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>627000</v>
+      </c>
+      <c r="C1429" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1429" s="1">
+        <v>35590000</v>
+      </c>
+      <c r="E1429" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1429" s="4">
+        <f t="shared" si="103"/>
+        <v>35690000</v>
+      </c>
+      <c r="G1429" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1429" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1430" s="1">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>628000</v>
+      </c>
+      <c r="C1430" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1430" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1430" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1430" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1430" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1431" s="1">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>629000</v>
+      </c>
+      <c r="C1431" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1431" s="1">
+        <v>35790000</v>
+      </c>
+      <c r="E1431" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1431" s="4">
+        <f t="shared" si="103"/>
+        <v>35890000</v>
+      </c>
+      <c r="G1431" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1431" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1432" s="1">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>630000</v>
+      </c>
+      <c r="C1432" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1432" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1432" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1432" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1432" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1433" s="1">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>631000</v>
+      </c>
+      <c r="C1433" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1433" s="1">
+        <v>35990000</v>
+      </c>
+      <c r="E1433" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1433" s="4">
+        <f t="shared" si="103"/>
+        <v>36090000</v>
+      </c>
+      <c r="G1433" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1433" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1434" s="1">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>632000</v>
+      </c>
+      <c r="C1434" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1434" s="1">
+        <v>36090000</v>
+      </c>
+      <c r="E1434" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1434" s="4">
+        <f t="shared" si="103"/>
+        <v>36190000</v>
+      </c>
+      <c r="G1434" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1435" s="1">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>633000</v>
+      </c>
+      <c r="C1435" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1435" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1435" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1435" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1435" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1435" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1436" s="1">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>634000</v>
+      </c>
+      <c r="C1436" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1436" s="1">
+        <v>36290000</v>
+      </c>
+      <c r="E1436" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1436" s="4">
+        <f t="shared" si="103"/>
+        <v>36390000</v>
+      </c>
+      <c r="G1436" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1437" s="1">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>635000</v>
+      </c>
+      <c r="C1437" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1437" s="1">
+        <v>36390000</v>
+      </c>
+      <c r="E1437" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1437" s="4">
+        <f t="shared" si="103"/>
+        <v>36490000</v>
+      </c>
+      <c r="G1437" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1437" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1438" s="1">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>636000</v>
+      </c>
+      <c r="C1438" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1438" s="1">
+        <v>36490000</v>
+      </c>
+      <c r="E1438" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1438" s="4">
+        <f t="shared" si="103"/>
+        <v>36590000</v>
+      </c>
+      <c r="G1438" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1439" s="1">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>637000</v>
+      </c>
+      <c r="C1439" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1439" s="1">
+        <v>36590000</v>
+      </c>
+      <c r="E1439" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1439" s="4">
+        <f t="shared" si="103"/>
+        <v>36690000</v>
+      </c>
+      <c r="G1439" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1439" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1440" s="1">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>638000</v>
+      </c>
+      <c r="C1440" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1440" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1440" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1440" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1440" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1440" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1441" s="1">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>639000</v>
+      </c>
+      <c r="C1441" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1441" s="1">
+        <v>36790000</v>
+      </c>
+      <c r="E1441" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1441" s="4">
+        <f t="shared" si="103"/>
+        <v>36890000</v>
+      </c>
+      <c r="G1441" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1441" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1442" s="1">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>640000</v>
+      </c>
+      <c r="C1442" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1442" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1442" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1442" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1442" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1443" s="1">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>641000</v>
+      </c>
+      <c r="C1443" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1443" s="1">
+        <v>36990000</v>
+      </c>
+      <c r="E1443" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1443" s="4">
+        <f t="shared" si="103"/>
+        <v>37090000</v>
+      </c>
+      <c r="G1443" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1443" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1444" s="1">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>642000</v>
+      </c>
+      <c r="C1444" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1444" s="1">
+        <v>37090000</v>
+      </c>
+      <c r="E1444" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1444" s="4">
+        <f t="shared" si="103"/>
+        <v>37190000</v>
+      </c>
+      <c r="G1444" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1444" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1445" s="1">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>643000</v>
+      </c>
+      <c r="C1445" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1445" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1445" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1445" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1445" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1445" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1446" s="1">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>644000</v>
+      </c>
+      <c r="C1446" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1446" s="1">
+        <v>37290000</v>
+      </c>
+      <c r="E1446" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1446" s="4">
+        <f t="shared" si="103"/>
+        <v>37390000</v>
+      </c>
+      <c r="G1446" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1447" s="1">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>645000</v>
+      </c>
+      <c r="C1447" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1447" s="1">
+        <v>37390000</v>
+      </c>
+      <c r="E1447" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1447" s="4">
+        <f t="shared" si="103"/>
+        <v>37490000</v>
+      </c>
+      <c r="G1447" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1447" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1448" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>646000</v>
+      </c>
+      <c r="C1448" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1448" s="1">
+        <v>37490000</v>
+      </c>
+      <c r="E1448" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1448" s="4">
+        <f t="shared" si="103"/>
+        <v>37590000</v>
+      </c>
+      <c r="G1448" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1448" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1449" s="1">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>647000</v>
+      </c>
+      <c r="C1449" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1449" s="1">
+        <v>37590000</v>
+      </c>
+      <c r="E1449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1449" s="4">
+        <f t="shared" si="103"/>
+        <v>37690000</v>
+      </c>
+      <c r="G1449" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1449" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1450" s="1">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>648000</v>
+      </c>
+      <c r="C1450" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1450" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1450" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1450" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1450" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1450" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1451" s="1">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>649000</v>
+      </c>
+      <c r="C1451" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1451" s="1">
+        <v>37790000</v>
+      </c>
+      <c r="E1451" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1451" s="4">
+        <f t="shared" si="103"/>
+        <v>37890000</v>
+      </c>
+      <c r="G1451" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1451" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1452" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>650000</v>
+      </c>
+      <c r="C1452" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1452" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1452" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1452" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1452" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1452" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1453" s="1">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>651000</v>
+      </c>
+      <c r="C1453" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1453" s="1">
+        <v>37990000</v>
+      </c>
+      <c r="E1453" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1453" s="4">
+        <f t="shared" si="103"/>
+        <v>38090000</v>
+      </c>
+      <c r="G1453" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1453" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1454" s="1">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>652000</v>
+      </c>
+      <c r="C1454" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1454" s="1">
+        <v>38090000</v>
+      </c>
+      <c r="E1454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1454" s="4">
+        <f t="shared" si="103"/>
+        <v>38190000</v>
+      </c>
+      <c r="G1454" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1455" s="1">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>653000</v>
+      </c>
+      <c r="C1455" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1455" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1455" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1455" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1455" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1455" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1456" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>654000</v>
+      </c>
+      <c r="C1456" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1456" s="1">
+        <v>38290000</v>
+      </c>
+      <c r="E1456" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1456" s="4">
+        <f t="shared" si="103"/>
+        <v>38390000</v>
+      </c>
+      <c r="G1456" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1457" s="1">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>655000</v>
+      </c>
+      <c r="C1457" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>38390000</v>
+      </c>
+      <c r="E1457" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1457" s="4">
+        <f t="shared" si="103"/>
+        <v>38490000</v>
+      </c>
+      <c r="G1457" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1457" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1458" s="1">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>656000</v>
+      </c>
+      <c r="C1458" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1458" s="1">
+        <v>38490000</v>
+      </c>
+      <c r="E1458" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1458" s="4">
+        <f t="shared" si="103"/>
+        <v>38590000</v>
+      </c>
+      <c r="G1458" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1459" s="1">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>657000</v>
+      </c>
+      <c r="C1459" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1459" s="1">
+        <v>38590000</v>
+      </c>
+      <c r="E1459" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1459" s="4">
+        <f t="shared" si="103"/>
+        <v>38690000</v>
+      </c>
+      <c r="G1459" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1459" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1460" s="1">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>658000</v>
+      </c>
+      <c r="C1460" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1460" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1460" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1460" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1460" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1460" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1461" s="1">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>659000</v>
+      </c>
+      <c r="C1461" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1461" s="1">
+        <v>38790000</v>
+      </c>
+      <c r="E1461" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1461" s="4">
+        <f t="shared" si="103"/>
+        <v>38890000</v>
+      </c>
+      <c r="G1461" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1461" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1462" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>660000</v>
+      </c>
+      <c r="C1462" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1462" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1462" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1462" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1462" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1462" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1463" s="1">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>661000</v>
+      </c>
+      <c r="C1463" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>38990000</v>
+      </c>
+      <c r="E1463" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1463" s="4">
+        <f t="shared" si="103"/>
+        <v>39090000</v>
+      </c>
+      <c r="G1463" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1463" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1464" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>662000</v>
+      </c>
+      <c r="C1464" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>39090000</v>
+      </c>
+      <c r="E1464" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1464" s="4">
+        <f t="shared" si="103"/>
+        <v>39190000</v>
+      </c>
+      <c r="G1464" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1464" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1465" s="1">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>663000</v>
+      </c>
+      <c r="C1465" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1465" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1465" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1465" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1465" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1465" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1466" s="1">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>664000</v>
+      </c>
+      <c r="C1466" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1466" s="1">
+        <v>39290000</v>
+      </c>
+      <c r="E1466" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1466" s="4">
+        <f t="shared" si="103"/>
+        <v>39390000</v>
+      </c>
+      <c r="G1466" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1466" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1467" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>665000</v>
+      </c>
+      <c r="C1467" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1467" s="1">
+        <v>39390000</v>
+      </c>
+      <c r="E1467" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1467" s="4">
+        <f t="shared" si="103"/>
+        <v>39490000</v>
+      </c>
+      <c r="G1467" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1467" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1468" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>666000</v>
+      </c>
+      <c r="C1468" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1468" s="1">
+        <v>39490000</v>
+      </c>
+      <c r="E1468" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1468" s="4">
+        <f t="shared" ref="F1468:F1501" si="104">D1468+100000</f>
+        <v>39590000</v>
+      </c>
+      <c r="G1468" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1468" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1469" s="1">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>667000</v>
+      </c>
+      <c r="C1469" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1469" s="1">
+        <v>39590000</v>
+      </c>
+      <c r="E1469" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1469" s="4">
+        <f t="shared" si="104"/>
+        <v>39690000</v>
+      </c>
+      <c r="G1469" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1469" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1470" s="1">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>668000</v>
+      </c>
+      <c r="C1470" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1470" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1470" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1470" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1470" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1471" s="1">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>669000</v>
+      </c>
+      <c r="C1471" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1471" s="1">
+        <v>39790000</v>
+      </c>
+      <c r="E1471" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1471" s="4">
+        <f t="shared" si="104"/>
+        <v>39890000</v>
+      </c>
+      <c r="G1471" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1471" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1472" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>670000</v>
+      </c>
+      <c r="C1472" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1472" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1472" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1472" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1472" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1472" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1473" s="1">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>671000</v>
+      </c>
+      <c r="C1473" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1473" s="1">
+        <v>39990000</v>
+      </c>
+      <c r="E1473" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1473" s="4">
+        <f t="shared" si="104"/>
+        <v>40090000</v>
+      </c>
+      <c r="G1473" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1473" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1474" s="1">
+        <v>1472</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>672000</v>
+      </c>
+      <c r="C1474" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1474" s="1">
+        <v>40090000</v>
+      </c>
+      <c r="E1474" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1474" s="4">
+        <f t="shared" si="104"/>
+        <v>40190000</v>
+      </c>
+      <c r="G1474" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1474" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1475" s="1">
+        <v>1473</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>673000</v>
+      </c>
+      <c r="C1475" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1475" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1475" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1475" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1475" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1475" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1476" s="1">
+        <v>1474</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>674000</v>
+      </c>
+      <c r="C1476" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1476" s="1">
+        <v>40290000</v>
+      </c>
+      <c r="E1476" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1476" s="4">
+        <f t="shared" si="104"/>
+        <v>40390000</v>
+      </c>
+      <c r="G1476" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1476" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1477" s="1">
+        <v>1475</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>675000</v>
+      </c>
+      <c r="C1477" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1477" s="1">
+        <v>40390000</v>
+      </c>
+      <c r="E1477" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1477" s="4">
+        <f t="shared" si="104"/>
+        <v>40490000</v>
+      </c>
+      <c r="G1477" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1477" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1478" s="1">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>676000</v>
+      </c>
+      <c r="C1478" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1478" s="1">
+        <v>40490000</v>
+      </c>
+      <c r="E1478" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1478" s="4">
+        <f t="shared" si="104"/>
+        <v>40590000</v>
+      </c>
+      <c r="G1478" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1478" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1479" s="1">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>677000</v>
+      </c>
+      <c r="C1479" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1479" s="1">
+        <v>40590000</v>
+      </c>
+      <c r="E1479" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1479" s="4">
+        <f t="shared" si="104"/>
+        <v>40690000</v>
+      </c>
+      <c r="G1479" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1479" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1480" s="1">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>678000</v>
+      </c>
+      <c r="C1480" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1480" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1480" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1480" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1480" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1480" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1481" s="1">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>679000</v>
+      </c>
+      <c r="C1481" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1481" s="1">
+        <v>40790000</v>
+      </c>
+      <c r="E1481" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1481" s="4">
+        <f t="shared" si="104"/>
+        <v>40890000</v>
+      </c>
+      <c r="G1481" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1481" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1482" s="1">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>680000</v>
+      </c>
+      <c r="C1482" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1482" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1482" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1482" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1482" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1482" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1483" s="1">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>681000</v>
+      </c>
+      <c r="C1483" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1483" s="1">
+        <v>40990000</v>
+      </c>
+      <c r="E1483" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1483" s="4">
+        <f t="shared" si="104"/>
+        <v>41090000</v>
+      </c>
+      <c r="G1483" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1483" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1484" s="1">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>682000</v>
+      </c>
+      <c r="C1484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1484" s="1">
+        <v>41090000</v>
+      </c>
+      <c r="E1484" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1484" s="4">
+        <f t="shared" si="104"/>
+        <v>41190000</v>
+      </c>
+      <c r="G1484" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1484" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1485" s="1">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>683000</v>
+      </c>
+      <c r="C1485" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1485" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1485" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1485" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1485" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1485" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1486" s="1">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>684000</v>
+      </c>
+      <c r="C1486" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1486" s="1">
+        <v>41290000</v>
+      </c>
+      <c r="E1486" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1486" s="4">
+        <f t="shared" si="104"/>
+        <v>41390000</v>
+      </c>
+      <c r="G1486" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1486" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1487" s="1">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="1">
+        <v>685000</v>
+      </c>
+      <c r="C1487" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1487" s="1">
+        <v>41390000</v>
+      </c>
+      <c r="E1487" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1487" s="4">
+        <f t="shared" si="104"/>
+        <v>41490000</v>
+      </c>
+      <c r="G1487" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1487" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1488" s="1">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="1">
+        <v>686000</v>
+      </c>
+      <c r="C1488" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1488" s="1">
+        <v>41490000</v>
+      </c>
+      <c r="E1488" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1488" s="4">
+        <f t="shared" si="104"/>
+        <v>41590000</v>
+      </c>
+      <c r="G1488" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1488" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1489" s="1">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="1">
+        <v>687000</v>
+      </c>
+      <c r="C1489" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1489" s="1">
+        <v>41590000</v>
+      </c>
+      <c r="E1489" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1489" s="4">
+        <f t="shared" si="104"/>
+        <v>41690000</v>
+      </c>
+      <c r="G1489" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1489" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1490" s="1">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="1">
+        <v>688000</v>
+      </c>
+      <c r="C1490" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1490" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1490" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1490" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1490" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1490" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1491" s="1">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="1">
+        <v>689000</v>
+      </c>
+      <c r="C1491" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1491" s="1">
+        <v>41790000</v>
+      </c>
+      <c r="E1491" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1491" s="4">
+        <f t="shared" si="104"/>
+        <v>41890000</v>
+      </c>
+      <c r="G1491" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1491" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1492" s="1">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="1">
+        <v>690000</v>
+      </c>
+      <c r="C1492" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1492" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1492" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1492" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1492" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1492" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1493" s="1">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="1">
+        <v>691000</v>
+      </c>
+      <c r="C1493" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1493" s="1">
+        <v>41990000</v>
+      </c>
+      <c r="E1493" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1493" s="4">
+        <f t="shared" si="104"/>
+        <v>42090000</v>
+      </c>
+      <c r="G1493" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1493" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1494" s="1">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="1">
+        <v>692000</v>
+      </c>
+      <c r="C1494" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1494" s="1">
+        <v>42090000</v>
+      </c>
+      <c r="E1494" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1494" s="4">
+        <f t="shared" si="104"/>
+        <v>42190000</v>
+      </c>
+      <c r="G1494" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1494" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1495" s="1">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="1">
+        <v>693000</v>
+      </c>
+      <c r="C1495" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1495" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1495" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1495" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1495" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1495" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1496" s="1">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="1">
+        <v>694000</v>
+      </c>
+      <c r="C1496" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1496" s="1">
+        <v>42290000</v>
+      </c>
+      <c r="E1496" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1496" s="4">
+        <f t="shared" si="104"/>
+        <v>42390000</v>
+      </c>
+      <c r="G1496" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1496" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1497" s="1">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="1">
+        <v>695000</v>
+      </c>
+      <c r="C1497" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1497" s="1">
+        <v>42390000</v>
+      </c>
+      <c r="E1497" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1497" s="4">
+        <f t="shared" si="104"/>
+        <v>42490000</v>
+      </c>
+      <c r="G1497" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1497" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1498" s="1">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="1">
+        <v>696000</v>
+      </c>
+      <c r="C1498" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1498" s="1">
+        <v>42490000</v>
+      </c>
+      <c r="E1498" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1498" s="4">
+        <f t="shared" si="104"/>
+        <v>42590000</v>
+      </c>
+      <c r="G1498" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1498" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1499" s="1">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="1">
+        <v>697000</v>
+      </c>
+      <c r="C1499" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1499" s="1">
+        <v>42590000</v>
+      </c>
+      <c r="E1499" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1499" s="4">
+        <f t="shared" si="104"/>
+        <v>42690000</v>
+      </c>
+      <c r="G1499" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1499" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1500" s="1">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="1">
+        <v>698000</v>
+      </c>
+      <c r="C1500" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1500" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1500" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1500" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G1500" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1500" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1501" s="1">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="1">
+        <v>699000</v>
+      </c>
+      <c r="C1501" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1501" s="1">
+        <v>42790000</v>
+      </c>
+      <c r="E1501" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1501" s="4">
+        <f t="shared" si="104"/>
+        <v>42890000</v>
+      </c>
+      <c r="G1501" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1501" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1502" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="1">
+        <v>700000</v>
+      </c>
+      <c r="C1502" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1502" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1502" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1502" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1502" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1502" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD662AA8-AAD8-4A96-90E8-39026B957383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ACA83D-07C0-4F7D-9364-C606B7670DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -111,6 +111,13 @@
   </si>
   <si>
     <t>levelpass10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass11</t>
+  </si>
+  <si>
+    <t>levelpass11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,11 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I1502"/>
+  <dimension ref="A1:I1602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1449" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1495" sqref="M1494:M1495"/>
+      <pane ySplit="1" topLeftCell="A1497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1503" sqref="H1503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,6 +601,7 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -44965,32 +44973,3002 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1502" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1502" s="1">
+    <row r="1502" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="3">
         <v>1500</v>
       </c>
-      <c r="B1502" s="1">
+      <c r="B1502" s="3">
         <v>700000</v>
       </c>
-      <c r="C1502" s="2">
+      <c r="C1502" s="3">
         <v>14</v>
       </c>
-      <c r="D1502" s="1">
+      <c r="D1502" s="3">
         <v>30</v>
       </c>
-      <c r="E1502" s="2">
+      <c r="E1502" s="3">
         <v>14</v>
       </c>
-      <c r="F1502" s="4">
+      <c r="F1502" s="7">
         <v>30</v>
       </c>
-      <c r="G1502" s="1">
+      <c r="G1502" s="3">
         <v>9</v>
       </c>
-      <c r="H1502" t="s">
+      <c r="H1502" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1502" s="1">
+      <c r="I1502" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1503" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>701000</v>
+      </c>
+      <c r="C1503" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1503" s="1">
+        <v>42990000</v>
+      </c>
+      <c r="E1503" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1503" s="4">
+        <f>D1503+100000</f>
+        <v>43090000</v>
+      </c>
+      <c r="G1503" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1503" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1504" s="1">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>702000</v>
+      </c>
+      <c r="C1504" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1504" s="1">
+        <v>43000000</v>
+      </c>
+      <c r="E1504" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1504" s="4">
+        <f t="shared" ref="F1504:F1567" si="105">D1504+100000</f>
+        <v>43100000</v>
+      </c>
+      <c r="G1504" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1504" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1505" s="1">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>703000</v>
+      </c>
+      <c r="C1505" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1505" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1505" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1505" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1505" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1505" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1506" s="1">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>704000</v>
+      </c>
+      <c r="C1506" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1506" s="1">
+        <v>43020000</v>
+      </c>
+      <c r="E1506" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1506" s="4">
+        <f t="shared" si="105"/>
+        <v>43120000</v>
+      </c>
+      <c r="G1506" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1506" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1507" s="1">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>705000</v>
+      </c>
+      <c r="C1507" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1507" s="1">
+        <v>43030000</v>
+      </c>
+      <c r="E1507" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1507" s="4">
+        <f t="shared" si="105"/>
+        <v>43130000</v>
+      </c>
+      <c r="G1507" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1507" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1508" s="1">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>706000</v>
+      </c>
+      <c r="C1508" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1508" s="1">
+        <v>43040000</v>
+      </c>
+      <c r="E1508" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1508" s="4">
+        <f t="shared" si="105"/>
+        <v>43140000</v>
+      </c>
+      <c r="G1508" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1508" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1509" s="1">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>707000</v>
+      </c>
+      <c r="C1509" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1509" s="1">
+        <v>43050000</v>
+      </c>
+      <c r="E1509" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1509" s="4">
+        <f t="shared" si="105"/>
+        <v>43150000</v>
+      </c>
+      <c r="G1509" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1509" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1510" s="1">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>708000</v>
+      </c>
+      <c r="C1510" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1510" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1510" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1510" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1510" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1510" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1511" s="1">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>709000</v>
+      </c>
+      <c r="C1511" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1511" s="1">
+        <v>43070000</v>
+      </c>
+      <c r="E1511" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1511" s="4">
+        <f t="shared" si="105"/>
+        <v>43170000</v>
+      </c>
+      <c r="G1511" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1511" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1512" s="1">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>710000</v>
+      </c>
+      <c r="C1512" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1512" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1512" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1512" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1512" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1512" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1513" s="1">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="1">
+        <v>711000</v>
+      </c>
+      <c r="C1513" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1513" s="1">
+        <v>43090000</v>
+      </c>
+      <c r="E1513" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1513" s="4">
+        <f t="shared" si="105"/>
+        <v>43190000</v>
+      </c>
+      <c r="G1513" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1513" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1514" s="1">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>712000</v>
+      </c>
+      <c r="C1514" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1514" s="1">
+        <v>43100000</v>
+      </c>
+      <c r="E1514" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1514" s="4">
+        <f t="shared" si="105"/>
+        <v>43200000</v>
+      </c>
+      <c r="G1514" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1514" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1515" s="1">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>713000</v>
+      </c>
+      <c r="C1515" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1515" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1515" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1515" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1515" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1515" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1516" s="1">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>714000</v>
+      </c>
+      <c r="C1516" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1516" s="1">
+        <v>43120000</v>
+      </c>
+      <c r="E1516" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1516" s="4">
+        <f t="shared" si="105"/>
+        <v>43220000</v>
+      </c>
+      <c r="G1516" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1516" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1517" s="1">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>715000</v>
+      </c>
+      <c r="C1517" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1517" s="1">
+        <v>43130000</v>
+      </c>
+      <c r="E1517" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1517" s="4">
+        <f t="shared" si="105"/>
+        <v>43230000</v>
+      </c>
+      <c r="G1517" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1517" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1518" s="1">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>716000</v>
+      </c>
+      <c r="C1518" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1518" s="1">
+        <v>43140000</v>
+      </c>
+      <c r="E1518" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1518" s="4">
+        <f t="shared" si="105"/>
+        <v>43240000</v>
+      </c>
+      <c r="G1518" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1518" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1519" s="1">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>717000</v>
+      </c>
+      <c r="C1519" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1519" s="1">
+        <v>43150000</v>
+      </c>
+      <c r="E1519" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1519" s="4">
+        <f t="shared" si="105"/>
+        <v>43250000</v>
+      </c>
+      <c r="G1519" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1519" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1520" s="1">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>718000</v>
+      </c>
+      <c r="C1520" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1520" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1520" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1520" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1520" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1520" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1521" s="1">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>719000</v>
+      </c>
+      <c r="C1521" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1521" s="1">
+        <v>43170000</v>
+      </c>
+      <c r="E1521" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1521" s="4">
+        <f t="shared" si="105"/>
+        <v>43270000</v>
+      </c>
+      <c r="G1521" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1521" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1522" s="1">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>720000</v>
+      </c>
+      <c r="C1522" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1522" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1522" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1522" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1522" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1522" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1523" s="1">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>721000</v>
+      </c>
+      <c r="C1523" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1523" s="1">
+        <v>43190000</v>
+      </c>
+      <c r="E1523" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1523" s="4">
+        <f t="shared" si="105"/>
+        <v>43290000</v>
+      </c>
+      <c r="G1523" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1523" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1524" s="1">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>722000</v>
+      </c>
+      <c r="C1524" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1524" s="1">
+        <v>43200000</v>
+      </c>
+      <c r="E1524" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1524" s="4">
+        <f t="shared" si="105"/>
+        <v>43300000</v>
+      </c>
+      <c r="G1524" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1524" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1525" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>723000</v>
+      </c>
+      <c r="C1525" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1525" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1525" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1525" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1525" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1525" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1526" s="1">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>724000</v>
+      </c>
+      <c r="C1526" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1526" s="1">
+        <v>43220000</v>
+      </c>
+      <c r="E1526" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1526" s="4">
+        <f t="shared" si="105"/>
+        <v>43320000</v>
+      </c>
+      <c r="G1526" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1526" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1527" s="1">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>725000</v>
+      </c>
+      <c r="C1527" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1527" s="1">
+        <v>43230000</v>
+      </c>
+      <c r="E1527" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1527" s="4">
+        <f t="shared" si="105"/>
+        <v>43330000</v>
+      </c>
+      <c r="G1527" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1527" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1528" s="1">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>726000</v>
+      </c>
+      <c r="C1528" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1528" s="1">
+        <v>43240000</v>
+      </c>
+      <c r="E1528" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1528" s="4">
+        <f t="shared" si="105"/>
+        <v>43340000</v>
+      </c>
+      <c r="G1528" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1528" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1529" s="1">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>727000</v>
+      </c>
+      <c r="C1529" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1529" s="1">
+        <v>43250000</v>
+      </c>
+      <c r="E1529" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1529" s="4">
+        <f t="shared" si="105"/>
+        <v>43350000</v>
+      </c>
+      <c r="G1529" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1529" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1530" s="1">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>728000</v>
+      </c>
+      <c r="C1530" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1530" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1530" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1530" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1530" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1530" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1531" s="1">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>729000</v>
+      </c>
+      <c r="C1531" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1531" s="1">
+        <v>43270000</v>
+      </c>
+      <c r="E1531" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1531" s="4">
+        <f t="shared" si="105"/>
+        <v>43370000</v>
+      </c>
+      <c r="G1531" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1531" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1532" s="1">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>730000</v>
+      </c>
+      <c r="C1532" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1532" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1532" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1532" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1532" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1532" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1533" s="1">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>731000</v>
+      </c>
+      <c r="C1533" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1533" s="1">
+        <v>43290000</v>
+      </c>
+      <c r="E1533" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1533" s="4">
+        <f t="shared" si="105"/>
+        <v>43390000</v>
+      </c>
+      <c r="G1533" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1533" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1534" s="1">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>732000</v>
+      </c>
+      <c r="C1534" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1534" s="1">
+        <v>43300000</v>
+      </c>
+      <c r="E1534" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1534" s="4">
+        <f t="shared" si="105"/>
+        <v>43400000</v>
+      </c>
+      <c r="G1534" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1534" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1535" s="1">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>733000</v>
+      </c>
+      <c r="C1535" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1535" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1535" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1535" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1535" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1535" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1536" s="1">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>734000</v>
+      </c>
+      <c r="C1536" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1536" s="1">
+        <v>43320000</v>
+      </c>
+      <c r="E1536" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1536" s="4">
+        <f t="shared" si="105"/>
+        <v>43420000</v>
+      </c>
+      <c r="G1536" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1536" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1537" s="1">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>735000</v>
+      </c>
+      <c r="C1537" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1537" s="1">
+        <v>43330000</v>
+      </c>
+      <c r="E1537" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1537" s="4">
+        <f t="shared" si="105"/>
+        <v>43430000</v>
+      </c>
+      <c r="G1537" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1537" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1538" s="1">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>736000</v>
+      </c>
+      <c r="C1538" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1538" s="1">
+        <v>43340000</v>
+      </c>
+      <c r="E1538" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1538" s="4">
+        <f t="shared" si="105"/>
+        <v>43440000</v>
+      </c>
+      <c r="G1538" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1538" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1539" s="1">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>737000</v>
+      </c>
+      <c r="C1539" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1539" s="1">
+        <v>43350000</v>
+      </c>
+      <c r="E1539" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1539" s="4">
+        <f t="shared" si="105"/>
+        <v>43450000</v>
+      </c>
+      <c r="G1539" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1539" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1540" s="1">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>738000</v>
+      </c>
+      <c r="C1540" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1540" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1540" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1540" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1540" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1540" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1541" s="1">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>739000</v>
+      </c>
+      <c r="C1541" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1541" s="1">
+        <v>43370000</v>
+      </c>
+      <c r="E1541" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1541" s="4">
+        <f t="shared" si="105"/>
+        <v>43470000</v>
+      </c>
+      <c r="G1541" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1541" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1542" s="1">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>740000</v>
+      </c>
+      <c r="C1542" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1542" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1542" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1542" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1542" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1542" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1543" s="1">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>741000</v>
+      </c>
+      <c r="C1543" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1543" s="1">
+        <v>43390000</v>
+      </c>
+      <c r="E1543" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1543" s="4">
+        <f t="shared" si="105"/>
+        <v>43490000</v>
+      </c>
+      <c r="G1543" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1543" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1544" s="1">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>742000</v>
+      </c>
+      <c r="C1544" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1544" s="1">
+        <v>43400000</v>
+      </c>
+      <c r="E1544" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1544" s="4">
+        <f t="shared" si="105"/>
+        <v>43500000</v>
+      </c>
+      <c r="G1544" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1544" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1545" s="1">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>743000</v>
+      </c>
+      <c r="C1545" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1545" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1545" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1545" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1545" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1545" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1546" s="1">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>744000</v>
+      </c>
+      <c r="C1546" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1546" s="1">
+        <v>43420000</v>
+      </c>
+      <c r="E1546" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1546" s="4">
+        <f t="shared" si="105"/>
+        <v>43520000</v>
+      </c>
+      <c r="G1546" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1546" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1547" s="1">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>745000</v>
+      </c>
+      <c r="C1547" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1547" s="1">
+        <v>43430000</v>
+      </c>
+      <c r="E1547" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1547" s="4">
+        <f t="shared" si="105"/>
+        <v>43530000</v>
+      </c>
+      <c r="G1547" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1547" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1548" s="1">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>746000</v>
+      </c>
+      <c r="C1548" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1548" s="1">
+        <v>43440000</v>
+      </c>
+      <c r="E1548" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1548" s="4">
+        <f t="shared" si="105"/>
+        <v>43540000</v>
+      </c>
+      <c r="G1548" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1548" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1549" s="1">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>747000</v>
+      </c>
+      <c r="C1549" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1549" s="1">
+        <v>43450000</v>
+      </c>
+      <c r="E1549" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1549" s="4">
+        <f t="shared" si="105"/>
+        <v>43550000</v>
+      </c>
+      <c r="G1549" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1549" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1550" s="1">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>748000</v>
+      </c>
+      <c r="C1550" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1550" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1550" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1550" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1550" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1550" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1551" s="1">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>749000</v>
+      </c>
+      <c r="C1551" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1551" s="1">
+        <v>43470000</v>
+      </c>
+      <c r="E1551" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1551" s="4">
+        <f t="shared" si="105"/>
+        <v>43570000</v>
+      </c>
+      <c r="G1551" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1551" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1552" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>750000</v>
+      </c>
+      <c r="C1552" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1552" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1552" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1552" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1552" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1552" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1553" s="1">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>751000</v>
+      </c>
+      <c r="C1553" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1553" s="1">
+        <v>43490000</v>
+      </c>
+      <c r="E1553" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1553" s="4">
+        <f t="shared" si="105"/>
+        <v>43590000</v>
+      </c>
+      <c r="G1553" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1553" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1553" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1554" s="1">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>752000</v>
+      </c>
+      <c r="C1554" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1554" s="1">
+        <v>43500000</v>
+      </c>
+      <c r="E1554" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1554" s="4">
+        <f t="shared" si="105"/>
+        <v>43600000</v>
+      </c>
+      <c r="G1554" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1554" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1555" s="1">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>753000</v>
+      </c>
+      <c r="C1555" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1555" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1555" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1555" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1555" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1555" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1556" s="1">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>754000</v>
+      </c>
+      <c r="C1556" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1556" s="1">
+        <v>43520000</v>
+      </c>
+      <c r="E1556" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1556" s="4">
+        <f t="shared" si="105"/>
+        <v>43620000</v>
+      </c>
+      <c r="G1556" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1556" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1557" s="1">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>755000</v>
+      </c>
+      <c r="C1557" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1557" s="1">
+        <v>43530000</v>
+      </c>
+      <c r="E1557" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1557" s="4">
+        <f t="shared" si="105"/>
+        <v>43630000</v>
+      </c>
+      <c r="G1557" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1557" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1558" s="1">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>756000</v>
+      </c>
+      <c r="C1558" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1558" s="1">
+        <v>43540000</v>
+      </c>
+      <c r="E1558" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1558" s="4">
+        <f t="shared" si="105"/>
+        <v>43640000</v>
+      </c>
+      <c r="G1558" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1558" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1559" s="1">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>757000</v>
+      </c>
+      <c r="C1559" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1559" s="1">
+        <v>43550000</v>
+      </c>
+      <c r="E1559" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1559" s="4">
+        <f t="shared" si="105"/>
+        <v>43650000</v>
+      </c>
+      <c r="G1559" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1559" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1560" s="1">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>758000</v>
+      </c>
+      <c r="C1560" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1560" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1560" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1560" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1560" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1560" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1561" s="1">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>759000</v>
+      </c>
+      <c r="C1561" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1561" s="1">
+        <v>43570000</v>
+      </c>
+      <c r="E1561" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1561" s="4">
+        <f t="shared" si="105"/>
+        <v>43670000</v>
+      </c>
+      <c r="G1561" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1561" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1562" s="1">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>760000</v>
+      </c>
+      <c r="C1562" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1562" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1562" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1562" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1562" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1562" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1563" s="1">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>761000</v>
+      </c>
+      <c r="C1563" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1563" s="1">
+        <v>43590000</v>
+      </c>
+      <c r="E1563" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1563" s="4">
+        <f t="shared" si="105"/>
+        <v>43690000</v>
+      </c>
+      <c r="G1563" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1563" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1564" s="1">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>762000</v>
+      </c>
+      <c r="C1564" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1564" s="1">
+        <v>43600000</v>
+      </c>
+      <c r="E1564" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1564" s="4">
+        <f t="shared" si="105"/>
+        <v>43700000</v>
+      </c>
+      <c r="G1564" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1564" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1565" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>763000</v>
+      </c>
+      <c r="C1565" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1565" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1565" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1565" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1565" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1565" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1565" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1566" s="1">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>764000</v>
+      </c>
+      <c r="C1566" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1566" s="1">
+        <v>43620000</v>
+      </c>
+      <c r="E1566" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1566" s="4">
+        <f t="shared" si="105"/>
+        <v>43720000</v>
+      </c>
+      <c r="G1566" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1566" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1567" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>765000</v>
+      </c>
+      <c r="C1567" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1567" s="1">
+        <v>43630000</v>
+      </c>
+      <c r="E1567" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1567" s="4">
+        <f t="shared" si="105"/>
+        <v>43730000</v>
+      </c>
+      <c r="G1567" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1567" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1568" s="1">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>766000</v>
+      </c>
+      <c r="C1568" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1568" s="1">
+        <v>43640000</v>
+      </c>
+      <c r="E1568" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1568" s="4">
+        <f t="shared" ref="F1568:F1601" si="106">D1568+100000</f>
+        <v>43740000</v>
+      </c>
+      <c r="G1568" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1568" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1568" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1569" s="1">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>767000</v>
+      </c>
+      <c r="C1569" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1569" s="1">
+        <v>43650000</v>
+      </c>
+      <c r="E1569" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1569" s="4">
+        <f t="shared" si="106"/>
+        <v>43750000</v>
+      </c>
+      <c r="G1569" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1569" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1569" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1570" s="1">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>768000</v>
+      </c>
+      <c r="C1570" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1570" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1570" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1570" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1570" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1570" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1571" s="1">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>769000</v>
+      </c>
+      <c r="C1571" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1571" s="1">
+        <v>43670000</v>
+      </c>
+      <c r="E1571" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1571" s="4">
+        <f t="shared" si="106"/>
+        <v>43770000</v>
+      </c>
+      <c r="G1571" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1571" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1572" s="1">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>770000</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1572" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1572" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1572" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1572" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1572" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1573" s="1">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>771000</v>
+      </c>
+      <c r="C1573" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1573" s="1">
+        <v>43690000</v>
+      </c>
+      <c r="E1573" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1573" s="4">
+        <f t="shared" si="106"/>
+        <v>43790000</v>
+      </c>
+      <c r="G1573" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1573" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1573" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1574" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>772000</v>
+      </c>
+      <c r="C1574" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1574" s="1">
+        <v>43700000</v>
+      </c>
+      <c r="E1574" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1574" s="4">
+        <f t="shared" si="106"/>
+        <v>43800000</v>
+      </c>
+      <c r="G1574" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1574" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1575" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>773000</v>
+      </c>
+      <c r="C1575" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1575" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1575" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1575" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1575" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1575" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1576" s="1">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>774000</v>
+      </c>
+      <c r="C1576" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1576" s="1">
+        <v>43720000</v>
+      </c>
+      <c r="E1576" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1576" s="4">
+        <f t="shared" si="106"/>
+        <v>43820000</v>
+      </c>
+      <c r="G1576" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1576" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1577" s="1">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>775000</v>
+      </c>
+      <c r="C1577" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1577" s="1">
+        <v>43730000</v>
+      </c>
+      <c r="E1577" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1577" s="4">
+        <f t="shared" si="106"/>
+        <v>43830000</v>
+      </c>
+      <c r="G1577" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1577" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1578" s="1">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>776000</v>
+      </c>
+      <c r="C1578" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1578" s="1">
+        <v>43740000</v>
+      </c>
+      <c r="E1578" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1578" s="4">
+        <f t="shared" si="106"/>
+        <v>43840000</v>
+      </c>
+      <c r="G1578" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1578" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1579" s="1">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>777000</v>
+      </c>
+      <c r="C1579" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1579" s="1">
+        <v>43750000</v>
+      </c>
+      <c r="E1579" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1579" s="4">
+        <f t="shared" si="106"/>
+        <v>43850000</v>
+      </c>
+      <c r="G1579" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1579" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1580" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>778000</v>
+      </c>
+      <c r="C1580" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1580" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1580" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1580" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1580" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1580" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1581" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>779000</v>
+      </c>
+      <c r="C1581" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1581" s="1">
+        <v>43770000</v>
+      </c>
+      <c r="E1581" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1581" s="4">
+        <f t="shared" si="106"/>
+        <v>43870000</v>
+      </c>
+      <c r="G1581" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1581" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1581" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1582" s="1">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>780000</v>
+      </c>
+      <c r="C1582" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1582" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1582" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1582" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1582" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1582" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1583" s="1">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>781000</v>
+      </c>
+      <c r="C1583" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1583" s="1">
+        <v>43790000</v>
+      </c>
+      <c r="E1583" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1583" s="4">
+        <f t="shared" si="106"/>
+        <v>43890000</v>
+      </c>
+      <c r="G1583" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1583" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1583" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1584" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>782000</v>
+      </c>
+      <c r="C1584" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1584" s="1">
+        <v>43800000</v>
+      </c>
+      <c r="E1584" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1584" s="4">
+        <f t="shared" si="106"/>
+        <v>43900000</v>
+      </c>
+      <c r="G1584" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1584" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1584" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1585" s="1">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>783000</v>
+      </c>
+      <c r="C1585" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1585" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1585" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1585" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1585" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1585" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1585" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1586" s="1">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>784000</v>
+      </c>
+      <c r="C1586" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1586" s="1">
+        <v>43820000</v>
+      </c>
+      <c r="E1586" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1586" s="4">
+        <f t="shared" si="106"/>
+        <v>43920000</v>
+      </c>
+      <c r="G1586" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1586" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1586" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1587" s="1">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>785000</v>
+      </c>
+      <c r="C1587" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1587" s="1">
+        <v>43830000</v>
+      </c>
+      <c r="E1587" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1587" s="4">
+        <f t="shared" si="106"/>
+        <v>43930000</v>
+      </c>
+      <c r="G1587" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1587" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1588" s="1">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>786000</v>
+      </c>
+      <c r="C1588" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1588" s="1">
+        <v>43840000</v>
+      </c>
+      <c r="E1588" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1588" s="4">
+        <f t="shared" si="106"/>
+        <v>43940000</v>
+      </c>
+      <c r="G1588" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1588" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1589" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>787000</v>
+      </c>
+      <c r="C1589" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1589" s="1">
+        <v>43850000</v>
+      </c>
+      <c r="E1589" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1589" s="4">
+        <f t="shared" si="106"/>
+        <v>43950000</v>
+      </c>
+      <c r="G1589" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1589" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1590" s="1">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>788000</v>
+      </c>
+      <c r="C1590" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1590" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1590" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1590" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1590" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1590" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1591" s="1">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>789000</v>
+      </c>
+      <c r="C1591" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1591" s="1">
+        <v>43870000</v>
+      </c>
+      <c r="E1591" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1591" s="4">
+        <f t="shared" si="106"/>
+        <v>43970000</v>
+      </c>
+      <c r="G1591" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1591" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1592" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>790000</v>
+      </c>
+      <c r="C1592" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1592" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1592" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1592" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1592" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1592" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1593" s="1">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>791000</v>
+      </c>
+      <c r="C1593" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1593" s="1">
+        <v>43890000</v>
+      </c>
+      <c r="E1593" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1593" s="4">
+        <f t="shared" si="106"/>
+        <v>43990000</v>
+      </c>
+      <c r="G1593" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1593" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1594" s="1">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>792000</v>
+      </c>
+      <c r="C1594" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1594" s="1">
+        <v>43900000</v>
+      </c>
+      <c r="E1594" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1594" s="4">
+        <f t="shared" si="106"/>
+        <v>44000000</v>
+      </c>
+      <c r="G1594" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1594" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1595" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>793000</v>
+      </c>
+      <c r="C1595" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1595" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1595" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1595" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1595" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1595" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1596" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>794000</v>
+      </c>
+      <c r="C1596" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1596" s="1">
+        <v>43920000</v>
+      </c>
+      <c r="E1596" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1596" s="4">
+        <f t="shared" si="106"/>
+        <v>44020000</v>
+      </c>
+      <c r="G1596" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1596" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1596" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1597" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>795000</v>
+      </c>
+      <c r="C1597" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1597" s="1">
+        <v>43930000</v>
+      </c>
+      <c r="E1597" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1597" s="4">
+        <f t="shared" si="106"/>
+        <v>44030000</v>
+      </c>
+      <c r="G1597" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1597" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1597" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1598" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>796000</v>
+      </c>
+      <c r="C1598" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1598" s="1">
+        <v>43940000</v>
+      </c>
+      <c r="E1598" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1598" s="4">
+        <f t="shared" si="106"/>
+        <v>44040000</v>
+      </c>
+      <c r="G1598" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1598" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1599" s="1">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>797000</v>
+      </c>
+      <c r="C1599" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1599" s="1">
+        <v>43950000</v>
+      </c>
+      <c r="E1599" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1599" s="4">
+        <f t="shared" si="106"/>
+        <v>44050000</v>
+      </c>
+      <c r="G1599" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1599" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1600" s="1">
+        <v>1598</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>798000</v>
+      </c>
+      <c r="C1600" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1600" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E1600" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1600" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G1600" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1600" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1601" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>799000</v>
+      </c>
+      <c r="C1601" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1601" s="1">
+        <v>43970000</v>
+      </c>
+      <c r="E1601" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1601" s="4">
+        <f t="shared" si="106"/>
+        <v>44070000</v>
+      </c>
+      <c r="G1601" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1601" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1602" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>800000</v>
+      </c>
+      <c r="C1602" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1602" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1602" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1602" s="4">
+        <v>35</v>
+      </c>
+      <c r="G1602" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1602" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1602" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ACA83D-07C0-4F7D-9364-C606B7670DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C9675-F13E-4F2B-9BE6-755E7B95717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +118,13 @@
   </si>
   <si>
     <t>levelpass11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass12</t>
+  </si>
+  <si>
+    <t>levelpass12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I1602"/>
+  <dimension ref="A1:I1702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1503" sqref="H1503"/>
+      <pane ySplit="1" topLeftCell="A1665" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1685" sqref="P1685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -46950,7 +46957,7 @@
         <v>1</v>
       </c>
       <c r="F1568" s="4">
-        <f t="shared" ref="F1568:F1601" si="106">D1568+100000</f>
+        <f t="shared" ref="F1568:F1631" si="106">D1568+100000</f>
         <v>43740000</v>
       </c>
       <c r="G1568" s="1">
@@ -47944,31 +47951,3001 @@
       </c>
     </row>
     <row r="1602" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1602" s="1">
+      <c r="A1602" s="3">
         <v>1600</v>
       </c>
-      <c r="B1602" s="1">
+      <c r="B1602" s="3">
         <v>800000</v>
       </c>
-      <c r="C1602" s="2">
+      <c r="C1602" s="3">
         <v>14</v>
       </c>
-      <c r="D1602" s="1">
+      <c r="D1602" s="3">
         <v>35</v>
       </c>
-      <c r="E1602" s="2">
+      <c r="E1602" s="3">
         <v>14</v>
       </c>
-      <c r="F1602" s="4">
+      <c r="F1602" s="7">
         <v>35</v>
       </c>
-      <c r="G1602" s="1">
+      <c r="G1602" s="3">
         <v>10</v>
       </c>
-      <c r="H1602" t="s">
+      <c r="H1602" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1602" s="4">
+      <c r="I1602" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1603" s="1">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>801000</v>
+      </c>
+      <c r="C1603" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1603" s="1">
+        <v>43990000</v>
+      </c>
+      <c r="E1603" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1603" s="4">
+        <f>D1603+100000</f>
+        <v>44090000</v>
+      </c>
+      <c r="G1603" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1603" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1604" s="1">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>802000</v>
+      </c>
+      <c r="C1604" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1604" s="1">
+        <v>44010000</v>
+      </c>
+      <c r="E1604" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1604" s="4">
+        <f t="shared" si="106"/>
+        <v>44110000</v>
+      </c>
+      <c r="G1604" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1604" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1604" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1605" s="1">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>803000</v>
+      </c>
+      <c r="C1605" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1605" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1605" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1605" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1605" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1605" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1605" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1606" s="1">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>804000</v>
+      </c>
+      <c r="C1606" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1606" s="1">
+        <v>44050000</v>
+      </c>
+      <c r="E1606" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1606" s="4">
+        <f t="shared" si="106"/>
+        <v>44150000</v>
+      </c>
+      <c r="G1606" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1606" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1606" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1607" s="1">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>805000</v>
+      </c>
+      <c r="C1607" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1607" s="1">
+        <v>44070000</v>
+      </c>
+      <c r="E1607" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1607" s="4">
+        <f t="shared" si="106"/>
+        <v>44170000</v>
+      </c>
+      <c r="G1607" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1607" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1608" s="1">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>806000</v>
+      </c>
+      <c r="C1608" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1608" s="1">
+        <v>44090000</v>
+      </c>
+      <c r="E1608" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1608" s="4">
+        <f t="shared" si="106"/>
+        <v>44190000</v>
+      </c>
+      <c r="G1608" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1609" s="1">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>807000</v>
+      </c>
+      <c r="C1609" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1609" s="1">
+        <v>44110000</v>
+      </c>
+      <c r="E1609" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1609" s="4">
+        <f t="shared" si="106"/>
+        <v>44210000</v>
+      </c>
+      <c r="G1609" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1609" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1610" s="1">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>808000</v>
+      </c>
+      <c r="C1610" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1610" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1610" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1610" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1610" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1610" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1611" s="1">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>809000</v>
+      </c>
+      <c r="C1611" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1611" s="1">
+        <v>44150000</v>
+      </c>
+      <c r="E1611" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1611" s="4">
+        <f t="shared" si="106"/>
+        <v>44250000</v>
+      </c>
+      <c r="G1611" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1611" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1611" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1612" s="1">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>810000</v>
+      </c>
+      <c r="C1612" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1612" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1612" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1612" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1612" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1612" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1613" s="1">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>811000</v>
+      </c>
+      <c r="C1613" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1613" s="1">
+        <v>44190000</v>
+      </c>
+      <c r="E1613" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1613" s="4">
+        <f t="shared" si="106"/>
+        <v>44290000</v>
+      </c>
+      <c r="G1613" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1613" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1614" s="1">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>812000</v>
+      </c>
+      <c r="C1614" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1614" s="1">
+        <v>44210000</v>
+      </c>
+      <c r="E1614" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1614" s="4">
+        <f t="shared" si="106"/>
+        <v>44310000</v>
+      </c>
+      <c r="G1614" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1614" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1615" s="1">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>813000</v>
+      </c>
+      <c r="C1615" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1615" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1615" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1615" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1615" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1615" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1616" s="1">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>814000</v>
+      </c>
+      <c r="C1616" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1616" s="1">
+        <v>44250000</v>
+      </c>
+      <c r="E1616" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1616" s="4">
+        <f t="shared" si="106"/>
+        <v>44350000</v>
+      </c>
+      <c r="G1616" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1616" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1617" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>815000</v>
+      </c>
+      <c r="C1617" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1617" s="1">
+        <v>44270000</v>
+      </c>
+      <c r="E1617" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1617" s="4">
+        <f t="shared" si="106"/>
+        <v>44370000</v>
+      </c>
+      <c r="G1617" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1617" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1617" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1618" s="1">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>816000</v>
+      </c>
+      <c r="C1618" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1618" s="1">
+        <v>44290000</v>
+      </c>
+      <c r="E1618" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1618" s="4">
+        <f t="shared" si="106"/>
+        <v>44390000</v>
+      </c>
+      <c r="G1618" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1618" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1618" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1619" s="1">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>817000</v>
+      </c>
+      <c r="C1619" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1619" s="1">
+        <v>44310000</v>
+      </c>
+      <c r="E1619" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1619" s="4">
+        <f t="shared" si="106"/>
+        <v>44410000</v>
+      </c>
+      <c r="G1619" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1619" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1619" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1620" s="1">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>818000</v>
+      </c>
+      <c r="C1620" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1620" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1620" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1620" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1620" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1620" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1620" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1621" s="1">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>819000</v>
+      </c>
+      <c r="C1621" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1621" s="1">
+        <v>44350000</v>
+      </c>
+      <c r="E1621" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1621" s="4">
+        <f t="shared" si="106"/>
+        <v>44450000</v>
+      </c>
+      <c r="G1621" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1621" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1621" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1622" s="1">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>820000</v>
+      </c>
+      <c r="C1622" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1622" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1622" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1622" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1622" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1622" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1622" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1623" s="1">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>821000</v>
+      </c>
+      <c r="C1623" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1623" s="1">
+        <v>44390000</v>
+      </c>
+      <c r="E1623" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1623" s="4">
+        <f t="shared" si="106"/>
+        <v>44490000</v>
+      </c>
+      <c r="G1623" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1623" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1623" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1624" s="1">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>822000</v>
+      </c>
+      <c r="C1624" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1624" s="1">
+        <v>44410000</v>
+      </c>
+      <c r="E1624" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1624" s="4">
+        <f t="shared" si="106"/>
+        <v>44510000</v>
+      </c>
+      <c r="G1624" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1624" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1625" s="1">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>823000</v>
+      </c>
+      <c r="C1625" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1625" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1625" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1625" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1625" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1625" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1626" s="1">
+        <v>1624</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>824000</v>
+      </c>
+      <c r="C1626" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1626" s="1">
+        <v>44450000</v>
+      </c>
+      <c r="E1626" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1626" s="4">
+        <f t="shared" si="106"/>
+        <v>44550000</v>
+      </c>
+      <c r="G1626" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1626" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1626" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1627" s="1">
+        <v>1625</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>825000</v>
+      </c>
+      <c r="C1627" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1627" s="1">
+        <v>44470000</v>
+      </c>
+      <c r="E1627" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1627" s="4">
+        <f t="shared" si="106"/>
+        <v>44570000</v>
+      </c>
+      <c r="G1627" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1627" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1628" s="1">
+        <v>1626</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>826000</v>
+      </c>
+      <c r="C1628" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1628" s="1">
+        <v>44490000</v>
+      </c>
+      <c r="E1628" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1628" s="4">
+        <f t="shared" si="106"/>
+        <v>44590000</v>
+      </c>
+      <c r="G1628" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1628" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1628" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1629" s="1">
+        <v>1627</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>827000</v>
+      </c>
+      <c r="C1629" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1629" s="1">
+        <v>44510000</v>
+      </c>
+      <c r="E1629" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1629" s="4">
+        <f t="shared" si="106"/>
+        <v>44610000</v>
+      </c>
+      <c r="G1629" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1629" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1629" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1630" s="1">
+        <v>1628</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>828000</v>
+      </c>
+      <c r="C1630" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1630" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1630" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1630" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1630" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1630" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1631" s="1">
+        <v>1629</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>829000</v>
+      </c>
+      <c r="C1631" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1631" s="1">
+        <v>44550000</v>
+      </c>
+      <c r="E1631" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1631" s="4">
+        <f t="shared" si="106"/>
+        <v>44650000</v>
+      </c>
+      <c r="G1631" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1631" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1631" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1632" s="1">
+        <v>1630</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>830000</v>
+      </c>
+      <c r="C1632" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1632" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1632" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1632" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1632" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1632" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1632" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1633" s="1">
+        <v>1631</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>831000</v>
+      </c>
+      <c r="C1633" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1633" s="1">
+        <v>44590000</v>
+      </c>
+      <c r="E1633" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1633" s="4">
+        <f t="shared" ref="F1632:F1695" si="107">D1633+100000</f>
+        <v>44690000</v>
+      </c>
+      <c r="G1633" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1633" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1633" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1634" s="1">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>832000</v>
+      </c>
+      <c r="C1634" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1634" s="1">
+        <v>44610000</v>
+      </c>
+      <c r="E1634" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1634" s="4">
+        <f t="shared" si="107"/>
+        <v>44710000</v>
+      </c>
+      <c r="G1634" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1634" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1634" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1635" s="1">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>833000</v>
+      </c>
+      <c r="C1635" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1635" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1635" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1635" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1635" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1635" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1635" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1636" s="1">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>834000</v>
+      </c>
+      <c r="C1636" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1636" s="1">
+        <v>44650000</v>
+      </c>
+      <c r="E1636" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1636" s="4">
+        <f t="shared" si="107"/>
+        <v>44750000</v>
+      </c>
+      <c r="G1636" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1636" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1636" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1637" s="1">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>835000</v>
+      </c>
+      <c r="C1637" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1637" s="1">
+        <v>44670000</v>
+      </c>
+      <c r="E1637" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1637" s="4">
+        <f t="shared" si="107"/>
+        <v>44770000</v>
+      </c>
+      <c r="G1637" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1637" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1637" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1638" s="1">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>836000</v>
+      </c>
+      <c r="C1638" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1638" s="1">
+        <v>44690000</v>
+      </c>
+      <c r="E1638" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1638" s="4">
+        <f t="shared" si="107"/>
+        <v>44790000</v>
+      </c>
+      <c r="G1638" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1638" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1639" s="1">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>837000</v>
+      </c>
+      <c r="C1639" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1639" s="1">
+        <v>44710000</v>
+      </c>
+      <c r="E1639" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1639" s="4">
+        <f t="shared" si="107"/>
+        <v>44810000</v>
+      </c>
+      <c r="G1639" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1639" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1640" s="1">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>838000</v>
+      </c>
+      <c r="C1640" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1640" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1640" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1640" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1640" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1640" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1640" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1641" s="1">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>839000</v>
+      </c>
+      <c r="C1641" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1641" s="1">
+        <v>44750000</v>
+      </c>
+      <c r="E1641" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1641" s="4">
+        <f t="shared" si="107"/>
+        <v>44850000</v>
+      </c>
+      <c r="G1641" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1641" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1641" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1642" s="1">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>840000</v>
+      </c>
+      <c r="C1642" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1642" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1642" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1642" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1642" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1642" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1642" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1643" s="1">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>841000</v>
+      </c>
+      <c r="C1643" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1643" s="1">
+        <v>44790000</v>
+      </c>
+      <c r="E1643" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1643" s="4">
+        <f t="shared" si="107"/>
+        <v>44890000</v>
+      </c>
+      <c r="G1643" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1643" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1643" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1644" s="1">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>842000</v>
+      </c>
+      <c r="C1644" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1644" s="1">
+        <v>44810000</v>
+      </c>
+      <c r="E1644" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1644" s="4">
+        <f t="shared" si="107"/>
+        <v>44910000</v>
+      </c>
+      <c r="G1644" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1644" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1644" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1645" s="1">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>843000</v>
+      </c>
+      <c r="C1645" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1645" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1645" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1645" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1645" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1645" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1646" s="1">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>844000</v>
+      </c>
+      <c r="C1646" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1646" s="1">
+        <v>44850000</v>
+      </c>
+      <c r="E1646" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1646" s="4">
+        <f t="shared" si="107"/>
+        <v>44950000</v>
+      </c>
+      <c r="G1646" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1646" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1646" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1647" s="1">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>845000</v>
+      </c>
+      <c r="C1647" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1647" s="1">
+        <v>44870000</v>
+      </c>
+      <c r="E1647" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1647" s="4">
+        <f t="shared" si="107"/>
+        <v>44970000</v>
+      </c>
+      <c r="G1647" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1647" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1647" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1648" s="1">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>846000</v>
+      </c>
+      <c r="C1648" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1648" s="1">
+        <v>44890000</v>
+      </c>
+      <c r="E1648" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1648" s="4">
+        <f t="shared" si="107"/>
+        <v>44990000</v>
+      </c>
+      <c r="G1648" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1648" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1649" s="1">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>847000</v>
+      </c>
+      <c r="C1649" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1649" s="1">
+        <v>44910000</v>
+      </c>
+      <c r="E1649" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1649" s="4">
+        <f t="shared" si="107"/>
+        <v>45010000</v>
+      </c>
+      <c r="G1649" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1649" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1650" s="1">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>848000</v>
+      </c>
+      <c r="C1650" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1650" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1650" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1650" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1650" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1650" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1651" s="1">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>849000</v>
+      </c>
+      <c r="C1651" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1651" s="1">
+        <v>44950000</v>
+      </c>
+      <c r="E1651" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1651" s="4">
+        <f t="shared" si="107"/>
+        <v>45050000</v>
+      </c>
+      <c r="G1651" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1651" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1652" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>850000</v>
+      </c>
+      <c r="C1652" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1652" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1652" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1652" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1652" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1652" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1652" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1653" s="1">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>851000</v>
+      </c>
+      <c r="C1653" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1653" s="1">
+        <v>44990000</v>
+      </c>
+      <c r="E1653" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1653" s="4">
+        <f t="shared" si="107"/>
+        <v>45090000</v>
+      </c>
+      <c r="G1653" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1653" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1653" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1654" s="1">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>852000</v>
+      </c>
+      <c r="C1654" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1654" s="1">
+        <v>45010000</v>
+      </c>
+      <c r="E1654" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1654" s="4">
+        <f t="shared" si="107"/>
+        <v>45110000</v>
+      </c>
+      <c r="G1654" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1654" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1655" s="1">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>853000</v>
+      </c>
+      <c r="C1655" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1655" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1655" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1655" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1655" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1655" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1655" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1656" s="1">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>854000</v>
+      </c>
+      <c r="C1656" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1656" s="1">
+        <v>45050000</v>
+      </c>
+      <c r="E1656" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1656" s="4">
+        <f t="shared" si="107"/>
+        <v>45150000</v>
+      </c>
+      <c r="G1656" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1656" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1656" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1657" s="1">
+        <v>1655</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>855000</v>
+      </c>
+      <c r="C1657" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1657" s="1">
+        <v>45070000</v>
+      </c>
+      <c r="E1657" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1657" s="4">
+        <f t="shared" si="107"/>
+        <v>45170000</v>
+      </c>
+      <c r="G1657" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1657" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1658" s="1">
+        <v>1656</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>856000</v>
+      </c>
+      <c r="C1658" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1658" s="1">
+        <v>45090000</v>
+      </c>
+      <c r="E1658" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1658" s="4">
+        <f t="shared" si="107"/>
+        <v>45190000</v>
+      </c>
+      <c r="G1658" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1658" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1658" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1659" s="1">
+        <v>1657</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>857000</v>
+      </c>
+      <c r="C1659" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1659" s="1">
+        <v>45110000</v>
+      </c>
+      <c r="E1659" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1659" s="4">
+        <f t="shared" si="107"/>
+        <v>45210000</v>
+      </c>
+      <c r="G1659" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1659" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1660" s="1">
+        <v>1658</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>858000</v>
+      </c>
+      <c r="C1660" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1660" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1660" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1660" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1660" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1660" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1660" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1661" s="1">
+        <v>1659</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>859000</v>
+      </c>
+      <c r="C1661" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1661" s="1">
+        <v>45150000</v>
+      </c>
+      <c r="E1661" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1661" s="4">
+        <f t="shared" si="107"/>
+        <v>45250000</v>
+      </c>
+      <c r="G1661" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1661" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1661" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1662" s="1">
+        <v>1660</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>860000</v>
+      </c>
+      <c r="C1662" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1662" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1662" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1662" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1662" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1662" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1662" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1663" s="1">
+        <v>1661</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>861000</v>
+      </c>
+      <c r="C1663" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1663" s="1">
+        <v>45190000</v>
+      </c>
+      <c r="E1663" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1663" s="4">
+        <f t="shared" si="107"/>
+        <v>45290000</v>
+      </c>
+      <c r="G1663" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1663" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1663" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1664" s="1">
+        <v>1662</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>862000</v>
+      </c>
+      <c r="C1664" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1664" s="1">
+        <v>45210000</v>
+      </c>
+      <c r="E1664" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1664" s="4">
+        <f t="shared" si="107"/>
+        <v>45310000</v>
+      </c>
+      <c r="G1664" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1664" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1665" s="1">
+        <v>1663</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>863000</v>
+      </c>
+      <c r="C1665" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1665" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1665" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1665" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1665" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1665" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1665" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1666" s="1">
+        <v>1664</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>864000</v>
+      </c>
+      <c r="C1666" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1666" s="1">
+        <v>45250000</v>
+      </c>
+      <c r="E1666" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1666" s="4">
+        <f t="shared" si="107"/>
+        <v>45350000</v>
+      </c>
+      <c r="G1666" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1666" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1666" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1667" s="1">
+        <v>1665</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>865000</v>
+      </c>
+      <c r="C1667" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1667" s="1">
+        <v>45270000</v>
+      </c>
+      <c r="E1667" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1667" s="4">
+        <f t="shared" si="107"/>
+        <v>45370000</v>
+      </c>
+      <c r="G1667" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1667" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1667" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1668" s="1">
+        <v>1666</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>866000</v>
+      </c>
+      <c r="C1668" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1668" s="1">
+        <v>45290000</v>
+      </c>
+      <c r="E1668" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1668" s="4">
+        <f t="shared" si="107"/>
+        <v>45390000</v>
+      </c>
+      <c r="G1668" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1668" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1668" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1669" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>867000</v>
+      </c>
+      <c r="C1669" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1669" s="1">
+        <v>45310000</v>
+      </c>
+      <c r="E1669" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1669" s="4">
+        <f t="shared" si="107"/>
+        <v>45410000</v>
+      </c>
+      <c r="G1669" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1669" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1669" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1670" s="1">
+        <v>1668</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>868000</v>
+      </c>
+      <c r="C1670" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1670" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1670" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1670" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1670" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1670" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1670" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1671" s="1">
+        <v>1669</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>869000</v>
+      </c>
+      <c r="C1671" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1671" s="1">
+        <v>45350000</v>
+      </c>
+      <c r="E1671" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1671" s="4">
+        <f t="shared" si="107"/>
+        <v>45450000</v>
+      </c>
+      <c r="G1671" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1671" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1671" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1672" s="1">
+        <v>1670</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>870000</v>
+      </c>
+      <c r="C1672" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1672" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1672" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1672" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1672" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1672" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1672" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1673" s="1">
+        <v>1671</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>871000</v>
+      </c>
+      <c r="C1673" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1673" s="1">
+        <v>45390000</v>
+      </c>
+      <c r="E1673" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1673" s="4">
+        <f t="shared" si="107"/>
+        <v>45490000</v>
+      </c>
+      <c r="G1673" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1673" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1673" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1674" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>872000</v>
+      </c>
+      <c r="C1674" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1674" s="1">
+        <v>45410000</v>
+      </c>
+      <c r="E1674" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1674" s="4">
+        <f t="shared" si="107"/>
+        <v>45510000</v>
+      </c>
+      <c r="G1674" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1674" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1674" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1675" s="1">
+        <v>1673</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>873000</v>
+      </c>
+      <c r="C1675" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1675" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1675" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1675" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1675" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1675" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1675" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1676" s="1">
+        <v>1674</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>874000</v>
+      </c>
+      <c r="C1676" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1676" s="1">
+        <v>45450000</v>
+      </c>
+      <c r="E1676" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1676" s="4">
+        <f t="shared" si="107"/>
+        <v>45550000</v>
+      </c>
+      <c r="G1676" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1676" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1676" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1677" s="1">
+        <v>1675</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>875000</v>
+      </c>
+      <c r="C1677" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1677" s="1">
+        <v>45470000</v>
+      </c>
+      <c r="E1677" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1677" s="4">
+        <f t="shared" si="107"/>
+        <v>45570000</v>
+      </c>
+      <c r="G1677" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1677" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1677" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1678" s="1">
+        <v>1676</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>876000</v>
+      </c>
+      <c r="C1678" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1678" s="1">
+        <v>45490000</v>
+      </c>
+      <c r="E1678" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1678" s="4">
+        <f t="shared" si="107"/>
+        <v>45590000</v>
+      </c>
+      <c r="G1678" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1678" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1678" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1679" s="1">
+        <v>1677</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>877000</v>
+      </c>
+      <c r="C1679" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1679" s="1">
+        <v>45510000</v>
+      </c>
+      <c r="E1679" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1679" s="4">
+        <f t="shared" si="107"/>
+        <v>45610000</v>
+      </c>
+      <c r="G1679" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1679" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1679" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1680" s="1">
+        <v>1678</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>878000</v>
+      </c>
+      <c r="C1680" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1680" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1680" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1680" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1680" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1680" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1680" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1681" s="1">
+        <v>1679</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>879000</v>
+      </c>
+      <c r="C1681" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1681" s="1">
+        <v>45550000</v>
+      </c>
+      <c r="E1681" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1681" s="4">
+        <f t="shared" si="107"/>
+        <v>45650000</v>
+      </c>
+      <c r="G1681" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1681" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1681" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1682" s="1">
+        <v>1680</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>880000</v>
+      </c>
+      <c r="C1682" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1682" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1682" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1682" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1682" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1682" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1682" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1683" s="1">
+        <v>1681</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>881000</v>
+      </c>
+      <c r="C1683" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1683" s="1">
+        <v>45590000</v>
+      </c>
+      <c r="E1683" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1683" s="4">
+        <f t="shared" si="107"/>
+        <v>45690000</v>
+      </c>
+      <c r="G1683" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1683" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1683" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1684" s="1">
+        <v>1682</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>882000</v>
+      </c>
+      <c r="C1684" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1684" s="1">
+        <v>45610000</v>
+      </c>
+      <c r="E1684" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1684" s="4">
+        <f t="shared" si="107"/>
+        <v>45710000</v>
+      </c>
+      <c r="G1684" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1684" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1684" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1685" s="1">
+        <v>1683</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>883000</v>
+      </c>
+      <c r="C1685" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1685" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1685" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1685" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1685" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1685" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1685" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1686" s="1">
+        <v>1684</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>884000</v>
+      </c>
+      <c r="C1686" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1686" s="1">
+        <v>45650000</v>
+      </c>
+      <c r="E1686" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1686" s="4">
+        <f t="shared" si="107"/>
+        <v>45750000</v>
+      </c>
+      <c r="G1686" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1686" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1686" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1687" s="1">
+        <v>1685</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>885000</v>
+      </c>
+      <c r="C1687" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1687" s="1">
+        <v>45670000</v>
+      </c>
+      <c r="E1687" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1687" s="4">
+        <f t="shared" si="107"/>
+        <v>45770000</v>
+      </c>
+      <c r="G1687" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1687" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1687" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1688" s="1">
+        <v>1686</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>886000</v>
+      </c>
+      <c r="C1688" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1688" s="1">
+        <v>45690000</v>
+      </c>
+      <c r="E1688" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1688" s="4">
+        <f t="shared" si="107"/>
+        <v>45790000</v>
+      </c>
+      <c r="G1688" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1688" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1688" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1689" s="1">
+        <v>1687</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>887000</v>
+      </c>
+      <c r="C1689" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1689" s="1">
+        <v>45710000</v>
+      </c>
+      <c r="E1689" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1689" s="4">
+        <f t="shared" si="107"/>
+        <v>45810000</v>
+      </c>
+      <c r="G1689" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1689" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1689" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1690" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>888000</v>
+      </c>
+      <c r="C1690" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1690" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1690" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1690" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1690" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1690" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1690" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1691" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>889000</v>
+      </c>
+      <c r="C1691" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1691" s="1">
+        <v>45750000</v>
+      </c>
+      <c r="E1691" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1691" s="4">
+        <f t="shared" si="107"/>
+        <v>45850000</v>
+      </c>
+      <c r="G1691" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1691" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1691" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1692" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>890000</v>
+      </c>
+      <c r="C1692" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1692" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1692" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1692" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1692" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1692" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1692" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1693" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>891000</v>
+      </c>
+      <c r="C1693" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1693" s="1">
+        <v>45790000</v>
+      </c>
+      <c r="E1693" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1693" s="4">
+        <f t="shared" si="107"/>
+        <v>45890000</v>
+      </c>
+      <c r="G1693" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1693" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1693" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1694" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>892000</v>
+      </c>
+      <c r="C1694" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1694" s="1">
+        <v>45810000</v>
+      </c>
+      <c r="E1694" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1694" s="4">
+        <f t="shared" si="107"/>
+        <v>45910000</v>
+      </c>
+      <c r="G1694" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1694" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1694" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1695" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>893000</v>
+      </c>
+      <c r="C1695" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1695" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1695" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1695" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1695" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1695" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1695" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1696" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>894000</v>
+      </c>
+      <c r="C1696" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1696" s="1">
+        <v>45850000</v>
+      </c>
+      <c r="E1696" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1696" s="4">
+        <f t="shared" ref="F1696:F1702" si="108">D1696+100000</f>
+        <v>45950000</v>
+      </c>
+      <c r="G1696" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1696" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1696" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1697" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>895000</v>
+      </c>
+      <c r="C1697" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1697" s="1">
+        <v>45870000</v>
+      </c>
+      <c r="E1697" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1697" s="4">
+        <f t="shared" si="108"/>
+        <v>45970000</v>
+      </c>
+      <c r="G1697" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1697" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1697" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1698" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>896000</v>
+      </c>
+      <c r="C1698" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1698" s="1">
+        <v>45890000</v>
+      </c>
+      <c r="E1698" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1698" s="4">
+        <f t="shared" si="108"/>
+        <v>45990000</v>
+      </c>
+      <c r="G1698" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1698" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1698" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1699" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>897000</v>
+      </c>
+      <c r="C1699" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1699" s="1">
+        <v>45910000</v>
+      </c>
+      <c r="E1699" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1699" s="4">
+        <f t="shared" si="108"/>
+        <v>46010000</v>
+      </c>
+      <c r="G1699" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1699" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1699" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1700" s="1">
+        <v>1698</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>898000</v>
+      </c>
+      <c r="C1700" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1700" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E1700" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1700" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1700" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1700" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1700" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1701" s="1">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>899000</v>
+      </c>
+      <c r="C1701" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1701" s="1">
+        <v>45950000</v>
+      </c>
+      <c r="E1701" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1701" s="4">
+        <f t="shared" si="108"/>
+        <v>46050000</v>
+      </c>
+      <c r="G1701" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1701" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1701" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1702" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>900000</v>
+      </c>
+      <c r="C1702" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1702" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1702" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1702" s="4">
+        <v>40</v>
+      </c>
+      <c r="G1702" s="1">
+        <v>11</v>
+      </c>
+      <c r="H1702" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1702" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C9675-F13E-4F2B-9BE6-755E7B95717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47FD257-4EFB-4959-88AA-ADBAD468038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,13 @@
   </si>
   <si>
     <t>levelpass12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass13</t>
+  </si>
+  <si>
+    <t>levelpass13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I1702"/>
+  <dimension ref="A1:I1802"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1665" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1685" sqref="P1685"/>
+      <pane ySplit="1" topLeftCell="A1668" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1703" sqref="G1703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48887,7 +48894,7 @@
         <v>1</v>
       </c>
       <c r="F1633" s="4">
-        <f t="shared" ref="F1632:F1695" si="107">D1633+100000</f>
+        <f t="shared" ref="F1633:F1694" si="107">D1633+100000</f>
         <v>44690000</v>
       </c>
       <c r="G1633" s="1">
@@ -50758,7 +50765,7 @@
         <v>1</v>
       </c>
       <c r="F1696" s="4">
-        <f t="shared" ref="F1696:F1702" si="108">D1696+100000</f>
+        <f t="shared" ref="F1696:F1701" si="108">D1696+100000</f>
         <v>45950000</v>
       </c>
       <c r="G1696" s="1">
@@ -50921,7 +50928,7 @@
       </c>
     </row>
     <row r="1702" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1702" s="1">
+      <c r="A1702" s="2">
         <v>1700</v>
       </c>
       <c r="B1702" s="1">
@@ -50936,7 +50943,7 @@
       <c r="E1702" s="2">
         <v>14</v>
       </c>
-      <c r="F1702" s="4">
+      <c r="F1702" s="1">
         <v>40</v>
       </c>
       <c r="G1702" s="1">
@@ -50946,6 +50953,2976 @@
         <v>26</v>
       </c>
       <c r="I1702" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1703" s="1">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>901000</v>
+      </c>
+      <c r="C1703" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1703" s="1">
+        <v>45990000</v>
+      </c>
+      <c r="E1703" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1703" s="4">
+        <f>D1703+100000</f>
+        <v>46090000</v>
+      </c>
+      <c r="G1703" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1703" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1703" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1704" s="1">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>902000</v>
+      </c>
+      <c r="C1704" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1704" s="1">
+        <v>46010000</v>
+      </c>
+      <c r="E1704" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1704" s="4">
+        <f t="shared" ref="F1704:F1767" si="109">D1704+100000</f>
+        <v>46110000</v>
+      </c>
+      <c r="G1704" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1704" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1704" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1705" s="1">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>903000</v>
+      </c>
+      <c r="C1705" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1705" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1705" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1705" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1705" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1705" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1705" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1706" s="1">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>904000</v>
+      </c>
+      <c r="C1706" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1706" s="1">
+        <v>46050000</v>
+      </c>
+      <c r="E1706" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1706" s="4">
+        <f t="shared" si="109"/>
+        <v>46150000</v>
+      </c>
+      <c r="G1706" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1706" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1706" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1707" s="1">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>905000</v>
+      </c>
+      <c r="C1707" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1707" s="1">
+        <v>46070000</v>
+      </c>
+      <c r="E1707" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1707" s="4">
+        <f t="shared" si="109"/>
+        <v>46170000</v>
+      </c>
+      <c r="G1707" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1707" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1707" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1708" s="1">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>906000</v>
+      </c>
+      <c r="C1708" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1708" s="1">
+        <v>46090000</v>
+      </c>
+      <c r="E1708" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1708" s="4">
+        <f t="shared" si="109"/>
+        <v>46190000</v>
+      </c>
+      <c r="G1708" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1708" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1708" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1709" s="1">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>907000</v>
+      </c>
+      <c r="C1709" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1709" s="1">
+        <v>46110000</v>
+      </c>
+      <c r="E1709" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1709" s="4">
+        <f t="shared" si="109"/>
+        <v>46210000</v>
+      </c>
+      <c r="G1709" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1709" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1709" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1710" s="1">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>908000</v>
+      </c>
+      <c r="C1710" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1710" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1710" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1710" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1710" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1710" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1710" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1711" s="1">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>909000</v>
+      </c>
+      <c r="C1711" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1711" s="1">
+        <v>46150000</v>
+      </c>
+      <c r="E1711" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1711" s="4">
+        <f t="shared" si="109"/>
+        <v>46250000</v>
+      </c>
+      <c r="G1711" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1711" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1711" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1712" s="1">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>910000</v>
+      </c>
+      <c r="C1712" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1712" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1712" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1712" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1712" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1712" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1712" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1713" s="1">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>911000</v>
+      </c>
+      <c r="C1713" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1713" s="1">
+        <v>46190000</v>
+      </c>
+      <c r="E1713" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1713" s="4">
+        <f t="shared" si="109"/>
+        <v>46290000</v>
+      </c>
+      <c r="G1713" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1713" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1713" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1714" s="1">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>912000</v>
+      </c>
+      <c r="C1714" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1714" s="1">
+        <v>46210000</v>
+      </c>
+      <c r="E1714" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1714" s="4">
+        <f t="shared" si="109"/>
+        <v>46310000</v>
+      </c>
+      <c r="G1714" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1714" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1714" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1715" s="1">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>913000</v>
+      </c>
+      <c r="C1715" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1715" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1715" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1715" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1715" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1715" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1715" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1716" s="1">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>914000</v>
+      </c>
+      <c r="C1716" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1716" s="1">
+        <v>46250000</v>
+      </c>
+      <c r="E1716" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1716" s="4">
+        <f t="shared" si="109"/>
+        <v>46350000</v>
+      </c>
+      <c r="G1716" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1716" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1716" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1717" s="1">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>915000</v>
+      </c>
+      <c r="C1717" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1717" s="1">
+        <v>46270000</v>
+      </c>
+      <c r="E1717" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1717" s="4">
+        <f t="shared" si="109"/>
+        <v>46370000</v>
+      </c>
+      <c r="G1717" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1717" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1717" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1718" s="1">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>916000</v>
+      </c>
+      <c r="C1718" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1718" s="1">
+        <v>46290000</v>
+      </c>
+      <c r="E1718" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1718" s="4">
+        <f t="shared" si="109"/>
+        <v>46390000</v>
+      </c>
+      <c r="G1718" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1718" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1718" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1719" s="1">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>917000</v>
+      </c>
+      <c r="C1719" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1719" s="1">
+        <v>46310000</v>
+      </c>
+      <c r="E1719" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1719" s="4">
+        <f t="shared" si="109"/>
+        <v>46410000</v>
+      </c>
+      <c r="G1719" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1719" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1719" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1720" s="1">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>918000</v>
+      </c>
+      <c r="C1720" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1720" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1720" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1720" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1720" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1720" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1720" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1721" s="1">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>919000</v>
+      </c>
+      <c r="C1721" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1721" s="1">
+        <v>46350000</v>
+      </c>
+      <c r="E1721" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1721" s="4">
+        <f t="shared" si="109"/>
+        <v>46450000</v>
+      </c>
+      <c r="G1721" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1721" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1721" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1722" s="1">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>920000</v>
+      </c>
+      <c r="C1722" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1722" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1722" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1722" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1722" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1722" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1722" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1723" s="1">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>921000</v>
+      </c>
+      <c r="C1723" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1723" s="1">
+        <v>46390000</v>
+      </c>
+      <c r="E1723" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1723" s="4">
+        <f t="shared" si="109"/>
+        <v>46490000</v>
+      </c>
+      <c r="G1723" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1723" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1723" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1724" s="1">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>922000</v>
+      </c>
+      <c r="C1724" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1724" s="1">
+        <v>46410000</v>
+      </c>
+      <c r="E1724" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1724" s="4">
+        <f t="shared" si="109"/>
+        <v>46510000</v>
+      </c>
+      <c r="G1724" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1724" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1724" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1725" s="1">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>923000</v>
+      </c>
+      <c r="C1725" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1725" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1725" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1725" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1725" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1725" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1725" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1726" s="1">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>924000</v>
+      </c>
+      <c r="C1726" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1726" s="1">
+        <v>46450000</v>
+      </c>
+      <c r="E1726" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1726" s="4">
+        <f t="shared" si="109"/>
+        <v>46550000</v>
+      </c>
+      <c r="G1726" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1726" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1726" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1727" s="1">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>925000</v>
+      </c>
+      <c r="C1727" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1727" s="1">
+        <v>46470000</v>
+      </c>
+      <c r="E1727" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1727" s="4">
+        <f t="shared" si="109"/>
+        <v>46570000</v>
+      </c>
+      <c r="G1727" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1727" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1727" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1728" s="1">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>926000</v>
+      </c>
+      <c r="C1728" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1728" s="1">
+        <v>46490000</v>
+      </c>
+      <c r="E1728" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1728" s="4">
+        <f t="shared" si="109"/>
+        <v>46590000</v>
+      </c>
+      <c r="G1728" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1728" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1728" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1729" s="1">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>927000</v>
+      </c>
+      <c r="C1729" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1729" s="1">
+        <v>46510000</v>
+      </c>
+      <c r="E1729" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1729" s="4">
+        <f t="shared" si="109"/>
+        <v>46610000</v>
+      </c>
+      <c r="G1729" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1729" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1729" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1730" s="1">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="1">
+        <v>928000</v>
+      </c>
+      <c r="C1730" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1730" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1730" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1730" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1730" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1730" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1730" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1731" s="1">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="1">
+        <v>929000</v>
+      </c>
+      <c r="C1731" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1731" s="1">
+        <v>46550000</v>
+      </c>
+      <c r="E1731" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1731" s="4">
+        <f t="shared" si="109"/>
+        <v>46650000</v>
+      </c>
+      <c r="G1731" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1731" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1731" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1732" s="1">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="1">
+        <v>930000</v>
+      </c>
+      <c r="C1732" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1732" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1732" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1732" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1732" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1732" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1732" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1733" s="1">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="1">
+        <v>931000</v>
+      </c>
+      <c r="C1733" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1733" s="1">
+        <v>46590000</v>
+      </c>
+      <c r="E1733" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1733" s="4">
+        <f t="shared" si="109"/>
+        <v>46690000</v>
+      </c>
+      <c r="G1733" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1733" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1733" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1734" s="1">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="1">
+        <v>932000</v>
+      </c>
+      <c r="C1734" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1734" s="1">
+        <v>46610000</v>
+      </c>
+      <c r="E1734" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1734" s="4">
+        <f t="shared" si="109"/>
+        <v>46710000</v>
+      </c>
+      <c r="G1734" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1734" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1734" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1735" s="1">
+        <v>1733</v>
+      </c>
+      <c r="B1735" s="1">
+        <v>933000</v>
+      </c>
+      <c r="C1735" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1735" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1735" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1735" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1735" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1735" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1735" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1736" s="1">
+        <v>1734</v>
+      </c>
+      <c r="B1736" s="1">
+        <v>934000</v>
+      </c>
+      <c r="C1736" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1736" s="1">
+        <v>46650000</v>
+      </c>
+      <c r="E1736" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1736" s="4">
+        <f t="shared" si="109"/>
+        <v>46750000</v>
+      </c>
+      <c r="G1736" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1736" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1736" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1737" s="1">
+        <v>1735</v>
+      </c>
+      <c r="B1737" s="1">
+        <v>935000</v>
+      </c>
+      <c r="C1737" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1737" s="1">
+        <v>46670000</v>
+      </c>
+      <c r="E1737" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1737" s="4">
+        <f t="shared" si="109"/>
+        <v>46770000</v>
+      </c>
+      <c r="G1737" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1737" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1737" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1738" s="1">
+        <v>1736</v>
+      </c>
+      <c r="B1738" s="1">
+        <v>936000</v>
+      </c>
+      <c r="C1738" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1738" s="1">
+        <v>46690000</v>
+      </c>
+      <c r="E1738" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1738" s="4">
+        <f t="shared" si="109"/>
+        <v>46790000</v>
+      </c>
+      <c r="G1738" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1738" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1738" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1739" s="1">
+        <v>1737</v>
+      </c>
+      <c r="B1739" s="1">
+        <v>937000</v>
+      </c>
+      <c r="C1739" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1739" s="1">
+        <v>46710000</v>
+      </c>
+      <c r="E1739" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1739" s="4">
+        <f t="shared" si="109"/>
+        <v>46810000</v>
+      </c>
+      <c r="G1739" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1739" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1739" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1740" s="1">
+        <v>1738</v>
+      </c>
+      <c r="B1740" s="1">
+        <v>938000</v>
+      </c>
+      <c r="C1740" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1740" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1740" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1740" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1740" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1740" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1740" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1741" s="1">
+        <v>1739</v>
+      </c>
+      <c r="B1741" s="1">
+        <v>939000</v>
+      </c>
+      <c r="C1741" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1741" s="1">
+        <v>46750000</v>
+      </c>
+      <c r="E1741" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1741" s="4">
+        <f t="shared" si="109"/>
+        <v>46850000</v>
+      </c>
+      <c r="G1741" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1741" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1741" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1742" s="1">
+        <v>1740</v>
+      </c>
+      <c r="B1742" s="1">
+        <v>940000</v>
+      </c>
+      <c r="C1742" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1742" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1742" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1742" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1742" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1742" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1742" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1743" s="1">
+        <v>1741</v>
+      </c>
+      <c r="B1743" s="1">
+        <v>941000</v>
+      </c>
+      <c r="C1743" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1743" s="1">
+        <v>46790000</v>
+      </c>
+      <c r="E1743" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1743" s="4">
+        <f t="shared" si="109"/>
+        <v>46890000</v>
+      </c>
+      <c r="G1743" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1743" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1743" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1744" s="1">
+        <v>1742</v>
+      </c>
+      <c r="B1744" s="1">
+        <v>942000</v>
+      </c>
+      <c r="C1744" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1744" s="1">
+        <v>46810000</v>
+      </c>
+      <c r="E1744" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1744" s="4">
+        <f t="shared" si="109"/>
+        <v>46910000</v>
+      </c>
+      <c r="G1744" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1744" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1744" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1745" s="1">
+        <v>1743</v>
+      </c>
+      <c r="B1745" s="1">
+        <v>943000</v>
+      </c>
+      <c r="C1745" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1745" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1745" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1745" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1745" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1745" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1745" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1746" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B1746" s="1">
+        <v>944000</v>
+      </c>
+      <c r="C1746" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1746" s="1">
+        <v>46850000</v>
+      </c>
+      <c r="E1746" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1746" s="4">
+        <f t="shared" si="109"/>
+        <v>46950000</v>
+      </c>
+      <c r="G1746" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1746" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1746" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1747" s="1">
+        <v>1745</v>
+      </c>
+      <c r="B1747" s="1">
+        <v>945000</v>
+      </c>
+      <c r="C1747" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1747" s="1">
+        <v>46870000</v>
+      </c>
+      <c r="E1747" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1747" s="4">
+        <f t="shared" si="109"/>
+        <v>46970000</v>
+      </c>
+      <c r="G1747" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1747" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1747" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1748" s="1">
+        <v>1746</v>
+      </c>
+      <c r="B1748" s="1">
+        <v>946000</v>
+      </c>
+      <c r="C1748" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1748" s="1">
+        <v>46890000</v>
+      </c>
+      <c r="E1748" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1748" s="4">
+        <f t="shared" si="109"/>
+        <v>46990000</v>
+      </c>
+      <c r="G1748" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1748" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1748" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1749" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B1749" s="1">
+        <v>947000</v>
+      </c>
+      <c r="C1749" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1749" s="1">
+        <v>46910000</v>
+      </c>
+      <c r="E1749" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1749" s="4">
+        <f t="shared" si="109"/>
+        <v>47010000</v>
+      </c>
+      <c r="G1749" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1749" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1750" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B1750" s="1">
+        <v>948000</v>
+      </c>
+      <c r="C1750" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1750" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1750" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1750" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1750" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1750" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1750" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1751" s="1">
+        <v>1749</v>
+      </c>
+      <c r="B1751" s="1">
+        <v>949000</v>
+      </c>
+      <c r="C1751" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1751" s="1">
+        <v>46950000</v>
+      </c>
+      <c r="E1751" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1751" s="4">
+        <f t="shared" si="109"/>
+        <v>47050000</v>
+      </c>
+      <c r="G1751" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1751" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1751" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1752" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B1752" s="1">
+        <v>950000</v>
+      </c>
+      <c r="C1752" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1752" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1752" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1752" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1752" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1752" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1752" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1753" s="1">
+        <v>1751</v>
+      </c>
+      <c r="B1753" s="1">
+        <v>951000</v>
+      </c>
+      <c r="C1753" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1753" s="1">
+        <v>46990000</v>
+      </c>
+      <c r="E1753" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1753" s="4">
+        <f t="shared" si="109"/>
+        <v>47090000</v>
+      </c>
+      <c r="G1753" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1753" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1753" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1754" s="1">
+        <v>1752</v>
+      </c>
+      <c r="B1754" s="1">
+        <v>952000</v>
+      </c>
+      <c r="C1754" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1754" s="1">
+        <v>47010000</v>
+      </c>
+      <c r="E1754" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1754" s="4">
+        <f t="shared" si="109"/>
+        <v>47110000</v>
+      </c>
+      <c r="G1754" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1754" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1754" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1755" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B1755" s="1">
+        <v>953000</v>
+      </c>
+      <c r="C1755" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1755" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1755" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1755" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1755" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1755" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1755" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1756" s="1">
+        <v>1754</v>
+      </c>
+      <c r="B1756" s="1">
+        <v>954000</v>
+      </c>
+      <c r="C1756" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1756" s="1">
+        <v>47050000</v>
+      </c>
+      <c r="E1756" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1756" s="4">
+        <f t="shared" si="109"/>
+        <v>47150000</v>
+      </c>
+      <c r="G1756" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1756" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1756" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1757" s="1">
+        <v>1755</v>
+      </c>
+      <c r="B1757" s="1">
+        <v>955000</v>
+      </c>
+      <c r="C1757" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1757" s="1">
+        <v>47070000</v>
+      </c>
+      <c r="E1757" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1757" s="4">
+        <f t="shared" si="109"/>
+        <v>47170000</v>
+      </c>
+      <c r="G1757" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1757" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1757" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1758" s="1">
+        <v>1756</v>
+      </c>
+      <c r="B1758" s="1">
+        <v>956000</v>
+      </c>
+      <c r="C1758" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1758" s="1">
+        <v>47090000</v>
+      </c>
+      <c r="E1758" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1758" s="4">
+        <f t="shared" si="109"/>
+        <v>47190000</v>
+      </c>
+      <c r="G1758" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1758" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1758" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1759" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B1759" s="1">
+        <v>957000</v>
+      </c>
+      <c r="C1759" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1759" s="1">
+        <v>47110000</v>
+      </c>
+      <c r="E1759" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1759" s="4">
+        <f t="shared" si="109"/>
+        <v>47210000</v>
+      </c>
+      <c r="G1759" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1759" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1759" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1760" s="1">
+        <v>1758</v>
+      </c>
+      <c r="B1760" s="1">
+        <v>958000</v>
+      </c>
+      <c r="C1760" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1760" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1760" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1760" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1760" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1760" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1760" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1761" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B1761" s="1">
+        <v>959000</v>
+      </c>
+      <c r="C1761" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1761" s="1">
+        <v>47150000</v>
+      </c>
+      <c r="E1761" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1761" s="4">
+        <f t="shared" si="109"/>
+        <v>47250000</v>
+      </c>
+      <c r="G1761" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1761" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1761" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1762" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B1762" s="1">
+        <v>960000</v>
+      </c>
+      <c r="C1762" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1762" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1762" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1762" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1762" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1762" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1762" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1763" s="1">
+        <v>1761</v>
+      </c>
+      <c r="B1763" s="1">
+        <v>961000</v>
+      </c>
+      <c r="C1763" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1763" s="1">
+        <v>47190000</v>
+      </c>
+      <c r="E1763" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1763" s="4">
+        <f t="shared" si="109"/>
+        <v>47290000</v>
+      </c>
+      <c r="G1763" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1763" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1764" s="1">
+        <v>1762</v>
+      </c>
+      <c r="B1764" s="1">
+        <v>962000</v>
+      </c>
+      <c r="C1764" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1764" s="1">
+        <v>47210000</v>
+      </c>
+      <c r="E1764" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1764" s="4">
+        <f t="shared" si="109"/>
+        <v>47310000</v>
+      </c>
+      <c r="G1764" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1764" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1764" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1765" s="1">
+        <v>1763</v>
+      </c>
+      <c r="B1765" s="1">
+        <v>963000</v>
+      </c>
+      <c r="C1765" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1765" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1765" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1765" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1765" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1765" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1765" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1766" s="1">
+        <v>1764</v>
+      </c>
+      <c r="B1766" s="1">
+        <v>964000</v>
+      </c>
+      <c r="C1766" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1766" s="1">
+        <v>47250000</v>
+      </c>
+      <c r="E1766" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1766" s="4">
+        <f t="shared" si="109"/>
+        <v>47350000</v>
+      </c>
+      <c r="G1766" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1766" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1766" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1767" s="1">
+        <v>1765</v>
+      </c>
+      <c r="B1767" s="1">
+        <v>965000</v>
+      </c>
+      <c r="C1767" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1767" s="1">
+        <v>47270000</v>
+      </c>
+      <c r="E1767" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1767" s="4">
+        <f t="shared" si="109"/>
+        <v>47370000</v>
+      </c>
+      <c r="G1767" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1767" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1768" s="1">
+        <v>1766</v>
+      </c>
+      <c r="B1768" s="1">
+        <v>966000</v>
+      </c>
+      <c r="C1768" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1768" s="1">
+        <v>47290000</v>
+      </c>
+      <c r="E1768" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1768" s="4">
+        <f t="shared" ref="F1768:F1801" si="110">D1768+100000</f>
+        <v>47390000</v>
+      </c>
+      <c r="G1768" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1768" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1769" s="1">
+        <v>1767</v>
+      </c>
+      <c r="B1769" s="1">
+        <v>967000</v>
+      </c>
+      <c r="C1769" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1769" s="1">
+        <v>47310000</v>
+      </c>
+      <c r="E1769" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1769" s="4">
+        <f t="shared" si="110"/>
+        <v>47410000</v>
+      </c>
+      <c r="G1769" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1769" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1770" s="1">
+        <v>1768</v>
+      </c>
+      <c r="B1770" s="1">
+        <v>968000</v>
+      </c>
+      <c r="C1770" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1770" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1770" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1770" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1770" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1770" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1771" s="1">
+        <v>1769</v>
+      </c>
+      <c r="B1771" s="1">
+        <v>969000</v>
+      </c>
+      <c r="C1771" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1771" s="1">
+        <v>47350000</v>
+      </c>
+      <c r="E1771" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1771" s="4">
+        <f t="shared" si="110"/>
+        <v>47450000</v>
+      </c>
+      <c r="G1771" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1771" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1772" s="1">
+        <v>1770</v>
+      </c>
+      <c r="B1772" s="1">
+        <v>970000</v>
+      </c>
+      <c r="C1772" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1772" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1772" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1772" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1772" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1772" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1773" s="1">
+        <v>1771</v>
+      </c>
+      <c r="B1773" s="1">
+        <v>971000</v>
+      </c>
+      <c r="C1773" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1773" s="1">
+        <v>47390000</v>
+      </c>
+      <c r="E1773" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1773" s="4">
+        <f t="shared" si="110"/>
+        <v>47490000</v>
+      </c>
+      <c r="G1773" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1773" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1774" s="1">
+        <v>1772</v>
+      </c>
+      <c r="B1774" s="1">
+        <v>972000</v>
+      </c>
+      <c r="C1774" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1774" s="1">
+        <v>47410000</v>
+      </c>
+      <c r="E1774" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1774" s="4">
+        <f t="shared" si="110"/>
+        <v>47510000</v>
+      </c>
+      <c r="G1774" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1774" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1775" s="1">
+        <v>1773</v>
+      </c>
+      <c r="B1775" s="1">
+        <v>973000</v>
+      </c>
+      <c r="C1775" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1775" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1775" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1775" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1775" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1775" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1776" s="1">
+        <v>1774</v>
+      </c>
+      <c r="B1776" s="1">
+        <v>974000</v>
+      </c>
+      <c r="C1776" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1776" s="1">
+        <v>47450000</v>
+      </c>
+      <c r="E1776" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1776" s="4">
+        <f t="shared" si="110"/>
+        <v>47550000</v>
+      </c>
+      <c r="G1776" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1776" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1777" s="1">
+        <v>1775</v>
+      </c>
+      <c r="B1777" s="1">
+        <v>975000</v>
+      </c>
+      <c r="C1777" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1777" s="1">
+        <v>47470000</v>
+      </c>
+      <c r="E1777" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1777" s="4">
+        <f t="shared" si="110"/>
+        <v>47570000</v>
+      </c>
+      <c r="G1777" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1777" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1778" s="1">
+        <v>1776</v>
+      </c>
+      <c r="B1778" s="1">
+        <v>976000</v>
+      </c>
+      <c r="C1778" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1778" s="1">
+        <v>47490000</v>
+      </c>
+      <c r="E1778" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1778" s="4">
+        <f t="shared" si="110"/>
+        <v>47590000</v>
+      </c>
+      <c r="G1778" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1778" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1779" s="1">
+        <v>1777</v>
+      </c>
+      <c r="B1779" s="1">
+        <v>977000</v>
+      </c>
+      <c r="C1779" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1779" s="1">
+        <v>47510000</v>
+      </c>
+      <c r="E1779" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1779" s="4">
+        <f t="shared" si="110"/>
+        <v>47610000</v>
+      </c>
+      <c r="G1779" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1779" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1780" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B1780" s="1">
+        <v>978000</v>
+      </c>
+      <c r="C1780" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1780" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1780" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1780" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1780" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1780" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1781" s="1">
+        <v>1779</v>
+      </c>
+      <c r="B1781" s="1">
+        <v>979000</v>
+      </c>
+      <c r="C1781" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1781" s="1">
+        <v>47550000</v>
+      </c>
+      <c r="E1781" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1781" s="4">
+        <f t="shared" si="110"/>
+        <v>47650000</v>
+      </c>
+      <c r="G1781" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1781" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1782" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B1782" s="1">
+        <v>980000</v>
+      </c>
+      <c r="C1782" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1782" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1782" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1782" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1782" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1782" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1783" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B1783" s="1">
+        <v>981000</v>
+      </c>
+      <c r="C1783" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1783" s="1">
+        <v>47590000</v>
+      </c>
+      <c r="E1783" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1783" s="4">
+        <f t="shared" si="110"/>
+        <v>47690000</v>
+      </c>
+      <c r="G1783" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1783" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1784" s="1">
+        <v>1782</v>
+      </c>
+      <c r="B1784" s="1">
+        <v>982000</v>
+      </c>
+      <c r="C1784" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1784" s="1">
+        <v>47610000</v>
+      </c>
+      <c r="E1784" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1784" s="4">
+        <f t="shared" si="110"/>
+        <v>47710000</v>
+      </c>
+      <c r="G1784" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1784" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1785" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B1785" s="1">
+        <v>983000</v>
+      </c>
+      <c r="C1785" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1785" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1785" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1785" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1785" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1785" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1786" s="1">
+        <v>1784</v>
+      </c>
+      <c r="B1786" s="1">
+        <v>984000</v>
+      </c>
+      <c r="C1786" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1786" s="1">
+        <v>47650000</v>
+      </c>
+      <c r="E1786" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1786" s="4">
+        <f t="shared" si="110"/>
+        <v>47750000</v>
+      </c>
+      <c r="G1786" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1786" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1787" s="1">
+        <v>1785</v>
+      </c>
+      <c r="B1787" s="1">
+        <v>985000</v>
+      </c>
+      <c r="C1787" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1787" s="1">
+        <v>47670000</v>
+      </c>
+      <c r="E1787" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1787" s="4">
+        <f t="shared" si="110"/>
+        <v>47770000</v>
+      </c>
+      <c r="G1787" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1787" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1788" s="1">
+        <v>1786</v>
+      </c>
+      <c r="B1788" s="1">
+        <v>986000</v>
+      </c>
+      <c r="C1788" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1788" s="1">
+        <v>47690000</v>
+      </c>
+      <c r="E1788" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1788" s="4">
+        <f t="shared" si="110"/>
+        <v>47790000</v>
+      </c>
+      <c r="G1788" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1788" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1789" s="1">
+        <v>1787</v>
+      </c>
+      <c r="B1789" s="1">
+        <v>987000</v>
+      </c>
+      <c r="C1789" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1789" s="1">
+        <v>47710000</v>
+      </c>
+      <c r="E1789" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1789" s="4">
+        <f t="shared" si="110"/>
+        <v>47810000</v>
+      </c>
+      <c r="G1789" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1789" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1790" s="1">
+        <v>1788</v>
+      </c>
+      <c r="B1790" s="1">
+        <v>988000</v>
+      </c>
+      <c r="C1790" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1790" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1790" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1790" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1790" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1790" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1791" s="1">
+        <v>1789</v>
+      </c>
+      <c r="B1791" s="1">
+        <v>989000</v>
+      </c>
+      <c r="C1791" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1791" s="1">
+        <v>47750000</v>
+      </c>
+      <c r="E1791" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1791" s="4">
+        <f t="shared" si="110"/>
+        <v>47850000</v>
+      </c>
+      <c r="G1791" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1791" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1792" s="1">
+        <v>1790</v>
+      </c>
+      <c r="B1792" s="1">
+        <v>990000</v>
+      </c>
+      <c r="C1792" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1792" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1792" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1792" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1792" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1792" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1793" s="1">
+        <v>1791</v>
+      </c>
+      <c r="B1793" s="1">
+        <v>991000</v>
+      </c>
+      <c r="C1793" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1793" s="1">
+        <v>47790000</v>
+      </c>
+      <c r="E1793" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1793" s="4">
+        <f t="shared" si="110"/>
+        <v>47890000</v>
+      </c>
+      <c r="G1793" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1793" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1794" s="1">
+        <v>1792</v>
+      </c>
+      <c r="B1794" s="1">
+        <v>992000</v>
+      </c>
+      <c r="C1794" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1794" s="1">
+        <v>47810000</v>
+      </c>
+      <c r="E1794" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1794" s="4">
+        <f t="shared" si="110"/>
+        <v>47910000</v>
+      </c>
+      <c r="G1794" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1794" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1795" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B1795" s="1">
+        <v>993000</v>
+      </c>
+      <c r="C1795" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1795" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1795" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1795" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1795" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1795" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1796" s="1">
+        <v>1794</v>
+      </c>
+      <c r="B1796" s="1">
+        <v>994000</v>
+      </c>
+      <c r="C1796" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1796" s="1">
+        <v>47850000</v>
+      </c>
+      <c r="E1796" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1796" s="4">
+        <f t="shared" si="110"/>
+        <v>47950000</v>
+      </c>
+      <c r="G1796" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1796" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1797" s="1">
+        <v>1795</v>
+      </c>
+      <c r="B1797" s="1">
+        <v>995000</v>
+      </c>
+      <c r="C1797" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1797" s="1">
+        <v>47870000</v>
+      </c>
+      <c r="E1797" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1797" s="4">
+        <f t="shared" si="110"/>
+        <v>47970000</v>
+      </c>
+      <c r="G1797" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1797" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1797" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1798" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B1798" s="1">
+        <v>996000</v>
+      </c>
+      <c r="C1798" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1798" s="1">
+        <v>47890000</v>
+      </c>
+      <c r="E1798" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1798" s="4">
+        <f t="shared" si="110"/>
+        <v>47990000</v>
+      </c>
+      <c r="G1798" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1798" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1798" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1799" s="1">
+        <v>1797</v>
+      </c>
+      <c r="B1799" s="1">
+        <v>997000</v>
+      </c>
+      <c r="C1799" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1799" s="1">
+        <v>47910000</v>
+      </c>
+      <c r="E1799" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1799" s="4">
+        <f t="shared" si="110"/>
+        <v>48010000</v>
+      </c>
+      <c r="G1799" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1799" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1800" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B1800" s="1">
+        <v>998000</v>
+      </c>
+      <c r="C1800" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1800" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E1800" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1800" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G1800" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1800" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1801" s="1">
+        <v>1799</v>
+      </c>
+      <c r="B1801" s="1">
+        <v>999000</v>
+      </c>
+      <c r="C1801" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1801" s="1">
+        <v>47950000</v>
+      </c>
+      <c r="E1801" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1801" s="4">
+        <f t="shared" si="110"/>
+        <v>48050000</v>
+      </c>
+      <c r="G1801" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1801" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1802" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B1802" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C1802" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1802" s="1">
+        <v>45</v>
+      </c>
+      <c r="E1802" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1802" s="4">
+        <v>45</v>
+      </c>
+      <c r="G1802" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1802" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47FD257-4EFB-4959-88AA-ADBAD468038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79044B50-5E5B-4216-A037-49F099A80ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,13 @@
   </si>
   <si>
     <t>levelpass13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass14</t>
+  </si>
+  <si>
+    <t>levelpass14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,11 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I1802"/>
+  <dimension ref="A1:I1902"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1668" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1703" sqref="G1703"/>
+      <pane ySplit="1" topLeftCell="A1843" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1863" sqref="H1863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52904,7 +52911,7 @@
         <v>1</v>
       </c>
       <c r="F1768" s="4">
-        <f t="shared" ref="F1768:F1801" si="110">D1768+100000</f>
+        <f t="shared" ref="F1768:F1803" si="110">D1768+100000</f>
         <v>47390000</v>
       </c>
       <c r="G1768" s="1">
@@ -53884,7 +53891,7 @@
         <v>1</v>
       </c>
       <c r="F1801" s="4">
-        <f t="shared" si="110"/>
+        <f>D1801+100000</f>
         <v>48050000</v>
       </c>
       <c r="G1801" s="1">
@@ -53897,32 +53904,3002 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1802" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1802" s="1">
+    <row r="1802" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1802" s="3">
         <v>1800</v>
       </c>
-      <c r="B1802" s="1">
+      <c r="B1802" s="3">
         <v>1000000</v>
       </c>
-      <c r="C1802" s="2">
+      <c r="C1802" s="3">
         <v>14</v>
       </c>
-      <c r="D1802" s="1">
+      <c r="D1802" s="3">
         <v>45</v>
       </c>
-      <c r="E1802" s="2">
+      <c r="E1802" s="3">
         <v>14</v>
       </c>
-      <c r="F1802" s="4">
+      <c r="F1802" s="7">
         <v>45</v>
       </c>
-      <c r="G1802" s="1">
+      <c r="G1802" s="3">
         <v>12</v>
       </c>
-      <c r="H1802" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1802" s="1">
+      <c r="H1802" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1802" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1803" s="1">
+        <v>1801</v>
+      </c>
+      <c r="B1803" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="C1803" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1803" s="1">
+        <v>47990000</v>
+      </c>
+      <c r="E1803" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1803" s="4">
+        <f>D1803+100000</f>
+        <v>48090000</v>
+      </c>
+      <c r="G1803" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1803" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1804" s="1">
+        <v>1802</v>
+      </c>
+      <c r="B1804" s="1">
+        <v>1002000</v>
+      </c>
+      <c r="C1804" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1804" s="1">
+        <v>48010000</v>
+      </c>
+      <c r="E1804" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1804" s="4">
+        <f t="shared" ref="F1804:F1867" si="111">D1804+100000</f>
+        <v>48110000</v>
+      </c>
+      <c r="G1804" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1804" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1805" s="1">
+        <v>1803</v>
+      </c>
+      <c r="B1805" s="1">
+        <v>1003000</v>
+      </c>
+      <c r="C1805" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1805" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1805" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1805" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1805" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1805" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1806" s="1">
+        <v>1804</v>
+      </c>
+      <c r="B1806" s="1">
+        <v>1004000</v>
+      </c>
+      <c r="C1806" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1806" s="1">
+        <v>48050000</v>
+      </c>
+      <c r="E1806" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1806" s="4">
+        <f t="shared" si="111"/>
+        <v>48150000</v>
+      </c>
+      <c r="G1806" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1806" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1807" s="1">
+        <v>1805</v>
+      </c>
+      <c r="B1807" s="1">
+        <v>1005000</v>
+      </c>
+      <c r="C1807" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1807" s="1">
+        <v>48070000</v>
+      </c>
+      <c r="E1807" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1807" s="4">
+        <f t="shared" si="111"/>
+        <v>48170000</v>
+      </c>
+      <c r="G1807" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1807" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1808" s="1">
+        <v>1806</v>
+      </c>
+      <c r="B1808" s="1">
+        <v>1006000</v>
+      </c>
+      <c r="C1808" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1808" s="1">
+        <v>48090000</v>
+      </c>
+      <c r="E1808" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1808" s="4">
+        <f t="shared" si="111"/>
+        <v>48190000</v>
+      </c>
+      <c r="G1808" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1808" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1809" s="1">
+        <v>1807</v>
+      </c>
+      <c r="B1809" s="1">
+        <v>1007000</v>
+      </c>
+      <c r="C1809" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1809" s="1">
+        <v>48110000</v>
+      </c>
+      <c r="E1809" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1809" s="4">
+        <f t="shared" si="111"/>
+        <v>48210000</v>
+      </c>
+      <c r="G1809" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1809" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1810" s="1">
+        <v>1808</v>
+      </c>
+      <c r="B1810" s="1">
+        <v>1008000</v>
+      </c>
+      <c r="C1810" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1810" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1810" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1810" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1810" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1810" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1811" s="1">
+        <v>1809</v>
+      </c>
+      <c r="B1811" s="1">
+        <v>1009000</v>
+      </c>
+      <c r="C1811" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1811" s="1">
+        <v>48150000</v>
+      </c>
+      <c r="E1811" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1811" s="4">
+        <f t="shared" si="111"/>
+        <v>48250000</v>
+      </c>
+      <c r="G1811" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1811" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1812" s="1">
+        <v>1810</v>
+      </c>
+      <c r="B1812" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="C1812" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1812" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1812" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1812" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1812" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1812" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1813" s="1">
+        <v>1811</v>
+      </c>
+      <c r="B1813" s="1">
+        <v>1011000</v>
+      </c>
+      <c r="C1813" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1813" s="1">
+        <v>48190000</v>
+      </c>
+      <c r="E1813" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1813" s="4">
+        <f t="shared" si="111"/>
+        <v>48290000</v>
+      </c>
+      <c r="G1813" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1813" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1814" s="1">
+        <v>1812</v>
+      </c>
+      <c r="B1814" s="1">
+        <v>1012000</v>
+      </c>
+      <c r="C1814" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1814" s="1">
+        <v>48210000</v>
+      </c>
+      <c r="E1814" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1814" s="4">
+        <f t="shared" si="111"/>
+        <v>48310000</v>
+      </c>
+      <c r="G1814" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1814" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1815" s="1">
+        <v>1813</v>
+      </c>
+      <c r="B1815" s="1">
+        <v>1013000</v>
+      </c>
+      <c r="C1815" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1815" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1815" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1815" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1815" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1815" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1816" s="1">
+        <v>1814</v>
+      </c>
+      <c r="B1816" s="1">
+        <v>1014000</v>
+      </c>
+      <c r="C1816" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1816" s="1">
+        <v>48250000</v>
+      </c>
+      <c r="E1816" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1816" s="4">
+        <f t="shared" si="111"/>
+        <v>48350000</v>
+      </c>
+      <c r="G1816" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1816" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1817" s="1">
+        <v>1815</v>
+      </c>
+      <c r="B1817" s="1">
+        <v>1015000</v>
+      </c>
+      <c r="C1817" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1817" s="1">
+        <v>48270000</v>
+      </c>
+      <c r="E1817" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1817" s="4">
+        <f t="shared" si="111"/>
+        <v>48370000</v>
+      </c>
+      <c r="G1817" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1817" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1818" s="1">
+        <v>1816</v>
+      </c>
+      <c r="B1818" s="1">
+        <v>1016000</v>
+      </c>
+      <c r="C1818" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1818" s="1">
+        <v>48290000</v>
+      </c>
+      <c r="E1818" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1818" s="4">
+        <f t="shared" si="111"/>
+        <v>48390000</v>
+      </c>
+      <c r="G1818" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1818" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1819" s="1">
+        <v>1817</v>
+      </c>
+      <c r="B1819" s="1">
+        <v>1017000</v>
+      </c>
+      <c r="C1819" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1819" s="1">
+        <v>48310000</v>
+      </c>
+      <c r="E1819" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1819" s="4">
+        <f t="shared" si="111"/>
+        <v>48410000</v>
+      </c>
+      <c r="G1819" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1819" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1820" s="1">
+        <v>1818</v>
+      </c>
+      <c r="B1820" s="1">
+        <v>1018000</v>
+      </c>
+      <c r="C1820" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1820" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1820" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1820" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1820" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1820" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1821" s="1">
+        <v>1819</v>
+      </c>
+      <c r="B1821" s="1">
+        <v>1019000</v>
+      </c>
+      <c r="C1821" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1821" s="1">
+        <v>48350000</v>
+      </c>
+      <c r="E1821" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1821" s="4">
+        <f t="shared" si="111"/>
+        <v>48450000</v>
+      </c>
+      <c r="G1821" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1821" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1822" s="1">
+        <v>1820</v>
+      </c>
+      <c r="B1822" s="1">
+        <v>1020000</v>
+      </c>
+      <c r="C1822" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1822" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1822" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1822" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1822" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1822" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1823" s="1">
+        <v>1821</v>
+      </c>
+      <c r="B1823" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="C1823" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1823" s="1">
+        <v>48390000</v>
+      </c>
+      <c r="E1823" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1823" s="4">
+        <f t="shared" si="111"/>
+        <v>48490000</v>
+      </c>
+      <c r="G1823" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1823" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1824" s="1">
+        <v>1822</v>
+      </c>
+      <c r="B1824" s="1">
+        <v>1022000</v>
+      </c>
+      <c r="C1824" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1824" s="1">
+        <v>48410000</v>
+      </c>
+      <c r="E1824" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1824" s="4">
+        <f t="shared" si="111"/>
+        <v>48510000</v>
+      </c>
+      <c r="G1824" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1824" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1825" s="1">
+        <v>1823</v>
+      </c>
+      <c r="B1825" s="1">
+        <v>1023000</v>
+      </c>
+      <c r="C1825" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1825" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1825" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1825" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1825" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1825" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1826" s="1">
+        <v>1824</v>
+      </c>
+      <c r="B1826" s="1">
+        <v>1024000</v>
+      </c>
+      <c r="C1826" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1826" s="1">
+        <v>48450000</v>
+      </c>
+      <c r="E1826" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1826" s="4">
+        <f t="shared" si="111"/>
+        <v>48550000</v>
+      </c>
+      <c r="G1826" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1826" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1827" s="1">
+        <v>1825</v>
+      </c>
+      <c r="B1827" s="1">
+        <v>1025000</v>
+      </c>
+      <c r="C1827" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1827" s="1">
+        <v>48470000</v>
+      </c>
+      <c r="E1827" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1827" s="4">
+        <f t="shared" si="111"/>
+        <v>48570000</v>
+      </c>
+      <c r="G1827" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1827" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1828" s="1">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="1">
+        <v>1026000</v>
+      </c>
+      <c r="C1828" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1828" s="1">
+        <v>48490000</v>
+      </c>
+      <c r="E1828" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1828" s="4">
+        <f t="shared" si="111"/>
+        <v>48590000</v>
+      </c>
+      <c r="G1828" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1828" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1829" s="1">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="1">
+        <v>1027000</v>
+      </c>
+      <c r="C1829" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1829" s="1">
+        <v>48510000</v>
+      </c>
+      <c r="E1829" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1829" s="4">
+        <f t="shared" si="111"/>
+        <v>48610000</v>
+      </c>
+      <c r="G1829" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1829" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1830" s="1">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="1">
+        <v>1028000</v>
+      </c>
+      <c r="C1830" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1830" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1830" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1830" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1830" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1830" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1831" s="1">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="1">
+        <v>1029000</v>
+      </c>
+      <c r="C1831" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1831" s="1">
+        <v>48550000</v>
+      </c>
+      <c r="E1831" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1831" s="4">
+        <f t="shared" si="111"/>
+        <v>48650000</v>
+      </c>
+      <c r="G1831" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1831" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1832" s="1">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="1">
+        <v>1030000</v>
+      </c>
+      <c r="C1832" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1832" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1832" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1832" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1832" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1832" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1833" s="1">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="1">
+        <v>1031000</v>
+      </c>
+      <c r="C1833" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1833" s="1">
+        <v>48590000</v>
+      </c>
+      <c r="E1833" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1833" s="4">
+        <f t="shared" si="111"/>
+        <v>48690000</v>
+      </c>
+      <c r="G1833" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1833" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1834" s="1">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="1">
+        <v>1032000</v>
+      </c>
+      <c r="C1834" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1834" s="1">
+        <v>48610000</v>
+      </c>
+      <c r="E1834" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1834" s="4">
+        <f t="shared" si="111"/>
+        <v>48710000</v>
+      </c>
+      <c r="G1834" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1834" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1835" s="1">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="1">
+        <v>1033000</v>
+      </c>
+      <c r="C1835" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1835" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1835" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1835" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1835" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1835" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1836" s="1">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="1">
+        <v>1034000</v>
+      </c>
+      <c r="C1836" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1836" s="1">
+        <v>48650000</v>
+      </c>
+      <c r="E1836" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1836" s="4">
+        <f t="shared" si="111"/>
+        <v>48750000</v>
+      </c>
+      <c r="G1836" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1836" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1837" s="1">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="1">
+        <v>1035000</v>
+      </c>
+      <c r="C1837" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1837" s="1">
+        <v>48670000</v>
+      </c>
+      <c r="E1837" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1837" s="4">
+        <f t="shared" si="111"/>
+        <v>48770000</v>
+      </c>
+      <c r="G1837" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1837" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1838" s="1">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="1">
+        <v>1036000</v>
+      </c>
+      <c r="C1838" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1838" s="1">
+        <v>48690000</v>
+      </c>
+      <c r="E1838" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1838" s="4">
+        <f t="shared" si="111"/>
+        <v>48790000</v>
+      </c>
+      <c r="G1838" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1838" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1839" s="1">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="1">
+        <v>1037000</v>
+      </c>
+      <c r="C1839" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1839" s="1">
+        <v>48710000</v>
+      </c>
+      <c r="E1839" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1839" s="4">
+        <f t="shared" si="111"/>
+        <v>48810000</v>
+      </c>
+      <c r="G1839" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1839" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1840" s="1">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="1">
+        <v>1038000</v>
+      </c>
+      <c r="C1840" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1840" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1840" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1840" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1840" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1840" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1841" s="1">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="1">
+        <v>1039000</v>
+      </c>
+      <c r="C1841" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1841" s="1">
+        <v>48750000</v>
+      </c>
+      <c r="E1841" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1841" s="4">
+        <f t="shared" si="111"/>
+        <v>48850000</v>
+      </c>
+      <c r="G1841" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1841" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1842" s="1">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="C1842" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1842" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1842" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1842" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1842" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1842" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1843" s="1">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="1">
+        <v>1041000</v>
+      </c>
+      <c r="C1843" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1843" s="1">
+        <v>48790000</v>
+      </c>
+      <c r="E1843" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1843" s="4">
+        <f t="shared" si="111"/>
+        <v>48890000</v>
+      </c>
+      <c r="G1843" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1843" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1844" s="1">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="1">
+        <v>1042000</v>
+      </c>
+      <c r="C1844" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1844" s="1">
+        <v>48810000</v>
+      </c>
+      <c r="E1844" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1844" s="4">
+        <f t="shared" si="111"/>
+        <v>48910000</v>
+      </c>
+      <c r="G1844" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1844" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1845" s="1">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="1">
+        <v>1043000</v>
+      </c>
+      <c r="C1845" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1845" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1845" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1845" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1845" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1845" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1846" s="1">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="C1846" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1846" s="1">
+        <v>48850000</v>
+      </c>
+      <c r="E1846" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1846" s="4">
+        <f t="shared" si="111"/>
+        <v>48950000</v>
+      </c>
+      <c r="G1846" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1846" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1847" s="1">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="1">
+        <v>1045000</v>
+      </c>
+      <c r="C1847" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1847" s="1">
+        <v>48870000</v>
+      </c>
+      <c r="E1847" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1847" s="4">
+        <f t="shared" si="111"/>
+        <v>48970000</v>
+      </c>
+      <c r="G1847" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1847" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1848" s="1">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="1">
+        <v>1046000</v>
+      </c>
+      <c r="C1848" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1848" s="1">
+        <v>48890000</v>
+      </c>
+      <c r="E1848" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1848" s="4">
+        <f t="shared" si="111"/>
+        <v>48990000</v>
+      </c>
+      <c r="G1848" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1848" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1849" s="1">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="1">
+        <v>1047000</v>
+      </c>
+      <c r="C1849" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1849" s="1">
+        <v>48910000</v>
+      </c>
+      <c r="E1849" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1849" s="4">
+        <f t="shared" si="111"/>
+        <v>49010000</v>
+      </c>
+      <c r="G1849" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1849" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1850" s="1">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="1">
+        <v>1048000</v>
+      </c>
+      <c r="C1850" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1850" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1850" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1850" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1850" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1850" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1851" s="1">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="1">
+        <v>1049000</v>
+      </c>
+      <c r="C1851" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1851" s="1">
+        <v>48950000</v>
+      </c>
+      <c r="E1851" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1851" s="4">
+        <f t="shared" si="111"/>
+        <v>49050000</v>
+      </c>
+      <c r="G1851" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1851" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1852" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="C1852" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1852" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1852" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1852" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1852" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1852" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1853" s="1">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="1">
+        <v>1051000</v>
+      </c>
+      <c r="C1853" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1853" s="1">
+        <v>48990000</v>
+      </c>
+      <c r="E1853" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1853" s="4">
+        <f t="shared" si="111"/>
+        <v>49090000</v>
+      </c>
+      <c r="G1853" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1853" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1854" s="1">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="1">
+        <v>1052000</v>
+      </c>
+      <c r="C1854" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1854" s="1">
+        <v>49010000</v>
+      </c>
+      <c r="E1854" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1854" s="4">
+        <f t="shared" si="111"/>
+        <v>49110000</v>
+      </c>
+      <c r="G1854" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1854" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1855" s="1">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="1">
+        <v>1053000</v>
+      </c>
+      <c r="C1855" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1855" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1855" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1855" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1855" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1855" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1856" s="1">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="1">
+        <v>1054000</v>
+      </c>
+      <c r="C1856" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1856" s="1">
+        <v>49050000</v>
+      </c>
+      <c r="E1856" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1856" s="4">
+        <f t="shared" si="111"/>
+        <v>49150000</v>
+      </c>
+      <c r="G1856" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1856" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1857" s="1">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="1">
+        <v>1055000</v>
+      </c>
+      <c r="C1857" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1857" s="1">
+        <v>49070000</v>
+      </c>
+      <c r="E1857" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1857" s="4">
+        <f t="shared" si="111"/>
+        <v>49170000</v>
+      </c>
+      <c r="G1857" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1857" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1858" s="1">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="1">
+        <v>1056000</v>
+      </c>
+      <c r="C1858" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1858" s="1">
+        <v>49090000</v>
+      </c>
+      <c r="E1858" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1858" s="4">
+        <f t="shared" si="111"/>
+        <v>49190000</v>
+      </c>
+      <c r="G1858" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1858" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1859" s="1">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="1">
+        <v>1057000</v>
+      </c>
+      <c r="C1859" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1859" s="1">
+        <v>49110000</v>
+      </c>
+      <c r="E1859" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1859" s="4">
+        <f t="shared" si="111"/>
+        <v>49210000</v>
+      </c>
+      <c r="G1859" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1859" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1860" s="1">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="1">
+        <v>1058000</v>
+      </c>
+      <c r="C1860" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1860" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1860" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1860" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1860" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1860" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1861" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="1">
+        <v>1059000</v>
+      </c>
+      <c r="C1861" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1861" s="1">
+        <v>49150000</v>
+      </c>
+      <c r="E1861" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1861" s="4">
+        <f t="shared" si="111"/>
+        <v>49250000</v>
+      </c>
+      <c r="G1861" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1861" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1862" s="1">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="1">
+        <v>1060000</v>
+      </c>
+      <c r="C1862" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1862" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1862" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1862" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1862" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1862" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1863" s="1">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="1">
+        <v>1061000</v>
+      </c>
+      <c r="C1863" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1863" s="1">
+        <v>49190000</v>
+      </c>
+      <c r="E1863" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1863" s="4">
+        <f t="shared" si="111"/>
+        <v>49290000</v>
+      </c>
+      <c r="G1863" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1863" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1864" s="1">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="1">
+        <v>1062000</v>
+      </c>
+      <c r="C1864" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1864" s="1">
+        <v>49210000</v>
+      </c>
+      <c r="E1864" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1864" s="4">
+        <f t="shared" si="111"/>
+        <v>49310000</v>
+      </c>
+      <c r="G1864" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1864" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1865" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="1">
+        <v>1063000</v>
+      </c>
+      <c r="C1865" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1865" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1865" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1865" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1865" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1865" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1866" s="1">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="1">
+        <v>1064000</v>
+      </c>
+      <c r="C1866" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1866" s="1">
+        <v>49250000</v>
+      </c>
+      <c r="E1866" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1866" s="4">
+        <f t="shared" si="111"/>
+        <v>49350000</v>
+      </c>
+      <c r="G1866" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1866" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1867" s="1">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="1">
+        <v>1065000</v>
+      </c>
+      <c r="C1867" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1867" s="1">
+        <v>49270000</v>
+      </c>
+      <c r="E1867" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1867" s="4">
+        <f t="shared" si="111"/>
+        <v>49370000</v>
+      </c>
+      <c r="G1867" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1867" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1868" s="1">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="1">
+        <v>1066000</v>
+      </c>
+      <c r="C1868" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1868" s="1">
+        <v>49290000</v>
+      </c>
+      <c r="E1868" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1868" s="4">
+        <f t="shared" ref="F1868:F1902" si="112">D1868+100000</f>
+        <v>49390000</v>
+      </c>
+      <c r="G1868" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1868" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1869" s="1">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="1">
+        <v>1067000</v>
+      </c>
+      <c r="C1869" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1869" s="1">
+        <v>49310000</v>
+      </c>
+      <c r="E1869" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1869" s="4">
+        <f t="shared" si="112"/>
+        <v>49410000</v>
+      </c>
+      <c r="G1869" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1869" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1870" s="1">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="1">
+        <v>1068000</v>
+      </c>
+      <c r="C1870" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1870" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1870" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1870" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1870" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1870" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1870" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1871" s="1">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="C1871" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1871" s="1">
+        <v>49350000</v>
+      </c>
+      <c r="E1871" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1871" s="4">
+        <f t="shared" si="112"/>
+        <v>49450000</v>
+      </c>
+      <c r="G1871" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1871" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1871" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1872" s="1">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="1">
+        <v>1070000</v>
+      </c>
+      <c r="C1872" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1872" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1872" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1872" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1872" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1872" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1872" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1873" s="1">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="1">
+        <v>1071000</v>
+      </c>
+      <c r="C1873" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1873" s="1">
+        <v>49390000</v>
+      </c>
+      <c r="E1873" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1873" s="4">
+        <f t="shared" si="112"/>
+        <v>49490000</v>
+      </c>
+      <c r="G1873" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1873" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1873" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1874" s="1">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="1">
+        <v>1072000</v>
+      </c>
+      <c r="C1874" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1874" s="1">
+        <v>49410000</v>
+      </c>
+      <c r="E1874" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1874" s="4">
+        <f t="shared" si="112"/>
+        <v>49510000</v>
+      </c>
+      <c r="G1874" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1874" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1874" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1875" s="1">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="1">
+        <v>1073000</v>
+      </c>
+      <c r="C1875" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1875" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1875" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1875" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1875" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1875" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1876" s="1">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="1">
+        <v>1074000</v>
+      </c>
+      <c r="C1876" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1876" s="1">
+        <v>49450000</v>
+      </c>
+      <c r="E1876" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1876" s="4">
+        <f t="shared" si="112"/>
+        <v>49550000</v>
+      </c>
+      <c r="G1876" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1876" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1877" s="1">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="1">
+        <v>1075000</v>
+      </c>
+      <c r="C1877" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1877" s="1">
+        <v>49470000</v>
+      </c>
+      <c r="E1877" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1877" s="4">
+        <f t="shared" si="112"/>
+        <v>49570000</v>
+      </c>
+      <c r="G1877" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1877" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1877" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1878" s="1">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="1">
+        <v>1076000</v>
+      </c>
+      <c r="C1878" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1878" s="1">
+        <v>49490000</v>
+      </c>
+      <c r="E1878" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1878" s="4">
+        <f t="shared" si="112"/>
+        <v>49590000</v>
+      </c>
+      <c r="G1878" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1878" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1879" s="1">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="1">
+        <v>1077000</v>
+      </c>
+      <c r="C1879" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1879" s="1">
+        <v>49510000</v>
+      </c>
+      <c r="E1879" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1879" s="4">
+        <f t="shared" si="112"/>
+        <v>49610000</v>
+      </c>
+      <c r="G1879" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1879" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1880" s="1">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="1">
+        <v>1078000</v>
+      </c>
+      <c r="C1880" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1880" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1880" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1880" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1880" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1880" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1881" s="1">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="1">
+        <v>1079000</v>
+      </c>
+      <c r="C1881" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1881" s="1">
+        <v>49550000</v>
+      </c>
+      <c r="E1881" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1881" s="4">
+        <f t="shared" si="112"/>
+        <v>49650000</v>
+      </c>
+      <c r="G1881" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1881" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1882" s="1">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="C1882" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1882" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1882" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1882" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1882" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1882" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1882" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1883" s="1">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="1">
+        <v>1081000</v>
+      </c>
+      <c r="C1883" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1883" s="1">
+        <v>49590000</v>
+      </c>
+      <c r="E1883" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1883" s="4">
+        <f t="shared" si="112"/>
+        <v>49690000</v>
+      </c>
+      <c r="G1883" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1883" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1883" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1884" s="1">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="1">
+        <v>1082000</v>
+      </c>
+      <c r="C1884" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1884" s="1">
+        <v>49610000</v>
+      </c>
+      <c r="E1884" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1884" s="4">
+        <f t="shared" si="112"/>
+        <v>49710000</v>
+      </c>
+      <c r="G1884" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1884" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1885" s="1">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="1">
+        <v>1083000</v>
+      </c>
+      <c r="C1885" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1885" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1885" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1885" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1885" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1885" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1886" s="1">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="1">
+        <v>1084000</v>
+      </c>
+      <c r="C1886" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1886" s="1">
+        <v>49650000</v>
+      </c>
+      <c r="E1886" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1886" s="4">
+        <f t="shared" si="112"/>
+        <v>49750000</v>
+      </c>
+      <c r="G1886" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1886" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1887" s="1">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="1">
+        <v>1085000</v>
+      </c>
+      <c r="C1887" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1887" s="1">
+        <v>49670000</v>
+      </c>
+      <c r="E1887" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1887" s="4">
+        <f t="shared" si="112"/>
+        <v>49770000</v>
+      </c>
+      <c r="G1887" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1887" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1888" s="1">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="1">
+        <v>1086000</v>
+      </c>
+      <c r="C1888" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1888" s="1">
+        <v>49690000</v>
+      </c>
+      <c r="E1888" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1888" s="4">
+        <f t="shared" si="112"/>
+        <v>49790000</v>
+      </c>
+      <c r="G1888" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1888" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1888" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1889" s="1">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="1">
+        <v>1087000</v>
+      </c>
+      <c r="C1889" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1889" s="1">
+        <v>49710000</v>
+      </c>
+      <c r="E1889" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1889" s="4">
+        <f t="shared" si="112"/>
+        <v>49810000</v>
+      </c>
+      <c r="G1889" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1889" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1889" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1890" s="1">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="1">
+        <v>1088000</v>
+      </c>
+      <c r="C1890" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1890" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1890" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1890" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1890" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1890" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1890" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1891" s="1">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="1">
+        <v>1089000</v>
+      </c>
+      <c r="C1891" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1891" s="1">
+        <v>49750000</v>
+      </c>
+      <c r="E1891" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1891" s="4">
+        <f t="shared" si="112"/>
+        <v>49850000</v>
+      </c>
+      <c r="G1891" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1891" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1891" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1892" s="1">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="1">
+        <v>1090000</v>
+      </c>
+      <c r="C1892" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1892" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1892" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1892" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1892" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1892" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1892" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1893" s="1">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="1">
+        <v>1091000</v>
+      </c>
+      <c r="C1893" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1893" s="1">
+        <v>49790000</v>
+      </c>
+      <c r="E1893" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1893" s="4">
+        <f t="shared" si="112"/>
+        <v>49890000</v>
+      </c>
+      <c r="G1893" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1893" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1893" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1894" s="1">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="1">
+        <v>1092000</v>
+      </c>
+      <c r="C1894" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1894" s="1">
+        <v>49810000</v>
+      </c>
+      <c r="E1894" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1894" s="4">
+        <f t="shared" si="112"/>
+        <v>49910000</v>
+      </c>
+      <c r="G1894" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1894" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1894" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1895" s="1">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="1">
+        <v>1093000</v>
+      </c>
+      <c r="C1895" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1895" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1895" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1895" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1895" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1895" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1895" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1896" s="1">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="1">
+        <v>1094000</v>
+      </c>
+      <c r="C1896" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1896" s="1">
+        <v>49850000</v>
+      </c>
+      <c r="E1896" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1896" s="4">
+        <f t="shared" si="112"/>
+        <v>49950000</v>
+      </c>
+      <c r="G1896" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1896" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1897" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="1">
+        <v>1095000</v>
+      </c>
+      <c r="C1897" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1897" s="1">
+        <v>49870000</v>
+      </c>
+      <c r="E1897" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1897" s="4">
+        <f t="shared" si="112"/>
+        <v>49970000</v>
+      </c>
+      <c r="G1897" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1897" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1897" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1898" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="1">
+        <v>1096000</v>
+      </c>
+      <c r="C1898" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1898" s="1">
+        <v>49890000</v>
+      </c>
+      <c r="E1898" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1898" s="4">
+        <f t="shared" si="112"/>
+        <v>49990000</v>
+      </c>
+      <c r="G1898" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1898" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1898" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1899" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="1">
+        <v>1097000</v>
+      </c>
+      <c r="C1899" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1899" s="1">
+        <v>49910000</v>
+      </c>
+      <c r="E1899" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1899" s="4">
+        <f t="shared" si="112"/>
+        <v>50010000</v>
+      </c>
+      <c r="G1899" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1899" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1899" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1900" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="1">
+        <v>1098000</v>
+      </c>
+      <c r="C1900" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1900" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E1900" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1900" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G1900" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1900" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1900" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1901" s="1">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="1">
+        <v>1099000</v>
+      </c>
+      <c r="C1901" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1901" s="1">
+        <v>49950000</v>
+      </c>
+      <c r="E1901" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1901" s="4">
+        <f t="shared" si="112"/>
+        <v>50050000</v>
+      </c>
+      <c r="G1901" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1901" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1901" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1902" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="C1902" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1902" s="1">
+        <v>50</v>
+      </c>
+      <c r="E1902" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1902" s="4">
+        <v>50</v>
+      </c>
+      <c r="G1902" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1902" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1902" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79044B50-5E5B-4216-A037-49F099A80ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2E2335-FD0F-4250-BFE9-1CCDB562AA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -139,6 +139,13 @@
   </si>
   <si>
     <t>levelpass14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass15</t>
+  </si>
+  <si>
+    <t>levelpass15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I1902"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1843" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1863" sqref="H1863"/>
+      <pane ySplit="1" topLeftCell="A1890" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1910" sqref="E1910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52911,7 +52918,7 @@
         <v>1</v>
       </c>
       <c r="F1768" s="4">
-        <f t="shared" ref="F1768:F1803" si="110">D1768+100000</f>
+        <f t="shared" ref="F1768:F1799" si="110">D1768+100000</f>
         <v>47390000</v>
       </c>
       <c r="G1768" s="1">
@@ -55881,7 +55888,7 @@
         <v>1</v>
       </c>
       <c r="F1868" s="4">
-        <f t="shared" ref="F1868:F1902" si="112">D1868+100000</f>
+        <f t="shared" ref="F1868:F1901" si="112">D1868+100000</f>
         <v>49390000</v>
       </c>
       <c r="G1868" s="1">
@@ -56875,7 +56882,7 @@
       </c>
     </row>
     <row r="1902" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1902" s="1">
+      <c r="A1902" s="3">
         <v>1900</v>
       </c>
       <c r="B1902" s="1">
@@ -56897,9 +56904,2979 @@
         <v>13</v>
       </c>
       <c r="H1902" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1902" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1903" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="1">
+        <v>1101000</v>
+      </c>
+      <c r="C1903" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1903" s="1">
+        <v>49990000</v>
+      </c>
+      <c r="E1903" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1903" s="4">
+        <f t="shared" ref="F1903:F1912" si="113">D1903+100000</f>
+        <v>50090000</v>
+      </c>
+      <c r="G1903" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1903" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1903" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1904" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="1">
+        <v>1102000</v>
+      </c>
+      <c r="C1904" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1904" s="1">
+        <v>50010000</v>
+      </c>
+      <c r="E1904" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1904" s="4">
+        <f t="shared" si="113"/>
+        <v>50110000</v>
+      </c>
+      <c r="G1904" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1904" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1905" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="1">
+        <v>1103000</v>
+      </c>
+      <c r="C1905" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1905" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1905" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1905" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1905" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1905" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1905" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1906" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="1">
+        <v>1104000</v>
+      </c>
+      <c r="C1906" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1906" s="1">
+        <v>50050000</v>
+      </c>
+      <c r="E1906" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1906" s="4">
+        <f t="shared" ref="F1906:F1912" si="114">D1906+100000</f>
+        <v>50150000</v>
+      </c>
+      <c r="G1906" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1906" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1906" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1907" s="1">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="1">
+        <v>1105000</v>
+      </c>
+      <c r="C1907" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1907" s="1">
+        <v>50070000</v>
+      </c>
+      <c r="E1907" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1907" s="4">
+        <f t="shared" si="114"/>
+        <v>50170000</v>
+      </c>
+      <c r="G1907" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1907" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1907" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1908" s="1">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="1">
+        <v>1106000</v>
+      </c>
+      <c r="C1908" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1908" s="1">
+        <v>50090000</v>
+      </c>
+      <c r="E1908" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1908" s="4">
+        <f t="shared" si="114"/>
+        <v>50190000</v>
+      </c>
+      <c r="G1908" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1908" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1908" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1909" s="1">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="1">
+        <v>1107000</v>
+      </c>
+      <c r="C1909" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1909" s="1">
+        <v>50110000</v>
+      </c>
+      <c r="E1909" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1909" s="4">
+        <f t="shared" si="114"/>
+        <v>50210000</v>
+      </c>
+      <c r="G1909" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1909" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1909" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1910" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="1">
+        <v>1108000</v>
+      </c>
+      <c r="C1910" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1910" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1910" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1910" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1910" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1910" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1910" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1911" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="1">
+        <v>1109000</v>
+      </c>
+      <c r="C1911" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1911" s="1">
+        <v>50150000</v>
+      </c>
+      <c r="E1911" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1911" s="4">
+        <f t="shared" ref="F1911:F1912" si="115">D1911+100000</f>
+        <v>50250000</v>
+      </c>
+      <c r="G1911" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1911" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1911" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1912" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="1">
+        <v>1110000</v>
+      </c>
+      <c r="C1912" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1912" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1912" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1912" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1912" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1912" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1912" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1913" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="1">
+        <v>1111000</v>
+      </c>
+      <c r="C1913" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1913" s="1">
+        <v>50190000</v>
+      </c>
+      <c r="E1913" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1913" s="4">
+        <f t="shared" ref="F1913:F1922" si="116">D1913+100000</f>
+        <v>50290000</v>
+      </c>
+      <c r="G1913" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1913" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1913" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1914" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="1">
+        <v>1112000</v>
+      </c>
+      <c r="C1914" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1914" s="1">
+        <v>50210000</v>
+      </c>
+      <c r="E1914" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1914" s="4">
+        <f t="shared" si="116"/>
+        <v>50310000</v>
+      </c>
+      <c r="G1914" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1914" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1914" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1915" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="1">
+        <v>1113000</v>
+      </c>
+      <c r="C1915" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1915" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1915" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1915" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1915" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1915" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1915" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1916" s="1">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="1">
+        <v>1114000</v>
+      </c>
+      <c r="C1916" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1916" s="1">
+        <v>50250000</v>
+      </c>
+      <c r="E1916" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1916" s="4">
+        <f t="shared" ref="F1916:F1922" si="117">D1916+100000</f>
+        <v>50350000</v>
+      </c>
+      <c r="G1916" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1916" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1916" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1917" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="1">
+        <v>1115000</v>
+      </c>
+      <c r="C1917" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1917" s="1">
+        <v>50270000</v>
+      </c>
+      <c r="E1917" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1917" s="4">
+        <f t="shared" si="117"/>
+        <v>50370000</v>
+      </c>
+      <c r="G1917" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1917" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1917" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1918" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="1">
+        <v>1116000</v>
+      </c>
+      <c r="C1918" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1918" s="1">
+        <v>50290000</v>
+      </c>
+      <c r="E1918" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1918" s="4">
+        <f t="shared" si="117"/>
+        <v>50390000</v>
+      </c>
+      <c r="G1918" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1918" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1918" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1919" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="1">
+        <v>1117000</v>
+      </c>
+      <c r="C1919" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1919" s="1">
+        <v>50310000</v>
+      </c>
+      <c r="E1919" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1919" s="4">
+        <f t="shared" si="117"/>
+        <v>50410000</v>
+      </c>
+      <c r="G1919" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1919" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1919" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1920" s="1">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="1">
+        <v>1118000</v>
+      </c>
+      <c r="C1920" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1920" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1920" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1920" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1920" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1920" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1920" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1921" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="1">
+        <v>1119000</v>
+      </c>
+      <c r="C1921" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1921" s="1">
+        <v>50350000</v>
+      </c>
+      <c r="E1921" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1921" s="4">
+        <f t="shared" ref="F1921:F1922" si="118">D1921+100000</f>
+        <v>50450000</v>
+      </c>
+      <c r="G1921" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1921" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1921" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1922" s="1">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="C1922" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1922" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1922" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1922" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1922" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1922" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1922" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1923" s="1">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="1">
+        <v>1121000</v>
+      </c>
+      <c r="C1923" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1923" s="1">
+        <v>50390000</v>
+      </c>
+      <c r="E1923" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1923" s="4">
+        <f t="shared" ref="F1923:F1932" si="119">D1923+100000</f>
+        <v>50490000</v>
+      </c>
+      <c r="G1923" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1923" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1923" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1924" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="1">
+        <v>1122000</v>
+      </c>
+      <c r="C1924" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1924" s="1">
+        <v>50410000</v>
+      </c>
+      <c r="E1924" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1924" s="4">
+        <f t="shared" si="119"/>
+        <v>50510000</v>
+      </c>
+      <c r="G1924" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1924" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1924" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1925" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="1">
+        <v>1123000</v>
+      </c>
+      <c r="C1925" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1925" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1925" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1925" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1925" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1925" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1925" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1926" s="1">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="1">
+        <v>1124000</v>
+      </c>
+      <c r="C1926" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1926" s="1">
+        <v>50450000</v>
+      </c>
+      <c r="E1926" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1926" s="4">
+        <f t="shared" ref="F1926:F1932" si="120">D1926+100000</f>
+        <v>50550000</v>
+      </c>
+      <c r="G1926" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1926" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1926" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1927" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="1">
+        <v>1125000</v>
+      </c>
+      <c r="C1927" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1927" s="1">
+        <v>50470000</v>
+      </c>
+      <c r="E1927" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1927" s="4">
+        <f t="shared" si="120"/>
+        <v>50570000</v>
+      </c>
+      <c r="G1927" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1927" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1927" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1928" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="1">
+        <v>1126000</v>
+      </c>
+      <c r="C1928" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1928" s="1">
+        <v>50490000</v>
+      </c>
+      <c r="E1928" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1928" s="4">
+        <f t="shared" si="120"/>
+        <v>50590000</v>
+      </c>
+      <c r="G1928" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1928" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1928" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1929" s="1">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="1">
+        <v>1127000</v>
+      </c>
+      <c r="C1929" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1929" s="1">
+        <v>50510000</v>
+      </c>
+      <c r="E1929" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1929" s="4">
+        <f t="shared" si="120"/>
+        <v>50610000</v>
+      </c>
+      <c r="G1929" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1929" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1929" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1930" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="1">
+        <v>1128000</v>
+      </c>
+      <c r="C1930" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1930" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1930" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1930" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1930" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1930" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1930" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1931" s="1">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="1">
+        <v>1129000</v>
+      </c>
+      <c r="C1931" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1931" s="1">
+        <v>50550000</v>
+      </c>
+      <c r="E1931" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1931" s="4">
+        <f t="shared" ref="F1931:F1932" si="121">D1931+100000</f>
+        <v>50650000</v>
+      </c>
+      <c r="G1931" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1931" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1931" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1932" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="1">
+        <v>1130000</v>
+      </c>
+      <c r="C1932" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1932" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1932" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1932" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1932" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1932" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1932" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1933" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="1">
+        <v>1131000</v>
+      </c>
+      <c r="C1933" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1933" s="1">
+        <v>50590000</v>
+      </c>
+      <c r="E1933" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1933" s="4">
+        <f t="shared" ref="F1933:F1942" si="122">D1933+100000</f>
+        <v>50690000</v>
+      </c>
+      <c r="G1933" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1933" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1933" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1934" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="1">
+        <v>1132000</v>
+      </c>
+      <c r="C1934" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1934" s="1">
+        <v>50610000</v>
+      </c>
+      <c r="E1934" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1934" s="4">
+        <f t="shared" si="122"/>
+        <v>50710000</v>
+      </c>
+      <c r="G1934" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1934" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1934" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1935" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="1">
+        <v>1133000</v>
+      </c>
+      <c r="C1935" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1935" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1935" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1935" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1935" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1935" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1935" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1936" s="1">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="1">
+        <v>1134000</v>
+      </c>
+      <c r="C1936" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1936" s="1">
+        <v>50650000</v>
+      </c>
+      <c r="E1936" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1936" s="4">
+        <f t="shared" ref="F1936:F1942" si="123">D1936+100000</f>
+        <v>50750000</v>
+      </c>
+      <c r="G1936" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1936" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1936" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1937" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="1">
+        <v>1135000</v>
+      </c>
+      <c r="C1937" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1937" s="1">
+        <v>50670000</v>
+      </c>
+      <c r="E1937" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1937" s="4">
+        <f t="shared" si="123"/>
+        <v>50770000</v>
+      </c>
+      <c r="G1937" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1937" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1937" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1938" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="1">
+        <v>1136000</v>
+      </c>
+      <c r="C1938" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1938" s="1">
+        <v>50690000</v>
+      </c>
+      <c r="E1938" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1938" s="4">
+        <f t="shared" si="123"/>
+        <v>50790000</v>
+      </c>
+      <c r="G1938" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1938" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1938" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1939" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="1">
+        <v>1137000</v>
+      </c>
+      <c r="C1939" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1939" s="1">
+        <v>50710000</v>
+      </c>
+      <c r="E1939" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1939" s="4">
+        <f t="shared" si="123"/>
+        <v>50810000</v>
+      </c>
+      <c r="G1939" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1939" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1939" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1940" s="1">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="1">
+        <v>1138000</v>
+      </c>
+      <c r="C1940" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1940" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1940" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1940" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1940" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1940" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1940" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1941" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="1">
+        <v>1139000</v>
+      </c>
+      <c r="C1941" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1941" s="1">
+        <v>50750000</v>
+      </c>
+      <c r="E1941" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1941" s="4">
+        <f t="shared" ref="F1941:F1942" si="124">D1941+100000</f>
+        <v>50850000</v>
+      </c>
+      <c r="G1941" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1941" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1941" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1942" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="1">
+        <v>1140000</v>
+      </c>
+      <c r="C1942" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1942" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1942" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1942" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1942" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1942" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1942" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1943" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="1">
+        <v>1141000</v>
+      </c>
+      <c r="C1943" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1943" s="1">
+        <v>50790000</v>
+      </c>
+      <c r="E1943" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1943" s="4">
+        <f t="shared" ref="F1943:F1952" si="125">D1943+100000</f>
+        <v>50890000</v>
+      </c>
+      <c r="G1943" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1943" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1943" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1944" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="1">
+        <v>1142000</v>
+      </c>
+      <c r="C1944" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1944" s="1">
+        <v>50810000</v>
+      </c>
+      <c r="E1944" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1944" s="4">
+        <f t="shared" si="125"/>
+        <v>50910000</v>
+      </c>
+      <c r="G1944" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1944" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1944" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1945" s="1">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="1">
+        <v>1143000</v>
+      </c>
+      <c r="C1945" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1945" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1945" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1945" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1945" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1945" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1945" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1946" s="1">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="1">
+        <v>1144000</v>
+      </c>
+      <c r="C1946" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1946" s="1">
+        <v>50850000</v>
+      </c>
+      <c r="E1946" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1946" s="4">
+        <f t="shared" ref="F1946:F1952" si="126">D1946+100000</f>
+        <v>50950000</v>
+      </c>
+      <c r="G1946" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1946" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1946" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1947" s="1">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="1">
+        <v>1145000</v>
+      </c>
+      <c r="C1947" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1947" s="1">
+        <v>50870000</v>
+      </c>
+      <c r="E1947" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1947" s="4">
+        <f t="shared" si="126"/>
+        <v>50970000</v>
+      </c>
+      <c r="G1947" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1947" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1947" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1948" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="1">
+        <v>1146000</v>
+      </c>
+      <c r="C1948" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1948" s="1">
+        <v>50890000</v>
+      </c>
+      <c r="E1948" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1948" s="4">
+        <f t="shared" si="126"/>
+        <v>50990000</v>
+      </c>
+      <c r="G1948" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1948" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1948" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1949" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="1">
+        <v>1147000</v>
+      </c>
+      <c r="C1949" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1949" s="1">
+        <v>50910000</v>
+      </c>
+      <c r="E1949" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1949" s="4">
+        <f t="shared" si="126"/>
+        <v>51010000</v>
+      </c>
+      <c r="G1949" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1949" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1949" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1950" s="1">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="1">
+        <v>1148000</v>
+      </c>
+      <c r="C1950" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1950" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1950" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1950" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1950" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1950" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1950" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1951" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="1">
+        <v>1149000</v>
+      </c>
+      <c r="C1951" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1951" s="1">
+        <v>50950000</v>
+      </c>
+      <c r="E1951" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1951" s="4">
+        <f t="shared" ref="F1951:F1952" si="127">D1951+100000</f>
+        <v>51050000</v>
+      </c>
+      <c r="G1951" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1951" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1951" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1952" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="1">
+        <v>1150000</v>
+      </c>
+      <c r="C1952" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1952" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1952" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1952" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1952" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1952" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1952" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1953" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="1">
+        <v>1151000</v>
+      </c>
+      <c r="C1953" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1953" s="1">
+        <v>50990000</v>
+      </c>
+      <c r="E1953" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1953" s="4">
+        <f t="shared" ref="F1953:F1962" si="128">D1953+100000</f>
+        <v>51090000</v>
+      </c>
+      <c r="G1953" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1953" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1953" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1954" s="1">
+        <v>1952</v>
+      </c>
+      <c r="B1954" s="1">
+        <v>1152000</v>
+      </c>
+      <c r="C1954" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1954" s="1">
+        <v>51010000</v>
+      </c>
+      <c r="E1954" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1954" s="4">
+        <f t="shared" si="128"/>
+        <v>51110000</v>
+      </c>
+      <c r="G1954" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1954" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1954" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1955" s="1">
+        <v>1953</v>
+      </c>
+      <c r="B1955" s="1">
+        <v>1153000</v>
+      </c>
+      <c r="C1955" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1955" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1955" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1955" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1955" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1955" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1955" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1956" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B1956" s="1">
+        <v>1154000</v>
+      </c>
+      <c r="C1956" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1956" s="1">
+        <v>51050000</v>
+      </c>
+      <c r="E1956" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1956" s="4">
+        <f t="shared" ref="F1956:F1962" si="129">D1956+100000</f>
+        <v>51150000</v>
+      </c>
+      <c r="G1956" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1956" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1956" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1957" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B1957" s="1">
+        <v>1155000</v>
+      </c>
+      <c r="C1957" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1957" s="1">
+        <v>51070000</v>
+      </c>
+      <c r="E1957" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1957" s="4">
+        <f t="shared" si="129"/>
+        <v>51170000</v>
+      </c>
+      <c r="G1957" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1957" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1957" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1958" s="1">
+        <v>1956</v>
+      </c>
+      <c r="B1958" s="1">
+        <v>1156000</v>
+      </c>
+      <c r="C1958" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1958" s="1">
+        <v>51090000</v>
+      </c>
+      <c r="E1958" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1958" s="4">
+        <f t="shared" si="129"/>
+        <v>51190000</v>
+      </c>
+      <c r="G1958" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1958" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1958" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1959" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B1959" s="1">
+        <v>1157000</v>
+      </c>
+      <c r="C1959" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1959" s="1">
+        <v>51110000</v>
+      </c>
+      <c r="E1959" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1959" s="4">
+        <f t="shared" si="129"/>
+        <v>51210000</v>
+      </c>
+      <c r="G1959" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1959" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1959" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1960" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B1960" s="1">
+        <v>1158000</v>
+      </c>
+      <c r="C1960" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1960" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1960" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1960" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1960" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1960" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1960" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1961" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B1961" s="1">
+        <v>1159000</v>
+      </c>
+      <c r="C1961" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1961" s="1">
+        <v>51150000</v>
+      </c>
+      <c r="E1961" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1961" s="4">
+        <f t="shared" ref="F1961:F1962" si="130">D1961+100000</f>
+        <v>51250000</v>
+      </c>
+      <c r="G1961" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1961" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1962" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B1962" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="C1962" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1962" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1962" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1962" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1962" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1962" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1962" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1963" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B1963" s="1">
+        <v>1161000</v>
+      </c>
+      <c r="C1963" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1963" s="1">
+        <v>51190000</v>
+      </c>
+      <c r="E1963" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1963" s="4">
+        <f t="shared" ref="F1963:F1972" si="131">D1963+100000</f>
+        <v>51290000</v>
+      </c>
+      <c r="G1963" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1963" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1964" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B1964" s="1">
+        <v>1162000</v>
+      </c>
+      <c r="C1964" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1964" s="1">
+        <v>51210000</v>
+      </c>
+      <c r="E1964" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1964" s="4">
+        <f t="shared" si="131"/>
+        <v>51310000</v>
+      </c>
+      <c r="G1964" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1964" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1964" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1965" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B1965" s="1">
+        <v>1163000</v>
+      </c>
+      <c r="C1965" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1965" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1965" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1965" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1965" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1965" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1966" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B1966" s="1">
+        <v>1164000</v>
+      </c>
+      <c r="C1966" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1966" s="1">
+        <v>51250000</v>
+      </c>
+      <c r="E1966" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1966" s="4">
+        <f t="shared" ref="F1966:F1972" si="132">D1966+100000</f>
+        <v>51350000</v>
+      </c>
+      <c r="G1966" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1966" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1967" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B1967" s="1">
+        <v>1165000</v>
+      </c>
+      <c r="C1967" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1967" s="1">
+        <v>51270000</v>
+      </c>
+      <c r="E1967" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1967" s="4">
+        <f t="shared" si="132"/>
+        <v>51370000</v>
+      </c>
+      <c r="G1967" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1967" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1968" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B1968" s="1">
+        <v>1166000</v>
+      </c>
+      <c r="C1968" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1968" s="1">
+        <v>51290000</v>
+      </c>
+      <c r="E1968" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1968" s="4">
+        <f t="shared" si="132"/>
+        <v>51390000</v>
+      </c>
+      <c r="G1968" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1968" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1969" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B1969" s="1">
+        <v>1167000</v>
+      </c>
+      <c r="C1969" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1969" s="1">
+        <v>51310000</v>
+      </c>
+      <c r="E1969" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1969" s="4">
+        <f t="shared" si="132"/>
+        <v>51410000</v>
+      </c>
+      <c r="G1969" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1969" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1969" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1970" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B1970" s="1">
+        <v>1168000</v>
+      </c>
+      <c r="C1970" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1970" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1970" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1970" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1970" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1970" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1970" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1971" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B1971" s="1">
+        <v>1169000</v>
+      </c>
+      <c r="C1971" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1971" s="1">
+        <v>51350000</v>
+      </c>
+      <c r="E1971" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1971" s="4">
+        <f t="shared" ref="F1971:F1972" si="133">D1971+100000</f>
+        <v>51450000</v>
+      </c>
+      <c r="G1971" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1971" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1971" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1972" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B1972" s="1">
+        <v>1170000</v>
+      </c>
+      <c r="C1972" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1972" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1972" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1972" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1972" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1972" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1972" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1973" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B1973" s="1">
+        <v>1171000</v>
+      </c>
+      <c r="C1973" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1973" s="1">
+        <v>51390000</v>
+      </c>
+      <c r="E1973" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1973" s="4">
+        <f t="shared" ref="F1973:F1982" si="134">D1973+100000</f>
+        <v>51490000</v>
+      </c>
+      <c r="G1973" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1973" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1973" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1974" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B1974" s="1">
+        <v>1172000</v>
+      </c>
+      <c r="C1974" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1974" s="1">
+        <v>51410000</v>
+      </c>
+      <c r="E1974" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1974" s="4">
+        <f t="shared" si="134"/>
+        <v>51510000</v>
+      </c>
+      <c r="G1974" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1974" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1974" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1975" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B1975" s="1">
+        <v>1173000</v>
+      </c>
+      <c r="C1975" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1975" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1975" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1975" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1975" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1975" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1975" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1976" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B1976" s="1">
+        <v>1174000</v>
+      </c>
+      <c r="C1976" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1976" s="1">
+        <v>51450000</v>
+      </c>
+      <c r="E1976" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1976" s="4">
+        <f t="shared" ref="F1976:F1982" si="135">D1976+100000</f>
+        <v>51550000</v>
+      </c>
+      <c r="G1976" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1976" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1976" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1977" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B1977" s="1">
+        <v>1175000</v>
+      </c>
+      <c r="C1977" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1977" s="1">
+        <v>51470000</v>
+      </c>
+      <c r="E1977" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1977" s="4">
+        <f t="shared" si="135"/>
+        <v>51570000</v>
+      </c>
+      <c r="G1977" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1977" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1977" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1978" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B1978" s="1">
+        <v>1176000</v>
+      </c>
+      <c r="C1978" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1978" s="1">
+        <v>51490000</v>
+      </c>
+      <c r="E1978" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1978" s="4">
+        <f t="shared" si="135"/>
+        <v>51590000</v>
+      </c>
+      <c r="G1978" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1978" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1978" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1979" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B1979" s="1">
+        <v>1177000</v>
+      </c>
+      <c r="C1979" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1979" s="1">
+        <v>51510000</v>
+      </c>
+      <c r="E1979" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1979" s="4">
+        <f t="shared" si="135"/>
+        <v>51610000</v>
+      </c>
+      <c r="G1979" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1979" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1979" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1980" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B1980" s="1">
+        <v>1178000</v>
+      </c>
+      <c r="C1980" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1980" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1980" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1980" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1980" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1980" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1980" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1981" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B1981" s="1">
+        <v>1179000</v>
+      </c>
+      <c r="C1981" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1981" s="1">
+        <v>51550000</v>
+      </c>
+      <c r="E1981" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1981" s="4">
+        <f t="shared" ref="F1981:F1982" si="136">D1981+100000</f>
+        <v>51650000</v>
+      </c>
+      <c r="G1981" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1981" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1981" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1982" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B1982" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="C1982" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1982" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1982" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1982" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1982" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1982" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1982" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1983" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B1983" s="1">
+        <v>1181000</v>
+      </c>
+      <c r="C1983" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1983" s="1">
+        <v>51590000</v>
+      </c>
+      <c r="E1983" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1983" s="4">
+        <f t="shared" ref="F1983:F1992" si="137">D1983+100000</f>
+        <v>51690000</v>
+      </c>
+      <c r="G1983" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1983" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1983" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1984" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B1984" s="1">
+        <v>1182000</v>
+      </c>
+      <c r="C1984" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1984" s="1">
+        <v>51610000</v>
+      </c>
+      <c r="E1984" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1984" s="4">
+        <f t="shared" si="137"/>
+        <v>51710000</v>
+      </c>
+      <c r="G1984" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1984" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1984" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1985" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B1985" s="1">
+        <v>1183000</v>
+      </c>
+      <c r="C1985" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1985" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1985" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1985" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1985" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1985" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1985" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1986" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B1986" s="1">
+        <v>1184000</v>
+      </c>
+      <c r="C1986" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1986" s="1">
+        <v>51650000</v>
+      </c>
+      <c r="E1986" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1986" s="4">
+        <f t="shared" ref="F1986:F1992" si="138">D1986+100000</f>
+        <v>51750000</v>
+      </c>
+      <c r="G1986" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1986" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1986" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1987" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B1987" s="1">
+        <v>1185000</v>
+      </c>
+      <c r="C1987" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1987" s="1">
+        <v>51670000</v>
+      </c>
+      <c r="E1987" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1987" s="4">
+        <f t="shared" si="138"/>
+        <v>51770000</v>
+      </c>
+      <c r="G1987" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1987" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1987" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1988" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B1988" s="1">
+        <v>1186000</v>
+      </c>
+      <c r="C1988" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1988" s="1">
+        <v>51690000</v>
+      </c>
+      <c r="E1988" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1988" s="4">
+        <f t="shared" si="138"/>
+        <v>51790000</v>
+      </c>
+      <c r="G1988" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1988" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1988" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1989" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B1989" s="1">
+        <v>1187000</v>
+      </c>
+      <c r="C1989" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1989" s="1">
+        <v>51710000</v>
+      </c>
+      <c r="E1989" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1989" s="4">
+        <f t="shared" si="138"/>
+        <v>51810000</v>
+      </c>
+      <c r="G1989" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1989" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1989" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1990" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B1990" s="1">
+        <v>1188000</v>
+      </c>
+      <c r="C1990" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1990" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1990" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1990" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1990" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1990" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1990" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1991" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B1991" s="1">
+        <v>1189000</v>
+      </c>
+      <c r="C1991" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1991" s="1">
+        <v>51750000</v>
+      </c>
+      <c r="E1991" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1991" s="4">
+        <f t="shared" ref="F1991:F1992" si="139">D1991+100000</f>
+        <v>51850000</v>
+      </c>
+      <c r="G1991" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1991" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1991" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1992" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B1992" s="1">
+        <v>1190000</v>
+      </c>
+      <c r="C1992" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1992" s="1">
+        <v>55</v>
+      </c>
+      <c r="E1992" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1992" s="4">
+        <v>55</v>
+      </c>
+      <c r="G1992" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1992" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1992" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1993" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B1993" s="1">
+        <v>1191000</v>
+      </c>
+      <c r="C1993" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1993" s="1">
+        <v>51790000</v>
+      </c>
+      <c r="E1993" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1993" s="4">
+        <f t="shared" ref="F1993:F2002" si="140">D1993+100000</f>
+        <v>51890000</v>
+      </c>
+      <c r="G1993" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1993" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1993" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1994" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B1994" s="1">
+        <v>1192000</v>
+      </c>
+      <c r="C1994" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1994" s="1">
+        <v>51810000</v>
+      </c>
+      <c r="E1994" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1994" s="4">
+        <f t="shared" si="140"/>
+        <v>51910000</v>
+      </c>
+      <c r="G1994" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1994" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1994" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1995" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B1995" s="1">
+        <v>1193000</v>
+      </c>
+      <c r="C1995" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1995" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E1995" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1995" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G1995" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1995" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1995" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1996" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B1996" s="1">
+        <v>1194000</v>
+      </c>
+      <c r="C1996" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1996" s="1">
+        <v>51850000</v>
+      </c>
+      <c r="E1996" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1996" s="4">
+        <f t="shared" ref="F1996:F2002" si="141">D1996+100000</f>
+        <v>51950000</v>
+      </c>
+      <c r="G1996" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1996" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1996" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1997" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B1997" s="1">
+        <v>1195000</v>
+      </c>
+      <c r="C1997" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1997" s="1">
+        <v>51870000</v>
+      </c>
+      <c r="E1997" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1997" s="4">
+        <f t="shared" si="141"/>
+        <v>51970000</v>
+      </c>
+      <c r="G1997" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1997" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1997" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1998" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B1998" s="1">
+        <v>1196000</v>
+      </c>
+      <c r="C1998" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1998" s="1">
+        <v>51890000</v>
+      </c>
+      <c r="E1998" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1998" s="4">
+        <f t="shared" si="141"/>
+        <v>51990000</v>
+      </c>
+      <c r="G1998" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1998" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1998" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1999" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B1999" s="1">
+        <v>1197000</v>
+      </c>
+      <c r="C1999" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1999" s="1">
+        <v>51910000</v>
+      </c>
+      <c r="E1999" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1999" s="4">
+        <f t="shared" si="141"/>
+        <v>52010000</v>
+      </c>
+      <c r="G1999" s="1">
+        <v>14</v>
+      </c>
+      <c r="H1999" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1999" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2000" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B2000" s="1">
+        <v>1198000</v>
+      </c>
+      <c r="C2000" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2000" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E2000" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2000" s="4">
+        <v>4500</v>
+      </c>
+      <c r="G2000" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2000" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2000" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2001" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B2001" s="1">
+        <v>1199000</v>
+      </c>
+      <c r="C2001" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2001" s="1">
+        <v>51950000</v>
+      </c>
+      <c r="E2001" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2001" s="4">
+        <f t="shared" ref="F2001:F2002" si="142">D2001+100000</f>
+        <v>52050000</v>
+      </c>
+      <c r="G2001" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2001" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2001" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2002" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2002" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="C2002" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2002" s="1">
+        <v>55</v>
+      </c>
+      <c r="E2002" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2002" s="4">
+        <v>55</v>
+      </c>
+      <c r="G2002" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2002" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2002" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2E2335-FD0F-4250-BFE9-1CCDB562AA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55D6FB-EF87-4A5E-BD29-8CF732121A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -617,8 +617,8 @@
   <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1890" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1910" sqref="E1910"/>
+      <pane ySplit="1" topLeftCell="A1953" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1992" sqref="D1992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -56918,17 +56918,16 @@
         <v>1101000</v>
       </c>
       <c r="C1903" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1903" s="1">
-        <v>49990000</v>
+        <v>500</v>
       </c>
       <c r="E1903" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1903" s="4">
-        <f t="shared" ref="F1903:F1912" si="113">D1903+100000</f>
-        <v>50090000</v>
+        <v>500</v>
       </c>
       <c r="G1903" s="1">
         <v>14</v>
@@ -56957,7 +56956,7 @@
         <v>1</v>
       </c>
       <c r="F1904" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="F1903:F1904" si="113">D1904+100000</f>
         <v>50110000</v>
       </c>
       <c r="G1904" s="1">
@@ -57016,7 +57015,7 @@
         <v>1</v>
       </c>
       <c r="F1906" s="4">
-        <f t="shared" ref="F1906:F1912" si="114">D1906+100000</f>
+        <f t="shared" ref="F1906:F1909" si="114">D1906+100000</f>
         <v>50150000</v>
       </c>
       <c r="G1906" s="1">
@@ -57067,17 +57066,16 @@
         <v>1106000</v>
       </c>
       <c r="C1908" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1908" s="1">
-        <v>50090000</v>
+        <v>500</v>
       </c>
       <c r="E1908" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1908" s="4">
-        <f t="shared" si="114"/>
-        <v>50190000</v>
+        <v>500</v>
       </c>
       <c r="G1908" s="1">
         <v>14</v>
@@ -57165,7 +57163,7 @@
         <v>1</v>
       </c>
       <c r="F1911" s="4">
-        <f t="shared" ref="F1911:F1912" si="115">D1911+100000</f>
+        <f t="shared" ref="F1911" si="115">D1911+100000</f>
         <v>50250000</v>
       </c>
       <c r="G1911" s="1">
@@ -57215,17 +57213,16 @@
         <v>1111000</v>
       </c>
       <c r="C1913" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1913" s="1">
-        <v>50190000</v>
+        <v>500</v>
       </c>
       <c r="E1913" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1913" s="4">
-        <f t="shared" ref="F1913:F1922" si="116">D1913+100000</f>
-        <v>50290000</v>
+        <v>500</v>
       </c>
       <c r="G1913" s="1">
         <v>14</v>
@@ -57254,7 +57251,7 @@
         <v>1</v>
       </c>
       <c r="F1914" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="F1913:F1914" si="116">D1914+100000</f>
         <v>50310000</v>
       </c>
       <c r="G1914" s="1">
@@ -57313,7 +57310,7 @@
         <v>1</v>
       </c>
       <c r="F1916" s="4">
-        <f t="shared" ref="F1916:F1922" si="117">D1916+100000</f>
+        <f t="shared" ref="F1916:F1919" si="117">D1916+100000</f>
         <v>50350000</v>
       </c>
       <c r="G1916" s="1">
@@ -57364,17 +57361,16 @@
         <v>1116000</v>
       </c>
       <c r="C1918" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1918" s="1">
-        <v>50290000</v>
+        <v>500</v>
       </c>
       <c r="E1918" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1918" s="4">
-        <f t="shared" si="117"/>
-        <v>50390000</v>
+        <v>500</v>
       </c>
       <c r="G1918" s="1">
         <v>14</v>
@@ -57462,7 +57458,7 @@
         <v>1</v>
       </c>
       <c r="F1921" s="4">
-        <f t="shared" ref="F1921:F1922" si="118">D1921+100000</f>
+        <f t="shared" ref="F1921" si="118">D1921+100000</f>
         <v>50450000</v>
       </c>
       <c r="G1921" s="1">
@@ -57512,17 +57508,16 @@
         <v>1121000</v>
       </c>
       <c r="C1923" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1923" s="1">
-        <v>50390000</v>
+        <v>500</v>
       </c>
       <c r="E1923" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1923" s="4">
-        <f t="shared" ref="F1923:F1932" si="119">D1923+100000</f>
-        <v>50490000</v>
+        <v>500</v>
       </c>
       <c r="G1923" s="1">
         <v>14</v>
@@ -57551,7 +57546,7 @@
         <v>1</v>
       </c>
       <c r="F1924" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="F1923:F1924" si="119">D1924+100000</f>
         <v>50510000</v>
       </c>
       <c r="G1924" s="1">
@@ -57610,7 +57605,7 @@
         <v>1</v>
       </c>
       <c r="F1926" s="4">
-        <f t="shared" ref="F1926:F1932" si="120">D1926+100000</f>
+        <f t="shared" ref="F1926:F1929" si="120">D1926+100000</f>
         <v>50550000</v>
       </c>
       <c r="G1926" s="1">
@@ -57661,17 +57656,16 @@
         <v>1126000</v>
       </c>
       <c r="C1928" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1928" s="1">
-        <v>50490000</v>
+        <v>500</v>
       </c>
       <c r="E1928" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1928" s="4">
-        <f t="shared" si="120"/>
-        <v>50590000</v>
+        <v>500</v>
       </c>
       <c r="G1928" s="1">
         <v>14</v>
@@ -57759,7 +57753,7 @@
         <v>1</v>
       </c>
       <c r="F1931" s="4">
-        <f t="shared" ref="F1931:F1932" si="121">D1931+100000</f>
+        <f t="shared" ref="F1931" si="121">D1931+100000</f>
         <v>50650000</v>
       </c>
       <c r="G1931" s="1">
@@ -57809,17 +57803,16 @@
         <v>1131000</v>
       </c>
       <c r="C1933" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1933" s="1">
-        <v>50590000</v>
+        <v>500</v>
       </c>
       <c r="E1933" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1933" s="4">
-        <f t="shared" ref="F1933:F1942" si="122">D1933+100000</f>
-        <v>50690000</v>
+        <v>500</v>
       </c>
       <c r="G1933" s="1">
         <v>14</v>
@@ -57848,7 +57841,7 @@
         <v>1</v>
       </c>
       <c r="F1934" s="4">
-        <f t="shared" si="122"/>
+        <f t="shared" ref="F1933:F1934" si="122">D1934+100000</f>
         <v>50710000</v>
       </c>
       <c r="G1934" s="1">
@@ -57907,7 +57900,7 @@
         <v>1</v>
       </c>
       <c r="F1936" s="4">
-        <f t="shared" ref="F1936:F1942" si="123">D1936+100000</f>
+        <f t="shared" ref="F1936:F1939" si="123">D1936+100000</f>
         <v>50750000</v>
       </c>
       <c r="G1936" s="1">
@@ -57958,17 +57951,16 @@
         <v>1136000</v>
       </c>
       <c r="C1938" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1938" s="1">
-        <v>50690000</v>
+        <v>500</v>
       </c>
       <c r="E1938" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1938" s="4">
-        <f t="shared" si="123"/>
-        <v>50790000</v>
+        <v>500</v>
       </c>
       <c r="G1938" s="1">
         <v>14</v>
@@ -58056,7 +58048,7 @@
         <v>1</v>
       </c>
       <c r="F1941" s="4">
-        <f t="shared" ref="F1941:F1942" si="124">D1941+100000</f>
+        <f t="shared" ref="F1941" si="124">D1941+100000</f>
         <v>50850000</v>
       </c>
       <c r="G1941" s="1">
@@ -58106,17 +58098,16 @@
         <v>1141000</v>
       </c>
       <c r="C1943" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1943" s="1">
-        <v>50790000</v>
+        <v>500</v>
       </c>
       <c r="E1943" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1943" s="4">
-        <f t="shared" ref="F1943:F1952" si="125">D1943+100000</f>
-        <v>50890000</v>
+        <v>500</v>
       </c>
       <c r="G1943" s="1">
         <v>14</v>
@@ -58145,7 +58136,7 @@
         <v>1</v>
       </c>
       <c r="F1944" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="F1943:F1944" si="125">D1944+100000</f>
         <v>50910000</v>
       </c>
       <c r="G1944" s="1">
@@ -58204,7 +58195,7 @@
         <v>1</v>
       </c>
       <c r="F1946" s="4">
-        <f t="shared" ref="F1946:F1952" si="126">D1946+100000</f>
+        <f t="shared" ref="F1946:F1949" si="126">D1946+100000</f>
         <v>50950000</v>
       </c>
       <c r="G1946" s="1">
@@ -58255,17 +58246,16 @@
         <v>1146000</v>
       </c>
       <c r="C1948" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1948" s="1">
-        <v>50890000</v>
+        <v>500</v>
       </c>
       <c r="E1948" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1948" s="4">
-        <f t="shared" si="126"/>
-        <v>50990000</v>
+        <v>500</v>
       </c>
       <c r="G1948" s="1">
         <v>14</v>
@@ -58353,7 +58343,7 @@
         <v>1</v>
       </c>
       <c r="F1951" s="4">
-        <f t="shared" ref="F1951:F1952" si="127">D1951+100000</f>
+        <f t="shared" ref="F1951" si="127">D1951+100000</f>
         <v>51050000</v>
       </c>
       <c r="G1951" s="1">
@@ -58403,17 +58393,16 @@
         <v>1151000</v>
       </c>
       <c r="C1953" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1953" s="1">
-        <v>50990000</v>
+        <v>500</v>
       </c>
       <c r="E1953" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1953" s="4">
-        <f t="shared" ref="F1953:F1962" si="128">D1953+100000</f>
-        <v>51090000</v>
+        <v>500</v>
       </c>
       <c r="G1953" s="1">
         <v>14</v>
@@ -58442,7 +58431,7 @@
         <v>1</v>
       </c>
       <c r="F1954" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="F1953:F1954" si="128">D1954+100000</f>
         <v>51110000</v>
       </c>
       <c r="G1954" s="1">
@@ -58501,7 +58490,7 @@
         <v>1</v>
       </c>
       <c r="F1956" s="4">
-        <f t="shared" ref="F1956:F1962" si="129">D1956+100000</f>
+        <f t="shared" ref="F1956:F1959" si="129">D1956+100000</f>
         <v>51150000</v>
       </c>
       <c r="G1956" s="1">
@@ -58552,17 +58541,16 @@
         <v>1156000</v>
       </c>
       <c r="C1958" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1958" s="1">
-        <v>51090000</v>
+        <v>500</v>
       </c>
       <c r="E1958" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1958" s="4">
-        <f t="shared" si="129"/>
-        <v>51190000</v>
+        <v>500</v>
       </c>
       <c r="G1958" s="1">
         <v>14</v>
@@ -58650,7 +58638,7 @@
         <v>1</v>
       </c>
       <c r="F1961" s="4">
-        <f t="shared" ref="F1961:F1962" si="130">D1961+100000</f>
+        <f t="shared" ref="F1961" si="130">D1961+100000</f>
         <v>51250000</v>
       </c>
       <c r="G1961" s="1">
@@ -58700,17 +58688,16 @@
         <v>1161000</v>
       </c>
       <c r="C1963" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1963" s="1">
-        <v>51190000</v>
+        <v>500</v>
       </c>
       <c r="E1963" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1963" s="4">
-        <f t="shared" ref="F1963:F1972" si="131">D1963+100000</f>
-        <v>51290000</v>
+        <v>500</v>
       </c>
       <c r="G1963" s="1">
         <v>14</v>
@@ -58739,7 +58726,7 @@
         <v>1</v>
       </c>
       <c r="F1964" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" ref="F1963:F1964" si="131">D1964+100000</f>
         <v>51310000</v>
       </c>
       <c r="G1964" s="1">
@@ -58798,7 +58785,7 @@
         <v>1</v>
       </c>
       <c r="F1966" s="4">
-        <f t="shared" ref="F1966:F1972" si="132">D1966+100000</f>
+        <f t="shared" ref="F1966:F1969" si="132">D1966+100000</f>
         <v>51350000</v>
       </c>
       <c r="G1966" s="1">
@@ -58849,17 +58836,16 @@
         <v>1166000</v>
       </c>
       <c r="C1968" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1968" s="1">
-        <v>51290000</v>
+        <v>500</v>
       </c>
       <c r="E1968" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1968" s="4">
-        <f t="shared" si="132"/>
-        <v>51390000</v>
+        <v>500</v>
       </c>
       <c r="G1968" s="1">
         <v>14</v>
@@ -58947,7 +58933,7 @@
         <v>1</v>
       </c>
       <c r="F1971" s="4">
-        <f t="shared" ref="F1971:F1972" si="133">D1971+100000</f>
+        <f t="shared" ref="F1971" si="133">D1971+100000</f>
         <v>51450000</v>
       </c>
       <c r="G1971" s="1">
@@ -58997,17 +58983,16 @@
         <v>1171000</v>
       </c>
       <c r="C1973" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1973" s="1">
-        <v>51390000</v>
+        <v>500</v>
       </c>
       <c r="E1973" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1973" s="4">
-        <f t="shared" ref="F1973:F1982" si="134">D1973+100000</f>
-        <v>51490000</v>
+        <v>500</v>
       </c>
       <c r="G1973" s="1">
         <v>14</v>
@@ -59036,7 +59021,7 @@
         <v>1</v>
       </c>
       <c r="F1974" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="F1973:F1974" si="134">D1974+100000</f>
         <v>51510000</v>
       </c>
       <c r="G1974" s="1">
@@ -59095,7 +59080,7 @@
         <v>1</v>
       </c>
       <c r="F1976" s="4">
-        <f t="shared" ref="F1976:F1982" si="135">D1976+100000</f>
+        <f t="shared" ref="F1976:F1979" si="135">D1976+100000</f>
         <v>51550000</v>
       </c>
       <c r="G1976" s="1">
@@ -59146,17 +59131,16 @@
         <v>1176000</v>
       </c>
       <c r="C1978" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1978" s="1">
-        <v>51490000</v>
+        <v>500</v>
       </c>
       <c r="E1978" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1978" s="4">
-        <f t="shared" si="135"/>
-        <v>51590000</v>
+        <v>500</v>
       </c>
       <c r="G1978" s="1">
         <v>14</v>
@@ -59244,7 +59228,7 @@
         <v>1</v>
       </c>
       <c r="F1981" s="4">
-        <f t="shared" ref="F1981:F1982" si="136">D1981+100000</f>
+        <f t="shared" ref="F1981" si="136">D1981+100000</f>
         <v>51650000</v>
       </c>
       <c r="G1981" s="1">
@@ -59294,17 +59278,16 @@
         <v>1181000</v>
       </c>
       <c r="C1983" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1983" s="1">
-        <v>51590000</v>
+        <v>500</v>
       </c>
       <c r="E1983" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1983" s="4">
-        <f t="shared" ref="F1983:F1992" si="137">D1983+100000</f>
-        <v>51690000</v>
+        <v>500</v>
       </c>
       <c r="G1983" s="1">
         <v>14</v>
@@ -59333,7 +59316,7 @@
         <v>1</v>
       </c>
       <c r="F1984" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" ref="F1983:F1984" si="137">D1984+100000</f>
         <v>51710000</v>
       </c>
       <c r="G1984" s="1">
@@ -59392,7 +59375,7 @@
         <v>1</v>
       </c>
       <c r="F1986" s="4">
-        <f t="shared" ref="F1986:F1992" si="138">D1986+100000</f>
+        <f t="shared" ref="F1986:F1989" si="138">D1986+100000</f>
         <v>51750000</v>
       </c>
       <c r="G1986" s="1">
@@ -59443,17 +59426,16 @@
         <v>1186000</v>
       </c>
       <c r="C1988" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1988" s="1">
-        <v>51690000</v>
+        <v>500</v>
       </c>
       <c r="E1988" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1988" s="4">
-        <f t="shared" si="138"/>
-        <v>51790000</v>
+        <v>500</v>
       </c>
       <c r="G1988" s="1">
         <v>14</v>
@@ -59541,7 +59523,7 @@
         <v>1</v>
       </c>
       <c r="F1991" s="4">
-        <f t="shared" ref="F1991:F1992" si="139">D1991+100000</f>
+        <f t="shared" ref="F1991" si="139">D1991+100000</f>
         <v>51850000</v>
       </c>
       <c r="G1991" s="1">
@@ -59591,17 +59573,16 @@
         <v>1191000</v>
       </c>
       <c r="C1993" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1993" s="1">
-        <v>51790000</v>
+        <v>500</v>
       </c>
       <c r="E1993" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1993" s="4">
-        <f t="shared" ref="F1993:F2002" si="140">D1993+100000</f>
-        <v>51890000</v>
+        <v>500</v>
       </c>
       <c r="G1993" s="1">
         <v>14</v>
@@ -59630,7 +59611,7 @@
         <v>1</v>
       </c>
       <c r="F1994" s="4">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="F1993:F1994" si="140">D1994+100000</f>
         <v>51910000</v>
       </c>
       <c r="G1994" s="1">
@@ -59689,7 +59670,7 @@
         <v>1</v>
       </c>
       <c r="F1996" s="4">
-        <f t="shared" ref="F1996:F2002" si="141">D1996+100000</f>
+        <f t="shared" ref="F1996:F1999" si="141">D1996+100000</f>
         <v>51950000</v>
       </c>
       <c r="G1996" s="1">
@@ -59740,17 +59721,16 @@
         <v>1196000</v>
       </c>
       <c r="C1998" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1998" s="1">
-        <v>51890000</v>
+        <v>500</v>
       </c>
       <c r="E1998" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1998" s="4">
-        <f t="shared" si="141"/>
-        <v>51990000</v>
+        <v>500</v>
       </c>
       <c r="G1998" s="1">
         <v>14</v>
@@ -59838,7 +59818,7 @@
         <v>1</v>
       </c>
       <c r="F2001" s="4">
-        <f t="shared" ref="F2001:F2002" si="142">D2001+100000</f>
+        <f t="shared" ref="F2001" si="142">D2001+100000</f>
         <v>52050000</v>
       </c>
       <c r="G2001" s="1">

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AA2A5-A2A2-4087-95AE-A06655BD0433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E1A30-70D2-4774-95FD-E5C0535006C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LevelPass!$C$1:$C$2202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LevelPass!$C$1:$C$2302</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -163,6 +163,13 @@
   </si>
   <si>
     <t>levelpass17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass18</t>
+  </si>
+  <si>
+    <t>levelpass18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,11 +657,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J2202"/>
+  <dimension ref="A1:J2302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2103" sqref="C2103:H2135"/>
+      <pane ySplit="1" topLeftCell="A2165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2195" sqref="D2195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -65766,7 +65773,7 @@
         <v>1</v>
       </c>
       <c r="F2201" s="4">
-        <f t="shared" ref="F2201" si="222">D2201+100000</f>
+        <f t="shared" ref="F2201:F2264" si="222">D2201+100000</f>
         <v>56050000</v>
       </c>
       <c r="G2201" s="1">
@@ -65780,7 +65787,7 @@
       </c>
     </row>
     <row r="2202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2202" s="1">
+      <c r="A2202" s="2">
         <v>2200</v>
       </c>
       <c r="B2202" s="1">
@@ -65808,8 +65815,2958 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2203" s="1">
+        <v>2201</v>
+      </c>
+      <c r="B2203" s="1">
+        <v>1401000</v>
+      </c>
+      <c r="C2203" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2203" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2203" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2203" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2203" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2203" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2204" s="1">
+        <v>2202</v>
+      </c>
+      <c r="B2204" s="1">
+        <v>1402000</v>
+      </c>
+      <c r="C2204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2204" s="1">
+        <v>56010000</v>
+      </c>
+      <c r="E2204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2204" s="4">
+        <f t="shared" si="222"/>
+        <v>56110000</v>
+      </c>
+      <c r="G2204" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2204" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2205" s="1">
+        <v>2203</v>
+      </c>
+      <c r="B2205" s="1">
+        <v>1403000</v>
+      </c>
+      <c r="C2205" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2205" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2205" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2205" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2205" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2205" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2206" s="1">
+        <v>2204</v>
+      </c>
+      <c r="B2206" s="1">
+        <v>1404000</v>
+      </c>
+      <c r="C2206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2206" s="1">
+        <v>56050000</v>
+      </c>
+      <c r="E2206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2206" s="4">
+        <f t="shared" si="222"/>
+        <v>56150000</v>
+      </c>
+      <c r="G2206" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2206" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2207" s="1">
+        <v>2205</v>
+      </c>
+      <c r="B2207" s="1">
+        <v>1405000</v>
+      </c>
+      <c r="C2207" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2207" s="1">
+        <v>56070000</v>
+      </c>
+      <c r="E2207" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2207" s="4">
+        <f t="shared" si="222"/>
+        <v>56170000</v>
+      </c>
+      <c r="G2207" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2208" s="1">
+        <v>2206</v>
+      </c>
+      <c r="B2208" s="1">
+        <v>1406000</v>
+      </c>
+      <c r="C2208" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2208" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2208" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2208" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2208" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2208" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2209" s="1">
+        <v>2207</v>
+      </c>
+      <c r="B2209" s="1">
+        <v>1407000</v>
+      </c>
+      <c r="C2209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2209" s="1">
+        <v>56110000</v>
+      </c>
+      <c r="E2209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2209" s="4">
+        <f t="shared" si="222"/>
+        <v>56210000</v>
+      </c>
+      <c r="G2209" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2209" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2210" s="1">
+        <v>2208</v>
+      </c>
+      <c r="B2210" s="1">
+        <v>1408000</v>
+      </c>
+      <c r="C2210" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2210" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2210" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2210" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2210" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2210" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2211" s="1">
+        <v>2209</v>
+      </c>
+      <c r="B2211" s="1">
+        <v>1409000</v>
+      </c>
+      <c r="C2211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2211" s="1">
+        <v>56150000</v>
+      </c>
+      <c r="E2211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2211" s="4">
+        <f t="shared" si="222"/>
+        <v>56250000</v>
+      </c>
+      <c r="G2211" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2211" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2212" s="1">
+        <v>2210</v>
+      </c>
+      <c r="B2212" s="1">
+        <v>1410000</v>
+      </c>
+      <c r="C2212" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2212" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2212" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2212" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2212" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2213" s="1">
+        <v>2211</v>
+      </c>
+      <c r="B2213" s="1">
+        <v>1411000</v>
+      </c>
+      <c r="C2213" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2213" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2213" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2213" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2213" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2213" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2214" s="1">
+        <v>2212</v>
+      </c>
+      <c r="B2214" s="1">
+        <v>1412000</v>
+      </c>
+      <c r="C2214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2214" s="1">
+        <v>56210000</v>
+      </c>
+      <c r="E2214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2214" s="4">
+        <f t="shared" si="222"/>
+        <v>56310000</v>
+      </c>
+      <c r="G2214" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2214" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2215" s="1">
+        <v>2213</v>
+      </c>
+      <c r="B2215" s="1">
+        <v>1413000</v>
+      </c>
+      <c r="C2215" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2215" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2215" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2215" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2215" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2216" s="1">
+        <v>2214</v>
+      </c>
+      <c r="B2216" s="1">
+        <v>1414000</v>
+      </c>
+      <c r="C2216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2216" s="1">
+        <v>56250000</v>
+      </c>
+      <c r="E2216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2216" s="4">
+        <f t="shared" si="222"/>
+        <v>56350000</v>
+      </c>
+      <c r="G2216" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2217" s="1">
+        <v>2215</v>
+      </c>
+      <c r="B2217" s="1">
+        <v>1415000</v>
+      </c>
+      <c r="C2217" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2217" s="1">
+        <v>56270000</v>
+      </c>
+      <c r="E2217" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2217" s="4">
+        <f t="shared" si="222"/>
+        <v>56370000</v>
+      </c>
+      <c r="G2217" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2217" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2218" s="1">
+        <v>2216</v>
+      </c>
+      <c r="B2218" s="1">
+        <v>1416000</v>
+      </c>
+      <c r="C2218" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2218" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2218" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2218" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2218" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2218" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2219" s="1">
+        <v>2217</v>
+      </c>
+      <c r="B2219" s="1">
+        <v>1417000</v>
+      </c>
+      <c r="C2219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2219" s="1">
+        <v>56310000</v>
+      </c>
+      <c r="E2219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2219" s="4">
+        <f t="shared" si="222"/>
+        <v>56410000</v>
+      </c>
+      <c r="G2219" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2219" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2220" s="1">
+        <v>2218</v>
+      </c>
+      <c r="B2220" s="1">
+        <v>1418000</v>
+      </c>
+      <c r="C2220" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2220" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2220" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2220" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2220" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2220" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2221" s="1">
+        <v>2219</v>
+      </c>
+      <c r="B2221" s="1">
+        <v>1419000</v>
+      </c>
+      <c r="C2221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2221" s="1">
+        <v>56350000</v>
+      </c>
+      <c r="E2221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2221" s="4">
+        <f t="shared" si="222"/>
+        <v>56450000</v>
+      </c>
+      <c r="G2221" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2221" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2222" s="1">
+        <v>2220</v>
+      </c>
+      <c r="B2222" s="1">
+        <v>1420000</v>
+      </c>
+      <c r="C2222" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2222" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2222" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2222" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2222" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2222" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2223" s="1">
+        <v>2221</v>
+      </c>
+      <c r="B2223" s="1">
+        <v>1421000</v>
+      </c>
+      <c r="C2223" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2223" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2223" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2223" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2223" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2223" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2224" s="1">
+        <v>2222</v>
+      </c>
+      <c r="B2224" s="1">
+        <v>1422000</v>
+      </c>
+      <c r="C2224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2224" s="1">
+        <v>56410000</v>
+      </c>
+      <c r="E2224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2224" s="4">
+        <f t="shared" si="222"/>
+        <v>56510000</v>
+      </c>
+      <c r="G2224" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2225" s="1">
+        <v>2223</v>
+      </c>
+      <c r="B2225" s="1">
+        <v>1423000</v>
+      </c>
+      <c r="C2225" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2225" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2225" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2225" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2225" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2225" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2226" s="1">
+        <v>2224</v>
+      </c>
+      <c r="B2226" s="1">
+        <v>1424000</v>
+      </c>
+      <c r="C2226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2226" s="1">
+        <v>56450000</v>
+      </c>
+      <c r="E2226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2226" s="4">
+        <f t="shared" si="222"/>
+        <v>56550000</v>
+      </c>
+      <c r="G2226" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2226" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2227" s="1">
+        <v>2225</v>
+      </c>
+      <c r="B2227" s="1">
+        <v>1425000</v>
+      </c>
+      <c r="C2227" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2227" s="1">
+        <v>56470000</v>
+      </c>
+      <c r="E2227" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2227" s="4">
+        <f t="shared" si="222"/>
+        <v>56570000</v>
+      </c>
+      <c r="G2227" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2227" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2228" s="1">
+        <v>2226</v>
+      </c>
+      <c r="B2228" s="1">
+        <v>1426000</v>
+      </c>
+      <c r="C2228" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2228" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2228" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2228" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2228" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2228" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2229" s="1">
+        <v>2227</v>
+      </c>
+      <c r="B2229" s="1">
+        <v>1427000</v>
+      </c>
+      <c r="C2229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2229" s="1">
+        <v>56510000</v>
+      </c>
+      <c r="E2229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2229" s="4">
+        <f t="shared" si="222"/>
+        <v>56610000</v>
+      </c>
+      <c r="G2229" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2229" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2230" s="1">
+        <v>2228</v>
+      </c>
+      <c r="B2230" s="1">
+        <v>1428000</v>
+      </c>
+      <c r="C2230" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2230" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2230" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2230" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2230" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2230" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2231" s="1">
+        <v>2229</v>
+      </c>
+      <c r="B2231" s="1">
+        <v>1429000</v>
+      </c>
+      <c r="C2231" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2231" s="1">
+        <v>56550000</v>
+      </c>
+      <c r="E2231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2231" s="4">
+        <f t="shared" si="222"/>
+        <v>56650000</v>
+      </c>
+      <c r="G2231" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2232" s="1">
+        <v>2230</v>
+      </c>
+      <c r="B2232" s="1">
+        <v>1430000</v>
+      </c>
+      <c r="C2232" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2232" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2232" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2232" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2232" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2233" s="1">
+        <v>2231</v>
+      </c>
+      <c r="B2233" s="1">
+        <v>1431000</v>
+      </c>
+      <c r="C2233" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2233" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2233" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2233" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2233" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2234" s="1">
+        <v>2232</v>
+      </c>
+      <c r="B2234" s="1">
+        <v>1432000</v>
+      </c>
+      <c r="C2234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2234" s="1">
+        <v>56610000</v>
+      </c>
+      <c r="E2234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2234" s="4">
+        <f t="shared" si="222"/>
+        <v>56710000</v>
+      </c>
+      <c r="G2234" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2235" s="1">
+        <v>2233</v>
+      </c>
+      <c r="B2235" s="1">
+        <v>1433000</v>
+      </c>
+      <c r="C2235" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2235" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2235" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2235" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2235" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2236" s="1">
+        <v>2234</v>
+      </c>
+      <c r="B2236" s="1">
+        <v>1434000</v>
+      </c>
+      <c r="C2236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2236" s="1">
+        <v>56650000</v>
+      </c>
+      <c r="E2236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2236" s="4">
+        <f t="shared" si="222"/>
+        <v>56750000</v>
+      </c>
+      <c r="G2236" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2237" s="1">
+        <v>2235</v>
+      </c>
+      <c r="B2237" s="1">
+        <v>1435000</v>
+      </c>
+      <c r="C2237" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2237" s="1">
+        <v>56670000</v>
+      </c>
+      <c r="E2237" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2237" s="4">
+        <f t="shared" si="222"/>
+        <v>56770000</v>
+      </c>
+      <c r="G2237" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2238" s="1">
+        <v>2236</v>
+      </c>
+      <c r="B2238" s="1">
+        <v>1436000</v>
+      </c>
+      <c r="C2238" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2238" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2238" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2238" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2238" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2239" s="1">
+        <v>2237</v>
+      </c>
+      <c r="B2239" s="1">
+        <v>1437000</v>
+      </c>
+      <c r="C2239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2239" s="1">
+        <v>56710000</v>
+      </c>
+      <c r="E2239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2239" s="4">
+        <f t="shared" si="222"/>
+        <v>56810000</v>
+      </c>
+      <c r="G2239" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2240" s="1">
+        <v>2238</v>
+      </c>
+      <c r="B2240" s="1">
+        <v>1438000</v>
+      </c>
+      <c r="C2240" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2240" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2240" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2240" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2240" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2241" s="1">
+        <v>2239</v>
+      </c>
+      <c r="B2241" s="1">
+        <v>1439000</v>
+      </c>
+      <c r="C2241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2241" s="1">
+        <v>56750000</v>
+      </c>
+      <c r="E2241" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2241" s="4">
+        <f t="shared" si="222"/>
+        <v>56850000</v>
+      </c>
+      <c r="G2241" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2242" s="1">
+        <v>2240</v>
+      </c>
+      <c r="B2242" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="C2242" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2242" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2242" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2242" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2242" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2243" s="1">
+        <v>2241</v>
+      </c>
+      <c r="B2243" s="1">
+        <v>1441000</v>
+      </c>
+      <c r="C2243" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2243" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2243" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2243" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2243" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2244" s="1">
+        <v>2242</v>
+      </c>
+      <c r="B2244" s="1">
+        <v>1442000</v>
+      </c>
+      <c r="C2244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2244" s="1">
+        <v>56810000</v>
+      </c>
+      <c r="E2244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2244" s="4">
+        <f t="shared" si="222"/>
+        <v>56910000</v>
+      </c>
+      <c r="G2244" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2245" s="1">
+        <v>2243</v>
+      </c>
+      <c r="B2245" s="1">
+        <v>1443000</v>
+      </c>
+      <c r="C2245" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2245" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2245" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2245" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2245" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2246" s="1">
+        <v>2244</v>
+      </c>
+      <c r="B2246" s="1">
+        <v>1444000</v>
+      </c>
+      <c r="C2246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2246" s="1">
+        <v>56850000</v>
+      </c>
+      <c r="E2246" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2246" s="4">
+        <f t="shared" si="222"/>
+        <v>56950000</v>
+      </c>
+      <c r="G2246" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2247" s="1">
+        <v>2245</v>
+      </c>
+      <c r="B2247" s="1">
+        <v>1445000</v>
+      </c>
+      <c r="C2247" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2247" s="1">
+        <v>56870000</v>
+      </c>
+      <c r="E2247" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2247" s="4">
+        <f t="shared" si="222"/>
+        <v>56970000</v>
+      </c>
+      <c r="G2247" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2248" s="1">
+        <v>2246</v>
+      </c>
+      <c r="B2248" s="1">
+        <v>1446000</v>
+      </c>
+      <c r="C2248" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2248" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2248" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2248" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2248" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2248" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2249" s="1">
+        <v>2247</v>
+      </c>
+      <c r="B2249" s="1">
+        <v>1447000</v>
+      </c>
+      <c r="C2249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2249" s="1">
+        <v>56910000</v>
+      </c>
+      <c r="E2249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2249" s="4">
+        <f t="shared" si="222"/>
+        <v>57010000</v>
+      </c>
+      <c r="G2249" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2249" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2250" s="1">
+        <v>2248</v>
+      </c>
+      <c r="B2250" s="1">
+        <v>1448000</v>
+      </c>
+      <c r="C2250" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2250" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2250" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2250" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2250" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2250" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2251" s="1">
+        <v>2249</v>
+      </c>
+      <c r="B2251" s="1">
+        <v>1449000</v>
+      </c>
+      <c r="C2251" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2251" s="1">
+        <v>56950000</v>
+      </c>
+      <c r="E2251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2251" s="4">
+        <f t="shared" si="222"/>
+        <v>57050000</v>
+      </c>
+      <c r="G2251" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2251" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2252" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B2252" s="1">
+        <v>1450000</v>
+      </c>
+      <c r="C2252" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2252" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2252" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2252" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2252" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2252" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2253" s="1">
+        <v>2251</v>
+      </c>
+      <c r="B2253" s="1">
+        <v>1451000</v>
+      </c>
+      <c r="C2253" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2253" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2253" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2253" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2253" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2253" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2254" s="1">
+        <v>2252</v>
+      </c>
+      <c r="B2254" s="1">
+        <v>1452000</v>
+      </c>
+      <c r="C2254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2254" s="1">
+        <v>57010000</v>
+      </c>
+      <c r="E2254" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2254" s="4">
+        <f t="shared" si="222"/>
+        <v>57110000</v>
+      </c>
+      <c r="G2254" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2254" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2255" s="1">
+        <v>2253</v>
+      </c>
+      <c r="B2255" s="1">
+        <v>1453000</v>
+      </c>
+      <c r="C2255" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2255" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2255" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2255" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2255" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2255" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2256" s="1">
+        <v>2254</v>
+      </c>
+      <c r="B2256" s="1">
+        <v>1454000</v>
+      </c>
+      <c r="C2256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2256" s="1">
+        <v>57050000</v>
+      </c>
+      <c r="E2256" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2256" s="4">
+        <f t="shared" si="222"/>
+        <v>57150000</v>
+      </c>
+      <c r="G2256" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2256" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2257" s="1">
+        <v>2255</v>
+      </c>
+      <c r="B2257" s="1">
+        <v>1455000</v>
+      </c>
+      <c r="C2257" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2257" s="1">
+        <v>57070000</v>
+      </c>
+      <c r="E2257" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2257" s="4">
+        <f t="shared" si="222"/>
+        <v>57170000</v>
+      </c>
+      <c r="G2257" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2257" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2258" s="1">
+        <v>2256</v>
+      </c>
+      <c r="B2258" s="1">
+        <v>1456000</v>
+      </c>
+      <c r="C2258" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2258" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2258" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2258" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2258" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2258" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2259" s="1">
+        <v>2257</v>
+      </c>
+      <c r="B2259" s="1">
+        <v>1457000</v>
+      </c>
+      <c r="C2259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2259" s="1">
+        <v>57110000</v>
+      </c>
+      <c r="E2259" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2259" s="4">
+        <f t="shared" si="222"/>
+        <v>57210000</v>
+      </c>
+      <c r="G2259" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2259" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2260" s="1">
+        <v>2258</v>
+      </c>
+      <c r="B2260" s="1">
+        <v>1458000</v>
+      </c>
+      <c r="C2260" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2260" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2260" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2260" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2260" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2260" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2261" s="1">
+        <v>2259</v>
+      </c>
+      <c r="B2261" s="1">
+        <v>1459000</v>
+      </c>
+      <c r="C2261" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2261" s="1">
+        <v>57150000</v>
+      </c>
+      <c r="E2261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2261" s="4">
+        <f t="shared" si="222"/>
+        <v>57250000</v>
+      </c>
+      <c r="G2261" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2261" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2262" s="1">
+        <v>2260</v>
+      </c>
+      <c r="B2262" s="1">
+        <v>1460000</v>
+      </c>
+      <c r="C2262" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2262" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2262" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2262" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2262" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2262" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2263" s="1">
+        <v>2261</v>
+      </c>
+      <c r="B2263" s="1">
+        <v>1461000</v>
+      </c>
+      <c r="C2263" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2263" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2263" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2263" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2263" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2263" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2264" s="1">
+        <v>2262</v>
+      </c>
+      <c r="B2264" s="1">
+        <v>1462000</v>
+      </c>
+      <c r="C2264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2264" s="1">
+        <v>57210000</v>
+      </c>
+      <c r="E2264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2264" s="4">
+        <f t="shared" si="222"/>
+        <v>57310000</v>
+      </c>
+      <c r="G2264" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2264" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2265" s="1">
+        <v>2263</v>
+      </c>
+      <c r="B2265" s="1">
+        <v>1463000</v>
+      </c>
+      <c r="C2265" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2265" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2265" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2265" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2265" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2265" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2266" s="1">
+        <v>2264</v>
+      </c>
+      <c r="B2266" s="1">
+        <v>1464000</v>
+      </c>
+      <c r="C2266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2266" s="1">
+        <v>57250000</v>
+      </c>
+      <c r="E2266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2266" s="4">
+        <f t="shared" ref="F2265:F2302" si="223">D2266+100000</f>
+        <v>57350000</v>
+      </c>
+      <c r="G2266" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2266" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2267" s="1">
+        <v>2265</v>
+      </c>
+      <c r="B2267" s="1">
+        <v>1465000</v>
+      </c>
+      <c r="C2267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2267" s="1">
+        <v>57270000</v>
+      </c>
+      <c r="E2267" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2267" s="4">
+        <f t="shared" si="223"/>
+        <v>57370000</v>
+      </c>
+      <c r="G2267" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2267" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2268" s="1">
+        <v>2266</v>
+      </c>
+      <c r="B2268" s="1">
+        <v>1466000</v>
+      </c>
+      <c r="C2268" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2268" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2268" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2268" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2268" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2268" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2269" s="1">
+        <v>2267</v>
+      </c>
+      <c r="B2269" s="1">
+        <v>1467000</v>
+      </c>
+      <c r="C2269" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2269" s="1">
+        <v>57310000</v>
+      </c>
+      <c r="E2269" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2269" s="4">
+        <f t="shared" si="223"/>
+        <v>57410000</v>
+      </c>
+      <c r="G2269" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2269" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2270" s="1">
+        <v>2268</v>
+      </c>
+      <c r="B2270" s="1">
+        <v>1468000</v>
+      </c>
+      <c r="C2270" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2270" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2270" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2270" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2270" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2270" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2271" s="1">
+        <v>2269</v>
+      </c>
+      <c r="B2271" s="1">
+        <v>1469000</v>
+      </c>
+      <c r="C2271" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2271" s="1">
+        <v>57350000</v>
+      </c>
+      <c r="E2271" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2271" s="4">
+        <f t="shared" si="223"/>
+        <v>57450000</v>
+      </c>
+      <c r="G2271" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2271" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2272" s="1">
+        <v>2270</v>
+      </c>
+      <c r="B2272" s="1">
+        <v>1470000</v>
+      </c>
+      <c r="C2272" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2272" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2272" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2272" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2272" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2272" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2273" s="1">
+        <v>2271</v>
+      </c>
+      <c r="B2273" s="1">
+        <v>1471000</v>
+      </c>
+      <c r="C2273" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2273" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2273" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2273" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2273" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2273" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2274" s="1">
+        <v>2272</v>
+      </c>
+      <c r="B2274" s="1">
+        <v>1472000</v>
+      </c>
+      <c r="C2274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2274" s="1">
+        <v>57410000</v>
+      </c>
+      <c r="E2274" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2274" s="4">
+        <f t="shared" si="223"/>
+        <v>57510000</v>
+      </c>
+      <c r="G2274" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2274" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2275" s="1">
+        <v>2273</v>
+      </c>
+      <c r="B2275" s="1">
+        <v>1473000</v>
+      </c>
+      <c r="C2275" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2275" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2275" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2275" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2275" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2275" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2276" s="1">
+        <v>2274</v>
+      </c>
+      <c r="B2276" s="1">
+        <v>1474000</v>
+      </c>
+      <c r="C2276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2276" s="1">
+        <v>57450000</v>
+      </c>
+      <c r="E2276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2276" s="4">
+        <f t="shared" si="223"/>
+        <v>57550000</v>
+      </c>
+      <c r="G2276" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2276" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2277" s="1">
+        <v>2275</v>
+      </c>
+      <c r="B2277" s="1">
+        <v>1475000</v>
+      </c>
+      <c r="C2277" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2277" s="1">
+        <v>57470000</v>
+      </c>
+      <c r="E2277" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2277" s="4">
+        <f t="shared" si="223"/>
+        <v>57570000</v>
+      </c>
+      <c r="G2277" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2277" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2278" s="1">
+        <v>2276</v>
+      </c>
+      <c r="B2278" s="1">
+        <v>1476000</v>
+      </c>
+      <c r="C2278" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2278" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2278" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2278" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2278" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2278" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2279" s="1">
+        <v>2277</v>
+      </c>
+      <c r="B2279" s="1">
+        <v>1477000</v>
+      </c>
+      <c r="C2279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2279" s="1">
+        <v>57510000</v>
+      </c>
+      <c r="E2279" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2279" s="4">
+        <f t="shared" si="223"/>
+        <v>57610000</v>
+      </c>
+      <c r="G2279" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2279" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2280" s="1">
+        <v>2278</v>
+      </c>
+      <c r="B2280" s="1">
+        <v>1478000</v>
+      </c>
+      <c r="C2280" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2280" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2280" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2280" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2280" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2280" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2281" s="1">
+        <v>2279</v>
+      </c>
+      <c r="B2281" s="1">
+        <v>1479000</v>
+      </c>
+      <c r="C2281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2281" s="1">
+        <v>57550000</v>
+      </c>
+      <c r="E2281" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2281" s="4">
+        <f t="shared" si="223"/>
+        <v>57650000</v>
+      </c>
+      <c r="G2281" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2281" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2282" s="1">
+        <v>2280</v>
+      </c>
+      <c r="B2282" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="C2282" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2282" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2282" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2282" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2282" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2282" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2283" s="1">
+        <v>2281</v>
+      </c>
+      <c r="B2283" s="1">
+        <v>1481000</v>
+      </c>
+      <c r="C2283" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2283" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2283" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2283" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2283" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2283" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2284" s="1">
+        <v>2282</v>
+      </c>
+      <c r="B2284" s="1">
+        <v>1482000</v>
+      </c>
+      <c r="C2284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2284" s="1">
+        <v>57610000</v>
+      </c>
+      <c r="E2284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2284" s="4">
+        <f t="shared" si="223"/>
+        <v>57710000</v>
+      </c>
+      <c r="G2284" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2284" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2285" s="1">
+        <v>2283</v>
+      </c>
+      <c r="B2285" s="1">
+        <v>1483000</v>
+      </c>
+      <c r="C2285" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2285" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2285" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2285" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2285" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2285" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2286" s="1">
+        <v>2284</v>
+      </c>
+      <c r="B2286" s="1">
+        <v>1484000</v>
+      </c>
+      <c r="C2286" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2286" s="1">
+        <v>57650000</v>
+      </c>
+      <c r="E2286" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2286" s="4">
+        <f t="shared" si="223"/>
+        <v>57750000</v>
+      </c>
+      <c r="G2286" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2286" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2287" s="1">
+        <v>2285</v>
+      </c>
+      <c r="B2287" s="1">
+        <v>1485000</v>
+      </c>
+      <c r="C2287" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2287" s="1">
+        <v>57670000</v>
+      </c>
+      <c r="E2287" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2287" s="4">
+        <f t="shared" si="223"/>
+        <v>57770000</v>
+      </c>
+      <c r="G2287" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2287" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2288" s="1">
+        <v>2286</v>
+      </c>
+      <c r="B2288" s="1">
+        <v>1486000</v>
+      </c>
+      <c r="C2288" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2288" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2288" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2288" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2288" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2288" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2289" s="1">
+        <v>2287</v>
+      </c>
+      <c r="B2289" s="1">
+        <v>1487000</v>
+      </c>
+      <c r="C2289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2289" s="1">
+        <v>57710000</v>
+      </c>
+      <c r="E2289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2289" s="4">
+        <f t="shared" si="223"/>
+        <v>57810000</v>
+      </c>
+      <c r="G2289" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2289" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2290" s="1">
+        <v>2288</v>
+      </c>
+      <c r="B2290" s="1">
+        <v>1488000</v>
+      </c>
+      <c r="C2290" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2290" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2290" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2290" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2290" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2290" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2291" s="1">
+        <v>2289</v>
+      </c>
+      <c r="B2291" s="1">
+        <v>1489000</v>
+      </c>
+      <c r="C2291" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2291" s="1">
+        <v>57750000</v>
+      </c>
+      <c r="E2291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2291" s="4">
+        <f t="shared" si="223"/>
+        <v>57850000</v>
+      </c>
+      <c r="G2291" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2291" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2292" s="1">
+        <v>2290</v>
+      </c>
+      <c r="B2292" s="1">
+        <v>1490000</v>
+      </c>
+      <c r="C2292" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2292" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2292" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2292" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2292" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2292" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2293" s="1">
+        <v>2291</v>
+      </c>
+      <c r="B2293" s="1">
+        <v>1491000</v>
+      </c>
+      <c r="C2293" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2293" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2293" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2293" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2293" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2293" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2294" s="1">
+        <v>2292</v>
+      </c>
+      <c r="B2294" s="1">
+        <v>1492000</v>
+      </c>
+      <c r="C2294" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2294" s="1">
+        <v>57810000</v>
+      </c>
+      <c r="E2294" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2294" s="4">
+        <f t="shared" si="223"/>
+        <v>57910000</v>
+      </c>
+      <c r="G2294" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2294" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2295" s="1">
+        <v>2293</v>
+      </c>
+      <c r="B2295" s="1">
+        <v>1493000</v>
+      </c>
+      <c r="C2295" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2295" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2295" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2295" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2295" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2295" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2296" s="1">
+        <v>2294</v>
+      </c>
+      <c r="B2296" s="1">
+        <v>1494000</v>
+      </c>
+      <c r="C2296" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2296" s="1">
+        <v>57850000</v>
+      </c>
+      <c r="E2296" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2296" s="4">
+        <f t="shared" si="223"/>
+        <v>57950000</v>
+      </c>
+      <c r="G2296" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2296" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2297" s="1">
+        <v>2295</v>
+      </c>
+      <c r="B2297" s="1">
+        <v>1495000</v>
+      </c>
+      <c r="C2297" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2297" s="1">
+        <v>57870000</v>
+      </c>
+      <c r="E2297" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2297" s="4">
+        <f t="shared" si="223"/>
+        <v>57970000</v>
+      </c>
+      <c r="G2297" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2297" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2298" s="1">
+        <v>2296</v>
+      </c>
+      <c r="B2298" s="1">
+        <v>1496000</v>
+      </c>
+      <c r="C2298" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2298" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2298" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2298" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2298" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2298" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2299" s="1">
+        <v>2297</v>
+      </c>
+      <c r="B2299" s="1">
+        <v>1497000</v>
+      </c>
+      <c r="C2299" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2299" s="1">
+        <v>57910000</v>
+      </c>
+      <c r="E2299" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2299" s="4">
+        <f t="shared" si="223"/>
+        <v>58010000</v>
+      </c>
+      <c r="G2299" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2299" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2300" s="1">
+        <v>2298</v>
+      </c>
+      <c r="B2300" s="1">
+        <v>1498000</v>
+      </c>
+      <c r="C2300" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2300" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E2300" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2300" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2300" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2300" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2301" s="1">
+        <v>2299</v>
+      </c>
+      <c r="B2301" s="1">
+        <v>1499000</v>
+      </c>
+      <c r="C2301" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2301" s="1">
+        <v>57950000</v>
+      </c>
+      <c r="E2301" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2301" s="4">
+        <f t="shared" si="223"/>
+        <v>58050000</v>
+      </c>
+      <c r="G2301" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2301" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2302" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B2302" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="C2302" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2302" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2302" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2302" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2302" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2302" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2302" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C2202" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+  <autoFilter ref="C1:C2302" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
     <filterColumn colId="0">
       <filters>
         <filter val="14"/>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF5F348-833D-4C02-AC1D-F29CD2E71CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5032A929-1FDD-40CC-84BF-AF81D2F0A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7155" yWindow="2235" windowWidth="23595" windowHeight="18480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -177,6 +177,13 @@
   </si>
   <si>
     <t>levelpass19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass20</t>
+  </si>
+  <si>
+    <t>levelpass20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J2402"/>
+  <dimension ref="A1:J2502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2400" sqref="C2400"/>
+      <pane ySplit="1" topLeftCell="A2465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2497" sqref="E2497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -69614,7 +69621,7 @@
         <v>1</v>
       </c>
       <c r="F2331" s="4">
-        <f t="shared" ref="F2331:F2392" si="224">D2331+100000</f>
+        <f t="shared" ref="F2331:F2391" si="224">D2331+100000</f>
         <v>58650000</v>
       </c>
       <c r="G2331" s="1">
@@ -71472,7 +71479,7 @@
         <v>1</v>
       </c>
       <c r="F2394" s="4">
-        <f t="shared" ref="F2394:F2402" si="225">D2394+100000</f>
+        <f t="shared" ref="F2394:F2457" si="225">D2394+100000</f>
         <v>59910000</v>
       </c>
       <c r="G2394" s="1">
@@ -71718,6 +71725,2956 @@
         <v>39</v>
       </c>
       <c r="I2402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2403" s="2">
+        <v>2401</v>
+      </c>
+      <c r="B2403" s="1">
+        <v>1601000</v>
+      </c>
+      <c r="C2403" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2403" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2403" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2403" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2403" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2403" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2403" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2404" s="1">
+        <v>2402</v>
+      </c>
+      <c r="B2404" s="1">
+        <v>1602000</v>
+      </c>
+      <c r="C2404" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2404" s="1">
+        <v>60010000</v>
+      </c>
+      <c r="E2404" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2404" s="4">
+        <f t="shared" si="225"/>
+        <v>60110000</v>
+      </c>
+      <c r="G2404" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2404" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2404" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2405" s="1">
+        <v>2403</v>
+      </c>
+      <c r="B2405" s="1">
+        <v>1603000</v>
+      </c>
+      <c r="C2405" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2405" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2405" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2405" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2405" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2405" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2405" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2406" s="1">
+        <v>2404</v>
+      </c>
+      <c r="B2406" s="1">
+        <v>1604000</v>
+      </c>
+      <c r="C2406" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2406" s="1">
+        <v>60050000</v>
+      </c>
+      <c r="E2406" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2406" s="4">
+        <f t="shared" si="225"/>
+        <v>60150000</v>
+      </c>
+      <c r="G2406" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2406" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2406" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2407" s="1">
+        <v>2405</v>
+      </c>
+      <c r="B2407" s="1">
+        <v>1605000</v>
+      </c>
+      <c r="C2407" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2407" s="1">
+        <v>60070000</v>
+      </c>
+      <c r="E2407" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2407" s="4">
+        <f t="shared" si="225"/>
+        <v>60170000</v>
+      </c>
+      <c r="G2407" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2407" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2407" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2408" s="1">
+        <v>2406</v>
+      </c>
+      <c r="B2408" s="1">
+        <v>1606000</v>
+      </c>
+      <c r="C2408" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2408" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2408" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2408" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2408" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2408" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2408" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2409" s="1">
+        <v>2407</v>
+      </c>
+      <c r="B2409" s="1">
+        <v>1607000</v>
+      </c>
+      <c r="C2409" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2409" s="1">
+        <v>60110000</v>
+      </c>
+      <c r="E2409" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2409" s="4">
+        <f t="shared" si="225"/>
+        <v>60210000</v>
+      </c>
+      <c r="G2409" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2409" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2409" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2410" s="1">
+        <v>2408</v>
+      </c>
+      <c r="B2410" s="1">
+        <v>1608000</v>
+      </c>
+      <c r="C2410" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2410" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2410" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2410" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2410" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2410" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2411" s="1">
+        <v>2409</v>
+      </c>
+      <c r="B2411" s="1">
+        <v>1609000</v>
+      </c>
+      <c r="C2411" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2411" s="1">
+        <v>60150000</v>
+      </c>
+      <c r="E2411" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2411" s="4">
+        <f t="shared" si="225"/>
+        <v>60250000</v>
+      </c>
+      <c r="G2411" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2411" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2411" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2412" s="1">
+        <v>2410</v>
+      </c>
+      <c r="B2412" s="1">
+        <v>1610000</v>
+      </c>
+      <c r="C2412" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2412" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2412" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2412" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2412" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2412" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2412" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2413" s="1">
+        <v>2411</v>
+      </c>
+      <c r="B2413" s="1">
+        <v>1611000</v>
+      </c>
+      <c r="C2413" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2413" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2413" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2413" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2413" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2413" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2413" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2414" s="1">
+        <v>2412</v>
+      </c>
+      <c r="B2414" s="1">
+        <v>1612000</v>
+      </c>
+      <c r="C2414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2414" s="1">
+        <v>60210000</v>
+      </c>
+      <c r="E2414" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2414" s="4">
+        <f t="shared" si="225"/>
+        <v>60310000</v>
+      </c>
+      <c r="G2414" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2414" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2415" s="1">
+        <v>2413</v>
+      </c>
+      <c r="B2415" s="1">
+        <v>1613000</v>
+      </c>
+      <c r="C2415" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2415" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2415" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2415" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2415" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2415" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2416" s="1">
+        <v>2414</v>
+      </c>
+      <c r="B2416" s="1">
+        <v>1614000</v>
+      </c>
+      <c r="C2416" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2416" s="1">
+        <v>60250000</v>
+      </c>
+      <c r="E2416" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2416" s="4">
+        <f t="shared" si="225"/>
+        <v>60350000</v>
+      </c>
+      <c r="G2416" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2416" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2417" s="1">
+        <v>2415</v>
+      </c>
+      <c r="B2417" s="1">
+        <v>1615000</v>
+      </c>
+      <c r="C2417" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2417" s="1">
+        <v>60270000</v>
+      </c>
+      <c r="E2417" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2417" s="4">
+        <f t="shared" si="225"/>
+        <v>60370000</v>
+      </c>
+      <c r="G2417" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2417" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2417" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2418" s="1">
+        <v>2416</v>
+      </c>
+      <c r="B2418" s="1">
+        <v>1616000</v>
+      </c>
+      <c r="C2418" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2418" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2418" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2418" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2418" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2418" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2419" s="1">
+        <v>2417</v>
+      </c>
+      <c r="B2419" s="1">
+        <v>1617000</v>
+      </c>
+      <c r="C2419" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2419" s="1">
+        <v>60310000</v>
+      </c>
+      <c r="E2419" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2419" s="4">
+        <f t="shared" si="225"/>
+        <v>60410000</v>
+      </c>
+      <c r="G2419" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2419" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2420" s="1">
+        <v>2418</v>
+      </c>
+      <c r="B2420" s="1">
+        <v>1618000</v>
+      </c>
+      <c r="C2420" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2420" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2420" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2420" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2420" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2420" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2421" s="1">
+        <v>2419</v>
+      </c>
+      <c r="B2421" s="1">
+        <v>1619000</v>
+      </c>
+      <c r="C2421" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2421" s="1">
+        <v>60350000</v>
+      </c>
+      <c r="E2421" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2421" s="4">
+        <f t="shared" si="225"/>
+        <v>60450000</v>
+      </c>
+      <c r="G2421" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2421" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2422" s="1">
+        <v>2420</v>
+      </c>
+      <c r="B2422" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="C2422" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2422" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2422" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2422" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2422" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2422" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2423" s="1">
+        <v>2421</v>
+      </c>
+      <c r="B2423" s="1">
+        <v>1621000</v>
+      </c>
+      <c r="C2423" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2423" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2423" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2423" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2423" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2423" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2424" s="1">
+        <v>2422</v>
+      </c>
+      <c r="B2424" s="1">
+        <v>1622000</v>
+      </c>
+      <c r="C2424" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2424" s="1">
+        <v>60410000</v>
+      </c>
+      <c r="E2424" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2424" s="4">
+        <f t="shared" si="225"/>
+        <v>60510000</v>
+      </c>
+      <c r="G2424" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2424" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2424" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2425" s="1">
+        <v>2423</v>
+      </c>
+      <c r="B2425" s="1">
+        <v>1623000</v>
+      </c>
+      <c r="C2425" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2425" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2425" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2425" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2425" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2425" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2425" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2426" s="1">
+        <v>2424</v>
+      </c>
+      <c r="B2426" s="1">
+        <v>1624000</v>
+      </c>
+      <c r="C2426" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2426" s="1">
+        <v>60450000</v>
+      </c>
+      <c r="E2426" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2426" s="4">
+        <f t="shared" si="225"/>
+        <v>60550000</v>
+      </c>
+      <c r="G2426" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2426" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2426" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2427" s="1">
+        <v>2425</v>
+      </c>
+      <c r="B2427" s="1">
+        <v>1625000</v>
+      </c>
+      <c r="C2427" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2427" s="1">
+        <v>60470000</v>
+      </c>
+      <c r="E2427" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2427" s="4">
+        <f t="shared" si="225"/>
+        <v>60570000</v>
+      </c>
+      <c r="G2427" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2427" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2428" s="1">
+        <v>2426</v>
+      </c>
+      <c r="B2428" s="1">
+        <v>1626000</v>
+      </c>
+      <c r="C2428" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2428" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2428" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2428" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2428" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2428" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2428" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2429" s="1">
+        <v>2427</v>
+      </c>
+      <c r="B2429" s="1">
+        <v>1627000</v>
+      </c>
+      <c r="C2429" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2429" s="1">
+        <v>60510000</v>
+      </c>
+      <c r="E2429" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2429" s="4">
+        <f t="shared" si="225"/>
+        <v>60610000</v>
+      </c>
+      <c r="G2429" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2429" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2429" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2430" s="1">
+        <v>2428</v>
+      </c>
+      <c r="B2430" s="1">
+        <v>1628000</v>
+      </c>
+      <c r="C2430" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2430" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2430" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2430" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2430" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2430" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2431" s="1">
+        <v>2429</v>
+      </c>
+      <c r="B2431" s="1">
+        <v>1629000</v>
+      </c>
+      <c r="C2431" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2431" s="1">
+        <v>60550000</v>
+      </c>
+      <c r="E2431" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2431" s="4">
+        <f t="shared" si="225"/>
+        <v>60650000</v>
+      </c>
+      <c r="G2431" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2431" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2431" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2432" s="1">
+        <v>2430</v>
+      </c>
+      <c r="B2432" s="1">
+        <v>1630000</v>
+      </c>
+      <c r="C2432" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2432" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2432" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2432" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2432" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2432" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2433" s="1">
+        <v>2431</v>
+      </c>
+      <c r="B2433" s="1">
+        <v>1631000</v>
+      </c>
+      <c r="C2433" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2433" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2433" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2433" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2433" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2433" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2433" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2434" s="1">
+        <v>2432</v>
+      </c>
+      <c r="B2434" s="1">
+        <v>1632000</v>
+      </c>
+      <c r="C2434" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2434" s="1">
+        <v>60610000</v>
+      </c>
+      <c r="E2434" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2434" s="4">
+        <f t="shared" si="225"/>
+        <v>60710000</v>
+      </c>
+      <c r="G2434" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2434" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2435" s="1">
+        <v>2433</v>
+      </c>
+      <c r="B2435" s="1">
+        <v>1633000</v>
+      </c>
+      <c r="C2435" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2435" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2435" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2435" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2435" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2435" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2436" s="1">
+        <v>2434</v>
+      </c>
+      <c r="B2436" s="1">
+        <v>1634000</v>
+      </c>
+      <c r="C2436" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2436" s="1">
+        <v>60650000</v>
+      </c>
+      <c r="E2436" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2436" s="4">
+        <f t="shared" si="225"/>
+        <v>60750000</v>
+      </c>
+      <c r="G2436" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2436" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2437" s="1">
+        <v>2435</v>
+      </c>
+      <c r="B2437" s="1">
+        <v>1635000</v>
+      </c>
+      <c r="C2437" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2437" s="1">
+        <v>60670000</v>
+      </c>
+      <c r="E2437" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2437" s="4">
+        <f t="shared" si="225"/>
+        <v>60770000</v>
+      </c>
+      <c r="G2437" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2437" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2438" s="1">
+        <v>2436</v>
+      </c>
+      <c r="B2438" s="1">
+        <v>1636000</v>
+      </c>
+      <c r="C2438" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2438" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2438" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2438" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2438" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2438" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2439" s="1">
+        <v>2437</v>
+      </c>
+      <c r="B2439" s="1">
+        <v>1637000</v>
+      </c>
+      <c r="C2439" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2439" s="1">
+        <v>60710000</v>
+      </c>
+      <c r="E2439" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2439" s="4">
+        <f t="shared" si="225"/>
+        <v>60810000</v>
+      </c>
+      <c r="G2439" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2439" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2439" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2440" s="1">
+        <v>2438</v>
+      </c>
+      <c r="B2440" s="1">
+        <v>1638000</v>
+      </c>
+      <c r="C2440" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2440" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2440" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2440" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2440" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2440" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2440" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2441" s="1">
+        <v>2439</v>
+      </c>
+      <c r="B2441" s="1">
+        <v>1639000</v>
+      </c>
+      <c r="C2441" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2441" s="1">
+        <v>60750000</v>
+      </c>
+      <c r="E2441" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2441" s="4">
+        <f t="shared" si="225"/>
+        <v>60850000</v>
+      </c>
+      <c r="G2441" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2441" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2441" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2442" s="1">
+        <v>2440</v>
+      </c>
+      <c r="B2442" s="1">
+        <v>1640000</v>
+      </c>
+      <c r="C2442" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2442" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2442" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2442" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2442" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2442" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2443" s="1">
+        <v>2441</v>
+      </c>
+      <c r="B2443" s="1">
+        <v>1641000</v>
+      </c>
+      <c r="C2443" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2443" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2443" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2443" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2443" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2443" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2443" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2444" s="1">
+        <v>2442</v>
+      </c>
+      <c r="B2444" s="1">
+        <v>1642000</v>
+      </c>
+      <c r="C2444" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2444" s="1">
+        <v>60810000</v>
+      </c>
+      <c r="E2444" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2444" s="4">
+        <f t="shared" si="225"/>
+        <v>60910000</v>
+      </c>
+      <c r="G2444" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2444" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2444" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2445" s="1">
+        <v>2443</v>
+      </c>
+      <c r="B2445" s="1">
+        <v>1643000</v>
+      </c>
+      <c r="C2445" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2445" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2445" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2445" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2445" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2445" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2445" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2446" s="1">
+        <v>2444</v>
+      </c>
+      <c r="B2446" s="1">
+        <v>1644000</v>
+      </c>
+      <c r="C2446" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2446" s="1">
+        <v>60850000</v>
+      </c>
+      <c r="E2446" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2446" s="4">
+        <f t="shared" si="225"/>
+        <v>60950000</v>
+      </c>
+      <c r="G2446" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2446" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2447" s="1">
+        <v>2445</v>
+      </c>
+      <c r="B2447" s="1">
+        <v>1645000</v>
+      </c>
+      <c r="C2447" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2447" s="1">
+        <v>60870000</v>
+      </c>
+      <c r="E2447" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2447" s="4">
+        <f t="shared" si="225"/>
+        <v>60970000</v>
+      </c>
+      <c r="G2447" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2447" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2448" s="1">
+        <v>2446</v>
+      </c>
+      <c r="B2448" s="1">
+        <v>1646000</v>
+      </c>
+      <c r="C2448" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2448" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2448" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2448" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2448" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2448" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2448" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2449" s="1">
+        <v>2447</v>
+      </c>
+      <c r="B2449" s="1">
+        <v>1647000</v>
+      </c>
+      <c r="C2449" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2449" s="1">
+        <v>60910000</v>
+      </c>
+      <c r="E2449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2449" s="4">
+        <f t="shared" si="225"/>
+        <v>61010000</v>
+      </c>
+      <c r="G2449" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2449" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2449" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2450" s="1">
+        <v>2448</v>
+      </c>
+      <c r="B2450" s="1">
+        <v>1648000</v>
+      </c>
+      <c r="C2450" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2450" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2450" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2450" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2450" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2450" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2450" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2451" s="1">
+        <v>2449</v>
+      </c>
+      <c r="B2451" s="1">
+        <v>1649000</v>
+      </c>
+      <c r="C2451" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2451" s="1">
+        <v>60950000</v>
+      </c>
+      <c r="E2451" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2451" s="4">
+        <f t="shared" si="225"/>
+        <v>61050000</v>
+      </c>
+      <c r="G2451" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2451" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2452" s="1">
+        <v>2450</v>
+      </c>
+      <c r="B2452" s="1">
+        <v>1650000</v>
+      </c>
+      <c r="C2452" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2452" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2452" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2452" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2452" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2452" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2452" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2453" s="1">
+        <v>2451</v>
+      </c>
+      <c r="B2453" s="1">
+        <v>1651000</v>
+      </c>
+      <c r="C2453" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2453" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2453" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2453" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2453" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2453" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2454" s="1">
+        <v>2452</v>
+      </c>
+      <c r="B2454" s="1">
+        <v>1652000</v>
+      </c>
+      <c r="C2454" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2454" s="1">
+        <v>61010000</v>
+      </c>
+      <c r="E2454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2454" s="4">
+        <f t="shared" si="225"/>
+        <v>61110000</v>
+      </c>
+      <c r="G2454" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2454" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2455" s="1">
+        <v>2453</v>
+      </c>
+      <c r="B2455" s="1">
+        <v>1653000</v>
+      </c>
+      <c r="C2455" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2455" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2455" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2455" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2455" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2455" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2455" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2456" s="1">
+        <v>2454</v>
+      </c>
+      <c r="B2456" s="1">
+        <v>1654000</v>
+      </c>
+      <c r="C2456" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2456" s="1">
+        <v>61050000</v>
+      </c>
+      <c r="E2456" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2456" s="4">
+        <f t="shared" si="225"/>
+        <v>61150000</v>
+      </c>
+      <c r="G2456" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2456" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2457" s="1">
+        <v>2455</v>
+      </c>
+      <c r="B2457" s="1">
+        <v>1655000</v>
+      </c>
+      <c r="C2457" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2457" s="1">
+        <v>61070000</v>
+      </c>
+      <c r="E2457" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2457" s="4">
+        <f t="shared" si="225"/>
+        <v>61170000</v>
+      </c>
+      <c r="G2457" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2457" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2458" s="1">
+        <v>2456</v>
+      </c>
+      <c r="B2458" s="1">
+        <v>1656000</v>
+      </c>
+      <c r="C2458" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2458" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2458" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2458" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2458" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2458" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2459" s="1">
+        <v>2457</v>
+      </c>
+      <c r="B2459" s="1">
+        <v>1657000</v>
+      </c>
+      <c r="C2459" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2459" s="1">
+        <v>61110000</v>
+      </c>
+      <c r="E2459" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2459" s="4">
+        <f t="shared" ref="F2458:F2502" si="226">D2459+100000</f>
+        <v>61210000</v>
+      </c>
+      <c r="G2459" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2459" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2460" s="1">
+        <v>2458</v>
+      </c>
+      <c r="B2460" s="1">
+        <v>1658000</v>
+      </c>
+      <c r="C2460" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2460" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2460" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2460" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2460" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2460" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2460" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2461" s="1">
+        <v>2459</v>
+      </c>
+      <c r="B2461" s="1">
+        <v>1659000</v>
+      </c>
+      <c r="C2461" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2461" s="1">
+        <v>61150000</v>
+      </c>
+      <c r="E2461" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2461" s="4">
+        <f t="shared" si="226"/>
+        <v>61250000</v>
+      </c>
+      <c r="G2461" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2461" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2461" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2462" s="1">
+        <v>2460</v>
+      </c>
+      <c r="B2462" s="1">
+        <v>1660000</v>
+      </c>
+      <c r="C2462" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2462" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2462" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2462" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2462" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2462" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2462" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2463" s="1">
+        <v>2461</v>
+      </c>
+      <c r="B2463" s="1">
+        <v>1661000</v>
+      </c>
+      <c r="C2463" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2463" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2463" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2463" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2463" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2463" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2463" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2464" s="1">
+        <v>2462</v>
+      </c>
+      <c r="B2464" s="1">
+        <v>1662000</v>
+      </c>
+      <c r="C2464" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2464" s="1">
+        <v>61210000</v>
+      </c>
+      <c r="E2464" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2464" s="4">
+        <f t="shared" si="226"/>
+        <v>61310000</v>
+      </c>
+      <c r="G2464" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2464" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2464" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2465" s="1">
+        <v>2463</v>
+      </c>
+      <c r="B2465" s="1">
+        <v>1663000</v>
+      </c>
+      <c r="C2465" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2465" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2465" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2465" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2465" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2465" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2465" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2466" s="1">
+        <v>2464</v>
+      </c>
+      <c r="B2466" s="1">
+        <v>1664000</v>
+      </c>
+      <c r="C2466" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2466" s="1">
+        <v>61250000</v>
+      </c>
+      <c r="E2466" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2466" s="4">
+        <f t="shared" si="226"/>
+        <v>61350000</v>
+      </c>
+      <c r="G2466" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2466" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2466" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2467" s="1">
+        <v>2465</v>
+      </c>
+      <c r="B2467" s="1">
+        <v>1665000</v>
+      </c>
+      <c r="C2467" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2467" s="1">
+        <v>61270000</v>
+      </c>
+      <c r="E2467" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2467" s="4">
+        <f t="shared" si="226"/>
+        <v>61370000</v>
+      </c>
+      <c r="G2467" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2467" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2467" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2468" s="1">
+        <v>2466</v>
+      </c>
+      <c r="B2468" s="1">
+        <v>1666000</v>
+      </c>
+      <c r="C2468" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2468" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2468" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2468" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2468" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2468" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2468" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2469" s="1">
+        <v>2467</v>
+      </c>
+      <c r="B2469" s="1">
+        <v>1667000</v>
+      </c>
+      <c r="C2469" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2469" s="1">
+        <v>61310000</v>
+      </c>
+      <c r="E2469" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2469" s="4">
+        <f t="shared" si="226"/>
+        <v>61410000</v>
+      </c>
+      <c r="G2469" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2469" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2469" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2470" s="1">
+        <v>2468</v>
+      </c>
+      <c r="B2470" s="1">
+        <v>1668000</v>
+      </c>
+      <c r="C2470" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2470" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2470" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2470" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2470" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2470" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2471" s="1">
+        <v>2469</v>
+      </c>
+      <c r="B2471" s="1">
+        <v>1669000</v>
+      </c>
+      <c r="C2471" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2471" s="1">
+        <v>61350000</v>
+      </c>
+      <c r="E2471" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2471" s="4">
+        <f t="shared" si="226"/>
+        <v>61450000</v>
+      </c>
+      <c r="G2471" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2471" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2471" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2472" s="1">
+        <v>2470</v>
+      </c>
+      <c r="B2472" s="1">
+        <v>1670000</v>
+      </c>
+      <c r="C2472" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2472" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2472" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2472" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2472" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2472" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2472" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2473" s="1">
+        <v>2471</v>
+      </c>
+      <c r="B2473" s="1">
+        <v>1671000</v>
+      </c>
+      <c r="C2473" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2473" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2473" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2473" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2473" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2473" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2473" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2474" s="1">
+        <v>2472</v>
+      </c>
+      <c r="B2474" s="1">
+        <v>1672000</v>
+      </c>
+      <c r="C2474" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2474" s="1">
+        <v>61410000</v>
+      </c>
+      <c r="E2474" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2474" s="4">
+        <f t="shared" si="226"/>
+        <v>61510000</v>
+      </c>
+      <c r="G2474" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2474" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2474" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2475" s="1">
+        <v>2473</v>
+      </c>
+      <c r="B2475" s="1">
+        <v>1673000</v>
+      </c>
+      <c r="C2475" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2475" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2475" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2475" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2475" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2475" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2475" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2476" s="1">
+        <v>2474</v>
+      </c>
+      <c r="B2476" s="1">
+        <v>1674000</v>
+      </c>
+      <c r="C2476" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2476" s="1">
+        <v>61450000</v>
+      </c>
+      <c r="E2476" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2476" s="4">
+        <f t="shared" si="226"/>
+        <v>61550000</v>
+      </c>
+      <c r="G2476" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2476" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2476" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2477" s="1">
+        <v>2475</v>
+      </c>
+      <c r="B2477" s="1">
+        <v>1675000</v>
+      </c>
+      <c r="C2477" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2477" s="1">
+        <v>61470000</v>
+      </c>
+      <c r="E2477" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2477" s="4">
+        <f t="shared" si="226"/>
+        <v>61570000</v>
+      </c>
+      <c r="G2477" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2477" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2477" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2478" s="1">
+        <v>2476</v>
+      </c>
+      <c r="B2478" s="1">
+        <v>1676000</v>
+      </c>
+      <c r="C2478" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2478" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2478" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2478" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2478" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2478" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2478" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2479" s="1">
+        <v>2477</v>
+      </c>
+      <c r="B2479" s="1">
+        <v>1677000</v>
+      </c>
+      <c r="C2479" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2479" s="1">
+        <v>61510000</v>
+      </c>
+      <c r="E2479" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2479" s="4">
+        <f t="shared" si="226"/>
+        <v>61610000</v>
+      </c>
+      <c r="G2479" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2479" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2479" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2480" s="1">
+        <v>2478</v>
+      </c>
+      <c r="B2480" s="1">
+        <v>1678000</v>
+      </c>
+      <c r="C2480" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2480" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2480" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2480" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2480" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2480" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2481" s="1">
+        <v>2479</v>
+      </c>
+      <c r="B2481" s="1">
+        <v>1679000</v>
+      </c>
+      <c r="C2481" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2481" s="1">
+        <v>61550000</v>
+      </c>
+      <c r="E2481" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2481" s="4">
+        <f t="shared" si="226"/>
+        <v>61650000</v>
+      </c>
+      <c r="G2481" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2481" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2481" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2482" s="1">
+        <v>2480</v>
+      </c>
+      <c r="B2482" s="1">
+        <v>1680000</v>
+      </c>
+      <c r="C2482" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2482" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2482" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2482" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2482" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2482" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2482" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2483" s="1">
+        <v>2481</v>
+      </c>
+      <c r="B2483" s="1">
+        <v>1681000</v>
+      </c>
+      <c r="C2483" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2483" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2483" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2483" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2483" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2483" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2483" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2484" s="1">
+        <v>2482</v>
+      </c>
+      <c r="B2484" s="1">
+        <v>1682000</v>
+      </c>
+      <c r="C2484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2484" s="1">
+        <v>61610000</v>
+      </c>
+      <c r="E2484" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2484" s="4">
+        <f t="shared" si="226"/>
+        <v>61710000</v>
+      </c>
+      <c r="G2484" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2484" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2484" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2485" s="1">
+        <v>2483</v>
+      </c>
+      <c r="B2485" s="1">
+        <v>1683000</v>
+      </c>
+      <c r="C2485" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2485" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2485" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2485" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2485" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2485" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2485" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2486" s="1">
+        <v>2484</v>
+      </c>
+      <c r="B2486" s="1">
+        <v>1684000</v>
+      </c>
+      <c r="C2486" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2486" s="1">
+        <v>61650000</v>
+      </c>
+      <c r="E2486" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2486" s="4">
+        <f t="shared" si="226"/>
+        <v>61750000</v>
+      </c>
+      <c r="G2486" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2486" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2486" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2487" s="1">
+        <v>2485</v>
+      </c>
+      <c r="B2487" s="1">
+        <v>1685000</v>
+      </c>
+      <c r="C2487" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2487" s="1">
+        <v>61670000</v>
+      </c>
+      <c r="E2487" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2487" s="4">
+        <f t="shared" si="226"/>
+        <v>61770000</v>
+      </c>
+      <c r="G2487" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2487" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2487" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2488" s="1">
+        <v>2486</v>
+      </c>
+      <c r="B2488" s="1">
+        <v>1686000</v>
+      </c>
+      <c r="C2488" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2488" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2488" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2488" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2488" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2488" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2488" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2489" s="1">
+        <v>2487</v>
+      </c>
+      <c r="B2489" s="1">
+        <v>1687000</v>
+      </c>
+      <c r="C2489" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2489" s="1">
+        <v>61710000</v>
+      </c>
+      <c r="E2489" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2489" s="4">
+        <f t="shared" si="226"/>
+        <v>61810000</v>
+      </c>
+      <c r="G2489" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2489" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2489" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2490" s="1">
+        <v>2488</v>
+      </c>
+      <c r="B2490" s="1">
+        <v>1688000</v>
+      </c>
+      <c r="C2490" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2490" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2490" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2490" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2490" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2490" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2490" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2491" s="1">
+        <v>2489</v>
+      </c>
+      <c r="B2491" s="1">
+        <v>1689000</v>
+      </c>
+      <c r="C2491" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2491" s="1">
+        <v>61750000</v>
+      </c>
+      <c r="E2491" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2491" s="4">
+        <f t="shared" si="226"/>
+        <v>61850000</v>
+      </c>
+      <c r="G2491" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2491" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2491" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2492" s="1">
+        <v>2490</v>
+      </c>
+      <c r="B2492" s="1">
+        <v>1690000</v>
+      </c>
+      <c r="C2492" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2492" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2492" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2492" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2492" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2492" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2492" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2493" s="1">
+        <v>2491</v>
+      </c>
+      <c r="B2493" s="1">
+        <v>1691000</v>
+      </c>
+      <c r="C2493" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2493" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2493" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2493" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2493" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2493" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2493" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2494" s="1">
+        <v>2492</v>
+      </c>
+      <c r="B2494" s="1">
+        <v>1692000</v>
+      </c>
+      <c r="C2494" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2494" s="1">
+        <v>61810000</v>
+      </c>
+      <c r="E2494" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2494" s="4">
+        <f t="shared" si="226"/>
+        <v>61910000</v>
+      </c>
+      <c r="G2494" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2494" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2494" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2495" s="1">
+        <v>2493</v>
+      </c>
+      <c r="B2495" s="1">
+        <v>1693000</v>
+      </c>
+      <c r="C2495" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2495" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2495" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2495" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2495" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2495" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2495" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2496" s="1">
+        <v>2494</v>
+      </c>
+      <c r="B2496" s="1">
+        <v>1694000</v>
+      </c>
+      <c r="C2496" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2496" s="1">
+        <v>61850000</v>
+      </c>
+      <c r="E2496" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2496" s="4">
+        <f t="shared" si="226"/>
+        <v>61950000</v>
+      </c>
+      <c r="G2496" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2496" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2496" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2497" s="1">
+        <v>2495</v>
+      </c>
+      <c r="B2497" s="1">
+        <v>1695000</v>
+      </c>
+      <c r="C2497" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2497" s="1">
+        <v>61870000</v>
+      </c>
+      <c r="E2497" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2497" s="4">
+        <f t="shared" si="226"/>
+        <v>61970000</v>
+      </c>
+      <c r="G2497" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2497" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2497" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2498" s="1">
+        <v>2496</v>
+      </c>
+      <c r="B2498" s="1">
+        <v>1696000</v>
+      </c>
+      <c r="C2498" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2498" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2498" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2498" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2498" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2498" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2498" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2499" s="1">
+        <v>2497</v>
+      </c>
+      <c r="B2499" s="1">
+        <v>1697000</v>
+      </c>
+      <c r="C2499" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2499" s="1">
+        <v>61910000</v>
+      </c>
+      <c r="E2499" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2499" s="4">
+        <f t="shared" si="226"/>
+        <v>62010000</v>
+      </c>
+      <c r="G2499" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2499" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2499" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2500" s="1">
+        <v>2498</v>
+      </c>
+      <c r="B2500" s="1">
+        <v>1698000</v>
+      </c>
+      <c r="C2500" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2500" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2500" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2500" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G2500" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2500" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2500" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2501" s="1">
+        <v>2499</v>
+      </c>
+      <c r="B2501" s="1">
+        <v>1699000</v>
+      </c>
+      <c r="C2501" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2501" s="1">
+        <v>61950000</v>
+      </c>
+      <c r="E2501" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2501" s="4">
+        <f t="shared" si="226"/>
+        <v>62050000</v>
+      </c>
+      <c r="G2501" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2501" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2501" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2502" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B2502" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="C2502" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2502" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2502" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2502" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2502" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2502" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2502" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5032A929-1FDD-40CC-84BF-AF81D2F0A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863AD3A-F448-43D3-A963-5674349BC01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2235" windowWidth="23595" windowHeight="18480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -186,6 +186,13 @@
     <t>levelpass20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>levelpass21</t>
+  </si>
+  <si>
+    <t>levelpass21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +357,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J2502"/>
+  <dimension ref="A1:J2602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2497" sqref="E2497"/>
+      <pane ySplit="1" topLeftCell="A2488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2522" sqref="D2522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -73397,7 +73407,7 @@
         <v>1</v>
       </c>
       <c r="F2459" s="4">
-        <f t="shared" ref="F2458:F2502" si="226">D2459+100000</f>
+        <f t="shared" ref="F2459:F2501" si="226">D2459+100000</f>
         <v>61210000</v>
       </c>
       <c r="G2459" s="1">
@@ -74650,31 +74660,2981 @@
       </c>
     </row>
     <row r="2502" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2502" s="1">
+      <c r="A2502" s="3">
         <v>2500</v>
       </c>
-      <c r="B2502" s="1">
+      <c r="B2502" s="3">
         <v>1700000</v>
       </c>
-      <c r="C2502" s="2">
+      <c r="C2502" s="3">
         <v>14</v>
       </c>
-      <c r="D2502" s="1">
+      <c r="D2502" s="3">
         <v>100</v>
       </c>
-      <c r="E2502" s="2">
+      <c r="E2502" s="3">
         <v>14</v>
       </c>
-      <c r="F2502" s="4">
+      <c r="F2502" s="7">
         <v>100</v>
       </c>
-      <c r="G2502" s="1">
+      <c r="G2502" s="3">
         <v>19</v>
       </c>
-      <c r="H2502" t="s">
+      <c r="H2502" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2502" s="1">
+      <c r="I2502" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2503" s="1">
+        <v>2501</v>
+      </c>
+      <c r="B2503" s="1">
+        <v>1701000</v>
+      </c>
+      <c r="C2503" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2503" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2503" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2503" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2503" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2503" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2504" s="1">
+        <v>2502</v>
+      </c>
+      <c r="B2504" s="1">
+        <v>1702000</v>
+      </c>
+      <c r="C2504" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2504" s="16">
+        <v>62010000</v>
+      </c>
+      <c r="E2504" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2504" s="4">
+        <f t="shared" ref="F2504:F2522" si="227">D2504+100000</f>
+        <v>62110000</v>
+      </c>
+      <c r="G2504" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2504" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2504" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2505" s="1">
+        <v>2503</v>
+      </c>
+      <c r="B2505" s="1">
+        <v>1703000</v>
+      </c>
+      <c r="C2505" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2505" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2505" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2505" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2505" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2505" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2505" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2506" s="1">
+        <v>2504</v>
+      </c>
+      <c r="B2506" s="1">
+        <v>1704000</v>
+      </c>
+      <c r="C2506" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2506" s="16">
+        <v>62050000</v>
+      </c>
+      <c r="E2506" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2506" s="4">
+        <f t="shared" ref="F2506:F2522" si="228">D2506+100000</f>
+        <v>62150000</v>
+      </c>
+      <c r="G2506" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2506" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2506" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2507" s="1">
+        <v>2505</v>
+      </c>
+      <c r="B2507" s="1">
+        <v>1705000</v>
+      </c>
+      <c r="C2507" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2507" s="1">
+        <v>62070000</v>
+      </c>
+      <c r="E2507" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2507" s="4">
+        <f t="shared" si="228"/>
+        <v>62170000</v>
+      </c>
+      <c r="G2507" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2507" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2507" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2508" s="1">
+        <v>2506</v>
+      </c>
+      <c r="B2508" s="1">
+        <v>1706000</v>
+      </c>
+      <c r="C2508" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2508" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2508" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2508" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2508" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2508" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2508" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2509" s="1">
+        <v>2507</v>
+      </c>
+      <c r="B2509" s="1">
+        <v>1707000</v>
+      </c>
+      <c r="C2509" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2509" s="1">
+        <v>62110000</v>
+      </c>
+      <c r="E2509" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2509" s="4">
+        <f t="shared" ref="F2509:F2522" si="229">D2509+100000</f>
+        <v>62210000</v>
+      </c>
+      <c r="G2509" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2509" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2509" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2510" s="1">
+        <v>2508</v>
+      </c>
+      <c r="B2510" s="1">
+        <v>1708000</v>
+      </c>
+      <c r="C2510" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2510" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2510" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2510" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2510" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2510" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2510" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2511" s="1">
+        <v>2509</v>
+      </c>
+      <c r="B2511" s="1">
+        <v>1709000</v>
+      </c>
+      <c r="C2511" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2511" s="1">
+        <v>62150000</v>
+      </c>
+      <c r="E2511" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2511" s="4">
+        <f t="shared" ref="F2511:F2522" si="230">D2511+100000</f>
+        <v>62250000</v>
+      </c>
+      <c r="G2511" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2511" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2511" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2512" s="1">
+        <v>2510</v>
+      </c>
+      <c r="B2512" s="1">
+        <v>1710000</v>
+      </c>
+      <c r="C2512" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2512" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2512" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2512" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2512" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2512" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2512" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2513" s="1">
+        <v>2511</v>
+      </c>
+      <c r="B2513" s="1">
+        <v>1711000</v>
+      </c>
+      <c r="C2513" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2513" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2513" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2513" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2513" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2513" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2513" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2514" s="1">
+        <v>2512</v>
+      </c>
+      <c r="B2514" s="1">
+        <v>1712000</v>
+      </c>
+      <c r="C2514" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2514" s="16">
+        <v>62210000</v>
+      </c>
+      <c r="E2514" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2514" s="4">
+        <f t="shared" ref="F2514:F2522" si="231">D2514+100000</f>
+        <v>62310000</v>
+      </c>
+      <c r="G2514" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2514" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2514" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2515" s="1">
+        <v>2513</v>
+      </c>
+      <c r="B2515" s="1">
+        <v>1713000</v>
+      </c>
+      <c r="C2515" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2515" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2515" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2515" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2515" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2515" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="1">
+        <v>1714000</v>
+      </c>
+      <c r="C2516" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2516" s="16">
+        <v>62250000</v>
+      </c>
+      <c r="E2516" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2516" s="4">
+        <f t="shared" ref="F2516:F2522" si="232">D2516+100000</f>
+        <v>62350000</v>
+      </c>
+      <c r="G2516" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2516" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="1">
+        <v>1715000</v>
+      </c>
+      <c r="C2517" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2517" s="1">
+        <v>62270000</v>
+      </c>
+      <c r="E2517" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2517" s="4">
+        <f t="shared" si="232"/>
+        <v>62370000</v>
+      </c>
+      <c r="G2517" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2517" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2518" s="1">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="1">
+        <v>1716000</v>
+      </c>
+      <c r="C2518" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2518" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2518" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2518" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2518" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2518" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2518" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2519" s="1">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="1">
+        <v>1717000</v>
+      </c>
+      <c r="C2519" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2519" s="1">
+        <v>62310000</v>
+      </c>
+      <c r="E2519" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2519" s="4">
+        <f t="shared" ref="F2519:F2522" si="233">D2519+100000</f>
+        <v>62410000</v>
+      </c>
+      <c r="G2519" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2519" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2519" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2520" s="1">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="1">
+        <v>1718000</v>
+      </c>
+      <c r="C2520" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2520" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2520" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2520" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2520" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2520" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2520" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2521" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="1">
+        <v>1719000</v>
+      </c>
+      <c r="C2521" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2521" s="1">
+        <v>62350000</v>
+      </c>
+      <c r="E2521" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2521" s="4">
+        <f t="shared" ref="F2521:F2522" si="234">D2521+100000</f>
+        <v>62450000</v>
+      </c>
+      <c r="G2521" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2521" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2521" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2522" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="1">
+        <v>1720000</v>
+      </c>
+      <c r="C2522" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2522" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2522" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2522" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2522" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2522" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2522" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2523" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="1">
+        <v>1721000</v>
+      </c>
+      <c r="C2523" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2523" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2523" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2523" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2523" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2523" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2523" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2524" s="1">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="1">
+        <v>1722000</v>
+      </c>
+      <c r="C2524" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2524" s="16">
+        <v>62410000</v>
+      </c>
+      <c r="E2524" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2524" s="4">
+        <f t="shared" ref="F2524:F2542" si="235">D2524+100000</f>
+        <v>62510000</v>
+      </c>
+      <c r="G2524" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2524" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2524" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2525" s="1">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="1">
+        <v>1723000</v>
+      </c>
+      <c r="C2525" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2525" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2525" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2525" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2525" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2525" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2525" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2526" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="1">
+        <v>1724000</v>
+      </c>
+      <c r="C2526" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2526" s="16">
+        <v>62450000</v>
+      </c>
+      <c r="E2526" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2526" s="4">
+        <f t="shared" ref="F2526:F2542" si="236">D2526+100000</f>
+        <v>62550000</v>
+      </c>
+      <c r="G2526" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2526" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2526" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2527" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="1">
+        <v>1725000</v>
+      </c>
+      <c r="C2527" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2527" s="1">
+        <v>62470000</v>
+      </c>
+      <c r="E2527" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2527" s="4">
+        <f t="shared" si="236"/>
+        <v>62570000</v>
+      </c>
+      <c r="G2527" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2527" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2527" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2528" s="1">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="1">
+        <v>1726000</v>
+      </c>
+      <c r="C2528" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2528" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2528" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2528" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2528" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2528" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2528" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2529" s="1">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="1">
+        <v>1727000</v>
+      </c>
+      <c r="C2529" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2529" s="1">
+        <v>62510000</v>
+      </c>
+      <c r="E2529" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2529" s="4">
+        <f t="shared" ref="F2529:F2542" si="237">D2529+100000</f>
+        <v>62610000</v>
+      </c>
+      <c r="G2529" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2529" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2529" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2530" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="1">
+        <v>1728000</v>
+      </c>
+      <c r="C2530" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2530" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2530" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2530" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2530" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2530" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2530" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2531" s="1">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="1">
+        <v>1729000</v>
+      </c>
+      <c r="C2531" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2531" s="1">
+        <v>62550000</v>
+      </c>
+      <c r="E2531" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2531" s="4">
+        <f t="shared" ref="F2531:F2542" si="238">D2531+100000</f>
+        <v>62650000</v>
+      </c>
+      <c r="G2531" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2531" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2531" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2532" s="1">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="1">
+        <v>1730000</v>
+      </c>
+      <c r="C2532" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2532" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2532" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2532" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2532" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2532" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2532" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2533" s="1">
+        <v>2531</v>
+      </c>
+      <c r="B2533" s="1">
+        <v>1731000</v>
+      </c>
+      <c r="C2533" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2533" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2533" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2533" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2533" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2533" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2533" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2534" s="1">
+        <v>2532</v>
+      </c>
+      <c r="B2534" s="1">
+        <v>1732000</v>
+      </c>
+      <c r="C2534" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2534" s="16">
+        <v>62610000</v>
+      </c>
+      <c r="E2534" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2534" s="4">
+        <f t="shared" ref="F2534:F2542" si="239">D2534+100000</f>
+        <v>62710000</v>
+      </c>
+      <c r="G2534" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2534" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2534" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2535" s="1">
+        <v>2533</v>
+      </c>
+      <c r="B2535" s="1">
+        <v>1733000</v>
+      </c>
+      <c r="C2535" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2535" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2535" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2535" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2535" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2535" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2535" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2536" s="1">
+        <v>2534</v>
+      </c>
+      <c r="B2536" s="1">
+        <v>1734000</v>
+      </c>
+      <c r="C2536" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2536" s="16">
+        <v>62650000</v>
+      </c>
+      <c r="E2536" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2536" s="4">
+        <f t="shared" ref="F2536:F2542" si="240">D2536+100000</f>
+        <v>62750000</v>
+      </c>
+      <c r="G2536" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2536" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2536" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2537" s="1">
+        <v>2535</v>
+      </c>
+      <c r="B2537" s="1">
+        <v>1735000</v>
+      </c>
+      <c r="C2537" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2537" s="1">
+        <v>62670000</v>
+      </c>
+      <c r="E2537" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2537" s="4">
+        <f t="shared" si="240"/>
+        <v>62770000</v>
+      </c>
+      <c r="G2537" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2537" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2537" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2538" s="1">
+        <v>2536</v>
+      </c>
+      <c r="B2538" s="1">
+        <v>1736000</v>
+      </c>
+      <c r="C2538" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2538" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2538" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2538" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2538" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2538" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2538" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2539" s="1">
+        <v>2537</v>
+      </c>
+      <c r="B2539" s="1">
+        <v>1737000</v>
+      </c>
+      <c r="C2539" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2539" s="1">
+        <v>62710000</v>
+      </c>
+      <c r="E2539" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2539" s="4">
+        <f t="shared" ref="F2539:F2542" si="241">D2539+100000</f>
+        <v>62810000</v>
+      </c>
+      <c r="G2539" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2539" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2539" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2540" s="1">
+        <v>2538</v>
+      </c>
+      <c r="B2540" s="1">
+        <v>1738000</v>
+      </c>
+      <c r="C2540" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2540" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2540" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2540" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2540" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2540" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2540" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2541" s="1">
+        <v>2539</v>
+      </c>
+      <c r="B2541" s="1">
+        <v>1739000</v>
+      </c>
+      <c r="C2541" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2541" s="1">
+        <v>62750000</v>
+      </c>
+      <c r="E2541" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2541" s="4">
+        <f t="shared" ref="F2541:F2542" si="242">D2541+100000</f>
+        <v>62850000</v>
+      </c>
+      <c r="G2541" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2541" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2541" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2542" s="1">
+        <v>2540</v>
+      </c>
+      <c r="B2542" s="1">
+        <v>1740000</v>
+      </c>
+      <c r="C2542" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2542" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2542" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2542" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2542" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2542" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2542" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2543" s="1">
+        <v>2541</v>
+      </c>
+      <c r="B2543" s="1">
+        <v>1741000</v>
+      </c>
+      <c r="C2543" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2543" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2543" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2543" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2543" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2543" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2543" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2544" s="1">
+        <v>2542</v>
+      </c>
+      <c r="B2544" s="1">
+        <v>1742000</v>
+      </c>
+      <c r="C2544" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2544" s="16">
+        <v>62810000</v>
+      </c>
+      <c r="E2544" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2544" s="4">
+        <f t="shared" ref="F2544:F2562" si="243">D2544+100000</f>
+        <v>62910000</v>
+      </c>
+      <c r="G2544" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2544" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2544" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2545" s="1">
+        <v>2543</v>
+      </c>
+      <c r="B2545" s="1">
+        <v>1743000</v>
+      </c>
+      <c r="C2545" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2545" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2545" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2545" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2545" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2545" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2545" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2546" s="1">
+        <v>2544</v>
+      </c>
+      <c r="B2546" s="1">
+        <v>1744000</v>
+      </c>
+      <c r="C2546" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2546" s="16">
+        <v>62850000</v>
+      </c>
+      <c r="E2546" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2546" s="4">
+        <f t="shared" ref="F2546:F2562" si="244">D2546+100000</f>
+        <v>62950000</v>
+      </c>
+      <c r="G2546" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2546" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2546" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2547" s="1">
+        <v>2545</v>
+      </c>
+      <c r="B2547" s="1">
+        <v>1745000</v>
+      </c>
+      <c r="C2547" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2547" s="1">
+        <v>62870000</v>
+      </c>
+      <c r="E2547" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2547" s="4">
+        <f t="shared" si="244"/>
+        <v>62970000</v>
+      </c>
+      <c r="G2547" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2547" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2547" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2548" s="1">
+        <v>2546</v>
+      </c>
+      <c r="B2548" s="1">
+        <v>1746000</v>
+      </c>
+      <c r="C2548" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2548" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2548" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2548" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2548" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2548" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2548" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2549" s="1">
+        <v>2547</v>
+      </c>
+      <c r="B2549" s="1">
+        <v>1747000</v>
+      </c>
+      <c r="C2549" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2549" s="1">
+        <v>62910000</v>
+      </c>
+      <c r="E2549" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2549" s="4">
+        <f t="shared" ref="F2549:F2562" si="245">D2549+100000</f>
+        <v>63010000</v>
+      </c>
+      <c r="G2549" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2549" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2549" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2550" s="1">
+        <v>2548</v>
+      </c>
+      <c r="B2550" s="1">
+        <v>1748000</v>
+      </c>
+      <c r="C2550" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2550" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2550" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2550" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2550" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2550" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2550" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2551" s="1">
+        <v>2549</v>
+      </c>
+      <c r="B2551" s="1">
+        <v>1749000</v>
+      </c>
+      <c r="C2551" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2551" s="1">
+        <v>62950000</v>
+      </c>
+      <c r="E2551" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2551" s="4">
+        <f t="shared" ref="F2551:F2562" si="246">D2551+100000</f>
+        <v>63050000</v>
+      </c>
+      <c r="G2551" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2551" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2551" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2552" s="1">
+        <v>2550</v>
+      </c>
+      <c r="B2552" s="1">
+        <v>1750000</v>
+      </c>
+      <c r="C2552" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2552" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2552" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2552" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2552" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2552" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2552" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2553" s="1">
+        <v>2551</v>
+      </c>
+      <c r="B2553" s="1">
+        <v>1751000</v>
+      </c>
+      <c r="C2553" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2553" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2553" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2553" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2553" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2553" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2553" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2554" s="1">
+        <v>2552</v>
+      </c>
+      <c r="B2554" s="1">
+        <v>1752000</v>
+      </c>
+      <c r="C2554" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2554" s="16">
+        <v>63010000</v>
+      </c>
+      <c r="E2554" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2554" s="4">
+        <f t="shared" ref="F2554:F2562" si="247">D2554+100000</f>
+        <v>63110000</v>
+      </c>
+      <c r="G2554" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2554" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2554" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2555" s="1">
+        <v>2553</v>
+      </c>
+      <c r="B2555" s="1">
+        <v>1753000</v>
+      </c>
+      <c r="C2555" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2555" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2555" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2555" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2555" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2555" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2555" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2556" s="1">
+        <v>2554</v>
+      </c>
+      <c r="B2556" s="1">
+        <v>1754000</v>
+      </c>
+      <c r="C2556" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2556" s="16">
+        <v>63050000</v>
+      </c>
+      <c r="E2556" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2556" s="4">
+        <f t="shared" ref="F2556:F2562" si="248">D2556+100000</f>
+        <v>63150000</v>
+      </c>
+      <c r="G2556" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2556" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2556" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2557" s="1">
+        <v>2555</v>
+      </c>
+      <c r="B2557" s="1">
+        <v>1755000</v>
+      </c>
+      <c r="C2557" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2557" s="1">
+        <v>63070000</v>
+      </c>
+      <c r="E2557" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2557" s="4">
+        <f t="shared" si="248"/>
+        <v>63170000</v>
+      </c>
+      <c r="G2557" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2557" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2557" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2558" s="1">
+        <v>2556</v>
+      </c>
+      <c r="B2558" s="1">
+        <v>1756000</v>
+      </c>
+      <c r="C2558" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2558" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2558" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2558" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2558" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2558" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2558" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2559" s="1">
+        <v>2557</v>
+      </c>
+      <c r="B2559" s="1">
+        <v>1757000</v>
+      </c>
+      <c r="C2559" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2559" s="1">
+        <v>63110000</v>
+      </c>
+      <c r="E2559" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2559" s="4">
+        <f t="shared" ref="F2559:F2562" si="249">D2559+100000</f>
+        <v>63210000</v>
+      </c>
+      <c r="G2559" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2559" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2559" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2560" s="1">
+        <v>2558</v>
+      </c>
+      <c r="B2560" s="1">
+        <v>1758000</v>
+      </c>
+      <c r="C2560" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2560" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2560" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2560" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2560" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2560" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2560" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2561" s="1">
+        <v>2559</v>
+      </c>
+      <c r="B2561" s="1">
+        <v>1759000</v>
+      </c>
+      <c r="C2561" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2561" s="1">
+        <v>63150000</v>
+      </c>
+      <c r="E2561" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2561" s="4">
+        <f t="shared" ref="F2561:F2562" si="250">D2561+100000</f>
+        <v>63250000</v>
+      </c>
+      <c r="G2561" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2561" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2561" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2562" s="1">
+        <v>2560</v>
+      </c>
+      <c r="B2562" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="C2562" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2562" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2562" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2562" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2562" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2562" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2562" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2563" s="1">
+        <v>2561</v>
+      </c>
+      <c r="B2563" s="1">
+        <v>1761000</v>
+      </c>
+      <c r="C2563" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2563" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2563" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2563" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2563" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2563" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2563" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2564" s="1">
+        <v>2562</v>
+      </c>
+      <c r="B2564" s="1">
+        <v>1762000</v>
+      </c>
+      <c r="C2564" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2564" s="16">
+        <v>63210000</v>
+      </c>
+      <c r="E2564" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2564" s="4">
+        <f t="shared" ref="F2564:F2582" si="251">D2564+100000</f>
+        <v>63310000</v>
+      </c>
+      <c r="G2564" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2564" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2564" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2565" s="1">
+        <v>2563</v>
+      </c>
+      <c r="B2565" s="1">
+        <v>1763000</v>
+      </c>
+      <c r="C2565" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2565" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2565" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2565" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2565" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2565" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2565" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2566" s="1">
+        <v>2564</v>
+      </c>
+      <c r="B2566" s="1">
+        <v>1764000</v>
+      </c>
+      <c r="C2566" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2566" s="16">
+        <v>63250000</v>
+      </c>
+      <c r="E2566" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2566" s="4">
+        <f t="shared" ref="F2566:F2582" si="252">D2566+100000</f>
+        <v>63350000</v>
+      </c>
+      <c r="G2566" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2566" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2566" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2567" s="1">
+        <v>2565</v>
+      </c>
+      <c r="B2567" s="1">
+        <v>1765000</v>
+      </c>
+      <c r="C2567" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2567" s="1">
+        <v>63270000</v>
+      </c>
+      <c r="E2567" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2567" s="4">
+        <f t="shared" si="252"/>
+        <v>63370000</v>
+      </c>
+      <c r="G2567" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2567" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2567" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2568" s="1">
+        <v>2566</v>
+      </c>
+      <c r="B2568" s="1">
+        <v>1766000</v>
+      </c>
+      <c r="C2568" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2568" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2568" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2568" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2568" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2568" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2568" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2569" s="1">
+        <v>2567</v>
+      </c>
+      <c r="B2569" s="1">
+        <v>1767000</v>
+      </c>
+      <c r="C2569" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2569" s="1">
+        <v>63310000</v>
+      </c>
+      <c r="E2569" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2569" s="4">
+        <f t="shared" ref="F2569:F2582" si="253">D2569+100000</f>
+        <v>63410000</v>
+      </c>
+      <c r="G2569" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2569" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2569" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2570" s="1">
+        <v>2568</v>
+      </c>
+      <c r="B2570" s="1">
+        <v>1768000</v>
+      </c>
+      <c r="C2570" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2570" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2570" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2570" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2570" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2570" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2570" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2571" s="1">
+        <v>2569</v>
+      </c>
+      <c r="B2571" s="1">
+        <v>1769000</v>
+      </c>
+      <c r="C2571" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2571" s="1">
+        <v>63350000</v>
+      </c>
+      <c r="E2571" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2571" s="4">
+        <f t="shared" ref="F2571:F2582" si="254">D2571+100000</f>
+        <v>63450000</v>
+      </c>
+      <c r="G2571" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2571" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2571" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2572" s="1">
+        <v>2570</v>
+      </c>
+      <c r="B2572" s="1">
+        <v>1770000</v>
+      </c>
+      <c r="C2572" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2572" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2572" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2572" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2572" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2572" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2572" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2573" s="1">
+        <v>2571</v>
+      </c>
+      <c r="B2573" s="1">
+        <v>1771000</v>
+      </c>
+      <c r="C2573" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2573" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2573" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2573" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2573" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2573" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2573" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2574" s="1">
+        <v>2572</v>
+      </c>
+      <c r="B2574" s="1">
+        <v>1772000</v>
+      </c>
+      <c r="C2574" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2574" s="16">
+        <v>63410000</v>
+      </c>
+      <c r="E2574" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2574" s="4">
+        <f t="shared" ref="F2574:F2582" si="255">D2574+100000</f>
+        <v>63510000</v>
+      </c>
+      <c r="G2574" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2574" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2574" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2575" s="1">
+        <v>2573</v>
+      </c>
+      <c r="B2575" s="1">
+        <v>1773000</v>
+      </c>
+      <c r="C2575" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2575" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2575" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2575" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2575" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2575" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2575" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2576" s="1">
+        <v>2574</v>
+      </c>
+      <c r="B2576" s="1">
+        <v>1774000</v>
+      </c>
+      <c r="C2576" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2576" s="16">
+        <v>63450000</v>
+      </c>
+      <c r="E2576" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2576" s="4">
+        <f t="shared" ref="F2576:F2582" si="256">D2576+100000</f>
+        <v>63550000</v>
+      </c>
+      <c r="G2576" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2576" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2576" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2577" s="1">
+        <v>2575</v>
+      </c>
+      <c r="B2577" s="1">
+        <v>1775000</v>
+      </c>
+      <c r="C2577" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2577" s="1">
+        <v>63470000</v>
+      </c>
+      <c r="E2577" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2577" s="4">
+        <f t="shared" si="256"/>
+        <v>63570000</v>
+      </c>
+      <c r="G2577" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2577" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2577" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2578" s="1">
+        <v>2576</v>
+      </c>
+      <c r="B2578" s="1">
+        <v>1776000</v>
+      </c>
+      <c r="C2578" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2578" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2578" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2578" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2578" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2578" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2578" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2579" s="1">
+        <v>2577</v>
+      </c>
+      <c r="B2579" s="1">
+        <v>1777000</v>
+      </c>
+      <c r="C2579" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2579" s="1">
+        <v>63510000</v>
+      </c>
+      <c r="E2579" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2579" s="4">
+        <f t="shared" ref="F2579:F2582" si="257">D2579+100000</f>
+        <v>63610000</v>
+      </c>
+      <c r="G2579" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2579" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2580" s="1">
+        <v>2578</v>
+      </c>
+      <c r="B2580" s="1">
+        <v>1778000</v>
+      </c>
+      <c r="C2580" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2580" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2580" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2580" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2580" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2580" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2580" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2581" s="1">
+        <v>2579</v>
+      </c>
+      <c r="B2581" s="1">
+        <v>1779000</v>
+      </c>
+      <c r="C2581" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2581" s="1">
+        <v>63550000</v>
+      </c>
+      <c r="E2581" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2581" s="4">
+        <f t="shared" ref="F2581:F2582" si="258">D2581+100000</f>
+        <v>63650000</v>
+      </c>
+      <c r="G2581" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2581" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2581" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2582" s="1">
+        <v>2580</v>
+      </c>
+      <c r="B2582" s="1">
+        <v>1780000</v>
+      </c>
+      <c r="C2582" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2582" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2582" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2582" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2582" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2582" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2583" s="1">
+        <v>2581</v>
+      </c>
+      <c r="B2583" s="1">
+        <v>1781000</v>
+      </c>
+      <c r="C2583" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2583" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2583" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2583" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2583" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2583" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2584" s="1">
+        <v>2582</v>
+      </c>
+      <c r="B2584" s="1">
+        <v>1782000</v>
+      </c>
+      <c r="C2584" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2584" s="16">
+        <v>63610000</v>
+      </c>
+      <c r="E2584" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2584" s="4">
+        <f t="shared" ref="F2584:F2602" si="259">D2584+100000</f>
+        <v>63710000</v>
+      </c>
+      <c r="G2584" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2584" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2585" s="1">
+        <v>2583</v>
+      </c>
+      <c r="B2585" s="1">
+        <v>1783000</v>
+      </c>
+      <c r="C2585" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2585" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2585" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2585" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2585" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2585" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2586" s="1">
+        <v>2584</v>
+      </c>
+      <c r="B2586" s="1">
+        <v>1784000</v>
+      </c>
+      <c r="C2586" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2586" s="16">
+        <v>63650000</v>
+      </c>
+      <c r="E2586" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2586" s="4">
+        <f t="shared" ref="F2586:F2602" si="260">D2586+100000</f>
+        <v>63750000</v>
+      </c>
+      <c r="G2586" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2586" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2586" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2587" s="1">
+        <v>2585</v>
+      </c>
+      <c r="B2587" s="1">
+        <v>1785000</v>
+      </c>
+      <c r="C2587" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2587" s="1">
+        <v>63670000</v>
+      </c>
+      <c r="E2587" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2587" s="4">
+        <f t="shared" si="260"/>
+        <v>63770000</v>
+      </c>
+      <c r="G2587" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2587" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2588" s="1">
+        <v>2586</v>
+      </c>
+      <c r="B2588" s="1">
+        <v>1786000</v>
+      </c>
+      <c r="C2588" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2588" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2588" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2588" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2588" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2588" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2589" s="1">
+        <v>2587</v>
+      </c>
+      <c r="B2589" s="1">
+        <v>1787000</v>
+      </c>
+      <c r="C2589" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2589" s="1">
+        <v>63710000</v>
+      </c>
+      <c r="E2589" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2589" s="4">
+        <f t="shared" ref="F2589:F2602" si="261">D2589+100000</f>
+        <v>63810000</v>
+      </c>
+      <c r="G2589" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2589" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2589" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2590" s="1">
+        <v>2588</v>
+      </c>
+      <c r="B2590" s="1">
+        <v>1788000</v>
+      </c>
+      <c r="C2590" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2590" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2590" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2590" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2590" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2590" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2590" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2591" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B2591" s="1">
+        <v>1789000</v>
+      </c>
+      <c r="C2591" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2591" s="1">
+        <v>63750000</v>
+      </c>
+      <c r="E2591" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2591" s="4">
+        <f t="shared" ref="F2591:F2602" si="262">D2591+100000</f>
+        <v>63850000</v>
+      </c>
+      <c r="G2591" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2591" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2592" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B2592" s="1">
+        <v>1790000</v>
+      </c>
+      <c r="C2592" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2592" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2592" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2592" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2592" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2592" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2593" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B2593" s="1">
+        <v>1791000</v>
+      </c>
+      <c r="C2593" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2593" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2593" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2593" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2593" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2593" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2593" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2594" s="1">
+        <v>2592</v>
+      </c>
+      <c r="B2594" s="1">
+        <v>1792000</v>
+      </c>
+      <c r="C2594" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2594" s="16">
+        <v>63810000</v>
+      </c>
+      <c r="E2594" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2594" s="4">
+        <f t="shared" ref="F2594:F2602" si="263">D2594+100000</f>
+        <v>63910000</v>
+      </c>
+      <c r="G2594" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2594" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2594" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2595" s="1">
+        <v>2593</v>
+      </c>
+      <c r="B2595" s="1">
+        <v>1793000</v>
+      </c>
+      <c r="C2595" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2595" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2595" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2595" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2595" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2595" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2595" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2596" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B2596" s="1">
+        <v>1794000</v>
+      </c>
+      <c r="C2596" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2596" s="16">
+        <v>63850000</v>
+      </c>
+      <c r="E2596" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2596" s="4">
+        <f t="shared" ref="F2596:F2602" si="264">D2596+100000</f>
+        <v>63950000</v>
+      </c>
+      <c r="G2596" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2596" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2596" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2597" s="1">
+        <v>2595</v>
+      </c>
+      <c r="B2597" s="1">
+        <v>1795000</v>
+      </c>
+      <c r="C2597" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2597" s="1">
+        <v>63870000</v>
+      </c>
+      <c r="E2597" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2597" s="4">
+        <f t="shared" si="264"/>
+        <v>63970000</v>
+      </c>
+      <c r="G2597" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2597" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2597" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2598" s="1">
+        <v>2596</v>
+      </c>
+      <c r="B2598" s="1">
+        <v>1796000</v>
+      </c>
+      <c r="C2598" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2598" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E2598" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2598" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2598" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2598" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2598" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2599" s="1">
+        <v>2597</v>
+      </c>
+      <c r="B2599" s="1">
+        <v>1797000</v>
+      </c>
+      <c r="C2599" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2599" s="1">
+        <v>63910000</v>
+      </c>
+      <c r="E2599" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2599" s="4">
+        <f t="shared" ref="F2599:F2602" si="265">D2599+100000</f>
+        <v>64010000</v>
+      </c>
+      <c r="G2599" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2599" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2599" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2600" s="1">
+        <v>2598</v>
+      </c>
+      <c r="B2600" s="1">
+        <v>1798000</v>
+      </c>
+      <c r="C2600" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2600" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E2600" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2600" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G2600" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2600" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2600" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2601" s="1">
+        <v>2599</v>
+      </c>
+      <c r="B2601" s="1">
+        <v>1799000</v>
+      </c>
+      <c r="C2601" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2601" s="1">
+        <v>63950000</v>
+      </c>
+      <c r="E2601" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2601" s="4">
+        <f t="shared" ref="F2601:F2602" si="266">D2601+100000</f>
+        <v>64050000</v>
+      </c>
+      <c r="G2601" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2601" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2601" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2602" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B2602" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="C2602" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2602" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2602" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2602" s="4">
+        <v>110</v>
+      </c>
+      <c r="G2602" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2602" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2602" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863AD3A-F448-43D3-A963-5674349BC01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE51CBEF-CFE7-4D8B-9FAC-028AB361745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -191,6 +191,13 @@
   </si>
   <si>
     <t>levelpass21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass22</t>
+  </si>
+  <si>
+    <t>levelpass22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J2602"/>
+  <dimension ref="A1:J2702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2522" sqref="D2522"/>
+      <pane ySplit="1" topLeftCell="A2661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2695" sqref="E2695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -74734,7 +74741,7 @@
         <v>1</v>
       </c>
       <c r="F2504" s="4">
-        <f t="shared" ref="F2504:F2522" si="227">D2504+100000</f>
+        <f t="shared" ref="F2504" si="227">D2504+100000</f>
         <v>62110000</v>
       </c>
       <c r="G2504" s="1">
@@ -74793,7 +74800,7 @@
         <v>1</v>
       </c>
       <c r="F2506" s="4">
-        <f t="shared" ref="F2506:F2522" si="228">D2506+100000</f>
+        <f t="shared" ref="F2506:F2507" si="228">D2506+100000</f>
         <v>62150000</v>
       </c>
       <c r="G2506" s="1">
@@ -74882,7 +74889,7 @@
         <v>1</v>
       </c>
       <c r="F2509" s="4">
-        <f t="shared" ref="F2509:F2522" si="229">D2509+100000</f>
+        <f t="shared" ref="F2509" si="229">D2509+100000</f>
         <v>62210000</v>
       </c>
       <c r="G2509" s="1">
@@ -74941,7 +74948,7 @@
         <v>1</v>
       </c>
       <c r="F2511" s="4">
-        <f t="shared" ref="F2511:F2522" si="230">D2511+100000</f>
+        <f t="shared" ref="F2511" si="230">D2511+100000</f>
         <v>62250000</v>
       </c>
       <c r="G2511" s="1">
@@ -75029,7 +75036,7 @@
         <v>1</v>
       </c>
       <c r="F2514" s="4">
-        <f t="shared" ref="F2514:F2522" si="231">D2514+100000</f>
+        <f t="shared" ref="F2514" si="231">D2514+100000</f>
         <v>62310000</v>
       </c>
       <c r="G2514" s="1">
@@ -75088,7 +75095,7 @@
         <v>1</v>
       </c>
       <c r="F2516" s="4">
-        <f t="shared" ref="F2516:F2522" si="232">D2516+100000</f>
+        <f t="shared" ref="F2516:F2517" si="232">D2516+100000</f>
         <v>62350000</v>
       </c>
       <c r="G2516" s="1">
@@ -75177,7 +75184,7 @@
         <v>1</v>
       </c>
       <c r="F2519" s="4">
-        <f t="shared" ref="F2519:F2522" si="233">D2519+100000</f>
+        <f t="shared" ref="F2519" si="233">D2519+100000</f>
         <v>62410000</v>
       </c>
       <c r="G2519" s="1">
@@ -75236,7 +75243,7 @@
         <v>1</v>
       </c>
       <c r="F2521" s="4">
-        <f t="shared" ref="F2521:F2522" si="234">D2521+100000</f>
+        <f t="shared" ref="F2521" si="234">D2521+100000</f>
         <v>62450000</v>
       </c>
       <c r="G2521" s="1">
@@ -75324,7 +75331,7 @@
         <v>1</v>
       </c>
       <c r="F2524" s="4">
-        <f t="shared" ref="F2524:F2542" si="235">D2524+100000</f>
+        <f t="shared" ref="F2524" si="235">D2524+100000</f>
         <v>62510000</v>
       </c>
       <c r="G2524" s="1">
@@ -75383,7 +75390,7 @@
         <v>1</v>
       </c>
       <c r="F2526" s="4">
-        <f t="shared" ref="F2526:F2542" si="236">D2526+100000</f>
+        <f t="shared" ref="F2526:F2527" si="236">D2526+100000</f>
         <v>62550000</v>
       </c>
       <c r="G2526" s="1">
@@ -75472,7 +75479,7 @@
         <v>1</v>
       </c>
       <c r="F2529" s="4">
-        <f t="shared" ref="F2529:F2542" si="237">D2529+100000</f>
+        <f t="shared" ref="F2529" si="237">D2529+100000</f>
         <v>62610000</v>
       </c>
       <c r="G2529" s="1">
@@ -75531,7 +75538,7 @@
         <v>1</v>
       </c>
       <c r="F2531" s="4">
-        <f t="shared" ref="F2531:F2542" si="238">D2531+100000</f>
+        <f t="shared" ref="F2531" si="238">D2531+100000</f>
         <v>62650000</v>
       </c>
       <c r="G2531" s="1">
@@ -75619,7 +75626,7 @@
         <v>1</v>
       </c>
       <c r="F2534" s="4">
-        <f t="shared" ref="F2534:F2542" si="239">D2534+100000</f>
+        <f t="shared" ref="F2534" si="239">D2534+100000</f>
         <v>62710000</v>
       </c>
       <c r="G2534" s="1">
@@ -75678,7 +75685,7 @@
         <v>1</v>
       </c>
       <c r="F2536" s="4">
-        <f t="shared" ref="F2536:F2542" si="240">D2536+100000</f>
+        <f t="shared" ref="F2536:F2537" si="240">D2536+100000</f>
         <v>62750000</v>
       </c>
       <c r="G2536" s="1">
@@ -75767,7 +75774,7 @@
         <v>1</v>
       </c>
       <c r="F2539" s="4">
-        <f t="shared" ref="F2539:F2542" si="241">D2539+100000</f>
+        <f t="shared" ref="F2539" si="241">D2539+100000</f>
         <v>62810000</v>
       </c>
       <c r="G2539" s="1">
@@ -75826,7 +75833,7 @@
         <v>1</v>
       </c>
       <c r="F2541" s="4">
-        <f t="shared" ref="F2541:F2542" si="242">D2541+100000</f>
+        <f t="shared" ref="F2541" si="242">D2541+100000</f>
         <v>62850000</v>
       </c>
       <c r="G2541" s="1">
@@ -75914,7 +75921,7 @@
         <v>1</v>
       </c>
       <c r="F2544" s="4">
-        <f t="shared" ref="F2544:F2562" si="243">D2544+100000</f>
+        <f t="shared" ref="F2544" si="243">D2544+100000</f>
         <v>62910000</v>
       </c>
       <c r="G2544" s="1">
@@ -75973,7 +75980,7 @@
         <v>1</v>
       </c>
       <c r="F2546" s="4">
-        <f t="shared" ref="F2546:F2562" si="244">D2546+100000</f>
+        <f t="shared" ref="F2546:F2547" si="244">D2546+100000</f>
         <v>62950000</v>
       </c>
       <c r="G2546" s="1">
@@ -76062,7 +76069,7 @@
         <v>1</v>
       </c>
       <c r="F2549" s="4">
-        <f t="shared" ref="F2549:F2562" si="245">D2549+100000</f>
+        <f t="shared" ref="F2549" si="245">D2549+100000</f>
         <v>63010000</v>
       </c>
       <c r="G2549" s="1">
@@ -76121,7 +76128,7 @@
         <v>1</v>
       </c>
       <c r="F2551" s="4">
-        <f t="shared" ref="F2551:F2562" si="246">D2551+100000</f>
+        <f t="shared" ref="F2551" si="246">D2551+100000</f>
         <v>63050000</v>
       </c>
       <c r="G2551" s="1">
@@ -76209,7 +76216,7 @@
         <v>1</v>
       </c>
       <c r="F2554" s="4">
-        <f t="shared" ref="F2554:F2562" si="247">D2554+100000</f>
+        <f t="shared" ref="F2554" si="247">D2554+100000</f>
         <v>63110000</v>
       </c>
       <c r="G2554" s="1">
@@ -76268,7 +76275,7 @@
         <v>1</v>
       </c>
       <c r="F2556" s="4">
-        <f t="shared" ref="F2556:F2562" si="248">D2556+100000</f>
+        <f t="shared" ref="F2556:F2557" si="248">D2556+100000</f>
         <v>63150000</v>
       </c>
       <c r="G2556" s="1">
@@ -76357,7 +76364,7 @@
         <v>1</v>
       </c>
       <c r="F2559" s="4">
-        <f t="shared" ref="F2559:F2562" si="249">D2559+100000</f>
+        <f t="shared" ref="F2559" si="249">D2559+100000</f>
         <v>63210000</v>
       </c>
       <c r="G2559" s="1">
@@ -76416,7 +76423,7 @@
         <v>1</v>
       </c>
       <c r="F2561" s="4">
-        <f t="shared" ref="F2561:F2562" si="250">D2561+100000</f>
+        <f t="shared" ref="F2561" si="250">D2561+100000</f>
         <v>63250000</v>
       </c>
       <c r="G2561" s="1">
@@ -76504,7 +76511,7 @@
         <v>1</v>
       </c>
       <c r="F2564" s="4">
-        <f t="shared" ref="F2564:F2582" si="251">D2564+100000</f>
+        <f t="shared" ref="F2564" si="251">D2564+100000</f>
         <v>63310000</v>
       </c>
       <c r="G2564" s="1">
@@ -76563,7 +76570,7 @@
         <v>1</v>
       </c>
       <c r="F2566" s="4">
-        <f t="shared" ref="F2566:F2582" si="252">D2566+100000</f>
+        <f t="shared" ref="F2566:F2567" si="252">D2566+100000</f>
         <v>63350000</v>
       </c>
       <c r="G2566" s="1">
@@ -76652,7 +76659,7 @@
         <v>1</v>
       </c>
       <c r="F2569" s="4">
-        <f t="shared" ref="F2569:F2582" si="253">D2569+100000</f>
+        <f t="shared" ref="F2569" si="253">D2569+100000</f>
         <v>63410000</v>
       </c>
       <c r="G2569" s="1">
@@ -76711,7 +76718,7 @@
         <v>1</v>
       </c>
       <c r="F2571" s="4">
-        <f t="shared" ref="F2571:F2582" si="254">D2571+100000</f>
+        <f t="shared" ref="F2571" si="254">D2571+100000</f>
         <v>63450000</v>
       </c>
       <c r="G2571" s="1">
@@ -76799,7 +76806,7 @@
         <v>1</v>
       </c>
       <c r="F2574" s="4">
-        <f t="shared" ref="F2574:F2582" si="255">D2574+100000</f>
+        <f t="shared" ref="F2574" si="255">D2574+100000</f>
         <v>63510000</v>
       </c>
       <c r="G2574" s="1">
@@ -76858,7 +76865,7 @@
         <v>1</v>
       </c>
       <c r="F2576" s="4">
-        <f t="shared" ref="F2576:F2582" si="256">D2576+100000</f>
+        <f t="shared" ref="F2576:F2577" si="256">D2576+100000</f>
         <v>63550000</v>
       </c>
       <c r="G2576" s="1">
@@ -76947,7 +76954,7 @@
         <v>1</v>
       </c>
       <c r="F2579" s="4">
-        <f t="shared" ref="F2579:F2582" si="257">D2579+100000</f>
+        <f t="shared" ref="F2579" si="257">D2579+100000</f>
         <v>63610000</v>
       </c>
       <c r="G2579" s="1">
@@ -77006,7 +77013,7 @@
         <v>1</v>
       </c>
       <c r="F2581" s="4">
-        <f t="shared" ref="F2581:F2582" si="258">D2581+100000</f>
+        <f t="shared" ref="F2581" si="258">D2581+100000</f>
         <v>63650000</v>
       </c>
       <c r="G2581" s="1">
@@ -77094,7 +77101,7 @@
         <v>1</v>
       </c>
       <c r="F2584" s="4">
-        <f t="shared" ref="F2584:F2602" si="259">D2584+100000</f>
+        <f t="shared" ref="F2584" si="259">D2584+100000</f>
         <v>63710000</v>
       </c>
       <c r="G2584" s="1">
@@ -77153,7 +77160,7 @@
         <v>1</v>
       </c>
       <c r="F2586" s="4">
-        <f t="shared" ref="F2586:F2602" si="260">D2586+100000</f>
+        <f t="shared" ref="F2586:F2587" si="260">D2586+100000</f>
         <v>63750000</v>
       </c>
       <c r="G2586" s="1">
@@ -77242,7 +77249,7 @@
         <v>1</v>
       </c>
       <c r="F2589" s="4">
-        <f t="shared" ref="F2589:F2602" si="261">D2589+100000</f>
+        <f t="shared" ref="F2589" si="261">D2589+100000</f>
         <v>63810000</v>
       </c>
       <c r="G2589" s="1">
@@ -77301,7 +77308,7 @@
         <v>1</v>
       </c>
       <c r="F2591" s="4">
-        <f t="shared" ref="F2591:F2602" si="262">D2591+100000</f>
+        <f t="shared" ref="F2591" si="262">D2591+100000</f>
         <v>63850000</v>
       </c>
       <c r="G2591" s="1">
@@ -77389,7 +77396,7 @@
         <v>1</v>
       </c>
       <c r="F2594" s="4">
-        <f t="shared" ref="F2594:F2602" si="263">D2594+100000</f>
+        <f t="shared" ref="F2594" si="263">D2594+100000</f>
         <v>63910000</v>
       </c>
       <c r="G2594" s="1">
@@ -77448,7 +77455,7 @@
         <v>1</v>
       </c>
       <c r="F2596" s="4">
-        <f t="shared" ref="F2596:F2602" si="264">D2596+100000</f>
+        <f t="shared" ref="F2596:F2597" si="264">D2596+100000</f>
         <v>63950000</v>
       </c>
       <c r="G2596" s="1">
@@ -77537,7 +77544,7 @@
         <v>1</v>
       </c>
       <c r="F2599" s="4">
-        <f t="shared" ref="F2599:F2602" si="265">D2599+100000</f>
+        <f t="shared" ref="F2599" si="265">D2599+100000</f>
         <v>64010000</v>
       </c>
       <c r="G2599" s="1">
@@ -77596,7 +77603,7 @@
         <v>1</v>
       </c>
       <c r="F2601" s="4">
-        <f t="shared" ref="F2601:F2602" si="266">D2601+100000</f>
+        <f t="shared" ref="F2601:F2664" si="266">D2601+100000</f>
         <v>64050000</v>
       </c>
       <c r="G2601" s="1">
@@ -77610,7 +77617,7 @@
       </c>
     </row>
     <row r="2602" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2602" s="1">
+      <c r="A2602" s="3">
         <v>2600</v>
       </c>
       <c r="B2602" s="1">
@@ -77632,9 +77639,2959 @@
         <v>20</v>
       </c>
       <c r="H2602" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2602" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2603" s="1">
+        <v>2601</v>
+      </c>
+      <c r="B2603" s="1">
+        <v>1801000</v>
+      </c>
+      <c r="C2603" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2603" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2603" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2603" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2603" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2603" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2603" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2604" s="1">
+        <v>2602</v>
+      </c>
+      <c r="B2604" s="1">
+        <v>1802000</v>
+      </c>
+      <c r="C2604" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2604" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2604" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2604" s="4">
+        <f t="shared" si="266"/>
+        <v>64110000</v>
+      </c>
+      <c r="G2604" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2604" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2604" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2605" s="1">
+        <v>2603</v>
+      </c>
+      <c r="B2605" s="1">
+        <v>1803000</v>
+      </c>
+      <c r="C2605" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2605" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2605" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2605" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2605" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2605" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2605" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2606" s="1">
+        <v>2604</v>
+      </c>
+      <c r="B2606" s="1">
+        <v>1804000</v>
+      </c>
+      <c r="C2606" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2606" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2606" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2606" s="4">
+        <f t="shared" si="266"/>
+        <v>64150000</v>
+      </c>
+      <c r="G2606" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2606" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2606" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2607" s="1">
+        <v>2605</v>
+      </c>
+      <c r="B2607" s="1">
+        <v>1805000</v>
+      </c>
+      <c r="C2607" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2607" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2607" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2607" s="4">
+        <f t="shared" si="266"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2607" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2607" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2607" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2608" s="1">
+        <v>2606</v>
+      </c>
+      <c r="B2608" s="1">
+        <v>1806000</v>
+      </c>
+      <c r="C2608" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2608" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2608" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2608" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2608" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2608" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2609" s="1">
+        <v>2607</v>
+      </c>
+      <c r="B2609" s="1">
+        <v>1807000</v>
+      </c>
+      <c r="C2609" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2609" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2609" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2609" s="4">
+        <f t="shared" si="266"/>
+        <v>64210000</v>
+      </c>
+      <c r="G2609" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2609" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2609" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2610" s="1">
+        <v>2608</v>
+      </c>
+      <c r="B2610" s="1">
+        <v>1808000</v>
+      </c>
+      <c r="C2610" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2610" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2610" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2610" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2610" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2610" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2610" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2611" s="1">
+        <v>2609</v>
+      </c>
+      <c r="B2611" s="1">
+        <v>1809000</v>
+      </c>
+      <c r="C2611" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2611" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2611" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2611" s="4">
+        <f t="shared" si="266"/>
+        <v>64250000</v>
+      </c>
+      <c r="G2611" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2611" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2611" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2612" s="1">
+        <v>2610</v>
+      </c>
+      <c r="B2612" s="1">
+        <v>1810000</v>
+      </c>
+      <c r="C2612" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2612" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2612" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2612" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2612" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2612" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2612" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2613" s="1">
+        <v>2611</v>
+      </c>
+      <c r="B2613" s="1">
+        <v>1811000</v>
+      </c>
+      <c r="C2613" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2613" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2613" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2613" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2613" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2613" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2613" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2614" s="1">
+        <v>2612</v>
+      </c>
+      <c r="B2614" s="1">
+        <v>1812000</v>
+      </c>
+      <c r="C2614" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2614" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2614" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2614" s="4">
+        <f t="shared" ref="F2614:F2622" si="267">D2614+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2614" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2614" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2614" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2615" s="1">
+        <v>2613</v>
+      </c>
+      <c r="B2615" s="1">
+        <v>1813000</v>
+      </c>
+      <c r="C2615" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2615" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2615" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2615" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2615" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2615" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2615" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2616" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B2616" s="1">
+        <v>1814000</v>
+      </c>
+      <c r="C2616" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2616" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2616" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2616" s="4">
+        <f t="shared" ref="F2616:F2622" si="268">D2616+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2616" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2616" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2616" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2617" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B2617" s="1">
+        <v>1815000</v>
+      </c>
+      <c r="C2617" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2617" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2617" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2617" s="4">
+        <f t="shared" si="268"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2617" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2617" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2617" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2618" s="1">
+        <v>2616</v>
+      </c>
+      <c r="B2618" s="1">
+        <v>1816000</v>
+      </c>
+      <c r="C2618" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2618" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2618" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2618" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2618" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2618" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2618" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2619" s="1">
+        <v>2617</v>
+      </c>
+      <c r="B2619" s="1">
+        <v>1817000</v>
+      </c>
+      <c r="C2619" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2619" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2619" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2619" s="4">
+        <f t="shared" ref="F2619:F2622" si="269">D2619+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2619" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2619" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2619" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2620" s="1">
+        <v>2618</v>
+      </c>
+      <c r="B2620" s="1">
+        <v>1818000</v>
+      </c>
+      <c r="C2620" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2620" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2620" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2620" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2620" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2620" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2620" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2621" s="1">
+        <v>2619</v>
+      </c>
+      <c r="B2621" s="1">
+        <v>1819000</v>
+      </c>
+      <c r="C2621" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2621" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2621" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2621" s="4">
+        <f t="shared" ref="F2621:F2622" si="270">D2621+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2621" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2621" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2621" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2622" s="1">
+        <v>2620</v>
+      </c>
+      <c r="B2622" s="1">
+        <v>1820000</v>
+      </c>
+      <c r="C2622" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2622" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2622" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2622" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2622" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2622" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2622" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2623" s="1">
+        <v>2621</v>
+      </c>
+      <c r="B2623" s="1">
+        <v>1821000</v>
+      </c>
+      <c r="C2623" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2623" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2623" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2623" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2623" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2623" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2623" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2624" s="1">
+        <v>2622</v>
+      </c>
+      <c r="B2624" s="1">
+        <v>1822000</v>
+      </c>
+      <c r="C2624" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2624" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2624" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2624" s="4">
+        <f t="shared" ref="F2624:F2632" si="271">D2624+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2624" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2624" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2624" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2625" s="1">
+        <v>2623</v>
+      </c>
+      <c r="B2625" s="1">
+        <v>1823000</v>
+      </c>
+      <c r="C2625" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2625" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2625" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2625" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2625" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2625" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2625" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2626" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B2626" s="1">
+        <v>1824000</v>
+      </c>
+      <c r="C2626" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2626" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2626" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2626" s="4">
+        <f t="shared" ref="F2626:F2632" si="272">D2626+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2626" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2626" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2626" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2627" s="1">
+        <v>2625</v>
+      </c>
+      <c r="B2627" s="1">
+        <v>1825000</v>
+      </c>
+      <c r="C2627" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2627" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2627" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2627" s="4">
+        <f t="shared" si="272"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2627" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2627" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2627" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2628" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B2628" s="1">
+        <v>1826000</v>
+      </c>
+      <c r="C2628" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2628" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2628" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2628" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2628" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2628" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2628" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2629" s="1">
+        <v>2627</v>
+      </c>
+      <c r="B2629" s="1">
+        <v>1827000</v>
+      </c>
+      <c r="C2629" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2629" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2629" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2629" s="4">
+        <f t="shared" ref="F2629:F2632" si="273">D2629+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2629" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2629" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2629" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2630" s="1">
+        <v>2628</v>
+      </c>
+      <c r="B2630" s="1">
+        <v>1828000</v>
+      </c>
+      <c r="C2630" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2630" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2630" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2630" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2630" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2630" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2630" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2631" s="1">
+        <v>2629</v>
+      </c>
+      <c r="B2631" s="1">
+        <v>1829000</v>
+      </c>
+      <c r="C2631" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2631" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2631" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2631" s="4">
+        <f t="shared" ref="F2631:F2632" si="274">D2631+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2631" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2631" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2631" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2632" s="1">
+        <v>2630</v>
+      </c>
+      <c r="B2632" s="1">
+        <v>1830000</v>
+      </c>
+      <c r="C2632" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2632" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2632" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2632" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2632" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2632" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2632" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2633" s="1">
+        <v>2631</v>
+      </c>
+      <c r="B2633" s="1">
+        <v>1831000</v>
+      </c>
+      <c r="C2633" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2633" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2633" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2633" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2633" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2633" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2633" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2634" s="1">
+        <v>2632</v>
+      </c>
+      <c r="B2634" s="1">
+        <v>1832000</v>
+      </c>
+      <c r="C2634" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2634" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2634" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2634" s="4">
+        <f t="shared" ref="F2634:F2642" si="275">D2634+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2634" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2634" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2634" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2635" s="1">
+        <v>2633</v>
+      </c>
+      <c r="B2635" s="1">
+        <v>1833000</v>
+      </c>
+      <c r="C2635" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2635" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2635" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2635" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2635" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2635" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2635" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2636" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B2636" s="1">
+        <v>1834000</v>
+      </c>
+      <c r="C2636" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2636" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2636" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2636" s="4">
+        <f t="shared" ref="F2636:F2642" si="276">D2636+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2636" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2636" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2636" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2637" s="1">
+        <v>2635</v>
+      </c>
+      <c r="B2637" s="1">
+        <v>1835000</v>
+      </c>
+      <c r="C2637" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2637" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2637" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2637" s="4">
+        <f t="shared" si="276"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2637" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2637" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2637" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2638" s="1">
+        <v>2636</v>
+      </c>
+      <c r="B2638" s="1">
+        <v>1836000</v>
+      </c>
+      <c r="C2638" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2638" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2638" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2638" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2638" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2638" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2638" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2639" s="1">
+        <v>2637</v>
+      </c>
+      <c r="B2639" s="1">
+        <v>1837000</v>
+      </c>
+      <c r="C2639" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2639" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2639" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2639" s="4">
+        <f t="shared" ref="F2639:F2642" si="277">D2639+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2639" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2639" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2639" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2640" s="1">
+        <v>2638</v>
+      </c>
+      <c r="B2640" s="1">
+        <v>1838000</v>
+      </c>
+      <c r="C2640" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2640" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2640" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2640" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2640" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2640" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2640" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2641" s="1">
+        <v>2639</v>
+      </c>
+      <c r="B2641" s="1">
+        <v>1839000</v>
+      </c>
+      <c r="C2641" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2641" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2641" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2641" s="4">
+        <f t="shared" ref="F2641:F2642" si="278">D2641+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2641" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2641" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2641" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2642" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B2642" s="1">
+        <v>1840000</v>
+      </c>
+      <c r="C2642" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2642" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2642" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2642" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2642" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2642" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2642" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2643" s="1">
+        <v>2641</v>
+      </c>
+      <c r="B2643" s="1">
+        <v>1841000</v>
+      </c>
+      <c r="C2643" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2643" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2643" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2643" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2643" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2643" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2643" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2644" s="1">
+        <v>2642</v>
+      </c>
+      <c r="B2644" s="1">
+        <v>1842000</v>
+      </c>
+      <c r="C2644" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2644" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2644" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2644" s="4">
+        <f t="shared" ref="F2644:F2652" si="279">D2644+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2644" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2644" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2644" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2645" s="1">
+        <v>2643</v>
+      </c>
+      <c r="B2645" s="1">
+        <v>1843000</v>
+      </c>
+      <c r="C2645" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2645" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2645" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2645" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2645" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2645" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2645" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2646" s="1">
+        <v>2644</v>
+      </c>
+      <c r="B2646" s="1">
+        <v>1844000</v>
+      </c>
+      <c r="C2646" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2646" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2646" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2646" s="4">
+        <f t="shared" ref="F2646:F2652" si="280">D2646+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2646" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2646" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2646" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2647" s="1">
+        <v>2645</v>
+      </c>
+      <c r="B2647" s="1">
+        <v>1845000</v>
+      </c>
+      <c r="C2647" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2647" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2647" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2647" s="4">
+        <f t="shared" si="280"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2647" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2647" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2647" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2648" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B2648" s="1">
+        <v>1846000</v>
+      </c>
+      <c r="C2648" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2648" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2648" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2648" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2648" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2648" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2648" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2649" s="1">
+        <v>2647</v>
+      </c>
+      <c r="B2649" s="1">
+        <v>1847000</v>
+      </c>
+      <c r="C2649" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2649" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2649" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2649" s="4">
+        <f t="shared" ref="F2649:F2652" si="281">D2649+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2649" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2649" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2649" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2650" s="1">
+        <v>2648</v>
+      </c>
+      <c r="B2650" s="1">
+        <v>1848000</v>
+      </c>
+      <c r="C2650" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2650" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2650" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2650" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2650" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2650" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2650" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2651" s="1">
+        <v>2649</v>
+      </c>
+      <c r="B2651" s="1">
+        <v>1849000</v>
+      </c>
+      <c r="C2651" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2651" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2651" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2651" s="4">
+        <f t="shared" ref="F2651:F2652" si="282">D2651+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2651" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2651" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2651" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2652" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B2652" s="1">
+        <v>1850000</v>
+      </c>
+      <c r="C2652" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2652" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2652" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2652" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2652" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2652" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2652" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2653" s="1">
+        <v>2651</v>
+      </c>
+      <c r="B2653" s="1">
+        <v>1851000</v>
+      </c>
+      <c r="C2653" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2653" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2653" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2653" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2653" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2653" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2653" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2654" s="1">
+        <v>2652</v>
+      </c>
+      <c r="B2654" s="1">
+        <v>1852000</v>
+      </c>
+      <c r="C2654" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2654" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2654" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2654" s="4">
+        <f t="shared" ref="F2654:F2662" si="283">D2654+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2654" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2654" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2654" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2655" s="1">
+        <v>2653</v>
+      </c>
+      <c r="B2655" s="1">
+        <v>1853000</v>
+      </c>
+      <c r="C2655" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2655" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2655" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2655" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2655" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2655" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2655" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2656" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B2656" s="1">
+        <v>1854000</v>
+      </c>
+      <c r="C2656" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2656" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2656" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2656" s="4">
+        <f t="shared" ref="F2656:F2662" si="284">D2656+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2656" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2656" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2656" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2657" s="1">
+        <v>2655</v>
+      </c>
+      <c r="B2657" s="1">
+        <v>1855000</v>
+      </c>
+      <c r="C2657" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2657" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2657" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2657" s="4">
+        <f t="shared" si="284"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2657" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2657" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2657" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2658" s="1">
+        <v>2656</v>
+      </c>
+      <c r="B2658" s="1">
+        <v>1856000</v>
+      </c>
+      <c r="C2658" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2658" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2658" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2658" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2658" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2658" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2658" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2659" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B2659" s="1">
+        <v>1857000</v>
+      </c>
+      <c r="C2659" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2659" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2659" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2659" s="4">
+        <f t="shared" ref="F2659:F2662" si="285">D2659+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2659" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2659" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2659" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2660" s="1">
+        <v>2658</v>
+      </c>
+      <c r="B2660" s="1">
+        <v>1858000</v>
+      </c>
+      <c r="C2660" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2660" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2660" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2660" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2660" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2660" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2660" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2661" s="1">
+        <v>2659</v>
+      </c>
+      <c r="B2661" s="1">
+        <v>1859000</v>
+      </c>
+      <c r="C2661" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2661" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2661" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2661" s="4">
+        <f t="shared" ref="F2661:F2662" si="286">D2661+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2661" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2661" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2661" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2662" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B2662" s="1">
+        <v>1860000</v>
+      </c>
+      <c r="C2662" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2662" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2662" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2662" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2662" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2662" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2662" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2663" s="1">
+        <v>2661</v>
+      </c>
+      <c r="B2663" s="1">
+        <v>1861000</v>
+      </c>
+      <c r="C2663" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2663" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2663" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2663" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2663" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2663" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2663" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2664" s="1">
+        <v>2662</v>
+      </c>
+      <c r="B2664" s="1">
+        <v>1862000</v>
+      </c>
+      <c r="C2664" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2664" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2664" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2664" s="4">
+        <f t="shared" ref="F2664:F2672" si="287">D2664+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2664" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2664" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2664" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2665" s="1">
+        <v>2663</v>
+      </c>
+      <c r="B2665" s="1">
+        <v>1863000</v>
+      </c>
+      <c r="C2665" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2665" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2665" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2665" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2665" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2665" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2665" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2666" s="1">
+        <v>2664</v>
+      </c>
+      <c r="B2666" s="1">
+        <v>1864000</v>
+      </c>
+      <c r="C2666" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2666" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2666" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2666" s="4">
+        <f t="shared" ref="F2666:F2672" si="288">D2666+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2666" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2666" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2666" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2667" s="1">
+        <v>2665</v>
+      </c>
+      <c r="B2667" s="1">
+        <v>1865000</v>
+      </c>
+      <c r="C2667" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2667" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2667" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2667" s="4">
+        <f t="shared" si="288"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2667" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2667" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2667" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2668" s="1">
+        <v>2666</v>
+      </c>
+      <c r="B2668" s="1">
+        <v>1866000</v>
+      </c>
+      <c r="C2668" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2668" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2668" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2668" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2668" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2668" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2668" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2669" s="1">
+        <v>2667</v>
+      </c>
+      <c r="B2669" s="1">
+        <v>1867000</v>
+      </c>
+      <c r="C2669" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2669" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2669" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2669" s="4">
+        <f t="shared" ref="F2669:F2672" si="289">D2669+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2669" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2669" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2669" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2670" s="1">
+        <v>2668</v>
+      </c>
+      <c r="B2670" s="1">
+        <v>1868000</v>
+      </c>
+      <c r="C2670" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2670" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2670" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2670" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2670" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2670" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2670" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2671" s="1">
+        <v>2669</v>
+      </c>
+      <c r="B2671" s="1">
+        <v>1869000</v>
+      </c>
+      <c r="C2671" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2671" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2671" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2671" s="4">
+        <f t="shared" ref="F2671:F2672" si="290">D2671+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2671" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2671" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2671" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2672" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B2672" s="1">
+        <v>1870000</v>
+      </c>
+      <c r="C2672" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2672" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2672" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2672" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2672" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2672" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2672" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2673" s="1">
+        <v>2671</v>
+      </c>
+      <c r="B2673" s="1">
+        <v>1871000</v>
+      </c>
+      <c r="C2673" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2673" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2673" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2673" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2673" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2673" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2673" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2674" s="1">
+        <v>2672</v>
+      </c>
+      <c r="B2674" s="1">
+        <v>1872000</v>
+      </c>
+      <c r="C2674" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2674" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2674" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2674" s="4">
+        <f t="shared" ref="F2674:F2682" si="291">D2674+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2674" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2674" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2674" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2675" s="1">
+        <v>2673</v>
+      </c>
+      <c r="B2675" s="1">
+        <v>1873000</v>
+      </c>
+      <c r="C2675" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2675" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2675" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2675" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2675" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2675" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2675" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2676" s="1">
+        <v>2674</v>
+      </c>
+      <c r="B2676" s="1">
+        <v>1874000</v>
+      </c>
+      <c r="C2676" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2676" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2676" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2676" s="4">
+        <f t="shared" ref="F2676:F2682" si="292">D2676+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2676" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2676" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2676" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2677" s="1">
+        <v>2675</v>
+      </c>
+      <c r="B2677" s="1">
+        <v>1875000</v>
+      </c>
+      <c r="C2677" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2677" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2677" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2677" s="4">
+        <f t="shared" si="292"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2677" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2677" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2677" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2678" s="1">
+        <v>2676</v>
+      </c>
+      <c r="B2678" s="1">
+        <v>1876000</v>
+      </c>
+      <c r="C2678" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2678" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2678" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2678" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2678" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2678" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2678" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2679" s="1">
+        <v>2677</v>
+      </c>
+      <c r="B2679" s="1">
+        <v>1877000</v>
+      </c>
+      <c r="C2679" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2679" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2679" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2679" s="4">
+        <f t="shared" ref="F2679:F2682" si="293">D2679+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2679" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2679" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2679" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2680" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B2680" s="1">
+        <v>1878000</v>
+      </c>
+      <c r="C2680" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2680" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2680" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2680" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2680" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2680" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2680" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2681" s="1">
+        <v>2679</v>
+      </c>
+      <c r="B2681" s="1">
+        <v>1879000</v>
+      </c>
+      <c r="C2681" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2681" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2681" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2681" s="4">
+        <f t="shared" ref="F2681:F2682" si="294">D2681+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2681" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2681" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2681" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2682" s="1">
+        <v>2680</v>
+      </c>
+      <c r="B2682" s="1">
+        <v>1880000</v>
+      </c>
+      <c r="C2682" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2682" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2682" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2682" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2682" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2682" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2682" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2683" s="1">
+        <v>2681</v>
+      </c>
+      <c r="B2683" s="1">
+        <v>1881000</v>
+      </c>
+      <c r="C2683" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2683" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2683" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2683" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2683" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2683" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2683" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2684" s="1">
+        <v>2682</v>
+      </c>
+      <c r="B2684" s="1">
+        <v>1882000</v>
+      </c>
+      <c r="C2684" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2684" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2684" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2684" s="4">
+        <f t="shared" ref="F2684:F2692" si="295">D2684+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2684" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2684" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2684" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2685" s="1">
+        <v>2683</v>
+      </c>
+      <c r="B2685" s="1">
+        <v>1883000</v>
+      </c>
+      <c r="C2685" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2685" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2685" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2685" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2685" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2685" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2685" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2686" s="1">
+        <v>2684</v>
+      </c>
+      <c r="B2686" s="1">
+        <v>1884000</v>
+      </c>
+      <c r="C2686" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2686" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2686" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2686" s="4">
+        <f t="shared" ref="F2686:F2692" si="296">D2686+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2686" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2686" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2686" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2687" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B2687" s="1">
+        <v>1885000</v>
+      </c>
+      <c r="C2687" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2687" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2687" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2687" s="4">
+        <f t="shared" si="296"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2687" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2687" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2687" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2688" s="1">
+        <v>2686</v>
+      </c>
+      <c r="B2688" s="1">
+        <v>1886000</v>
+      </c>
+      <c r="C2688" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2688" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2688" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2688" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2688" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2688" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2688" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2689" s="1">
+        <v>2687</v>
+      </c>
+      <c r="B2689" s="1">
+        <v>1887000</v>
+      </c>
+      <c r="C2689" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2689" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2689" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2689" s="4">
+        <f t="shared" ref="F2689:F2692" si="297">D2689+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2689" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2689" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2689" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2690" s="1">
+        <v>2688</v>
+      </c>
+      <c r="B2690" s="1">
+        <v>1888000</v>
+      </c>
+      <c r="C2690" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2690" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2690" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2690" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2690" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2690" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2690" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2691" s="1">
+        <v>2689</v>
+      </c>
+      <c r="B2691" s="1">
+        <v>1889000</v>
+      </c>
+      <c r="C2691" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2691" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2691" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2691" s="4">
+        <f t="shared" ref="F2691:F2692" si="298">D2691+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2691" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2691" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2691" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2692" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B2692" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="C2692" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2692" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2692" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2692" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2692" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2692" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2692" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2693" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B2693" s="1">
+        <v>1891000</v>
+      </c>
+      <c r="C2693" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2693" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2693" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2693" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2693" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2693" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2693" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2694" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B2694" s="1">
+        <v>1892000</v>
+      </c>
+      <c r="C2694" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2694" s="1">
+        <v>64010000</v>
+      </c>
+      <c r="E2694" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2694" s="4">
+        <f t="shared" ref="F2694:F2702" si="299">D2694+100000</f>
+        <v>64110000</v>
+      </c>
+      <c r="G2694" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2694" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2694" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2695" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B2695" s="1">
+        <v>1893000</v>
+      </c>
+      <c r="C2695" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2695" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2695" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2695" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G2695" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2695" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2695" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2696" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B2696" s="1">
+        <v>1894000</v>
+      </c>
+      <c r="C2696" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2696" s="1">
+        <v>64050000</v>
+      </c>
+      <c r="E2696" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2696" s="4">
+        <f t="shared" ref="F2696:F2702" si="300">D2696+100000</f>
+        <v>64150000</v>
+      </c>
+      <c r="G2696" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2696" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2696" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2697" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B2697" s="1">
+        <v>1895000</v>
+      </c>
+      <c r="C2697" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2697" s="1">
+        <v>64070000</v>
+      </c>
+      <c r="E2697" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2697" s="4">
+        <f t="shared" si="300"/>
+        <v>64170000</v>
+      </c>
+      <c r="G2697" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2697" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2697" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2698" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B2698" s="1">
+        <v>1896000</v>
+      </c>
+      <c r="C2698" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2698" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2698" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2698" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2698" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2698" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2698" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2699" s="1">
+        <v>2697</v>
+      </c>
+      <c r="B2699" s="1">
+        <v>1897000</v>
+      </c>
+      <c r="C2699" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2699" s="1">
+        <v>64110000</v>
+      </c>
+      <c r="E2699" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2699" s="4">
+        <f t="shared" ref="F2699:F2702" si="301">D2699+100000</f>
+        <v>64210000</v>
+      </c>
+      <c r="G2699" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2699" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2699" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2700" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B2700" s="1">
+        <v>1898000</v>
+      </c>
+      <c r="C2700" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2700" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E2700" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2700" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G2700" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2700" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2700" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2701" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B2701" s="1">
+        <v>1899000</v>
+      </c>
+      <c r="C2701" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2701" s="1">
+        <v>64150000</v>
+      </c>
+      <c r="E2701" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2701" s="4">
+        <f t="shared" ref="F2701:F2702" si="302">D2701+100000</f>
+        <v>64250000</v>
+      </c>
+      <c r="G2701" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2701" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2701" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2702" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B2702" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="C2702" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2702" s="16">
+        <v>120</v>
+      </c>
+      <c r="E2702" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2702" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2702" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2702" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2702" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE51CBEF-CFE7-4D8B-9FAC-028AB361745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5E97D-1E55-4E79-ABB8-8DF1E486CAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -198,6 +198,13 @@
   </si>
   <si>
     <t>levelpass22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass23</t>
+  </si>
+  <si>
+    <t>levelpass23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J2702"/>
+  <dimension ref="A1:J2802"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2695" sqref="E2695"/>
+      <pane ySplit="1" topLeftCell="A2777" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2797" sqref="E2797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -77603,7 +77610,7 @@
         <v>1</v>
       </c>
       <c r="F2601" s="4">
-        <f t="shared" ref="F2601:F2664" si="266">D2601+100000</f>
+        <f t="shared" ref="F2601:F2611" si="266">D2601+100000</f>
         <v>64050000</v>
       </c>
       <c r="G2601" s="1">
@@ -77986,7 +77993,7 @@
         <v>1</v>
       </c>
       <c r="F2614" s="4">
-        <f t="shared" ref="F2614:F2622" si="267">D2614+100000</f>
+        <f t="shared" ref="F2614" si="267">D2614+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2614" s="1">
@@ -78045,7 +78052,7 @@
         <v>1</v>
       </c>
       <c r="F2616" s="4">
-        <f t="shared" ref="F2616:F2622" si="268">D2616+100000</f>
+        <f t="shared" ref="F2616:F2617" si="268">D2616+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2616" s="1">
@@ -78134,7 +78141,7 @@
         <v>1</v>
       </c>
       <c r="F2619" s="4">
-        <f t="shared" ref="F2619:F2622" si="269">D2619+100000</f>
+        <f t="shared" ref="F2619" si="269">D2619+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2619" s="1">
@@ -78193,7 +78200,7 @@
         <v>1</v>
       </c>
       <c r="F2621" s="4">
-        <f t="shared" ref="F2621:F2622" si="270">D2621+100000</f>
+        <f t="shared" ref="F2621" si="270">D2621+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2621" s="1">
@@ -78281,7 +78288,7 @@
         <v>1</v>
       </c>
       <c r="F2624" s="4">
-        <f t="shared" ref="F2624:F2632" si="271">D2624+100000</f>
+        <f t="shared" ref="F2624" si="271">D2624+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2624" s="1">
@@ -78340,7 +78347,7 @@
         <v>1</v>
       </c>
       <c r="F2626" s="4">
-        <f t="shared" ref="F2626:F2632" si="272">D2626+100000</f>
+        <f t="shared" ref="F2626:F2627" si="272">D2626+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2626" s="1">
@@ -78429,7 +78436,7 @@
         <v>1</v>
       </c>
       <c r="F2629" s="4">
-        <f t="shared" ref="F2629:F2632" si="273">D2629+100000</f>
+        <f t="shared" ref="F2629" si="273">D2629+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2629" s="1">
@@ -78488,7 +78495,7 @@
         <v>1</v>
       </c>
       <c r="F2631" s="4">
-        <f t="shared" ref="F2631:F2632" si="274">D2631+100000</f>
+        <f t="shared" ref="F2631" si="274">D2631+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2631" s="1">
@@ -78576,7 +78583,7 @@
         <v>1</v>
       </c>
       <c r="F2634" s="4">
-        <f t="shared" ref="F2634:F2642" si="275">D2634+100000</f>
+        <f t="shared" ref="F2634" si="275">D2634+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2634" s="1">
@@ -78635,7 +78642,7 @@
         <v>1</v>
       </c>
       <c r="F2636" s="4">
-        <f t="shared" ref="F2636:F2642" si="276">D2636+100000</f>
+        <f t="shared" ref="F2636:F2637" si="276">D2636+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2636" s="1">
@@ -78724,7 +78731,7 @@
         <v>1</v>
       </c>
       <c r="F2639" s="4">
-        <f t="shared" ref="F2639:F2642" si="277">D2639+100000</f>
+        <f t="shared" ref="F2639" si="277">D2639+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2639" s="1">
@@ -78783,7 +78790,7 @@
         <v>1</v>
       </c>
       <c r="F2641" s="4">
-        <f t="shared" ref="F2641:F2642" si="278">D2641+100000</f>
+        <f t="shared" ref="F2641" si="278">D2641+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2641" s="1">
@@ -78871,7 +78878,7 @@
         <v>1</v>
       </c>
       <c r="F2644" s="4">
-        <f t="shared" ref="F2644:F2652" si="279">D2644+100000</f>
+        <f t="shared" ref="F2644" si="279">D2644+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2644" s="1">
@@ -78930,7 +78937,7 @@
         <v>1</v>
       </c>
       <c r="F2646" s="4">
-        <f t="shared" ref="F2646:F2652" si="280">D2646+100000</f>
+        <f t="shared" ref="F2646:F2647" si="280">D2646+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2646" s="1">
@@ -79019,7 +79026,7 @@
         <v>1</v>
       </c>
       <c r="F2649" s="4">
-        <f t="shared" ref="F2649:F2652" si="281">D2649+100000</f>
+        <f t="shared" ref="F2649" si="281">D2649+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2649" s="1">
@@ -79078,7 +79085,7 @@
         <v>1</v>
       </c>
       <c r="F2651" s="4">
-        <f t="shared" ref="F2651:F2652" si="282">D2651+100000</f>
+        <f t="shared" ref="F2651" si="282">D2651+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2651" s="1">
@@ -79166,7 +79173,7 @@
         <v>1</v>
       </c>
       <c r="F2654" s="4">
-        <f t="shared" ref="F2654:F2662" si="283">D2654+100000</f>
+        <f t="shared" ref="F2654" si="283">D2654+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2654" s="1">
@@ -79225,7 +79232,7 @@
         <v>1</v>
       </c>
       <c r="F2656" s="4">
-        <f t="shared" ref="F2656:F2662" si="284">D2656+100000</f>
+        <f t="shared" ref="F2656:F2657" si="284">D2656+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2656" s="1">
@@ -79314,7 +79321,7 @@
         <v>1</v>
       </c>
       <c r="F2659" s="4">
-        <f t="shared" ref="F2659:F2662" si="285">D2659+100000</f>
+        <f t="shared" ref="F2659" si="285">D2659+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2659" s="1">
@@ -79373,7 +79380,7 @@
         <v>1</v>
       </c>
       <c r="F2661" s="4">
-        <f t="shared" ref="F2661:F2662" si="286">D2661+100000</f>
+        <f t="shared" ref="F2661" si="286">D2661+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2661" s="1">
@@ -79461,7 +79468,7 @@
         <v>1</v>
       </c>
       <c r="F2664" s="4">
-        <f t="shared" ref="F2664:F2672" si="287">D2664+100000</f>
+        <f t="shared" ref="F2664" si="287">D2664+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2664" s="1">
@@ -79520,7 +79527,7 @@
         <v>1</v>
       </c>
       <c r="F2666" s="4">
-        <f t="shared" ref="F2666:F2672" si="288">D2666+100000</f>
+        <f t="shared" ref="F2666:F2667" si="288">D2666+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2666" s="1">
@@ -79609,7 +79616,7 @@
         <v>1</v>
       </c>
       <c r="F2669" s="4">
-        <f t="shared" ref="F2669:F2672" si="289">D2669+100000</f>
+        <f t="shared" ref="F2669" si="289">D2669+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2669" s="1">
@@ -79668,7 +79675,7 @@
         <v>1</v>
       </c>
       <c r="F2671" s="4">
-        <f t="shared" ref="F2671:F2672" si="290">D2671+100000</f>
+        <f t="shared" ref="F2671" si="290">D2671+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2671" s="1">
@@ -79756,7 +79763,7 @@
         <v>1</v>
       </c>
       <c r="F2674" s="4">
-        <f t="shared" ref="F2674:F2682" si="291">D2674+100000</f>
+        <f t="shared" ref="F2674" si="291">D2674+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2674" s="1">
@@ -79815,7 +79822,7 @@
         <v>1</v>
       </c>
       <c r="F2676" s="4">
-        <f t="shared" ref="F2676:F2682" si="292">D2676+100000</f>
+        <f t="shared" ref="F2676:F2677" si="292">D2676+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2676" s="1">
@@ -79904,7 +79911,7 @@
         <v>1</v>
       </c>
       <c r="F2679" s="4">
-        <f t="shared" ref="F2679:F2682" si="293">D2679+100000</f>
+        <f t="shared" ref="F2679" si="293">D2679+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2679" s="1">
@@ -79963,7 +79970,7 @@
         <v>1</v>
       </c>
       <c r="F2681" s="4">
-        <f t="shared" ref="F2681:F2682" si="294">D2681+100000</f>
+        <f t="shared" ref="F2681" si="294">D2681+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2681" s="1">
@@ -80051,7 +80058,7 @@
         <v>1</v>
       </c>
       <c r="F2684" s="4">
-        <f t="shared" ref="F2684:F2692" si="295">D2684+100000</f>
+        <f t="shared" ref="F2684" si="295">D2684+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2684" s="1">
@@ -80110,7 +80117,7 @@
         <v>1</v>
       </c>
       <c r="F2686" s="4">
-        <f t="shared" ref="F2686:F2692" si="296">D2686+100000</f>
+        <f t="shared" ref="F2686:F2687" si="296">D2686+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2686" s="1">
@@ -80199,7 +80206,7 @@
         <v>1</v>
       </c>
       <c r="F2689" s="4">
-        <f t="shared" ref="F2689:F2692" si="297">D2689+100000</f>
+        <f t="shared" ref="F2689" si="297">D2689+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2689" s="1">
@@ -80258,7 +80265,7 @@
         <v>1</v>
       </c>
       <c r="F2691" s="4">
-        <f t="shared" ref="F2691:F2692" si="298">D2691+100000</f>
+        <f t="shared" ref="F2691" si="298">D2691+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2691" s="1">
@@ -80346,7 +80353,7 @@
         <v>1</v>
       </c>
       <c r="F2694" s="4">
-        <f t="shared" ref="F2694:F2702" si="299">D2694+100000</f>
+        <f t="shared" ref="F2694" si="299">D2694+100000</f>
         <v>64110000</v>
       </c>
       <c r="G2694" s="1">
@@ -80405,7 +80412,7 @@
         <v>1</v>
       </c>
       <c r="F2696" s="4">
-        <f t="shared" ref="F2696:F2702" si="300">D2696+100000</f>
+        <f t="shared" ref="F2696:F2697" si="300">D2696+100000</f>
         <v>64150000</v>
       </c>
       <c r="G2696" s="1">
@@ -80494,7 +80501,7 @@
         <v>1</v>
       </c>
       <c r="F2699" s="4">
-        <f t="shared" ref="F2699:F2702" si="301">D2699+100000</f>
+        <f t="shared" ref="F2699" si="301">D2699+100000</f>
         <v>64210000</v>
       </c>
       <c r="G2699" s="1">
@@ -80553,7 +80560,7 @@
         <v>1</v>
       </c>
       <c r="F2701" s="4">
-        <f t="shared" ref="F2701:F2702" si="302">D2701+100000</f>
+        <f t="shared" ref="F2701:F2764" si="302">D2701+100000</f>
         <v>64250000</v>
       </c>
       <c r="G2701" s="1">
@@ -80592,6 +80599,2956 @@
         <v>45</v>
       </c>
       <c r="I2702" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2703" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B2703" s="1">
+        <v>1901000</v>
+      </c>
+      <c r="C2703" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2703" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2703" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2703" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2703" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2703" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2703" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2704" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B2704" s="1">
+        <v>1902000</v>
+      </c>
+      <c r="C2704" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2704" s="1">
+        <v>64220000</v>
+      </c>
+      <c r="E2704" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2704" s="4">
+        <f t="shared" si="302"/>
+        <v>64320000</v>
+      </c>
+      <c r="G2704" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2704" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2704" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2705" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B2705" s="1">
+        <v>1903000</v>
+      </c>
+      <c r="C2705" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2705" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2705" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2705" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2705" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2705" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2705" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2706" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B2706" s="1">
+        <v>1904000</v>
+      </c>
+      <c r="C2706" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2706" s="1">
+        <v>64280000</v>
+      </c>
+      <c r="E2706" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2706" s="4">
+        <f t="shared" si="302"/>
+        <v>64380000</v>
+      </c>
+      <c r="G2706" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2706" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2706" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2707" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B2707" s="1">
+        <v>1905000</v>
+      </c>
+      <c r="C2707" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2707" s="1">
+        <v>64310000</v>
+      </c>
+      <c r="E2707" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2707" s="4">
+        <f t="shared" si="302"/>
+        <v>64410000</v>
+      </c>
+      <c r="G2707" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2707" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2707" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2708" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B2708" s="1">
+        <v>1906000</v>
+      </c>
+      <c r="C2708" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2708" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2708" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2708" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2708" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2708" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2708" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2709" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B2709" s="1">
+        <v>1907000</v>
+      </c>
+      <c r="C2709" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2709" s="1">
+        <v>64370000</v>
+      </c>
+      <c r="E2709" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2709" s="4">
+        <f t="shared" si="302"/>
+        <v>64470000</v>
+      </c>
+      <c r="G2709" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2709" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2709" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2710" s="1">
+        <v>2708</v>
+      </c>
+      <c r="B2710" s="1">
+        <v>1908000</v>
+      </c>
+      <c r="C2710" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2710" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2710" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2710" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2710" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2710" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2710" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2711" s="1">
+        <v>2709</v>
+      </c>
+      <c r="B2711" s="1">
+        <v>1909000</v>
+      </c>
+      <c r="C2711" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2711" s="1">
+        <v>64430000</v>
+      </c>
+      <c r="E2711" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2711" s="4">
+        <f t="shared" si="302"/>
+        <v>64530000</v>
+      </c>
+      <c r="G2711" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2711" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2711" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2712" s="1">
+        <v>2710</v>
+      </c>
+      <c r="B2712" s="1">
+        <v>1910000</v>
+      </c>
+      <c r="C2712" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2712" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2712" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2712" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2712" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2712" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2712" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2713" s="1">
+        <v>2711</v>
+      </c>
+      <c r="B2713" s="1">
+        <v>1911000</v>
+      </c>
+      <c r="C2713" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2713" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2713" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2713" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2713" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2713" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2713" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2714" s="1">
+        <v>2712</v>
+      </c>
+      <c r="B2714" s="1">
+        <v>1912000</v>
+      </c>
+      <c r="C2714" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2714" s="1">
+        <v>64520000</v>
+      </c>
+      <c r="E2714" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2714" s="4">
+        <f t="shared" si="302"/>
+        <v>64620000</v>
+      </c>
+      <c r="G2714" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2714" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2714" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2715" s="1">
+        <v>2713</v>
+      </c>
+      <c r="B2715" s="1">
+        <v>1913000</v>
+      </c>
+      <c r="C2715" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2715" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2715" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2715" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2715" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2715" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2715" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2716" s="1">
+        <v>2714</v>
+      </c>
+      <c r="B2716" s="1">
+        <v>1914000</v>
+      </c>
+      <c r="C2716" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2716" s="1">
+        <v>64580000</v>
+      </c>
+      <c r="E2716" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2716" s="4">
+        <f t="shared" si="302"/>
+        <v>64680000</v>
+      </c>
+      <c r="G2716" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2716" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2716" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2717" s="1">
+        <v>2715</v>
+      </c>
+      <c r="B2717" s="1">
+        <v>1915000</v>
+      </c>
+      <c r="C2717" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2717" s="1">
+        <v>64610000</v>
+      </c>
+      <c r="E2717" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2717" s="4">
+        <f t="shared" si="302"/>
+        <v>64710000</v>
+      </c>
+      <c r="G2717" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2717" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2717" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2718" s="1">
+        <v>2716</v>
+      </c>
+      <c r="B2718" s="1">
+        <v>1916000</v>
+      </c>
+      <c r="C2718" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2718" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2718" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2718" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2718" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2718" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2718" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2719" s="1">
+        <v>2717</v>
+      </c>
+      <c r="B2719" s="1">
+        <v>1917000</v>
+      </c>
+      <c r="C2719" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2719" s="1">
+        <v>64670000</v>
+      </c>
+      <c r="E2719" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2719" s="4">
+        <f t="shared" si="302"/>
+        <v>64770000</v>
+      </c>
+      <c r="G2719" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2719" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2719" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2720" s="1">
+        <v>2718</v>
+      </c>
+      <c r="B2720" s="1">
+        <v>1918000</v>
+      </c>
+      <c r="C2720" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2720" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2720" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2720" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2720" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2720" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2720" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2721" s="1">
+        <v>2719</v>
+      </c>
+      <c r="B2721" s="1">
+        <v>1919000</v>
+      </c>
+      <c r="C2721" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2721" s="1">
+        <v>64730000</v>
+      </c>
+      <c r="E2721" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2721" s="4">
+        <f t="shared" si="302"/>
+        <v>64830000</v>
+      </c>
+      <c r="G2721" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2721" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2721" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2722" s="1">
+        <v>2720</v>
+      </c>
+      <c r="B2722" s="1">
+        <v>1920000</v>
+      </c>
+      <c r="C2722" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2722" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2722" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2722" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2722" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2722" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2722" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2723" s="1">
+        <v>2721</v>
+      </c>
+      <c r="B2723" s="1">
+        <v>1921000</v>
+      </c>
+      <c r="C2723" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2723" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2723" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2723" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2723" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2723" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2723" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2724" s="1">
+        <v>2722</v>
+      </c>
+      <c r="B2724" s="1">
+        <v>1922000</v>
+      </c>
+      <c r="C2724" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2724" s="1">
+        <v>64820000</v>
+      </c>
+      <c r="E2724" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2724" s="4">
+        <f t="shared" si="302"/>
+        <v>64920000</v>
+      </c>
+      <c r="G2724" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2724" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2724" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2725" s="1">
+        <v>2723</v>
+      </c>
+      <c r="B2725" s="1">
+        <v>1923000</v>
+      </c>
+      <c r="C2725" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2725" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2725" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2725" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2725" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2725" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2725" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2726" s="1">
+        <v>2724</v>
+      </c>
+      <c r="B2726" s="1">
+        <v>1924000</v>
+      </c>
+      <c r="C2726" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2726" s="1">
+        <v>64880000</v>
+      </c>
+      <c r="E2726" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2726" s="4">
+        <f t="shared" si="302"/>
+        <v>64980000</v>
+      </c>
+      <c r="G2726" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2726" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2726" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2727" s="1">
+        <v>2725</v>
+      </c>
+      <c r="B2727" s="1">
+        <v>1925000</v>
+      </c>
+      <c r="C2727" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2727" s="1">
+        <v>64910000</v>
+      </c>
+      <c r="E2727" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2727" s="4">
+        <f t="shared" si="302"/>
+        <v>65010000</v>
+      </c>
+      <c r="G2727" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2727" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2727" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2728" s="1">
+        <v>2726</v>
+      </c>
+      <c r="B2728" s="1">
+        <v>1926000</v>
+      </c>
+      <c r="C2728" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2728" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2728" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2728" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2728" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2728" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2728" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2729" s="1">
+        <v>2727</v>
+      </c>
+      <c r="B2729" s="1">
+        <v>1927000</v>
+      </c>
+      <c r="C2729" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2729" s="1">
+        <v>64970000</v>
+      </c>
+      <c r="E2729" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2729" s="4">
+        <f t="shared" si="302"/>
+        <v>65070000</v>
+      </c>
+      <c r="G2729" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2729" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2729" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2730" s="1">
+        <v>2728</v>
+      </c>
+      <c r="B2730" s="1">
+        <v>1928000</v>
+      </c>
+      <c r="C2730" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2730" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2730" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2730" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2730" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2730" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2730" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2731" s="1">
+        <v>2729</v>
+      </c>
+      <c r="B2731" s="1">
+        <v>1929000</v>
+      </c>
+      <c r="C2731" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2731" s="1">
+        <v>65030000</v>
+      </c>
+      <c r="E2731" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2731" s="4">
+        <f t="shared" si="302"/>
+        <v>65130000</v>
+      </c>
+      <c r="G2731" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2731" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2731" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2732" s="1">
+        <v>2730</v>
+      </c>
+      <c r="B2732" s="1">
+        <v>1930000</v>
+      </c>
+      <c r="C2732" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2732" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2732" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2732" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2732" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2732" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2732" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2733" s="1">
+        <v>2731</v>
+      </c>
+      <c r="B2733" s="1">
+        <v>1931000</v>
+      </c>
+      <c r="C2733" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2733" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2733" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2733" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2733" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2733" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2733" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2734" s="1">
+        <v>2732</v>
+      </c>
+      <c r="B2734" s="1">
+        <v>1932000</v>
+      </c>
+      <c r="C2734" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2734" s="1">
+        <v>65120000</v>
+      </c>
+      <c r="E2734" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2734" s="4">
+        <f t="shared" si="302"/>
+        <v>65220000</v>
+      </c>
+      <c r="G2734" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2734" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2734" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2735" s="1">
+        <v>2733</v>
+      </c>
+      <c r="B2735" s="1">
+        <v>1933000</v>
+      </c>
+      <c r="C2735" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2735" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2735" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2735" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2735" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2735" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2735" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2736" s="1">
+        <v>2734</v>
+      </c>
+      <c r="B2736" s="1">
+        <v>1934000</v>
+      </c>
+      <c r="C2736" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2736" s="1">
+        <v>65180000</v>
+      </c>
+      <c r="E2736" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2736" s="4">
+        <f t="shared" si="302"/>
+        <v>65280000</v>
+      </c>
+      <c r="G2736" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2736" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2736" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2737" s="1">
+        <v>2735</v>
+      </c>
+      <c r="B2737" s="1">
+        <v>1935000</v>
+      </c>
+      <c r="C2737" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2737" s="1">
+        <v>65210000</v>
+      </c>
+      <c r="E2737" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2737" s="4">
+        <f t="shared" si="302"/>
+        <v>65310000</v>
+      </c>
+      <c r="G2737" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2737" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2737" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2738" s="1">
+        <v>2736</v>
+      </c>
+      <c r="B2738" s="1">
+        <v>1936000</v>
+      </c>
+      <c r="C2738" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2738" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2738" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2738" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2738" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2738" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2738" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2739" s="1">
+        <v>2737</v>
+      </c>
+      <c r="B2739" s="1">
+        <v>1937000</v>
+      </c>
+      <c r="C2739" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2739" s="1">
+        <v>65270000</v>
+      </c>
+      <c r="E2739" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2739" s="4">
+        <f t="shared" si="302"/>
+        <v>65370000</v>
+      </c>
+      <c r="G2739" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2739" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2739" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2740" s="1">
+        <v>2738</v>
+      </c>
+      <c r="B2740" s="1">
+        <v>1938000</v>
+      </c>
+      <c r="C2740" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2740" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2740" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2740" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2740" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2740" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2740" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2741" s="1">
+        <v>2739</v>
+      </c>
+      <c r="B2741" s="1">
+        <v>1939000</v>
+      </c>
+      <c r="C2741" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2741" s="1">
+        <v>65330000</v>
+      </c>
+      <c r="E2741" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2741" s="4">
+        <f t="shared" si="302"/>
+        <v>65430000</v>
+      </c>
+      <c r="G2741" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2741" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2741" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2742" s="1">
+        <v>2740</v>
+      </c>
+      <c r="B2742" s="1">
+        <v>1940000</v>
+      </c>
+      <c r="C2742" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2742" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2742" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2742" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2742" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2742" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2742" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2743" s="1">
+        <v>2741</v>
+      </c>
+      <c r="B2743" s="1">
+        <v>1941000</v>
+      </c>
+      <c r="C2743" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2743" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2743" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2743" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2743" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2743" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2743" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2744" s="1">
+        <v>2742</v>
+      </c>
+      <c r="B2744" s="1">
+        <v>1942000</v>
+      </c>
+      <c r="C2744" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2744" s="1">
+        <v>65420000</v>
+      </c>
+      <c r="E2744" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2744" s="4">
+        <f t="shared" si="302"/>
+        <v>65520000</v>
+      </c>
+      <c r="G2744" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2744" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2744" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2745" s="1">
+        <v>2743</v>
+      </c>
+      <c r="B2745" s="1">
+        <v>1943000</v>
+      </c>
+      <c r="C2745" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2745" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2745" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2745" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2745" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2745" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2745" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2746" s="1">
+        <v>2744</v>
+      </c>
+      <c r="B2746" s="1">
+        <v>1944000</v>
+      </c>
+      <c r="C2746" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2746" s="1">
+        <v>65480000</v>
+      </c>
+      <c r="E2746" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2746" s="4">
+        <f t="shared" si="302"/>
+        <v>65580000</v>
+      </c>
+      <c r="G2746" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2746" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2746" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2747" s="1">
+        <v>2745</v>
+      </c>
+      <c r="B2747" s="1">
+        <v>1945000</v>
+      </c>
+      <c r="C2747" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2747" s="1">
+        <v>65510000</v>
+      </c>
+      <c r="E2747" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2747" s="4">
+        <f t="shared" si="302"/>
+        <v>65610000</v>
+      </c>
+      <c r="G2747" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2747" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2747" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2748" s="1">
+        <v>2746</v>
+      </c>
+      <c r="B2748" s="1">
+        <v>1946000</v>
+      </c>
+      <c r="C2748" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2748" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2748" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2748" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2748" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2748" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2748" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2749" s="1">
+        <v>2747</v>
+      </c>
+      <c r="B2749" s="1">
+        <v>1947000</v>
+      </c>
+      <c r="C2749" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2749" s="1">
+        <v>65570000</v>
+      </c>
+      <c r="E2749" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2749" s="4">
+        <f t="shared" si="302"/>
+        <v>65670000</v>
+      </c>
+      <c r="G2749" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2749" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2749" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2750" s="1">
+        <v>2748</v>
+      </c>
+      <c r="B2750" s="1">
+        <v>1948000</v>
+      </c>
+      <c r="C2750" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2750" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2750" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2750" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2750" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2750" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2750" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2751" s="1">
+        <v>2749</v>
+      </c>
+      <c r="B2751" s="1">
+        <v>1949000</v>
+      </c>
+      <c r="C2751" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2751" s="1">
+        <v>65630000</v>
+      </c>
+      <c r="E2751" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2751" s="4">
+        <f t="shared" si="302"/>
+        <v>65730000</v>
+      </c>
+      <c r="G2751" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2751" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2751" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2752" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B2752" s="1">
+        <v>1950000</v>
+      </c>
+      <c r="C2752" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2752" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2752" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2752" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2752" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2752" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2752" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2753" s="1">
+        <v>2751</v>
+      </c>
+      <c r="B2753" s="1">
+        <v>1951000</v>
+      </c>
+      <c r="C2753" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2753" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2753" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2753" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2753" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2753" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2753" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2754" s="1">
+        <v>2752</v>
+      </c>
+      <c r="B2754" s="1">
+        <v>1952000</v>
+      </c>
+      <c r="C2754" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2754" s="1">
+        <v>65720000</v>
+      </c>
+      <c r="E2754" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2754" s="4">
+        <f t="shared" si="302"/>
+        <v>65820000</v>
+      </c>
+      <c r="G2754" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2754" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2754" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2755" s="1">
+        <v>2753</v>
+      </c>
+      <c r="B2755" s="1">
+        <v>1953000</v>
+      </c>
+      <c r="C2755" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2755" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2755" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2755" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2755" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2755" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2755" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2756" s="1">
+        <v>2754</v>
+      </c>
+      <c r="B2756" s="1">
+        <v>1954000</v>
+      </c>
+      <c r="C2756" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2756" s="1">
+        <v>65780000</v>
+      </c>
+      <c r="E2756" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2756" s="4">
+        <f t="shared" si="302"/>
+        <v>65880000</v>
+      </c>
+      <c r="G2756" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2756" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2756" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2757" s="1">
+        <v>2755</v>
+      </c>
+      <c r="B2757" s="1">
+        <v>1955000</v>
+      </c>
+      <c r="C2757" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2757" s="1">
+        <v>65810000</v>
+      </c>
+      <c r="E2757" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2757" s="4">
+        <f t="shared" si="302"/>
+        <v>65910000</v>
+      </c>
+      <c r="G2757" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2757" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2757" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2758" s="1">
+        <v>2756</v>
+      </c>
+      <c r="B2758" s="1">
+        <v>1956000</v>
+      </c>
+      <c r="C2758" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2758" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2758" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2758" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2758" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2758" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2758" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2759" s="1">
+        <v>2757</v>
+      </c>
+      <c r="B2759" s="1">
+        <v>1957000</v>
+      </c>
+      <c r="C2759" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2759" s="1">
+        <v>65870000</v>
+      </c>
+      <c r="E2759" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2759" s="4">
+        <f t="shared" si="302"/>
+        <v>65970000</v>
+      </c>
+      <c r="G2759" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2759" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2759" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2760" s="1">
+        <v>2758</v>
+      </c>
+      <c r="B2760" s="1">
+        <v>1958000</v>
+      </c>
+      <c r="C2760" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2760" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2760" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2760" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2760" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2760" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2760" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2761" s="1">
+        <v>2759</v>
+      </c>
+      <c r="B2761" s="1">
+        <v>1959000</v>
+      </c>
+      <c r="C2761" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2761" s="1">
+        <v>65930000</v>
+      </c>
+      <c r="E2761" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2761" s="4">
+        <f t="shared" si="302"/>
+        <v>66030000</v>
+      </c>
+      <c r="G2761" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2761" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2761" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2762" s="1">
+        <v>2760</v>
+      </c>
+      <c r="B2762" s="1">
+        <v>1960000</v>
+      </c>
+      <c r="C2762" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2762" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2762" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2762" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2762" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2762" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2762" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2763" s="1">
+        <v>2761</v>
+      </c>
+      <c r="B2763" s="1">
+        <v>1961000</v>
+      </c>
+      <c r="C2763" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2763" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2763" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2763" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2763" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2763" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2763" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2764" s="1">
+        <v>2762</v>
+      </c>
+      <c r="B2764" s="1">
+        <v>1962000</v>
+      </c>
+      <c r="C2764" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2764" s="1">
+        <v>66020000</v>
+      </c>
+      <c r="E2764" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2764" s="4">
+        <f t="shared" si="302"/>
+        <v>66120000</v>
+      </c>
+      <c r="G2764" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2764" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2764" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2765" s="1">
+        <v>2763</v>
+      </c>
+      <c r="B2765" s="1">
+        <v>1963000</v>
+      </c>
+      <c r="C2765" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2765" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2765" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2765" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2765" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2765" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2765" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2766" s="1">
+        <v>2764</v>
+      </c>
+      <c r="B2766" s="1">
+        <v>1964000</v>
+      </c>
+      <c r="C2766" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2766" s="1">
+        <v>66080000</v>
+      </c>
+      <c r="E2766" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2766" s="4">
+        <f t="shared" ref="F2765:F2802" si="303">D2766+100000</f>
+        <v>66180000</v>
+      </c>
+      <c r="G2766" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2766" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2766" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2767" s="1">
+        <v>2765</v>
+      </c>
+      <c r="B2767" s="1">
+        <v>1965000</v>
+      </c>
+      <c r="C2767" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2767" s="1">
+        <v>66110000</v>
+      </c>
+      <c r="E2767" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2767" s="4">
+        <f t="shared" si="303"/>
+        <v>66210000</v>
+      </c>
+      <c r="G2767" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2767" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2767" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2768" s="1">
+        <v>2766</v>
+      </c>
+      <c r="B2768" s="1">
+        <v>1966000</v>
+      </c>
+      <c r="C2768" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2768" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2768" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2768" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2768" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2768" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2768" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2769" s="1">
+        <v>2767</v>
+      </c>
+      <c r="B2769" s="1">
+        <v>1967000</v>
+      </c>
+      <c r="C2769" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2769" s="1">
+        <v>66170000</v>
+      </c>
+      <c r="E2769" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2769" s="4">
+        <f t="shared" si="303"/>
+        <v>66270000</v>
+      </c>
+      <c r="G2769" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2769" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2769" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2770" s="1">
+        <v>2768</v>
+      </c>
+      <c r="B2770" s="1">
+        <v>1968000</v>
+      </c>
+      <c r="C2770" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2770" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2770" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2770" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2770" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2770" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2770" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2771" s="1">
+        <v>2769</v>
+      </c>
+      <c r="B2771" s="1">
+        <v>1969000</v>
+      </c>
+      <c r="C2771" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2771" s="1">
+        <v>66230000</v>
+      </c>
+      <c r="E2771" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2771" s="4">
+        <f t="shared" si="303"/>
+        <v>66330000</v>
+      </c>
+      <c r="G2771" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2771" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2771" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2772" s="1">
+        <v>2770</v>
+      </c>
+      <c r="B2772" s="1">
+        <v>1970000</v>
+      </c>
+      <c r="C2772" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2772" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2772" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2772" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2772" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2772" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2772" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2773" s="1">
+        <v>2771</v>
+      </c>
+      <c r="B2773" s="1">
+        <v>1971000</v>
+      </c>
+      <c r="C2773" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2773" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2773" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2773" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2773" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2773" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2773" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2774" s="1">
+        <v>2772</v>
+      </c>
+      <c r="B2774" s="1">
+        <v>1972000</v>
+      </c>
+      <c r="C2774" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2774" s="1">
+        <v>66320000</v>
+      </c>
+      <c r="E2774" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2774" s="4">
+        <f t="shared" si="303"/>
+        <v>66420000</v>
+      </c>
+      <c r="G2774" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2774" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2774" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2775" s="1">
+        <v>2773</v>
+      </c>
+      <c r="B2775" s="1">
+        <v>1973000</v>
+      </c>
+      <c r="C2775" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2775" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2775" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2775" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2775" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2775" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2775" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2776" s="1">
+        <v>2774</v>
+      </c>
+      <c r="B2776" s="1">
+        <v>1974000</v>
+      </c>
+      <c r="C2776" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2776" s="1">
+        <v>66380000</v>
+      </c>
+      <c r="E2776" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2776" s="4">
+        <f t="shared" si="303"/>
+        <v>66480000</v>
+      </c>
+      <c r="G2776" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2776" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2776" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2777" s="1">
+        <v>2775</v>
+      </c>
+      <c r="B2777" s="1">
+        <v>1975000</v>
+      </c>
+      <c r="C2777" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2777" s="1">
+        <v>66410000</v>
+      </c>
+      <c r="E2777" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2777" s="4">
+        <f t="shared" si="303"/>
+        <v>66510000</v>
+      </c>
+      <c r="G2777" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2777" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2777" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2778" s="1">
+        <v>2776</v>
+      </c>
+      <c r="B2778" s="1">
+        <v>1976000</v>
+      </c>
+      <c r="C2778" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2778" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2778" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2778" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2778" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2778" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2778" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2779" s="1">
+        <v>2777</v>
+      </c>
+      <c r="B2779" s="1">
+        <v>1977000</v>
+      </c>
+      <c r="C2779" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2779" s="1">
+        <v>66470000</v>
+      </c>
+      <c r="E2779" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2779" s="4">
+        <f t="shared" si="303"/>
+        <v>66570000</v>
+      </c>
+      <c r="G2779" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2779" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2779" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2780" s="1">
+        <v>2778</v>
+      </c>
+      <c r="B2780" s="1">
+        <v>1978000</v>
+      </c>
+      <c r="C2780" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2780" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2780" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2780" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2780" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2780" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2780" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2781" s="1">
+        <v>2779</v>
+      </c>
+      <c r="B2781" s="1">
+        <v>1979000</v>
+      </c>
+      <c r="C2781" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2781" s="1">
+        <v>66530000</v>
+      </c>
+      <c r="E2781" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2781" s="4">
+        <f t="shared" si="303"/>
+        <v>66630000</v>
+      </c>
+      <c r="G2781" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2781" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2781" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2782" s="1">
+        <v>2780</v>
+      </c>
+      <c r="B2782" s="1">
+        <v>1980000</v>
+      </c>
+      <c r="C2782" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2782" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2782" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2782" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2782" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2782" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2782" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2783" s="1">
+        <v>2781</v>
+      </c>
+      <c r="B2783" s="1">
+        <v>1981000</v>
+      </c>
+      <c r="C2783" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2783" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2783" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2783" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2783" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2783" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2783" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2784" s="1">
+        <v>2782</v>
+      </c>
+      <c r="B2784" s="1">
+        <v>1982000</v>
+      </c>
+      <c r="C2784" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2784" s="1">
+        <v>66620000</v>
+      </c>
+      <c r="E2784" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2784" s="4">
+        <f t="shared" si="303"/>
+        <v>66720000</v>
+      </c>
+      <c r="G2784" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2784" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2784" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2785" s="1">
+        <v>2783</v>
+      </c>
+      <c r="B2785" s="1">
+        <v>1983000</v>
+      </c>
+      <c r="C2785" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2785" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2785" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2785" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2785" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2785" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2785" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2786" s="1">
+        <v>2784</v>
+      </c>
+      <c r="B2786" s="1">
+        <v>1984000</v>
+      </c>
+      <c r="C2786" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2786" s="1">
+        <v>66680000</v>
+      </c>
+      <c r="E2786" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2786" s="4">
+        <f t="shared" si="303"/>
+        <v>66780000</v>
+      </c>
+      <c r="G2786" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2786" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2786" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2787" s="1">
+        <v>2785</v>
+      </c>
+      <c r="B2787" s="1">
+        <v>1985000</v>
+      </c>
+      <c r="C2787" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2787" s="1">
+        <v>66710000</v>
+      </c>
+      <c r="E2787" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2787" s="4">
+        <f t="shared" si="303"/>
+        <v>66810000</v>
+      </c>
+      <c r="G2787" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2787" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2787" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2788" s="1">
+        <v>2786</v>
+      </c>
+      <c r="B2788" s="1">
+        <v>1986000</v>
+      </c>
+      <c r="C2788" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2788" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2788" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2788" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2788" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2788" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2788" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2789" s="1">
+        <v>2787</v>
+      </c>
+      <c r="B2789" s="1">
+        <v>1987000</v>
+      </c>
+      <c r="C2789" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2789" s="1">
+        <v>66770000</v>
+      </c>
+      <c r="E2789" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2789" s="4">
+        <f t="shared" si="303"/>
+        <v>66870000</v>
+      </c>
+      <c r="G2789" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2789" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2789" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2790" s="1">
+        <v>2788</v>
+      </c>
+      <c r="B2790" s="1">
+        <v>1988000</v>
+      </c>
+      <c r="C2790" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2790" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2790" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2790" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2790" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2790" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2790" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2791" s="1">
+        <v>2789</v>
+      </c>
+      <c r="B2791" s="1">
+        <v>1989000</v>
+      </c>
+      <c r="C2791" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2791" s="1">
+        <v>66830000</v>
+      </c>
+      <c r="E2791" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2791" s="4">
+        <f t="shared" si="303"/>
+        <v>66930000</v>
+      </c>
+      <c r="G2791" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2791" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2791" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2792" s="1">
+        <v>2790</v>
+      </c>
+      <c r="B2792" s="1">
+        <v>1990000</v>
+      </c>
+      <c r="C2792" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2792" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2792" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2792" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2792" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2792" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2792" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2793" s="1">
+        <v>2791</v>
+      </c>
+      <c r="B2793" s="1">
+        <v>1991000</v>
+      </c>
+      <c r="C2793" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2793" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2793" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2793" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2793" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2793" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2793" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2794" s="1">
+        <v>2792</v>
+      </c>
+      <c r="B2794" s="1">
+        <v>1992000</v>
+      </c>
+      <c r="C2794" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2794" s="1">
+        <v>66920000</v>
+      </c>
+      <c r="E2794" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2794" s="4">
+        <f t="shared" si="303"/>
+        <v>67020000</v>
+      </c>
+      <c r="G2794" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2794" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2794" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2795" s="1">
+        <v>2793</v>
+      </c>
+      <c r="B2795" s="1">
+        <v>1993000</v>
+      </c>
+      <c r="C2795" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2795" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2795" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2795" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2795" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2795" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2795" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2796" s="1">
+        <v>2794</v>
+      </c>
+      <c r="B2796" s="1">
+        <v>1994000</v>
+      </c>
+      <c r="C2796" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2796" s="1">
+        <v>66980000</v>
+      </c>
+      <c r="E2796" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2796" s="4">
+        <f t="shared" si="303"/>
+        <v>67080000</v>
+      </c>
+      <c r="G2796" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2796" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2796" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2797" s="1">
+        <v>2795</v>
+      </c>
+      <c r="B2797" s="1">
+        <v>1995000</v>
+      </c>
+      <c r="C2797" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2797" s="1">
+        <v>67010000</v>
+      </c>
+      <c r="E2797" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2797" s="4">
+        <f t="shared" si="303"/>
+        <v>67110000</v>
+      </c>
+      <c r="G2797" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2797" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2797" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2798" s="1">
+        <v>2796</v>
+      </c>
+      <c r="B2798" s="1">
+        <v>1996000</v>
+      </c>
+      <c r="C2798" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2798" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E2798" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2798" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G2798" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2798" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2798" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2799" s="1">
+        <v>2797</v>
+      </c>
+      <c r="B2799" s="1">
+        <v>1997000</v>
+      </c>
+      <c r="C2799" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2799" s="1">
+        <v>67070000</v>
+      </c>
+      <c r="E2799" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2799" s="4">
+        <f t="shared" si="303"/>
+        <v>67170000</v>
+      </c>
+      <c r="G2799" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2799" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2799" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2800" s="1">
+        <v>2798</v>
+      </c>
+      <c r="B2800" s="1">
+        <v>1998000</v>
+      </c>
+      <c r="C2800" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2800" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2800" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2800" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G2800" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2800" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2800" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2801" s="1">
+        <v>2799</v>
+      </c>
+      <c r="B2801" s="1">
+        <v>1999000</v>
+      </c>
+      <c r="C2801" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2801" s="1">
+        <v>67130000</v>
+      </c>
+      <c r="E2801" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2801" s="4">
+        <f t="shared" si="303"/>
+        <v>67230000</v>
+      </c>
+      <c r="G2801" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2801" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2801" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2802" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B2802" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C2802" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2802" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2802" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2802" s="1">
+        <v>130</v>
+      </c>
+      <c r="G2802" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2802" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2802" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5E97D-1E55-4E79-ABB8-8DF1E486CAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D447D61-032D-497A-9480-BA6DB99EFB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -205,6 +205,13 @@
   </si>
   <si>
     <t>levelpass23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass24</t>
+  </si>
+  <si>
+    <t>levelpass24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J2802"/>
+  <dimension ref="A1:J2902"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2777" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2797" sqref="E2797"/>
+      <pane ySplit="1" topLeftCell="A2876" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2897" sqref="L2897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -82477,7 +82484,7 @@
         <v>1</v>
       </c>
       <c r="F2766" s="4">
-        <f t="shared" ref="F2765:F2802" si="303">D2766+100000</f>
+        <f t="shared" ref="F2766:F2801" si="303">D2766+100000</f>
         <v>66180000</v>
       </c>
       <c r="G2766" s="1">
@@ -83549,6 +83556,2956 @@
         <v>47</v>
       </c>
       <c r="I2802" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2803" s="3">
+        <v>2801</v>
+      </c>
+      <c r="B2803" s="1">
+        <v>2001000</v>
+      </c>
+      <c r="C2803" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2803" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2803" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2803" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2803" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2803" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2803" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2804" s="1">
+        <v>2802</v>
+      </c>
+      <c r="B2804" s="1">
+        <v>2002000</v>
+      </c>
+      <c r="C2804" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2804" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2804" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2804" s="4">
+        <f>D2804+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2804" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2804" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2804" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2805" s="1">
+        <v>2803</v>
+      </c>
+      <c r="B2805" s="1">
+        <v>2003000</v>
+      </c>
+      <c r="C2805" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2805" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2805" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2805" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2805" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2805" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2805" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2806" s="1">
+        <v>2804</v>
+      </c>
+      <c r="B2806" s="1">
+        <v>2004000</v>
+      </c>
+      <c r="C2806" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2806" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2806" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2806" s="4">
+        <f>D2806+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2806" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2806" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2806" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2807" s="1">
+        <v>2805</v>
+      </c>
+      <c r="B2807" s="1">
+        <v>2005000</v>
+      </c>
+      <c r="C2807" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2807" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2807" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2807" s="4">
+        <f>D2807+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2807" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2807" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2807" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2808" s="1">
+        <v>2806</v>
+      </c>
+      <c r="B2808" s="1">
+        <v>2006000</v>
+      </c>
+      <c r="C2808" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2808" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2808" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2808" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2808" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2808" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2808" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2809" s="1">
+        <v>2807</v>
+      </c>
+      <c r="B2809" s="1">
+        <v>2007000</v>
+      </c>
+      <c r="C2809" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2809" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2809" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2809" s="4">
+        <f t="shared" ref="F2809:F2811" si="304">D2809+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2809" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2809" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2809" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2810" s="1">
+        <v>2808</v>
+      </c>
+      <c r="B2810" s="1">
+        <v>2008000</v>
+      </c>
+      <c r="C2810" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2810" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2810" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2810" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2810" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2810" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2810" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2811" s="1">
+        <v>2809</v>
+      </c>
+      <c r="B2811" s="1">
+        <v>2009000</v>
+      </c>
+      <c r="C2811" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2811" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2811" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2811" s="4">
+        <f t="shared" si="304"/>
+        <v>67539000</v>
+      </c>
+      <c r="G2811" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2811" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2811" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2812" s="1">
+        <v>2810</v>
+      </c>
+      <c r="B2812" s="1">
+        <v>2010000</v>
+      </c>
+      <c r="C2812" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2812" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2812" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2812" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2812" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2812" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2812" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2813" s="1">
+        <v>2811</v>
+      </c>
+      <c r="B2813" s="1">
+        <v>2011000</v>
+      </c>
+      <c r="C2813" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2813" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2813" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2813" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2813" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2813" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2813" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2814" s="1">
+        <v>2812</v>
+      </c>
+      <c r="B2814" s="1">
+        <v>2012000</v>
+      </c>
+      <c r="C2814" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2814" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2814" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2814" s="4">
+        <f>D2814+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2814" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2814" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2814" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2815" s="1">
+        <v>2813</v>
+      </c>
+      <c r="B2815" s="1">
+        <v>2013000</v>
+      </c>
+      <c r="C2815" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2815" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2815" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2815" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2815" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2815" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2815" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2816" s="1">
+        <v>2814</v>
+      </c>
+      <c r="B2816" s="1">
+        <v>2014000</v>
+      </c>
+      <c r="C2816" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2816" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2816" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2816" s="4">
+        <f>D2816+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2816" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2816" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2816" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2817" s="1">
+        <v>2815</v>
+      </c>
+      <c r="B2817" s="1">
+        <v>2015000</v>
+      </c>
+      <c r="C2817" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2817" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2817" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2817" s="4">
+        <f>D2817+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2817" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2817" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2817" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2818" s="1">
+        <v>2816</v>
+      </c>
+      <c r="B2818" s="1">
+        <v>2016000</v>
+      </c>
+      <c r="C2818" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2818" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2818" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2818" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2818" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2818" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2818" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2819" s="1">
+        <v>2817</v>
+      </c>
+      <c r="B2819" s="1">
+        <v>2017000</v>
+      </c>
+      <c r="C2819" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2819" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2819" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2819" s="4">
+        <f t="shared" ref="F2819" si="305">D2819+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2819" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2819" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2819" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2820" s="1">
+        <v>2818</v>
+      </c>
+      <c r="B2820" s="1">
+        <v>2018000</v>
+      </c>
+      <c r="C2820" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2820" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2820" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2820" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2820" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2820" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2820" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2821" s="1">
+        <v>2819</v>
+      </c>
+      <c r="B2821" s="1">
+        <v>2019000</v>
+      </c>
+      <c r="C2821" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2821" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2821" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2821" s="4">
+        <f t="shared" ref="F2821" si="306">D2821+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2821" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2821" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2821" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2822" s="1">
+        <v>2820</v>
+      </c>
+      <c r="B2822" s="1">
+        <v>2020000</v>
+      </c>
+      <c r="C2822" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2822" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2822" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2822" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2822" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2822" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2822" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2823" s="1">
+        <v>2821</v>
+      </c>
+      <c r="B2823" s="1">
+        <v>2021000</v>
+      </c>
+      <c r="C2823" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2823" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2823" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2823" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2823" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2823" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2823" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2824" s="1">
+        <v>2822</v>
+      </c>
+      <c r="B2824" s="1">
+        <v>2022000</v>
+      </c>
+      <c r="C2824" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2824" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2824" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2824" s="4">
+        <f>D2824+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2824" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2824" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2824" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2825" s="1">
+        <v>2823</v>
+      </c>
+      <c r="B2825" s="1">
+        <v>2023000</v>
+      </c>
+      <c r="C2825" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2825" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2825" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2825" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2825" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2825" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2825" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2826" s="1">
+        <v>2824</v>
+      </c>
+      <c r="B2826" s="1">
+        <v>2024000</v>
+      </c>
+      <c r="C2826" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2826" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2826" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2826" s="4">
+        <f>D2826+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2826" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2826" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2826" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2827" s="1">
+        <v>2825</v>
+      </c>
+      <c r="B2827" s="1">
+        <v>2025000</v>
+      </c>
+      <c r="C2827" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2827" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2827" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2827" s="4">
+        <f>D2827+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2827" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2827" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2827" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2828" s="1">
+        <v>2826</v>
+      </c>
+      <c r="B2828" s="1">
+        <v>2026000</v>
+      </c>
+      <c r="C2828" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2828" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2828" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2828" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2828" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2828" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2828" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2829" s="1">
+        <v>2827</v>
+      </c>
+      <c r="B2829" s="1">
+        <v>2027000</v>
+      </c>
+      <c r="C2829" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2829" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2829" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2829" s="4">
+        <f t="shared" ref="F2829" si="307">D2829+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2829" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2829" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2829" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2830" s="1">
+        <v>2828</v>
+      </c>
+      <c r="B2830" s="1">
+        <v>2028000</v>
+      </c>
+      <c r="C2830" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2830" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2830" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2830" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2830" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2830" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2830" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2831" s="1">
+        <v>2829</v>
+      </c>
+      <c r="B2831" s="1">
+        <v>2029000</v>
+      </c>
+      <c r="C2831" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2831" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2831" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2831" s="4">
+        <f t="shared" ref="F2831" si="308">D2831+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2831" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2831" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2831" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2832" s="1">
+        <v>2830</v>
+      </c>
+      <c r="B2832" s="1">
+        <v>2030000</v>
+      </c>
+      <c r="C2832" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2832" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2832" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2832" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2832" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2832" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2832" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2833" s="1">
+        <v>2831</v>
+      </c>
+      <c r="B2833" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="C2833" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2833" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2833" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2833" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2833" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2833" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2833" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2834" s="1">
+        <v>2832</v>
+      </c>
+      <c r="B2834" s="1">
+        <v>2032000</v>
+      </c>
+      <c r="C2834" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2834" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2834" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2834" s="4">
+        <f>D2834+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2834" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2834" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2834" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2835" s="1">
+        <v>2833</v>
+      </c>
+      <c r="B2835" s="1">
+        <v>2033000</v>
+      </c>
+      <c r="C2835" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2835" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2835" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2835" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2835" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2835" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2835" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2836" s="1">
+        <v>2834</v>
+      </c>
+      <c r="B2836" s="1">
+        <v>2034000</v>
+      </c>
+      <c r="C2836" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2836" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2836" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2836" s="4">
+        <f>D2836+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2836" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2836" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2836" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2837" s="1">
+        <v>2835</v>
+      </c>
+      <c r="B2837" s="1">
+        <v>2035000</v>
+      </c>
+      <c r="C2837" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2837" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2837" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2837" s="4">
+        <f>D2837+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2837" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2837" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2837" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2838" s="1">
+        <v>2836</v>
+      </c>
+      <c r="B2838" s="1">
+        <v>2036000</v>
+      </c>
+      <c r="C2838" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2838" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2838" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2838" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2838" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2838" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2838" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2839" s="1">
+        <v>2837</v>
+      </c>
+      <c r="B2839" s="1">
+        <v>2037000</v>
+      </c>
+      <c r="C2839" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2839" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2839" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2839" s="4">
+        <f t="shared" ref="F2839" si="309">D2839+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2839" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2839" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2839" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2840" s="1">
+        <v>2838</v>
+      </c>
+      <c r="B2840" s="1">
+        <v>2038000</v>
+      </c>
+      <c r="C2840" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2840" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2840" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2840" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2840" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2840" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2840" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2841" s="1">
+        <v>2839</v>
+      </c>
+      <c r="B2841" s="1">
+        <v>2039000</v>
+      </c>
+      <c r="C2841" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2841" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2841" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2841" s="4">
+        <f t="shared" ref="F2841" si="310">D2841+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2841" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2841" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2841" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2842" s="1">
+        <v>2840</v>
+      </c>
+      <c r="B2842" s="1">
+        <v>2040000</v>
+      </c>
+      <c r="C2842" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2842" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2842" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2842" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2842" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2842" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2842" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2843" s="1">
+        <v>2841</v>
+      </c>
+      <c r="B2843" s="1">
+        <v>2041000</v>
+      </c>
+      <c r="C2843" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2843" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2843" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2843" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2843" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2843" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2843" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2844" s="1">
+        <v>2842</v>
+      </c>
+      <c r="B2844" s="1">
+        <v>2042000</v>
+      </c>
+      <c r="C2844" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2844" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2844" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2844" s="4">
+        <f>D2844+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2844" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2844" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2844" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2845" s="1">
+        <v>2843</v>
+      </c>
+      <c r="B2845" s="1">
+        <v>2043000</v>
+      </c>
+      <c r="C2845" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2845" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2845" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2845" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2845" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2845" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2845" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2846" s="1">
+        <v>2844</v>
+      </c>
+      <c r="B2846" s="1">
+        <v>2044000</v>
+      </c>
+      <c r="C2846" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2846" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2846" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2846" s="4">
+        <f>D2846+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2846" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2846" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2846" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2847" s="1">
+        <v>2845</v>
+      </c>
+      <c r="B2847" s="1">
+        <v>2045000</v>
+      </c>
+      <c r="C2847" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2847" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2847" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2847" s="4">
+        <f>D2847+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2847" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2847" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2847" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2848" s="1">
+        <v>2846</v>
+      </c>
+      <c r="B2848" s="1">
+        <v>2046000</v>
+      </c>
+      <c r="C2848" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2848" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2848" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2848" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2848" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2848" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2848" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2849" s="1">
+        <v>2847</v>
+      </c>
+      <c r="B2849" s="1">
+        <v>2047000</v>
+      </c>
+      <c r="C2849" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2849" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2849" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2849" s="4">
+        <f t="shared" ref="F2849" si="311">D2849+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2849" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2849" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2849" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2850" s="1">
+        <v>2848</v>
+      </c>
+      <c r="B2850" s="1">
+        <v>2048000</v>
+      </c>
+      <c r="C2850" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2850" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2850" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2850" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2850" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2850" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2850" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2851" s="1">
+        <v>2849</v>
+      </c>
+      <c r="B2851" s="1">
+        <v>2049000</v>
+      </c>
+      <c r="C2851" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2851" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2851" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2851" s="4">
+        <f t="shared" ref="F2851" si="312">D2851+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2851" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2851" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2851" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2852" s="1">
+        <v>2850</v>
+      </c>
+      <c r="B2852" s="1">
+        <v>2050000</v>
+      </c>
+      <c r="C2852" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2852" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2852" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2852" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2852" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2852" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2852" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2853" s="1">
+        <v>2851</v>
+      </c>
+      <c r="B2853" s="1">
+        <v>2051000</v>
+      </c>
+      <c r="C2853" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2853" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2853" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2853" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2853" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2853" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2853" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2854" s="1">
+        <v>2852</v>
+      </c>
+      <c r="B2854" s="1">
+        <v>2052000</v>
+      </c>
+      <c r="C2854" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2854" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2854" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2854" s="4">
+        <f>D2854+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2854" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2854" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2854" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2855" s="1">
+        <v>2853</v>
+      </c>
+      <c r="B2855" s="1">
+        <v>2053000</v>
+      </c>
+      <c r="C2855" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2855" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2855" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2855" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2855" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2855" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2855" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2856" s="1">
+        <v>2854</v>
+      </c>
+      <c r="B2856" s="1">
+        <v>2054000</v>
+      </c>
+      <c r="C2856" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2856" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2856" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2856" s="4">
+        <f>D2856+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2856" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2856" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2856" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2857" s="1">
+        <v>2855</v>
+      </c>
+      <c r="B2857" s="1">
+        <v>2055000</v>
+      </c>
+      <c r="C2857" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2857" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2857" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2857" s="4">
+        <f>D2857+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2857" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2857" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2857" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2858" s="1">
+        <v>2856</v>
+      </c>
+      <c r="B2858" s="1">
+        <v>2056000</v>
+      </c>
+      <c r="C2858" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2858" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2858" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2858" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2858" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2858" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2858" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2859" s="1">
+        <v>2857</v>
+      </c>
+      <c r="B2859" s="1">
+        <v>2057000</v>
+      </c>
+      <c r="C2859" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2859" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2859" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2859" s="4">
+        <f t="shared" ref="F2859" si="313">D2859+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2859" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2859" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2859" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2860" s="1">
+        <v>2858</v>
+      </c>
+      <c r="B2860" s="1">
+        <v>2058000</v>
+      </c>
+      <c r="C2860" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2860" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2860" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2860" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2860" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2860" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2860" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2861" s="1">
+        <v>2859</v>
+      </c>
+      <c r="B2861" s="1">
+        <v>2059000</v>
+      </c>
+      <c r="C2861" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2861" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2861" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2861" s="4">
+        <f t="shared" ref="F2861" si="314">D2861+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2861" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2861" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2861" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2862" s="1">
+        <v>2860</v>
+      </c>
+      <c r="B2862" s="1">
+        <v>2060000</v>
+      </c>
+      <c r="C2862" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2862" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2862" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2862" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2862" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2862" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2862" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2863" s="1">
+        <v>2861</v>
+      </c>
+      <c r="B2863" s="1">
+        <v>2061000</v>
+      </c>
+      <c r="C2863" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2863" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2863" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2863" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2863" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2863" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2863" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2864" s="1">
+        <v>2862</v>
+      </c>
+      <c r="B2864" s="1">
+        <v>2062000</v>
+      </c>
+      <c r="C2864" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2864" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2864" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2864" s="4">
+        <f>D2864+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2864" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2864" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2864" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2865" s="1">
+        <v>2863</v>
+      </c>
+      <c r="B2865" s="1">
+        <v>2063000</v>
+      </c>
+      <c r="C2865" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2865" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2865" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2865" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2865" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2865" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2865" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2866" s="1">
+        <v>2864</v>
+      </c>
+      <c r="B2866" s="1">
+        <v>2064000</v>
+      </c>
+      <c r="C2866" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2866" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2866" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2866" s="4">
+        <f>D2866+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2866" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2866" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2866" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2867" s="1">
+        <v>2865</v>
+      </c>
+      <c r="B2867" s="1">
+        <v>2065000</v>
+      </c>
+      <c r="C2867" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2867" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2867" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2867" s="4">
+        <f>D2867+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2867" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2867" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2867" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2868" s="1">
+        <v>2866</v>
+      </c>
+      <c r="B2868" s="1">
+        <v>2066000</v>
+      </c>
+      <c r="C2868" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2868" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2868" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2868" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2868" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2868" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2868" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2869" s="1">
+        <v>2867</v>
+      </c>
+      <c r="B2869" s="1">
+        <v>2067000</v>
+      </c>
+      <c r="C2869" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2869" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2869" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2869" s="4">
+        <f t="shared" ref="F2869" si="315">D2869+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2869" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2869" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2869" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2870" s="1">
+        <v>2868</v>
+      </c>
+      <c r="B2870" s="1">
+        <v>2068000</v>
+      </c>
+      <c r="C2870" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2870" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2870" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2870" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2870" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2870" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2870" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2871" s="1">
+        <v>2869</v>
+      </c>
+      <c r="B2871" s="1">
+        <v>2069000</v>
+      </c>
+      <c r="C2871" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2871" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2871" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2871" s="4">
+        <f t="shared" ref="F2871" si="316">D2871+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2871" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2871" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2871" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2872" s="1">
+        <v>2870</v>
+      </c>
+      <c r="B2872" s="1">
+        <v>2070000</v>
+      </c>
+      <c r="C2872" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2872" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2872" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2872" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2872" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2872" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2872" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2873" s="1">
+        <v>2871</v>
+      </c>
+      <c r="B2873" s="1">
+        <v>2071000</v>
+      </c>
+      <c r="C2873" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2873" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2873" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2873" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2873" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2873" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2873" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2874" s="1">
+        <v>2872</v>
+      </c>
+      <c r="B2874" s="1">
+        <v>2072000</v>
+      </c>
+      <c r="C2874" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2874" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2874" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2874" s="4">
+        <f>D2874+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2874" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2874" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2874" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2875" s="1">
+        <v>2873</v>
+      </c>
+      <c r="B2875" s="1">
+        <v>2073000</v>
+      </c>
+      <c r="C2875" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2875" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2875" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2875" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2875" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2875" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2875" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2876" s="1">
+        <v>2874</v>
+      </c>
+      <c r="B2876" s="1">
+        <v>2074000</v>
+      </c>
+      <c r="C2876" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2876" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2876" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2876" s="4">
+        <f>D2876+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2876" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2876" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2876" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2877" s="1">
+        <v>2875</v>
+      </c>
+      <c r="B2877" s="1">
+        <v>2075000</v>
+      </c>
+      <c r="C2877" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2877" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2877" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2877" s="4">
+        <f>D2877+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2877" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2877" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2877" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2878" s="1">
+        <v>2876</v>
+      </c>
+      <c r="B2878" s="1">
+        <v>2076000</v>
+      </c>
+      <c r="C2878" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2878" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2878" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2878" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2878" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2878" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2878" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2879" s="1">
+        <v>2877</v>
+      </c>
+      <c r="B2879" s="1">
+        <v>2077000</v>
+      </c>
+      <c r="C2879" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2879" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2879" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2879" s="4">
+        <f t="shared" ref="F2879" si="317">D2879+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2879" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2879" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2879" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2880" s="1">
+        <v>2878</v>
+      </c>
+      <c r="B2880" s="1">
+        <v>2078000</v>
+      </c>
+      <c r="C2880" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2880" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2880" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2880" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2880" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2880" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2880" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2881" s="1">
+        <v>2879</v>
+      </c>
+      <c r="B2881" s="1">
+        <v>2079000</v>
+      </c>
+      <c r="C2881" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2881" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2881" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2881" s="4">
+        <f t="shared" ref="F2881" si="318">D2881+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2881" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2881" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2881" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2882" s="1">
+        <v>2880</v>
+      </c>
+      <c r="B2882" s="1">
+        <v>2080000</v>
+      </c>
+      <c r="C2882" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2882" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2882" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2882" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2882" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2882" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2882" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2883" s="1">
+        <v>2881</v>
+      </c>
+      <c r="B2883" s="1">
+        <v>2081000</v>
+      </c>
+      <c r="C2883" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2883" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2883" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2883" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2883" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2883" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2883" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2884" s="1">
+        <v>2882</v>
+      </c>
+      <c r="B2884" s="1">
+        <v>2082000</v>
+      </c>
+      <c r="C2884" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2884" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2884" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2884" s="4">
+        <f>D2884+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2884" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2884" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2884" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2885" s="1">
+        <v>2883</v>
+      </c>
+      <c r="B2885" s="1">
+        <v>2083000</v>
+      </c>
+      <c r="C2885" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2885" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2885" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2885" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2885" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2885" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2885" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2886" s="1">
+        <v>2884</v>
+      </c>
+      <c r="B2886" s="1">
+        <v>2084000</v>
+      </c>
+      <c r="C2886" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2886" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2886" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2886" s="4">
+        <f>D2886+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2886" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2886" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2886" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2887" s="1">
+        <v>2885</v>
+      </c>
+      <c r="B2887" s="1">
+        <v>2085000</v>
+      </c>
+      <c r="C2887" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2887" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2887" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2887" s="4">
+        <f>D2887+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2887" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2887" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2887" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2888" s="1">
+        <v>2886</v>
+      </c>
+      <c r="B2888" s="1">
+        <v>2086000</v>
+      </c>
+      <c r="C2888" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2888" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2888" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2888" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2888" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2888" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2888" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2889" s="1">
+        <v>2887</v>
+      </c>
+      <c r="B2889" s="1">
+        <v>2087000</v>
+      </c>
+      <c r="C2889" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2889" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2889" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2889" s="4">
+        <f t="shared" ref="F2889" si="319">D2889+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2889" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2889" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2889" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2890" s="1">
+        <v>2888</v>
+      </c>
+      <c r="B2890" s="1">
+        <v>2088000</v>
+      </c>
+      <c r="C2890" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2890" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2890" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2890" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2890" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2890" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2890" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2891" s="1">
+        <v>2889</v>
+      </c>
+      <c r="B2891" s="1">
+        <v>2089000</v>
+      </c>
+      <c r="C2891" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2891" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2891" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2891" s="4">
+        <f t="shared" ref="F2891" si="320">D2891+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2891" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2891" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2891" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2892" s="1">
+        <v>2890</v>
+      </c>
+      <c r="B2892" s="1">
+        <v>2090000</v>
+      </c>
+      <c r="C2892" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2892" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2892" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2892" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2892" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2892" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2892" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2893" s="1">
+        <v>2891</v>
+      </c>
+      <c r="B2893" s="1">
+        <v>2091000</v>
+      </c>
+      <c r="C2893" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2893" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2893" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2893" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2893" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2893" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2893" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2894" s="1">
+        <v>2892</v>
+      </c>
+      <c r="B2894" s="1">
+        <v>2092000</v>
+      </c>
+      <c r="C2894" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2894" s="1">
+        <v>67229000</v>
+      </c>
+      <c r="E2894" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2894" s="4">
+        <f>D2894+100000</f>
+        <v>67329000</v>
+      </c>
+      <c r="G2894" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2894" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2894" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2895" s="1">
+        <v>2893</v>
+      </c>
+      <c r="B2895" s="1">
+        <v>2093000</v>
+      </c>
+      <c r="C2895" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2895" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2895" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2895" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2895" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2895" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2895" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2896" s="1">
+        <v>2894</v>
+      </c>
+      <c r="B2896" s="1">
+        <v>2094000</v>
+      </c>
+      <c r="C2896" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2896" s="1">
+        <v>67289000</v>
+      </c>
+      <c r="E2896" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2896" s="4">
+        <f>D2896+100000</f>
+        <v>67389000</v>
+      </c>
+      <c r="G2896" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2896" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2896" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2897" s="1">
+        <v>2895</v>
+      </c>
+      <c r="B2897" s="1">
+        <v>2095000</v>
+      </c>
+      <c r="C2897" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2897" s="1">
+        <v>67319000</v>
+      </c>
+      <c r="E2897" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2897" s="4">
+        <f>D2897+100000</f>
+        <v>67419000</v>
+      </c>
+      <c r="G2897" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2897" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2897" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2898" s="1">
+        <v>2896</v>
+      </c>
+      <c r="B2898" s="1">
+        <v>2096000</v>
+      </c>
+      <c r="C2898" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2898" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E2898" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2898" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G2898" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2898" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2898" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2899" s="1">
+        <v>2897</v>
+      </c>
+      <c r="B2899" s="1">
+        <v>2097000</v>
+      </c>
+      <c r="C2899" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2899" s="1">
+        <v>67379000</v>
+      </c>
+      <c r="E2899" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2899" s="4">
+        <f t="shared" ref="F2899" si="321">D2899+100000</f>
+        <v>67479000</v>
+      </c>
+      <c r="G2899" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2899" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2899" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2900" s="1">
+        <v>2898</v>
+      </c>
+      <c r="B2900" s="1">
+        <v>2098000</v>
+      </c>
+      <c r="C2900" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2900" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2900" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2900" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G2900" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2900" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2900" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2901" s="1">
+        <v>2899</v>
+      </c>
+      <c r="B2901" s="1">
+        <v>2099000</v>
+      </c>
+      <c r="C2901" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2901" s="1">
+        <v>67439000</v>
+      </c>
+      <c r="E2901" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2901" s="4">
+        <f t="shared" ref="F2901" si="322">D2901+100000</f>
+        <v>67539000</v>
+      </c>
+      <c r="G2901" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2901" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2901" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2902" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B2902" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="C2902" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2902" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2902" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2902" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2902" s="1">
+        <v>23</v>
+      </c>
+      <c r="H2902" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2902" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D447D61-032D-497A-9480-BA6DB99EFB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C52232-04CD-45E6-9C22-71C1A7BD8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -212,6 +212,13 @@
   </si>
   <si>
     <t>levelpass24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass25</t>
+  </si>
+  <si>
+    <t>levelpass25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +398,44 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -701,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J2902"/>
+  <dimension ref="A1:J3002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2876" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2897" sqref="L2897"/>
+      <pane ySplit="1" topLeftCell="A2980" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2906" sqref="D2906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,6 +760,7 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -86503,15 +86548,3120 @@
         <v>23</v>
       </c>
       <c r="H2902" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2902" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2903" s="3">
+        <v>2901</v>
+      </c>
+      <c r="B2903" s="1">
+        <v>2101000</v>
+      </c>
+      <c r="C2903" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2903" s="1">
+        <f>IF($C2903=46,$G2903*100-900,IF(OR($C2903=1,$C2903=5),$A2903*30000-19531000,IF($C2903=20,$G2903*500-2500,IF($C2903=14,$G2903*10-90,0))))</f>
+        <v>1500</v>
+      </c>
+      <c r="E2903" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2903">
+        <f>IF($C2903=46,$G2903*100-900,IF(OR($C2903=1,$C2903=5),$A2903*30000-19531000,IF($C2903=20,$G2903*500-2500,IF($C2903=14,$G2903*10-90,0))))</f>
+        <v>1500</v>
+      </c>
+      <c r="G2903" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2903" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2903" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2904" s="1">
+        <v>2902</v>
+      </c>
+      <c r="B2904" s="1">
+        <v>2102000</v>
+      </c>
+      <c r="C2904" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2904" s="1">
+        <f t="shared" ref="D2904:D2967" si="323">IF($C2904=46,$G2904*100-900,IF(OR($C2904=1,$C2904=5),$A2904*30000-19531000,IF($C2904=20,$G2904*500-2500,IF($C2904=14,$G2904*10-90,0))))</f>
+        <v>67529000</v>
+      </c>
+      <c r="E2904" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2904">
+        <f t="shared" ref="F2904:F2967" si="324">IF($C2904=46,$G2904*100-900,IF(OR($C2904=1,$C2904=5),$A2904*30000-19531000,IF($C2904=20,$G2904*500-2500,IF($C2904=14,$G2904*10-90,0))))</f>
+        <v>67529000</v>
+      </c>
+      <c r="G2904" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2904" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2904" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2905" s="1">
+        <v>2903</v>
+      </c>
+      <c r="B2905" s="1">
+        <v>2103000</v>
+      </c>
+      <c r="C2905" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2905" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2905" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2905">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2905" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2905" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2905" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2906" s="1">
+        <v>2904</v>
+      </c>
+      <c r="B2906" s="1">
+        <v>2104000</v>
+      </c>
+      <c r="C2906" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2906" s="1">
+        <f t="shared" si="323"/>
+        <v>67589000</v>
+      </c>
+      <c r="E2906" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2906">
+        <f t="shared" si="324"/>
+        <v>67589000</v>
+      </c>
+      <c r="G2906" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2906" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2906" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2907" s="1">
+        <v>2905</v>
+      </c>
+      <c r="B2907" s="1">
+        <v>2105000</v>
+      </c>
+      <c r="C2907" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2907" s="1">
+        <f t="shared" si="323"/>
+        <v>67619000</v>
+      </c>
+      <c r="E2907" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2907">
+        <f t="shared" si="324"/>
+        <v>67619000</v>
+      </c>
+      <c r="G2907" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2907" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2907" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2908" s="1">
+        <v>2906</v>
+      </c>
+      <c r="B2908" s="1">
+        <v>2106000</v>
+      </c>
+      <c r="C2908" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2908" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2908" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2908">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2908" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2908" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2908" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2909" s="1">
+        <v>2907</v>
+      </c>
+      <c r="B2909" s="1">
+        <v>2107000</v>
+      </c>
+      <c r="C2909" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2909" s="1">
+        <f t="shared" si="323"/>
+        <v>67679000</v>
+      </c>
+      <c r="E2909" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2909">
+        <f t="shared" si="324"/>
+        <v>67679000</v>
+      </c>
+      <c r="G2909" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2909" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2909" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2910" s="1">
+        <v>2908</v>
+      </c>
+      <c r="B2910" s="1">
+        <v>2108000</v>
+      </c>
+      <c r="C2910" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2910" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2910" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2910">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2910" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2910" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2910" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2911" s="1">
+        <v>2909</v>
+      </c>
+      <c r="B2911" s="1">
+        <v>2109000</v>
+      </c>
+      <c r="C2911" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2911" s="1">
+        <f t="shared" si="323"/>
+        <v>67739000</v>
+      </c>
+      <c r="E2911" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2911">
+        <f t="shared" si="324"/>
+        <v>67739000</v>
+      </c>
+      <c r="G2911" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2911" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2911" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2912" s="1">
+        <v>2910</v>
+      </c>
+      <c r="B2912" s="1">
+        <v>2110000</v>
+      </c>
+      <c r="C2912" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2912" s="1">
+        <f t="shared" si="323"/>
+        <v>150</v>
+      </c>
+      <c r="E2912" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2912">
+        <f t="shared" si="324"/>
+        <v>150</v>
+      </c>
+      <c r="G2912" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2912" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2912" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2913" s="1">
+        <v>2911</v>
+      </c>
+      <c r="B2913" s="1">
+        <v>2111000</v>
+      </c>
+      <c r="C2913" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2913" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2913" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2913">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2913" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2913" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2913" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2914" s="1">
+        <v>2912</v>
+      </c>
+      <c r="B2914" s="1">
+        <v>2112000</v>
+      </c>
+      <c r="C2914" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2914" s="1">
+        <f t="shared" si="323"/>
+        <v>67829000</v>
+      </c>
+      <c r="E2914" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2914">
+        <f t="shared" si="324"/>
+        <v>67829000</v>
+      </c>
+      <c r="G2914" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2914" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2914" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2915" s="1">
+        <v>2913</v>
+      </c>
+      <c r="B2915" s="1">
+        <v>2113000</v>
+      </c>
+      <c r="C2915" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2915" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2915" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2915">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2915" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2915" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2915" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2916" s="1">
+        <v>2914</v>
+      </c>
+      <c r="B2916" s="1">
+        <v>2114000</v>
+      </c>
+      <c r="C2916" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2916" s="1">
+        <f t="shared" si="323"/>
+        <v>67889000</v>
+      </c>
+      <c r="E2916" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2916">
+        <f t="shared" si="324"/>
+        <v>67889000</v>
+      </c>
+      <c r="G2916" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2916" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2916" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2917" s="1">
+        <v>2915</v>
+      </c>
+      <c r="B2917" s="1">
+        <v>2115000</v>
+      </c>
+      <c r="C2917" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2917" s="1">
+        <f t="shared" si="323"/>
+        <v>67919000</v>
+      </c>
+      <c r="E2917" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2917">
+        <f t="shared" si="324"/>
+        <v>67919000</v>
+      </c>
+      <c r="G2917" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2917" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2917" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2918" s="1">
+        <v>2916</v>
+      </c>
+      <c r="B2918" s="1">
+        <v>2116000</v>
+      </c>
+      <c r="C2918" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2918" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2918" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2918">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2918" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2918" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2918" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2919" s="1">
+        <v>2917</v>
+      </c>
+      <c r="B2919" s="1">
+        <v>2117000</v>
+      </c>
+      <c r="C2919" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2919" s="1">
+        <f t="shared" si="323"/>
+        <v>67979000</v>
+      </c>
+      <c r="E2919" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2919">
+        <f t="shared" si="324"/>
+        <v>67979000</v>
+      </c>
+      <c r="G2919" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2919" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2919" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2920" s="1">
+        <v>2918</v>
+      </c>
+      <c r="B2920" s="1">
+        <v>2118000</v>
+      </c>
+      <c r="C2920" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2920" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2920" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2920">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2920" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2920" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2920" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2921" s="1">
+        <v>2919</v>
+      </c>
+      <c r="B2921" s="1">
+        <v>2119000</v>
+      </c>
+      <c r="C2921" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2921" s="1">
+        <f t="shared" si="323"/>
+        <v>68039000</v>
+      </c>
+      <c r="E2921" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2921">
+        <f t="shared" si="324"/>
+        <v>68039000</v>
+      </c>
+      <c r="G2921" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2921" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2921" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2922" s="1">
+        <v>2920</v>
+      </c>
+      <c r="B2922" s="1">
+        <v>2120000</v>
+      </c>
+      <c r="C2922" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2922" s="1">
+        <f t="shared" si="323"/>
+        <v>150</v>
+      </c>
+      <c r="E2922" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2922">
+        <f t="shared" si="324"/>
+        <v>150</v>
+      </c>
+      <c r="G2922" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2922" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2922" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2923" s="1">
+        <v>2921</v>
+      </c>
+      <c r="B2923" s="1">
+        <v>2121000</v>
+      </c>
+      <c r="C2923" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2923" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2923" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2923">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2923" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2923" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2923" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2924" s="1">
+        <v>2922</v>
+      </c>
+      <c r="B2924" s="1">
+        <v>2122000</v>
+      </c>
+      <c r="C2924" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2924" s="1">
+        <f t="shared" si="323"/>
+        <v>68129000</v>
+      </c>
+      <c r="E2924" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2924">
+        <f t="shared" si="324"/>
+        <v>68129000</v>
+      </c>
+      <c r="G2924" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2924" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2924" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2925" s="1">
+        <v>2923</v>
+      </c>
+      <c r="B2925" s="1">
+        <v>2123000</v>
+      </c>
+      <c r="C2925" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2925" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2925" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2925">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2925" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2925" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2925" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2926" s="1">
+        <v>2924</v>
+      </c>
+      <c r="B2926" s="1">
+        <v>2124000</v>
+      </c>
+      <c r="C2926" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2926" s="1">
+        <f t="shared" si="323"/>
+        <v>68189000</v>
+      </c>
+      <c r="E2926" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2926">
+        <f t="shared" si="324"/>
+        <v>68189000</v>
+      </c>
+      <c r="G2926" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2926" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2926" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2927" s="1">
+        <v>2925</v>
+      </c>
+      <c r="B2927" s="1">
+        <v>2125000</v>
+      </c>
+      <c r="C2927" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2927" s="1">
+        <f t="shared" si="323"/>
+        <v>68219000</v>
+      </c>
+      <c r="E2927" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2927">
+        <f t="shared" si="324"/>
+        <v>68219000</v>
+      </c>
+      <c r="G2927" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2927" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2927" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2928" s="1">
+        <v>2926</v>
+      </c>
+      <c r="B2928" s="1">
+        <v>2126000</v>
+      </c>
+      <c r="C2928" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2928" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2928" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2928">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2928" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2928" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2928" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2929" s="1">
+        <v>2927</v>
+      </c>
+      <c r="B2929" s="1">
+        <v>2127000</v>
+      </c>
+      <c r="C2929" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2929" s="1">
+        <f t="shared" si="323"/>
+        <v>68279000</v>
+      </c>
+      <c r="E2929" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2929">
+        <f t="shared" si="324"/>
+        <v>68279000</v>
+      </c>
+      <c r="G2929" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2929" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2929" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2930" s="1">
+        <v>2928</v>
+      </c>
+      <c r="B2930" s="1">
+        <v>2128000</v>
+      </c>
+      <c r="C2930" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2930" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2930" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2930">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2930" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2930" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2930" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2931" s="1">
+        <v>2929</v>
+      </c>
+      <c r="B2931" s="1">
+        <v>2129000</v>
+      </c>
+      <c r="C2931" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2931" s="1">
+        <f t="shared" si="323"/>
+        <v>68339000</v>
+      </c>
+      <c r="E2931" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2931">
+        <f t="shared" si="324"/>
+        <v>68339000</v>
+      </c>
+      <c r="G2931" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2931" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2931" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2932" s="1">
+        <v>2930</v>
+      </c>
+      <c r="B2932" s="1">
+        <v>2130000</v>
+      </c>
+      <c r="C2932" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2932" s="1">
+        <f t="shared" si="323"/>
+        <v>150</v>
+      </c>
+      <c r="E2932" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2932">
+        <f t="shared" si="324"/>
+        <v>150</v>
+      </c>
+      <c r="G2932" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2932" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2932" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2933" s="1">
+        <v>2931</v>
+      </c>
+      <c r="B2933" s="1">
+        <v>2131000</v>
+      </c>
+      <c r="C2933" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2933" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2933" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2933">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2933" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2933" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2933" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2934" s="1">
+        <v>2932</v>
+      </c>
+      <c r="B2934" s="1">
+        <v>2132000</v>
+      </c>
+      <c r="C2934" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2934" s="1">
+        <f t="shared" si="323"/>
+        <v>68429000</v>
+      </c>
+      <c r="E2934" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2934">
+        <f t="shared" si="324"/>
+        <v>68429000</v>
+      </c>
+      <c r="G2934" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2934" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2934" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2935" s="1">
+        <v>2933</v>
+      </c>
+      <c r="B2935" s="1">
+        <v>2133000</v>
+      </c>
+      <c r="C2935" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2935" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2935" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2935">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2935" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2935" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2935" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2936" s="1">
+        <v>2934</v>
+      </c>
+      <c r="B2936" s="1">
+        <v>2134000</v>
+      </c>
+      <c r="C2936" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2936" s="1">
+        <f t="shared" si="323"/>
+        <v>68489000</v>
+      </c>
+      <c r="E2936" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2936">
+        <f t="shared" si="324"/>
+        <v>68489000</v>
+      </c>
+      <c r="G2936" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2936" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2936" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2937" s="1">
+        <v>2935</v>
+      </c>
+      <c r="B2937" s="1">
+        <v>2135000</v>
+      </c>
+      <c r="C2937" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2937" s="1">
+        <f t="shared" si="323"/>
+        <v>68519000</v>
+      </c>
+      <c r="E2937" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2937">
+        <f t="shared" si="324"/>
+        <v>68519000</v>
+      </c>
+      <c r="G2937" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2937" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2937" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2938" s="1">
+        <v>2936</v>
+      </c>
+      <c r="B2938" s="1">
+        <v>2136000</v>
+      </c>
+      <c r="C2938" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2938" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2938" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2938">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2938" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2938" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2938" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2939" s="1">
+        <v>2937</v>
+      </c>
+      <c r="B2939" s="1">
+        <v>2137000</v>
+      </c>
+      <c r="C2939" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2939" s="1">
+        <f t="shared" si="323"/>
+        <v>68579000</v>
+      </c>
+      <c r="E2939" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2939">
+        <f t="shared" si="324"/>
+        <v>68579000</v>
+      </c>
+      <c r="G2939" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2939" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2939" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2940" s="1">
+        <v>2938</v>
+      </c>
+      <c r="B2940" s="1">
+        <v>2138000</v>
+      </c>
+      <c r="C2940" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2940" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2940" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2940">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2940" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2940" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2940" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2941" s="1">
+        <v>2939</v>
+      </c>
+      <c r="B2941" s="1">
+        <v>2139000</v>
+      </c>
+      <c r="C2941" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2941" s="1">
+        <f t="shared" si="323"/>
+        <v>68639000</v>
+      </c>
+      <c r="E2941" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2941">
+        <f t="shared" si="324"/>
+        <v>68639000</v>
+      </c>
+      <c r="G2941" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2941" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2941" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2942" s="1">
+        <v>2940</v>
+      </c>
+      <c r="B2942" s="1">
+        <v>2140000</v>
+      </c>
+      <c r="C2942" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2942" s="1">
+        <f t="shared" si="323"/>
+        <v>150</v>
+      </c>
+      <c r="E2942" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2942">
+        <f t="shared" si="324"/>
+        <v>150</v>
+      </c>
+      <c r="G2942" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2942" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2942" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2943" s="1">
+        <v>2941</v>
+      </c>
+      <c r="B2943" s="1">
+        <v>2141000</v>
+      </c>
+      <c r="C2943" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2943" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2943" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2943">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2943" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2943" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2943" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2944" s="1">
+        <v>2942</v>
+      </c>
+      <c r="B2944" s="1">
+        <v>2142000</v>
+      </c>
+      <c r="C2944" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2944" s="1">
+        <f t="shared" si="323"/>
+        <v>68729000</v>
+      </c>
+      <c r="E2944" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2944">
+        <f t="shared" si="324"/>
+        <v>68729000</v>
+      </c>
+      <c r="G2944" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2944" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2944" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2945" s="1">
+        <v>2943</v>
+      </c>
+      <c r="B2945" s="1">
+        <v>2143000</v>
+      </c>
+      <c r="C2945" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2945" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2945" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2945">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2945" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2945" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2945" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2946" s="1">
+        <v>2944</v>
+      </c>
+      <c r="B2946" s="1">
+        <v>2144000</v>
+      </c>
+      <c r="C2946" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2946" s="1">
+        <f t="shared" si="323"/>
+        <v>68789000</v>
+      </c>
+      <c r="E2946" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2946">
+        <f t="shared" si="324"/>
+        <v>68789000</v>
+      </c>
+      <c r="G2946" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2946" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2946" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2947" s="1">
+        <v>2945</v>
+      </c>
+      <c r="B2947" s="1">
+        <v>2145000</v>
+      </c>
+      <c r="C2947" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2947" s="1">
+        <f t="shared" si="323"/>
+        <v>68819000</v>
+      </c>
+      <c r="E2947" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2947">
+        <f t="shared" si="324"/>
+        <v>68819000</v>
+      </c>
+      <c r="G2947" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2947" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2947" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2948" s="1">
+        <v>2946</v>
+      </c>
+      <c r="B2948" s="1">
+        <v>2146000</v>
+      </c>
+      <c r="C2948" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2948" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2948" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2948">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2948" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2948" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2948" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2949" s="1">
+        <v>2947</v>
+      </c>
+      <c r="B2949" s="1">
+        <v>2147000</v>
+      </c>
+      <c r="C2949" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2949" s="1">
+        <f t="shared" si="323"/>
+        <v>68879000</v>
+      </c>
+      <c r="E2949" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2949">
+        <f t="shared" si="324"/>
+        <v>68879000</v>
+      </c>
+      <c r="G2949" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2949" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2949" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2950" s="1">
+        <v>2948</v>
+      </c>
+      <c r="B2950" s="1">
+        <v>2148000</v>
+      </c>
+      <c r="C2950" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2950" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2950" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2950">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2950" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2950" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2950" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2951" s="1">
+        <v>2949</v>
+      </c>
+      <c r="B2951" s="1">
+        <v>2149000</v>
+      </c>
+      <c r="C2951" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2951" s="1">
+        <f t="shared" si="323"/>
+        <v>68939000</v>
+      </c>
+      <c r="E2951" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2951">
+        <f t="shared" si="324"/>
+        <v>68939000</v>
+      </c>
+      <c r="G2951" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2951" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2951" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2952" s="1">
+        <v>2950</v>
+      </c>
+      <c r="B2952" s="1">
+        <v>2150000</v>
+      </c>
+      <c r="C2952" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2952" s="1">
+        <f t="shared" si="323"/>
+        <v>150</v>
+      </c>
+      <c r="E2952" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2952">
+        <f t="shared" si="324"/>
+        <v>150</v>
+      </c>
+      <c r="G2952" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2952" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2952" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2953" s="1">
+        <v>2951</v>
+      </c>
+      <c r="B2953" s="1">
+        <v>2151000</v>
+      </c>
+      <c r="C2953" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2953" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2953" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2953">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2953" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2953" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2953" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2954" s="1">
+        <v>2952</v>
+      </c>
+      <c r="B2954" s="1">
+        <v>2152000</v>
+      </c>
+      <c r="C2954" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2954" s="1">
+        <f t="shared" si="323"/>
+        <v>69029000</v>
+      </c>
+      <c r="E2954" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2954">
+        <f t="shared" si="324"/>
+        <v>69029000</v>
+      </c>
+      <c r="G2954" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2954" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2954" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2955" s="1">
+        <v>2953</v>
+      </c>
+      <c r="B2955" s="1">
+        <v>2153000</v>
+      </c>
+      <c r="C2955" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2955" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2955" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2955">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2955" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2955" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2955" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2956" s="1">
+        <v>2954</v>
+      </c>
+      <c r="B2956" s="1">
+        <v>2154000</v>
+      </c>
+      <c r="C2956" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2956" s="1">
+        <f t="shared" si="323"/>
+        <v>69089000</v>
+      </c>
+      <c r="E2956" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2956">
+        <f t="shared" si="324"/>
+        <v>69089000</v>
+      </c>
+      <c r="G2956" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2956" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2956" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2957" s="1">
+        <v>2955</v>
+      </c>
+      <c r="B2957" s="1">
+        <v>2155000</v>
+      </c>
+      <c r="C2957" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2957" s="1">
+        <f t="shared" si="323"/>
+        <v>69119000</v>
+      </c>
+      <c r="E2957" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2957">
+        <f t="shared" si="324"/>
+        <v>69119000</v>
+      </c>
+      <c r="G2957" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2957" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2957" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2958" s="1">
+        <v>2956</v>
+      </c>
+      <c r="B2958" s="1">
+        <v>2156000</v>
+      </c>
+      <c r="C2958" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2958" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2958" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2958">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2958" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2958" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2958" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2959" s="1">
+        <v>2957</v>
+      </c>
+      <c r="B2959" s="1">
+        <v>2157000</v>
+      </c>
+      <c r="C2959" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2959" s="1">
+        <f t="shared" si="323"/>
+        <v>69179000</v>
+      </c>
+      <c r="E2959" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2959">
+        <f t="shared" si="324"/>
+        <v>69179000</v>
+      </c>
+      <c r="G2959" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2959" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2959" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2960" s="1">
+        <v>2958</v>
+      </c>
+      <c r="B2960" s="1">
+        <v>2158000</v>
+      </c>
+      <c r="C2960" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2960" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2960" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2960">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2960" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2960" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2960" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2961" s="1">
+        <v>2959</v>
+      </c>
+      <c r="B2961" s="1">
+        <v>2159000</v>
+      </c>
+      <c r="C2961" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2961" s="1">
+        <f t="shared" si="323"/>
+        <v>69239000</v>
+      </c>
+      <c r="E2961" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2961">
+        <f t="shared" si="324"/>
+        <v>69239000</v>
+      </c>
+      <c r="G2961" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2961" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2961" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2962" s="1">
+        <v>2960</v>
+      </c>
+      <c r="B2962" s="1">
+        <v>2160000</v>
+      </c>
+      <c r="C2962" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2962" s="1">
+        <f t="shared" si="323"/>
+        <v>150</v>
+      </c>
+      <c r="E2962" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2962">
+        <f t="shared" si="324"/>
+        <v>150</v>
+      </c>
+      <c r="G2962" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2962" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2962" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2963" s="1">
+        <v>2961</v>
+      </c>
+      <c r="B2963" s="1">
+        <v>2161000</v>
+      </c>
+      <c r="C2963" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2963" s="1">
+        <f t="shared" si="323"/>
+        <v>1500</v>
+      </c>
+      <c r="E2963" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2963">
+        <f t="shared" si="324"/>
+        <v>1500</v>
+      </c>
+      <c r="G2963" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2963" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2963" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2964" s="1">
+        <v>2962</v>
+      </c>
+      <c r="B2964" s="1">
+        <v>2162000</v>
+      </c>
+      <c r="C2964" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2964" s="1">
+        <f t="shared" si="323"/>
+        <v>69329000</v>
+      </c>
+      <c r="E2964" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2964">
+        <f t="shared" si="324"/>
+        <v>69329000</v>
+      </c>
+      <c r="G2964" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2964" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2964" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2965" s="1">
+        <v>2963</v>
+      </c>
+      <c r="B2965" s="1">
+        <v>2163000</v>
+      </c>
+      <c r="C2965" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2965" s="1">
+        <f t="shared" si="323"/>
+        <v>9500</v>
+      </c>
+      <c r="E2965" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2965">
+        <f t="shared" si="324"/>
+        <v>9500</v>
+      </c>
+      <c r="G2965" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2965" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2965" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2966" s="1">
+        <v>2964</v>
+      </c>
+      <c r="B2966" s="1">
+        <v>2164000</v>
+      </c>
+      <c r="C2966" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2966" s="1">
+        <f t="shared" si="323"/>
+        <v>69389000</v>
+      </c>
+      <c r="E2966" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2966">
+        <f t="shared" si="324"/>
+        <v>69389000</v>
+      </c>
+      <c r="G2966" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2966" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2966" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2967" s="1">
+        <v>2965</v>
+      </c>
+      <c r="B2967" s="1">
+        <v>2165000</v>
+      </c>
+      <c r="C2967" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2967" s="1">
+        <f t="shared" si="323"/>
+        <v>69419000</v>
+      </c>
+      <c r="E2967" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2967">
+        <f t="shared" si="324"/>
+        <v>69419000</v>
+      </c>
+      <c r="G2967" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2967" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2967" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2968" s="1">
+        <v>2966</v>
+      </c>
+      <c r="B2968" s="1">
+        <v>2166000</v>
+      </c>
+      <c r="C2968" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2968" s="1">
+        <f t="shared" ref="D2968:D3002" si="325">IF($C2968=46,$G2968*100-900,IF(OR($C2968=1,$C2968=5),$A2968*30000-19531000,IF($C2968=20,$G2968*500-2500,IF($C2968=14,$G2968*10-90,0))))</f>
+        <v>1500</v>
+      </c>
+      <c r="E2968" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2968">
+        <f t="shared" ref="F2968:F3002" si="326">IF($C2968=46,$G2968*100-900,IF(OR($C2968=1,$C2968=5),$A2968*30000-19531000,IF($C2968=20,$G2968*500-2500,IF($C2968=14,$G2968*10-90,0))))</f>
+        <v>1500</v>
+      </c>
+      <c r="G2968" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2968" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2968" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2969" s="1">
+        <v>2967</v>
+      </c>
+      <c r="B2969" s="1">
+        <v>2167000</v>
+      </c>
+      <c r="C2969" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2969" s="1">
+        <f t="shared" si="325"/>
+        <v>69479000</v>
+      </c>
+      <c r="E2969" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2969">
+        <f t="shared" si="326"/>
+        <v>69479000</v>
+      </c>
+      <c r="G2969" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2969" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2969" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2970" s="1">
+        <v>2968</v>
+      </c>
+      <c r="B2970" s="1">
+        <v>2168000</v>
+      </c>
+      <c r="C2970" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2970" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E2970" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2970">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G2970" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2970" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2970" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2971" s="1">
+        <v>2969</v>
+      </c>
+      <c r="B2971" s="1">
+        <v>2169000</v>
+      </c>
+      <c r="C2971" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2971" s="1">
+        <f t="shared" si="325"/>
+        <v>69539000</v>
+      </c>
+      <c r="E2971" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2971">
+        <f t="shared" si="326"/>
+        <v>69539000</v>
+      </c>
+      <c r="G2971" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2971" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2971" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2972" s="1">
+        <v>2970</v>
+      </c>
+      <c r="B2972" s="1">
+        <v>2170000</v>
+      </c>
+      <c r="C2972" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2972" s="1">
+        <f t="shared" si="325"/>
+        <v>150</v>
+      </c>
+      <c r="E2972" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2972">
+        <f t="shared" si="326"/>
+        <v>150</v>
+      </c>
+      <c r="G2972" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2972" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2972" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2973" s="1">
+        <v>2971</v>
+      </c>
+      <c r="B2973" s="1">
+        <v>2171000</v>
+      </c>
+      <c r="C2973" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2973" s="1">
+        <f t="shared" si="325"/>
+        <v>1500</v>
+      </c>
+      <c r="E2973" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2973">
+        <f t="shared" si="326"/>
+        <v>1500</v>
+      </c>
+      <c r="G2973" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2973" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2973" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2974" s="1">
+        <v>2972</v>
+      </c>
+      <c r="B2974" s="1">
+        <v>2172000</v>
+      </c>
+      <c r="C2974" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2974" s="1">
+        <f t="shared" si="325"/>
+        <v>69629000</v>
+      </c>
+      <c r="E2974" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2974">
+        <f t="shared" si="326"/>
+        <v>69629000</v>
+      </c>
+      <c r="G2974" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2974" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2974" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2975" s="1">
+        <v>2973</v>
+      </c>
+      <c r="B2975" s="1">
+        <v>2173000</v>
+      </c>
+      <c r="C2975" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2975" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E2975" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2975">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G2975" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2975" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2975" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2976" s="1">
+        <v>2974</v>
+      </c>
+      <c r="B2976" s="1">
+        <v>2174000</v>
+      </c>
+      <c r="C2976" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2976" s="1">
+        <f t="shared" si="325"/>
+        <v>69689000</v>
+      </c>
+      <c r="E2976" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2976">
+        <f t="shared" si="326"/>
+        <v>69689000</v>
+      </c>
+      <c r="G2976" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2976" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2976" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2977" s="1">
+        <v>2975</v>
+      </c>
+      <c r="B2977" s="1">
+        <v>2175000</v>
+      </c>
+      <c r="C2977" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2977" s="1">
+        <f t="shared" si="325"/>
+        <v>69719000</v>
+      </c>
+      <c r="E2977" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2977">
+        <f t="shared" si="326"/>
+        <v>69719000</v>
+      </c>
+      <c r="G2977" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2977" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2977" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2978" s="1">
+        <v>2976</v>
+      </c>
+      <c r="B2978" s="1">
+        <v>2176000</v>
+      </c>
+      <c r="C2978" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2978" s="1">
+        <f t="shared" si="325"/>
+        <v>1500</v>
+      </c>
+      <c r="E2978" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2978">
+        <f t="shared" si="326"/>
+        <v>1500</v>
+      </c>
+      <c r="G2978" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2978" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2978" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2979" s="1">
+        <v>2977</v>
+      </c>
+      <c r="B2979" s="1">
+        <v>2177000</v>
+      </c>
+      <c r="C2979" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2979" s="1">
+        <f t="shared" si="325"/>
+        <v>69779000</v>
+      </c>
+      <c r="E2979" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2979">
+        <f t="shared" si="326"/>
+        <v>69779000</v>
+      </c>
+      <c r="G2979" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2979" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2979" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2980" s="1">
+        <v>2978</v>
+      </c>
+      <c r="B2980" s="1">
+        <v>2178000</v>
+      </c>
+      <c r="C2980" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2980" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E2980" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2980">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G2980" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2980" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2980" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2981" s="1">
+        <v>2979</v>
+      </c>
+      <c r="B2981" s="1">
+        <v>2179000</v>
+      </c>
+      <c r="C2981" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2981" s="1">
+        <f t="shared" si="325"/>
+        <v>69839000</v>
+      </c>
+      <c r="E2981" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2981">
+        <f t="shared" si="326"/>
+        <v>69839000</v>
+      </c>
+      <c r="G2981" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2981" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2981" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2982" s="1">
+        <v>2980</v>
+      </c>
+      <c r="B2982" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="C2982" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2982" s="1">
+        <f t="shared" si="325"/>
+        <v>150</v>
+      </c>
+      <c r="E2982" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2982">
+        <f t="shared" si="326"/>
+        <v>150</v>
+      </c>
+      <c r="G2982" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2982" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2982" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2983" s="1">
+        <v>2981</v>
+      </c>
+      <c r="B2983" s="1">
+        <v>2181000</v>
+      </c>
+      <c r="C2983" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2983" s="1">
+        <f t="shared" si="325"/>
+        <v>1500</v>
+      </c>
+      <c r="E2983" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2983">
+        <f t="shared" si="326"/>
+        <v>1500</v>
+      </c>
+      <c r="G2983" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2983" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2983" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2984" s="1">
+        <v>2982</v>
+      </c>
+      <c r="B2984" s="1">
+        <v>2182000</v>
+      </c>
+      <c r="C2984" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2984" s="1">
+        <f t="shared" si="325"/>
+        <v>69929000</v>
+      </c>
+      <c r="E2984" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2984">
+        <f t="shared" si="326"/>
+        <v>69929000</v>
+      </c>
+      <c r="G2984" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2984" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2984" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2985" s="1">
+        <v>2983</v>
+      </c>
+      <c r="B2985" s="1">
+        <v>2183000</v>
+      </c>
+      <c r="C2985" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2985" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E2985" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2985">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G2985" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2985" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2985" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2986" s="1">
+        <v>2984</v>
+      </c>
+      <c r="B2986" s="1">
+        <v>2184000</v>
+      </c>
+      <c r="C2986" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2986" s="1">
+        <f t="shared" si="325"/>
+        <v>69989000</v>
+      </c>
+      <c r="E2986" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2986">
+        <f t="shared" si="326"/>
+        <v>69989000</v>
+      </c>
+      <c r="G2986" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2986" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2986" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2987" s="1">
+        <v>2985</v>
+      </c>
+      <c r="B2987" s="1">
+        <v>2185000</v>
+      </c>
+      <c r="C2987" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2987" s="1">
+        <f t="shared" si="325"/>
+        <v>70019000</v>
+      </c>
+      <c r="E2987" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2987">
+        <f t="shared" si="326"/>
+        <v>70019000</v>
+      </c>
+      <c r="G2987" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2987" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2987" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2988" s="1">
+        <v>2986</v>
+      </c>
+      <c r="B2988" s="1">
+        <v>2186000</v>
+      </c>
+      <c r="C2988" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2988" s="1">
+        <f t="shared" si="325"/>
+        <v>1500</v>
+      </c>
+      <c r="E2988" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2988">
+        <f t="shared" si="326"/>
+        <v>1500</v>
+      </c>
+      <c r="G2988" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2988" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2988" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2989" s="1">
+        <v>2987</v>
+      </c>
+      <c r="B2989" s="1">
+        <v>2187000</v>
+      </c>
+      <c r="C2989" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2989" s="1">
+        <f t="shared" si="325"/>
+        <v>70079000</v>
+      </c>
+      <c r="E2989" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2989">
+        <f t="shared" si="326"/>
+        <v>70079000</v>
+      </c>
+      <c r="G2989" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2989" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2989" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2990" s="1">
+        <v>2988</v>
+      </c>
+      <c r="B2990" s="1">
+        <v>2188000</v>
+      </c>
+      <c r="C2990" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2990" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E2990" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2990">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G2990" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2990" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2990" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2991" s="1">
+        <v>2989</v>
+      </c>
+      <c r="B2991" s="1">
+        <v>2189000</v>
+      </c>
+      <c r="C2991" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2991" s="1">
+        <f t="shared" si="325"/>
+        <v>70139000</v>
+      </c>
+      <c r="E2991" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2991">
+        <f t="shared" si="326"/>
+        <v>70139000</v>
+      </c>
+      <c r="G2991" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2991" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2991" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2992" s="1">
+        <v>2990</v>
+      </c>
+      <c r="B2992" s="1">
+        <v>2190000</v>
+      </c>
+      <c r="C2992" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2992" s="1">
+        <f t="shared" si="325"/>
+        <v>150</v>
+      </c>
+      <c r="E2992" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2992">
+        <f t="shared" si="326"/>
+        <v>150</v>
+      </c>
+      <c r="G2992" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2992" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2992" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2993" s="1">
+        <v>2991</v>
+      </c>
+      <c r="B2993" s="1">
+        <v>2191000</v>
+      </c>
+      <c r="C2993" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2993" s="1">
+        <f t="shared" si="325"/>
+        <v>1500</v>
+      </c>
+      <c r="E2993" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2993">
+        <f t="shared" si="326"/>
+        <v>1500</v>
+      </c>
+      <c r="G2993" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2993" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2993" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2994" s="1">
+        <v>2992</v>
+      </c>
+      <c r="B2994" s="1">
+        <v>2192000</v>
+      </c>
+      <c r="C2994" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2994" s="1">
+        <f t="shared" si="325"/>
+        <v>70229000</v>
+      </c>
+      <c r="E2994" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2994">
+        <f t="shared" si="326"/>
+        <v>70229000</v>
+      </c>
+      <c r="G2994" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2994" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2994" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2995" s="1">
+        <v>2993</v>
+      </c>
+      <c r="B2995" s="1">
+        <v>2193000</v>
+      </c>
+      <c r="C2995" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2995" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E2995" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2995">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G2995" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2995" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2995" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2996" s="1">
+        <v>2994</v>
+      </c>
+      <c r="B2996" s="1">
+        <v>2194000</v>
+      </c>
+      <c r="C2996" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2996" s="1">
+        <f t="shared" si="325"/>
+        <v>70289000</v>
+      </c>
+      <c r="E2996" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2996">
+        <f t="shared" si="326"/>
+        <v>70289000</v>
+      </c>
+      <c r="G2996" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2996" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2996" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2997" s="1">
+        <v>2995</v>
+      </c>
+      <c r="B2997" s="1">
+        <v>2195000</v>
+      </c>
+      <c r="C2997" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2997" s="1">
+        <f t="shared" si="325"/>
+        <v>70319000</v>
+      </c>
+      <c r="E2997" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2997">
+        <f t="shared" si="326"/>
+        <v>70319000</v>
+      </c>
+      <c r="G2997" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2997" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2997" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2998" s="1">
+        <v>2996</v>
+      </c>
+      <c r="B2998" s="1">
+        <v>2196000</v>
+      </c>
+      <c r="C2998" s="1">
+        <v>46</v>
+      </c>
+      <c r="D2998" s="1">
+        <f t="shared" si="325"/>
+        <v>1500</v>
+      </c>
+      <c r="E2998" s="1">
+        <v>46</v>
+      </c>
+      <c r="F2998">
+        <f t="shared" si="326"/>
+        <v>1500</v>
+      </c>
+      <c r="G2998" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2998" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2998" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2999" s="1">
+        <v>2997</v>
+      </c>
+      <c r="B2999" s="1">
+        <v>2197000</v>
+      </c>
+      <c r="C2999" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2999" s="1">
+        <f t="shared" si="325"/>
+        <v>70379000</v>
+      </c>
+      <c r="E2999" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2999">
+        <f t="shared" si="326"/>
+        <v>70379000</v>
+      </c>
+      <c r="G2999" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2999" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2999" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3000" s="1">
+        <v>2998</v>
+      </c>
+      <c r="B3000" s="1">
+        <v>2198000</v>
+      </c>
+      <c r="C3000" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3000" s="1">
+        <f t="shared" si="325"/>
+        <v>9500</v>
+      </c>
+      <c r="E3000" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3000">
+        <f t="shared" si="326"/>
+        <v>9500</v>
+      </c>
+      <c r="G3000" s="1">
+        <v>24</v>
+      </c>
+      <c r="H3000" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3000" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3001" s="1">
+        <v>2999</v>
+      </c>
+      <c r="B3001" s="1">
+        <v>2199000</v>
+      </c>
+      <c r="C3001" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3001" s="1">
+        <f t="shared" si="325"/>
+        <v>70439000</v>
+      </c>
+      <c r="E3001" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3001">
+        <f t="shared" si="326"/>
+        <v>70439000</v>
+      </c>
+      <c r="G3001" s="1">
+        <v>24</v>
+      </c>
+      <c r="H3001" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3001" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3002" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B3002" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="C3002" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3002" s="1">
+        <f t="shared" si="325"/>
+        <v>150</v>
+      </c>
+      <c r="E3002" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3002">
+        <f t="shared" si="326"/>
+        <v>150</v>
+      </c>
+      <c r="G3002" s="1">
+        <v>24</v>
+      </c>
+      <c r="H3002" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3002" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C2402" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:I3002">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD($A2,100)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C52232-04CD-45E6-9C22-71C1A7BD8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27617811-3402-42C1-A1BA-D6932DE97056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -221,6 +221,13 @@
     <t>levelpass25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>levelpass26</t>
+  </si>
+  <si>
+    <t>levelpass26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -398,25 +405,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -745,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J3002"/>
+  <dimension ref="A1:J3102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2980" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2906" sqref="D2906"/>
+      <pane ySplit="1" topLeftCell="A2985" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3004" sqref="H3004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -88580,14 +88569,14 @@
         <v>46</v>
       </c>
       <c r="D2968" s="1">
-        <f t="shared" ref="D2968:D3002" si="325">IF($C2968=46,$G2968*100-900,IF(OR($C2968=1,$C2968=5),$A2968*30000-19531000,IF($C2968=20,$G2968*500-2500,IF($C2968=14,$G2968*10-90,0))))</f>
+        <f t="shared" ref="D2968:D3031" si="325">IF($C2968=46,$G2968*100-900,IF(OR($C2968=1,$C2968=5),$A2968*30000-19531000,IF($C2968=20,$G2968*500-2500,IF($C2968=14,$G2968*10-90,0))))</f>
         <v>1500</v>
       </c>
       <c r="E2968" s="1">
         <v>46</v>
       </c>
       <c r="F2968">
-        <f t="shared" ref="F2968:F3002" si="326">IF($C2968=46,$G2968*100-900,IF(OR($C2968=1,$C2968=5),$A2968*30000-19531000,IF($C2968=20,$G2968*500-2500,IF($C2968=14,$G2968*10-90,0))))</f>
+        <f t="shared" ref="F2968:F3031" si="326">IF($C2968=46,$G2968*100-900,IF(OR($C2968=1,$C2968=5),$A2968*30000-19531000,IF($C2968=20,$G2968*500-2500,IF($C2968=14,$G2968*10-90,0))))</f>
         <v>1500</v>
       </c>
       <c r="G2968" s="1">
@@ -89654,10 +89643,3110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3003" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3003" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B3003" s="1">
+        <v>2201000</v>
+      </c>
+      <c r="C3003" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3003" s="1">
+        <f t="shared" si="325"/>
+        <v>1600</v>
+      </c>
+      <c r="E3003" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3003">
+        <f t="shared" si="326"/>
+        <v>1600</v>
+      </c>
+      <c r="G3003" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3003" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3003" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3004" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B3004" s="1">
+        <v>2202000</v>
+      </c>
+      <c r="C3004" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3004" s="1">
+        <f t="shared" si="325"/>
+        <v>70529000</v>
+      </c>
+      <c r="E3004" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3004">
+        <f t="shared" si="326"/>
+        <v>70529000</v>
+      </c>
+      <c r="G3004" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3004" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3004" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3005" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B3005" s="1">
+        <v>2203000</v>
+      </c>
+      <c r="C3005" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3005" s="1">
+        <f t="shared" si="325"/>
+        <v>10000</v>
+      </c>
+      <c r="E3005" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3005">
+        <f t="shared" si="326"/>
+        <v>10000</v>
+      </c>
+      <c r="G3005" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3005" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3005" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3006" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B3006" s="1">
+        <v>2204000</v>
+      </c>
+      <c r="C3006" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3006" s="1">
+        <f t="shared" si="325"/>
+        <v>70589000</v>
+      </c>
+      <c r="E3006" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3006">
+        <f t="shared" si="326"/>
+        <v>70589000</v>
+      </c>
+      <c r="G3006" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3006" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3006" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3007" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B3007" s="1">
+        <v>2205000</v>
+      </c>
+      <c r="C3007" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3007" s="1">
+        <f t="shared" si="325"/>
+        <v>160</v>
+      </c>
+      <c r="E3007" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3007">
+        <f t="shared" si="326"/>
+        <v>160</v>
+      </c>
+      <c r="G3007" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3007" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3007" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3008" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B3008" s="1">
+        <v>2206000</v>
+      </c>
+      <c r="C3008" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3008" s="1">
+        <f t="shared" si="325"/>
+        <v>1600</v>
+      </c>
+      <c r="E3008" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3008">
+        <f t="shared" si="326"/>
+        <v>1600</v>
+      </c>
+      <c r="G3008" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3008" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3008" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3009" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B3009" s="1">
+        <v>2207000</v>
+      </c>
+      <c r="C3009" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3009" s="1">
+        <f t="shared" si="325"/>
+        <v>70679000</v>
+      </c>
+      <c r="E3009" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3009">
+        <f t="shared" si="326"/>
+        <v>70679000</v>
+      </c>
+      <c r="G3009" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3009" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3009" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3010" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B3010" s="1">
+        <v>2208000</v>
+      </c>
+      <c r="C3010" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3010" s="1">
+        <f t="shared" si="325"/>
+        <v>10000</v>
+      </c>
+      <c r="E3010" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3010">
+        <f t="shared" si="326"/>
+        <v>10000</v>
+      </c>
+      <c r="G3010" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3010" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3010" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3011" s="1">
+        <v>3009</v>
+      </c>
+      <c r="B3011" s="1">
+        <v>2209000</v>
+      </c>
+      <c r="C3011" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3011" s="1">
+        <f t="shared" si="325"/>
+        <v>70739000</v>
+      </c>
+      <c r="E3011" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3011">
+        <f t="shared" si="326"/>
+        <v>70739000</v>
+      </c>
+      <c r="G3011" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3011" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3011" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3012" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B3012" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="C3012" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3012" s="1">
+        <f t="shared" si="325"/>
+        <v>160</v>
+      </c>
+      <c r="E3012" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3012">
+        <f t="shared" si="326"/>
+        <v>160</v>
+      </c>
+      <c r="G3012" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3012" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3012" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3013" s="1">
+        <v>3011</v>
+      </c>
+      <c r="B3013" s="1">
+        <v>2211000</v>
+      </c>
+      <c r="C3013" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3013" s="1">
+        <f t="shared" si="325"/>
+        <v>1600</v>
+      </c>
+      <c r="E3013" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3013">
+        <f t="shared" si="326"/>
+        <v>1600</v>
+      </c>
+      <c r="G3013" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3013" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3013" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3014" s="1">
+        <v>3012</v>
+      </c>
+      <c r="B3014" s="1">
+        <v>2212000</v>
+      </c>
+      <c r="C3014" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3014" s="1">
+        <f t="shared" si="325"/>
+        <v>70829000</v>
+      </c>
+      <c r="E3014" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3014">
+        <f t="shared" si="326"/>
+        <v>70829000</v>
+      </c>
+      <c r="G3014" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3014" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3014" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3015" s="1">
+        <v>3013</v>
+      </c>
+      <c r="B3015" s="1">
+        <v>2213000</v>
+      </c>
+      <c r="C3015" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3015" s="1">
+        <f t="shared" si="325"/>
+        <v>10000</v>
+      </c>
+      <c r="E3015" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3015">
+        <f t="shared" si="326"/>
+        <v>10000</v>
+      </c>
+      <c r="G3015" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3015" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3015" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3016" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B3016" s="1">
+        <v>2214000</v>
+      </c>
+      <c r="C3016" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3016" s="1">
+        <f t="shared" si="325"/>
+        <v>70889000</v>
+      </c>
+      <c r="E3016" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3016">
+        <f t="shared" si="326"/>
+        <v>70889000</v>
+      </c>
+      <c r="G3016" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3016" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3016" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3017" s="1">
+        <v>3015</v>
+      </c>
+      <c r="B3017" s="1">
+        <v>2215000</v>
+      </c>
+      <c r="C3017" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3017" s="1">
+        <f t="shared" si="325"/>
+        <v>160</v>
+      </c>
+      <c r="E3017" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3017">
+        <f t="shared" si="326"/>
+        <v>160</v>
+      </c>
+      <c r="G3017" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3017" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3017" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3018" s="1">
+        <v>3016</v>
+      </c>
+      <c r="B3018" s="1">
+        <v>2216000</v>
+      </c>
+      <c r="C3018" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3018" s="1">
+        <f t="shared" si="325"/>
+        <v>1600</v>
+      </c>
+      <c r="E3018" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3018">
+        <f t="shared" si="326"/>
+        <v>1600</v>
+      </c>
+      <c r="G3018" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3018" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3018" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3019" s="1">
+        <v>3017</v>
+      </c>
+      <c r="B3019" s="1">
+        <v>2217000</v>
+      </c>
+      <c r="C3019" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3019" s="1">
+        <f t="shared" si="325"/>
+        <v>70979000</v>
+      </c>
+      <c r="E3019" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3019">
+        <f t="shared" si="326"/>
+        <v>70979000</v>
+      </c>
+      <c r="G3019" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3019" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3019" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3020" s="1">
+        <v>3018</v>
+      </c>
+      <c r="B3020" s="1">
+        <v>2218000</v>
+      </c>
+      <c r="C3020" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3020" s="1">
+        <f t="shared" si="325"/>
+        <v>10000</v>
+      </c>
+      <c r="E3020" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3020">
+        <f t="shared" si="326"/>
+        <v>10000</v>
+      </c>
+      <c r="G3020" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3020" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3020" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3021" s="1">
+        <v>3019</v>
+      </c>
+      <c r="B3021" s="1">
+        <v>2219000</v>
+      </c>
+      <c r="C3021" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3021" s="1">
+        <f t="shared" si="325"/>
+        <v>71039000</v>
+      </c>
+      <c r="E3021" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3021">
+        <f t="shared" si="326"/>
+        <v>71039000</v>
+      </c>
+      <c r="G3021" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3021" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3021" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3022" s="1">
+        <v>3020</v>
+      </c>
+      <c r="B3022" s="1">
+        <v>2220000</v>
+      </c>
+      <c r="C3022" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3022" s="1">
+        <f t="shared" si="325"/>
+        <v>160</v>
+      </c>
+      <c r="E3022" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3022">
+        <f t="shared" si="326"/>
+        <v>160</v>
+      </c>
+      <c r="G3022" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3022" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3022" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3023" s="1">
+        <v>3021</v>
+      </c>
+      <c r="B3023" s="1">
+        <v>2221000</v>
+      </c>
+      <c r="C3023" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3023" s="1">
+        <f t="shared" si="325"/>
+        <v>1600</v>
+      </c>
+      <c r="E3023" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3023">
+        <f t="shared" si="326"/>
+        <v>1600</v>
+      </c>
+      <c r="G3023" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3023" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3023" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3024" s="1">
+        <v>3022</v>
+      </c>
+      <c r="B3024" s="1">
+        <v>2222000</v>
+      </c>
+      <c r="C3024" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3024" s="1">
+        <f t="shared" si="325"/>
+        <v>71129000</v>
+      </c>
+      <c r="E3024" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3024">
+        <f t="shared" si="326"/>
+        <v>71129000</v>
+      </c>
+      <c r="G3024" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3024" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3024" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3025" s="1">
+        <v>3023</v>
+      </c>
+      <c r="B3025" s="1">
+        <v>2223000</v>
+      </c>
+      <c r="C3025" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3025" s="1">
+        <f t="shared" si="325"/>
+        <v>10000</v>
+      </c>
+      <c r="E3025" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3025">
+        <f t="shared" si="326"/>
+        <v>10000</v>
+      </c>
+      <c r="G3025" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3025" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3025" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3026" s="1">
+        <v>3024</v>
+      </c>
+      <c r="B3026" s="1">
+        <v>2224000</v>
+      </c>
+      <c r="C3026" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3026" s="1">
+        <f t="shared" si="325"/>
+        <v>71189000</v>
+      </c>
+      <c r="E3026" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3026">
+        <f t="shared" si="326"/>
+        <v>71189000</v>
+      </c>
+      <c r="G3026" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3026" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3026" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3027" s="1">
+        <v>3025</v>
+      </c>
+      <c r="B3027" s="1">
+        <v>2225000</v>
+      </c>
+      <c r="C3027" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3027" s="1">
+        <f t="shared" si="325"/>
+        <v>160</v>
+      </c>
+      <c r="E3027" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3027">
+        <f t="shared" si="326"/>
+        <v>160</v>
+      </c>
+      <c r="G3027" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3027" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3027" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3028" s="1">
+        <v>3026</v>
+      </c>
+      <c r="B3028" s="1">
+        <v>2226000</v>
+      </c>
+      <c r="C3028" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3028" s="1">
+        <f t="shared" si="325"/>
+        <v>1600</v>
+      </c>
+      <c r="E3028" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3028">
+        <f t="shared" si="326"/>
+        <v>1600</v>
+      </c>
+      <c r="G3028" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3028" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3028" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3029" s="1">
+        <v>3027</v>
+      </c>
+      <c r="B3029" s="1">
+        <v>2227000</v>
+      </c>
+      <c r="C3029" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3029" s="1">
+        <f t="shared" si="325"/>
+        <v>71279000</v>
+      </c>
+      <c r="E3029" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3029">
+        <f t="shared" si="326"/>
+        <v>71279000</v>
+      </c>
+      <c r="G3029" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3029" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3029" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3030" s="1">
+        <v>3028</v>
+      </c>
+      <c r="B3030" s="1">
+        <v>2228000</v>
+      </c>
+      <c r="C3030" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3030" s="1">
+        <f t="shared" si="325"/>
+        <v>10000</v>
+      </c>
+      <c r="E3030" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3030">
+        <f t="shared" si="326"/>
+        <v>10000</v>
+      </c>
+      <c r="G3030" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3030" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3030" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3031" s="1">
+        <v>3029</v>
+      </c>
+      <c r="B3031" s="1">
+        <v>2229000</v>
+      </c>
+      <c r="C3031" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3031" s="1">
+        <f t="shared" si="325"/>
+        <v>71339000</v>
+      </c>
+      <c r="E3031" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3031">
+        <f t="shared" si="326"/>
+        <v>71339000</v>
+      </c>
+      <c r="G3031" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3031" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3031" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3032" s="1">
+        <v>3030</v>
+      </c>
+      <c r="B3032" s="1">
+        <v>2230000</v>
+      </c>
+      <c r="C3032" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3032" s="1">
+        <f t="shared" ref="D3032:D3095" si="327">IF($C3032=46,$G3032*100-900,IF(OR($C3032=1,$C3032=5),$A3032*30000-19531000,IF($C3032=20,$G3032*500-2500,IF($C3032=14,$G3032*10-90,0))))</f>
+        <v>160</v>
+      </c>
+      <c r="E3032" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3032">
+        <f t="shared" ref="F3032:F3095" si="328">IF($C3032=46,$G3032*100-900,IF(OR($C3032=1,$C3032=5),$A3032*30000-19531000,IF($C3032=20,$G3032*500-2500,IF($C3032=14,$G3032*10-90,0))))</f>
+        <v>160</v>
+      </c>
+      <c r="G3032" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3032" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3032" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3033" s="1">
+        <v>3031</v>
+      </c>
+      <c r="B3033" s="1">
+        <v>2231000</v>
+      </c>
+      <c r="C3033" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3033" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3033" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3033">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3033" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3033" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3033" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3034" s="1">
+        <v>3032</v>
+      </c>
+      <c r="B3034" s="1">
+        <v>2232000</v>
+      </c>
+      <c r="C3034" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3034" s="1">
+        <f t="shared" si="327"/>
+        <v>71429000</v>
+      </c>
+      <c r="E3034" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3034">
+        <f t="shared" si="328"/>
+        <v>71429000</v>
+      </c>
+      <c r="G3034" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3034" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3034" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3035" s="1">
+        <v>3033</v>
+      </c>
+      <c r="B3035" s="1">
+        <v>2233000</v>
+      </c>
+      <c r="C3035" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3035" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3035" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3035">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3035" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3035" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3035" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3036" s="1">
+        <v>3034</v>
+      </c>
+      <c r="B3036" s="1">
+        <v>2234000</v>
+      </c>
+      <c r="C3036" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3036" s="1">
+        <f t="shared" si="327"/>
+        <v>71489000</v>
+      </c>
+      <c r="E3036" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3036">
+        <f t="shared" si="328"/>
+        <v>71489000</v>
+      </c>
+      <c r="G3036" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3036" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3036" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3037" s="1">
+        <v>3035</v>
+      </c>
+      <c r="B3037" s="1">
+        <v>2235000</v>
+      </c>
+      <c r="C3037" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3037" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3037" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3037">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3037" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3037" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3037" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3038" s="1">
+        <v>3036</v>
+      </c>
+      <c r="B3038" s="1">
+        <v>2236000</v>
+      </c>
+      <c r="C3038" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3038" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3038" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3038">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3038" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3038" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3038" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3039" s="1">
+        <v>3037</v>
+      </c>
+      <c r="B3039" s="1">
+        <v>2237000</v>
+      </c>
+      <c r="C3039" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3039" s="1">
+        <f t="shared" si="327"/>
+        <v>71579000</v>
+      </c>
+      <c r="E3039" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3039">
+        <f t="shared" si="328"/>
+        <v>71579000</v>
+      </c>
+      <c r="G3039" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3039" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3039" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3040" s="1">
+        <v>3038</v>
+      </c>
+      <c r="B3040" s="1">
+        <v>2238000</v>
+      </c>
+      <c r="C3040" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3040" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3040" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3040">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3040" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3040" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3040" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3041" s="1">
+        <v>3039</v>
+      </c>
+      <c r="B3041" s="1">
+        <v>2239000</v>
+      </c>
+      <c r="C3041" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3041" s="1">
+        <f t="shared" si="327"/>
+        <v>71639000</v>
+      </c>
+      <c r="E3041" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3041">
+        <f t="shared" si="328"/>
+        <v>71639000</v>
+      </c>
+      <c r="G3041" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3041" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3041" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3042" s="1">
+        <v>3040</v>
+      </c>
+      <c r="B3042" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="C3042" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3042" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3042" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3042">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3042" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3042" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3042" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3043" s="1">
+        <v>3041</v>
+      </c>
+      <c r="B3043" s="1">
+        <v>2241000</v>
+      </c>
+      <c r="C3043" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3043" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3043" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3043">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3043" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3043" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3043" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3044" s="1">
+        <v>3042</v>
+      </c>
+      <c r="B3044" s="1">
+        <v>2242000</v>
+      </c>
+      <c r="C3044" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3044" s="1">
+        <f t="shared" si="327"/>
+        <v>71729000</v>
+      </c>
+      <c r="E3044" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3044">
+        <f t="shared" si="328"/>
+        <v>71729000</v>
+      </c>
+      <c r="G3044" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3044" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3044" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3045" s="1">
+        <v>3043</v>
+      </c>
+      <c r="B3045" s="1">
+        <v>2243000</v>
+      </c>
+      <c r="C3045" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3045" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3045" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3045">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3045" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3045" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3045" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3046" s="1">
+        <v>3044</v>
+      </c>
+      <c r="B3046" s="1">
+        <v>2244000</v>
+      </c>
+      <c r="C3046" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3046" s="1">
+        <f t="shared" si="327"/>
+        <v>71789000</v>
+      </c>
+      <c r="E3046" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3046">
+        <f t="shared" si="328"/>
+        <v>71789000</v>
+      </c>
+      <c r="G3046" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3046" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3046" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3047" s="1">
+        <v>3045</v>
+      </c>
+      <c r="B3047" s="1">
+        <v>2245000</v>
+      </c>
+      <c r="C3047" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3047" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3047" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3047">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3047" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3047" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3047" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3048" s="1">
+        <v>3046</v>
+      </c>
+      <c r="B3048" s="1">
+        <v>2246000</v>
+      </c>
+      <c r="C3048" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3048" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3048" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3048">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3048" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3048" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3048" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3049" s="1">
+        <v>3047</v>
+      </c>
+      <c r="B3049" s="1">
+        <v>2247000</v>
+      </c>
+      <c r="C3049" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3049" s="1">
+        <f t="shared" si="327"/>
+        <v>71879000</v>
+      </c>
+      <c r="E3049" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3049">
+        <f t="shared" si="328"/>
+        <v>71879000</v>
+      </c>
+      <c r="G3049" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3049" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3049" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3050" s="1">
+        <v>3048</v>
+      </c>
+      <c r="B3050" s="1">
+        <v>2248000</v>
+      </c>
+      <c r="C3050" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3050" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3050" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3050">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3050" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3050" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3050" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3051" s="1">
+        <v>3049</v>
+      </c>
+      <c r="B3051" s="1">
+        <v>2249000</v>
+      </c>
+      <c r="C3051" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3051" s="1">
+        <f t="shared" si="327"/>
+        <v>71939000</v>
+      </c>
+      <c r="E3051" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3051">
+        <f t="shared" si="328"/>
+        <v>71939000</v>
+      </c>
+      <c r="G3051" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3051" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3051" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3052" s="1">
+        <v>3050</v>
+      </c>
+      <c r="B3052" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="C3052" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3052" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3052" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3052">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3052" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3052" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3052" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3053" s="1">
+        <v>3051</v>
+      </c>
+      <c r="B3053" s="1">
+        <v>2251000</v>
+      </c>
+      <c r="C3053" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3053" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3053" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3053">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3053" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3053" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3053" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3054" s="1">
+        <v>3052</v>
+      </c>
+      <c r="B3054" s="1">
+        <v>2252000</v>
+      </c>
+      <c r="C3054" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3054" s="1">
+        <f t="shared" si="327"/>
+        <v>72029000</v>
+      </c>
+      <c r="E3054" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3054">
+        <f t="shared" si="328"/>
+        <v>72029000</v>
+      </c>
+      <c r="G3054" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3054" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3054" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3055" s="1">
+        <v>3053</v>
+      </c>
+      <c r="B3055" s="1">
+        <v>2253000</v>
+      </c>
+      <c r="C3055" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3055" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3055" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3055">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3055" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3055" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3055" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3056" s="1">
+        <v>3054</v>
+      </c>
+      <c r="B3056" s="1">
+        <v>2254000</v>
+      </c>
+      <c r="C3056" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3056" s="1">
+        <f t="shared" si="327"/>
+        <v>72089000</v>
+      </c>
+      <c r="E3056" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3056">
+        <f t="shared" si="328"/>
+        <v>72089000</v>
+      </c>
+      <c r="G3056" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3056" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3056" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3057" s="1">
+        <v>3055</v>
+      </c>
+      <c r="B3057" s="1">
+        <v>2255000</v>
+      </c>
+      <c r="C3057" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3057" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3057" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3057">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3057" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3057" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3057" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3058" s="1">
+        <v>3056</v>
+      </c>
+      <c r="B3058" s="1">
+        <v>2256000</v>
+      </c>
+      <c r="C3058" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3058" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3058" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3058">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3058" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3058" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3058" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3059" s="1">
+        <v>3057</v>
+      </c>
+      <c r="B3059" s="1">
+        <v>2257000</v>
+      </c>
+      <c r="C3059" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3059" s="1">
+        <f t="shared" si="327"/>
+        <v>72179000</v>
+      </c>
+      <c r="E3059" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3059">
+        <f t="shared" si="328"/>
+        <v>72179000</v>
+      </c>
+      <c r="G3059" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3059" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3059" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3060" s="1">
+        <v>3058</v>
+      </c>
+      <c r="B3060" s="1">
+        <v>2258000</v>
+      </c>
+      <c r="C3060" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3060" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3060" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3060">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3060" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3060" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3060" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3061" s="1">
+        <v>3059</v>
+      </c>
+      <c r="B3061" s="1">
+        <v>2259000</v>
+      </c>
+      <c r="C3061" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3061" s="1">
+        <f t="shared" si="327"/>
+        <v>72239000</v>
+      </c>
+      <c r="E3061" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3061">
+        <f t="shared" si="328"/>
+        <v>72239000</v>
+      </c>
+      <c r="G3061" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3061" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3061" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3062" s="1">
+        <v>3060</v>
+      </c>
+      <c r="B3062" s="1">
+        <v>2260000</v>
+      </c>
+      <c r="C3062" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3062" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3062" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3062">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3062" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3062" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3062" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3063" s="1">
+        <v>3061</v>
+      </c>
+      <c r="B3063" s="1">
+        <v>2261000</v>
+      </c>
+      <c r="C3063" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3063" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3063" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3063">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3063" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3063" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3063" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3064" s="1">
+        <v>3062</v>
+      </c>
+      <c r="B3064" s="1">
+        <v>2262000</v>
+      </c>
+      <c r="C3064" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3064" s="1">
+        <f t="shared" si="327"/>
+        <v>72329000</v>
+      </c>
+      <c r="E3064" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3064">
+        <f t="shared" si="328"/>
+        <v>72329000</v>
+      </c>
+      <c r="G3064" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3064" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3064" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3065" s="1">
+        <v>3063</v>
+      </c>
+      <c r="B3065" s="1">
+        <v>2263000</v>
+      </c>
+      <c r="C3065" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3065" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3065" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3065">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3065" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3065" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3065" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3066" s="1">
+        <v>3064</v>
+      </c>
+      <c r="B3066" s="1">
+        <v>2264000</v>
+      </c>
+      <c r="C3066" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3066" s="1">
+        <f t="shared" si="327"/>
+        <v>72389000</v>
+      </c>
+      <c r="E3066" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3066">
+        <f t="shared" si="328"/>
+        <v>72389000</v>
+      </c>
+      <c r="G3066" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3066" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3066" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3067" s="1">
+        <v>3065</v>
+      </c>
+      <c r="B3067" s="1">
+        <v>2265000</v>
+      </c>
+      <c r="C3067" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3067" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3067" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3067">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3067" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3067" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3067" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3068" s="1">
+        <v>3066</v>
+      </c>
+      <c r="B3068" s="1">
+        <v>2266000</v>
+      </c>
+      <c r="C3068" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3068" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3068" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3068">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3068" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3068" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3068" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3069" s="1">
+        <v>3067</v>
+      </c>
+      <c r="B3069" s="1">
+        <v>2267000</v>
+      </c>
+      <c r="C3069" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3069" s="1">
+        <f t="shared" si="327"/>
+        <v>72479000</v>
+      </c>
+      <c r="E3069" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3069">
+        <f t="shared" si="328"/>
+        <v>72479000</v>
+      </c>
+      <c r="G3069" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3069" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3069" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3070" s="1">
+        <v>3068</v>
+      </c>
+      <c r="B3070" s="1">
+        <v>2268000</v>
+      </c>
+      <c r="C3070" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3070" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3070" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3070">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3070" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3070" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3070" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3071" s="1">
+        <v>3069</v>
+      </c>
+      <c r="B3071" s="1">
+        <v>2269000</v>
+      </c>
+      <c r="C3071" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3071" s="1">
+        <f t="shared" si="327"/>
+        <v>72539000</v>
+      </c>
+      <c r="E3071" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3071">
+        <f t="shared" si="328"/>
+        <v>72539000</v>
+      </c>
+      <c r="G3071" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3071" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3071" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3072" s="1">
+        <v>3070</v>
+      </c>
+      <c r="B3072" s="1">
+        <v>2270000</v>
+      </c>
+      <c r="C3072" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3072" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3072" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3072">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3072" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3072" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3072" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3073" s="1">
+        <v>3071</v>
+      </c>
+      <c r="B3073" s="1">
+        <v>2271000</v>
+      </c>
+      <c r="C3073" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3073" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3073" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3073">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3073" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3073" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3073" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3074" s="1">
+        <v>3072</v>
+      </c>
+      <c r="B3074" s="1">
+        <v>2272000</v>
+      </c>
+      <c r="C3074" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3074" s="1">
+        <f t="shared" si="327"/>
+        <v>72629000</v>
+      </c>
+      <c r="E3074" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3074">
+        <f t="shared" si="328"/>
+        <v>72629000</v>
+      </c>
+      <c r="G3074" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3074" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3074" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3075" s="1">
+        <v>3073</v>
+      </c>
+      <c r="B3075" s="1">
+        <v>2273000</v>
+      </c>
+      <c r="C3075" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3075" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3075" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3075">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3075" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3075" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3075" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3076" s="1">
+        <v>3074</v>
+      </c>
+      <c r="B3076" s="1">
+        <v>2274000</v>
+      </c>
+      <c r="C3076" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3076" s="1">
+        <f t="shared" si="327"/>
+        <v>72689000</v>
+      </c>
+      <c r="E3076" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3076">
+        <f t="shared" si="328"/>
+        <v>72689000</v>
+      </c>
+      <c r="G3076" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3076" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3076" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3077" s="1">
+        <v>3075</v>
+      </c>
+      <c r="B3077" s="1">
+        <v>2275000</v>
+      </c>
+      <c r="C3077" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3077" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3077" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3077">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3077" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3077" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3077" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3078" s="1">
+        <v>3076</v>
+      </c>
+      <c r="B3078" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="C3078" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3078" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3078" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3078">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3078" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3078" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3078" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3079" s="1">
+        <v>3077</v>
+      </c>
+      <c r="B3079" s="1">
+        <v>2277000</v>
+      </c>
+      <c r="C3079" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3079" s="1">
+        <f t="shared" si="327"/>
+        <v>72779000</v>
+      </c>
+      <c r="E3079" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3079">
+        <f t="shared" si="328"/>
+        <v>72779000</v>
+      </c>
+      <c r="G3079" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3079" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3079" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3080" s="1">
+        <v>3078</v>
+      </c>
+      <c r="B3080" s="1">
+        <v>2278000</v>
+      </c>
+      <c r="C3080" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3080" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3080" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3080">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3080" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3080" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3080" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3081" s="1">
+        <v>3079</v>
+      </c>
+      <c r="B3081" s="1">
+        <v>2279000</v>
+      </c>
+      <c r="C3081" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3081" s="1">
+        <f t="shared" si="327"/>
+        <v>72839000</v>
+      </c>
+      <c r="E3081" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3081">
+        <f t="shared" si="328"/>
+        <v>72839000</v>
+      </c>
+      <c r="G3081" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3081" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3081" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3082" s="1">
+        <v>3080</v>
+      </c>
+      <c r="B3082" s="1">
+        <v>2280000</v>
+      </c>
+      <c r="C3082" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3082" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3082" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3082">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3082" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3082" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3082" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3083" s="1">
+        <v>3081</v>
+      </c>
+      <c r="B3083" s="1">
+        <v>2281000</v>
+      </c>
+      <c r="C3083" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3083" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3083" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3083">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3083" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3083" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3083" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3084" s="1">
+        <v>3082</v>
+      </c>
+      <c r="B3084" s="1">
+        <v>2282000</v>
+      </c>
+      <c r="C3084" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3084" s="1">
+        <f t="shared" si="327"/>
+        <v>72929000</v>
+      </c>
+      <c r="E3084" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3084">
+        <f t="shared" si="328"/>
+        <v>72929000</v>
+      </c>
+      <c r="G3084" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3084" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3084" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3085" s="1">
+        <v>3083</v>
+      </c>
+      <c r="B3085" s="1">
+        <v>2283000</v>
+      </c>
+      <c r="C3085" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3085" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3085" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3085">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3085" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3085" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3085" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3086" s="1">
+        <v>3084</v>
+      </c>
+      <c r="B3086" s="1">
+        <v>2284000</v>
+      </c>
+      <c r="C3086" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3086" s="1">
+        <f t="shared" si="327"/>
+        <v>72989000</v>
+      </c>
+      <c r="E3086" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3086">
+        <f t="shared" si="328"/>
+        <v>72989000</v>
+      </c>
+      <c r="G3086" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3086" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3086" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3087" s="1">
+        <v>3085</v>
+      </c>
+      <c r="B3087" s="1">
+        <v>2285000</v>
+      </c>
+      <c r="C3087" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3087" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3087" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3087">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3087" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3087" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3087" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3088" s="1">
+        <v>3086</v>
+      </c>
+      <c r="B3088" s="1">
+        <v>2286000</v>
+      </c>
+      <c r="C3088" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3088" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3088" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3088">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3088" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3088" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3088" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3089" s="1">
+        <v>3087</v>
+      </c>
+      <c r="B3089" s="1">
+        <v>2287000</v>
+      </c>
+      <c r="C3089" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3089" s="1">
+        <f t="shared" si="327"/>
+        <v>73079000</v>
+      </c>
+      <c r="E3089" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3089">
+        <f t="shared" si="328"/>
+        <v>73079000</v>
+      </c>
+      <c r="G3089" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3089" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3089" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3090" s="1">
+        <v>3088</v>
+      </c>
+      <c r="B3090" s="1">
+        <v>2288000</v>
+      </c>
+      <c r="C3090" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3090" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3090" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3090">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3090" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3090" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3090" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3091" s="1">
+        <v>3089</v>
+      </c>
+      <c r="B3091" s="1">
+        <v>2289000</v>
+      </c>
+      <c r="C3091" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3091" s="1">
+        <f t="shared" si="327"/>
+        <v>73139000</v>
+      </c>
+      <c r="E3091" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3091">
+        <f t="shared" si="328"/>
+        <v>73139000</v>
+      </c>
+      <c r="G3091" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3091" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3091" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3092" s="1">
+        <v>3090</v>
+      </c>
+      <c r="B3092" s="1">
+        <v>2290000</v>
+      </c>
+      <c r="C3092" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3092" s="1">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="E3092" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3092">
+        <f t="shared" si="328"/>
+        <v>160</v>
+      </c>
+      <c r="G3092" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3092" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3092" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3093" s="1">
+        <v>3091</v>
+      </c>
+      <c r="B3093" s="1">
+        <v>2291000</v>
+      </c>
+      <c r="C3093" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3093" s="1">
+        <f t="shared" si="327"/>
+        <v>1600</v>
+      </c>
+      <c r="E3093" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3093">
+        <f t="shared" si="328"/>
+        <v>1600</v>
+      </c>
+      <c r="G3093" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3093" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3093" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3094" s="1">
+        <v>3092</v>
+      </c>
+      <c r="B3094" s="1">
+        <v>2292000</v>
+      </c>
+      <c r="C3094" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3094" s="1">
+        <f t="shared" si="327"/>
+        <v>73229000</v>
+      </c>
+      <c r="E3094" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3094">
+        <f t="shared" si="328"/>
+        <v>73229000</v>
+      </c>
+      <c r="G3094" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3094" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3094" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3095" s="1">
+        <v>3093</v>
+      </c>
+      <c r="B3095" s="1">
+        <v>2293000</v>
+      </c>
+      <c r="C3095" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3095" s="1">
+        <f t="shared" si="327"/>
+        <v>10000</v>
+      </c>
+      <c r="E3095" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3095">
+        <f t="shared" si="328"/>
+        <v>10000</v>
+      </c>
+      <c r="G3095" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3095" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3095" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3096" s="1">
+        <v>3094</v>
+      </c>
+      <c r="B3096" s="1">
+        <v>2294000</v>
+      </c>
+      <c r="C3096" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3096" s="1">
+        <f t="shared" ref="D3096:D3102" si="329">IF($C3096=46,$G3096*100-900,IF(OR($C3096=1,$C3096=5),$A3096*30000-19531000,IF($C3096=20,$G3096*500-2500,IF($C3096=14,$G3096*10-90,0))))</f>
+        <v>73289000</v>
+      </c>
+      <c r="E3096" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3096">
+        <f t="shared" ref="F3096:F3102" si="330">IF($C3096=46,$G3096*100-900,IF(OR($C3096=1,$C3096=5),$A3096*30000-19531000,IF($C3096=20,$G3096*500-2500,IF($C3096=14,$G3096*10-90,0))))</f>
+        <v>73289000</v>
+      </c>
+      <c r="G3096" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3096" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3096" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3097" s="1">
+        <v>3095</v>
+      </c>
+      <c r="B3097" s="1">
+        <v>2295000</v>
+      </c>
+      <c r="C3097" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3097" s="1">
+        <f t="shared" si="329"/>
+        <v>160</v>
+      </c>
+      <c r="E3097" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3097">
+        <f t="shared" si="330"/>
+        <v>160</v>
+      </c>
+      <c r="G3097" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3097" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3097" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3098" s="1">
+        <v>3096</v>
+      </c>
+      <c r="B3098" s="1">
+        <v>2296000</v>
+      </c>
+      <c r="C3098" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3098" s="1">
+        <f t="shared" si="329"/>
+        <v>1600</v>
+      </c>
+      <c r="E3098" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3098">
+        <f t="shared" si="330"/>
+        <v>1600</v>
+      </c>
+      <c r="G3098" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3098" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3098" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3099" s="1">
+        <v>3097</v>
+      </c>
+      <c r="B3099" s="1">
+        <v>2297000</v>
+      </c>
+      <c r="C3099" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3099" s="1">
+        <f t="shared" si="329"/>
+        <v>73379000</v>
+      </c>
+      <c r="E3099" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3099">
+        <f t="shared" si="330"/>
+        <v>73379000</v>
+      </c>
+      <c r="G3099" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3099" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3099" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3100" s="1">
+        <v>3098</v>
+      </c>
+      <c r="B3100" s="1">
+        <v>2298000</v>
+      </c>
+      <c r="C3100" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3100" s="1">
+        <f t="shared" si="329"/>
+        <v>10000</v>
+      </c>
+      <c r="E3100" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3100">
+        <f t="shared" si="330"/>
+        <v>10000</v>
+      </c>
+      <c r="G3100" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3100" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3101" s="1">
+        <v>3099</v>
+      </c>
+      <c r="B3101" s="1">
+        <v>2299000</v>
+      </c>
+      <c r="C3101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3101" s="1">
+        <f t="shared" si="329"/>
+        <v>73439000</v>
+      </c>
+      <c r="E3101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3101">
+        <f t="shared" si="330"/>
+        <v>73439000</v>
+      </c>
+      <c r="G3101" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3101" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3102" s="1">
+        <v>3100</v>
+      </c>
+      <c r="B3102" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="C3102" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3102" s="1">
+        <f t="shared" si="329"/>
+        <v>160</v>
+      </c>
+      <c r="E3102" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3102">
+        <f t="shared" si="330"/>
+        <v>160</v>
+      </c>
+      <c r="G3102" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3102" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3102" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C2402" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:I3002">
+  <conditionalFormatting sqref="A2:I3102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($A2,100)=0</formula>
     </cfRule>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27617811-3402-42C1-A1BA-D6932DE97056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57FC490-90C0-4551-8000-D9328DB3ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -228,6 +228,9 @@
     <t>levelpass26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>levelpass27</t>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +408,43 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -734,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J3102"/>
+  <dimension ref="A1:J3202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2985" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3004" sqref="H3004"/>
+      <pane ySplit="1" topLeftCell="A3193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3213" sqref="F3213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -92537,14 +92576,14 @@
         <v>1</v>
       </c>
       <c r="D3096" s="1">
-        <f t="shared" ref="D3096:D3102" si="329">IF($C3096=46,$G3096*100-900,IF(OR($C3096=1,$C3096=5),$A3096*30000-19531000,IF($C3096=20,$G3096*500-2500,IF($C3096=14,$G3096*10-90,0))))</f>
+        <f t="shared" ref="D3096:D3159" si="329">IF($C3096=46,$G3096*100-900,IF(OR($C3096=1,$C3096=5),$A3096*30000-19531000,IF($C3096=20,$G3096*500-2500,IF($C3096=14,$G3096*10-90,0))))</f>
         <v>73289000</v>
       </c>
       <c r="E3096" s="1">
         <v>1</v>
       </c>
       <c r="F3096">
-        <f t="shared" ref="F3096:F3102" si="330">IF($C3096=46,$G3096*100-900,IF(OR($C3096=1,$C3096=5),$A3096*30000-19531000,IF($C3096=20,$G3096*500-2500,IF($C3096=14,$G3096*10-90,0))))</f>
+        <f t="shared" ref="F3096:F3159" si="330">IF($C3096=46,$G3096*100-900,IF(OR($C3096=1,$C3096=5),$A3096*30000-19531000,IF($C3096=20,$G3096*500-2500,IF($C3096=14,$G3096*10-90,0))))</f>
         <v>73289000</v>
       </c>
       <c r="G3096" s="1">
@@ -92743,12 +92782,3122 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3103" s="1">
+        <v>3101</v>
+      </c>
+      <c r="B3103" s="1">
+        <v>2301000</v>
+      </c>
+      <c r="C3103" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3103" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3103" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3103">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3103" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3103" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3104" s="1">
+        <v>3102</v>
+      </c>
+      <c r="B3104" s="1">
+        <v>2302000</v>
+      </c>
+      <c r="C3104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3104" s="1">
+        <f t="shared" si="329"/>
+        <v>73529000</v>
+      </c>
+      <c r="E3104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3104">
+        <f t="shared" si="330"/>
+        <v>73529000</v>
+      </c>
+      <c r="G3104" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3104" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3105" s="1">
+        <v>3103</v>
+      </c>
+      <c r="B3105" s="1">
+        <v>2303000</v>
+      </c>
+      <c r="C3105" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3105" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3105" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3105">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3105" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3105" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3106" s="1">
+        <v>3104</v>
+      </c>
+      <c r="B3106" s="1">
+        <v>2304000</v>
+      </c>
+      <c r="C3106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3106" s="1">
+        <f t="shared" si="329"/>
+        <v>73589000</v>
+      </c>
+      <c r="E3106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3106">
+        <f t="shared" si="330"/>
+        <v>73589000</v>
+      </c>
+      <c r="G3106" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3106" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3107" s="1">
+        <v>3105</v>
+      </c>
+      <c r="B3107" s="1">
+        <v>2305000</v>
+      </c>
+      <c r="C3107" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3107" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3107" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3107">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3107" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3107" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3108" s="1">
+        <v>3106</v>
+      </c>
+      <c r="B3108" s="1">
+        <v>2306000</v>
+      </c>
+      <c r="C3108" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3108" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3108" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3108">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3108" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3108" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3109" s="1">
+        <v>3107</v>
+      </c>
+      <c r="B3109" s="1">
+        <v>2307000</v>
+      </c>
+      <c r="C3109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3109" s="1">
+        <f t="shared" si="329"/>
+        <v>73679000</v>
+      </c>
+      <c r="E3109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3109">
+        <f t="shared" si="330"/>
+        <v>73679000</v>
+      </c>
+      <c r="G3109" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3109" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3110" s="1">
+        <v>3108</v>
+      </c>
+      <c r="B3110" s="1">
+        <v>2308000</v>
+      </c>
+      <c r="C3110" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3110" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3110" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3110">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3110" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3110" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3111" s="1">
+        <v>3109</v>
+      </c>
+      <c r="B3111" s="1">
+        <v>2309000</v>
+      </c>
+      <c r="C3111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3111" s="1">
+        <f t="shared" si="329"/>
+        <v>73739000</v>
+      </c>
+      <c r="E3111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3111">
+        <f t="shared" si="330"/>
+        <v>73739000</v>
+      </c>
+      <c r="G3111" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3111" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3112" s="1">
+        <v>3110</v>
+      </c>
+      <c r="B3112" s="1">
+        <v>2310000</v>
+      </c>
+      <c r="C3112" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3112" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3112" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3112">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3112" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3112" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3113" s="1">
+        <v>3111</v>
+      </c>
+      <c r="B3113" s="1">
+        <v>2311000</v>
+      </c>
+      <c r="C3113" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3113" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3113" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3113">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3113" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3113" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3114" s="1">
+        <v>3112</v>
+      </c>
+      <c r="B3114" s="1">
+        <v>2312000</v>
+      </c>
+      <c r="C3114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3114" s="1">
+        <f t="shared" si="329"/>
+        <v>73829000</v>
+      </c>
+      <c r="E3114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3114">
+        <f t="shared" si="330"/>
+        <v>73829000</v>
+      </c>
+      <c r="G3114" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3115" s="1">
+        <v>3113</v>
+      </c>
+      <c r="B3115" s="1">
+        <v>2313000</v>
+      </c>
+      <c r="C3115" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3115" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3115" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3115">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3115" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3115" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3116" s="1">
+        <v>3114</v>
+      </c>
+      <c r="B3116" s="1">
+        <v>2314000</v>
+      </c>
+      <c r="C3116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3116" s="1">
+        <f t="shared" si="329"/>
+        <v>73889000</v>
+      </c>
+      <c r="E3116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3116">
+        <f t="shared" si="330"/>
+        <v>73889000</v>
+      </c>
+      <c r="G3116" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3116" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3117" s="1">
+        <v>3115</v>
+      </c>
+      <c r="B3117" s="1">
+        <v>2315000</v>
+      </c>
+      <c r="C3117" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3117" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3117" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3117">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3117" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3117" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3118" s="1">
+        <v>3116</v>
+      </c>
+      <c r="B3118" s="1">
+        <v>2316000</v>
+      </c>
+      <c r="C3118" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3118" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3118" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3118">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3118" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3118" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3119" s="1">
+        <v>3117</v>
+      </c>
+      <c r="B3119" s="1">
+        <v>2317000</v>
+      </c>
+      <c r="C3119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3119" s="1">
+        <f t="shared" si="329"/>
+        <v>73979000</v>
+      </c>
+      <c r="E3119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3119">
+        <f t="shared" si="330"/>
+        <v>73979000</v>
+      </c>
+      <c r="G3119" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3119" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3120" s="1">
+        <v>3118</v>
+      </c>
+      <c r="B3120" s="1">
+        <v>2318000</v>
+      </c>
+      <c r="C3120" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3120" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3120" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3120">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3120" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3120" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3121" s="1">
+        <v>3119</v>
+      </c>
+      <c r="B3121" s="1">
+        <v>2319000</v>
+      </c>
+      <c r="C3121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3121" s="1">
+        <f t="shared" si="329"/>
+        <v>74039000</v>
+      </c>
+      <c r="E3121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3121">
+        <f t="shared" si="330"/>
+        <v>74039000</v>
+      </c>
+      <c r="G3121" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3121" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3122" s="1">
+        <v>3120</v>
+      </c>
+      <c r="B3122" s="1">
+        <v>2320000</v>
+      </c>
+      <c r="C3122" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3122" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3122" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3122">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3122" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3122" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3123" s="1">
+        <v>3121</v>
+      </c>
+      <c r="B3123" s="1">
+        <v>2321000</v>
+      </c>
+      <c r="C3123" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3123" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3123" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3123">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3123" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3124" s="1">
+        <v>3122</v>
+      </c>
+      <c r="B3124" s="1">
+        <v>2322000</v>
+      </c>
+      <c r="C3124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3124" s="1">
+        <f t="shared" si="329"/>
+        <v>74129000</v>
+      </c>
+      <c r="E3124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3124">
+        <f t="shared" si="330"/>
+        <v>74129000</v>
+      </c>
+      <c r="G3124" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3124" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3125" s="1">
+        <v>3123</v>
+      </c>
+      <c r="B3125" s="1">
+        <v>2323000</v>
+      </c>
+      <c r="C3125" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3125" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3125" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3125">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3125" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3125" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3126" s="1">
+        <v>3124</v>
+      </c>
+      <c r="B3126" s="1">
+        <v>2324000</v>
+      </c>
+      <c r="C3126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3126" s="1">
+        <f t="shared" si="329"/>
+        <v>74189000</v>
+      </c>
+      <c r="E3126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3126">
+        <f t="shared" si="330"/>
+        <v>74189000</v>
+      </c>
+      <c r="G3126" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3126" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3127" s="1">
+        <v>3125</v>
+      </c>
+      <c r="B3127" s="1">
+        <v>2325000</v>
+      </c>
+      <c r="C3127" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3127" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3127" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3127">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3127" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3127" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3128" s="1">
+        <v>3126</v>
+      </c>
+      <c r="B3128" s="1">
+        <v>2326000</v>
+      </c>
+      <c r="C3128" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3128" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3128" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3128">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3128" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3128" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3129" s="1">
+        <v>3127</v>
+      </c>
+      <c r="B3129" s="1">
+        <v>2327000</v>
+      </c>
+      <c r="C3129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3129" s="1">
+        <f t="shared" si="329"/>
+        <v>74279000</v>
+      </c>
+      <c r="E3129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3129">
+        <f t="shared" si="330"/>
+        <v>74279000</v>
+      </c>
+      <c r="G3129" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3129" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3130" s="1">
+        <v>3128</v>
+      </c>
+      <c r="B3130" s="1">
+        <v>2328000</v>
+      </c>
+      <c r="C3130" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3130" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3130" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3130">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3130" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3130" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3131" s="1">
+        <v>3129</v>
+      </c>
+      <c r="B3131" s="1">
+        <v>2329000</v>
+      </c>
+      <c r="C3131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3131" s="1">
+        <f t="shared" si="329"/>
+        <v>74339000</v>
+      </c>
+      <c r="E3131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3131">
+        <f t="shared" si="330"/>
+        <v>74339000</v>
+      </c>
+      <c r="G3131" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3131" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3132" s="1">
+        <v>3130</v>
+      </c>
+      <c r="B3132" s="1">
+        <v>2330000</v>
+      </c>
+      <c r="C3132" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3132" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3132" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3132">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3132" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3132" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3133" s="1">
+        <v>3131</v>
+      </c>
+      <c r="B3133" s="1">
+        <v>2331000</v>
+      </c>
+      <c r="C3133" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3133" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3133" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3133">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3133" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3133" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3134" s="1">
+        <v>3132</v>
+      </c>
+      <c r="B3134" s="1">
+        <v>2332000</v>
+      </c>
+      <c r="C3134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3134" s="1">
+        <f t="shared" si="329"/>
+        <v>74429000</v>
+      </c>
+      <c r="E3134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3134">
+        <f t="shared" si="330"/>
+        <v>74429000</v>
+      </c>
+      <c r="G3134" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3134" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3135" s="1">
+        <v>3133</v>
+      </c>
+      <c r="B3135" s="1">
+        <v>2333000</v>
+      </c>
+      <c r="C3135" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3135" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3135" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3135">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3135" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3135" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3136" s="1">
+        <v>3134</v>
+      </c>
+      <c r="B3136" s="1">
+        <v>2334000</v>
+      </c>
+      <c r="C3136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3136" s="1">
+        <f t="shared" si="329"/>
+        <v>74489000</v>
+      </c>
+      <c r="E3136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3136">
+        <f t="shared" si="330"/>
+        <v>74489000</v>
+      </c>
+      <c r="G3136" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3136" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3137" s="1">
+        <v>3135</v>
+      </c>
+      <c r="B3137" s="1">
+        <v>2335000</v>
+      </c>
+      <c r="C3137" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3137" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3137" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3137">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3137" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3137" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3138" s="1">
+        <v>3136</v>
+      </c>
+      <c r="B3138" s="1">
+        <v>2336000</v>
+      </c>
+      <c r="C3138" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3138" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3138" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3138">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3138" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3138" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3139" s="1">
+        <v>3137</v>
+      </c>
+      <c r="B3139" s="1">
+        <v>2337000</v>
+      </c>
+      <c r="C3139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3139" s="1">
+        <f t="shared" si="329"/>
+        <v>74579000</v>
+      </c>
+      <c r="E3139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3139">
+        <f t="shared" si="330"/>
+        <v>74579000</v>
+      </c>
+      <c r="G3139" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3139" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3140" s="1">
+        <v>3138</v>
+      </c>
+      <c r="B3140" s="1">
+        <v>2338000</v>
+      </c>
+      <c r="C3140" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3140" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3140" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3140">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3140" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3140" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3141" s="1">
+        <v>3139</v>
+      </c>
+      <c r="B3141" s="1">
+        <v>2339000</v>
+      </c>
+      <c r="C3141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3141" s="1">
+        <f t="shared" si="329"/>
+        <v>74639000</v>
+      </c>
+      <c r="E3141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3141">
+        <f t="shared" si="330"/>
+        <v>74639000</v>
+      </c>
+      <c r="G3141" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3141" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3142" s="1">
+        <v>3140</v>
+      </c>
+      <c r="B3142" s="1">
+        <v>2340000</v>
+      </c>
+      <c r="C3142" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3142" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3142" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3142">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3142" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3142" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3143" s="1">
+        <v>3141</v>
+      </c>
+      <c r="B3143" s="1">
+        <v>2341000</v>
+      </c>
+      <c r="C3143" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3143" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3143" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3143">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3143" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3143" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3144" s="1">
+        <v>3142</v>
+      </c>
+      <c r="B3144" s="1">
+        <v>2342000</v>
+      </c>
+      <c r="C3144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3144" s="1">
+        <f t="shared" si="329"/>
+        <v>74729000</v>
+      </c>
+      <c r="E3144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3144">
+        <f t="shared" si="330"/>
+        <v>74729000</v>
+      </c>
+      <c r="G3144" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3144" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3145" s="1">
+        <v>3143</v>
+      </c>
+      <c r="B3145" s="1">
+        <v>2343000</v>
+      </c>
+      <c r="C3145" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3145" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3145" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3145">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3145" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3145" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3146" s="1">
+        <v>3144</v>
+      </c>
+      <c r="B3146" s="1">
+        <v>2344000</v>
+      </c>
+      <c r="C3146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3146" s="1">
+        <f t="shared" si="329"/>
+        <v>74789000</v>
+      </c>
+      <c r="E3146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3146">
+        <f t="shared" si="330"/>
+        <v>74789000</v>
+      </c>
+      <c r="G3146" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3146" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3147" s="1">
+        <v>3145</v>
+      </c>
+      <c r="B3147" s="1">
+        <v>2345000</v>
+      </c>
+      <c r="C3147" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3147" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3147" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3147">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3147" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3147" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3148" s="1">
+        <v>3146</v>
+      </c>
+      <c r="B3148" s="1">
+        <v>2346000</v>
+      </c>
+      <c r="C3148" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3148" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3148" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3148">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3148" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3149" s="1">
+        <v>3147</v>
+      </c>
+      <c r="B3149" s="1">
+        <v>2347000</v>
+      </c>
+      <c r="C3149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3149" s="1">
+        <f t="shared" si="329"/>
+        <v>74879000</v>
+      </c>
+      <c r="E3149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3149">
+        <f t="shared" si="330"/>
+        <v>74879000</v>
+      </c>
+      <c r="G3149" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3149" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3150" s="1">
+        <v>3148</v>
+      </c>
+      <c r="B3150" s="1">
+        <v>2348000</v>
+      </c>
+      <c r="C3150" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3150" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3150" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3150">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3150" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3150" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3151" s="1">
+        <v>3149</v>
+      </c>
+      <c r="B3151" s="1">
+        <v>2349000</v>
+      </c>
+      <c r="C3151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3151" s="1">
+        <f t="shared" si="329"/>
+        <v>74939000</v>
+      </c>
+      <c r="E3151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3151">
+        <f t="shared" si="330"/>
+        <v>74939000</v>
+      </c>
+      <c r="G3151" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3151" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3152" s="1">
+        <v>3150</v>
+      </c>
+      <c r="B3152" s="1">
+        <v>2350000</v>
+      </c>
+      <c r="C3152" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3152" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3152" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3152">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3152" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3152" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3153" s="1">
+        <v>3151</v>
+      </c>
+      <c r="B3153" s="1">
+        <v>2351000</v>
+      </c>
+      <c r="C3153" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3153" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3153" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3153">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3153" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3153" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3154" s="1">
+        <v>3152</v>
+      </c>
+      <c r="B3154" s="1">
+        <v>2352000</v>
+      </c>
+      <c r="C3154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3154" s="1">
+        <f t="shared" si="329"/>
+        <v>75029000</v>
+      </c>
+      <c r="E3154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3154">
+        <f t="shared" si="330"/>
+        <v>75029000</v>
+      </c>
+      <c r="G3154" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3154" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3155" s="1">
+        <v>3153</v>
+      </c>
+      <c r="B3155" s="1">
+        <v>2353000</v>
+      </c>
+      <c r="C3155" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3155" s="1">
+        <f t="shared" si="329"/>
+        <v>10500</v>
+      </c>
+      <c r="E3155" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3155">
+        <f t="shared" si="330"/>
+        <v>10500</v>
+      </c>
+      <c r="G3155" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3155" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3156" s="1">
+        <v>3154</v>
+      </c>
+      <c r="B3156" s="1">
+        <v>2354000</v>
+      </c>
+      <c r="C3156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3156" s="1">
+        <f t="shared" si="329"/>
+        <v>75089000</v>
+      </c>
+      <c r="E3156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3156">
+        <f t="shared" si="330"/>
+        <v>75089000</v>
+      </c>
+      <c r="G3156" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3156" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3157" s="1">
+        <v>3155</v>
+      </c>
+      <c r="B3157" s="1">
+        <v>2355000</v>
+      </c>
+      <c r="C3157" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3157" s="1">
+        <f t="shared" si="329"/>
+        <v>170</v>
+      </c>
+      <c r="E3157" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3157">
+        <f t="shared" si="330"/>
+        <v>170</v>
+      </c>
+      <c r="G3157" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3157" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3158" s="1">
+        <v>3156</v>
+      </c>
+      <c r="B3158" s="1">
+        <v>2356000</v>
+      </c>
+      <c r="C3158" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3158" s="1">
+        <f t="shared" si="329"/>
+        <v>1700</v>
+      </c>
+      <c r="E3158" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3158">
+        <f t="shared" si="330"/>
+        <v>1700</v>
+      </c>
+      <c r="G3158" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3158" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3159" s="1">
+        <v>3157</v>
+      </c>
+      <c r="B3159" s="1">
+        <v>2357000</v>
+      </c>
+      <c r="C3159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3159" s="1">
+        <f t="shared" si="329"/>
+        <v>75179000</v>
+      </c>
+      <c r="E3159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3159">
+        <f t="shared" si="330"/>
+        <v>75179000</v>
+      </c>
+      <c r="G3159" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3159" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3160" s="1">
+        <v>3158</v>
+      </c>
+      <c r="B3160" s="1">
+        <v>2358000</v>
+      </c>
+      <c r="C3160" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3160" s="1">
+        <f t="shared" ref="D3160:D3202" si="331">IF($C3160=46,$G3160*100-900,IF(OR($C3160=1,$C3160=5),$A3160*30000-19531000,IF($C3160=20,$G3160*500-2500,IF($C3160=14,$G3160*10-90,0))))</f>
+        <v>10500</v>
+      </c>
+      <c r="E3160" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3160">
+        <f t="shared" ref="F3160:F3202" si="332">IF($C3160=46,$G3160*100-900,IF(OR($C3160=1,$C3160=5),$A3160*30000-19531000,IF($C3160=20,$G3160*500-2500,IF($C3160=14,$G3160*10-90,0))))</f>
+        <v>10500</v>
+      </c>
+      <c r="G3160" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3160" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3161" s="1">
+        <v>3159</v>
+      </c>
+      <c r="B3161" s="1">
+        <v>2359000</v>
+      </c>
+      <c r="C3161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3161" s="1">
+        <f t="shared" si="331"/>
+        <v>75239000</v>
+      </c>
+      <c r="E3161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3161">
+        <f t="shared" si="332"/>
+        <v>75239000</v>
+      </c>
+      <c r="G3161" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3161" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3162" s="1">
+        <v>3160</v>
+      </c>
+      <c r="B3162" s="1">
+        <v>2360000</v>
+      </c>
+      <c r="C3162" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3162" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3162" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3162">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3162" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3162" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3163" s="1">
+        <v>3161</v>
+      </c>
+      <c r="B3163" s="1">
+        <v>2361000</v>
+      </c>
+      <c r="C3163" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3163" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3163" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3163">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3163" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3163" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3164" s="1">
+        <v>3162</v>
+      </c>
+      <c r="B3164" s="1">
+        <v>2362000</v>
+      </c>
+      <c r="C3164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3164" s="1">
+        <f t="shared" si="331"/>
+        <v>75329000</v>
+      </c>
+      <c r="E3164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3164">
+        <f t="shared" si="332"/>
+        <v>75329000</v>
+      </c>
+      <c r="G3164" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3164" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3165" s="1">
+        <v>3163</v>
+      </c>
+      <c r="B3165" s="1">
+        <v>2363000</v>
+      </c>
+      <c r="C3165" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3165" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3165" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3165">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3165" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3165" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3166" s="1">
+        <v>3164</v>
+      </c>
+      <c r="B3166" s="1">
+        <v>2364000</v>
+      </c>
+      <c r="C3166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3166" s="1">
+        <f t="shared" si="331"/>
+        <v>75389000</v>
+      </c>
+      <c r="E3166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3166">
+        <f t="shared" si="332"/>
+        <v>75389000</v>
+      </c>
+      <c r="G3166" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3166" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3167" s="1">
+        <v>3165</v>
+      </c>
+      <c r="B3167" s="1">
+        <v>2365000</v>
+      </c>
+      <c r="C3167" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3167" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3167" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3167">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3167" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3167" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3168" s="1">
+        <v>3166</v>
+      </c>
+      <c r="B3168" s="1">
+        <v>2366000</v>
+      </c>
+      <c r="C3168" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3168" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3168" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3168">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3168" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3168" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3169" s="1">
+        <v>3167</v>
+      </c>
+      <c r="B3169" s="1">
+        <v>2367000</v>
+      </c>
+      <c r="C3169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3169" s="1">
+        <f t="shared" si="331"/>
+        <v>75479000</v>
+      </c>
+      <c r="E3169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3169">
+        <f t="shared" si="332"/>
+        <v>75479000</v>
+      </c>
+      <c r="G3169" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3169" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3170" s="1">
+        <v>3168</v>
+      </c>
+      <c r="B3170" s="1">
+        <v>2368000</v>
+      </c>
+      <c r="C3170" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3170" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3170" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3170">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3170" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3170" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3171" s="1">
+        <v>3169</v>
+      </c>
+      <c r="B3171" s="1">
+        <v>2369000</v>
+      </c>
+      <c r="C3171" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3171" s="1">
+        <f t="shared" si="331"/>
+        <v>75539000</v>
+      </c>
+      <c r="E3171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3171">
+        <f t="shared" si="332"/>
+        <v>75539000</v>
+      </c>
+      <c r="G3171" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3171" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3172" s="1">
+        <v>3170</v>
+      </c>
+      <c r="B3172" s="1">
+        <v>2370000</v>
+      </c>
+      <c r="C3172" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3172" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3172" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3172">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3172" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3172" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3173" s="1">
+        <v>3171</v>
+      </c>
+      <c r="B3173" s="1">
+        <v>2371000</v>
+      </c>
+      <c r="C3173" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3173" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3173" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3173">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3173" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3173" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3174" s="1">
+        <v>3172</v>
+      </c>
+      <c r="B3174" s="1">
+        <v>2372000</v>
+      </c>
+      <c r="C3174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3174" s="1">
+        <f t="shared" si="331"/>
+        <v>75629000</v>
+      </c>
+      <c r="E3174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3174">
+        <f t="shared" si="332"/>
+        <v>75629000</v>
+      </c>
+      <c r="G3174" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3174" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3175" s="1">
+        <v>3173</v>
+      </c>
+      <c r="B3175" s="1">
+        <v>2373000</v>
+      </c>
+      <c r="C3175" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3175" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3175" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3175">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3175" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3175" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3176" s="1">
+        <v>3174</v>
+      </c>
+      <c r="B3176" s="1">
+        <v>2374000</v>
+      </c>
+      <c r="C3176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3176" s="1">
+        <f t="shared" si="331"/>
+        <v>75689000</v>
+      </c>
+      <c r="E3176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3176">
+        <f t="shared" si="332"/>
+        <v>75689000</v>
+      </c>
+      <c r="G3176" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3176" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3177" s="1">
+        <v>3175</v>
+      </c>
+      <c r="B3177" s="1">
+        <v>2375000</v>
+      </c>
+      <c r="C3177" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3177" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3177" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3177">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3177" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3177" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3178" s="1">
+        <v>3176</v>
+      </c>
+      <c r="B3178" s="1">
+        <v>2376000</v>
+      </c>
+      <c r="C3178" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3178" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3178" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3178">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3178" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3178" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3179" s="1">
+        <v>3177</v>
+      </c>
+      <c r="B3179" s="1">
+        <v>2377000</v>
+      </c>
+      <c r="C3179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3179" s="1">
+        <f t="shared" si="331"/>
+        <v>75779000</v>
+      </c>
+      <c r="E3179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3179">
+        <f t="shared" si="332"/>
+        <v>75779000</v>
+      </c>
+      <c r="G3179" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3179" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3180" s="1">
+        <v>3178</v>
+      </c>
+      <c r="B3180" s="1">
+        <v>2378000</v>
+      </c>
+      <c r="C3180" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3180" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3180" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3180">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3180" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3180" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3181" s="1">
+        <v>3179</v>
+      </c>
+      <c r="B3181" s="1">
+        <v>2379000</v>
+      </c>
+      <c r="C3181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3181" s="1">
+        <f t="shared" si="331"/>
+        <v>75839000</v>
+      </c>
+      <c r="E3181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3181">
+        <f t="shared" si="332"/>
+        <v>75839000</v>
+      </c>
+      <c r="G3181" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3181" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3182" s="1">
+        <v>3180</v>
+      </c>
+      <c r="B3182" s="1">
+        <v>2380000</v>
+      </c>
+      <c r="C3182" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3182" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3182" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3182">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3182" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3182" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3183" s="1">
+        <v>3181</v>
+      </c>
+      <c r="B3183" s="1">
+        <v>2381000</v>
+      </c>
+      <c r="C3183" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3183" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3183" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3183">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3183" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3183" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3184" s="1">
+        <v>3182</v>
+      </c>
+      <c r="B3184" s="1">
+        <v>2382000</v>
+      </c>
+      <c r="C3184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3184" s="1">
+        <f t="shared" si="331"/>
+        <v>75929000</v>
+      </c>
+      <c r="E3184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3184">
+        <f t="shared" si="332"/>
+        <v>75929000</v>
+      </c>
+      <c r="G3184" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3184" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3185" s="1">
+        <v>3183</v>
+      </c>
+      <c r="B3185" s="1">
+        <v>2383000</v>
+      </c>
+      <c r="C3185" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3185" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3185" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3185">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3185" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3185" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3186" s="1">
+        <v>3184</v>
+      </c>
+      <c r="B3186" s="1">
+        <v>2384000</v>
+      </c>
+      <c r="C3186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3186" s="1">
+        <f t="shared" si="331"/>
+        <v>75989000</v>
+      </c>
+      <c r="E3186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3186">
+        <f t="shared" si="332"/>
+        <v>75989000</v>
+      </c>
+      <c r="G3186" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3186" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3187" s="1">
+        <v>3185</v>
+      </c>
+      <c r="B3187" s="1">
+        <v>2385000</v>
+      </c>
+      <c r="C3187" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3187" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3187" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3187">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3187" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3187" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3188" s="1">
+        <v>3186</v>
+      </c>
+      <c r="B3188" s="1">
+        <v>2386000</v>
+      </c>
+      <c r="C3188" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3188" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3188" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3188">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3188" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3188" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3189" s="1">
+        <v>3187</v>
+      </c>
+      <c r="B3189" s="1">
+        <v>2387000</v>
+      </c>
+      <c r="C3189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3189" s="1">
+        <f t="shared" si="331"/>
+        <v>76079000</v>
+      </c>
+      <c r="E3189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3189">
+        <f t="shared" si="332"/>
+        <v>76079000</v>
+      </c>
+      <c r="G3189" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3189" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3190" s="1">
+        <v>3188</v>
+      </c>
+      <c r="B3190" s="1">
+        <v>2388000</v>
+      </c>
+      <c r="C3190" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3190" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3190" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3190">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3190" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3190" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3191" s="1">
+        <v>3189</v>
+      </c>
+      <c r="B3191" s="1">
+        <v>2389000</v>
+      </c>
+      <c r="C3191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3191" s="1">
+        <f t="shared" si="331"/>
+        <v>76139000</v>
+      </c>
+      <c r="E3191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3191">
+        <f t="shared" si="332"/>
+        <v>76139000</v>
+      </c>
+      <c r="G3191" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3191" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3192" s="1">
+        <v>3190</v>
+      </c>
+      <c r="B3192" s="1">
+        <v>2390000</v>
+      </c>
+      <c r="C3192" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3192" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3192" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3192">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3192" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3192" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3193" s="1">
+        <v>3191</v>
+      </c>
+      <c r="B3193" s="1">
+        <v>2391000</v>
+      </c>
+      <c r="C3193" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3193" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3193" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3193">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3193" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3193" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3194" s="1">
+        <v>3192</v>
+      </c>
+      <c r="B3194" s="1">
+        <v>2392000</v>
+      </c>
+      <c r="C3194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3194" s="1">
+        <f t="shared" si="331"/>
+        <v>76229000</v>
+      </c>
+      <c r="E3194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3194">
+        <f t="shared" si="332"/>
+        <v>76229000</v>
+      </c>
+      <c r="G3194" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3194" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3195" s="1">
+        <v>3193</v>
+      </c>
+      <c r="B3195" s="1">
+        <v>2393000</v>
+      </c>
+      <c r="C3195" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3195" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3195" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3195">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3195" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3195" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3196" s="1">
+        <v>3194</v>
+      </c>
+      <c r="B3196" s="1">
+        <v>2394000</v>
+      </c>
+      <c r="C3196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3196" s="1">
+        <f t="shared" si="331"/>
+        <v>76289000</v>
+      </c>
+      <c r="E3196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3196">
+        <f t="shared" si="332"/>
+        <v>76289000</v>
+      </c>
+      <c r="G3196" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3196" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3197" s="1">
+        <v>3195</v>
+      </c>
+      <c r="B3197" s="1">
+        <v>2395000</v>
+      </c>
+      <c r="C3197" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3197" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3197" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3197">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3197" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3197" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3198" s="1">
+        <v>3196</v>
+      </c>
+      <c r="B3198" s="1">
+        <v>2396000</v>
+      </c>
+      <c r="C3198" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3198" s="1">
+        <f t="shared" si="331"/>
+        <v>1700</v>
+      </c>
+      <c r="E3198" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3198">
+        <f t="shared" si="332"/>
+        <v>1700</v>
+      </c>
+      <c r="G3198" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3198" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3199" s="1">
+        <v>3197</v>
+      </c>
+      <c r="B3199" s="1">
+        <v>2397000</v>
+      </c>
+      <c r="C3199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3199" s="1">
+        <f t="shared" si="331"/>
+        <v>76379000</v>
+      </c>
+      <c r="E3199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3199">
+        <f t="shared" si="332"/>
+        <v>76379000</v>
+      </c>
+      <c r="G3199" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3199" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3200" s="1">
+        <v>3198</v>
+      </c>
+      <c r="B3200" s="1">
+        <v>2398000</v>
+      </c>
+      <c r="C3200" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3200" s="1">
+        <f t="shared" si="331"/>
+        <v>10500</v>
+      </c>
+      <c r="E3200" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3200">
+        <f t="shared" si="332"/>
+        <v>10500</v>
+      </c>
+      <c r="G3200" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3200" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3201" s="1">
+        <v>3199</v>
+      </c>
+      <c r="B3201" s="1">
+        <v>2399000</v>
+      </c>
+      <c r="C3201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3201" s="1">
+        <f t="shared" si="331"/>
+        <v>76439000</v>
+      </c>
+      <c r="E3201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3201">
+        <f t="shared" si="332"/>
+        <v>76439000</v>
+      </c>
+      <c r="G3201" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3201" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3202" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B3202" s="1">
+        <v>2400000</v>
+      </c>
+      <c r="C3202" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3202" s="1">
+        <f t="shared" si="331"/>
+        <v>170</v>
+      </c>
+      <c r="E3202" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3202">
+        <f t="shared" si="332"/>
+        <v>170</v>
+      </c>
+      <c r="G3202" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3202" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3202" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C2402" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:I3102">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:I3102 A3103:B3202 D3103:D3202 F3103:I3202 C3163:C3202 E3163:E3202">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD($A2,100)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3103:E3162">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>MOD($A3103,100)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3103:C3162">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD($A3103,100)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/LevelPass.xlsx
+++ b/Assets/06.Table/LevelPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57FC490-90C0-4551-8000-D9328DB3ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE18FD56-9D8C-4ABF-B8D4-0E55D0D67E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -230,6 +230,17 @@
   </si>
   <si>
     <t>levelpass27</t>
+  </si>
+  <si>
+    <t>levelpass27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass28</t>
+  </si>
+  <si>
+    <t>levelpass28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -773,11 +784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J3202"/>
+  <dimension ref="A1:J3302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3213" sqref="F3213"/>
+      <pane ySplit="1" topLeftCell="A3192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3203" sqref="K3203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -94560,14 +94571,14 @@
         <v>20</v>
       </c>
       <c r="D3160" s="1">
-        <f t="shared" ref="D3160:D3202" si="331">IF($C3160=46,$G3160*100-900,IF(OR($C3160=1,$C3160=5),$A3160*30000-19531000,IF($C3160=20,$G3160*500-2500,IF($C3160=14,$G3160*10-90,0))))</f>
+        <f t="shared" ref="D3160:D3223" si="331">IF($C3160=46,$G3160*100-900,IF(OR($C3160=1,$C3160=5),$A3160*30000-19531000,IF($C3160=20,$G3160*500-2500,IF($C3160=14,$G3160*10-90,0))))</f>
         <v>10500</v>
       </c>
       <c r="E3160" s="1">
         <v>20</v>
       </c>
       <c r="F3160">
-        <f t="shared" ref="F3160:F3202" si="332">IF($C3160=46,$G3160*100-900,IF(OR($C3160=1,$C3160=5),$A3160*30000-19531000,IF($C3160=20,$G3160*500-2500,IF($C3160=14,$G3160*10-90,0))))</f>
+        <f t="shared" ref="F3160:F3223" si="332">IF($C3160=46,$G3160*100-900,IF(OR($C3160=1,$C3160=5),$A3160*30000-19531000,IF($C3160=20,$G3160*500-2500,IF($C3160=14,$G3160*10-90,0))))</f>
         <v>10500</v>
       </c>
       <c r="G3160" s="1">
@@ -95876,16 +95887,3116 @@
         <v>26</v>
       </c>
       <c r="H3202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3203" s="1">
+        <v>3201</v>
+      </c>
+      <c r="B3203" s="1">
+        <v>2401000</v>
+      </c>
+      <c r="C3203" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3203" s="1">
+        <f t="shared" si="331"/>
+        <v>1800</v>
+      </c>
+      <c r="E3203" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3203" s="4">
+        <f t="shared" si="332"/>
+        <v>1800</v>
+      </c>
+      <c r="G3203" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3203" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3204" s="1">
+        <v>3202</v>
+      </c>
+      <c r="B3204" s="1">
+        <v>2402000</v>
+      </c>
+      <c r="C3204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3204" s="1">
+        <f t="shared" si="331"/>
+        <v>76529000</v>
+      </c>
+      <c r="E3204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3204" s="4">
+        <f t="shared" si="332"/>
+        <v>76529000</v>
+      </c>
+      <c r="G3204" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3204" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3205" s="1">
+        <v>3203</v>
+      </c>
+      <c r="B3205" s="1">
+        <v>2403000</v>
+      </c>
+      <c r="C3205" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3205" s="1">
+        <f t="shared" si="331"/>
+        <v>11000</v>
+      </c>
+      <c r="E3205" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3205">
+        <f t="shared" si="332"/>
+        <v>11000</v>
+      </c>
+      <c r="G3205" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3205" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3206" s="1">
+        <v>3204</v>
+      </c>
+      <c r="B3206" s="1">
+        <v>2404000</v>
+      </c>
+      <c r="C3206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3206" s="1">
+        <f t="shared" si="331"/>
+        <v>76589000</v>
+      </c>
+      <c r="E3206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3206" s="4">
+        <f t="shared" si="332"/>
+        <v>76589000</v>
+      </c>
+      <c r="G3206" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3206" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3207" s="1">
+        <v>3205</v>
+      </c>
+      <c r="B3207" s="1">
+        <v>2405000</v>
+      </c>
+      <c r="C3207" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3207" s="1">
+        <f t="shared" si="331"/>
+        <v>180</v>
+      </c>
+      <c r="E3207" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3207" s="4">
+        <f t="shared" si="332"/>
+        <v>180</v>
+      </c>
+      <c r="G3207" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3207" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3208" s="1">
+        <v>3206</v>
+      </c>
+      <c r="B3208" s="1">
+        <v>2406000</v>
+      </c>
+      <c r="C3208" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3208" s="1">
+        <f t="shared" si="331"/>
+        <v>1800</v>
+      </c>
+      <c r="E3208" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3208">
+        <f t="shared" si="332"/>
+        <v>1800</v>
+      </c>
+      <c r="G3208" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3208" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3209" s="1">
+        <v>3207</v>
+      </c>
+      <c r="B3209" s="1">
+        <v>2407000</v>
+      </c>
+      <c r="C3209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3209" s="1">
+        <f t="shared" si="331"/>
+        <v>76679000</v>
+      </c>
+      <c r="E3209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3209" s="4">
+        <f t="shared" si="332"/>
+        <v>76679000</v>
+      </c>
+      <c r="G3209" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3209" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3210" s="1">
+        <v>3208</v>
+      </c>
+      <c r="B3210" s="1">
+        <v>2408000</v>
+      </c>
+      <c r="C3210" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3210" s="1">
+        <f t="shared" si="331"/>
+        <v>11000</v>
+      </c>
+      <c r="E3210" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3210" s="4">
+        <f t="shared" si="332"/>
+        <v>11000</v>
+      </c>
+      <c r="G3210" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3210" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3211" s="1">
+        <v>3209</v>
+      </c>
+      <c r="B3211" s="1">
+        <v>2409000</v>
+      </c>
+      <c r="C3211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3211" s="1">
+        <f t="shared" si="331"/>
+        <v>76739000</v>
+      </c>
+      <c r="E3211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3211">
+        <f t="shared" si="332"/>
+        <v>76739000</v>
+      </c>
+      <c r="G3211" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3211" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3212" s="1">
+        <v>3210</v>
+      </c>
+      <c r="B3212" s="1">
+        <v>2410000</v>
+      </c>
+      <c r="C3212" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3212" s="1">
+        <f t="shared" si="331"/>
+        <v>180</v>
+      </c>
+      <c r="E3212" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3212" s="4">
+        <f t="shared" si="332"/>
+        <v>180</v>
+      </c>
+      <c r="G3212" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3212" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3213" s="1">
+        <v>3211</v>
+      </c>
+      <c r="B3213" s="1">
+        <v>2411000</v>
+      </c>
+      <c r="C3213" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3213" s="1">
+        <f t="shared" si="331"/>
+        <v>1800</v>
+      </c>
+      <c r="E3213" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3213" s="4">
+        <f t="shared" si="332"/>
+        <v>1800</v>
+      </c>
+      <c r="G3213" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3213" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3214" s="1">
+        <v>3212</v>
+      </c>
+      <c r="B3214" s="1">
+        <v>2412000</v>
+      </c>
+      <c r="C3214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3214" s="1">
+        <f t="shared" si="331"/>
+        <v>76829000</v>
+      </c>
+      <c r="E3214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3214">
+        <f t="shared" si="332"/>
+        <v>76829000</v>
+      </c>
+      <c r="G3214" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3214" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3215" s="1">
+        <v>3213</v>
+      </c>
+      <c r="B3215" s="1">
+        <v>2413000</v>
+      </c>
+      <c r="C3215" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3215" s="1">
+        <f t="shared" si="331"/>
+        <v>11000</v>
+      </c>
+      <c r="E3215" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3215" s="4">
+        <f t="shared" si="332"/>
+        <v>11000</v>
+      </c>
+      <c r="G3215" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3215" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3216" s="1">
+        <v>3214</v>
+      </c>
+      <c r="B3216" s="1">
+        <v>2414000</v>
+      </c>
+      <c r="C3216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3216" s="1">
+        <f t="shared" si="331"/>
+        <v>76889000</v>
+      </c>
+      <c r="E3216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3216" s="4">
+        <f t="shared" si="332"/>
+        <v>76889000</v>
+      </c>
+      <c r="G3216" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3216" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3217" s="1">
+        <v>3215</v>
+      </c>
+      <c r="B3217" s="1">
+        <v>2415000</v>
+      </c>
+      <c r="C3217" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3217" s="1">
+        <f t="shared" si="331"/>
+        <v>180</v>
+      </c>
+      <c r="E3217" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3217">
+        <f t="shared" si="332"/>
+        <v>180</v>
+      </c>
+      <c r="G3217" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3217" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3218" s="1">
+        <v>3216</v>
+      </c>
+      <c r="B3218" s="1">
+        <v>2416000</v>
+      </c>
+      <c r="C3218" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3218" s="1">
+        <f t="shared" si="331"/>
+        <v>1800</v>
+      </c>
+      <c r="E3218" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3218" s="4">
+        <f t="shared" si="332"/>
+        <v>1800</v>
+      </c>
+      <c r="G3218" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3218" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3219" s="1">
+        <v>3217</v>
+      </c>
+      <c r="B3219" s="1">
+        <v>2417000</v>
+      </c>
+      <c r="C3219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3219" s="1">
+        <f t="shared" si="331"/>
+        <v>76979000</v>
+      </c>
+      <c r="E3219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3219" s="4">
+        <f t="shared" si="332"/>
+        <v>76979000</v>
+      </c>
+      <c r="G3219" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3219" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3220" s="1">
+        <v>3218</v>
+      </c>
+      <c r="B3220" s="1">
+        <v>2418000</v>
+      </c>
+      <c r="C3220" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3220" s="1">
+        <f t="shared" si="331"/>
+        <v>11000</v>
+      </c>
+      <c r="E3220" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3220">
+        <f t="shared" si="332"/>
+        <v>11000</v>
+      </c>
+      <c r="G3220" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3220" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3221" s="1">
+        <v>3219</v>
+      </c>
+      <c r="B3221" s="1">
+        <v>2419000</v>
+      </c>
+      <c r="C3221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3221" s="1">
+        <f t="shared" si="331"/>
+        <v>77039000</v>
+      </c>
+      <c r="E3221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3221" s="4">
+        <f t="shared" si="332"/>
+        <v>77039000</v>
+      </c>
+      <c r="G3221" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3221" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3222" s="1">
+        <v>3220</v>
+      </c>
+      <c r="B3222" s="1">
+        <v>2420000</v>
+      </c>
+      <c r="C3222" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3222" s="1">
+        <f t="shared" si="331"/>
+        <v>180</v>
+      </c>
+      <c r="E3222" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3222" s="4">
+        <f t="shared" si="332"/>
+        <v>180</v>
+      </c>
+      <c r="G3222" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3222" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3223" s="1">
+        <v>3221</v>
+      </c>
+      <c r="B3223" s="1">
+        <v>2421000</v>
+      </c>
+      <c r="C3223" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3223" s="1">
+        <f t="shared" si="331"/>
+        <v>1800</v>
+      </c>
+      <c r="E3223" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3223">
+        <f t="shared" si="332"/>
+        <v>1800</v>
+      </c>
+      <c r="G3223" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3223" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3224" s="1">
+        <v>3222</v>
+      </c>
+      <c r="B3224" s="1">
+        <v>2422000</v>
+      </c>
+      <c r="C3224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3224" s="1">
+        <f t="shared" ref="D3224:D3287" si="333">IF($C3224=46,$G3224*100-900,IF(OR($C3224=1,$C3224=5),$A3224*30000-19531000,IF($C3224=20,$G3224*500-2500,IF($C3224=14,$G3224*10-90,0))))</f>
+        <v>77129000</v>
+      </c>
+      <c r="E3224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3224" s="4">
+        <f t="shared" ref="F3224:F3287" si="334">IF($C3224=46,$G3224*100-900,IF(OR($C3224=1,$C3224=5),$A3224*30000-19531000,IF($C3224=20,$G3224*500-2500,IF($C3224=14,$G3224*10-90,0))))</f>
+        <v>77129000</v>
+      </c>
+      <c r="G3224" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3224" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3225" s="1">
+        <v>3223</v>
+      </c>
+      <c r="B3225" s="1">
+        <v>2423000</v>
+      </c>
+      <c r="C3225" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3225" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3225" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3225" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3225" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3225" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3226" s="1">
+        <v>3224</v>
+      </c>
+      <c r="B3226" s="1">
+        <v>2424000</v>
+      </c>
+      <c r="C3226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3226" s="1">
+        <f t="shared" si="333"/>
+        <v>77189000</v>
+      </c>
+      <c r="E3226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3226">
+        <f t="shared" si="334"/>
+        <v>77189000</v>
+      </c>
+      <c r="G3226" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3226" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3227" s="1">
+        <v>3225</v>
+      </c>
+      <c r="B3227" s="1">
+        <v>2425000</v>
+      </c>
+      <c r="C3227" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3227" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3227" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3227" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3227" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3227" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3228" s="1">
+        <v>3226</v>
+      </c>
+      <c r="B3228" s="1">
+        <v>2426000</v>
+      </c>
+      <c r="C3228" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3228" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3228" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3228" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3228" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3228" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3229" s="1">
+        <v>3227</v>
+      </c>
+      <c r="B3229" s="1">
+        <v>2427000</v>
+      </c>
+      <c r="C3229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3229" s="1">
+        <f t="shared" si="333"/>
+        <v>77279000</v>
+      </c>
+      <c r="E3229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3229">
+        <f t="shared" si="334"/>
+        <v>77279000</v>
+      </c>
+      <c r="G3229" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3229" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3230" s="1">
+        <v>3228</v>
+      </c>
+      <c r="B3230" s="1">
+        <v>2428000</v>
+      </c>
+      <c r="C3230" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3230" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3230" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3230" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3230" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3230" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3231" s="1">
+        <v>3229</v>
+      </c>
+      <c r="B3231" s="1">
+        <v>2429000</v>
+      </c>
+      <c r="C3231" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3231" s="1">
+        <f t="shared" si="333"/>
+        <v>77339000</v>
+      </c>
+      <c r="E3231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3231" s="4">
+        <f t="shared" si="334"/>
+        <v>77339000</v>
+      </c>
+      <c r="G3231" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3231" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3232" s="1">
+        <v>3230</v>
+      </c>
+      <c r="B3232" s="1">
+        <v>2430000</v>
+      </c>
+      <c r="C3232" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3232" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3232" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3232">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3232" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3232" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3233" s="1">
+        <v>3231</v>
+      </c>
+      <c r="B3233" s="1">
+        <v>2431000</v>
+      </c>
+      <c r="C3233" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3233" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3233" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3233" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3233" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3233" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3234" s="1">
+        <v>3232</v>
+      </c>
+      <c r="B3234" s="1">
+        <v>2432000</v>
+      </c>
+      <c r="C3234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3234" s="1">
+        <f t="shared" si="333"/>
+        <v>77429000</v>
+      </c>
+      <c r="E3234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3234" s="4">
+        <f t="shared" si="334"/>
+        <v>77429000</v>
+      </c>
+      <c r="G3234" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3234" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3235" s="1">
+        <v>3233</v>
+      </c>
+      <c r="B3235" s="1">
+        <v>2433000</v>
+      </c>
+      <c r="C3235" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3235" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3235" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3235">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3235" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3235" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3236" s="1">
+        <v>3234</v>
+      </c>
+      <c r="B3236" s="1">
+        <v>2434000</v>
+      </c>
+      <c r="C3236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3236" s="1">
+        <f t="shared" si="333"/>
+        <v>77489000</v>
+      </c>
+      <c r="E3236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3236" s="4">
+        <f t="shared" si="334"/>
+        <v>77489000</v>
+      </c>
+      <c r="G3236" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3236" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3237" s="1">
+        <v>3235</v>
+      </c>
+      <c r="B3237" s="1">
+        <v>2435000</v>
+      </c>
+      <c r="C3237" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3237" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3237" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3237" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3237" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3237" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3238" s="1">
+        <v>3236</v>
+      </c>
+      <c r="B3238" s="1">
+        <v>2436000</v>
+      </c>
+      <c r="C3238" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3238" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3238" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3238">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3238" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3238" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3239" s="1">
+        <v>3237</v>
+      </c>
+      <c r="B3239" s="1">
+        <v>2437000</v>
+      </c>
+      <c r="C3239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3239" s="1">
+        <f t="shared" si="333"/>
+        <v>77579000</v>
+      </c>
+      <c r="E3239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3239" s="4">
+        <f t="shared" si="334"/>
+        <v>77579000</v>
+      </c>
+      <c r="G3239" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3239" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3240" s="1">
+        <v>3238</v>
+      </c>
+      <c r="B3240" s="1">
+        <v>2438000</v>
+      </c>
+      <c r="C3240" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3240" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3240" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3240" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3240" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3240" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3241" s="1">
+        <v>3239</v>
+      </c>
+      <c r="B3241" s="1">
+        <v>2439000</v>
+      </c>
+      <c r="C3241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3241" s="1">
+        <f t="shared" si="333"/>
+        <v>77639000</v>
+      </c>
+      <c r="E3241" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3241">
+        <f t="shared" si="334"/>
+        <v>77639000</v>
+      </c>
+      <c r="G3241" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3241" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3242" s="1">
+        <v>3240</v>
+      </c>
+      <c r="B3242" s="1">
+        <v>2440000</v>
+      </c>
+      <c r="C3242" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3242" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3242" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3242" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3242" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3242" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3243" s="1">
+        <v>3241</v>
+      </c>
+      <c r="B3243" s="1">
+        <v>2441000</v>
+      </c>
+      <c r="C3243" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3243" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3243" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3243" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3243" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3243" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3244" s="1">
+        <v>3242</v>
+      </c>
+      <c r="B3244" s="1">
+        <v>2442000</v>
+      </c>
+      <c r="C3244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3244" s="1">
+        <f t="shared" si="333"/>
+        <v>77729000</v>
+      </c>
+      <c r="E3244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3244">
+        <f t="shared" si="334"/>
+        <v>77729000</v>
+      </c>
+      <c r="G3244" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3244" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3245" s="1">
+        <v>3243</v>
+      </c>
+      <c r="B3245" s="1">
+        <v>2443000</v>
+      </c>
+      <c r="C3245" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3245" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3245" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3245" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3245" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3245" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3246" s="1">
+        <v>3244</v>
+      </c>
+      <c r="B3246" s="1">
+        <v>2444000</v>
+      </c>
+      <c r="C3246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3246" s="1">
+        <f t="shared" si="333"/>
+        <v>77789000</v>
+      </c>
+      <c r="E3246" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3246" s="4">
+        <f t="shared" si="334"/>
+        <v>77789000</v>
+      </c>
+      <c r="G3246" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3246" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3247" s="1">
+        <v>3245</v>
+      </c>
+      <c r="B3247" s="1">
+        <v>2445000</v>
+      </c>
+      <c r="C3247" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3247" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3247" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3247">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3247" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3247" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3248" s="1">
+        <v>3246</v>
+      </c>
+      <c r="B3248" s="1">
+        <v>2446000</v>
+      </c>
+      <c r="C3248" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3248" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3248" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3248" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3248" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3248" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3249" s="1">
+        <v>3247</v>
+      </c>
+      <c r="B3249" s="1">
+        <v>2447000</v>
+      </c>
+      <c r="C3249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3249" s="1">
+        <f t="shared" si="333"/>
+        <v>77879000</v>
+      </c>
+      <c r="E3249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3249" s="4">
+        <f t="shared" si="334"/>
+        <v>77879000</v>
+      </c>
+      <c r="G3249" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3249" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3250" s="1">
+        <v>3248</v>
+      </c>
+      <c r="B3250" s="1">
+        <v>2448000</v>
+      </c>
+      <c r="C3250" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3250" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3250" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3250">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3250" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3250" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3251" s="1">
+        <v>3249</v>
+      </c>
+      <c r="B3251" s="1">
+        <v>2449000</v>
+      </c>
+      <c r="C3251" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3251" s="1">
+        <f t="shared" si="333"/>
+        <v>77939000</v>
+      </c>
+      <c r="E3251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3251" s="4">
+        <f t="shared" si="334"/>
+        <v>77939000</v>
+      </c>
+      <c r="G3251" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3251" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3252" s="1">
+        <v>3250</v>
+      </c>
+      <c r="B3252" s="1">
+        <v>2450000</v>
+      </c>
+      <c r="C3252" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3252" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3252" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3252" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3252" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3252" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3253" s="1">
+        <v>3251</v>
+      </c>
+      <c r="B3253" s="1">
+        <v>2451000</v>
+      </c>
+      <c r="C3253" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3253" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3253" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3253">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3253" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3253" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3254" s="1">
+        <v>3252</v>
+      </c>
+      <c r="B3254" s="1">
+        <v>2452000</v>
+      </c>
+      <c r="C3254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3254" s="1">
+        <f t="shared" si="333"/>
+        <v>78029000</v>
+      </c>
+      <c r="E3254" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3254" s="4">
+        <f t="shared" si="334"/>
+        <v>78029000</v>
+      </c>
+      <c r="G3254" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3254" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3255" s="1">
+        <v>3253</v>
+      </c>
+      <c r="B3255" s="1">
+        <v>2453000</v>
+      </c>
+      <c r="C3255" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3255" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3255" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3255" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3255" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3255" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3256" s="1">
+        <v>3254</v>
+      </c>
+      <c r="B3256" s="1">
+        <v>2454000</v>
+      </c>
+      <c r="C3256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3256" s="1">
+        <f t="shared" si="333"/>
+        <v>78089000</v>
+      </c>
+      <c r="E3256" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3256">
+        <f t="shared" si="334"/>
+        <v>78089000</v>
+      </c>
+      <c r="G3256" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3256" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3257" s="1">
+        <v>3255</v>
+      </c>
+      <c r="B3257" s="1">
+        <v>2455000</v>
+      </c>
+      <c r="C3257" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3257" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3257" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3257" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3257" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3257" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3258" s="1">
+        <v>3256</v>
+      </c>
+      <c r="B3258" s="1">
+        <v>2456000</v>
+      </c>
+      <c r="C3258" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3258" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3258" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3258" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3258" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3258" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3259" s="1">
+        <v>3257</v>
+      </c>
+      <c r="B3259" s="1">
+        <v>2457000</v>
+      </c>
+      <c r="C3259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3259" s="1">
+        <f t="shared" si="333"/>
+        <v>78179000</v>
+      </c>
+      <c r="E3259" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3259">
+        <f t="shared" si="334"/>
+        <v>78179000</v>
+      </c>
+      <c r="G3259" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3259" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3260" s="1">
+        <v>3258</v>
+      </c>
+      <c r="B3260" s="1">
+        <v>2458000</v>
+      </c>
+      <c r="C3260" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3260" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3260" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3260" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3260" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3260" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3261" s="1">
+        <v>3259</v>
+      </c>
+      <c r="B3261" s="1">
+        <v>2459000</v>
+      </c>
+      <c r="C3261" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3261" s="1">
+        <f t="shared" si="333"/>
+        <v>78239000</v>
+      </c>
+      <c r="E3261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3261" s="4">
+        <f t="shared" si="334"/>
+        <v>78239000</v>
+      </c>
+      <c r="G3261" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3261" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3262" s="1">
+        <v>3260</v>
+      </c>
+      <c r="B3262" s="1">
+        <v>2460000</v>
+      </c>
+      <c r="C3262" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3262" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3262" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3262">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3262" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3262" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3263" s="1">
+        <v>3261</v>
+      </c>
+      <c r="B3263" s="1">
+        <v>2461000</v>
+      </c>
+      <c r="C3263" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3263" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3263" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3263" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3263" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3263" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3264" s="1">
+        <v>3262</v>
+      </c>
+      <c r="B3264" s="1">
+        <v>2462000</v>
+      </c>
+      <c r="C3264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3264" s="1">
+        <f t="shared" si="333"/>
+        <v>78329000</v>
+      </c>
+      <c r="E3264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3264" s="4">
+        <f t="shared" si="334"/>
+        <v>78329000</v>
+      </c>
+      <c r="G3264" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3264" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3265" s="1">
+        <v>3263</v>
+      </c>
+      <c r="B3265" s="1">
+        <v>2463000</v>
+      </c>
+      <c r="C3265" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3265" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3265" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3265">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3265" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3265" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3266" s="1">
+        <v>3264</v>
+      </c>
+      <c r="B3266" s="1">
+        <v>2464000</v>
+      </c>
+      <c r="C3266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3266" s="1">
+        <f t="shared" si="333"/>
+        <v>78389000</v>
+      </c>
+      <c r="E3266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3266" s="4">
+        <f t="shared" si="334"/>
+        <v>78389000</v>
+      </c>
+      <c r="G3266" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3266" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3267" s="1">
+        <v>3265</v>
+      </c>
+      <c r="B3267" s="1">
+        <v>2465000</v>
+      </c>
+      <c r="C3267" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3267" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3267" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3267" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3267" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3267" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3268" s="1">
+        <v>3266</v>
+      </c>
+      <c r="B3268" s="1">
+        <v>2466000</v>
+      </c>
+      <c r="C3268" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3268" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3268" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3268">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3268" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3268" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3269" s="1">
+        <v>3267</v>
+      </c>
+      <c r="B3269" s="1">
+        <v>2467000</v>
+      </c>
+      <c r="C3269" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3269" s="1">
+        <f t="shared" si="333"/>
+        <v>78479000</v>
+      </c>
+      <c r="E3269" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3269" s="4">
+        <f t="shared" si="334"/>
+        <v>78479000</v>
+      </c>
+      <c r="G3269" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3269" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3270" s="1">
+        <v>3268</v>
+      </c>
+      <c r="B3270" s="1">
+        <v>2468000</v>
+      </c>
+      <c r="C3270" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3270" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3270" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3270" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3270" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3270" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3271" s="1">
+        <v>3269</v>
+      </c>
+      <c r="B3271" s="1">
+        <v>2469000</v>
+      </c>
+      <c r="C3271" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3271" s="1">
+        <f t="shared" si="333"/>
+        <v>78539000</v>
+      </c>
+      <c r="E3271" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3271">
+        <f t="shared" si="334"/>
+        <v>78539000</v>
+      </c>
+      <c r="G3271" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3271" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3272" s="1">
+        <v>3270</v>
+      </c>
+      <c r="B3272" s="1">
+        <v>2470000</v>
+      </c>
+      <c r="C3272" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3272" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3272" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3272" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3272" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3272" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3273" s="1">
+        <v>3271</v>
+      </c>
+      <c r="B3273" s="1">
+        <v>2471000</v>
+      </c>
+      <c r="C3273" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3273" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3273" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3273" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3273" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3273" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3274" s="1">
+        <v>3272</v>
+      </c>
+      <c r="B3274" s="1">
+        <v>2472000</v>
+      </c>
+      <c r="C3274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3274" s="1">
+        <f t="shared" si="333"/>
+        <v>78629000</v>
+      </c>
+      <c r="E3274" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3274">
+        <f t="shared" si="334"/>
+        <v>78629000</v>
+      </c>
+      <c r="G3274" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3274" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3275" s="1">
+        <v>3273</v>
+      </c>
+      <c r="B3275" s="1">
+        <v>2473000</v>
+      </c>
+      <c r="C3275" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3275" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3275" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3275" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3275" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3275" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3276" s="1">
+        <v>3274</v>
+      </c>
+      <c r="B3276" s="1">
+        <v>2474000</v>
+      </c>
+      <c r="C3276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3276" s="1">
+        <f t="shared" si="333"/>
+        <v>78689000</v>
+      </c>
+      <c r="E3276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3276" s="4">
+        <f t="shared" si="334"/>
+        <v>78689000</v>
+      </c>
+      <c r="G3276" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3276" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3277" s="1">
+        <v>3275</v>
+      </c>
+      <c r="B3277" s="1">
+        <v>2475000</v>
+      </c>
+      <c r="C3277" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3277" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3277" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3277">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3277" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3277" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3278" s="1">
+        <v>3276</v>
+      </c>
+      <c r="B3278" s="1">
+        <v>2476000</v>
+      </c>
+      <c r="C3278" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3278" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3278" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3278" s="4">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3278" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3278" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3279" s="1">
+        <v>3277</v>
+      </c>
+      <c r="B3279" s="1">
+        <v>2477000</v>
+      </c>
+      <c r="C3279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3279" s="1">
+        <f t="shared" si="333"/>
+        <v>78779000</v>
+      </c>
+      <c r="E3279" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3279" s="4">
+        <f t="shared" si="334"/>
+        <v>78779000</v>
+      </c>
+      <c r="G3279" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3279" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3280" s="1">
+        <v>3278</v>
+      </c>
+      <c r="B3280" s="1">
+        <v>2478000</v>
+      </c>
+      <c r="C3280" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3280" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3280" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3280">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3280" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3280" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3281" s="1">
+        <v>3279</v>
+      </c>
+      <c r="B3281" s="1">
+        <v>2479000</v>
+      </c>
+      <c r="C3281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3281" s="1">
+        <f t="shared" si="333"/>
+        <v>78839000</v>
+      </c>
+      <c r="E3281" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3281" s="4">
+        <f t="shared" si="334"/>
+        <v>78839000</v>
+      </c>
+      <c r="G3281" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3281" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3282" s="1">
+        <v>3280</v>
+      </c>
+      <c r="B3282" s="1">
+        <v>2480000</v>
+      </c>
+      <c r="C3282" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3282" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3282" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3282" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3282" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3282" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3283" s="1">
+        <v>3281</v>
+      </c>
+      <c r="B3283" s="1">
+        <v>2481000</v>
+      </c>
+      <c r="C3283" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3283" s="1">
+        <f t="shared" si="333"/>
+        <v>1800</v>
+      </c>
+      <c r="E3283" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3283">
+        <f t="shared" si="334"/>
+        <v>1800</v>
+      </c>
+      <c r="G3283" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3283" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3284" s="1">
+        <v>3282</v>
+      </c>
+      <c r="B3284" s="1">
+        <v>2482000</v>
+      </c>
+      <c r="C3284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3284" s="1">
+        <f t="shared" si="333"/>
+        <v>78929000</v>
+      </c>
+      <c r="E3284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3284" s="4">
+        <f t="shared" si="334"/>
+        <v>78929000</v>
+      </c>
+      <c r="G3284" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3284" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3285" s="1">
+        <v>3283</v>
+      </c>
+      <c r="B3285" s="1">
+        <v>2483000</v>
+      </c>
+      <c r="C3285" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3285" s="1">
+        <f t="shared" si="333"/>
+        <v>11000</v>
+      </c>
+      <c r="E3285" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3285" s="4">
+        <f t="shared" si="334"/>
+        <v>11000</v>
+      </c>
+      <c r="G3285" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3285" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3286" s="1">
+        <v>3284</v>
+      </c>
+      <c r="B3286" s="1">
+        <v>2484000</v>
+      </c>
+      <c r="C3286" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3286" s="1">
+        <f t="shared" si="333"/>
+        <v>78989000</v>
+      </c>
+      <c r="E3286" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3286">
+        <f t="shared" si="334"/>
+        <v>78989000</v>
+      </c>
+      <c r="G3286" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3286" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3287" s="1">
+        <v>3285</v>
+      </c>
+      <c r="B3287" s="1">
+        <v>2485000</v>
+      </c>
+      <c r="C3287" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3287" s="1">
+        <f t="shared" si="333"/>
+        <v>180</v>
+      </c>
+      <c r="E3287" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3287" s="4">
+        <f t="shared" si="334"/>
+        <v>180</v>
+      </c>
+      <c r="G3287" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3287" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3288" s="1">
+        <v>3286</v>
+      </c>
+      <c r="B3288" s="1">
+        <v>2486000</v>
+      </c>
+      <c r="C3288" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3288" s="1">
+        <f t="shared" ref="D3288:D3302" si="335">IF($C3288=46,$G3288*100-900,IF(OR($C3288=1,$C3288=5),$A3288*30000-19531000,IF($C3288=20,$G3288*500-2500,IF($C3288=14,$G3288*10-90,0))))</f>
+        <v>1800</v>
+      </c>
+      <c r="E3288" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3288" s="4">
+        <f t="shared" ref="F3288:F3302" si="336">IF($C3288=46,$G3288*100-900,IF(OR($C3288=1,$C3288=5),$A3288*30000-19531000,IF($C3288=20,$G3288*500-2500,IF($C3288=14,$G3288*10-90,0))))</f>
+        <v>1800</v>
+      </c>
+      <c r="G3288" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3288" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3289" s="1">
+        <v>3287</v>
+      </c>
+      <c r="B3289" s="1">
+        <v>2487000</v>
+      </c>
+      <c r="C3289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3289" s="1">
+        <f t="shared" si="335"/>
+        <v>79079000</v>
+      </c>
+      <c r="E3289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3289">
+        <f t="shared" si="336"/>
+        <v>79079000</v>
+      </c>
+      <c r="G3289" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3289" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3290" s="1">
+        <v>3288</v>
+      </c>
+      <c r="B3290" s="1">
+        <v>2488000</v>
+      </c>
+      <c r="C3290" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3290" s="1">
+        <f t="shared" si="335"/>
+        <v>11000</v>
+      </c>
+      <c r="E3290" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3290" s="4">
+        <f t="shared" si="336"/>
+        <v>11000</v>
+      </c>
+      <c r="G3290" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3290" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3291" s="1">
+        <v>3289</v>
+      </c>
+      <c r="B3291" s="1">
+        <v>2489000</v>
+      </c>
+      <c r="C3291" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3291" s="1">
+        <f t="shared" si="335"/>
+        <v>79139000</v>
+      </c>
+      <c r="E3291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3291" s="4">
+        <f t="shared" si="336"/>
+        <v>79139000</v>
+      </c>
+      <c r="G3291" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3291" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3292" s="1">
+        <v>3290</v>
+      </c>
+      <c r="B3292" s="1">
+        <v>2490000</v>
+      </c>
+      <c r="C3292" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3292" s="1">
+        <f t="shared" si="335"/>
+        <v>180</v>
+      </c>
+      <c r="E3292" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3292">
+        <f t="shared" si="336"/>
+        <v>180</v>
+      </c>
+      <c r="G3292" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3292" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3293" s="1">
+        <v>3291</v>
+      </c>
+      <c r="B3293" s="1">
+        <v>2491000</v>
+      </c>
+      <c r="C3293" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3293" s="1">
+        <f t="shared" si="335"/>
+        <v>1800</v>
+      </c>
+      <c r="E3293" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3293" s="4">
+        <f t="shared" si="336"/>
+        <v>1800</v>
+      </c>
+      <c r="G3293" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3293" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3294" s="1">
+        <v>3292</v>
+      </c>
+      <c r="B3294" s="1">
+        <v>2492000</v>
+      </c>
+      <c r="C3294" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3294" s="1">
+        <f t="shared" si="335"/>
+        <v>79229000</v>
+      </c>
+      <c r="E3294" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3294" s="4">
+        <f t="shared" si="336"/>
+        <v>79229000</v>
+      </c>
+      <c r="G3294" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3294" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3295" s="1">
+        <v>3293</v>
+      </c>
+      <c r="B3295" s="1">
+        <v>2493000</v>
+      </c>
+      <c r="C3295" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3295" s="1">
+        <f t="shared" si="335"/>
+        <v>11000</v>
+      </c>
+      <c r="E3295" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3295">
+        <f t="shared" si="336"/>
+        <v>11000</v>
+      </c>
+      <c r="G3295" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3295" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3296" s="1">
+        <v>3294</v>
+      </c>
+      <c r="B3296" s="1">
+        <v>2494000</v>
+      </c>
+      <c r="C3296" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3296" s="1">
+        <f t="shared" si="335"/>
+        <v>79289000</v>
+      </c>
+      <c r="E3296" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3296" s="4">
+        <f t="shared" si="336"/>
+        <v>79289000</v>
+      </c>
+      <c r="G3296" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3296" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3297" s="1">
+        <v>3295</v>
+      </c>
+      <c r="B3297" s="1">
+        <v>2495000</v>
+      </c>
+      <c r="C3297" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3297" s="1">
+        <f t="shared" si="335"/>
+        <v>180</v>
+      </c>
+      <c r="E3297" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3297" s="4">
+        <f t="shared" si="336"/>
+        <v>180</v>
+      </c>
+      <c r="G3297" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3297" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3298" s="1">
+        <v>3296</v>
+      </c>
+      <c r="B3298" s="1">
+        <v>2496000</v>
+      </c>
+      <c r="C3298" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3298" s="1">
+        <f t="shared" si="335"/>
+        <v>1800</v>
+      </c>
+      <c r="E3298" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3298">
+        <f t="shared" si="336"/>
+        <v>1800</v>
+      </c>
+      <c r="G3298" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3298" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3299" s="1">
+        <v>3297</v>
+      </c>
+      <c r="B3299" s="1">
+        <v>2497000</v>
+      </c>
+      <c r="C3299" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3299" s="1">
+        <f t="shared" si="335"/>
+        <v>79379000</v>
+      </c>
+      <c r="E3299" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3299" s="4">
+        <f t="shared" si="336"/>
+        <v>79379000</v>
+      </c>
+      <c r="G3299" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3299" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3300" s="1">
+        <v>3298</v>
+      </c>
+      <c r="B3300" s="1">
+        <v>2498000</v>
+      </c>
+      <c r="C3300" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3300" s="1">
+        <f t="shared" si="335"/>
+        <v>11000</v>
+      </c>
+      <c r="E3300" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3300" s="4">
+        <f t="shared" si="336"/>
+        <v>11000</v>
+      </c>
+      <c r="G3300" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3300" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3301" s="1">
+        <v>3299</v>
+      </c>
+      <c r="B3301" s="1">
+        <v>2499000</v>
+      </c>
+      <c r="C3301" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3301" s="1">
+        <f t="shared" si="335"/>
+        <v>79439000</v>
+      </c>
+      <c r="E3301" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3301">
+        <f t="shared" si="336"/>
+        <v>79439000</v>
+      </c>
+      <c r="G3301" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3301" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3302" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B3302" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="C3302" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3302" s="1">
+        <f t="shared" si="335"/>
+        <v>180</v>
+      </c>
+      <c r="E3302" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3302" s="4">
+        <f t="shared" si="336"/>
+        <v>180</v>
+      </c>
+      <c r="G3302" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3302" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3302" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C2402" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:I3102 A3103:B3202 D3103:D3202 F3103:I3202 C3163:C3202 E3163:E3202">
+  <conditionalFormatting sqref="A2:I3102 F3103:I3202 A3103:B3302 C3163:C3302 E3163:E3302 D3103:D3302 F3205 F3208 F3211 F3214 F3217 F3220 F3223 F3226 F3229 F3232 F3235 F3238 F3241 F3244 F3247 F3250 F3253 F3256 F3259 F3262 F3265 F3268 F3271 F3274 F3277 F3280 F3283 F3286 F3289 F3292 F3295 F3298 F3301 G3203:I3302">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD($A2,100)=0</formula>
     </cfRule>
